--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.390598</v>
+        <v>0.194612</v>
       </c>
       <c r="C2" t="n">
-        <v>0.391838</v>
+        <v>0.201291</v>
       </c>
       <c r="D2" t="n">
-        <v>0.381916</v>
+        <v>0.208606</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.381104</v>
+        <v>0.191638</v>
       </c>
       <c r="C3" t="n">
-        <v>0.384279</v>
+        <v>0.201516</v>
       </c>
       <c r="D3" t="n">
-        <v>0.374985</v>
+        <v>0.209511</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.373773</v>
+        <v>0.185948</v>
       </c>
       <c r="C4" t="n">
-        <v>0.377648</v>
+        <v>0.200249</v>
       </c>
       <c r="D4" t="n">
-        <v>0.369305</v>
+        <v>0.208379</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.367573</v>
+        <v>0.181213</v>
       </c>
       <c r="C5" t="n">
-        <v>0.372181</v>
+        <v>0.200249</v>
       </c>
       <c r="D5" t="n">
-        <v>0.364746</v>
+        <v>0.207471</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.361369</v>
+        <v>0.176405</v>
       </c>
       <c r="C6" t="n">
-        <v>0.368035</v>
+        <v>0.200505</v>
       </c>
       <c r="D6" t="n">
-        <v>0.361455</v>
+        <v>0.208052</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.35695</v>
+        <v>0.168787</v>
       </c>
       <c r="C7" t="n">
-        <v>0.36463</v>
+        <v>0.199087</v>
       </c>
       <c r="D7" t="n">
-        <v>0.359377</v>
+        <v>0.207445</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.353834</v>
+        <v>0.161006</v>
       </c>
       <c r="C8" t="n">
-        <v>0.362779</v>
+        <v>0.198418</v>
       </c>
       <c r="D8" t="n">
-        <v>0.359505</v>
+        <v>0.206031</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.352256</v>
+        <v>0.150825</v>
       </c>
       <c r="C9" t="n">
-        <v>0.362667</v>
+        <v>0.198247</v>
       </c>
       <c r="D9" t="n">
-        <v>0.469557</v>
+        <v>0.227022</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.465987</v>
+        <v>0.228826</v>
       </c>
       <c r="C10" t="n">
-        <v>0.484106</v>
+        <v>0.221437</v>
       </c>
       <c r="D10" t="n">
-        <v>0.463844</v>
+        <v>0.225902</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.454668</v>
+        <v>0.226788</v>
       </c>
       <c r="C11" t="n">
-        <v>0.471688</v>
+        <v>0.219922</v>
       </c>
       <c r="D11" t="n">
-        <v>0.452686</v>
+        <v>0.225349</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.444121</v>
+        <v>0.224044</v>
       </c>
       <c r="C12" t="n">
-        <v>0.461116</v>
+        <v>0.218528</v>
       </c>
       <c r="D12" t="n">
-        <v>0.442743</v>
+        <v>0.224759</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.433987</v>
+        <v>0.220862</v>
       </c>
       <c r="C13" t="n">
-        <v>0.450536</v>
+        <v>0.2171</v>
       </c>
       <c r="D13" t="n">
-        <v>0.432509</v>
+        <v>0.222172</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.424306</v>
+        <v>0.216427</v>
       </c>
       <c r="C14" t="n">
-        <v>0.440365</v>
+        <v>0.215463</v>
       </c>
       <c r="D14" t="n">
-        <v>0.423319</v>
+        <v>0.220768</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.415078</v>
+        <v>0.212846</v>
       </c>
       <c r="C15" t="n">
-        <v>0.430978</v>
+        <v>0.214955</v>
       </c>
       <c r="D15" t="n">
-        <v>0.415246</v>
+        <v>0.220222</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.406454</v>
+        <v>0.208735</v>
       </c>
       <c r="C16" t="n">
-        <v>0.421931</v>
+        <v>0.213377</v>
       </c>
       <c r="D16" t="n">
-        <v>0.406734</v>
+        <v>0.219154</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.398045</v>
+        <v>0.203903</v>
       </c>
       <c r="C17" t="n">
-        <v>0.413974</v>
+        <v>0.212913</v>
       </c>
       <c r="D17" t="n">
-        <v>0.399965</v>
+        <v>0.218249</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.390602</v>
+        <v>0.199642</v>
       </c>
       <c r="C18" t="n">
-        <v>0.406658</v>
+        <v>0.211602</v>
       </c>
       <c r="D18" t="n">
-        <v>0.392807</v>
+        <v>0.217496</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.383637</v>
+        <v>0.194027</v>
       </c>
       <c r="C19" t="n">
-        <v>0.399495</v>
+        <v>0.210815</v>
       </c>
       <c r="D19" t="n">
-        <v>0.387179</v>
+        <v>0.21592</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.377291</v>
+        <v>0.188103</v>
       </c>
       <c r="C20" t="n">
-        <v>0.393467</v>
+        <v>0.207504</v>
       </c>
       <c r="D20" t="n">
-        <v>0.382059</v>
+        <v>0.215069</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.372144</v>
+        <v>0.180311</v>
       </c>
       <c r="C21" t="n">
-        <v>0.389003</v>
+        <v>0.207086</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3789</v>
+        <v>0.214014</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.36804</v>
+        <v>0.17321</v>
       </c>
       <c r="C22" t="n">
-        <v>0.384316</v>
+        <v>0.205552</v>
       </c>
       <c r="D22" t="n">
-        <v>0.376322</v>
+        <v>0.213713</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.36599</v>
+        <v>0.164054</v>
       </c>
       <c r="C23" t="n">
-        <v>0.383284</v>
+        <v>0.204648</v>
       </c>
       <c r="D23" t="n">
-        <v>0.492339</v>
+        <v>0.231544</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.48154</v>
+        <v>0.239603</v>
       </c>
       <c r="C24" t="n">
-        <v>0.454932</v>
+        <v>0.224703</v>
       </c>
       <c r="D24" t="n">
-        <v>0.439652</v>
+        <v>0.229919</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.470635</v>
+        <v>0.236062</v>
       </c>
       <c r="C25" t="n">
-        <v>0.445437</v>
+        <v>0.223023</v>
       </c>
       <c r="D25" t="n">
-        <v>0.430722</v>
+        <v>0.228007</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.459778</v>
+        <v>0.233229</v>
       </c>
       <c r="C26" t="n">
-        <v>0.436793</v>
+        <v>0.220848</v>
       </c>
       <c r="D26" t="n">
-        <v>0.423005</v>
+        <v>0.225997</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.449396</v>
+        <v>0.229128</v>
       </c>
       <c r="C27" t="n">
-        <v>0.428574</v>
+        <v>0.218965</v>
       </c>
       <c r="D27" t="n">
-        <v>0.41422</v>
+        <v>0.224769</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.439722</v>
+        <v>0.22522</v>
       </c>
       <c r="C28" t="n">
-        <v>0.421483</v>
+        <v>0.217972</v>
       </c>
       <c r="D28" t="n">
-        <v>0.407055</v>
+        <v>0.222897</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.430228</v>
+        <v>0.21992</v>
       </c>
       <c r="C29" t="n">
-        <v>0.414393</v>
+        <v>0.215821</v>
       </c>
       <c r="D29" t="n">
-        <v>0.398596</v>
+        <v>0.221417</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.42147</v>
+        <v>0.215386</v>
       </c>
       <c r="C30" t="n">
-        <v>0.405221</v>
+        <v>0.214615</v>
       </c>
       <c r="D30" t="n">
-        <v>0.392823</v>
+        <v>0.220399</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.413041</v>
+        <v>0.211557</v>
       </c>
       <c r="C31" t="n">
-        <v>0.399301</v>
+        <v>0.213219</v>
       </c>
       <c r="D31" t="n">
-        <v>0.387497</v>
+        <v>0.219409</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.405469</v>
+        <v>0.206831</v>
       </c>
       <c r="C32" t="n">
-        <v>0.392247</v>
+        <v>0.211578</v>
       </c>
       <c r="D32" t="n">
-        <v>0.382447</v>
+        <v>0.218654</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.398071</v>
+        <v>0.200459</v>
       </c>
       <c r="C33" t="n">
-        <v>0.387416</v>
+        <v>0.210634</v>
       </c>
       <c r="D33" t="n">
-        <v>0.376472</v>
+        <v>0.2176</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.391588</v>
+        <v>0.194838</v>
       </c>
       <c r="C34" t="n">
-        <v>0.381539</v>
+        <v>0.210872</v>
       </c>
       <c r="D34" t="n">
-        <v>0.371855</v>
+        <v>0.216706</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.386182</v>
+        <v>0.1876</v>
       </c>
       <c r="C35" t="n">
-        <v>0.376954</v>
+        <v>0.208499</v>
       </c>
       <c r="D35" t="n">
-        <v>0.368828</v>
+        <v>0.215503</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.381951</v>
+        <v>0.180276</v>
       </c>
       <c r="C36" t="n">
-        <v>0.374599</v>
+        <v>0.206422</v>
       </c>
       <c r="D36" t="n">
-        <v>0.36768</v>
+        <v>0.21437</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.379427</v>
+        <v>0.171747</v>
       </c>
       <c r="C37" t="n">
-        <v>0.373648</v>
+        <v>0.206007</v>
       </c>
       <c r="D37" t="n">
-        <v>0.510122</v>
+        <v>0.232848</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.49564</v>
+        <v>0.243193</v>
       </c>
       <c r="C38" t="n">
-        <v>0.470941</v>
+        <v>0.2255</v>
       </c>
       <c r="D38" t="n">
-        <v>0.453577</v>
+        <v>0.230791</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.485377</v>
+        <v>0.241149</v>
       </c>
       <c r="C39" t="n">
-        <v>0.460709</v>
+        <v>0.223422</v>
       </c>
       <c r="D39" t="n">
-        <v>0.445211</v>
+        <v>0.228567</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.474729</v>
+        <v>0.237429</v>
       </c>
       <c r="C40" t="n">
-        <v>0.452233</v>
+        <v>0.221975</v>
       </c>
       <c r="D40" t="n">
-        <v>0.437182</v>
+        <v>0.227428</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.464377</v>
+        <v>0.23329</v>
       </c>
       <c r="C41" t="n">
-        <v>0.444172</v>
+        <v>0.220213</v>
       </c>
       <c r="D41" t="n">
-        <v>0.429657</v>
+        <v>0.225946</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.454864</v>
+        <v>0.230414</v>
       </c>
       <c r="C42" t="n">
-        <v>0.436123</v>
+        <v>0.218556</v>
       </c>
       <c r="D42" t="n">
-        <v>0.421964</v>
+        <v>0.224501</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.44562</v>
+        <v>0.22565</v>
       </c>
       <c r="C43" t="n">
-        <v>0.427935</v>
+        <v>0.217427</v>
       </c>
       <c r="D43" t="n">
-        <v>0.413898</v>
+        <v>0.223499</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.436818</v>
+        <v>0.220718</v>
       </c>
       <c r="C44" t="n">
-        <v>0.421519</v>
+        <v>0.216138</v>
       </c>
       <c r="D44" t="n">
-        <v>0.407271</v>
+        <v>0.221763</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.428783</v>
+        <v>0.216313</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4147</v>
+        <v>0.214962</v>
       </c>
       <c r="D45" t="n">
-        <v>0.402332</v>
+        <v>0.220712</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.421117</v>
+        <v>0.210133</v>
       </c>
       <c r="C46" t="n">
-        <v>0.40932</v>
+        <v>0.2136</v>
       </c>
       <c r="D46" t="n">
-        <v>0.397514</v>
+        <v>0.219726</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.414225</v>
+        <v>0.204258</v>
       </c>
       <c r="C47" t="n">
-        <v>0.403936</v>
+        <v>0.213041</v>
       </c>
       <c r="D47" t="n">
-        <v>0.391542</v>
+        <v>0.218625</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.407597</v>
+        <v>0.198303</v>
       </c>
       <c r="C48" t="n">
-        <v>0.40121</v>
+        <v>0.211832</v>
       </c>
       <c r="D48" t="n">
-        <v>0.388801</v>
+        <v>0.217414</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.402573</v>
+        <v>0.192364</v>
       </c>
       <c r="C49" t="n">
-        <v>0.39671</v>
+        <v>0.209509</v>
       </c>
       <c r="D49" t="n">
-        <v>0.385042</v>
+        <v>0.216309</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.398004</v>
+        <v>0.185475</v>
       </c>
       <c r="C50" t="n">
-        <v>0.392695</v>
+        <v>0.208684</v>
       </c>
       <c r="D50" t="n">
-        <v>0.383689</v>
+        <v>0.215473</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.394744</v>
+        <v>0.177313</v>
       </c>
       <c r="C51" t="n">
-        <v>0.391237</v>
+        <v>0.207132</v>
       </c>
       <c r="D51" t="n">
-        <v>0.530651</v>
+        <v>0.234185</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.366171</v>
+        <v>0.165935</v>
       </c>
       <c r="C52" t="n">
-        <v>0.390944</v>
+        <v>0.205146</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5197040000000001</v>
+        <v>0.231995</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.503107</v>
+        <v>0.244443</v>
       </c>
       <c r="C53" t="n">
-        <v>0.481739</v>
+        <v>0.225152</v>
       </c>
       <c r="D53" t="n">
-        <v>0.461765</v>
+        <v>0.230333</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.49292</v>
+        <v>0.24075</v>
       </c>
       <c r="C54" t="n">
-        <v>0.474355</v>
+        <v>0.222728</v>
       </c>
       <c r="D54" t="n">
-        <v>0.456295</v>
+        <v>0.228753</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.482811</v>
+        <v>0.237198</v>
       </c>
       <c r="C55" t="n">
-        <v>0.465581</v>
+        <v>0.221529</v>
       </c>
       <c r="D55" t="n">
-        <v>0.448806</v>
+        <v>0.227289</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.473547</v>
+        <v>0.232552</v>
       </c>
       <c r="C56" t="n">
-        <v>0.456559</v>
+        <v>0.219913</v>
       </c>
       <c r="D56" t="n">
-        <v>0.441124</v>
+        <v>0.225584</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.464414</v>
+        <v>0.227956</v>
       </c>
       <c r="C57" t="n">
-        <v>0.450507</v>
+        <v>0.218323</v>
       </c>
       <c r="D57" t="n">
-        <v>0.435297</v>
+        <v>0.224278</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.45594</v>
+        <v>0.223337</v>
       </c>
       <c r="C58" t="n">
-        <v>0.443566</v>
+        <v>0.217431</v>
       </c>
       <c r="D58" t="n">
-        <v>0.427664</v>
+        <v>0.223081</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.447017</v>
+        <v>0.218764</v>
       </c>
       <c r="C59" t="n">
-        <v>0.437999</v>
+        <v>0.215819</v>
       </c>
       <c r="D59" t="n">
-        <v>0.422882</v>
+        <v>0.221831</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.4406</v>
+        <v>0.21417</v>
       </c>
       <c r="C60" t="n">
-        <v>0.432596</v>
+        <v>0.215038</v>
       </c>
       <c r="D60" t="n">
-        <v>0.41769</v>
+        <v>0.221009</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.434002</v>
+        <v>0.207987</v>
       </c>
       <c r="C61" t="n">
-        <v>0.425902</v>
+        <v>0.213131</v>
       </c>
       <c r="D61" t="n">
-        <v>0.413106</v>
+        <v>0.219558</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.427622</v>
+        <v>0.201565</v>
       </c>
       <c r="C62" t="n">
-        <v>0.420371</v>
+        <v>0.212027</v>
       </c>
       <c r="D62" t="n">
-        <v>0.408361</v>
+        <v>0.218221</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.422316</v>
+        <v>0.194506</v>
       </c>
       <c r="C63" t="n">
-        <v>0.416796</v>
+        <v>0.210712</v>
       </c>
       <c r="D63" t="n">
-        <v>0.40576</v>
+        <v>0.216985</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.41795</v>
+        <v>0.187368</v>
       </c>
       <c r="C64" t="n">
-        <v>0.414779</v>
+        <v>0.208761</v>
       </c>
       <c r="D64" t="n">
-        <v>0.405586</v>
+        <v>0.215766</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.41434</v>
+        <v>0.179344</v>
       </c>
       <c r="C65" t="n">
-        <v>0.413906</v>
+        <v>0.207429</v>
       </c>
       <c r="D65" t="n">
-        <v>0.405955</v>
+        <v>0.215022</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.412846</v>
+        <v>0.169953</v>
       </c>
       <c r="C66" t="n">
-        <v>0.414413</v>
+        <v>0.20611</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5398770000000001</v>
+        <v>0.232794</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.526357</v>
+        <v>0.246575</v>
       </c>
       <c r="C67" t="n">
-        <v>0.502997</v>
+        <v>0.226496</v>
       </c>
       <c r="D67" t="n">
-        <v>0.483686</v>
+        <v>0.231625</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.515536</v>
+        <v>0.243515</v>
       </c>
       <c r="C68" t="n">
-        <v>0.493912</v>
+        <v>0.224306</v>
       </c>
       <c r="D68" t="n">
-        <v>0.476084</v>
+        <v>0.229878</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.505605</v>
+        <v>0.239984</v>
       </c>
       <c r="C69" t="n">
-        <v>0.486152</v>
+        <v>0.22236</v>
       </c>
       <c r="D69" t="n">
-        <v>0.468403</v>
+        <v>0.227973</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.496228</v>
+        <v>0.235197</v>
       </c>
       <c r="C70" t="n">
-        <v>0.477959</v>
+        <v>0.220723</v>
       </c>
       <c r="D70" t="n">
-        <v>0.462048</v>
+        <v>0.226546</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.490323</v>
+        <v>0.230719</v>
       </c>
       <c r="C71" t="n">
-        <v>0.472331</v>
+        <v>0.219672</v>
       </c>
       <c r="D71" t="n">
-        <v>0.457469</v>
+        <v>0.224849</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.480856</v>
+        <v>0.225781</v>
       </c>
       <c r="C72" t="n">
-        <v>0.463424</v>
+        <v>0.217845</v>
       </c>
       <c r="D72" t="n">
-        <v>0.448901</v>
+        <v>0.223557</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.473196</v>
+        <v>0.220304</v>
       </c>
       <c r="C73" t="n">
-        <v>0.459866</v>
+        <v>0.216338</v>
       </c>
       <c r="D73" t="n">
-        <v>0.444235</v>
+        <v>0.222089</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.465126</v>
+        <v>0.214988</v>
       </c>
       <c r="C74" t="n">
-        <v>0.451017</v>
+        <v>0.215434</v>
       </c>
       <c r="D74" t="n">
-        <v>0.438082</v>
+        <v>0.220911</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.457666</v>
+        <v>0.209112</v>
       </c>
       <c r="C75" t="n">
-        <v>0.446777</v>
+        <v>0.21392</v>
       </c>
       <c r="D75" t="n">
-        <v>0.434365</v>
+        <v>0.219549</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.449317</v>
+        <v>0.203632</v>
       </c>
       <c r="C76" t="n">
-        <v>0.440988</v>
+        <v>0.212572</v>
       </c>
       <c r="D76" t="n">
-        <v>0.430019</v>
+        <v>0.218464</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.442965</v>
+        <v>0.196996</v>
       </c>
       <c r="C77" t="n">
-        <v>0.437614</v>
+        <v>0.211105</v>
       </c>
       <c r="D77" t="n">
-        <v>0.426796</v>
+        <v>0.217405</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.439619</v>
+        <v>0.1892</v>
       </c>
       <c r="C78" t="n">
-        <v>0.43406</v>
+        <v>0.209406</v>
       </c>
       <c r="D78" t="n">
-        <v>0.424742</v>
+        <v>0.216331</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.436967</v>
+        <v>0.181456</v>
       </c>
       <c r="C79" t="n">
-        <v>0.432849</v>
+        <v>0.207868</v>
       </c>
       <c r="D79" t="n">
-        <v>0.426526</v>
+        <v>0.215458</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.434422</v>
+        <v>0.17154</v>
       </c>
       <c r="C80" t="n">
-        <v>0.435389</v>
+        <v>0.20659</v>
       </c>
       <c r="D80" t="n">
-        <v>0.575447</v>
+        <v>0.233837</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.565968</v>
+        <v>0.248397</v>
       </c>
       <c r="C81" t="n">
-        <v>0.5327499999999999</v>
+        <v>0.226701</v>
       </c>
       <c r="D81" t="n">
-        <v>0.51314</v>
+        <v>0.232005</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.560478</v>
+        <v>0.244699</v>
       </c>
       <c r="C82" t="n">
-        <v>0.528497</v>
+        <v>0.225122</v>
       </c>
       <c r="D82" t="n">
-        <v>0.506592</v>
+        <v>0.230439</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.552724</v>
+        <v>0.240805</v>
       </c>
       <c r="C83" t="n">
-        <v>0.51949</v>
+        <v>0.223251</v>
       </c>
       <c r="D83" t="n">
-        <v>0.499072</v>
+        <v>0.228893</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.544741</v>
+        <v>0.236921</v>
       </c>
       <c r="C84" t="n">
-        <v>0.5124339999999999</v>
+        <v>0.221644</v>
       </c>
       <c r="D84" t="n">
-        <v>0.492137</v>
+        <v>0.227426</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.537546</v>
+        <v>0.23242</v>
       </c>
       <c r="C85" t="n">
-        <v>0.506908</v>
+        <v>0.220299</v>
       </c>
       <c r="D85" t="n">
-        <v>0.486941</v>
+        <v>0.225865</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.530534</v>
+        <v>0.227354</v>
       </c>
       <c r="C86" t="n">
-        <v>0.496651</v>
+        <v>0.218858</v>
       </c>
       <c r="D86" t="n">
-        <v>0.47795</v>
+        <v>0.224498</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5214490000000001</v>
+        <v>0.222391</v>
       </c>
       <c r="C87" t="n">
-        <v>0.489099</v>
+        <v>0.217246</v>
       </c>
       <c r="D87" t="n">
-        <v>0.470991</v>
+        <v>0.223047</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.513958</v>
+        <v>0.217037</v>
       </c>
       <c r="C88" t="n">
-        <v>0.482817</v>
+        <v>0.215881</v>
       </c>
       <c r="D88" t="n">
-        <v>0.466507</v>
+        <v>0.221774</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.504652</v>
+        <v>0.211349</v>
       </c>
       <c r="C89" t="n">
-        <v>0.477962</v>
+        <v>0.214362</v>
       </c>
       <c r="D89" t="n">
-        <v>0.462838</v>
+        <v>0.22041</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.498914</v>
+        <v>0.205524</v>
       </c>
       <c r="C90" t="n">
-        <v>0.468684</v>
+        <v>0.212958</v>
       </c>
       <c r="D90" t="n">
-        <v>0.453128</v>
+        <v>0.219137</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.48933</v>
+        <v>0.198702</v>
       </c>
       <c r="C91" t="n">
-        <v>0.468871</v>
+        <v>0.211369</v>
       </c>
       <c r="D91" t="n">
-        <v>0.455563</v>
+        <v>0.217886</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.48491</v>
+        <v>0.191964</v>
       </c>
       <c r="C92" t="n">
-        <v>0.463585</v>
+        <v>0.209912</v>
       </c>
       <c r="D92" t="n">
-        <v>0.452075</v>
+        <v>0.216679</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.479149</v>
+        <v>0.183929</v>
       </c>
       <c r="C93" t="n">
-        <v>0.462024</v>
+        <v>0.20825</v>
       </c>
       <c r="D93" t="n">
-        <v>0.452057</v>
+        <v>0.215674</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.477014</v>
+        <v>0.17547</v>
       </c>
       <c r="C94" t="n">
-        <v>0.459445</v>
+        <v>0.206617</v>
       </c>
       <c r="D94" t="n">
-        <v>0.625212</v>
+        <v>0.234727</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.615771</v>
+        <v>0.248616</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5791770000000001</v>
+        <v>0.228183</v>
       </c>
       <c r="D95" t="n">
-        <v>0.580606</v>
+        <v>0.232964</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.625183</v>
+        <v>0.245787</v>
       </c>
       <c r="C96" t="n">
-        <v>0.584118</v>
+        <v>0.227169</v>
       </c>
       <c r="D96" t="n">
-        <v>0.573974</v>
+        <v>0.231308</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.627619</v>
+        <v>0.242009</v>
       </c>
       <c r="C97" t="n">
-        <v>0.583971</v>
+        <v>0.22497</v>
       </c>
       <c r="D97" t="n">
-        <v>0.570699</v>
+        <v>0.229417</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.628699</v>
+        <v>0.238089</v>
       </c>
       <c r="C98" t="n">
-        <v>0.581881</v>
+        <v>0.222703</v>
       </c>
       <c r="D98" t="n">
-        <v>0.566167</v>
+        <v>0.227967</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.6248359999999999</v>
+        <v>0.23324</v>
       </c>
       <c r="C99" t="n">
-        <v>0.582977</v>
+        <v>0.221276</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5646640000000001</v>
+        <v>0.226301</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.618434</v>
+        <v>0.228697</v>
       </c>
       <c r="C100" t="n">
-        <v>0.5866400000000001</v>
+        <v>0.219577</v>
       </c>
       <c r="D100" t="n">
-        <v>0.568642</v>
+        <v>0.224841</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.614816</v>
+        <v>0.223516</v>
       </c>
       <c r="C101" t="n">
-        <v>0.574329</v>
+        <v>0.218228</v>
       </c>
       <c r="D101" t="n">
-        <v>0.555435</v>
+        <v>0.223213</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.609684</v>
+        <v>0.21841</v>
       </c>
       <c r="C102" t="n">
-        <v>0.581054</v>
+        <v>0.21622</v>
       </c>
       <c r="D102" t="n">
-        <v>0.561219</v>
+        <v>0.222211</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.607858</v>
+        <v>0.213314</v>
       </c>
       <c r="C103" t="n">
-        <v>0.580578</v>
+        <v>0.214969</v>
       </c>
       <c r="D103" t="n">
-        <v>0.561532</v>
+        <v>0.220851</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.601651</v>
+        <v>0.207162</v>
       </c>
       <c r="C104" t="n">
-        <v>0.575932</v>
+        <v>0.213557</v>
       </c>
       <c r="D104" t="n">
-        <v>0.554651</v>
+        <v>0.219426</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.594377</v>
+        <v>0.200421</v>
       </c>
       <c r="C105" t="n">
-        <v>0.575098</v>
+        <v>0.212248</v>
       </c>
       <c r="D105" t="n">
-        <v>0.551903</v>
+        <v>0.218379</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.591632</v>
+        <v>0.193599</v>
       </c>
       <c r="C106" t="n">
-        <v>0.572231</v>
+        <v>0.210401</v>
       </c>
       <c r="D106" t="n">
-        <v>0.551675</v>
+        <v>0.217286</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.592825</v>
+        <v>0.185725</v>
       </c>
       <c r="C107" t="n">
-        <v>0.574908</v>
+        <v>0.208988</v>
       </c>
       <c r="D107" t="n">
-        <v>0.555581</v>
+        <v>0.216168</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.593493</v>
+        <v>0.176764</v>
       </c>
       <c r="C108" t="n">
-        <v>0.553569</v>
+        <v>0.207346</v>
       </c>
       <c r="D108" t="n">
-        <v>0.712404</v>
+        <v>0.235399</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.561189</v>
+        <v>0.166714</v>
       </c>
       <c r="C109" t="n">
-        <v>0.575809</v>
+        <v>0.205767</v>
       </c>
       <c r="D109" t="n">
-        <v>0.717092</v>
+        <v>0.233298</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.713542</v>
+        <v>0.245794</v>
       </c>
       <c r="C110" t="n">
-        <v>0.72849</v>
+        <v>0.225906</v>
       </c>
       <c r="D110" t="n">
-        <v>0.7317129999999999</v>
+        <v>0.231768</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.712306</v>
+        <v>0.242525</v>
       </c>
       <c r="C111" t="n">
-        <v>0.731681</v>
+        <v>0.224097</v>
       </c>
       <c r="D111" t="n">
-        <v>0.723956</v>
+        <v>0.22999</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.721266</v>
+        <v>0.238424</v>
       </c>
       <c r="C112" t="n">
-        <v>0.736511</v>
+        <v>0.222728</v>
       </c>
       <c r="D112" t="n">
-        <v>0.740908</v>
+        <v>0.228418</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.72642</v>
+        <v>0.234103</v>
       </c>
       <c r="C113" t="n">
-        <v>0.738642</v>
+        <v>0.221308</v>
       </c>
       <c r="D113" t="n">
-        <v>0.738827</v>
+        <v>0.22708</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.734469</v>
+        <v>0.229231</v>
       </c>
       <c r="C114" t="n">
-        <v>0.746316</v>
+        <v>0.220196</v>
       </c>
       <c r="D114" t="n">
-        <v>0.7529670000000001</v>
+        <v>0.225417</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.738177</v>
+        <v>0.224664</v>
       </c>
       <c r="C115" t="n">
-        <v>0.7499440000000001</v>
+        <v>0.21862</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7543800000000001</v>
+        <v>0.22423</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.737669</v>
+        <v>0.219304</v>
       </c>
       <c r="C116" t="n">
-        <v>0.75287</v>
+        <v>0.21655</v>
       </c>
       <c r="D116" t="n">
-        <v>0.7607660000000001</v>
+        <v>0.223036</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.747733</v>
+        <v>0.214252</v>
       </c>
       <c r="C117" t="n">
-        <v>0.760428</v>
+        <v>0.215537</v>
       </c>
       <c r="D117" t="n">
-        <v>0.747818</v>
+        <v>0.221508</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.750954</v>
+        <v>0.208518</v>
       </c>
       <c r="C118" t="n">
-        <v>0.763644</v>
+        <v>0.214238</v>
       </c>
       <c r="D118" t="n">
-        <v>0.764697</v>
+        <v>0.22016</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.756479</v>
+        <v>0.202065</v>
       </c>
       <c r="C119" t="n">
-        <v>0.768473</v>
+        <v>0.212117</v>
       </c>
       <c r="D119" t="n">
-        <v>0.767522</v>
+        <v>0.219138</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.758042</v>
+        <v>0.195244</v>
       </c>
       <c r="C120" t="n">
-        <v>0.7714299999999999</v>
+        <v>0.210881</v>
       </c>
       <c r="D120" t="n">
-        <v>0.769669</v>
+        <v>0.217869</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.76302</v>
+        <v>0.187756</v>
       </c>
       <c r="C121" t="n">
-        <v>0.777766</v>
+        <v>0.209702</v>
       </c>
       <c r="D121" t="n">
-        <v>0.771825</v>
+        <v>0.216605</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.7667040000000001</v>
+        <v>0.179133</v>
       </c>
       <c r="C122" t="n">
-        <v>0.773653</v>
+        <v>0.208043</v>
       </c>
       <c r="D122" t="n">
-        <v>0.776632</v>
+        <v>0.215346</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.7703140000000001</v>
+        <v>0.169207</v>
       </c>
       <c r="C123" t="n">
-        <v>0.782984</v>
+        <v>0.206454</v>
       </c>
       <c r="D123" t="n">
-        <v>0.926185</v>
+        <v>0.233921</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.929902</v>
+        <v>0.246917</v>
       </c>
       <c r="C124" t="n">
-        <v>0.942107</v>
+        <v>0.226329</v>
       </c>
       <c r="D124" t="n">
-        <v>0.935725</v>
+        <v>0.23228</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.9384400000000001</v>
+        <v>0.246332</v>
       </c>
       <c r="C125" t="n">
-        <v>0.94681</v>
+        <v>0.224658</v>
       </c>
       <c r="D125" t="n">
-        <v>0.935107</v>
+        <v>0.229977</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.946881</v>
+        <v>0.242585</v>
       </c>
       <c r="C126" t="n">
-        <v>0.959792</v>
+        <v>0.222948</v>
       </c>
       <c r="D126" t="n">
-        <v>0.933244</v>
+        <v>0.229139</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.9514629999999999</v>
+        <v>0.238219</v>
       </c>
       <c r="C127" t="n">
-        <v>0.963234</v>
+        <v>0.221866</v>
       </c>
       <c r="D127" t="n">
-        <v>0.958448</v>
+        <v>0.227523</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.954074</v>
+        <v>0.232265</v>
       </c>
       <c r="C128" t="n">
-        <v>0.972394</v>
+        <v>0.220554</v>
       </c>
       <c r="D128" t="n">
-        <v>0.9522929999999999</v>
+        <v>0.226097</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.961182</v>
+        <v>0.228123</v>
       </c>
       <c r="C129" t="n">
-        <v>0.978176</v>
+        <v>0.218875</v>
       </c>
       <c r="D129" t="n">
-        <v>0.959046</v>
+        <v>0.224516</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.9697750000000001</v>
+        <v>0.222635</v>
       </c>
       <c r="C130" t="n">
-        <v>0.984114</v>
+        <v>0.216964</v>
       </c>
       <c r="D130" t="n">
-        <v>0.97964</v>
+        <v>0.223005</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.978108</v>
+        <v>0.216763</v>
       </c>
       <c r="C131" t="n">
-        <v>0.992324</v>
+        <v>0.216028</v>
       </c>
       <c r="D131" t="n">
-        <v>0.986726</v>
+        <v>0.221893</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.984422</v>
+        <v>0.210668</v>
       </c>
       <c r="C132" t="n">
-        <v>0.996776</v>
+        <v>0.214504</v>
       </c>
       <c r="D132" t="n">
-        <v>0.994061</v>
+        <v>0.220026</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.990686</v>
+        <v>0.204186</v>
       </c>
       <c r="C133" t="n">
-        <v>1.0071</v>
+        <v>0.212833</v>
       </c>
       <c r="D133" t="n">
-        <v>1.0007</v>
+        <v>0.219126</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.988071</v>
+        <v>0.196987</v>
       </c>
       <c r="C134" t="n">
-        <v>1.01323</v>
+        <v>0.211468</v>
       </c>
       <c r="D134" t="n">
-        <v>1.00412</v>
+        <v>0.217574</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.00471</v>
+        <v>0.189119</v>
       </c>
       <c r="C135" t="n">
-        <v>1.02516</v>
+        <v>0.209966</v>
       </c>
       <c r="D135" t="n">
-        <v>1.01228</v>
+        <v>0.216965</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.00814</v>
+        <v>0.180213</v>
       </c>
       <c r="C136" t="n">
-        <v>1.03297</v>
+        <v>0.208345</v>
       </c>
       <c r="D136" t="n">
-        <v>1.01166</v>
+        <v>0.215759</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.01527</v>
+        <v>0.169992</v>
       </c>
       <c r="C137" t="n">
-        <v>1.03436</v>
+        <v>0.206874</v>
       </c>
       <c r="D137" t="n">
-        <v>1.15916</v>
+        <v>0.233797</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.16752</v>
+        <v>0.247592</v>
       </c>
       <c r="C138" t="n">
-        <v>1.18539</v>
+        <v>0.226779</v>
       </c>
       <c r="D138" t="n">
-        <v>1.16666</v>
+        <v>0.23263</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.17321</v>
+        <v>0.244288</v>
       </c>
       <c r="C139" t="n">
-        <v>1.19203</v>
+        <v>0.224795</v>
       </c>
       <c r="D139" t="n">
-        <v>1.17526</v>
+        <v>0.231029</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.17953</v>
+        <v>0.240723</v>
       </c>
       <c r="C140" t="n">
-        <v>1.20047</v>
+        <v>0.223089</v>
       </c>
       <c r="D140" t="n">
-        <v>1.18371</v>
+        <v>0.229376</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.18701</v>
+        <v>0.236424</v>
       </c>
       <c r="C141" t="n">
-        <v>1.20575</v>
+        <v>0.222063</v>
       </c>
       <c r="D141" t="n">
-        <v>1.19078</v>
+        <v>0.22777</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.19324</v>
+        <v>0.231662</v>
       </c>
       <c r="C142" t="n">
-        <v>1.21395</v>
+        <v>0.220921</v>
       </c>
       <c r="D142" t="n">
-        <v>1.19804</v>
+        <v>0.2262</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.19787</v>
+        <v>0.226876</v>
       </c>
       <c r="C143" t="n">
-        <v>1.22161</v>
+        <v>0.219072</v>
       </c>
       <c r="D143" t="n">
-        <v>1.20537</v>
+        <v>0.224234</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.197351</v>
+        <v>0.197085</v>
       </c>
       <c r="C2" t="n">
-        <v>0.200119</v>
+        <v>0.204564</v>
       </c>
       <c r="D2" t="n">
-        <v>0.208764</v>
+        <v>0.21324</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.193046</v>
+        <v>0.190508</v>
       </c>
       <c r="C3" t="n">
-        <v>0.201495</v>
+        <v>0.20538</v>
       </c>
       <c r="D3" t="n">
-        <v>0.209718</v>
+        <v>0.214318</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.185897</v>
+        <v>0.186868</v>
       </c>
       <c r="C4" t="n">
-        <v>0.200216</v>
+        <v>0.204857</v>
       </c>
       <c r="D4" t="n">
-        <v>0.208242</v>
+        <v>0.213145</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.180988</v>
+        <v>0.181859</v>
       </c>
       <c r="C5" t="n">
-        <v>0.200856</v>
+        <v>0.205172</v>
       </c>
       <c r="D5" t="n">
-        <v>0.208795</v>
+        <v>0.212758</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.175254</v>
+        <v>0.177036</v>
       </c>
       <c r="C6" t="n">
-        <v>0.200951</v>
+        <v>0.205409</v>
       </c>
       <c r="D6" t="n">
-        <v>0.208179</v>
+        <v>0.214249</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.168465</v>
+        <v>0.169552</v>
       </c>
       <c r="C7" t="n">
-        <v>0.199113</v>
+        <v>0.20601</v>
       </c>
       <c r="D7" t="n">
-        <v>0.207558</v>
+        <v>0.213164</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.160051</v>
+        <v>0.161947</v>
       </c>
       <c r="C8" t="n">
-        <v>0.197993</v>
+        <v>0.204107</v>
       </c>
       <c r="D8" t="n">
-        <v>0.206067</v>
+        <v>0.212506</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.151102</v>
+        <v>0.150905</v>
       </c>
       <c r="C9" t="n">
-        <v>0.198746</v>
+        <v>0.204306</v>
       </c>
       <c r="D9" t="n">
-        <v>0.227266</v>
+        <v>0.228803</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.230652</v>
+        <v>0.228846</v>
       </c>
       <c r="C10" t="n">
-        <v>0.221082</v>
+        <v>0.22276</v>
       </c>
       <c r="D10" t="n">
-        <v>0.226171</v>
+        <v>0.227793</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.227712</v>
+        <v>0.226873</v>
       </c>
       <c r="C11" t="n">
-        <v>0.22028</v>
+        <v>0.222659</v>
       </c>
       <c r="D11" t="n">
-        <v>0.225485</v>
+        <v>0.227333</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.226478</v>
+        <v>0.224452</v>
       </c>
       <c r="C12" t="n">
-        <v>0.218985</v>
+        <v>0.221021</v>
       </c>
       <c r="D12" t="n">
-        <v>0.223707</v>
+        <v>0.226075</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.22234</v>
+        <v>0.220926</v>
       </c>
       <c r="C13" t="n">
-        <v>0.217779</v>
+        <v>0.219787</v>
       </c>
       <c r="D13" t="n">
-        <v>0.222107</v>
+        <v>0.225368</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2176</v>
+        <v>0.216458</v>
       </c>
       <c r="C14" t="n">
-        <v>0.215071</v>
+        <v>0.218479</v>
       </c>
       <c r="D14" t="n">
-        <v>0.220604</v>
+        <v>0.224216</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.212466</v>
+        <v>0.212869</v>
       </c>
       <c r="C15" t="n">
-        <v>0.215111</v>
+        <v>0.217353</v>
       </c>
       <c r="D15" t="n">
-        <v>0.220167</v>
+        <v>0.223126</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.208622</v>
+        <v>0.209292</v>
       </c>
       <c r="C16" t="n">
-        <v>0.213103</v>
+        <v>0.217059</v>
       </c>
       <c r="D16" t="n">
-        <v>0.219221</v>
+        <v>0.22289</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.203773</v>
+        <v>0.204564</v>
       </c>
       <c r="C17" t="n">
-        <v>0.213323</v>
+        <v>0.215886</v>
       </c>
       <c r="D17" t="n">
-        <v>0.217887</v>
+        <v>0.221374</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.200004</v>
+        <v>0.199305</v>
       </c>
       <c r="C18" t="n">
-        <v>0.21075</v>
+        <v>0.215183</v>
       </c>
       <c r="D18" t="n">
-        <v>0.217253</v>
+        <v>0.22085</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.193919</v>
+        <v>0.192592</v>
       </c>
       <c r="C19" t="n">
-        <v>0.210935</v>
+        <v>0.214412</v>
       </c>
       <c r="D19" t="n">
-        <v>0.216081</v>
+        <v>0.219784</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.187927</v>
+        <v>0.187852</v>
       </c>
       <c r="C20" t="n">
-        <v>0.207766</v>
+        <v>0.215241</v>
       </c>
       <c r="D20" t="n">
-        <v>0.214877</v>
+        <v>0.218957</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.180695</v>
+        <v>0.180731</v>
       </c>
       <c r="C21" t="n">
-        <v>0.207216</v>
+        <v>0.214721</v>
       </c>
       <c r="D21" t="n">
-        <v>0.214019</v>
+        <v>0.218369</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.173316</v>
+        <v>0.174028</v>
       </c>
       <c r="C22" t="n">
-        <v>0.205659</v>
+        <v>0.212683</v>
       </c>
       <c r="D22" t="n">
-        <v>0.213781</v>
+        <v>0.217548</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.164446</v>
+        <v>0.164937</v>
       </c>
       <c r="C23" t="n">
-        <v>0.204514</v>
+        <v>0.211604</v>
       </c>
       <c r="D23" t="n">
-        <v>0.231683</v>
+        <v>0.232756</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.240292</v>
+        <v>0.239598</v>
       </c>
       <c r="C24" t="n">
-        <v>0.224418</v>
+        <v>0.226888</v>
       </c>
       <c r="D24" t="n">
-        <v>0.229712</v>
+        <v>0.230659</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.237027</v>
+        <v>0.235873</v>
       </c>
       <c r="C25" t="n">
-        <v>0.222495</v>
+        <v>0.225234</v>
       </c>
       <c r="D25" t="n">
-        <v>0.228028</v>
+        <v>0.229496</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.233467</v>
+        <v>0.233863</v>
       </c>
       <c r="C26" t="n">
-        <v>0.220186</v>
+        <v>0.223308</v>
       </c>
       <c r="D26" t="n">
-        <v>0.225662</v>
+        <v>0.227917</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.229588</v>
+        <v>0.229454</v>
       </c>
       <c r="C27" t="n">
-        <v>0.21887</v>
+        <v>0.222759</v>
       </c>
       <c r="D27" t="n">
-        <v>0.224522</v>
+        <v>0.226164</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.225654</v>
+        <v>0.225395</v>
       </c>
       <c r="C28" t="n">
-        <v>0.217706</v>
+        <v>0.221272</v>
       </c>
       <c r="D28" t="n">
-        <v>0.223152</v>
+        <v>0.225073</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.220391</v>
+        <v>0.220136</v>
       </c>
       <c r="C29" t="n">
-        <v>0.215673</v>
+        <v>0.21961</v>
       </c>
       <c r="D29" t="n">
-        <v>0.221495</v>
+        <v>0.2242</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.216231</v>
+        <v>0.215297</v>
       </c>
       <c r="C30" t="n">
-        <v>0.214827</v>
+        <v>0.218889</v>
       </c>
       <c r="D30" t="n">
-        <v>0.220251</v>
+        <v>0.222869</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.21168</v>
+        <v>0.211458</v>
       </c>
       <c r="C31" t="n">
-        <v>0.212825</v>
+        <v>0.217901</v>
       </c>
       <c r="D31" t="n">
-        <v>0.219521</v>
+        <v>0.222018</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.206345</v>
+        <v>0.206038</v>
       </c>
       <c r="C32" t="n">
-        <v>0.211973</v>
+        <v>0.217668</v>
       </c>
       <c r="D32" t="n">
-        <v>0.218544</v>
+        <v>0.221776</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.200456</v>
+        <v>0.200201</v>
       </c>
       <c r="C33" t="n">
-        <v>0.210342</v>
+        <v>0.216538</v>
       </c>
       <c r="D33" t="n">
-        <v>0.217692</v>
+        <v>0.220911</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.194917</v>
+        <v>0.195273</v>
       </c>
       <c r="C34" t="n">
-        <v>0.210925</v>
+        <v>0.215939</v>
       </c>
       <c r="D34" t="n">
-        <v>0.216689</v>
+        <v>0.220279</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.187749</v>
+        <v>0.187287</v>
       </c>
       <c r="C35" t="n">
-        <v>0.209451</v>
+        <v>0.214957</v>
       </c>
       <c r="D35" t="n">
-        <v>0.215743</v>
+        <v>0.219537</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180092</v>
+        <v>0.179984</v>
       </c>
       <c r="C36" t="n">
-        <v>0.206858</v>
+        <v>0.213341</v>
       </c>
       <c r="D36" t="n">
-        <v>0.214417</v>
+        <v>0.218557</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.171103</v>
+        <v>0.17029</v>
       </c>
       <c r="C37" t="n">
-        <v>0.206454</v>
+        <v>0.212566</v>
       </c>
       <c r="D37" t="n">
-        <v>0.232816</v>
+        <v>0.232223</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.243538</v>
+        <v>0.243915</v>
       </c>
       <c r="C38" t="n">
-        <v>0.225372</v>
+        <v>0.226876</v>
       </c>
       <c r="D38" t="n">
-        <v>0.230713</v>
+        <v>0.230806</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.241316</v>
+        <v>0.241442</v>
       </c>
       <c r="C39" t="n">
-        <v>0.223473</v>
+        <v>0.22576</v>
       </c>
       <c r="D39" t="n">
-        <v>0.228779</v>
+        <v>0.22966</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.238234</v>
+        <v>0.237932</v>
       </c>
       <c r="C40" t="n">
-        <v>0.222124</v>
+        <v>0.224784</v>
       </c>
       <c r="D40" t="n">
-        <v>0.22727</v>
+        <v>0.228283</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.233578</v>
+        <v>0.233808</v>
       </c>
       <c r="C41" t="n">
-        <v>0.220176</v>
+        <v>0.22366</v>
       </c>
       <c r="D41" t="n">
-        <v>0.225857</v>
+        <v>0.227354</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.230336</v>
+        <v>0.23035</v>
       </c>
       <c r="C42" t="n">
-        <v>0.219048</v>
+        <v>0.222345</v>
       </c>
       <c r="D42" t="n">
-        <v>0.224475</v>
+        <v>0.226331</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.225635</v>
+        <v>0.226017</v>
       </c>
       <c r="C43" t="n">
-        <v>0.217111</v>
+        <v>0.2212</v>
       </c>
       <c r="D43" t="n">
-        <v>0.223547</v>
+        <v>0.225517</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.221243</v>
+        <v>0.221208</v>
       </c>
       <c r="C44" t="n">
-        <v>0.215666</v>
+        <v>0.22023</v>
       </c>
       <c r="D44" t="n">
-        <v>0.221842</v>
+        <v>0.224477</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.216394</v>
+        <v>0.215941</v>
       </c>
       <c r="C45" t="n">
-        <v>0.214439</v>
+        <v>0.219278</v>
       </c>
       <c r="D45" t="n">
-        <v>0.220827</v>
+        <v>0.223379</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.210115</v>
+        <v>0.209535</v>
       </c>
       <c r="C46" t="n">
-        <v>0.213693</v>
+        <v>0.218323</v>
       </c>
       <c r="D46" t="n">
-        <v>0.219786</v>
+        <v>0.222526</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.204663</v>
+        <v>0.204328</v>
       </c>
       <c r="C47" t="n">
-        <v>0.212983</v>
+        <v>0.217895</v>
       </c>
       <c r="D47" t="n">
-        <v>0.218635</v>
+        <v>0.221877</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.198398</v>
+        <v>0.198241</v>
       </c>
       <c r="C48" t="n">
-        <v>0.211875</v>
+        <v>0.217027</v>
       </c>
       <c r="D48" t="n">
-        <v>0.21742</v>
+        <v>0.220869</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.192107</v>
+        <v>0.191964</v>
       </c>
       <c r="C49" t="n">
-        <v>0.209494</v>
+        <v>0.215815</v>
       </c>
       <c r="D49" t="n">
-        <v>0.216194</v>
+        <v>0.219848</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.185049</v>
+        <v>0.184783</v>
       </c>
       <c r="C50" t="n">
-        <v>0.208421</v>
+        <v>0.214669</v>
       </c>
       <c r="D50" t="n">
-        <v>0.215566</v>
+        <v>0.219473</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.176723</v>
+        <v>0.176519</v>
       </c>
       <c r="C51" t="n">
-        <v>0.207353</v>
+        <v>0.214192</v>
       </c>
       <c r="D51" t="n">
-        <v>0.234105</v>
+        <v>0.234007</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.165758</v>
+        <v>0.165754</v>
       </c>
       <c r="C52" t="n">
-        <v>0.205235</v>
+        <v>0.212624</v>
       </c>
       <c r="D52" t="n">
-        <v>0.232154</v>
+        <v>0.232186</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.244611</v>
+        <v>0.244814</v>
       </c>
       <c r="C53" t="n">
-        <v>0.224824</v>
+        <v>0.226794</v>
       </c>
       <c r="D53" t="n">
-        <v>0.230382</v>
+        <v>0.230907</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.240928</v>
+        <v>0.240717</v>
       </c>
       <c r="C54" t="n">
-        <v>0.222915</v>
+        <v>0.225918</v>
       </c>
       <c r="D54" t="n">
-        <v>0.228506</v>
+        <v>0.229676</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.237043</v>
+        <v>0.237389</v>
       </c>
       <c r="C55" t="n">
-        <v>0.221408</v>
+        <v>0.224651</v>
       </c>
       <c r="D55" t="n">
-        <v>0.22732</v>
+        <v>0.228701</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.232485</v>
+        <v>0.232891</v>
       </c>
       <c r="C56" t="n">
-        <v>0.220051</v>
+        <v>0.223265</v>
       </c>
       <c r="D56" t="n">
-        <v>0.225531</v>
+        <v>0.227225</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.227803</v>
+        <v>0.227953</v>
       </c>
       <c r="C57" t="n">
-        <v>0.218569</v>
+        <v>0.222297</v>
       </c>
       <c r="D57" t="n">
-        <v>0.224155</v>
+        <v>0.226232</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.223254</v>
+        <v>0.223353</v>
       </c>
       <c r="C58" t="n">
-        <v>0.217295</v>
+        <v>0.221574</v>
       </c>
       <c r="D58" t="n">
-        <v>0.223051</v>
+        <v>0.22527</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.218653</v>
+        <v>0.218978</v>
       </c>
       <c r="C59" t="n">
-        <v>0.215911</v>
+        <v>0.220397</v>
       </c>
       <c r="D59" t="n">
-        <v>0.221791</v>
+        <v>0.224218</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.214187</v>
+        <v>0.214048</v>
       </c>
       <c r="C60" t="n">
-        <v>0.21491</v>
+        <v>0.219715</v>
       </c>
       <c r="D60" t="n">
-        <v>0.220906</v>
+        <v>0.223553</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.207957</v>
+        <v>0.207584</v>
       </c>
       <c r="C61" t="n">
-        <v>0.213488</v>
+        <v>0.218682</v>
       </c>
       <c r="D61" t="n">
-        <v>0.219606</v>
+        <v>0.2227</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.201717</v>
+        <v>0.201676</v>
       </c>
       <c r="C62" t="n">
-        <v>0.212078</v>
+        <v>0.21769</v>
       </c>
       <c r="D62" t="n">
-        <v>0.218298</v>
+        <v>0.221646</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.194436</v>
+        <v>0.194558</v>
       </c>
       <c r="C63" t="n">
-        <v>0.210881</v>
+        <v>0.216461</v>
       </c>
       <c r="D63" t="n">
-        <v>0.217184</v>
+        <v>0.220699</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.187256</v>
+        <v>0.187288</v>
       </c>
       <c r="C64" t="n">
-        <v>0.208914</v>
+        <v>0.215538</v>
       </c>
       <c r="D64" t="n">
-        <v>0.215857</v>
+        <v>0.219864</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178888</v>
+        <v>0.178668</v>
       </c>
       <c r="C65" t="n">
-        <v>0.20747</v>
+        <v>0.214795</v>
       </c>
       <c r="D65" t="n">
-        <v>0.215177</v>
+        <v>0.219291</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.169466</v>
+        <v>0.169281</v>
       </c>
       <c r="C66" t="n">
-        <v>0.205723</v>
+        <v>0.213576</v>
       </c>
       <c r="D66" t="n">
-        <v>0.232847</v>
+        <v>0.233037</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.246628</v>
+        <v>0.247102</v>
       </c>
       <c r="C67" t="n">
-        <v>0.226271</v>
+        <v>0.228169</v>
       </c>
       <c r="D67" t="n">
-        <v>0.231625</v>
+        <v>0.231861</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.243512</v>
+        <v>0.243755</v>
       </c>
       <c r="C68" t="n">
-        <v>0.224289</v>
+        <v>0.22671</v>
       </c>
       <c r="D68" t="n">
-        <v>0.229895</v>
+        <v>0.230455</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.239951</v>
+        <v>0.239852</v>
       </c>
       <c r="C69" t="n">
-        <v>0.222791</v>
+        <v>0.225301</v>
       </c>
       <c r="D69" t="n">
-        <v>0.2281</v>
+        <v>0.22904</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.235122</v>
+        <v>0.235403</v>
       </c>
       <c r="C70" t="n">
-        <v>0.2207</v>
+        <v>0.224024</v>
       </c>
       <c r="D70" t="n">
-        <v>0.226479</v>
+        <v>0.227948</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.230486</v>
+        <v>0.230826</v>
       </c>
       <c r="C71" t="n">
-        <v>0.219497</v>
+        <v>0.223108</v>
       </c>
       <c r="D71" t="n">
-        <v>0.224908</v>
+        <v>0.226669</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.225581</v>
+        <v>0.225689</v>
       </c>
       <c r="C72" t="n">
-        <v>0.217878</v>
+        <v>0.222101</v>
       </c>
       <c r="D72" t="n">
-        <v>0.223619</v>
+        <v>0.225492</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.220096</v>
+        <v>0.219848</v>
       </c>
       <c r="C73" t="n">
-        <v>0.216524</v>
+        <v>0.220923</v>
       </c>
       <c r="D73" t="n">
-        <v>0.222133</v>
+        <v>0.224412</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.215161</v>
+        <v>0.214855</v>
       </c>
       <c r="C74" t="n">
-        <v>0.215099</v>
+        <v>0.219958</v>
       </c>
       <c r="D74" t="n">
-        <v>0.220847</v>
+        <v>0.223454</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.209739</v>
+        <v>0.209292</v>
       </c>
       <c r="C75" t="n">
-        <v>0.213593</v>
+        <v>0.218897</v>
       </c>
       <c r="D75" t="n">
-        <v>0.219647</v>
+        <v>0.222589</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.203607</v>
+        <v>0.203418</v>
       </c>
       <c r="C76" t="n">
-        <v>0.212505</v>
+        <v>0.217986</v>
       </c>
       <c r="D76" t="n">
-        <v>0.218481</v>
+        <v>0.221663</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.196857</v>
+        <v>0.196555</v>
       </c>
       <c r="C77" t="n">
-        <v>0.210934</v>
+        <v>0.216992</v>
       </c>
       <c r="D77" t="n">
-        <v>0.217491</v>
+        <v>0.220896</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.189322</v>
+        <v>0.189483</v>
       </c>
       <c r="C78" t="n">
-        <v>0.20933</v>
+        <v>0.215923</v>
       </c>
       <c r="D78" t="n">
-        <v>0.216471</v>
+        <v>0.220116</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.181531</v>
+        <v>0.181572</v>
       </c>
       <c r="C79" t="n">
-        <v>0.208115</v>
+        <v>0.214963</v>
       </c>
       <c r="D79" t="n">
-        <v>0.215584</v>
+        <v>0.219392</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.172133</v>
+        <v>0.171854</v>
       </c>
       <c r="C80" t="n">
-        <v>0.206817</v>
+        <v>0.214023</v>
       </c>
       <c r="D80" t="n">
-        <v>0.233791</v>
+        <v>0.233617</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.248246</v>
+        <v>0.248169</v>
       </c>
       <c r="C81" t="n">
-        <v>0.226766</v>
+        <v>0.228538</v>
       </c>
       <c r="D81" t="n">
-        <v>0.232095</v>
+        <v>0.232119</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.244942</v>
+        <v>0.24491</v>
       </c>
       <c r="C82" t="n">
-        <v>0.225045</v>
+        <v>0.227322</v>
       </c>
       <c r="D82" t="n">
-        <v>0.230503</v>
+        <v>0.231146</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.241082</v>
+        <v>0.240961</v>
       </c>
       <c r="C83" t="n">
-        <v>0.223136</v>
+        <v>0.22605</v>
       </c>
       <c r="D83" t="n">
-        <v>0.229075</v>
+        <v>0.229718</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.237076</v>
+        <v>0.236993</v>
       </c>
       <c r="C84" t="n">
-        <v>0.221754</v>
+        <v>0.225033</v>
       </c>
       <c r="D84" t="n">
-        <v>0.227376</v>
+        <v>0.228627</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.23263</v>
+        <v>0.232481</v>
       </c>
       <c r="C85" t="n">
-        <v>0.220086</v>
+        <v>0.223863</v>
       </c>
       <c r="D85" t="n">
-        <v>0.225945</v>
+        <v>0.227547</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.227231</v>
+        <v>0.227546</v>
       </c>
       <c r="C86" t="n">
-        <v>0.21879</v>
+        <v>0.222967</v>
       </c>
       <c r="D86" t="n">
-        <v>0.224521</v>
+        <v>0.226408</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.222396</v>
+        <v>0.222337</v>
       </c>
       <c r="C87" t="n">
-        <v>0.216926</v>
+        <v>0.221829</v>
       </c>
       <c r="D87" t="n">
-        <v>0.22316</v>
+        <v>0.225347</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.217028</v>
+        <v>0.216878</v>
       </c>
       <c r="C88" t="n">
-        <v>0.216059</v>
+        <v>0.220886</v>
       </c>
       <c r="D88" t="n">
-        <v>0.221795</v>
+        <v>0.224306</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.211303</v>
+        <v>0.211197</v>
       </c>
       <c r="C89" t="n">
-        <v>0.214507</v>
+        <v>0.219594</v>
       </c>
       <c r="D89" t="n">
-        <v>0.220381</v>
+        <v>0.223221</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.20543</v>
+        <v>0.204584</v>
       </c>
       <c r="C90" t="n">
-        <v>0.212828</v>
+        <v>0.218787</v>
       </c>
       <c r="D90" t="n">
-        <v>0.21912</v>
+        <v>0.222313</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.198565</v>
+        <v>0.1982</v>
       </c>
       <c r="C91" t="n">
-        <v>0.211308</v>
+        <v>0.217523</v>
       </c>
       <c r="D91" t="n">
-        <v>0.217805</v>
+        <v>0.221358</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.191453</v>
+        <v>0.191123</v>
       </c>
       <c r="C92" t="n">
-        <v>0.210017</v>
+        <v>0.216524</v>
       </c>
       <c r="D92" t="n">
-        <v>0.216738</v>
+        <v>0.2205</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.183575</v>
+        <v>0.183353</v>
       </c>
       <c r="C93" t="n">
-        <v>0.208451</v>
+        <v>0.21555</v>
       </c>
       <c r="D93" t="n">
-        <v>0.21567</v>
+        <v>0.219629</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.17465</v>
+        <v>0.174398</v>
       </c>
       <c r="C94" t="n">
-        <v>0.206999</v>
+        <v>0.214404</v>
       </c>
       <c r="D94" t="n">
-        <v>0.23474</v>
+        <v>0.233938</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.248698</v>
+        <v>0.248802</v>
       </c>
       <c r="C95" t="n">
-        <v>0.228104</v>
+        <v>0.231937</v>
       </c>
       <c r="D95" t="n">
-        <v>0.232941</v>
+        <v>0.232744</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.245803</v>
+        <v>0.245923</v>
       </c>
       <c r="C96" t="n">
-        <v>0.226873</v>
+        <v>0.230388</v>
       </c>
       <c r="D96" t="n">
-        <v>0.231326</v>
+        <v>0.231672</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.241985</v>
+        <v>0.241923</v>
       </c>
       <c r="C97" t="n">
-        <v>0.224804</v>
+        <v>0.229255</v>
       </c>
       <c r="D97" t="n">
-        <v>0.229535</v>
+        <v>0.230199</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.238018</v>
+        <v>0.237913</v>
       </c>
       <c r="C98" t="n">
-        <v>0.222857</v>
+        <v>0.226875</v>
       </c>
       <c r="D98" t="n">
-        <v>0.2281</v>
+        <v>0.229369</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.233304</v>
+        <v>0.233477</v>
       </c>
       <c r="C99" t="n">
-        <v>0.22155</v>
+        <v>0.226756</v>
       </c>
       <c r="D99" t="n">
-        <v>0.226327</v>
+        <v>0.227916</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.228923</v>
+        <v>0.228823</v>
       </c>
       <c r="C100" t="n">
-        <v>0.219472</v>
+        <v>0.224628</v>
       </c>
       <c r="D100" t="n">
-        <v>0.224861</v>
+        <v>0.226781</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.223594</v>
+        <v>0.223891</v>
       </c>
       <c r="C101" t="n">
-        <v>0.217906</v>
+        <v>0.22371</v>
       </c>
       <c r="D101" t="n">
-        <v>0.223343</v>
+        <v>0.225825</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.21846</v>
+        <v>0.218392</v>
       </c>
       <c r="C102" t="n">
-        <v>0.216539</v>
+        <v>0.222727</v>
       </c>
       <c r="D102" t="n">
-        <v>0.222157</v>
+        <v>0.224704</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.213133</v>
+        <v>0.212982</v>
       </c>
       <c r="C103" t="n">
-        <v>0.215071</v>
+        <v>0.221262</v>
       </c>
       <c r="D103" t="n">
-        <v>0.220919</v>
+        <v>0.223656</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.207169</v>
+        <v>0.206828</v>
       </c>
       <c r="C104" t="n">
-        <v>0.213531</v>
+        <v>0.220276</v>
       </c>
       <c r="D104" t="n">
-        <v>0.219414</v>
+        <v>0.222572</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.200175</v>
+        <v>0.199981</v>
       </c>
       <c r="C105" t="n">
-        <v>0.212474</v>
+        <v>0.218915</v>
       </c>
       <c r="D105" t="n">
-        <v>0.21841</v>
+        <v>0.221814</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.193341</v>
+        <v>0.193174</v>
       </c>
       <c r="C106" t="n">
-        <v>0.210547</v>
+        <v>0.218051</v>
       </c>
       <c r="D106" t="n">
-        <v>0.217273</v>
+        <v>0.221054</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.185556</v>
+        <v>0.185647</v>
       </c>
       <c r="C107" t="n">
-        <v>0.209101</v>
+        <v>0.216837</v>
       </c>
       <c r="D107" t="n">
-        <v>0.216228</v>
+        <v>0.220153</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.176784</v>
+        <v>0.176659</v>
       </c>
       <c r="C108" t="n">
-        <v>0.207711</v>
+        <v>0.215483</v>
       </c>
       <c r="D108" t="n">
-        <v>0.235474</v>
+        <v>0.234795</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.166183</v>
+        <v>0.166093</v>
       </c>
       <c r="C109" t="n">
-        <v>0.205583</v>
+        <v>0.213676</v>
       </c>
       <c r="D109" t="n">
-        <v>0.233273</v>
+        <v>0.233026</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.245925</v>
+        <v>0.246047</v>
       </c>
       <c r="C110" t="n">
-        <v>0.225921</v>
+        <v>0.228459</v>
       </c>
       <c r="D110" t="n">
-        <v>0.23177</v>
+        <v>0.231995</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.242422</v>
+        <v>0.24269</v>
       </c>
       <c r="C111" t="n">
-        <v>0.224406</v>
+        <v>0.227534</v>
       </c>
       <c r="D111" t="n">
-        <v>0.230129</v>
+        <v>0.230792</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.238533</v>
+        <v>0.238737</v>
       </c>
       <c r="C112" t="n">
-        <v>0.2225</v>
+        <v>0.226742</v>
       </c>
       <c r="D112" t="n">
-        <v>0.228448</v>
+        <v>0.229573</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.233989</v>
+        <v>0.234028</v>
       </c>
       <c r="C113" t="n">
-        <v>0.221458</v>
+        <v>0.226369</v>
       </c>
       <c r="D113" t="n">
-        <v>0.227135</v>
+        <v>0.228716</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.229287</v>
+        <v>0.229229</v>
       </c>
       <c r="C114" t="n">
-        <v>0.220101</v>
+        <v>0.225542</v>
       </c>
       <c r="D114" t="n">
-        <v>0.225456</v>
+        <v>0.227383</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.224582</v>
+        <v>0.224501</v>
       </c>
       <c r="C115" t="n">
-        <v>0.218352</v>
+        <v>0.224869</v>
       </c>
       <c r="D115" t="n">
-        <v>0.224295</v>
+        <v>0.226595</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.219479</v>
+        <v>0.219215</v>
       </c>
       <c r="C116" t="n">
-        <v>0.216952</v>
+        <v>0.221425</v>
       </c>
       <c r="D116" t="n">
-        <v>0.222872</v>
+        <v>0.225288</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.214133</v>
+        <v>0.213888</v>
       </c>
       <c r="C117" t="n">
-        <v>0.215168</v>
+        <v>0.222016</v>
       </c>
       <c r="D117" t="n">
-        <v>0.221691</v>
+        <v>0.224303</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.208338</v>
+        <v>0.207952</v>
       </c>
       <c r="C118" t="n">
-        <v>0.213813</v>
+        <v>0.221172</v>
       </c>
       <c r="D118" t="n">
-        <v>0.220215</v>
+        <v>0.223442</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.201752</v>
+        <v>0.201899</v>
       </c>
       <c r="C119" t="n">
-        <v>0.212863</v>
+        <v>0.220054</v>
       </c>
       <c r="D119" t="n">
-        <v>0.219088</v>
+        <v>0.222441</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.194776</v>
+        <v>0.195002</v>
       </c>
       <c r="C120" t="n">
-        <v>0.211283</v>
+        <v>0.218915</v>
       </c>
       <c r="D120" t="n">
-        <v>0.217854</v>
+        <v>0.221453</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.187848</v>
+        <v>0.187854</v>
       </c>
       <c r="C121" t="n">
-        <v>0.209654</v>
+        <v>0.217835</v>
       </c>
       <c r="D121" t="n">
-        <v>0.216676</v>
+        <v>0.220578</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.179086</v>
+        <v>0.178923</v>
       </c>
       <c r="C122" t="n">
-        <v>0.207934</v>
+        <v>0.21676</v>
       </c>
       <c r="D122" t="n">
-        <v>0.215517</v>
+        <v>0.219735</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.168489</v>
+        <v>0.168336</v>
       </c>
       <c r="C123" t="n">
-        <v>0.206237</v>
+        <v>0.215329</v>
       </c>
       <c r="D123" t="n">
-        <v>0.234</v>
+        <v>0.233839</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.246848</v>
+        <v>0.24689</v>
       </c>
       <c r="C124" t="n">
-        <v>0.226128</v>
+        <v>0.22854</v>
       </c>
       <c r="D124" t="n">
-        <v>0.231938</v>
+        <v>0.232547</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.24358</v>
+        <v>0.243402</v>
       </c>
       <c r="C125" t="n">
-        <v>0.224571</v>
+        <v>0.227267</v>
       </c>
       <c r="D125" t="n">
-        <v>0.230548</v>
+        <v>0.231406</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.239928</v>
+        <v>0.239793</v>
       </c>
       <c r="C126" t="n">
-        <v>0.223218</v>
+        <v>0.225684</v>
       </c>
       <c r="D126" t="n">
-        <v>0.228604</v>
+        <v>0.230285</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.235893</v>
+        <v>0.237956</v>
       </c>
       <c r="C127" t="n">
-        <v>0.221303</v>
+        <v>0.225436</v>
       </c>
       <c r="D127" t="n">
-        <v>0.227363</v>
+        <v>0.229083</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.233275</v>
+        <v>0.232622</v>
       </c>
       <c r="C128" t="n">
-        <v>0.220402</v>
+        <v>0.22502</v>
       </c>
       <c r="D128" t="n">
-        <v>0.225909</v>
+        <v>0.227747</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.228031</v>
+        <v>0.226837</v>
       </c>
       <c r="C129" t="n">
-        <v>0.218131</v>
+        <v>0.224176</v>
       </c>
       <c r="D129" t="n">
-        <v>0.22437</v>
+        <v>0.22671</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.222661</v>
+        <v>0.222732</v>
       </c>
       <c r="C130" t="n">
-        <v>0.217272</v>
+        <v>0.222922</v>
       </c>
       <c r="D130" t="n">
-        <v>0.222893</v>
+        <v>0.224695</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.217099</v>
+        <v>0.216292</v>
       </c>
       <c r="C131" t="n">
-        <v>0.215722</v>
+        <v>0.222044</v>
       </c>
       <c r="D131" t="n">
-        <v>0.221554</v>
+        <v>0.224641</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.2111</v>
+        <v>0.209423</v>
       </c>
       <c r="C132" t="n">
-        <v>0.214129</v>
+        <v>0.22093</v>
       </c>
       <c r="D132" t="n">
-        <v>0.220485</v>
+        <v>0.22278</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.203689</v>
+        <v>0.203543</v>
       </c>
       <c r="C133" t="n">
-        <v>0.213</v>
+        <v>0.218198</v>
       </c>
       <c r="D133" t="n">
-        <v>0.218844</v>
+        <v>0.222735</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.197353</v>
+        <v>0.196695</v>
       </c>
       <c r="C134" t="n">
-        <v>0.211505</v>
+        <v>0.218924</v>
       </c>
       <c r="D134" t="n">
-        <v>0.217888</v>
+        <v>0.221547</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.189079</v>
+        <v>0.188989</v>
       </c>
       <c r="C135" t="n">
-        <v>0.209677</v>
+        <v>0.217648</v>
       </c>
       <c r="D135" t="n">
-        <v>0.216857</v>
+        <v>0.22062</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.180198</v>
+        <v>0.179536</v>
       </c>
       <c r="C136" t="n">
-        <v>0.208184</v>
+        <v>0.216533</v>
       </c>
       <c r="D136" t="n">
-        <v>0.215672</v>
+        <v>0.219915</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.169851</v>
+        <v>0.169589</v>
       </c>
       <c r="C137" t="n">
-        <v>0.206934</v>
+        <v>0.215537</v>
       </c>
       <c r="D137" t="n">
-        <v>0.234236</v>
+        <v>0.234035</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.247385</v>
+        <v>0.247316</v>
       </c>
       <c r="C138" t="n">
-        <v>0.226535</v>
+        <v>0.228722</v>
       </c>
       <c r="D138" t="n">
-        <v>0.232261</v>
+        <v>0.232741</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.244203</v>
+        <v>0.244025</v>
       </c>
       <c r="C139" t="n">
-        <v>0.224571</v>
+        <v>0.227726</v>
       </c>
       <c r="D139" t="n">
-        <v>0.230936</v>
+        <v>0.231585</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.240521</v>
+        <v>0.240436</v>
       </c>
       <c r="C140" t="n">
-        <v>0.223363</v>
+        <v>0.227046</v>
       </c>
       <c r="D140" t="n">
-        <v>0.229306</v>
+        <v>0.22999</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.236153</v>
+        <v>0.235987</v>
       </c>
       <c r="C141" t="n">
-        <v>0.221892</v>
+        <v>0.226447</v>
       </c>
       <c r="D141" t="n">
-        <v>0.227705</v>
+        <v>0.229388</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.231503</v>
+        <v>0.231338</v>
       </c>
       <c r="C142" t="n">
-        <v>0.220702</v>
+        <v>0.225467</v>
       </c>
       <c r="D142" t="n">
-        <v>0.226238</v>
+        <v>0.228229</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.2267</v>
+        <v>0.226442</v>
       </c>
       <c r="C143" t="n">
-        <v>0.219082</v>
+        <v>0.224989</v>
       </c>
       <c r="D143" t="n">
-        <v>0.224723</v>
+        <v>0.227079</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.197085</v>
+        <v>0.200717</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204564</v>
+        <v>0.204759</v>
       </c>
       <c r="D2" t="n">
-        <v>0.21324</v>
+        <v>0.212987</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.190508</v>
+        <v>0.194895</v>
       </c>
       <c r="C3" t="n">
-        <v>0.20538</v>
+        <v>0.20438</v>
       </c>
       <c r="D3" t="n">
-        <v>0.214318</v>
+        <v>0.214093</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.186868</v>
+        <v>0.186059</v>
       </c>
       <c r="C4" t="n">
-        <v>0.204857</v>
+        <v>0.204893</v>
       </c>
       <c r="D4" t="n">
-        <v>0.213145</v>
+        <v>0.213304</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.181859</v>
+        <v>0.181406</v>
       </c>
       <c r="C5" t="n">
-        <v>0.205172</v>
+        <v>0.205395</v>
       </c>
       <c r="D5" t="n">
-        <v>0.212758</v>
+        <v>0.213</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.177036</v>
+        <v>0.176183</v>
       </c>
       <c r="C6" t="n">
-        <v>0.205409</v>
+        <v>0.206149</v>
       </c>
       <c r="D6" t="n">
-        <v>0.214249</v>
+        <v>0.214179</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.169552</v>
+        <v>0.169272</v>
       </c>
       <c r="C7" t="n">
-        <v>0.20601</v>
+        <v>0.205511</v>
       </c>
       <c r="D7" t="n">
-        <v>0.213164</v>
+        <v>0.213498</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.161947</v>
+        <v>0.162172</v>
       </c>
       <c r="C8" t="n">
-        <v>0.204107</v>
+        <v>0.203765</v>
       </c>
       <c r="D8" t="n">
-        <v>0.212506</v>
+        <v>0.212625</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.150905</v>
+        <v>0.1507</v>
       </c>
       <c r="C9" t="n">
-        <v>0.204306</v>
+        <v>0.204551</v>
       </c>
       <c r="D9" t="n">
-        <v>0.228803</v>
+        <v>0.228703</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.228846</v>
+        <v>0.229229</v>
       </c>
       <c r="C10" t="n">
-        <v>0.22276</v>
+        <v>0.222312</v>
       </c>
       <c r="D10" t="n">
-        <v>0.227793</v>
+        <v>0.228181</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.226873</v>
+        <v>0.226683</v>
       </c>
       <c r="C11" t="n">
-        <v>0.222659</v>
+        <v>0.222312</v>
       </c>
       <c r="D11" t="n">
-        <v>0.227333</v>
+        <v>0.227826</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.224452</v>
+        <v>0.225054</v>
       </c>
       <c r="C12" t="n">
-        <v>0.221021</v>
+        <v>0.220999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.226075</v>
+        <v>0.226107</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.220926</v>
+        <v>0.222008</v>
       </c>
       <c r="C13" t="n">
-        <v>0.219787</v>
+        <v>0.219924</v>
       </c>
       <c r="D13" t="n">
-        <v>0.225368</v>
+        <v>0.225602</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.216458</v>
+        <v>0.218573</v>
       </c>
       <c r="C14" t="n">
-        <v>0.218479</v>
+        <v>0.218629</v>
       </c>
       <c r="D14" t="n">
-        <v>0.224216</v>
+        <v>0.224299</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.212869</v>
+        <v>0.214002</v>
       </c>
       <c r="C15" t="n">
-        <v>0.217353</v>
+        <v>0.218257</v>
       </c>
       <c r="D15" t="n">
-        <v>0.223126</v>
+        <v>0.22298</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.209292</v>
+        <v>0.209515</v>
       </c>
       <c r="C16" t="n">
-        <v>0.217059</v>
+        <v>0.217394</v>
       </c>
       <c r="D16" t="n">
-        <v>0.22289</v>
+        <v>0.222566</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.204564</v>
+        <v>0.203742</v>
       </c>
       <c r="C17" t="n">
-        <v>0.215886</v>
+        <v>0.215892</v>
       </c>
       <c r="D17" t="n">
-        <v>0.221374</v>
+        <v>0.221531</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.199305</v>
+        <v>0.199205</v>
       </c>
       <c r="C18" t="n">
-        <v>0.215183</v>
+        <v>0.215856</v>
       </c>
       <c r="D18" t="n">
-        <v>0.22085</v>
+        <v>0.220983</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.192592</v>
+        <v>0.194535</v>
       </c>
       <c r="C19" t="n">
-        <v>0.214412</v>
+        <v>0.214055</v>
       </c>
       <c r="D19" t="n">
-        <v>0.219784</v>
+        <v>0.219898</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.187852</v>
+        <v>0.188189</v>
       </c>
       <c r="C20" t="n">
-        <v>0.215241</v>
+        <v>0.213885</v>
       </c>
       <c r="D20" t="n">
-        <v>0.218957</v>
+        <v>0.218991</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.180731</v>
+        <v>0.1814</v>
       </c>
       <c r="C21" t="n">
-        <v>0.214721</v>
+        <v>0.213735</v>
       </c>
       <c r="D21" t="n">
-        <v>0.218369</v>
+        <v>0.218435</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.174028</v>
+        <v>0.173803</v>
       </c>
       <c r="C22" t="n">
-        <v>0.212683</v>
+        <v>0.212853</v>
       </c>
       <c r="D22" t="n">
-        <v>0.217548</v>
+        <v>0.217794</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.164937</v>
+        <v>0.165164</v>
       </c>
       <c r="C23" t="n">
-        <v>0.211604</v>
+        <v>0.211743</v>
       </c>
       <c r="D23" t="n">
-        <v>0.232756</v>
+        <v>0.23177</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.239598</v>
+        <v>0.240159</v>
       </c>
       <c r="C24" t="n">
-        <v>0.226888</v>
+        <v>0.226809</v>
       </c>
       <c r="D24" t="n">
-        <v>0.230659</v>
+        <v>0.230931</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.235873</v>
+        <v>0.236738</v>
       </c>
       <c r="C25" t="n">
-        <v>0.225234</v>
+        <v>0.225345</v>
       </c>
       <c r="D25" t="n">
-        <v>0.229496</v>
+        <v>0.229541</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.233863</v>
+        <v>0.233496</v>
       </c>
       <c r="C26" t="n">
-        <v>0.223308</v>
+        <v>0.223617</v>
       </c>
       <c r="D26" t="n">
-        <v>0.227917</v>
+        <v>0.227968</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.229454</v>
+        <v>0.229523</v>
       </c>
       <c r="C27" t="n">
-        <v>0.222759</v>
+        <v>0.22255</v>
       </c>
       <c r="D27" t="n">
-        <v>0.226164</v>
+        <v>0.226254</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.225395</v>
+        <v>0.225497</v>
       </c>
       <c r="C28" t="n">
-        <v>0.221272</v>
+        <v>0.22098</v>
       </c>
       <c r="D28" t="n">
-        <v>0.225073</v>
+        <v>0.225215</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.220136</v>
+        <v>0.220006</v>
       </c>
       <c r="C29" t="n">
-        <v>0.21961</v>
+        <v>0.21954</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2242</v>
+        <v>0.2244</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.215297</v>
+        <v>0.215317</v>
       </c>
       <c r="C30" t="n">
-        <v>0.218889</v>
+        <v>0.218479</v>
       </c>
       <c r="D30" t="n">
-        <v>0.222869</v>
+        <v>0.222944</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.211458</v>
+        <v>0.211148</v>
       </c>
       <c r="C31" t="n">
-        <v>0.217901</v>
+        <v>0.217764</v>
       </c>
       <c r="D31" t="n">
-        <v>0.222018</v>
+        <v>0.222023</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.206038</v>
+        <v>0.206521</v>
       </c>
       <c r="C32" t="n">
-        <v>0.217668</v>
+        <v>0.217491</v>
       </c>
       <c r="D32" t="n">
-        <v>0.221776</v>
+        <v>0.22157</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.200201</v>
+        <v>0.200518</v>
       </c>
       <c r="C33" t="n">
-        <v>0.216538</v>
+        <v>0.216544</v>
       </c>
       <c r="D33" t="n">
-        <v>0.220911</v>
+        <v>0.220821</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.195273</v>
+        <v>0.195092</v>
       </c>
       <c r="C34" t="n">
-        <v>0.215939</v>
+        <v>0.21572</v>
       </c>
       <c r="D34" t="n">
-        <v>0.220279</v>
+        <v>0.220264</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.187287</v>
+        <v>0.187186</v>
       </c>
       <c r="C35" t="n">
-        <v>0.214957</v>
+        <v>0.214868</v>
       </c>
       <c r="D35" t="n">
-        <v>0.219537</v>
+        <v>0.219519</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.179984</v>
+        <v>0.179595</v>
       </c>
       <c r="C36" t="n">
-        <v>0.213341</v>
+        <v>0.213305</v>
       </c>
       <c r="D36" t="n">
-        <v>0.218557</v>
+        <v>0.218386</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.17029</v>
+        <v>0.170181</v>
       </c>
       <c r="C37" t="n">
-        <v>0.212566</v>
+        <v>0.212553</v>
       </c>
       <c r="D37" t="n">
-        <v>0.232223</v>
+        <v>0.232249</v>
       </c>
     </row>
     <row r="38">
@@ -3753,10 +3753,10 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.243915</v>
+        <v>0.243487</v>
       </c>
       <c r="C38" t="n">
-        <v>0.226876</v>
+        <v>0.226895</v>
       </c>
       <c r="D38" t="n">
         <v>0.230806</v>
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.241442</v>
+        <v>0.241308</v>
       </c>
       <c r="C39" t="n">
-        <v>0.22576</v>
+        <v>0.22569</v>
       </c>
       <c r="D39" t="n">
-        <v>0.22966</v>
+        <v>0.229586</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.237932</v>
+        <v>0.237836</v>
       </c>
       <c r="C40" t="n">
-        <v>0.224784</v>
+        <v>0.224453</v>
       </c>
       <c r="D40" t="n">
-        <v>0.228283</v>
+        <v>0.228453</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.233808</v>
+        <v>0.233317</v>
       </c>
       <c r="C41" t="n">
-        <v>0.22366</v>
+        <v>0.223462</v>
       </c>
       <c r="D41" t="n">
-        <v>0.227354</v>
+        <v>0.227328</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.23035</v>
+        <v>0.230018</v>
       </c>
       <c r="C42" t="n">
-        <v>0.222345</v>
+        <v>0.222196</v>
       </c>
       <c r="D42" t="n">
-        <v>0.226331</v>
+        <v>0.226347</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.226017</v>
+        <v>0.225792</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2212</v>
+        <v>0.221102</v>
       </c>
       <c r="D43" t="n">
-        <v>0.225517</v>
+        <v>0.225472</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.221208</v>
+        <v>0.221198</v>
       </c>
       <c r="C44" t="n">
-        <v>0.22023</v>
+        <v>0.220263</v>
       </c>
       <c r="D44" t="n">
-        <v>0.224477</v>
+        <v>0.22444</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.215941</v>
+        <v>0.216323</v>
       </c>
       <c r="C45" t="n">
-        <v>0.219278</v>
+        <v>0.219185</v>
       </c>
       <c r="D45" t="n">
-        <v>0.223379</v>
+        <v>0.223434</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.209535</v>
+        <v>0.210643</v>
       </c>
       <c r="C46" t="n">
-        <v>0.218323</v>
+        <v>0.217983</v>
       </c>
       <c r="D46" t="n">
-        <v>0.222526</v>
+        <v>0.222598</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.204328</v>
+        <v>0.204966</v>
       </c>
       <c r="C47" t="n">
-        <v>0.217895</v>
+        <v>0.21762</v>
       </c>
       <c r="D47" t="n">
-        <v>0.221877</v>
+        <v>0.221865</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.198241</v>
+        <v>0.197973</v>
       </c>
       <c r="C48" t="n">
-        <v>0.217027</v>
+        <v>0.216835</v>
       </c>
       <c r="D48" t="n">
-        <v>0.220869</v>
+        <v>0.220935</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.191964</v>
+        <v>0.192042</v>
       </c>
       <c r="C49" t="n">
-        <v>0.215815</v>
+        <v>0.215493</v>
       </c>
       <c r="D49" t="n">
-        <v>0.219848</v>
+        <v>0.219919</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.184783</v>
+        <v>0.184899</v>
       </c>
       <c r="C50" t="n">
-        <v>0.214669</v>
+        <v>0.214713</v>
       </c>
       <c r="D50" t="n">
-        <v>0.219473</v>
+        <v>0.219427</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.176519</v>
+        <v>0.176421</v>
       </c>
       <c r="C51" t="n">
-        <v>0.214192</v>
+        <v>0.214119</v>
       </c>
       <c r="D51" t="n">
-        <v>0.234007</v>
+        <v>0.233846</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.165754</v>
+        <v>0.165521</v>
       </c>
       <c r="C52" t="n">
-        <v>0.212624</v>
+        <v>0.212919</v>
       </c>
       <c r="D52" t="n">
-        <v>0.232186</v>
+        <v>0.232012</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.244814</v>
+        <v>0.244793</v>
       </c>
       <c r="C53" t="n">
-        <v>0.226794</v>
+        <v>0.226928</v>
       </c>
       <c r="D53" t="n">
-        <v>0.230907</v>
+        <v>0.230871</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.240717</v>
+        <v>0.240861</v>
       </c>
       <c r="C54" t="n">
-        <v>0.225918</v>
+        <v>0.225674</v>
       </c>
       <c r="D54" t="n">
-        <v>0.229676</v>
+        <v>0.229672</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.237389</v>
+        <v>0.23711</v>
       </c>
       <c r="C55" t="n">
         <v>0.224651</v>
       </c>
       <c r="D55" t="n">
-        <v>0.228701</v>
+        <v>0.228652</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.232891</v>
+        <v>0.232874</v>
       </c>
       <c r="C56" t="n">
-        <v>0.223265</v>
+        <v>0.223193</v>
       </c>
       <c r="D56" t="n">
-        <v>0.227225</v>
+        <v>0.227197</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.227953</v>
+        <v>0.227589</v>
       </c>
       <c r="C57" t="n">
-        <v>0.222297</v>
+        <v>0.222286</v>
       </c>
       <c r="D57" t="n">
-        <v>0.226232</v>
+        <v>0.226247</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.223353</v>
+        <v>0.223187</v>
       </c>
       <c r="C58" t="n">
-        <v>0.221574</v>
+        <v>0.221278</v>
       </c>
       <c r="D58" t="n">
-        <v>0.22527</v>
+        <v>0.225367</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.218978</v>
+        <v>0.218967</v>
       </c>
       <c r="C59" t="n">
-        <v>0.220397</v>
+        <v>0.220349</v>
       </c>
       <c r="D59" t="n">
-        <v>0.224218</v>
+        <v>0.224323</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.214048</v>
+        <v>0.213973</v>
       </c>
       <c r="C60" t="n">
-        <v>0.219715</v>
+        <v>0.219604</v>
       </c>
       <c r="D60" t="n">
-        <v>0.223553</v>
+        <v>0.223581</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.207584</v>
+        <v>0.207313</v>
       </c>
       <c r="C61" t="n">
-        <v>0.218682</v>
+        <v>0.21875</v>
       </c>
       <c r="D61" t="n">
-        <v>0.2227</v>
+        <v>0.222644</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.201676</v>
+        <v>0.201726</v>
       </c>
       <c r="C62" t="n">
-        <v>0.21769</v>
+        <v>0.217722</v>
       </c>
       <c r="D62" t="n">
-        <v>0.221646</v>
+        <v>0.221539</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.194558</v>
+        <v>0.194639</v>
       </c>
       <c r="C63" t="n">
-        <v>0.216461</v>
+        <v>0.216644</v>
       </c>
       <c r="D63" t="n">
-        <v>0.220699</v>
+        <v>0.220679</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.187288</v>
+        <v>0.187456</v>
       </c>
       <c r="C64" t="n">
-        <v>0.215538</v>
+        <v>0.215654</v>
       </c>
       <c r="D64" t="n">
-        <v>0.219864</v>
+        <v>0.219747</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178668</v>
+        <v>0.179487</v>
       </c>
       <c r="C65" t="n">
-        <v>0.214795</v>
+        <v>0.214714</v>
       </c>
       <c r="D65" t="n">
-        <v>0.219291</v>
+        <v>0.219173</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.169281</v>
+        <v>0.169901</v>
       </c>
       <c r="C66" t="n">
-        <v>0.213576</v>
+        <v>0.213716</v>
       </c>
       <c r="D66" t="n">
-        <v>0.233037</v>
+        <v>0.232873</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.247102</v>
+        <v>0.246925</v>
       </c>
       <c r="C67" t="n">
-        <v>0.228169</v>
+        <v>0.227892</v>
       </c>
       <c r="D67" t="n">
-        <v>0.231861</v>
+        <v>0.231809</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.243755</v>
+        <v>0.243859</v>
       </c>
       <c r="C68" t="n">
-        <v>0.22671</v>
+        <v>0.226737</v>
       </c>
       <c r="D68" t="n">
-        <v>0.230455</v>
+        <v>0.23045</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.239852</v>
+        <v>0.239843</v>
       </c>
       <c r="C69" t="n">
-        <v>0.225301</v>
+        <v>0.225332</v>
       </c>
       <c r="D69" t="n">
-        <v>0.22904</v>
+        <v>0.228986</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.235403</v>
+        <v>0.235092</v>
       </c>
       <c r="C70" t="n">
-        <v>0.224024</v>
+        <v>0.224062</v>
       </c>
       <c r="D70" t="n">
-        <v>0.227948</v>
+        <v>0.227799</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.230826</v>
+        <v>0.230321</v>
       </c>
       <c r="C71" t="n">
-        <v>0.223108</v>
+        <v>0.223157</v>
       </c>
       <c r="D71" t="n">
-        <v>0.226669</v>
+        <v>0.22678</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.225689</v>
+        <v>0.225539</v>
       </c>
       <c r="C72" t="n">
-        <v>0.222101</v>
+        <v>0.221968</v>
       </c>
       <c r="D72" t="n">
-        <v>0.225492</v>
+        <v>0.225563</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.219848</v>
+        <v>0.22002</v>
       </c>
       <c r="C73" t="n">
-        <v>0.220923</v>
+        <v>0.220969</v>
       </c>
       <c r="D73" t="n">
-        <v>0.224412</v>
+        <v>0.224449</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.214855</v>
+        <v>0.214869</v>
       </c>
       <c r="C74" t="n">
-        <v>0.219958</v>
+        <v>0.219977</v>
       </c>
       <c r="D74" t="n">
-        <v>0.223454</v>
+        <v>0.223579</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.209292</v>
+        <v>0.209275</v>
       </c>
       <c r="C75" t="n">
-        <v>0.218897</v>
+        <v>0.218823</v>
       </c>
       <c r="D75" t="n">
-        <v>0.222589</v>
+        <v>0.222618</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.203418</v>
+        <v>0.203435</v>
       </c>
       <c r="C76" t="n">
-        <v>0.217986</v>
+        <v>0.217785</v>
       </c>
       <c r="D76" t="n">
-        <v>0.221663</v>
+        <v>0.221762</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.196555</v>
+        <v>0.196971</v>
       </c>
       <c r="C77" t="n">
-        <v>0.216992</v>
+        <v>0.216915</v>
       </c>
       <c r="D77" t="n">
-        <v>0.220896</v>
+        <v>0.220926</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.189483</v>
+        <v>0.189778</v>
       </c>
       <c r="C78" t="n">
-        <v>0.215923</v>
+        <v>0.216006</v>
       </c>
       <c r="D78" t="n">
-        <v>0.220116</v>
+        <v>0.22014</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.181572</v>
+        <v>0.181913</v>
       </c>
       <c r="C79" t="n">
-        <v>0.214963</v>
+        <v>0.215085</v>
       </c>
       <c r="D79" t="n">
-        <v>0.219392</v>
+        <v>0.219393</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.171854</v>
+        <v>0.172661</v>
       </c>
       <c r="C80" t="n">
-        <v>0.214023</v>
+        <v>0.214015</v>
       </c>
       <c r="D80" t="n">
-        <v>0.233617</v>
+        <v>0.233595</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.248169</v>
+        <v>0.248197</v>
       </c>
       <c r="C81" t="n">
-        <v>0.228538</v>
+        <v>0.228495</v>
       </c>
       <c r="D81" t="n">
-        <v>0.232119</v>
+        <v>0.232231</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.24491</v>
+        <v>0.244814</v>
       </c>
       <c r="C82" t="n">
-        <v>0.227322</v>
+        <v>0.227302</v>
       </c>
       <c r="D82" t="n">
-        <v>0.231146</v>
+        <v>0.231136</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.240961</v>
+        <v>0.240642</v>
       </c>
       <c r="C83" t="n">
-        <v>0.22605</v>
+        <v>0.225967</v>
       </c>
       <c r="D83" t="n">
-        <v>0.229718</v>
+        <v>0.229737</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.236993</v>
+        <v>0.236742</v>
       </c>
       <c r="C84" t="n">
-        <v>0.225033</v>
+        <v>0.224955</v>
       </c>
       <c r="D84" t="n">
-        <v>0.228627</v>
+        <v>0.228624</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.232481</v>
+        <v>0.232326</v>
       </c>
       <c r="C85" t="n">
-        <v>0.223863</v>
+        <v>0.223839</v>
       </c>
       <c r="D85" t="n">
-        <v>0.227547</v>
+        <v>0.227522</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.227546</v>
+        <v>0.227367</v>
       </c>
       <c r="C86" t="n">
-        <v>0.222967</v>
+        <v>0.223021</v>
       </c>
       <c r="D86" t="n">
-        <v>0.226408</v>
+        <v>0.226406</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.222337</v>
+        <v>0.222096</v>
       </c>
       <c r="C87" t="n">
-        <v>0.221829</v>
+        <v>0.221588</v>
       </c>
       <c r="D87" t="n">
-        <v>0.225347</v>
+        <v>0.225267</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.216878</v>
+        <v>0.216929</v>
       </c>
       <c r="C88" t="n">
-        <v>0.220886</v>
+        <v>0.220847</v>
       </c>
       <c r="D88" t="n">
-        <v>0.224306</v>
+        <v>0.224267</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.211197</v>
+        <v>0.211322</v>
       </c>
       <c r="C89" t="n">
-        <v>0.219594</v>
+        <v>0.219515</v>
       </c>
       <c r="D89" t="n">
-        <v>0.223221</v>
+        <v>0.223151</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.204584</v>
+        <v>0.204964</v>
       </c>
       <c r="C90" t="n">
-        <v>0.218787</v>
+        <v>0.218646</v>
       </c>
       <c r="D90" t="n">
-        <v>0.222313</v>
+        <v>0.222205</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1982</v>
+        <v>0.198568</v>
       </c>
       <c r="C91" t="n">
-        <v>0.217523</v>
+        <v>0.217637</v>
       </c>
       <c r="D91" t="n">
-        <v>0.221358</v>
+        <v>0.221292</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.191123</v>
+        <v>0.191748</v>
       </c>
       <c r="C92" t="n">
-        <v>0.216524</v>
+        <v>0.216515</v>
       </c>
       <c r="D92" t="n">
-        <v>0.2205</v>
+        <v>0.220415</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.183353</v>
+        <v>0.183873</v>
       </c>
       <c r="C93" t="n">
-        <v>0.21555</v>
+        <v>0.215572</v>
       </c>
       <c r="D93" t="n">
-        <v>0.219629</v>
+        <v>0.219619</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.174398</v>
+        <v>0.174878</v>
       </c>
       <c r="C94" t="n">
-        <v>0.214404</v>
+        <v>0.214296</v>
       </c>
       <c r="D94" t="n">
-        <v>0.233938</v>
+        <v>0.234162</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.248802</v>
+        <v>0.24859</v>
       </c>
       <c r="C95" t="n">
-        <v>0.231937</v>
+        <v>0.231741</v>
       </c>
       <c r="D95" t="n">
-        <v>0.232744</v>
+        <v>0.232678</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.245923</v>
+        <v>0.245711</v>
       </c>
       <c r="C96" t="n">
-        <v>0.230388</v>
+        <v>0.229931</v>
       </c>
       <c r="D96" t="n">
-        <v>0.231672</v>
+        <v>0.231594</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.241923</v>
+        <v>0.241884</v>
       </c>
       <c r="C97" t="n">
-        <v>0.229255</v>
+        <v>0.229416</v>
       </c>
       <c r="D97" t="n">
-        <v>0.230199</v>
+        <v>0.230373</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.237913</v>
+        <v>0.237735</v>
       </c>
       <c r="C98" t="n">
-        <v>0.226875</v>
+        <v>0.227259</v>
       </c>
       <c r="D98" t="n">
-        <v>0.229369</v>
+        <v>0.229282</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.233477</v>
+        <v>0.232996</v>
       </c>
       <c r="C99" t="n">
-        <v>0.226756</v>
+        <v>0.226692</v>
       </c>
       <c r="D99" t="n">
-        <v>0.227916</v>
+        <v>0.227854</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.228823</v>
+        <v>0.22875</v>
       </c>
       <c r="C100" t="n">
-        <v>0.224628</v>
+        <v>0.224674</v>
       </c>
       <c r="D100" t="n">
-        <v>0.226781</v>
+        <v>0.226626</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.223891</v>
+        <v>0.223445</v>
       </c>
       <c r="C101" t="n">
-        <v>0.22371</v>
+        <v>0.223765</v>
       </c>
       <c r="D101" t="n">
-        <v>0.225825</v>
+        <v>0.225585</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.218392</v>
+        <v>0.218125</v>
       </c>
       <c r="C102" t="n">
-        <v>0.222727</v>
+        <v>0.222294</v>
       </c>
       <c r="D102" t="n">
-        <v>0.224704</v>
+        <v>0.224667</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.212982</v>
+        <v>0.212839</v>
       </c>
       <c r="C103" t="n">
-        <v>0.221262</v>
+        <v>0.22125</v>
       </c>
       <c r="D103" t="n">
-        <v>0.223656</v>
+        <v>0.223757</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.206828</v>
+        <v>0.207135</v>
       </c>
       <c r="C104" t="n">
-        <v>0.220276</v>
+        <v>0.220158</v>
       </c>
       <c r="D104" t="n">
-        <v>0.222572</v>
+        <v>0.222569</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.199981</v>
+        <v>0.200177</v>
       </c>
       <c r="C105" t="n">
-        <v>0.218915</v>
+        <v>0.218841</v>
       </c>
       <c r="D105" t="n">
-        <v>0.221814</v>
+        <v>0.221752</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.193174</v>
+        <v>0.193708</v>
       </c>
       <c r="C106" t="n">
-        <v>0.218051</v>
+        <v>0.217849</v>
       </c>
       <c r="D106" t="n">
-        <v>0.221054</v>
+        <v>0.221028</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.185647</v>
+        <v>0.186028</v>
       </c>
       <c r="C107" t="n">
-        <v>0.216837</v>
+        <v>0.216604</v>
       </c>
       <c r="D107" t="n">
-        <v>0.220153</v>
+        <v>0.220165</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.176659</v>
+        <v>0.177323</v>
       </c>
       <c r="C108" t="n">
-        <v>0.215483</v>
+        <v>0.215363</v>
       </c>
       <c r="D108" t="n">
-        <v>0.234795</v>
+        <v>0.234801</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.166093</v>
+        <v>0.166592</v>
       </c>
       <c r="C109" t="n">
-        <v>0.213676</v>
+        <v>0.21365</v>
       </c>
       <c r="D109" t="n">
-        <v>0.233026</v>
+        <v>0.233191</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.246047</v>
+        <v>0.245915</v>
       </c>
       <c r="C110" t="n">
-        <v>0.228459</v>
+        <v>0.228168</v>
       </c>
       <c r="D110" t="n">
-        <v>0.231995</v>
+        <v>0.231918</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.24269</v>
+        <v>0.242598</v>
       </c>
       <c r="C111" t="n">
-        <v>0.227534</v>
+        <v>0.227378</v>
       </c>
       <c r="D111" t="n">
-        <v>0.230792</v>
+        <v>0.230641</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.238737</v>
+        <v>0.238556</v>
       </c>
       <c r="C112" t="n">
-        <v>0.226742</v>
+        <v>0.226525</v>
       </c>
       <c r="D112" t="n">
-        <v>0.229573</v>
+        <v>0.229536</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.234028</v>
+        <v>0.233885</v>
       </c>
       <c r="C113" t="n">
-        <v>0.226369</v>
+        <v>0.226254</v>
       </c>
       <c r="D113" t="n">
-        <v>0.228716</v>
+        <v>0.228728</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.229229</v>
+        <v>0.229112</v>
       </c>
       <c r="C114" t="n">
-        <v>0.225542</v>
+        <v>0.225135</v>
       </c>
       <c r="D114" t="n">
-        <v>0.227383</v>
+        <v>0.227302</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.224501</v>
+        <v>0.224395</v>
       </c>
       <c r="C115" t="n">
-        <v>0.224869</v>
+        <v>0.223199</v>
       </c>
       <c r="D115" t="n">
-        <v>0.226595</v>
+        <v>0.226573</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.219215</v>
+        <v>0.219446</v>
       </c>
       <c r="C116" t="n">
-        <v>0.221425</v>
+        <v>0.2234</v>
       </c>
       <c r="D116" t="n">
-        <v>0.225288</v>
+        <v>0.225253</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.213888</v>
+        <v>0.213939</v>
       </c>
       <c r="C117" t="n">
-        <v>0.222016</v>
+        <v>0.220554</v>
       </c>
       <c r="D117" t="n">
-        <v>0.224303</v>
+        <v>0.224344</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.207952</v>
+        <v>0.207976</v>
       </c>
       <c r="C118" t="n">
-        <v>0.221172</v>
+        <v>0.221066</v>
       </c>
       <c r="D118" t="n">
-        <v>0.223442</v>
+        <v>0.223439</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.201899</v>
+        <v>0.201683</v>
       </c>
       <c r="C119" t="n">
-        <v>0.220054</v>
+        <v>0.220284</v>
       </c>
       <c r="D119" t="n">
-        <v>0.222441</v>
+        <v>0.222351</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.195002</v>
+        <v>0.195043</v>
       </c>
       <c r="C120" t="n">
-        <v>0.218915</v>
+        <v>0.21879</v>
       </c>
       <c r="D120" t="n">
-        <v>0.221453</v>
+        <v>0.221455</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.187854</v>
+        <v>0.187974</v>
       </c>
       <c r="C121" t="n">
-        <v>0.217835</v>
+        <v>0.217744</v>
       </c>
       <c r="D121" t="n">
-        <v>0.220578</v>
+        <v>0.220489</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.178923</v>
+        <v>0.178879</v>
       </c>
       <c r="C122" t="n">
-        <v>0.21676</v>
+        <v>0.216538</v>
       </c>
       <c r="D122" t="n">
-        <v>0.219735</v>
+        <v>0.219628</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.168336</v>
+        <v>0.168933</v>
       </c>
       <c r="C123" t="n">
-        <v>0.215329</v>
+        <v>0.214331</v>
       </c>
       <c r="D123" t="n">
-        <v>0.233839</v>
+        <v>0.233669</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.24689</v>
+        <v>0.246519</v>
       </c>
       <c r="C124" t="n">
-        <v>0.22854</v>
+        <v>0.228371</v>
       </c>
       <c r="D124" t="n">
-        <v>0.232547</v>
+        <v>0.232349</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.243402</v>
+        <v>0.243145</v>
       </c>
       <c r="C125" t="n">
-        <v>0.227267</v>
+        <v>0.226659</v>
       </c>
       <c r="D125" t="n">
-        <v>0.231406</v>
+        <v>0.231192</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.239793</v>
+        <v>0.240756</v>
       </c>
       <c r="C126" t="n">
-        <v>0.225684</v>
+        <v>0.226859</v>
       </c>
       <c r="D126" t="n">
-        <v>0.230285</v>
+        <v>0.230167</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.237956</v>
+        <v>0.236683</v>
       </c>
       <c r="C127" t="n">
-        <v>0.225436</v>
+        <v>0.226239</v>
       </c>
       <c r="D127" t="n">
-        <v>0.229083</v>
+        <v>0.22817</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.232622</v>
+        <v>0.233342</v>
       </c>
       <c r="C128" t="n">
-        <v>0.22502</v>
+        <v>0.223366</v>
       </c>
       <c r="D128" t="n">
-        <v>0.227747</v>
+        <v>0.227726</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.226837</v>
+        <v>0.225754</v>
       </c>
       <c r="C129" t="n">
-        <v>0.224176</v>
+        <v>0.224098</v>
       </c>
       <c r="D129" t="n">
-        <v>0.22671</v>
+        <v>0.226659</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.222732</v>
+        <v>0.222678</v>
       </c>
       <c r="C130" t="n">
-        <v>0.222922</v>
+        <v>0.223099</v>
       </c>
       <c r="D130" t="n">
-        <v>0.224695</v>
+        <v>0.22554</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.216292</v>
+        <v>0.215528</v>
       </c>
       <c r="C131" t="n">
-        <v>0.222044</v>
+        <v>0.221938</v>
       </c>
       <c r="D131" t="n">
-        <v>0.224641</v>
+        <v>0.224189</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.209423</v>
+        <v>0.209378</v>
       </c>
       <c r="C132" t="n">
-        <v>0.22093</v>
+        <v>0.220962</v>
       </c>
       <c r="D132" t="n">
-        <v>0.22278</v>
+        <v>0.223046</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.203543</v>
+        <v>0.203295</v>
       </c>
       <c r="C133" t="n">
-        <v>0.218198</v>
+        <v>0.218264</v>
       </c>
       <c r="D133" t="n">
-        <v>0.222735</v>
+        <v>0.222571</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.196695</v>
+        <v>0.197255</v>
       </c>
       <c r="C134" t="n">
-        <v>0.218924</v>
+        <v>0.218446</v>
       </c>
       <c r="D134" t="n">
-        <v>0.221547</v>
+        <v>0.221595</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.188989</v>
+        <v>0.189282</v>
       </c>
       <c r="C135" t="n">
-        <v>0.217648</v>
+        <v>0.217827</v>
       </c>
       <c r="D135" t="n">
-        <v>0.22062</v>
+        <v>0.22073</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.179536</v>
+        <v>0.180099</v>
       </c>
       <c r="C136" t="n">
-        <v>0.216533</v>
+        <v>0.216831</v>
       </c>
       <c r="D136" t="n">
-        <v>0.219915</v>
+        <v>0.219822</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.169589</v>
+        <v>0.17115</v>
       </c>
       <c r="C137" t="n">
-        <v>0.215537</v>
+        <v>0.214055</v>
       </c>
       <c r="D137" t="n">
-        <v>0.234035</v>
+        <v>0.233986</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.247316</v>
+        <v>0.247222</v>
       </c>
       <c r="C138" t="n">
-        <v>0.228722</v>
+        <v>0.228334</v>
       </c>
       <c r="D138" t="n">
-        <v>0.232741</v>
+        <v>0.232199</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.244025</v>
+        <v>0.244102</v>
       </c>
       <c r="C139" t="n">
-        <v>0.227726</v>
+        <v>0.227131</v>
       </c>
       <c r="D139" t="n">
-        <v>0.231585</v>
+        <v>0.231664</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.240436</v>
+        <v>0.2404</v>
       </c>
       <c r="C140" t="n">
-        <v>0.227046</v>
+        <v>0.225965</v>
       </c>
       <c r="D140" t="n">
-        <v>0.22999</v>
+        <v>0.230403</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.235987</v>
+        <v>0.236177</v>
       </c>
       <c r="C141" t="n">
-        <v>0.226447</v>
+        <v>0.225764</v>
       </c>
       <c r="D141" t="n">
-        <v>0.229388</v>
+        <v>0.229336</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.231338</v>
+        <v>0.231318</v>
       </c>
       <c r="C142" t="n">
-        <v>0.225467</v>
+        <v>0.225703</v>
       </c>
       <c r="D142" t="n">
-        <v>0.228229</v>
+        <v>0.227598</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.226442</v>
+        <v>0.226322</v>
       </c>
       <c r="C143" t="n">
-        <v>0.224989</v>
+        <v>0.224923</v>
       </c>
       <c r="D143" t="n">
-        <v>0.227079</v>
+        <v>0.227158</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.200717</v>
+        <v>0.195593</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204759</v>
+        <v>0.205492</v>
       </c>
       <c r="D2" t="n">
-        <v>0.212987</v>
+        <v>0.213533</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.194895</v>
+        <v>0.192114</v>
       </c>
       <c r="C3" t="n">
-        <v>0.20438</v>
+        <v>0.205171</v>
       </c>
       <c r="D3" t="n">
-        <v>0.214093</v>
+        <v>0.214308</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.186059</v>
+        <v>0.185403</v>
       </c>
       <c r="C4" t="n">
-        <v>0.204893</v>
+        <v>0.204983</v>
       </c>
       <c r="D4" t="n">
-        <v>0.213304</v>
+        <v>0.21334</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.181406</v>
+        <v>0.180433</v>
       </c>
       <c r="C5" t="n">
-        <v>0.205395</v>
+        <v>0.205232</v>
       </c>
       <c r="D5" t="n">
-        <v>0.213</v>
+        <v>0.213132</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.176183</v>
+        <v>0.176555</v>
       </c>
       <c r="C6" t="n">
-        <v>0.206149</v>
+        <v>0.20631</v>
       </c>
       <c r="D6" t="n">
-        <v>0.214179</v>
+        <v>0.214459</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.169272</v>
+        <v>0.167925</v>
       </c>
       <c r="C7" t="n">
-        <v>0.205511</v>
+        <v>0.205465</v>
       </c>
       <c r="D7" t="n">
-        <v>0.213498</v>
+        <v>0.212981</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.162172</v>
+        <v>0.16172</v>
       </c>
       <c r="C8" t="n">
-        <v>0.203765</v>
+        <v>0.20487</v>
       </c>
       <c r="D8" t="n">
-        <v>0.212625</v>
+        <v>0.212617</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1507</v>
+        <v>0.151245</v>
       </c>
       <c r="C9" t="n">
-        <v>0.204551</v>
+        <v>0.204242</v>
       </c>
       <c r="D9" t="n">
-        <v>0.228703</v>
+        <v>0.229606</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.229229</v>
+        <v>0.227956</v>
       </c>
       <c r="C10" t="n">
-        <v>0.222312</v>
+        <v>0.222406</v>
       </c>
       <c r="D10" t="n">
-        <v>0.228181</v>
+        <v>0.228287</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.226683</v>
+        <v>0.225283</v>
       </c>
       <c r="C11" t="n">
-        <v>0.222312</v>
+        <v>0.222842</v>
       </c>
       <c r="D11" t="n">
-        <v>0.227826</v>
+        <v>0.228308</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.225054</v>
+        <v>0.224264</v>
       </c>
       <c r="C12" t="n">
-        <v>0.220999</v>
+        <v>0.221297</v>
       </c>
       <c r="D12" t="n">
-        <v>0.226107</v>
+        <v>0.226273</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.222008</v>
+        <v>0.220386</v>
       </c>
       <c r="C13" t="n">
-        <v>0.219924</v>
+        <v>0.22042</v>
       </c>
       <c r="D13" t="n">
-        <v>0.225602</v>
+        <v>0.225589</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.218573</v>
+        <v>0.216854</v>
       </c>
       <c r="C14" t="n">
-        <v>0.218629</v>
+        <v>0.219068</v>
       </c>
       <c r="D14" t="n">
-        <v>0.224299</v>
+        <v>0.22434</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.214002</v>
+        <v>0.212982</v>
       </c>
       <c r="C15" t="n">
-        <v>0.218257</v>
+        <v>0.218014</v>
       </c>
       <c r="D15" t="n">
-        <v>0.22298</v>
+        <v>0.223167</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.209515</v>
+        <v>0.208868</v>
       </c>
       <c r="C16" t="n">
-        <v>0.217394</v>
+        <v>0.217436</v>
       </c>
       <c r="D16" t="n">
-        <v>0.222566</v>
+        <v>0.222651</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.203742</v>
+        <v>0.204227</v>
       </c>
       <c r="C17" t="n">
         <v>0.215892</v>
       </c>
       <c r="D17" t="n">
-        <v>0.221531</v>
+        <v>0.221641</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.199205</v>
+        <v>0.198991</v>
       </c>
       <c r="C18" t="n">
-        <v>0.215856</v>
+        <v>0.215541</v>
       </c>
       <c r="D18" t="n">
-        <v>0.220983</v>
+        <v>0.221149</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.194535</v>
+        <v>0.192996</v>
       </c>
       <c r="C19" t="n">
-        <v>0.214055</v>
+        <v>0.213967</v>
       </c>
       <c r="D19" t="n">
-        <v>0.219898</v>
+        <v>0.219908</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.188189</v>
+        <v>0.188553</v>
       </c>
       <c r="C20" t="n">
-        <v>0.213885</v>
+        <v>0.213947</v>
       </c>
       <c r="D20" t="n">
-        <v>0.218991</v>
+        <v>0.218979</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1814</v>
+        <v>0.181095</v>
       </c>
       <c r="C21" t="n">
-        <v>0.213735</v>
+        <v>0.213602</v>
       </c>
       <c r="D21" t="n">
-        <v>0.218435</v>
+        <v>0.218543</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.173803</v>
+        <v>0.175991</v>
       </c>
       <c r="C22" t="n">
-        <v>0.212853</v>
+        <v>0.212581</v>
       </c>
       <c r="D22" t="n">
-        <v>0.217794</v>
+        <v>0.217822</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.165164</v>
+        <v>0.165255</v>
       </c>
       <c r="C23" t="n">
-        <v>0.211743</v>
+        <v>0.211877</v>
       </c>
       <c r="D23" t="n">
-        <v>0.23177</v>
+        <v>0.23229</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.240159</v>
+        <v>0.239831</v>
       </c>
       <c r="C24" t="n">
-        <v>0.226809</v>
+        <v>0.227173</v>
       </c>
       <c r="D24" t="n">
-        <v>0.230931</v>
+        <v>0.232824</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.236738</v>
+        <v>0.235679</v>
       </c>
       <c r="C25" t="n">
-        <v>0.225345</v>
+        <v>0.22573</v>
       </c>
       <c r="D25" t="n">
-        <v>0.229541</v>
+        <v>0.230845</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.233496</v>
+        <v>0.232958</v>
       </c>
       <c r="C26" t="n">
-        <v>0.223617</v>
+        <v>0.223834</v>
       </c>
       <c r="D26" t="n">
-        <v>0.227968</v>
+        <v>0.228093</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.229523</v>
+        <v>0.22875</v>
       </c>
       <c r="C27" t="n">
-        <v>0.22255</v>
+        <v>0.222483</v>
       </c>
       <c r="D27" t="n">
-        <v>0.226254</v>
+        <v>0.22714</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.225497</v>
+        <v>0.225267</v>
       </c>
       <c r="C28" t="n">
-        <v>0.22098</v>
+        <v>0.221232</v>
       </c>
       <c r="D28" t="n">
-        <v>0.225215</v>
+        <v>0.225167</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.220006</v>
+        <v>0.219969</v>
       </c>
       <c r="C29" t="n">
-        <v>0.21954</v>
+        <v>0.219709</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2244</v>
+        <v>0.224672</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.215317</v>
+        <v>0.21526</v>
       </c>
       <c r="C30" t="n">
-        <v>0.218479</v>
+        <v>0.218555</v>
       </c>
       <c r="D30" t="n">
-        <v>0.222944</v>
+        <v>0.222947</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.211148</v>
+        <v>0.211422</v>
       </c>
       <c r="C31" t="n">
-        <v>0.217764</v>
+        <v>0.218086</v>
       </c>
       <c r="D31" t="n">
-        <v>0.222023</v>
+        <v>0.222321</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.206521</v>
+        <v>0.206189</v>
       </c>
       <c r="C32" t="n">
-        <v>0.217491</v>
+        <v>0.217362</v>
       </c>
       <c r="D32" t="n">
-        <v>0.22157</v>
+        <v>0.2229</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.200518</v>
+        <v>0.200633</v>
       </c>
       <c r="C33" t="n">
-        <v>0.216544</v>
+        <v>0.216938</v>
       </c>
       <c r="D33" t="n">
-        <v>0.220821</v>
+        <v>0.221939</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.195092</v>
+        <v>0.195041</v>
       </c>
       <c r="C34" t="n">
-        <v>0.21572</v>
+        <v>0.21664</v>
       </c>
       <c r="D34" t="n">
-        <v>0.220264</v>
+        <v>0.221189</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.187186</v>
+        <v>0.187571</v>
       </c>
       <c r="C35" t="n">
-        <v>0.214868</v>
+        <v>0.215247</v>
       </c>
       <c r="D35" t="n">
-        <v>0.219519</v>
+        <v>0.220701</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.179595</v>
+        <v>0.180555</v>
       </c>
       <c r="C36" t="n">
-        <v>0.213305</v>
+        <v>0.213928</v>
       </c>
       <c r="D36" t="n">
-        <v>0.218386</v>
+        <v>0.219601</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.170181</v>
+        <v>0.171271</v>
       </c>
       <c r="C37" t="n">
-        <v>0.212553</v>
+        <v>0.213192</v>
       </c>
       <c r="D37" t="n">
-        <v>0.232249</v>
+        <v>0.23311</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.243487</v>
+        <v>0.243437</v>
       </c>
       <c r="C38" t="n">
-        <v>0.226895</v>
+        <v>0.2271</v>
       </c>
       <c r="D38" t="n">
-        <v>0.230806</v>
+        <v>0.231357</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.241308</v>
+        <v>0.241331</v>
       </c>
       <c r="C39" t="n">
-        <v>0.22569</v>
+        <v>0.226222</v>
       </c>
       <c r="D39" t="n">
-        <v>0.229586</v>
+        <v>0.229846</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.237836</v>
+        <v>0.237785</v>
       </c>
       <c r="C40" t="n">
-        <v>0.224453</v>
+        <v>0.224753</v>
       </c>
       <c r="D40" t="n">
-        <v>0.228453</v>
+        <v>0.228615</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.233317</v>
+        <v>0.233539</v>
       </c>
       <c r="C41" t="n">
-        <v>0.223462</v>
+        <v>0.223879</v>
       </c>
       <c r="D41" t="n">
-        <v>0.227328</v>
+        <v>0.227434</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.230018</v>
+        <v>0.229832</v>
       </c>
       <c r="C42" t="n">
-        <v>0.222196</v>
+        <v>0.222565</v>
       </c>
       <c r="D42" t="n">
-        <v>0.226347</v>
+        <v>0.226645</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.225792</v>
+        <v>0.225803</v>
       </c>
       <c r="C43" t="n">
-        <v>0.221102</v>
+        <v>0.221508</v>
       </c>
       <c r="D43" t="n">
-        <v>0.225472</v>
+        <v>0.225552</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.221198</v>
+        <v>0.221127</v>
       </c>
       <c r="C44" t="n">
-        <v>0.220263</v>
+        <v>0.22057</v>
       </c>
       <c r="D44" t="n">
-        <v>0.22444</v>
+        <v>0.224917</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.216323</v>
+        <v>0.21619</v>
       </c>
       <c r="C45" t="n">
-        <v>0.219185</v>
+        <v>0.219673</v>
       </c>
       <c r="D45" t="n">
-        <v>0.223434</v>
+        <v>0.223713</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.210643</v>
+        <v>0.210952</v>
       </c>
       <c r="C46" t="n">
-        <v>0.217983</v>
+        <v>0.218658</v>
       </c>
       <c r="D46" t="n">
-        <v>0.222598</v>
+        <v>0.222857</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.204966</v>
+        <v>0.204617</v>
       </c>
       <c r="C47" t="n">
-        <v>0.21762</v>
+        <v>0.218295</v>
       </c>
       <c r="D47" t="n">
-        <v>0.221865</v>
+        <v>0.222223</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.197973</v>
+        <v>0.198908</v>
       </c>
       <c r="C48" t="n">
-        <v>0.216835</v>
+        <v>0.217285</v>
       </c>
       <c r="D48" t="n">
-        <v>0.220935</v>
+        <v>0.220943</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.192042</v>
+        <v>0.192542</v>
       </c>
       <c r="C49" t="n">
-        <v>0.215493</v>
+        <v>0.216259</v>
       </c>
       <c r="D49" t="n">
-        <v>0.219919</v>
+        <v>0.220332</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.184899</v>
+        <v>0.185846</v>
       </c>
       <c r="C50" t="n">
-        <v>0.214713</v>
+        <v>0.214991</v>
       </c>
       <c r="D50" t="n">
-        <v>0.219427</v>
+        <v>0.219968</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.176421</v>
+        <v>0.176957</v>
       </c>
       <c r="C51" t="n">
-        <v>0.214119</v>
+        <v>0.214377</v>
       </c>
       <c r="D51" t="n">
-        <v>0.233846</v>
+        <v>0.233965</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.165521</v>
+        <v>0.166366</v>
       </c>
       <c r="C52" t="n">
-        <v>0.212919</v>
+        <v>0.213038</v>
       </c>
       <c r="D52" t="n">
-        <v>0.232012</v>
+        <v>0.232392</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.244793</v>
+        <v>0.244517</v>
       </c>
       <c r="C53" t="n">
-        <v>0.226928</v>
+        <v>0.227383</v>
       </c>
       <c r="D53" t="n">
-        <v>0.230871</v>
+        <v>0.231277</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.240861</v>
+        <v>0.240826</v>
       </c>
       <c r="C54" t="n">
-        <v>0.225674</v>
+        <v>0.225841</v>
       </c>
       <c r="D54" t="n">
-        <v>0.229672</v>
+        <v>0.229869</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.23711</v>
+        <v>0.237257</v>
       </c>
       <c r="C55" t="n">
-        <v>0.224651</v>
+        <v>0.224729</v>
       </c>
       <c r="D55" t="n">
-        <v>0.228652</v>
+        <v>0.228929</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.232874</v>
+        <v>0.232946</v>
       </c>
       <c r="C56" t="n">
-        <v>0.223193</v>
+        <v>0.223273</v>
       </c>
       <c r="D56" t="n">
-        <v>0.227197</v>
+        <v>0.227372</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.227589</v>
+        <v>0.227773</v>
       </c>
       <c r="C57" t="n">
-        <v>0.222286</v>
+        <v>0.22242</v>
       </c>
       <c r="D57" t="n">
-        <v>0.226247</v>
+        <v>0.226516</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.223187</v>
+        <v>0.223297</v>
       </c>
       <c r="C58" t="n">
-        <v>0.221278</v>
+        <v>0.221349</v>
       </c>
       <c r="D58" t="n">
-        <v>0.225367</v>
+        <v>0.225573</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.218967</v>
+        <v>0.219052</v>
       </c>
       <c r="C59" t="n">
-        <v>0.220349</v>
+        <v>0.220457</v>
       </c>
       <c r="D59" t="n">
-        <v>0.224323</v>
+        <v>0.224548</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.213973</v>
+        <v>0.214104</v>
       </c>
       <c r="C60" t="n">
-        <v>0.219604</v>
+        <v>0.21976</v>
       </c>
       <c r="D60" t="n">
-        <v>0.223581</v>
+        <v>0.223719</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.207313</v>
+        <v>0.207513</v>
       </c>
       <c r="C61" t="n">
-        <v>0.21875</v>
+        <v>0.218838</v>
       </c>
       <c r="D61" t="n">
-        <v>0.222644</v>
+        <v>0.222857</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.201726</v>
+        <v>0.201688</v>
       </c>
       <c r="C62" t="n">
-        <v>0.217722</v>
+        <v>0.217906</v>
       </c>
       <c r="D62" t="n">
-        <v>0.221539</v>
+        <v>0.221848</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.194639</v>
+        <v>0.194685</v>
       </c>
       <c r="C63" t="n">
-        <v>0.216644</v>
+        <v>0.216778</v>
       </c>
       <c r="D63" t="n">
-        <v>0.220679</v>
+        <v>0.220935</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.187456</v>
+        <v>0.187404</v>
       </c>
       <c r="C64" t="n">
-        <v>0.215654</v>
+        <v>0.215858</v>
       </c>
       <c r="D64" t="n">
-        <v>0.219747</v>
+        <v>0.220023</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.179487</v>
+        <v>0.17947</v>
       </c>
       <c r="C65" t="n">
-        <v>0.214714</v>
+        <v>0.214722</v>
       </c>
       <c r="D65" t="n">
-        <v>0.219173</v>
+        <v>0.219404</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.169901</v>
+        <v>0.170069</v>
       </c>
       <c r="C66" t="n">
-        <v>0.213716</v>
+        <v>0.213771</v>
       </c>
       <c r="D66" t="n">
-        <v>0.232873</v>
+        <v>0.233086</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.246925</v>
+        <v>0.24705</v>
       </c>
       <c r="C67" t="n">
-        <v>0.227892</v>
+        <v>0.228765</v>
       </c>
       <c r="D67" t="n">
-        <v>0.231809</v>
+        <v>0.231804</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.243859</v>
+        <v>0.243617</v>
       </c>
       <c r="C68" t="n">
-        <v>0.226737</v>
+        <v>0.227065</v>
       </c>
       <c r="D68" t="n">
-        <v>0.23045</v>
+        <v>0.230596</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.239843</v>
+        <v>0.239728</v>
       </c>
       <c r="C69" t="n">
-        <v>0.225332</v>
+        <v>0.225558</v>
       </c>
       <c r="D69" t="n">
-        <v>0.228986</v>
+        <v>0.229047</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.235092</v>
+        <v>0.235184</v>
       </c>
       <c r="C70" t="n">
-        <v>0.224062</v>
+        <v>0.224221</v>
       </c>
       <c r="D70" t="n">
-        <v>0.227799</v>
+        <v>0.227954</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.230321</v>
+        <v>0.230833</v>
       </c>
       <c r="C71" t="n">
-        <v>0.223157</v>
+        <v>0.223282</v>
       </c>
       <c r="D71" t="n">
-        <v>0.22678</v>
+        <v>0.226929</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.225539</v>
+        <v>0.225789</v>
       </c>
       <c r="C72" t="n">
-        <v>0.221968</v>
+        <v>0.222114</v>
       </c>
       <c r="D72" t="n">
-        <v>0.225563</v>
+        <v>0.225849</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.22002</v>
+        <v>0.220114</v>
       </c>
       <c r="C73" t="n">
-        <v>0.220969</v>
+        <v>0.221188</v>
       </c>
       <c r="D73" t="n">
-        <v>0.224449</v>
+        <v>0.224743</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.214869</v>
+        <v>0.214992</v>
       </c>
       <c r="C74" t="n">
-        <v>0.219977</v>
+        <v>0.220024</v>
       </c>
       <c r="D74" t="n">
-        <v>0.223579</v>
+        <v>0.223703</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.209275</v>
+        <v>0.209013</v>
       </c>
       <c r="C75" t="n">
-        <v>0.218823</v>
+        <v>0.218891</v>
       </c>
       <c r="D75" t="n">
-        <v>0.222618</v>
+        <v>0.222748</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.203435</v>
+        <v>0.203428</v>
       </c>
       <c r="C76" t="n">
-        <v>0.217785</v>
+        <v>0.217971</v>
       </c>
       <c r="D76" t="n">
-        <v>0.221762</v>
+        <v>0.221893</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.196971</v>
+        <v>0.196926</v>
       </c>
       <c r="C77" t="n">
-        <v>0.216915</v>
+        <v>0.217043</v>
       </c>
       <c r="D77" t="n">
-        <v>0.220926</v>
+        <v>0.221082</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.189778</v>
+        <v>0.190258</v>
       </c>
       <c r="C78" t="n">
-        <v>0.216006</v>
+        <v>0.216192</v>
       </c>
       <c r="D78" t="n">
-        <v>0.22014</v>
+        <v>0.220222</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.181913</v>
+        <v>0.181955</v>
       </c>
       <c r="C79" t="n">
-        <v>0.215085</v>
+        <v>0.215169</v>
       </c>
       <c r="D79" t="n">
-        <v>0.219393</v>
+        <v>0.219586</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.172661</v>
+        <v>0.17267</v>
       </c>
       <c r="C80" t="n">
-        <v>0.214015</v>
+        <v>0.214082</v>
       </c>
       <c r="D80" t="n">
-        <v>0.233595</v>
+        <v>0.233716</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.248197</v>
+        <v>0.248179</v>
       </c>
       <c r="C81" t="n">
-        <v>0.228495</v>
+        <v>0.228703</v>
       </c>
       <c r="D81" t="n">
-        <v>0.232231</v>
+        <v>0.232311</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.244814</v>
+        <v>0.24498</v>
       </c>
       <c r="C82" t="n">
-        <v>0.227302</v>
+        <v>0.227707</v>
       </c>
       <c r="D82" t="n">
-        <v>0.231136</v>
+        <v>0.231172</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.240642</v>
+        <v>0.24098</v>
       </c>
       <c r="C83" t="n">
-        <v>0.225967</v>
+        <v>0.226137</v>
       </c>
       <c r="D83" t="n">
-        <v>0.229737</v>
+        <v>0.229841</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.236742</v>
+        <v>0.237104</v>
       </c>
       <c r="C84" t="n">
-        <v>0.224955</v>
+        <v>0.225253</v>
       </c>
       <c r="D84" t="n">
-        <v>0.228624</v>
+        <v>0.228731</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.232326</v>
+        <v>0.232512</v>
       </c>
       <c r="C85" t="n">
-        <v>0.223839</v>
+        <v>0.224063</v>
       </c>
       <c r="D85" t="n">
-        <v>0.227522</v>
+        <v>0.227477</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.227367</v>
+        <v>0.227462</v>
       </c>
       <c r="C86" t="n">
-        <v>0.223021</v>
+        <v>0.223048</v>
       </c>
       <c r="D86" t="n">
-        <v>0.226406</v>
+        <v>0.226501</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.222096</v>
+        <v>0.222563</v>
       </c>
       <c r="C87" t="n">
-        <v>0.221588</v>
+        <v>0.221802</v>
       </c>
       <c r="D87" t="n">
-        <v>0.225267</v>
+        <v>0.225259</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.216929</v>
+        <v>0.216977</v>
       </c>
       <c r="C88" t="n">
-        <v>0.220847</v>
+        <v>0.221152</v>
       </c>
       <c r="D88" t="n">
-        <v>0.224267</v>
+        <v>0.2244</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.211322</v>
+        <v>0.211277</v>
       </c>
       <c r="C89" t="n">
-        <v>0.219515</v>
+        <v>0.219694</v>
       </c>
       <c r="D89" t="n">
-        <v>0.223151</v>
+        <v>0.223204</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.204964</v>
+        <v>0.20514</v>
       </c>
       <c r="C90" t="n">
-        <v>0.218646</v>
+        <v>0.218846</v>
       </c>
       <c r="D90" t="n">
-        <v>0.222205</v>
+        <v>0.222329</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.198568</v>
+        <v>0.198727</v>
       </c>
       <c r="C91" t="n">
-        <v>0.217637</v>
+        <v>0.217817</v>
       </c>
       <c r="D91" t="n">
-        <v>0.221292</v>
+        <v>0.221307</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.191748</v>
+        <v>0.191684</v>
       </c>
       <c r="C92" t="n">
-        <v>0.216515</v>
+        <v>0.216482</v>
       </c>
       <c r="D92" t="n">
-        <v>0.220415</v>
+        <v>0.220479</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.183873</v>
+        <v>0.184056</v>
       </c>
       <c r="C93" t="n">
-        <v>0.215572</v>
+        <v>0.21577</v>
       </c>
       <c r="D93" t="n">
-        <v>0.219619</v>
+        <v>0.219749</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.174878</v>
+        <v>0.175278</v>
       </c>
       <c r="C94" t="n">
-        <v>0.214296</v>
+        <v>0.214495</v>
       </c>
       <c r="D94" t="n">
-        <v>0.234162</v>
+        <v>0.234365</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.24859</v>
+        <v>0.248804</v>
       </c>
       <c r="C95" t="n">
-        <v>0.231741</v>
+        <v>0.232228</v>
       </c>
       <c r="D95" t="n">
-        <v>0.232678</v>
+        <v>0.232919</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.245711</v>
+        <v>0.246062</v>
       </c>
       <c r="C96" t="n">
-        <v>0.229931</v>
+        <v>0.230609</v>
       </c>
       <c r="D96" t="n">
-        <v>0.231594</v>
+        <v>0.23181</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.241884</v>
+        <v>0.242119</v>
       </c>
       <c r="C97" t="n">
-        <v>0.229416</v>
+        <v>0.230149</v>
       </c>
       <c r="D97" t="n">
-        <v>0.230373</v>
+        <v>0.230591</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.237735</v>
+        <v>0.238037</v>
       </c>
       <c r="C98" t="n">
-        <v>0.227259</v>
+        <v>0.227659</v>
       </c>
       <c r="D98" t="n">
-        <v>0.229282</v>
+        <v>0.229606</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.232996</v>
+        <v>0.233189</v>
       </c>
       <c r="C99" t="n">
-        <v>0.226692</v>
+        <v>0.226601</v>
       </c>
       <c r="D99" t="n">
-        <v>0.227854</v>
+        <v>0.227945</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.22875</v>
+        <v>0.22893</v>
       </c>
       <c r="C100" t="n">
-        <v>0.224674</v>
+        <v>0.225122</v>
       </c>
       <c r="D100" t="n">
-        <v>0.226626</v>
+        <v>0.226869</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.223445</v>
+        <v>0.223873</v>
       </c>
       <c r="C101" t="n">
-        <v>0.223765</v>
+        <v>0.224404</v>
       </c>
       <c r="D101" t="n">
-        <v>0.225585</v>
+        <v>0.225666</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.218125</v>
+        <v>0.218356</v>
       </c>
       <c r="C102" t="n">
-        <v>0.222294</v>
+        <v>0.223028</v>
       </c>
       <c r="D102" t="n">
-        <v>0.224667</v>
+        <v>0.224778</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.212839</v>
+        <v>0.213032</v>
       </c>
       <c r="C103" t="n">
-        <v>0.22125</v>
+        <v>0.221675</v>
       </c>
       <c r="D103" t="n">
-        <v>0.223757</v>
+        <v>0.223841</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.207135</v>
+        <v>0.206859</v>
       </c>
       <c r="C104" t="n">
-        <v>0.220158</v>
+        <v>0.220517</v>
       </c>
       <c r="D104" t="n">
-        <v>0.222569</v>
+        <v>0.222743</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.200177</v>
+        <v>0.200341</v>
       </c>
       <c r="C105" t="n">
-        <v>0.218841</v>
+        <v>0.219316</v>
       </c>
       <c r="D105" t="n">
-        <v>0.221752</v>
+        <v>0.222032</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.193708</v>
+        <v>0.193229</v>
       </c>
       <c r="C106" t="n">
-        <v>0.217849</v>
+        <v>0.218203</v>
       </c>
       <c r="D106" t="n">
-        <v>0.221028</v>
+        <v>0.221287</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.186028</v>
+        <v>0.185993</v>
       </c>
       <c r="C107" t="n">
-        <v>0.216604</v>
+        <v>0.216879</v>
       </c>
       <c r="D107" t="n">
-        <v>0.220165</v>
+        <v>0.220398</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.177323</v>
+        <v>0.177259</v>
       </c>
       <c r="C108" t="n">
-        <v>0.215363</v>
+        <v>0.215197</v>
       </c>
       <c r="D108" t="n">
-        <v>0.234801</v>
+        <v>0.234888</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.166592</v>
+        <v>0.166886</v>
       </c>
       <c r="C109" t="n">
-        <v>0.21365</v>
+        <v>0.213658</v>
       </c>
       <c r="D109" t="n">
-        <v>0.233191</v>
+        <v>0.233232</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.245915</v>
+        <v>0.246214</v>
       </c>
       <c r="C110" t="n">
-        <v>0.228168</v>
+        <v>0.22849</v>
       </c>
       <c r="D110" t="n">
-        <v>0.231918</v>
+        <v>0.23235</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.242598</v>
+        <v>0.242738</v>
       </c>
       <c r="C111" t="n">
-        <v>0.227378</v>
+        <v>0.227422</v>
       </c>
       <c r="D111" t="n">
-        <v>0.230641</v>
+        <v>0.230852</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.238556</v>
+        <v>0.238669</v>
       </c>
       <c r="C112" t="n">
-        <v>0.226525</v>
+        <v>0.226751</v>
       </c>
       <c r="D112" t="n">
-        <v>0.229536</v>
+        <v>0.229645</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.233885</v>
+        <v>0.233978</v>
       </c>
       <c r="C113" t="n">
-        <v>0.226254</v>
+        <v>0.225675</v>
       </c>
       <c r="D113" t="n">
-        <v>0.228728</v>
+        <v>0.228837</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.229112</v>
+        <v>0.229267</v>
       </c>
       <c r="C114" t="n">
-        <v>0.225135</v>
+        <v>0.225504</v>
       </c>
       <c r="D114" t="n">
-        <v>0.227302</v>
+        <v>0.227602</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.224395</v>
+        <v>0.22456</v>
       </c>
       <c r="C115" t="n">
-        <v>0.223199</v>
+        <v>0.223857</v>
       </c>
       <c r="D115" t="n">
-        <v>0.226573</v>
+        <v>0.226634</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.219446</v>
+        <v>0.21941</v>
       </c>
       <c r="C116" t="n">
-        <v>0.2234</v>
+        <v>0.222838</v>
       </c>
       <c r="D116" t="n">
-        <v>0.225253</v>
+        <v>0.225513</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.213939</v>
+        <v>0.213983</v>
       </c>
       <c r="C117" t="n">
-        <v>0.220554</v>
+        <v>0.222481</v>
       </c>
       <c r="D117" t="n">
-        <v>0.224344</v>
+        <v>0.224449</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.207976</v>
+        <v>0.207989</v>
       </c>
       <c r="C118" t="n">
-        <v>0.221066</v>
+        <v>0.221223</v>
       </c>
       <c r="D118" t="n">
-        <v>0.223439</v>
+        <v>0.223518</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.201683</v>
+        <v>0.20161</v>
       </c>
       <c r="C119" t="n">
-        <v>0.220284</v>
+        <v>0.220644</v>
       </c>
       <c r="D119" t="n">
-        <v>0.222351</v>
+        <v>0.222568</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.195043</v>
+        <v>0.195184</v>
       </c>
       <c r="C120" t="n">
-        <v>0.21879</v>
+        <v>0.219061</v>
       </c>
       <c r="D120" t="n">
-        <v>0.221455</v>
+        <v>0.221692</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.187974</v>
+        <v>0.18816</v>
       </c>
       <c r="C121" t="n">
-        <v>0.217744</v>
+        <v>0.218013</v>
       </c>
       <c r="D121" t="n">
-        <v>0.220489</v>
+        <v>0.220573</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.178879</v>
+        <v>0.179002</v>
       </c>
       <c r="C122" t="n">
-        <v>0.216538</v>
+        <v>0.216678</v>
       </c>
       <c r="D122" t="n">
-        <v>0.219628</v>
+        <v>0.219744</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.168933</v>
+        <v>0.168942</v>
       </c>
       <c r="C123" t="n">
-        <v>0.214331</v>
+        <v>0.215135</v>
       </c>
       <c r="D123" t="n">
-        <v>0.233669</v>
+        <v>0.233434</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.246519</v>
+        <v>0.246827</v>
       </c>
       <c r="C124" t="n">
-        <v>0.228371</v>
+        <v>0.22832</v>
       </c>
       <c r="D124" t="n">
-        <v>0.232349</v>
+        <v>0.232321</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.243145</v>
+        <v>0.243274</v>
       </c>
       <c r="C125" t="n">
-        <v>0.226659</v>
+        <v>0.227063</v>
       </c>
       <c r="D125" t="n">
-        <v>0.231192</v>
+        <v>0.230933</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.240756</v>
+        <v>0.239645</v>
       </c>
       <c r="C126" t="n">
-        <v>0.226859</v>
+        <v>0.227054</v>
       </c>
       <c r="D126" t="n">
-        <v>0.230167</v>
+        <v>0.230372</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.236683</v>
+        <v>0.235319</v>
       </c>
       <c r="C127" t="n">
-        <v>0.226239</v>
+        <v>0.226147</v>
       </c>
       <c r="D127" t="n">
-        <v>0.22817</v>
+        <v>0.229244</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.233342</v>
+        <v>0.230852</v>
       </c>
       <c r="C128" t="n">
-        <v>0.223366</v>
+        <v>0.225375</v>
       </c>
       <c r="D128" t="n">
-        <v>0.227726</v>
+        <v>0.227574</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.225754</v>
+        <v>0.226136</v>
       </c>
       <c r="C129" t="n">
-        <v>0.224098</v>
+        <v>0.224386</v>
       </c>
       <c r="D129" t="n">
-        <v>0.226659</v>
+        <v>0.226778</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.222678</v>
+        <v>0.220586</v>
       </c>
       <c r="C130" t="n">
-        <v>0.223099</v>
+        <v>0.22307</v>
       </c>
       <c r="D130" t="n">
-        <v>0.22554</v>
+        <v>0.225659</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.215528</v>
+        <v>0.215329</v>
       </c>
       <c r="C131" t="n">
-        <v>0.221938</v>
+        <v>0.220747</v>
       </c>
       <c r="D131" t="n">
-        <v>0.224189</v>
+        <v>0.224656</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.209378</v>
+        <v>0.210153</v>
       </c>
       <c r="C132" t="n">
-        <v>0.220962</v>
+        <v>0.219797</v>
       </c>
       <c r="D132" t="n">
-        <v>0.223046</v>
+        <v>0.223554</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.203295</v>
+        <v>0.203143</v>
       </c>
       <c r="C133" t="n">
-        <v>0.218264</v>
+        <v>0.220369</v>
       </c>
       <c r="D133" t="n">
-        <v>0.222571</v>
+        <v>0.222612</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.197255</v>
+        <v>0.196548</v>
       </c>
       <c r="C134" t="n">
-        <v>0.218446</v>
+        <v>0.219256</v>
       </c>
       <c r="D134" t="n">
-        <v>0.221595</v>
+        <v>0.2215</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.189282</v>
+        <v>0.189285</v>
       </c>
       <c r="C135" t="n">
-        <v>0.217827</v>
+        <v>0.218171</v>
       </c>
       <c r="D135" t="n">
-        <v>0.22073</v>
+        <v>0.220557</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.180099</v>
+        <v>0.180792</v>
       </c>
       <c r="C136" t="n">
-        <v>0.216831</v>
+        <v>0.216981</v>
       </c>
       <c r="D136" t="n">
-        <v>0.219822</v>
+        <v>0.219756</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.17115</v>
+        <v>0.16993</v>
       </c>
       <c r="C137" t="n">
-        <v>0.214055</v>
+        <v>0.215286</v>
       </c>
       <c r="D137" t="n">
-        <v>0.233986</v>
+        <v>0.233707</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.247222</v>
+        <v>0.247314</v>
       </c>
       <c r="C138" t="n">
-        <v>0.228334</v>
+        <v>0.22869</v>
       </c>
       <c r="D138" t="n">
-        <v>0.232199</v>
+        <v>0.232278</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.244102</v>
+        <v>0.244105</v>
       </c>
       <c r="C139" t="n">
-        <v>0.227131</v>
+        <v>0.227832</v>
       </c>
       <c r="D139" t="n">
-        <v>0.231664</v>
+        <v>0.231479</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.2404</v>
+        <v>0.24043</v>
       </c>
       <c r="C140" t="n">
-        <v>0.225965</v>
+        <v>0.226583</v>
       </c>
       <c r="D140" t="n">
-        <v>0.230403</v>
+        <v>0.230356</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.236177</v>
+        <v>0.236045</v>
       </c>
       <c r="C141" t="n">
-        <v>0.225764</v>
+        <v>0.226542</v>
       </c>
       <c r="D141" t="n">
-        <v>0.229336</v>
+        <v>0.229367</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.231318</v>
+        <v>0.231397</v>
       </c>
       <c r="C142" t="n">
-        <v>0.225703</v>
+        <v>0.225743</v>
       </c>
       <c r="D142" t="n">
-        <v>0.227598</v>
+        <v>0.228191</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.226322</v>
+        <v>0.226517</v>
       </c>
       <c r="C143" t="n">
-        <v>0.224923</v>
+        <v>0.225326</v>
       </c>
       <c r="D143" t="n">
-        <v>0.227158</v>
+        <v>0.226997</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.195593</v>
+        <v>0.203933</v>
       </c>
       <c r="C2" t="n">
-        <v>0.205492</v>
+        <v>0.205143</v>
       </c>
       <c r="D2" t="n">
-        <v>0.213533</v>
+        <v>0.213306</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.192114</v>
+        <v>0.195599</v>
       </c>
       <c r="C3" t="n">
-        <v>0.205171</v>
+        <v>0.20549</v>
       </c>
       <c r="D3" t="n">
-        <v>0.214308</v>
+        <v>0.214219</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.185403</v>
+        <v>0.189387</v>
       </c>
       <c r="C4" t="n">
-        <v>0.204983</v>
+        <v>0.205592</v>
       </c>
       <c r="D4" t="n">
-        <v>0.21334</v>
+        <v>0.21291</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.180433</v>
+        <v>0.181169</v>
       </c>
       <c r="C5" t="n">
-        <v>0.205232</v>
+        <v>0.205194</v>
       </c>
       <c r="D5" t="n">
-        <v>0.213132</v>
+        <v>0.213055</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.176555</v>
+        <v>0.176226</v>
       </c>
       <c r="C6" t="n">
-        <v>0.20631</v>
+        <v>0.206355</v>
       </c>
       <c r="D6" t="n">
-        <v>0.214459</v>
+        <v>0.214316</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.167925</v>
+        <v>0.168836</v>
       </c>
       <c r="C7" t="n">
-        <v>0.205465</v>
+        <v>0.205712</v>
       </c>
       <c r="D7" t="n">
-        <v>0.212981</v>
+        <v>0.212921</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.16172</v>
+        <v>0.161793</v>
       </c>
       <c r="C8" t="n">
-        <v>0.20487</v>
+        <v>0.204114</v>
       </c>
       <c r="D8" t="n">
-        <v>0.212617</v>
+        <v>0.212689</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.151245</v>
+        <v>0.150788</v>
       </c>
       <c r="C9" t="n">
-        <v>0.204242</v>
+        <v>0.204652</v>
       </c>
       <c r="D9" t="n">
-        <v>0.229606</v>
+        <v>0.229459</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.227956</v>
+        <v>0.229958</v>
       </c>
       <c r="C10" t="n">
-        <v>0.222406</v>
+        <v>0.222779</v>
       </c>
       <c r="D10" t="n">
-        <v>0.228287</v>
+        <v>0.227791</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.225283</v>
+        <v>0.227504</v>
       </c>
       <c r="C11" t="n">
-        <v>0.222842</v>
+        <v>0.222971</v>
       </c>
       <c r="D11" t="n">
-        <v>0.228308</v>
+        <v>0.227681</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.224264</v>
+        <v>0.225589</v>
       </c>
       <c r="C12" t="n">
-        <v>0.221297</v>
+        <v>0.221372</v>
       </c>
       <c r="D12" t="n">
-        <v>0.226273</v>
+        <v>0.226046</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.220386</v>
+        <v>0.221483</v>
       </c>
       <c r="C13" t="n">
-        <v>0.22042</v>
+        <v>0.219847</v>
       </c>
       <c r="D13" t="n">
-        <v>0.225589</v>
+        <v>0.225372</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.216854</v>
+        <v>0.217175</v>
       </c>
       <c r="C14" t="n">
-        <v>0.219068</v>
+        <v>0.21875</v>
       </c>
       <c r="D14" t="n">
-        <v>0.22434</v>
+        <v>0.224211</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.212982</v>
+        <v>0.213469</v>
       </c>
       <c r="C15" t="n">
-        <v>0.218014</v>
+        <v>0.21821</v>
       </c>
       <c r="D15" t="n">
-        <v>0.223167</v>
+        <v>0.222883</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.208868</v>
+        <v>0.209314</v>
       </c>
       <c r="C16" t="n">
-        <v>0.217436</v>
+        <v>0.216959</v>
       </c>
       <c r="D16" t="n">
-        <v>0.222651</v>
+        <v>0.22256</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.204227</v>
+        <v>0.203357</v>
       </c>
       <c r="C17" t="n">
-        <v>0.215892</v>
+        <v>0.218194</v>
       </c>
       <c r="D17" t="n">
-        <v>0.221641</v>
+        <v>0.221516</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.198991</v>
+        <v>0.200158</v>
       </c>
       <c r="C18" t="n">
-        <v>0.215541</v>
+        <v>0.215566</v>
       </c>
       <c r="D18" t="n">
-        <v>0.221149</v>
+        <v>0.220897</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.192996</v>
+        <v>0.193397</v>
       </c>
       <c r="C19" t="n">
-        <v>0.213967</v>
+        <v>0.214295</v>
       </c>
       <c r="D19" t="n">
-        <v>0.219908</v>
+        <v>0.220029</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.188553</v>
+        <v>0.18766</v>
       </c>
       <c r="C20" t="n">
-        <v>0.213947</v>
+        <v>0.21537</v>
       </c>
       <c r="D20" t="n">
-        <v>0.218979</v>
+        <v>0.218943</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.181095</v>
+        <v>0.18094</v>
       </c>
       <c r="C21" t="n">
-        <v>0.213602</v>
+        <v>0.214887</v>
       </c>
       <c r="D21" t="n">
-        <v>0.218543</v>
+        <v>0.218238</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.175991</v>
+        <v>0.173964</v>
       </c>
       <c r="C22" t="n">
-        <v>0.212581</v>
+        <v>0.212679</v>
       </c>
       <c r="D22" t="n">
-        <v>0.217822</v>
+        <v>0.217575</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.165255</v>
+        <v>0.165159</v>
       </c>
       <c r="C23" t="n">
-        <v>0.211877</v>
+        <v>0.211453</v>
       </c>
       <c r="D23" t="n">
-        <v>0.23229</v>
+        <v>0.232395</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.239831</v>
+        <v>0.24084</v>
       </c>
       <c r="C24" t="n">
-        <v>0.227173</v>
+        <v>0.226412</v>
       </c>
       <c r="D24" t="n">
-        <v>0.232824</v>
+        <v>0.230823</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.235679</v>
+        <v>0.236983</v>
       </c>
       <c r="C25" t="n">
-        <v>0.22573</v>
+        <v>0.225267</v>
       </c>
       <c r="D25" t="n">
-        <v>0.230845</v>
+        <v>0.229355</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.232958</v>
+        <v>0.233855</v>
       </c>
       <c r="C26" t="n">
-        <v>0.223834</v>
+        <v>0.223643</v>
       </c>
       <c r="D26" t="n">
-        <v>0.228093</v>
+        <v>0.227873</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.22875</v>
+        <v>0.229247</v>
       </c>
       <c r="C27" t="n">
-        <v>0.222483</v>
+        <v>0.222885</v>
       </c>
       <c r="D27" t="n">
-        <v>0.22714</v>
+        <v>0.226022</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.225267</v>
+        <v>0.225639</v>
       </c>
       <c r="C28" t="n">
-        <v>0.221232</v>
+        <v>0.221765</v>
       </c>
       <c r="D28" t="n">
-        <v>0.225167</v>
+        <v>0.224872</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.219969</v>
+        <v>0.220801</v>
       </c>
       <c r="C29" t="n">
-        <v>0.219709</v>
+        <v>0.219747</v>
       </c>
       <c r="D29" t="n">
-        <v>0.224672</v>
+        <v>0.22426</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.21526</v>
+        <v>0.215947</v>
       </c>
       <c r="C30" t="n">
-        <v>0.218555</v>
+        <v>0.218705</v>
       </c>
       <c r="D30" t="n">
-        <v>0.222947</v>
+        <v>0.222856</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.211422</v>
+        <v>0.21076</v>
       </c>
       <c r="C31" t="n">
-        <v>0.218086</v>
+        <v>0.21796</v>
       </c>
       <c r="D31" t="n">
-        <v>0.222321</v>
+        <v>0.222243</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.206189</v>
+        <v>0.206448</v>
       </c>
       <c r="C32" t="n">
-        <v>0.217362</v>
+        <v>0.217785</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2229</v>
+        <v>0.221599</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.200633</v>
+        <v>0.20097</v>
       </c>
       <c r="C33" t="n">
-        <v>0.216938</v>
+        <v>0.216713</v>
       </c>
       <c r="D33" t="n">
-        <v>0.221939</v>
+        <v>0.220894</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.195041</v>
+        <v>0.195425</v>
       </c>
       <c r="C34" t="n">
-        <v>0.21664</v>
+        <v>0.215849</v>
       </c>
       <c r="D34" t="n">
-        <v>0.221189</v>
+        <v>0.220234</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.187571</v>
+        <v>0.188023</v>
       </c>
       <c r="C35" t="n">
-        <v>0.215247</v>
+        <v>0.215178</v>
       </c>
       <c r="D35" t="n">
-        <v>0.220701</v>
+        <v>0.21954</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180555</v>
+        <v>0.180909</v>
       </c>
       <c r="C36" t="n">
-        <v>0.213928</v>
+        <v>0.213642</v>
       </c>
       <c r="D36" t="n">
-        <v>0.219601</v>
+        <v>0.218457</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.171271</v>
+        <v>0.171969</v>
       </c>
       <c r="C37" t="n">
-        <v>0.213192</v>
+        <v>0.212798</v>
       </c>
       <c r="D37" t="n">
-        <v>0.23311</v>
+        <v>0.232699</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.243437</v>
+        <v>0.243765</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2271</v>
+        <v>0.226984</v>
       </c>
       <c r="D38" t="n">
-        <v>0.231357</v>
+        <v>0.230866</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.241331</v>
+        <v>0.241483</v>
       </c>
       <c r="C39" t="n">
-        <v>0.226222</v>
+        <v>0.225819</v>
       </c>
       <c r="D39" t="n">
-        <v>0.229846</v>
+        <v>0.229671</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.237785</v>
+        <v>0.237939</v>
       </c>
       <c r="C40" t="n">
-        <v>0.224753</v>
+        <v>0.224455</v>
       </c>
       <c r="D40" t="n">
-        <v>0.228615</v>
+        <v>0.228371</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.233539</v>
+        <v>0.23355</v>
       </c>
       <c r="C41" t="n">
-        <v>0.223879</v>
+        <v>0.223439</v>
       </c>
       <c r="D41" t="n">
-        <v>0.227434</v>
+        <v>0.227333</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.229832</v>
+        <v>0.230471</v>
       </c>
       <c r="C42" t="n">
-        <v>0.222565</v>
+        <v>0.222403</v>
       </c>
       <c r="D42" t="n">
-        <v>0.226645</v>
+        <v>0.22644</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.225803</v>
+        <v>0.225714</v>
       </c>
       <c r="C43" t="n">
-        <v>0.221508</v>
+        <v>0.221257</v>
       </c>
       <c r="D43" t="n">
-        <v>0.225552</v>
+        <v>0.225482</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.221127</v>
+        <v>0.221435</v>
       </c>
       <c r="C44" t="n">
-        <v>0.22057</v>
+        <v>0.220415</v>
       </c>
       <c r="D44" t="n">
-        <v>0.224917</v>
+        <v>0.224486</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.21619</v>
+        <v>0.216276</v>
       </c>
       <c r="C45" t="n">
-        <v>0.219673</v>
+        <v>0.219626</v>
       </c>
       <c r="D45" t="n">
-        <v>0.223713</v>
+        <v>0.223535</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.210952</v>
+        <v>0.209413</v>
       </c>
       <c r="C46" t="n">
-        <v>0.218658</v>
+        <v>0.218567</v>
       </c>
       <c r="D46" t="n">
-        <v>0.222857</v>
+        <v>0.222699</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.204617</v>
+        <v>0.204597</v>
       </c>
       <c r="C47" t="n">
-        <v>0.218295</v>
+        <v>0.217769</v>
       </c>
       <c r="D47" t="n">
-        <v>0.222223</v>
+        <v>0.221876</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.198908</v>
+        <v>0.198395</v>
       </c>
       <c r="C48" t="n">
-        <v>0.217285</v>
+        <v>0.21721</v>
       </c>
       <c r="D48" t="n">
-        <v>0.220943</v>
+        <v>0.221033</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.192542</v>
+        <v>0.192159</v>
       </c>
       <c r="C49" t="n">
-        <v>0.216259</v>
+        <v>0.215753</v>
       </c>
       <c r="D49" t="n">
-        <v>0.220332</v>
+        <v>0.220003</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.185846</v>
+        <v>0.18496</v>
       </c>
       <c r="C50" t="n">
-        <v>0.214991</v>
+        <v>0.21467</v>
       </c>
       <c r="D50" t="n">
-        <v>0.219968</v>
+        <v>0.219497</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.176957</v>
+        <v>0.176274</v>
       </c>
       <c r="C51" t="n">
-        <v>0.214377</v>
+        <v>0.214203</v>
       </c>
       <c r="D51" t="n">
-        <v>0.233965</v>
+        <v>0.233809</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.166366</v>
+        <v>0.165367</v>
       </c>
       <c r="C52" t="n">
-        <v>0.213038</v>
+        <v>0.212883</v>
       </c>
       <c r="D52" t="n">
-        <v>0.232392</v>
+        <v>0.232176</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.244517</v>
+        <v>0.244789</v>
       </c>
       <c r="C53" t="n">
-        <v>0.227383</v>
+        <v>0.22719</v>
       </c>
       <c r="D53" t="n">
-        <v>0.231277</v>
+        <v>0.230978</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.240826</v>
+        <v>0.241131</v>
       </c>
       <c r="C54" t="n">
-        <v>0.225841</v>
+        <v>0.22573</v>
       </c>
       <c r="D54" t="n">
-        <v>0.229869</v>
+        <v>0.22984</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.237257</v>
+        <v>0.23732</v>
       </c>
       <c r="C55" t="n">
-        <v>0.224729</v>
+        <v>0.224772</v>
       </c>
       <c r="D55" t="n">
-        <v>0.228929</v>
+        <v>0.228706</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.232946</v>
+        <v>0.23266</v>
       </c>
       <c r="C56" t="n">
-        <v>0.223273</v>
+        <v>0.223237</v>
       </c>
       <c r="D56" t="n">
-        <v>0.227372</v>
+        <v>0.227173</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.227773</v>
+        <v>0.227994</v>
       </c>
       <c r="C57" t="n">
-        <v>0.22242</v>
+        <v>0.222262</v>
       </c>
       <c r="D57" t="n">
-        <v>0.226516</v>
+        <v>0.226285</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.223297</v>
+        <v>0.223709</v>
       </c>
       <c r="C58" t="n">
-        <v>0.221349</v>
+        <v>0.221258</v>
       </c>
       <c r="D58" t="n">
-        <v>0.225573</v>
+        <v>0.225336</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.219052</v>
+        <v>0.219039</v>
       </c>
       <c r="C59" t="n">
-        <v>0.220457</v>
+        <v>0.220339</v>
       </c>
       <c r="D59" t="n">
-        <v>0.224548</v>
+        <v>0.224355</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.214104</v>
+        <v>0.214065</v>
       </c>
       <c r="C60" t="n">
-        <v>0.21976</v>
+        <v>0.219578</v>
       </c>
       <c r="D60" t="n">
-        <v>0.223719</v>
+        <v>0.223569</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.207513</v>
+        <v>0.207802</v>
       </c>
       <c r="C61" t="n">
-        <v>0.218838</v>
+        <v>0.218723</v>
       </c>
       <c r="D61" t="n">
-        <v>0.222857</v>
+        <v>0.22266</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.201688</v>
+        <v>0.201219</v>
       </c>
       <c r="C62" t="n">
-        <v>0.217906</v>
+        <v>0.217773</v>
       </c>
       <c r="D62" t="n">
-        <v>0.221848</v>
+        <v>0.221639</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.194685</v>
+        <v>0.194263</v>
       </c>
       <c r="C63" t="n">
-        <v>0.216778</v>
+        <v>0.216509</v>
       </c>
       <c r="D63" t="n">
-        <v>0.220935</v>
+        <v>0.220762</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.187404</v>
+        <v>0.187458</v>
       </c>
       <c r="C64" t="n">
-        <v>0.215858</v>
+        <v>0.21564</v>
       </c>
       <c r="D64" t="n">
-        <v>0.220023</v>
+        <v>0.219813</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.17947</v>
+        <v>0.178775</v>
       </c>
       <c r="C65" t="n">
-        <v>0.214722</v>
+        <v>0.214594</v>
       </c>
       <c r="D65" t="n">
-        <v>0.219404</v>
+        <v>0.219162</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.170069</v>
+        <v>0.169909</v>
       </c>
       <c r="C66" t="n">
-        <v>0.213771</v>
+        <v>0.213577</v>
       </c>
       <c r="D66" t="n">
-        <v>0.233086</v>
+        <v>0.232776</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.24705</v>
+        <v>0.247025</v>
       </c>
       <c r="C67" t="n">
-        <v>0.228765</v>
+        <v>0.227882</v>
       </c>
       <c r="D67" t="n">
-        <v>0.231804</v>
+        <v>0.231808</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.243617</v>
+        <v>0.243814</v>
       </c>
       <c r="C68" t="n">
-        <v>0.227065</v>
+        <v>0.22667</v>
       </c>
       <c r="D68" t="n">
-        <v>0.230596</v>
+        <v>0.230338</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.239728</v>
+        <v>0.23991</v>
       </c>
       <c r="C69" t="n">
-        <v>0.225558</v>
+        <v>0.225196</v>
       </c>
       <c r="D69" t="n">
-        <v>0.229047</v>
+        <v>0.228893</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.235184</v>
+        <v>0.235169</v>
       </c>
       <c r="C70" t="n">
-        <v>0.224221</v>
+        <v>0.224034</v>
       </c>
       <c r="D70" t="n">
-        <v>0.227954</v>
+        <v>0.22778</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.230833</v>
+        <v>0.230699</v>
       </c>
       <c r="C71" t="n">
-        <v>0.223282</v>
+        <v>0.223036</v>
       </c>
       <c r="D71" t="n">
-        <v>0.226929</v>
+        <v>0.22672</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.225789</v>
+        <v>0.225665</v>
       </c>
       <c r="C72" t="n">
-        <v>0.222114</v>
+        <v>0.221855</v>
       </c>
       <c r="D72" t="n">
-        <v>0.225849</v>
+        <v>0.225495</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.220114</v>
+        <v>0.22289</v>
       </c>
       <c r="C73" t="n">
-        <v>0.221188</v>
+        <v>0.220887</v>
       </c>
       <c r="D73" t="n">
-        <v>0.224743</v>
+        <v>0.224334</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.214992</v>
+        <v>0.217342</v>
       </c>
       <c r="C74" t="n">
-        <v>0.220024</v>
+        <v>0.219905</v>
       </c>
       <c r="D74" t="n">
-        <v>0.223703</v>
+        <v>0.223414</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.209013</v>
+        <v>0.21118</v>
       </c>
       <c r="C75" t="n">
-        <v>0.218891</v>
+        <v>0.218827</v>
       </c>
       <c r="D75" t="n">
-        <v>0.222748</v>
+        <v>0.22254</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.203428</v>
+        <v>0.203489</v>
       </c>
       <c r="C76" t="n">
-        <v>0.217971</v>
+        <v>0.217793</v>
       </c>
       <c r="D76" t="n">
-        <v>0.221893</v>
+        <v>0.221669</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.196926</v>
+        <v>0.196717</v>
       </c>
       <c r="C77" t="n">
-        <v>0.217043</v>
+        <v>0.216872</v>
       </c>
       <c r="D77" t="n">
-        <v>0.221082</v>
+        <v>0.22092</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.190258</v>
+        <v>0.189747</v>
       </c>
       <c r="C78" t="n">
-        <v>0.216192</v>
+        <v>0.216054</v>
       </c>
       <c r="D78" t="n">
-        <v>0.220222</v>
+        <v>0.2202</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.181955</v>
+        <v>0.181232</v>
       </c>
       <c r="C79" t="n">
-        <v>0.215169</v>
+        <v>0.214895</v>
       </c>
       <c r="D79" t="n">
-        <v>0.219586</v>
+        <v>0.219396</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.17267</v>
+        <v>0.171271</v>
       </c>
       <c r="C80" t="n">
-        <v>0.214082</v>
+        <v>0.214055</v>
       </c>
       <c r="D80" t="n">
-        <v>0.233716</v>
+        <v>0.233621</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.248179</v>
+        <v>0.24805</v>
       </c>
       <c r="C81" t="n">
-        <v>0.228703</v>
+        <v>0.228432</v>
       </c>
       <c r="D81" t="n">
-        <v>0.232311</v>
+        <v>0.232196</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.24498</v>
+        <v>0.244807</v>
       </c>
       <c r="C82" t="n">
-        <v>0.227707</v>
+        <v>0.22743</v>
       </c>
       <c r="D82" t="n">
-        <v>0.231172</v>
+        <v>0.231125</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.24098</v>
+        <v>0.240779</v>
       </c>
       <c r="C83" t="n">
-        <v>0.226137</v>
+        <v>0.226008</v>
       </c>
       <c r="D83" t="n">
-        <v>0.229841</v>
+        <v>0.229675</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.237104</v>
+        <v>0.236845</v>
       </c>
       <c r="C84" t="n">
-        <v>0.225253</v>
+        <v>0.224966</v>
       </c>
       <c r="D84" t="n">
-        <v>0.228731</v>
+        <v>0.228685</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.232512</v>
+        <v>0.232452</v>
       </c>
       <c r="C85" t="n">
-        <v>0.224063</v>
+        <v>0.223843</v>
       </c>
       <c r="D85" t="n">
-        <v>0.227477</v>
+        <v>0.227436</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.227462</v>
+        <v>0.22751</v>
       </c>
       <c r="C86" t="n">
-        <v>0.223048</v>
+        <v>0.22291</v>
       </c>
       <c r="D86" t="n">
-        <v>0.226501</v>
+        <v>0.226383</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.222563</v>
+        <v>0.222401</v>
       </c>
       <c r="C87" t="n">
         <v>0.221802</v>
       </c>
       <c r="D87" t="n">
-        <v>0.225259</v>
+        <v>0.225265</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.216977</v>
+        <v>0.216938</v>
       </c>
       <c r="C88" t="n">
-        <v>0.221152</v>
+        <v>0.220999</v>
       </c>
       <c r="D88" t="n">
-        <v>0.2244</v>
+        <v>0.224293</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.211277</v>
+        <v>0.210941</v>
       </c>
       <c r="C89" t="n">
-        <v>0.219694</v>
+        <v>0.219701</v>
       </c>
       <c r="D89" t="n">
-        <v>0.223204</v>
+        <v>0.223278</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.20514</v>
+        <v>0.204726</v>
       </c>
       <c r="C90" t="n">
-        <v>0.218846</v>
+        <v>0.218692</v>
       </c>
       <c r="D90" t="n">
-        <v>0.222329</v>
+        <v>0.222258</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.198727</v>
+        <v>0.198358</v>
       </c>
       <c r="C91" t="n">
-        <v>0.217817</v>
+        <v>0.217675</v>
       </c>
       <c r="D91" t="n">
-        <v>0.221307</v>
+        <v>0.221271</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.191684</v>
+        <v>0.191027</v>
       </c>
       <c r="C92" t="n">
-        <v>0.216482</v>
+        <v>0.216394</v>
       </c>
       <c r="D92" t="n">
-        <v>0.220479</v>
+        <v>0.220408</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.184056</v>
+        <v>0.183308</v>
       </c>
       <c r="C93" t="n">
-        <v>0.21577</v>
+        <v>0.215577</v>
       </c>
       <c r="D93" t="n">
-        <v>0.219749</v>
+        <v>0.219603</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.175278</v>
+        <v>0.174151</v>
       </c>
       <c r="C94" t="n">
-        <v>0.214495</v>
+        <v>0.21438</v>
       </c>
       <c r="D94" t="n">
-        <v>0.234365</v>
+        <v>0.234094</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.248804</v>
+        <v>0.248842</v>
       </c>
       <c r="C95" t="n">
-        <v>0.232228</v>
+        <v>0.232147</v>
       </c>
       <c r="D95" t="n">
-        <v>0.232919</v>
+        <v>0.232689</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.246062</v>
+        <v>0.245883</v>
       </c>
       <c r="C96" t="n">
-        <v>0.230609</v>
+        <v>0.230501</v>
       </c>
       <c r="D96" t="n">
-        <v>0.23181</v>
+        <v>0.231514</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.242119</v>
+        <v>0.241888</v>
       </c>
       <c r="C97" t="n">
-        <v>0.230149</v>
+        <v>0.229315</v>
       </c>
       <c r="D97" t="n">
-        <v>0.230591</v>
+        <v>0.230332</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.238037</v>
+        <v>0.2379</v>
       </c>
       <c r="C98" t="n">
-        <v>0.227659</v>
+        <v>0.227972</v>
       </c>
       <c r="D98" t="n">
-        <v>0.229606</v>
+        <v>0.229231</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.233189</v>
+        <v>0.233284</v>
       </c>
       <c r="C99" t="n">
-        <v>0.226601</v>
+        <v>0.226658</v>
       </c>
       <c r="D99" t="n">
-        <v>0.227945</v>
+        <v>0.227729</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.22893</v>
+        <v>0.228518</v>
       </c>
       <c r="C100" t="n">
-        <v>0.225122</v>
+        <v>0.224695</v>
       </c>
       <c r="D100" t="n">
-        <v>0.226869</v>
+        <v>0.226589</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.223873</v>
+        <v>0.223648</v>
       </c>
       <c r="C101" t="n">
-        <v>0.224404</v>
+        <v>0.223765</v>
       </c>
       <c r="D101" t="n">
-        <v>0.225666</v>
+        <v>0.225652</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.218356</v>
+        <v>0.218399</v>
       </c>
       <c r="C102" t="n">
-        <v>0.223028</v>
+        <v>0.22213</v>
       </c>
       <c r="D102" t="n">
-        <v>0.224778</v>
+        <v>0.224733</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.213032</v>
+        <v>0.212696</v>
       </c>
       <c r="C103" t="n">
-        <v>0.221675</v>
+        <v>0.221344</v>
       </c>
       <c r="D103" t="n">
-        <v>0.223841</v>
+        <v>0.223664</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.206859</v>
+        <v>0.206501</v>
       </c>
       <c r="C104" t="n">
-        <v>0.220517</v>
+        <v>0.220263</v>
       </c>
       <c r="D104" t="n">
-        <v>0.222743</v>
+        <v>0.222579</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.200341</v>
+        <v>0.199587</v>
       </c>
       <c r="C105" t="n">
-        <v>0.219316</v>
+        <v>0.218947</v>
       </c>
       <c r="D105" t="n">
-        <v>0.222032</v>
+        <v>0.221753</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.193229</v>
+        <v>0.192972</v>
       </c>
       <c r="C106" t="n">
-        <v>0.218203</v>
+        <v>0.217992</v>
       </c>
       <c r="D106" t="n">
-        <v>0.221287</v>
+        <v>0.221006</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.185993</v>
+        <v>0.185739</v>
       </c>
       <c r="C107" t="n">
-        <v>0.216879</v>
+        <v>0.216773</v>
       </c>
       <c r="D107" t="n">
-        <v>0.220398</v>
+        <v>0.220201</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.177259</v>
+        <v>0.177389</v>
       </c>
       <c r="C108" t="n">
-        <v>0.215197</v>
+        <v>0.215482</v>
       </c>
       <c r="D108" t="n">
-        <v>0.234888</v>
+        <v>0.234803</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.166886</v>
+        <v>0.166627</v>
       </c>
       <c r="C109" t="n">
-        <v>0.213658</v>
+        <v>0.213714</v>
       </c>
       <c r="D109" t="n">
-        <v>0.233232</v>
+        <v>0.233229</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.246214</v>
+        <v>0.245944</v>
       </c>
       <c r="C110" t="n">
-        <v>0.22849</v>
+        <v>0.227963</v>
       </c>
       <c r="D110" t="n">
-        <v>0.23235</v>
+        <v>0.232293</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.242738</v>
+        <v>0.242622</v>
       </c>
       <c r="C111" t="n">
-        <v>0.227422</v>
+        <v>0.227237</v>
       </c>
       <c r="D111" t="n">
-        <v>0.230852</v>
+        <v>0.231024</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.238669</v>
+        <v>0.238643</v>
       </c>
       <c r="C112" t="n">
-        <v>0.226751</v>
+        <v>0.22659</v>
       </c>
       <c r="D112" t="n">
-        <v>0.229645</v>
+        <v>0.229586</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.233978</v>
+        <v>0.234009</v>
       </c>
       <c r="C113" t="n">
-        <v>0.225675</v>
+        <v>0.225623</v>
       </c>
       <c r="D113" t="n">
-        <v>0.228837</v>
+        <v>0.228746</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.229267</v>
+        <v>0.229167</v>
       </c>
       <c r="C114" t="n">
-        <v>0.225504</v>
+        <v>0.225194</v>
       </c>
       <c r="D114" t="n">
-        <v>0.227602</v>
+        <v>0.227379</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.22456</v>
+        <v>0.224489</v>
       </c>
       <c r="C115" t="n">
-        <v>0.223857</v>
+        <v>0.224687</v>
       </c>
       <c r="D115" t="n">
-        <v>0.226634</v>
+        <v>0.226526</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.21941</v>
+        <v>0.21951</v>
       </c>
       <c r="C116" t="n">
-        <v>0.222838</v>
+        <v>0.223846</v>
       </c>
       <c r="D116" t="n">
-        <v>0.225513</v>
+        <v>0.225355</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.213983</v>
+        <v>0.213945</v>
       </c>
       <c r="C117" t="n">
-        <v>0.222481</v>
+        <v>0.222242</v>
       </c>
       <c r="D117" t="n">
-        <v>0.224449</v>
+        <v>0.224368</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.207989</v>
+        <v>0.208209</v>
       </c>
       <c r="C118" t="n">
-        <v>0.221223</v>
+        <v>0.221362</v>
       </c>
       <c r="D118" t="n">
-        <v>0.223518</v>
+        <v>0.223388</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.20161</v>
+        <v>0.201801</v>
       </c>
       <c r="C119" t="n">
-        <v>0.220644</v>
+        <v>0.220514</v>
       </c>
       <c r="D119" t="n">
-        <v>0.222568</v>
+        <v>0.222448</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.195184</v>
+        <v>0.195008</v>
       </c>
       <c r="C120" t="n">
-        <v>0.219061</v>
+        <v>0.21902</v>
       </c>
       <c r="D120" t="n">
-        <v>0.221692</v>
+        <v>0.221522</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.18816</v>
+        <v>0.187189</v>
       </c>
       <c r="C121" t="n">
-        <v>0.218013</v>
+        <v>0.217656</v>
       </c>
       <c r="D121" t="n">
-        <v>0.220573</v>
+        <v>0.220528</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.179002</v>
+        <v>0.178435</v>
       </c>
       <c r="C122" t="n">
-        <v>0.216678</v>
+        <v>0.215769</v>
       </c>
       <c r="D122" t="n">
-        <v>0.219744</v>
+        <v>0.219646</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.168942</v>
+        <v>0.16842</v>
       </c>
       <c r="C123" t="n">
-        <v>0.215135</v>
+        <v>0.215241</v>
       </c>
       <c r="D123" t="n">
-        <v>0.233434</v>
+        <v>0.233788</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.246827</v>
+        <v>0.247014</v>
       </c>
       <c r="C124" t="n">
-        <v>0.22832</v>
+        <v>0.228492</v>
       </c>
       <c r="D124" t="n">
-        <v>0.232321</v>
+        <v>0.232541</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.243274</v>
+        <v>0.243594</v>
       </c>
       <c r="C125" t="n">
-        <v>0.227063</v>
+        <v>0.227479</v>
       </c>
       <c r="D125" t="n">
-        <v>0.230933</v>
+        <v>0.230746</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.239645</v>
+        <v>0.242635</v>
       </c>
       <c r="C126" t="n">
-        <v>0.227054</v>
+        <v>0.226181</v>
       </c>
       <c r="D126" t="n">
-        <v>0.230372</v>
+        <v>0.230324</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.235319</v>
+        <v>0.238149</v>
       </c>
       <c r="C127" t="n">
-        <v>0.226147</v>
+        <v>0.226143</v>
       </c>
       <c r="D127" t="n">
-        <v>0.229244</v>
+        <v>0.228305</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.230852</v>
+        <v>0.23307</v>
       </c>
       <c r="C128" t="n">
-        <v>0.225375</v>
+        <v>0.223681</v>
       </c>
       <c r="D128" t="n">
-        <v>0.227574</v>
+        <v>0.227801</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.226136</v>
+        <v>0.228159</v>
       </c>
       <c r="C129" t="n">
-        <v>0.224386</v>
+        <v>0.22425</v>
       </c>
       <c r="D129" t="n">
-        <v>0.226778</v>
+        <v>0.226684</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.220586</v>
+        <v>0.222865</v>
       </c>
       <c r="C130" t="n">
-        <v>0.22307</v>
+        <v>0.22318</v>
       </c>
       <c r="D130" t="n">
-        <v>0.225659</v>
+        <v>0.225618</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.215329</v>
+        <v>0.21568</v>
       </c>
       <c r="C131" t="n">
-        <v>0.220747</v>
+        <v>0.221438</v>
       </c>
       <c r="D131" t="n">
-        <v>0.224656</v>
+        <v>0.224612</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.210153</v>
+        <v>0.210557</v>
       </c>
       <c r="C132" t="n">
-        <v>0.219797</v>
+        <v>0.221035</v>
       </c>
       <c r="D132" t="n">
-        <v>0.223554</v>
+        <v>0.223634</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.203143</v>
+        <v>0.203625</v>
       </c>
       <c r="C133" t="n">
-        <v>0.220369</v>
+        <v>0.219961</v>
       </c>
       <c r="D133" t="n">
-        <v>0.222612</v>
+        <v>0.222601</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.196548</v>
+        <v>0.196472</v>
       </c>
       <c r="C134" t="n">
-        <v>0.219256</v>
+        <v>0.217885</v>
       </c>
       <c r="D134" t="n">
-        <v>0.2215</v>
+        <v>0.221606</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.189285</v>
+        <v>0.189074</v>
       </c>
       <c r="C135" t="n">
-        <v>0.218171</v>
+        <v>0.218005</v>
       </c>
       <c r="D135" t="n">
-        <v>0.220557</v>
+        <v>0.220767</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.180792</v>
+        <v>0.180245</v>
       </c>
       <c r="C136" t="n">
-        <v>0.216981</v>
+        <v>0.215939</v>
       </c>
       <c r="D136" t="n">
-        <v>0.219756</v>
+        <v>0.21989</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.16993</v>
+        <v>0.169689</v>
       </c>
       <c r="C137" t="n">
-        <v>0.215286</v>
+        <v>0.215688</v>
       </c>
       <c r="D137" t="n">
-        <v>0.233707</v>
+        <v>0.233871</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.247314</v>
+        <v>0.247376</v>
       </c>
       <c r="C138" t="n">
-        <v>0.22869</v>
+        <v>0.228676</v>
       </c>
       <c r="D138" t="n">
-        <v>0.232278</v>
+        <v>0.232718</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.244105</v>
+        <v>0.24402</v>
       </c>
       <c r="C139" t="n">
-        <v>0.227832</v>
+        <v>0.22732</v>
       </c>
       <c r="D139" t="n">
-        <v>0.231479</v>
+        <v>0.231567</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.24043</v>
+        <v>0.240467</v>
       </c>
       <c r="C140" t="n">
-        <v>0.226583</v>
+        <v>0.225898</v>
       </c>
       <c r="D140" t="n">
-        <v>0.230356</v>
+        <v>0.230436</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.236045</v>
+        <v>0.236028</v>
       </c>
       <c r="C141" t="n">
-        <v>0.226542</v>
+        <v>0.226477</v>
       </c>
       <c r="D141" t="n">
-        <v>0.229367</v>
+        <v>0.229445</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.231397</v>
+        <v>0.231324</v>
       </c>
       <c r="C142" t="n">
-        <v>0.225743</v>
+        <v>0.224907</v>
       </c>
       <c r="D142" t="n">
-        <v>0.228191</v>
+        <v>0.228295</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.226517</v>
+        <v>0.226464</v>
       </c>
       <c r="C143" t="n">
-        <v>0.225326</v>
+        <v>0.225017</v>
       </c>
       <c r="D143" t="n">
-        <v>0.226997</v>
+        <v>0.227216</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.203933</v>
+        <v>0.206443</v>
       </c>
       <c r="C2" t="n">
-        <v>0.205143</v>
+        <v>0.205321</v>
       </c>
       <c r="D2" t="n">
-        <v>0.213306</v>
+        <v>0.212896</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.195599</v>
+        <v>0.195958</v>
       </c>
       <c r="C3" t="n">
-        <v>0.20549</v>
+        <v>0.20473</v>
       </c>
       <c r="D3" t="n">
-        <v>0.214219</v>
+        <v>0.213565</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.189387</v>
+        <v>0.189732</v>
       </c>
       <c r="C4" t="n">
-        <v>0.205592</v>
+        <v>0.205536</v>
       </c>
       <c r="D4" t="n">
-        <v>0.21291</v>
+        <v>0.213014</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.181169</v>
+        <v>0.18225</v>
       </c>
       <c r="C5" t="n">
-        <v>0.205194</v>
+        <v>0.205393</v>
       </c>
       <c r="D5" t="n">
-        <v>0.213055</v>
+        <v>0.212755</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.176226</v>
+        <v>0.178391</v>
       </c>
       <c r="C6" t="n">
-        <v>0.206355</v>
+        <v>0.206894</v>
       </c>
       <c r="D6" t="n">
-        <v>0.214316</v>
+        <v>0.214336</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.168836</v>
+        <v>0.169023</v>
       </c>
       <c r="C7" t="n">
-        <v>0.205712</v>
+        <v>0.205669</v>
       </c>
       <c r="D7" t="n">
-        <v>0.212921</v>
+        <v>0.213111</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.161793</v>
+        <v>0.16112</v>
       </c>
       <c r="C8" t="n">
-        <v>0.204114</v>
+        <v>0.20417</v>
       </c>
       <c r="D8" t="n">
-        <v>0.212689</v>
+        <v>0.212743</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.150788</v>
+        <v>0.15131</v>
       </c>
       <c r="C9" t="n">
-        <v>0.204652</v>
+        <v>0.204091</v>
       </c>
       <c r="D9" t="n">
-        <v>0.229459</v>
+        <v>0.228308</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.229958</v>
+        <v>0.230567</v>
       </c>
       <c r="C10" t="n">
-        <v>0.222779</v>
+        <v>0.22251</v>
       </c>
       <c r="D10" t="n">
-        <v>0.227791</v>
+        <v>0.22793</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.227504</v>
+        <v>0.228362</v>
       </c>
       <c r="C11" t="n">
-        <v>0.222971</v>
+        <v>0.222676</v>
       </c>
       <c r="D11" t="n">
-        <v>0.227681</v>
+        <v>0.227343</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.225589</v>
+        <v>0.225672</v>
       </c>
       <c r="C12" t="n">
-        <v>0.221372</v>
+        <v>0.221128</v>
       </c>
       <c r="D12" t="n">
-        <v>0.226046</v>
+        <v>0.225932</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.221483</v>
+        <v>0.222276</v>
       </c>
       <c r="C13" t="n">
-        <v>0.219847</v>
+        <v>0.220135</v>
       </c>
       <c r="D13" t="n">
-        <v>0.225372</v>
+        <v>0.225324</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.217175</v>
+        <v>0.218469</v>
       </c>
       <c r="C14" t="n">
-        <v>0.21875</v>
+        <v>0.218629</v>
       </c>
       <c r="D14" t="n">
-        <v>0.224211</v>
+        <v>0.224088</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.213469</v>
+        <v>0.214436</v>
       </c>
       <c r="C15" t="n">
-        <v>0.21821</v>
+        <v>0.217799</v>
       </c>
       <c r="D15" t="n">
-        <v>0.222883</v>
+        <v>0.2232</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.209314</v>
+        <v>0.209845</v>
       </c>
       <c r="C16" t="n">
-        <v>0.216959</v>
+        <v>0.217463</v>
       </c>
       <c r="D16" t="n">
-        <v>0.22256</v>
+        <v>0.222535</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.203357</v>
+        <v>0.204774</v>
       </c>
       <c r="C17" t="n">
-        <v>0.218194</v>
+        <v>0.216385</v>
       </c>
       <c r="D17" t="n">
-        <v>0.221516</v>
+        <v>0.221444</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.200158</v>
+        <v>0.199759</v>
       </c>
       <c r="C18" t="n">
-        <v>0.215566</v>
+        <v>0.215214</v>
       </c>
       <c r="D18" t="n">
-        <v>0.220897</v>
+        <v>0.220805</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.193397</v>
+        <v>0.193401</v>
       </c>
       <c r="C19" t="n">
-        <v>0.214295</v>
+        <v>0.213875</v>
       </c>
       <c r="D19" t="n">
-        <v>0.220029</v>
+        <v>0.21972</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.18766</v>
+        <v>0.187946</v>
       </c>
       <c r="C20" t="n">
-        <v>0.21537</v>
+        <v>0.21409</v>
       </c>
       <c r="D20" t="n">
-        <v>0.218943</v>
+        <v>0.218773</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.18094</v>
+        <v>0.180481</v>
       </c>
       <c r="C21" t="n">
-        <v>0.214887</v>
+        <v>0.213893</v>
       </c>
       <c r="D21" t="n">
-        <v>0.218238</v>
+        <v>0.218174</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.173964</v>
+        <v>0.173269</v>
       </c>
       <c r="C22" t="n">
-        <v>0.212679</v>
+        <v>0.212598</v>
       </c>
       <c r="D22" t="n">
-        <v>0.217575</v>
+        <v>0.21766</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.165159</v>
+        <v>0.164263</v>
       </c>
       <c r="C23" t="n">
-        <v>0.211453</v>
+        <v>0.211762</v>
       </c>
       <c r="D23" t="n">
-        <v>0.232395</v>
+        <v>0.232069</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.24084</v>
+        <v>0.241011</v>
       </c>
       <c r="C24" t="n">
-        <v>0.226412</v>
+        <v>0.22667</v>
       </c>
       <c r="D24" t="n">
-        <v>0.230823</v>
+        <v>0.230697</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.236983</v>
+        <v>0.237184</v>
       </c>
       <c r="C25" t="n">
-        <v>0.225267</v>
+        <v>0.225514</v>
       </c>
       <c r="D25" t="n">
-        <v>0.229355</v>
+        <v>0.229553</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.233855</v>
+        <v>0.233427</v>
       </c>
       <c r="C26" t="n">
-        <v>0.223643</v>
+        <v>0.223722</v>
       </c>
       <c r="D26" t="n">
-        <v>0.227873</v>
+        <v>0.227991</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.229247</v>
+        <v>0.229594</v>
       </c>
       <c r="C27" t="n">
-        <v>0.222885</v>
+        <v>0.222707</v>
       </c>
       <c r="D27" t="n">
-        <v>0.226022</v>
+        <v>0.226109</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.225639</v>
+        <v>0.225934</v>
       </c>
       <c r="C28" t="n">
-        <v>0.221765</v>
+        <v>0.221999</v>
       </c>
       <c r="D28" t="n">
-        <v>0.224872</v>
+        <v>0.224829</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.220801</v>
+        <v>0.220323</v>
       </c>
       <c r="C29" t="n">
-        <v>0.219747</v>
+        <v>0.219652</v>
       </c>
       <c r="D29" t="n">
-        <v>0.22426</v>
+        <v>0.224104</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.215947</v>
+        <v>0.215804</v>
       </c>
       <c r="C30" t="n">
-        <v>0.218705</v>
+        <v>0.218588</v>
       </c>
       <c r="D30" t="n">
-        <v>0.222856</v>
+        <v>0.222866</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.21076</v>
+        <v>0.211849</v>
       </c>
       <c r="C31" t="n">
-        <v>0.21796</v>
+        <v>0.217666</v>
       </c>
       <c r="D31" t="n">
-        <v>0.222243</v>
+        <v>0.222083</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.206448</v>
+        <v>0.206746</v>
       </c>
       <c r="C32" t="n">
-        <v>0.217785</v>
+        <v>0.217668</v>
       </c>
       <c r="D32" t="n">
-        <v>0.221599</v>
+        <v>0.221477</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.20097</v>
+        <v>0.200686</v>
       </c>
       <c r="C33" t="n">
-        <v>0.216713</v>
+        <v>0.216409</v>
       </c>
       <c r="D33" t="n">
-        <v>0.220894</v>
+        <v>0.220878</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.195425</v>
+        <v>0.195154</v>
       </c>
       <c r="C34" t="n">
-        <v>0.215849</v>
+        <v>0.21598</v>
       </c>
       <c r="D34" t="n">
-        <v>0.220234</v>
+        <v>0.220313</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.188023</v>
+        <v>0.187301</v>
       </c>
       <c r="C35" t="n">
-        <v>0.215178</v>
+        <v>0.215021</v>
       </c>
       <c r="D35" t="n">
-        <v>0.21954</v>
+        <v>0.219517</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180909</v>
+        <v>0.179772</v>
       </c>
       <c r="C36" t="n">
-        <v>0.213642</v>
+        <v>0.21325</v>
       </c>
       <c r="D36" t="n">
-        <v>0.218457</v>
+        <v>0.218545</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.171969</v>
+        <v>0.17049</v>
       </c>
       <c r="C37" t="n">
-        <v>0.212798</v>
+        <v>0.212854</v>
       </c>
       <c r="D37" t="n">
-        <v>0.232699</v>
+        <v>0.232596</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.243765</v>
+        <v>0.24407</v>
       </c>
       <c r="C38" t="n">
-        <v>0.226984</v>
+        <v>0.227118</v>
       </c>
       <c r="D38" t="n">
-        <v>0.230866</v>
+        <v>0.231009</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.241483</v>
+        <v>0.241509</v>
       </c>
       <c r="C39" t="n">
-        <v>0.225819</v>
+        <v>0.225774</v>
       </c>
       <c r="D39" t="n">
-        <v>0.229671</v>
+        <v>0.229757</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.237939</v>
+        <v>0.238197</v>
       </c>
       <c r="C40" t="n">
-        <v>0.224455</v>
+        <v>0.224648</v>
       </c>
       <c r="D40" t="n">
-        <v>0.228371</v>
+        <v>0.228366</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.23355</v>
+        <v>0.2335</v>
       </c>
       <c r="C41" t="n">
-        <v>0.223439</v>
+        <v>0.223508</v>
       </c>
       <c r="D41" t="n">
-        <v>0.227333</v>
+        <v>0.227527</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.230471</v>
+        <v>0.23047</v>
       </c>
       <c r="C42" t="n">
-        <v>0.222403</v>
+        <v>0.222476</v>
       </c>
       <c r="D42" t="n">
-        <v>0.22644</v>
+        <v>0.22648</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.225714</v>
+        <v>0.225608</v>
       </c>
       <c r="C43" t="n">
-        <v>0.221257</v>
+        <v>0.221342</v>
       </c>
       <c r="D43" t="n">
-        <v>0.225482</v>
+        <v>0.225618</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.221435</v>
+        <v>0.220984</v>
       </c>
       <c r="C44" t="n">
-        <v>0.220415</v>
+        <v>0.220489</v>
       </c>
       <c r="D44" t="n">
-        <v>0.224486</v>
+        <v>0.224466</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.216276</v>
+        <v>0.216032</v>
       </c>
       <c r="C45" t="n">
-        <v>0.219626</v>
+        <v>0.219408</v>
       </c>
       <c r="D45" t="n">
-        <v>0.223535</v>
+        <v>0.223485</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.209413</v>
+        <v>0.210099</v>
       </c>
       <c r="C46" t="n">
-        <v>0.218567</v>
+        <v>0.218369</v>
       </c>
       <c r="D46" t="n">
-        <v>0.222699</v>
+        <v>0.222652</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.204597</v>
+        <v>0.204307</v>
       </c>
       <c r="C47" t="n">
-        <v>0.217769</v>
+        <v>0.21783</v>
       </c>
       <c r="D47" t="n">
-        <v>0.221876</v>
+        <v>0.22198</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.198395</v>
+        <v>0.197977</v>
       </c>
       <c r="C48" t="n">
-        <v>0.21721</v>
+        <v>0.21717</v>
       </c>
       <c r="D48" t="n">
-        <v>0.221033</v>
+        <v>0.220941</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.192159</v>
+        <v>0.191901</v>
       </c>
       <c r="C49" t="n">
-        <v>0.215753</v>
+        <v>0.215931</v>
       </c>
       <c r="D49" t="n">
-        <v>0.220003</v>
+        <v>0.219991</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.18496</v>
+        <v>0.184781</v>
       </c>
       <c r="C50" t="n">
-        <v>0.21467</v>
+        <v>0.214804</v>
       </c>
       <c r="D50" t="n">
-        <v>0.219497</v>
+        <v>0.219537</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.176274</v>
+        <v>0.176009</v>
       </c>
       <c r="C51" t="n">
-        <v>0.214203</v>
+        <v>0.214272</v>
       </c>
       <c r="D51" t="n">
-        <v>0.233809</v>
+        <v>0.233791</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.165367</v>
+        <v>0.165413</v>
       </c>
       <c r="C52" t="n">
-        <v>0.212883</v>
+        <v>0.212916</v>
       </c>
       <c r="D52" t="n">
-        <v>0.232176</v>
+        <v>0.232286</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.244789</v>
+        <v>0.244694</v>
       </c>
       <c r="C53" t="n">
-        <v>0.22719</v>
+        <v>0.226989</v>
       </c>
       <c r="D53" t="n">
-        <v>0.230978</v>
+        <v>0.230942</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.241131</v>
+        <v>0.241144</v>
       </c>
       <c r="C54" t="n">
-        <v>0.22573</v>
+        <v>0.225992</v>
       </c>
       <c r="D54" t="n">
-        <v>0.22984</v>
+        <v>0.229843</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.23732</v>
+        <v>0.237282</v>
       </c>
       <c r="C55" t="n">
-        <v>0.224772</v>
+        <v>0.224942</v>
       </c>
       <c r="D55" t="n">
-        <v>0.228706</v>
+        <v>0.228703</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.23266</v>
+        <v>0.232945</v>
       </c>
       <c r="C56" t="n">
-        <v>0.223237</v>
+        <v>0.223208</v>
       </c>
       <c r="D56" t="n">
-        <v>0.227173</v>
+        <v>0.22732</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.227994</v>
+        <v>0.227817</v>
       </c>
       <c r="C57" t="n">
-        <v>0.222262</v>
+        <v>0.222239</v>
       </c>
       <c r="D57" t="n">
-        <v>0.226285</v>
+        <v>0.226298</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.223709</v>
+        <v>0.223372</v>
       </c>
       <c r="C58" t="n">
-        <v>0.221258</v>
+        <v>0.221433</v>
       </c>
       <c r="D58" t="n">
-        <v>0.225336</v>
+        <v>0.225425</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.219039</v>
+        <v>0.219131</v>
       </c>
       <c r="C59" t="n">
-        <v>0.220339</v>
+        <v>0.220337</v>
       </c>
       <c r="D59" t="n">
-        <v>0.224355</v>
+        <v>0.224458</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.214065</v>
+        <v>0.213601</v>
       </c>
       <c r="C60" t="n">
-        <v>0.219578</v>
+        <v>0.219759</v>
       </c>
       <c r="D60" t="n">
-        <v>0.223569</v>
+        <v>0.223625</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.207802</v>
+        <v>0.207221</v>
       </c>
       <c r="C61" t="n">
-        <v>0.218723</v>
+        <v>0.218761</v>
       </c>
       <c r="D61" t="n">
-        <v>0.22266</v>
+        <v>0.222719</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.201219</v>
+        <v>0.201392</v>
       </c>
       <c r="C62" t="n">
-        <v>0.217773</v>
+        <v>0.217742</v>
       </c>
       <c r="D62" t="n">
-        <v>0.221639</v>
+        <v>0.221664</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.194263</v>
+        <v>0.194265</v>
       </c>
       <c r="C63" t="n">
-        <v>0.216509</v>
+        <v>0.216728</v>
       </c>
       <c r="D63" t="n">
-        <v>0.220762</v>
+        <v>0.220686</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.187458</v>
+        <v>0.187117</v>
       </c>
       <c r="C64" t="n">
-        <v>0.21564</v>
+        <v>0.215595</v>
       </c>
       <c r="D64" t="n">
-        <v>0.219813</v>
+        <v>0.219779</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178775</v>
+        <v>0.178918</v>
       </c>
       <c r="C65" t="n">
-        <v>0.214594</v>
+        <v>0.214635</v>
       </c>
       <c r="D65" t="n">
-        <v>0.219162</v>
+        <v>0.219199</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.169909</v>
+        <v>0.169349</v>
       </c>
       <c r="C66" t="n">
-        <v>0.213577</v>
+        <v>0.213512</v>
       </c>
       <c r="D66" t="n">
-        <v>0.232776</v>
+        <v>0.23286</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.247025</v>
+        <v>0.246887</v>
       </c>
       <c r="C67" t="n">
-        <v>0.227882</v>
+        <v>0.228091</v>
       </c>
       <c r="D67" t="n">
-        <v>0.231808</v>
+        <v>0.231833</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.243814</v>
+        <v>0.24396</v>
       </c>
       <c r="C68" t="n">
-        <v>0.22667</v>
+        <v>0.226657</v>
       </c>
       <c r="D68" t="n">
-        <v>0.230338</v>
+        <v>0.23034</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.23991</v>
+        <v>0.239802</v>
       </c>
       <c r="C69" t="n">
-        <v>0.225196</v>
+        <v>0.225257</v>
       </c>
       <c r="D69" t="n">
-        <v>0.228893</v>
+        <v>0.228973</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.235169</v>
+        <v>0.235332</v>
       </c>
       <c r="C70" t="n">
-        <v>0.224034</v>
+        <v>0.224135</v>
       </c>
       <c r="D70" t="n">
-        <v>0.22778</v>
+        <v>0.227872</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.230699</v>
+        <v>0.230664</v>
       </c>
       <c r="C71" t="n">
-        <v>0.223036</v>
+        <v>0.223134</v>
       </c>
       <c r="D71" t="n">
-        <v>0.22672</v>
+        <v>0.226719</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.225665</v>
+        <v>0.225591</v>
       </c>
       <c r="C72" t="n">
-        <v>0.221855</v>
+        <v>0.221905</v>
       </c>
       <c r="D72" t="n">
-        <v>0.225495</v>
+        <v>0.225492</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.22289</v>
+        <v>0.219851</v>
       </c>
       <c r="C73" t="n">
-        <v>0.220887</v>
+        <v>0.22088</v>
       </c>
       <c r="D73" t="n">
-        <v>0.224334</v>
+        <v>0.224312</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.217342</v>
+        <v>0.214925</v>
       </c>
       <c r="C74" t="n">
-        <v>0.219905</v>
+        <v>0.219828</v>
       </c>
       <c r="D74" t="n">
-        <v>0.223414</v>
+        <v>0.223501</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.21118</v>
+        <v>0.209039</v>
       </c>
       <c r="C75" t="n">
-        <v>0.218827</v>
+        <v>0.218843</v>
       </c>
       <c r="D75" t="n">
-        <v>0.22254</v>
+        <v>0.222588</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.203489</v>
+        <v>0.203615</v>
       </c>
       <c r="C76" t="n">
-        <v>0.217793</v>
+        <v>0.217905</v>
       </c>
       <c r="D76" t="n">
-        <v>0.221669</v>
+        <v>0.221715</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.196717</v>
+        <v>0.19669</v>
       </c>
       <c r="C77" t="n">
-        <v>0.216872</v>
+        <v>0.216864</v>
       </c>
       <c r="D77" t="n">
-        <v>0.22092</v>
+        <v>0.220861</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.189747</v>
+        <v>0.189326</v>
       </c>
       <c r="C78" t="n">
-        <v>0.216054</v>
+        <v>0.216003</v>
       </c>
       <c r="D78" t="n">
-        <v>0.2202</v>
+        <v>0.220176</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.181232</v>
+        <v>0.181369</v>
       </c>
       <c r="C79" t="n">
-        <v>0.214895</v>
+        <v>0.214862</v>
       </c>
       <c r="D79" t="n">
-        <v>0.219396</v>
+        <v>0.219427</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.171271</v>
+        <v>0.171789</v>
       </c>
       <c r="C80" t="n">
-        <v>0.214055</v>
+        <v>0.213972</v>
       </c>
       <c r="D80" t="n">
-        <v>0.233621</v>
+        <v>0.233555</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.24805</v>
+        <v>0.248102</v>
       </c>
       <c r="C81" t="n">
-        <v>0.228432</v>
+        <v>0.228501</v>
       </c>
       <c r="D81" t="n">
-        <v>0.232196</v>
+        <v>0.23206</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.244807</v>
+        <v>0.244878</v>
       </c>
       <c r="C82" t="n">
-        <v>0.22743</v>
+        <v>0.227414</v>
       </c>
       <c r="D82" t="n">
-        <v>0.231125</v>
+        <v>0.231039</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.240779</v>
+        <v>0.24086</v>
       </c>
       <c r="C83" t="n">
-        <v>0.226008</v>
+        <v>0.226051</v>
       </c>
       <c r="D83" t="n">
-        <v>0.229675</v>
+        <v>0.229619</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.236845</v>
+        <v>0.236763</v>
       </c>
       <c r="C84" t="n">
-        <v>0.224966</v>
+        <v>0.224957</v>
       </c>
       <c r="D84" t="n">
-        <v>0.228685</v>
+        <v>0.228482</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.232452</v>
+        <v>0.232578</v>
       </c>
       <c r="C85" t="n">
-        <v>0.223843</v>
+        <v>0.223755</v>
       </c>
       <c r="D85" t="n">
-        <v>0.227436</v>
+        <v>0.227408</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.22751</v>
+        <v>0.227407</v>
       </c>
       <c r="C86" t="n">
-        <v>0.22291</v>
+        <v>0.222779</v>
       </c>
       <c r="D86" t="n">
-        <v>0.226383</v>
+        <v>0.226299</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.222401</v>
+        <v>0.222408</v>
       </c>
       <c r="C87" t="n">
-        <v>0.221802</v>
+        <v>0.221717</v>
       </c>
       <c r="D87" t="n">
-        <v>0.225265</v>
+        <v>0.2253</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.216938</v>
+        <v>0.216955</v>
       </c>
       <c r="C88" t="n">
-        <v>0.220999</v>
+        <v>0.220711</v>
       </c>
       <c r="D88" t="n">
-        <v>0.224293</v>
+        <v>0.224328</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.210941</v>
+        <v>0.210899</v>
       </c>
       <c r="C89" t="n">
-        <v>0.219701</v>
+        <v>0.219543</v>
       </c>
       <c r="D89" t="n">
-        <v>0.223278</v>
+        <v>0.223125</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.204726</v>
+        <v>0.20469</v>
       </c>
       <c r="C90" t="n">
-        <v>0.218692</v>
+        <v>0.218733</v>
       </c>
       <c r="D90" t="n">
-        <v>0.222258</v>
+        <v>0.22215</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.198358</v>
+        <v>0.198311</v>
       </c>
       <c r="C91" t="n">
-        <v>0.217675</v>
+        <v>0.217708</v>
       </c>
       <c r="D91" t="n">
-        <v>0.221271</v>
+        <v>0.221275</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.191027</v>
+        <v>0.191277</v>
       </c>
       <c r="C92" t="n">
-        <v>0.216394</v>
+        <v>0.216437</v>
       </c>
       <c r="D92" t="n">
-        <v>0.220408</v>
+        <v>0.220421</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.183308</v>
+        <v>0.183332</v>
       </c>
       <c r="C93" t="n">
-        <v>0.215577</v>
+        <v>0.215575</v>
       </c>
       <c r="D93" t="n">
-        <v>0.219603</v>
+        <v>0.219741</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.174151</v>
+        <v>0.174426</v>
       </c>
       <c r="C94" t="n">
-        <v>0.21438</v>
+        <v>0.214378</v>
       </c>
       <c r="D94" t="n">
-        <v>0.234094</v>
+        <v>0.233979</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.248842</v>
+        <v>0.248839</v>
       </c>
       <c r="C95" t="n">
-        <v>0.232147</v>
+        <v>0.231412</v>
       </c>
       <c r="D95" t="n">
-        <v>0.232689</v>
+        <v>0.232575</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.245883</v>
+        <v>0.245704</v>
       </c>
       <c r="C96" t="n">
-        <v>0.230501</v>
+        <v>0.230278</v>
       </c>
       <c r="D96" t="n">
-        <v>0.231514</v>
+        <v>0.231462</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.241888</v>
+        <v>0.241761</v>
       </c>
       <c r="C97" t="n">
-        <v>0.229315</v>
+        <v>0.229253</v>
       </c>
       <c r="D97" t="n">
-        <v>0.230332</v>
+        <v>0.230302</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.2379</v>
+        <v>0.237914</v>
       </c>
       <c r="C98" t="n">
-        <v>0.227972</v>
+        <v>0.227606</v>
       </c>
       <c r="D98" t="n">
-        <v>0.229231</v>
+        <v>0.229181</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.233284</v>
+        <v>0.233272</v>
       </c>
       <c r="C99" t="n">
-        <v>0.226658</v>
+        <v>0.226566</v>
       </c>
       <c r="D99" t="n">
-        <v>0.227729</v>
+        <v>0.227643</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.228518</v>
+        <v>0.228716</v>
       </c>
       <c r="C100" t="n">
-        <v>0.224695</v>
+        <v>0.22484</v>
       </c>
       <c r="D100" t="n">
-        <v>0.226589</v>
+        <v>0.226603</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.223648</v>
+        <v>0.223679</v>
       </c>
       <c r="C101" t="n">
-        <v>0.223765</v>
+        <v>0.223781</v>
       </c>
       <c r="D101" t="n">
-        <v>0.225652</v>
+        <v>0.225636</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.218399</v>
+        <v>0.218358</v>
       </c>
       <c r="C102" t="n">
-        <v>0.22213</v>
+        <v>0.222561</v>
       </c>
       <c r="D102" t="n">
-        <v>0.224733</v>
+        <v>0.224654</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.212696</v>
+        <v>0.212748</v>
       </c>
       <c r="C103" t="n">
-        <v>0.221344</v>
+        <v>0.221242</v>
       </c>
       <c r="D103" t="n">
-        <v>0.223664</v>
+        <v>0.223615</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.206501</v>
+        <v>0.206646</v>
       </c>
       <c r="C104" t="n">
-        <v>0.220263</v>
+        <v>0.22009</v>
       </c>
       <c r="D104" t="n">
-        <v>0.222579</v>
+        <v>0.222543</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.199587</v>
+        <v>0.199652</v>
       </c>
       <c r="C105" t="n">
-        <v>0.218947</v>
+        <v>0.218696</v>
       </c>
       <c r="D105" t="n">
-        <v>0.221753</v>
+        <v>0.221751</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.192972</v>
+        <v>0.193</v>
       </c>
       <c r="C106" t="n">
-        <v>0.217992</v>
+        <v>0.217817</v>
       </c>
       <c r="D106" t="n">
-        <v>0.221006</v>
+        <v>0.220926</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.185739</v>
+        <v>0.18541</v>
       </c>
       <c r="C107" t="n">
-        <v>0.216773</v>
+        <v>0.216725</v>
       </c>
       <c r="D107" t="n">
-        <v>0.220201</v>
+        <v>0.220095</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.177389</v>
+        <v>0.176476</v>
       </c>
       <c r="C108" t="n">
-        <v>0.215482</v>
+        <v>0.215008</v>
       </c>
       <c r="D108" t="n">
-        <v>0.234803</v>
+        <v>0.234892</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.166627</v>
+        <v>0.165968</v>
       </c>
       <c r="C109" t="n">
-        <v>0.213714</v>
+        <v>0.213631</v>
       </c>
       <c r="D109" t="n">
-        <v>0.233229</v>
+        <v>0.233236</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.245944</v>
+        <v>0.246002</v>
       </c>
       <c r="C110" t="n">
-        <v>0.227963</v>
+        <v>0.22837</v>
       </c>
       <c r="D110" t="n">
-        <v>0.232293</v>
+        <v>0.23237</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.242622</v>
+        <v>0.242577</v>
       </c>
       <c r="C111" t="n">
-        <v>0.227237</v>
+        <v>0.227347</v>
       </c>
       <c r="D111" t="n">
-        <v>0.231024</v>
+        <v>0.230989</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.238643</v>
+        <v>0.238309</v>
       </c>
       <c r="C112" t="n">
-        <v>0.22659</v>
+        <v>0.226456</v>
       </c>
       <c r="D112" t="n">
-        <v>0.229586</v>
+        <v>0.229747</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.234009</v>
+        <v>0.233877</v>
       </c>
       <c r="C113" t="n">
-        <v>0.225623</v>
+        <v>0.225981</v>
       </c>
       <c r="D113" t="n">
-        <v>0.228746</v>
+        <v>0.228568</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.229167</v>
+        <v>0.229093</v>
       </c>
       <c r="C114" t="n">
-        <v>0.225194</v>
+        <v>0.225254</v>
       </c>
       <c r="D114" t="n">
-        <v>0.227379</v>
+        <v>0.227368</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.224489</v>
+        <v>0.224296</v>
       </c>
       <c r="C115" t="n">
-        <v>0.224687</v>
+        <v>0.224611</v>
       </c>
       <c r="D115" t="n">
-        <v>0.226526</v>
+        <v>0.226393</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.21951</v>
+        <v>0.219326</v>
       </c>
       <c r="C116" t="n">
-        <v>0.223846</v>
+        <v>0.223518</v>
       </c>
       <c r="D116" t="n">
-        <v>0.225355</v>
+        <v>0.22529</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.213945</v>
+        <v>0.214</v>
       </c>
       <c r="C117" t="n">
-        <v>0.222242</v>
+        <v>0.221895</v>
       </c>
       <c r="D117" t="n">
-        <v>0.224368</v>
+        <v>0.224151</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.208209</v>
+        <v>0.207767</v>
       </c>
       <c r="C118" t="n">
-        <v>0.221362</v>
+        <v>0.221101</v>
       </c>
       <c r="D118" t="n">
-        <v>0.223388</v>
+        <v>0.223323</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.201801</v>
+        <v>0.201581</v>
       </c>
       <c r="C119" t="n">
-        <v>0.220514</v>
+        <v>0.220202</v>
       </c>
       <c r="D119" t="n">
-        <v>0.222448</v>
+        <v>0.222317</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.195008</v>
+        <v>0.194732</v>
       </c>
       <c r="C120" t="n">
-        <v>0.21902</v>
+        <v>0.218892</v>
       </c>
       <c r="D120" t="n">
-        <v>0.221522</v>
+        <v>0.221395</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.187189</v>
+        <v>0.187735</v>
       </c>
       <c r="C121" t="n">
-        <v>0.217656</v>
+        <v>0.217779</v>
       </c>
       <c r="D121" t="n">
-        <v>0.220528</v>
+        <v>0.220448</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.178435</v>
+        <v>0.178694</v>
       </c>
       <c r="C122" t="n">
-        <v>0.215769</v>
+        <v>0.216636</v>
       </c>
       <c r="D122" t="n">
-        <v>0.219646</v>
+        <v>0.219614</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.16842</v>
+        <v>0.168833</v>
       </c>
       <c r="C123" t="n">
-        <v>0.215241</v>
+        <v>0.215311</v>
       </c>
       <c r="D123" t="n">
-        <v>0.233788</v>
+        <v>0.233778</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.247014</v>
+        <v>0.24685</v>
       </c>
       <c r="C124" t="n">
-        <v>0.228492</v>
+        <v>0.228432</v>
       </c>
       <c r="D124" t="n">
-        <v>0.232541</v>
+        <v>0.232619</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.243594</v>
+        <v>0.243284</v>
       </c>
       <c r="C125" t="n">
-        <v>0.227479</v>
+        <v>0.227447</v>
       </c>
       <c r="D125" t="n">
-        <v>0.230746</v>
+        <v>0.231362</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.242635</v>
+        <v>0.239588</v>
       </c>
       <c r="C126" t="n">
-        <v>0.226181</v>
+        <v>0.226844</v>
       </c>
       <c r="D126" t="n">
-        <v>0.230324</v>
+        <v>0.230269</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.238149</v>
+        <v>0.236649</v>
       </c>
       <c r="C127" t="n">
-        <v>0.226143</v>
+        <v>0.225704</v>
       </c>
       <c r="D127" t="n">
-        <v>0.228305</v>
+        <v>0.229055</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.23307</v>
+        <v>0.233078</v>
       </c>
       <c r="C128" t="n">
-        <v>0.223681</v>
+        <v>0.224477</v>
       </c>
       <c r="D128" t="n">
-        <v>0.227801</v>
+        <v>0.227793</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.228159</v>
+        <v>0.227983</v>
       </c>
       <c r="C129" t="n">
-        <v>0.22425</v>
+        <v>0.223514</v>
       </c>
       <c r="D129" t="n">
-        <v>0.226684</v>
+        <v>0.226731</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.222865</v>
+        <v>0.222485</v>
       </c>
       <c r="C130" t="n">
-        <v>0.22318</v>
+        <v>0.222869</v>
       </c>
       <c r="D130" t="n">
-        <v>0.225618</v>
+        <v>0.225483</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.21568</v>
+        <v>0.215125</v>
       </c>
       <c r="C131" t="n">
-        <v>0.221438</v>
+        <v>0.221955</v>
       </c>
       <c r="D131" t="n">
-        <v>0.224612</v>
+        <v>0.224682</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.210557</v>
+        <v>0.209016</v>
       </c>
       <c r="C132" t="n">
-        <v>0.221035</v>
+        <v>0.22074</v>
       </c>
       <c r="D132" t="n">
-        <v>0.223634</v>
+        <v>0.223524</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.203625</v>
+        <v>0.202764</v>
       </c>
       <c r="C133" t="n">
-        <v>0.219961</v>
+        <v>0.220067</v>
       </c>
       <c r="D133" t="n">
-        <v>0.222601</v>
+        <v>0.222647</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.196472</v>
+        <v>0.197058</v>
       </c>
       <c r="C134" t="n">
-        <v>0.217885</v>
+        <v>0.219111</v>
       </c>
       <c r="D134" t="n">
-        <v>0.221606</v>
+        <v>0.221635</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.189074</v>
+        <v>0.188628</v>
       </c>
       <c r="C135" t="n">
-        <v>0.218005</v>
+        <v>0.2172</v>
       </c>
       <c r="D135" t="n">
-        <v>0.220767</v>
+        <v>0.220366</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.180245</v>
+        <v>0.179881</v>
       </c>
       <c r="C136" t="n">
-        <v>0.215939</v>
+        <v>0.216947</v>
       </c>
       <c r="D136" t="n">
-        <v>0.21989</v>
+        <v>0.219823</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.169689</v>
+        <v>0.170412</v>
       </c>
       <c r="C137" t="n">
-        <v>0.215688</v>
+        <v>0.215675</v>
       </c>
       <c r="D137" t="n">
-        <v>0.233871</v>
+        <v>0.233591</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.247376</v>
+        <v>0.247172</v>
       </c>
       <c r="C138" t="n">
-        <v>0.228676</v>
+        <v>0.228606</v>
       </c>
       <c r="D138" t="n">
-        <v>0.232718</v>
+        <v>0.232523</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.24402</v>
+        <v>0.244008</v>
       </c>
       <c r="C139" t="n">
-        <v>0.22732</v>
+        <v>0.227629</v>
       </c>
       <c r="D139" t="n">
-        <v>0.231567</v>
+        <v>0.231432</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.240467</v>
+        <v>0.240226</v>
       </c>
       <c r="C140" t="n">
-        <v>0.225898</v>
+        <v>0.226865</v>
       </c>
       <c r="D140" t="n">
-        <v>0.230436</v>
+        <v>0.23026</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.236028</v>
+        <v>0.235987</v>
       </c>
       <c r="C141" t="n">
-        <v>0.226477</v>
+        <v>0.225353</v>
       </c>
       <c r="D141" t="n">
-        <v>0.229445</v>
+        <v>0.228873</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.231324</v>
+        <v>0.231208</v>
       </c>
       <c r="C142" t="n">
-        <v>0.224907</v>
+        <v>0.22557</v>
       </c>
       <c r="D142" t="n">
-        <v>0.228295</v>
+        <v>0.228063</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.226464</v>
+        <v>0.226371</v>
       </c>
       <c r="C143" t="n">
-        <v>0.225017</v>
+        <v>0.223616</v>
       </c>
       <c r="D143" t="n">
-        <v>0.227216</v>
+        <v>0.227107</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.206443</v>
+        <v>0.200822</v>
       </c>
       <c r="C2" t="n">
-        <v>0.205321</v>
+        <v>0.205307</v>
       </c>
       <c r="D2" t="n">
-        <v>0.212896</v>
+        <v>0.212709</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.195958</v>
+        <v>0.193243</v>
       </c>
       <c r="C3" t="n">
-        <v>0.20473</v>
+        <v>0.204836</v>
       </c>
       <c r="D3" t="n">
-        <v>0.213565</v>
+        <v>0.213972</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.189732</v>
+        <v>0.189439</v>
       </c>
       <c r="C4" t="n">
-        <v>0.205536</v>
+        <v>0.20542</v>
       </c>
       <c r="D4" t="n">
-        <v>0.213014</v>
+        <v>0.213307</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.18225</v>
+        <v>0.181701</v>
       </c>
       <c r="C5" t="n">
-        <v>0.205393</v>
+        <v>0.205241</v>
       </c>
       <c r="D5" t="n">
-        <v>0.212755</v>
+        <v>0.212963</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.178391</v>
+        <v>0.179377</v>
       </c>
       <c r="C6" t="n">
-        <v>0.206894</v>
+        <v>0.206288</v>
       </c>
       <c r="D6" t="n">
-        <v>0.214336</v>
+        <v>0.214076</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.169023</v>
+        <v>0.169895</v>
       </c>
       <c r="C7" t="n">
-        <v>0.205669</v>
+        <v>0.205678</v>
       </c>
       <c r="D7" t="n">
-        <v>0.213111</v>
+        <v>0.213216</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.16112</v>
+        <v>0.161573</v>
       </c>
       <c r="C8" t="n">
-        <v>0.20417</v>
+        <v>0.204565</v>
       </c>
       <c r="D8" t="n">
-        <v>0.212743</v>
+        <v>0.212623</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.15131</v>
+        <v>0.150052</v>
       </c>
       <c r="C9" t="n">
-        <v>0.204091</v>
+        <v>0.20434</v>
       </c>
       <c r="D9" t="n">
-        <v>0.228308</v>
+        <v>0.228399</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.230567</v>
+        <v>0.2294</v>
       </c>
       <c r="C10" t="n">
-        <v>0.22251</v>
+        <v>0.222645</v>
       </c>
       <c r="D10" t="n">
-        <v>0.22793</v>
+        <v>0.22799</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.228362</v>
+        <v>0.227752</v>
       </c>
       <c r="C11" t="n">
-        <v>0.222676</v>
+        <v>0.22252</v>
       </c>
       <c r="D11" t="n">
-        <v>0.227343</v>
+        <v>0.227501</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.225672</v>
+        <v>0.22584</v>
       </c>
       <c r="C12" t="n">
-        <v>0.221128</v>
+        <v>0.221395</v>
       </c>
       <c r="D12" t="n">
-        <v>0.225932</v>
+        <v>0.225924</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.222276</v>
+        <v>0.222973</v>
       </c>
       <c r="C13" t="n">
-        <v>0.220135</v>
+        <v>0.220397</v>
       </c>
       <c r="D13" t="n">
-        <v>0.225324</v>
+        <v>0.225613</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.218469</v>
+        <v>0.218258</v>
       </c>
       <c r="C14" t="n">
-        <v>0.218629</v>
+        <v>0.218975</v>
       </c>
       <c r="D14" t="n">
-        <v>0.224088</v>
+        <v>0.224353</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.214436</v>
+        <v>0.213893</v>
       </c>
       <c r="C15" t="n">
-        <v>0.217799</v>
+        <v>0.218389</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2232</v>
+        <v>0.223124</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.209845</v>
+        <v>0.210648</v>
       </c>
       <c r="C16" t="n">
-        <v>0.217463</v>
+        <v>0.21747</v>
       </c>
       <c r="D16" t="n">
-        <v>0.222535</v>
+        <v>0.22262</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.204774</v>
+        <v>0.205132</v>
       </c>
       <c r="C17" t="n">
-        <v>0.216385</v>
+        <v>0.215915</v>
       </c>
       <c r="D17" t="n">
-        <v>0.221444</v>
+        <v>0.221506</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.199759</v>
+        <v>0.201923</v>
       </c>
       <c r="C18" t="n">
-        <v>0.215214</v>
+        <v>0.215252</v>
       </c>
       <c r="D18" t="n">
-        <v>0.220805</v>
+        <v>0.220865</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.193401</v>
+        <v>0.195686</v>
       </c>
       <c r="C19" t="n">
-        <v>0.213875</v>
+        <v>0.213948</v>
       </c>
       <c r="D19" t="n">
-        <v>0.21972</v>
+        <v>0.21975</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.187946</v>
+        <v>0.18798</v>
       </c>
       <c r="C20" t="n">
-        <v>0.21409</v>
+        <v>0.213821</v>
       </c>
       <c r="D20" t="n">
-        <v>0.218773</v>
+        <v>0.218845</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.180481</v>
+        <v>0.181068</v>
       </c>
       <c r="C21" t="n">
-        <v>0.213893</v>
+        <v>0.213415</v>
       </c>
       <c r="D21" t="n">
-        <v>0.218174</v>
+        <v>0.218395</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.173269</v>
+        <v>0.174326</v>
       </c>
       <c r="C22" t="n">
-        <v>0.212598</v>
+        <v>0.212659</v>
       </c>
       <c r="D22" t="n">
-        <v>0.21766</v>
+        <v>0.217922</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.164263</v>
+        <v>0.165065</v>
       </c>
       <c r="C23" t="n">
-        <v>0.211762</v>
+        <v>0.211557</v>
       </c>
       <c r="D23" t="n">
-        <v>0.232069</v>
+        <v>0.231892</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.241011</v>
+        <v>0.240548</v>
       </c>
       <c r="C24" t="n">
-        <v>0.22667</v>
+        <v>0.226593</v>
       </c>
       <c r="D24" t="n">
-        <v>0.230697</v>
+        <v>0.230869</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.237184</v>
+        <v>0.237123</v>
       </c>
       <c r="C25" t="n">
-        <v>0.225514</v>
+        <v>0.225154</v>
       </c>
       <c r="D25" t="n">
-        <v>0.229553</v>
+        <v>0.22952</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.233427</v>
+        <v>0.234249</v>
       </c>
       <c r="C26" t="n">
-        <v>0.223722</v>
+        <v>0.223416</v>
       </c>
       <c r="D26" t="n">
-        <v>0.227991</v>
+        <v>0.227874</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.229594</v>
+        <v>0.229923</v>
       </c>
       <c r="C27" t="n">
-        <v>0.222707</v>
+        <v>0.222487</v>
       </c>
       <c r="D27" t="n">
-        <v>0.226109</v>
+        <v>0.226122</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.225934</v>
+        <v>0.226267</v>
       </c>
       <c r="C28" t="n">
-        <v>0.221999</v>
+        <v>0.220727</v>
       </c>
       <c r="D28" t="n">
-        <v>0.224829</v>
+        <v>0.225269</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.220323</v>
+        <v>0.2206</v>
       </c>
       <c r="C29" t="n">
-        <v>0.219652</v>
+        <v>0.219211</v>
       </c>
       <c r="D29" t="n">
-        <v>0.224104</v>
+        <v>0.2242</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.215804</v>
+        <v>0.215746</v>
       </c>
       <c r="C30" t="n">
-        <v>0.218588</v>
+        <v>0.2185</v>
       </c>
       <c r="D30" t="n">
-        <v>0.222866</v>
+        <v>0.222949</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.211849</v>
+        <v>0.211803</v>
       </c>
       <c r="C31" t="n">
-        <v>0.217666</v>
+        <v>0.217688</v>
       </c>
       <c r="D31" t="n">
-        <v>0.222083</v>
+        <v>0.222101</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.206746</v>
+        <v>0.20658</v>
       </c>
       <c r="C32" t="n">
-        <v>0.217668</v>
+        <v>0.217704</v>
       </c>
       <c r="D32" t="n">
-        <v>0.221477</v>
+        <v>0.221686</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.200686</v>
+        <v>0.200587</v>
       </c>
       <c r="C33" t="n">
-        <v>0.216409</v>
+        <v>0.216655</v>
       </c>
       <c r="D33" t="n">
-        <v>0.220878</v>
+        <v>0.220795</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.195154</v>
+        <v>0.195653</v>
       </c>
       <c r="C34" t="n">
-        <v>0.21598</v>
+        <v>0.215653</v>
       </c>
       <c r="D34" t="n">
-        <v>0.220313</v>
+        <v>0.220194</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.187301</v>
+        <v>0.187733</v>
       </c>
       <c r="C35" t="n">
-        <v>0.215021</v>
+        <v>0.214876</v>
       </c>
       <c r="D35" t="n">
-        <v>0.219517</v>
+        <v>0.219555</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.179772</v>
+        <v>0.180188</v>
       </c>
       <c r="C36" t="n">
-        <v>0.21325</v>
+        <v>0.213618</v>
       </c>
       <c r="D36" t="n">
-        <v>0.218545</v>
+        <v>0.218498</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.17049</v>
+        <v>0.170998</v>
       </c>
       <c r="C37" t="n">
-        <v>0.212854</v>
+        <v>0.212883</v>
       </c>
       <c r="D37" t="n">
-        <v>0.232596</v>
+        <v>0.232845</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.24407</v>
+        <v>0.243773</v>
       </c>
       <c r="C38" t="n">
-        <v>0.227118</v>
+        <v>0.227054</v>
       </c>
       <c r="D38" t="n">
-        <v>0.231009</v>
+        <v>0.230936</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.241509</v>
+        <v>0.241106</v>
       </c>
       <c r="C39" t="n">
-        <v>0.225774</v>
+        <v>0.225471</v>
       </c>
       <c r="D39" t="n">
-        <v>0.229757</v>
+        <v>0.229737</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.238197</v>
+        <v>0.237688</v>
       </c>
       <c r="C40" t="n">
-        <v>0.224648</v>
+        <v>0.224356</v>
       </c>
       <c r="D40" t="n">
-        <v>0.228366</v>
+        <v>0.228423</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.2335</v>
+        <v>0.233921</v>
       </c>
       <c r="C41" t="n">
-        <v>0.223508</v>
+        <v>0.223591</v>
       </c>
       <c r="D41" t="n">
-        <v>0.227527</v>
+        <v>0.227433</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.23047</v>
+        <v>0.230535</v>
       </c>
       <c r="C42" t="n">
-        <v>0.222476</v>
+        <v>0.22238</v>
       </c>
       <c r="D42" t="n">
-        <v>0.22648</v>
+        <v>0.226357</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.225608</v>
+        <v>0.225783</v>
       </c>
       <c r="C43" t="n">
-        <v>0.221342</v>
+        <v>0.221071</v>
       </c>
       <c r="D43" t="n">
-        <v>0.225618</v>
+        <v>0.22547</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.220984</v>
+        <v>0.2211</v>
       </c>
       <c r="C44" t="n">
-        <v>0.220489</v>
+        <v>0.22026</v>
       </c>
       <c r="D44" t="n">
-        <v>0.224466</v>
+        <v>0.224592</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.216032</v>
+        <v>0.215857</v>
       </c>
       <c r="C45" t="n">
-        <v>0.219408</v>
+        <v>0.219466</v>
       </c>
       <c r="D45" t="n">
-        <v>0.223485</v>
+        <v>0.223446</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.210099</v>
+        <v>0.209594</v>
       </c>
       <c r="C46" t="n">
-        <v>0.218369</v>
+        <v>0.218331</v>
       </c>
       <c r="D46" t="n">
-        <v>0.222652</v>
+        <v>0.222603</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.204307</v>
+        <v>0.204303</v>
       </c>
       <c r="C47" t="n">
-        <v>0.21783</v>
+        <v>0.217813</v>
       </c>
       <c r="D47" t="n">
-        <v>0.22198</v>
+        <v>0.221864</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.197977</v>
+        <v>0.19806</v>
       </c>
       <c r="C48" t="n">
-        <v>0.21717</v>
+        <v>0.216994</v>
       </c>
       <c r="D48" t="n">
-        <v>0.220941</v>
+        <v>0.220883</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.191901</v>
+        <v>0.192017</v>
       </c>
       <c r="C49" t="n">
-        <v>0.215931</v>
+        <v>0.215896</v>
       </c>
       <c r="D49" t="n">
-        <v>0.219991</v>
+        <v>0.219967</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.184781</v>
+        <v>0.1849</v>
       </c>
       <c r="C50" t="n">
-        <v>0.214804</v>
+        <v>0.215057</v>
       </c>
       <c r="D50" t="n">
-        <v>0.219537</v>
+        <v>0.219493</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.176009</v>
+        <v>0.176393</v>
       </c>
       <c r="C51" t="n">
-        <v>0.214272</v>
+        <v>0.214031</v>
       </c>
       <c r="D51" t="n">
-        <v>0.233791</v>
+        <v>0.233688</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.165413</v>
+        <v>0.165528</v>
       </c>
       <c r="C52" t="n">
-        <v>0.212916</v>
+        <v>0.212993</v>
       </c>
       <c r="D52" t="n">
-        <v>0.232286</v>
+        <v>0.232243</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.244694</v>
+        <v>0.244467</v>
       </c>
       <c r="C53" t="n">
-        <v>0.226989</v>
+        <v>0.226874</v>
       </c>
       <c r="D53" t="n">
-        <v>0.230942</v>
+        <v>0.230913</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.241144</v>
+        <v>0.240852</v>
       </c>
       <c r="C54" t="n">
-        <v>0.225992</v>
+        <v>0.225821</v>
       </c>
       <c r="D54" t="n">
-        <v>0.229843</v>
+        <v>0.229753</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.237282</v>
+        <v>0.236941</v>
       </c>
       <c r="C55" t="n">
-        <v>0.224942</v>
+        <v>0.2249</v>
       </c>
       <c r="D55" t="n">
-        <v>0.228703</v>
+        <v>0.228729</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.232945</v>
+        <v>0.232486</v>
       </c>
       <c r="C56" t="n">
-        <v>0.223208</v>
+        <v>0.223213</v>
       </c>
       <c r="D56" t="n">
-        <v>0.22732</v>
+        <v>0.227026</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.227817</v>
+        <v>0.227821</v>
       </c>
       <c r="C57" t="n">
-        <v>0.222239</v>
+        <v>0.222146</v>
       </c>
       <c r="D57" t="n">
-        <v>0.226298</v>
+        <v>0.226167</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.223372</v>
+        <v>0.223158</v>
       </c>
       <c r="C58" t="n">
-        <v>0.221433</v>
+        <v>0.221307</v>
       </c>
       <c r="D58" t="n">
-        <v>0.225425</v>
+        <v>0.225265</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.219131</v>
+        <v>0.218847</v>
       </c>
       <c r="C59" t="n">
-        <v>0.220337</v>
+        <v>0.220455</v>
       </c>
       <c r="D59" t="n">
-        <v>0.224458</v>
+        <v>0.224215</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.213601</v>
+        <v>0.213694</v>
       </c>
       <c r="C60" t="n">
-        <v>0.219759</v>
+        <v>0.219582</v>
       </c>
       <c r="D60" t="n">
-        <v>0.223625</v>
+        <v>0.223404</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.207221</v>
+        <v>0.207623</v>
       </c>
       <c r="C61" t="n">
-        <v>0.218761</v>
+        <v>0.218877</v>
       </c>
       <c r="D61" t="n">
-        <v>0.222719</v>
+        <v>0.222626</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.201392</v>
+        <v>0.201329</v>
       </c>
       <c r="C62" t="n">
-        <v>0.217742</v>
+        <v>0.217782</v>
       </c>
       <c r="D62" t="n">
-        <v>0.221664</v>
+        <v>0.221623</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.194265</v>
+        <v>0.194276</v>
       </c>
       <c r="C63" t="n">
-        <v>0.216728</v>
+        <v>0.216534</v>
       </c>
       <c r="D63" t="n">
-        <v>0.220686</v>
+        <v>0.22073</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.187117</v>
+        <v>0.187035</v>
       </c>
       <c r="C64" t="n">
-        <v>0.215595</v>
+        <v>0.215668</v>
       </c>
       <c r="D64" t="n">
-        <v>0.219779</v>
+        <v>0.219756</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178918</v>
+        <v>0.178814</v>
       </c>
       <c r="C65" t="n">
-        <v>0.214635</v>
+        <v>0.214593</v>
       </c>
       <c r="D65" t="n">
-        <v>0.219199</v>
+        <v>0.219095</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.169349</v>
+        <v>0.169265</v>
       </c>
       <c r="C66" t="n">
-        <v>0.213512</v>
+        <v>0.21366</v>
       </c>
       <c r="D66" t="n">
-        <v>0.23286</v>
+        <v>0.23285</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.246887</v>
+        <v>0.246717</v>
       </c>
       <c r="C67" t="n">
-        <v>0.228091</v>
+        <v>0.228044</v>
       </c>
       <c r="D67" t="n">
-        <v>0.231833</v>
+        <v>0.23174</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.24396</v>
+        <v>0.24367</v>
       </c>
       <c r="C68" t="n">
-        <v>0.226657</v>
+        <v>0.226816</v>
       </c>
       <c r="D68" t="n">
-        <v>0.23034</v>
+        <v>0.230255</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.239802</v>
+        <v>0.239598</v>
       </c>
       <c r="C69" t="n">
-        <v>0.225257</v>
+        <v>0.225052</v>
       </c>
       <c r="D69" t="n">
-        <v>0.228973</v>
+        <v>0.228825</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.235332</v>
+        <v>0.234936</v>
       </c>
       <c r="C70" t="n">
-        <v>0.224135</v>
+        <v>0.223979</v>
       </c>
       <c r="D70" t="n">
-        <v>0.227872</v>
+        <v>0.227763</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.230664</v>
+        <v>0.230482</v>
       </c>
       <c r="C71" t="n">
-        <v>0.223134</v>
+        <v>0.222949</v>
       </c>
       <c r="D71" t="n">
-        <v>0.226719</v>
+        <v>0.226672</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.225591</v>
+        <v>0.225575</v>
       </c>
       <c r="C72" t="n">
-        <v>0.221905</v>
+        <v>0.22193</v>
       </c>
       <c r="D72" t="n">
-        <v>0.225492</v>
+        <v>0.225454</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.219851</v>
+        <v>0.219897</v>
       </c>
       <c r="C73" t="n">
-        <v>0.22088</v>
+        <v>0.220967</v>
       </c>
       <c r="D73" t="n">
-        <v>0.224312</v>
+        <v>0.224325</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.214925</v>
+        <v>0.214821</v>
       </c>
       <c r="C74" t="n">
-        <v>0.219828</v>
+        <v>0.219833</v>
       </c>
       <c r="D74" t="n">
-        <v>0.223501</v>
+        <v>0.223392</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.209039</v>
+        <v>0.208807</v>
       </c>
       <c r="C75" t="n">
-        <v>0.218843</v>
+        <v>0.218787</v>
       </c>
       <c r="D75" t="n">
-        <v>0.222588</v>
+        <v>0.222507</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.203615</v>
+        <v>0.203238</v>
       </c>
       <c r="C76" t="n">
-        <v>0.217905</v>
+        <v>0.217802</v>
       </c>
       <c r="D76" t="n">
-        <v>0.221715</v>
+        <v>0.221613</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.19669</v>
+        <v>0.196628</v>
       </c>
       <c r="C77" t="n">
-        <v>0.216864</v>
+        <v>0.216828</v>
       </c>
       <c r="D77" t="n">
-        <v>0.220861</v>
+        <v>0.220836</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.189326</v>
+        <v>0.189316</v>
       </c>
       <c r="C78" t="n">
-        <v>0.216003</v>
+        <v>0.21595</v>
       </c>
       <c r="D78" t="n">
-        <v>0.220176</v>
+        <v>0.220143</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.181369</v>
+        <v>0.181391</v>
       </c>
       <c r="C79" t="n">
-        <v>0.214862</v>
+        <v>0.214983</v>
       </c>
       <c r="D79" t="n">
-        <v>0.219427</v>
+        <v>0.219362</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.171789</v>
+        <v>0.171886</v>
       </c>
       <c r="C80" t="n">
-        <v>0.213972</v>
+        <v>0.214105</v>
       </c>
       <c r="D80" t="n">
-        <v>0.233555</v>
+        <v>0.233488</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.248102</v>
+        <v>0.248042</v>
       </c>
       <c r="C81" t="n">
-        <v>0.228501</v>
+        <v>0.228252</v>
       </c>
       <c r="D81" t="n">
-        <v>0.23206</v>
+        <v>0.232009</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.244878</v>
+        <v>0.244796</v>
       </c>
       <c r="C82" t="n">
-        <v>0.227414</v>
+        <v>0.227147</v>
       </c>
       <c r="D82" t="n">
-        <v>0.231039</v>
+        <v>0.231047</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.24086</v>
+        <v>0.240787</v>
       </c>
       <c r="C83" t="n">
-        <v>0.226051</v>
+        <v>0.225839</v>
       </c>
       <c r="D83" t="n">
-        <v>0.229619</v>
+        <v>0.229505</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.236763</v>
+        <v>0.236952</v>
       </c>
       <c r="C84" t="n">
-        <v>0.224957</v>
+        <v>0.224971</v>
       </c>
       <c r="D84" t="n">
-        <v>0.228482</v>
+        <v>0.228442</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.232578</v>
+        <v>0.232217</v>
       </c>
       <c r="C85" t="n">
-        <v>0.223755</v>
+        <v>0.223788</v>
       </c>
       <c r="D85" t="n">
-        <v>0.227408</v>
+        <v>0.227386</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.227407</v>
+        <v>0.227497</v>
       </c>
       <c r="C86" t="n">
-        <v>0.222779</v>
+        <v>0.222883</v>
       </c>
       <c r="D86" t="n">
-        <v>0.226299</v>
+        <v>0.226221</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.222408</v>
+        <v>0.222499</v>
       </c>
       <c r="C87" t="n">
-        <v>0.221717</v>
+        <v>0.221646</v>
       </c>
       <c r="D87" t="n">
-        <v>0.2253</v>
+        <v>0.225178</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.216955</v>
+        <v>0.217006</v>
       </c>
       <c r="C88" t="n">
-        <v>0.220711</v>
+        <v>0.220755</v>
       </c>
       <c r="D88" t="n">
-        <v>0.224328</v>
+        <v>0.224226</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.210899</v>
+        <v>0.211112</v>
       </c>
       <c r="C89" t="n">
-        <v>0.219543</v>
+        <v>0.219538</v>
       </c>
       <c r="D89" t="n">
-        <v>0.223125</v>
+        <v>0.223082</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.20469</v>
+        <v>0.204643</v>
       </c>
       <c r="C90" t="n">
-        <v>0.218733</v>
+        <v>0.218655</v>
       </c>
       <c r="D90" t="n">
-        <v>0.22215</v>
+        <v>0.222113</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.198311</v>
+        <v>0.19814</v>
       </c>
       <c r="C91" t="n">
-        <v>0.217708</v>
+        <v>0.217561</v>
       </c>
       <c r="D91" t="n">
-        <v>0.221275</v>
+        <v>0.221156</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.191277</v>
+        <v>0.191025</v>
       </c>
       <c r="C92" t="n">
-        <v>0.216437</v>
+        <v>0.216468</v>
       </c>
       <c r="D92" t="n">
-        <v>0.220421</v>
+        <v>0.220427</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.183332</v>
+        <v>0.183373</v>
       </c>
       <c r="C93" t="n">
-        <v>0.215575</v>
+        <v>0.215438</v>
       </c>
       <c r="D93" t="n">
-        <v>0.219741</v>
+        <v>0.21964</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.174426</v>
+        <v>0.174415</v>
       </c>
       <c r="C94" t="n">
-        <v>0.214378</v>
+        <v>0.214392</v>
       </c>
       <c r="D94" t="n">
-        <v>0.233979</v>
+        <v>0.23394</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.248839</v>
+        <v>0.248704</v>
       </c>
       <c r="C95" t="n">
-        <v>0.231412</v>
+        <v>0.231693</v>
       </c>
       <c r="D95" t="n">
-        <v>0.232575</v>
+        <v>0.232509</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.245704</v>
+        <v>0.245739</v>
       </c>
       <c r="C96" t="n">
-        <v>0.230278</v>
+        <v>0.230038</v>
       </c>
       <c r="D96" t="n">
-        <v>0.231462</v>
+        <v>0.231366</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.241761</v>
+        <v>0.241606</v>
       </c>
       <c r="C97" t="n">
-        <v>0.229253</v>
+        <v>0.229006</v>
       </c>
       <c r="D97" t="n">
-        <v>0.230302</v>
+        <v>0.230266</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.237914</v>
+        <v>0.237714</v>
       </c>
       <c r="C98" t="n">
-        <v>0.227606</v>
+        <v>0.227509</v>
       </c>
       <c r="D98" t="n">
-        <v>0.229181</v>
+        <v>0.229289</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.233272</v>
+        <v>0.233188</v>
       </c>
       <c r="C99" t="n">
-        <v>0.226566</v>
+        <v>0.226204</v>
       </c>
       <c r="D99" t="n">
-        <v>0.227643</v>
+        <v>0.227696</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.228716</v>
+        <v>0.228602</v>
       </c>
       <c r="C100" t="n">
-        <v>0.22484</v>
+        <v>0.225152</v>
       </c>
       <c r="D100" t="n">
-        <v>0.226603</v>
+        <v>0.226661</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.223679</v>
+        <v>0.223708</v>
       </c>
       <c r="C101" t="n">
-        <v>0.223781</v>
+        <v>0.223872</v>
       </c>
       <c r="D101" t="n">
-        <v>0.225636</v>
+        <v>0.225597</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.218358</v>
+        <v>0.218248</v>
       </c>
       <c r="C102" t="n">
-        <v>0.222561</v>
+        <v>0.222732</v>
       </c>
       <c r="D102" t="n">
-        <v>0.224654</v>
+        <v>0.224629</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.212748</v>
+        <v>0.212462</v>
       </c>
       <c r="C103" t="n">
-        <v>0.221242</v>
+        <v>0.221538</v>
       </c>
       <c r="D103" t="n">
-        <v>0.223615</v>
+        <v>0.223539</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.206646</v>
+        <v>0.206461</v>
       </c>
       <c r="C104" t="n">
-        <v>0.22009</v>
+        <v>0.220328</v>
       </c>
       <c r="D104" t="n">
-        <v>0.222543</v>
+        <v>0.222517</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.199652</v>
+        <v>0.199714</v>
       </c>
       <c r="C105" t="n">
-        <v>0.218696</v>
+        <v>0.218981</v>
       </c>
       <c r="D105" t="n">
-        <v>0.221751</v>
+        <v>0.221734</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.193</v>
+        <v>0.192892</v>
       </c>
       <c r="C106" t="n">
-        <v>0.217817</v>
+        <v>0.217855</v>
       </c>
       <c r="D106" t="n">
-        <v>0.220926</v>
+        <v>0.220863</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.18541</v>
+        <v>0.185385</v>
       </c>
       <c r="C107" t="n">
-        <v>0.216725</v>
+        <v>0.216828</v>
       </c>
       <c r="D107" t="n">
-        <v>0.220095</v>
+        <v>0.220119</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.176476</v>
+        <v>0.176718</v>
       </c>
       <c r="C108" t="n">
-        <v>0.215008</v>
+        <v>0.215286</v>
       </c>
       <c r="D108" t="n">
-        <v>0.234892</v>
+        <v>0.234954</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.165968</v>
+        <v>0.165982</v>
       </c>
       <c r="C109" t="n">
-        <v>0.213631</v>
+        <v>0.213683</v>
       </c>
       <c r="D109" t="n">
-        <v>0.233236</v>
+        <v>0.233306</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.246002</v>
+        <v>0.246052</v>
       </c>
       <c r="C110" t="n">
-        <v>0.22837</v>
+        <v>0.22818</v>
       </c>
       <c r="D110" t="n">
-        <v>0.23237</v>
+        <v>0.232123</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.242577</v>
+        <v>0.24261</v>
       </c>
       <c r="C111" t="n">
-        <v>0.227347</v>
+        <v>0.227164</v>
       </c>
       <c r="D111" t="n">
-        <v>0.230989</v>
+        <v>0.23124</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.238309</v>
+        <v>0.238396</v>
       </c>
       <c r="C112" t="n">
-        <v>0.226456</v>
+        <v>0.226526</v>
       </c>
       <c r="D112" t="n">
-        <v>0.229747</v>
+        <v>0.230058</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.233877</v>
+        <v>0.233947</v>
       </c>
       <c r="C113" t="n">
-        <v>0.225981</v>
+        <v>0.226059</v>
       </c>
       <c r="D113" t="n">
-        <v>0.228568</v>
+        <v>0.22913</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.229093</v>
+        <v>0.229101</v>
       </c>
       <c r="C114" t="n">
-        <v>0.225254</v>
+        <v>0.22519</v>
       </c>
       <c r="D114" t="n">
-        <v>0.227368</v>
+        <v>0.227876</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.224296</v>
+        <v>0.224419</v>
       </c>
       <c r="C115" t="n">
-        <v>0.224611</v>
+        <v>0.224572</v>
       </c>
       <c r="D115" t="n">
-        <v>0.226393</v>
+        <v>0.226805</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.219326</v>
+        <v>0.219174</v>
       </c>
       <c r="C116" t="n">
-        <v>0.223518</v>
+        <v>0.223305</v>
       </c>
       <c r="D116" t="n">
-        <v>0.22529</v>
+        <v>0.225702</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.214</v>
+        <v>0.213792</v>
       </c>
       <c r="C117" t="n">
-        <v>0.221895</v>
+        <v>0.222068</v>
       </c>
       <c r="D117" t="n">
-        <v>0.224151</v>
+        <v>0.22441</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.207767</v>
+        <v>0.207848</v>
       </c>
       <c r="C118" t="n">
-        <v>0.221101</v>
+        <v>0.221138</v>
       </c>
       <c r="D118" t="n">
-        <v>0.223323</v>
+        <v>0.223669</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.201581</v>
+        <v>0.201729</v>
       </c>
       <c r="C119" t="n">
-        <v>0.220202</v>
+        <v>0.219776</v>
       </c>
       <c r="D119" t="n">
-        <v>0.222317</v>
+        <v>0.222367</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.194732</v>
+        <v>0.19457</v>
       </c>
       <c r="C120" t="n">
-        <v>0.218892</v>
+        <v>0.218689</v>
       </c>
       <c r="D120" t="n">
-        <v>0.221395</v>
+        <v>0.22155</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.187735</v>
+        <v>0.187854</v>
       </c>
       <c r="C121" t="n">
-        <v>0.217779</v>
+        <v>0.217907</v>
       </c>
       <c r="D121" t="n">
-        <v>0.220448</v>
+        <v>0.22069</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.178694</v>
+        <v>0.178719</v>
       </c>
       <c r="C122" t="n">
-        <v>0.216636</v>
+        <v>0.216639</v>
       </c>
       <c r="D122" t="n">
-        <v>0.219614</v>
+        <v>0.219559</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.168833</v>
+        <v>0.168177</v>
       </c>
       <c r="C123" t="n">
-        <v>0.215311</v>
+        <v>0.215319</v>
       </c>
       <c r="D123" t="n">
-        <v>0.233778</v>
+        <v>0.233527</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.24685</v>
+        <v>0.246614</v>
       </c>
       <c r="C124" t="n">
-        <v>0.228432</v>
+        <v>0.228363</v>
       </c>
       <c r="D124" t="n">
-        <v>0.232619</v>
+        <v>0.232314</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.243284</v>
+        <v>0.245779</v>
       </c>
       <c r="C125" t="n">
-        <v>0.227447</v>
+        <v>0.227412</v>
       </c>
       <c r="D125" t="n">
-        <v>0.231362</v>
+        <v>0.231085</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.239588</v>
+        <v>0.239832</v>
       </c>
       <c r="C126" t="n">
-        <v>0.226844</v>
+        <v>0.226679</v>
       </c>
       <c r="D126" t="n">
-        <v>0.230269</v>
+        <v>0.230116</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.236649</v>
+        <v>0.235278</v>
       </c>
       <c r="C127" t="n">
-        <v>0.225704</v>
+        <v>0.225806</v>
       </c>
       <c r="D127" t="n">
-        <v>0.229055</v>
+        <v>0.228939</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.233078</v>
+        <v>0.232896</v>
       </c>
       <c r="C128" t="n">
-        <v>0.224477</v>
+        <v>0.224949</v>
       </c>
       <c r="D128" t="n">
-        <v>0.227793</v>
+        <v>0.227638</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.227983</v>
+        <v>0.226145</v>
       </c>
       <c r="C129" t="n">
-        <v>0.223514</v>
+        <v>0.224064</v>
       </c>
       <c r="D129" t="n">
-        <v>0.226731</v>
+        <v>0.226608</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.222485</v>
+        <v>0.220319</v>
       </c>
       <c r="C130" t="n">
-        <v>0.222869</v>
+        <v>0.222905</v>
       </c>
       <c r="D130" t="n">
-        <v>0.225483</v>
+        <v>0.225485</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.215125</v>
+        <v>0.216102</v>
       </c>
       <c r="C131" t="n">
-        <v>0.221955</v>
+        <v>0.221939</v>
       </c>
       <c r="D131" t="n">
-        <v>0.224682</v>
+        <v>0.224564</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.209016</v>
+        <v>0.210314</v>
       </c>
       <c r="C132" t="n">
-        <v>0.22074</v>
+        <v>0.221033</v>
       </c>
       <c r="D132" t="n">
-        <v>0.223524</v>
+        <v>0.223512</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.202764</v>
+        <v>0.202945</v>
       </c>
       <c r="C133" t="n">
-        <v>0.220067</v>
+        <v>0.220106</v>
       </c>
       <c r="D133" t="n">
-        <v>0.222647</v>
+        <v>0.222594</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.197058</v>
+        <v>0.196443</v>
       </c>
       <c r="C134" t="n">
-        <v>0.219111</v>
+        <v>0.219275</v>
       </c>
       <c r="D134" t="n">
-        <v>0.221635</v>
+        <v>0.221585</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.188628</v>
+        <v>0.188834</v>
       </c>
       <c r="C135" t="n">
-        <v>0.2172</v>
+        <v>0.218025</v>
       </c>
       <c r="D135" t="n">
-        <v>0.220366</v>
+        <v>0.220649</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.179881</v>
+        <v>0.180156</v>
       </c>
       <c r="C136" t="n">
-        <v>0.216947</v>
+        <v>0.216927</v>
       </c>
       <c r="D136" t="n">
-        <v>0.219823</v>
+        <v>0.219762</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.170412</v>
+        <v>0.169916</v>
       </c>
       <c r="C137" t="n">
-        <v>0.215675</v>
+        <v>0.215686</v>
       </c>
       <c r="D137" t="n">
-        <v>0.233591</v>
+        <v>0.233611</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.247172</v>
+        <v>0.247321</v>
       </c>
       <c r="C138" t="n">
-        <v>0.228606</v>
+        <v>0.22863</v>
       </c>
       <c r="D138" t="n">
-        <v>0.232523</v>
+        <v>0.232496</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.244008</v>
+        <v>0.244006</v>
       </c>
       <c r="C139" t="n">
-        <v>0.227629</v>
+        <v>0.227601</v>
       </c>
       <c r="D139" t="n">
-        <v>0.231432</v>
+        <v>0.231437</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.240226</v>
+        <v>0.240365</v>
       </c>
       <c r="C140" t="n">
-        <v>0.226865</v>
+        <v>0.22693</v>
       </c>
       <c r="D140" t="n">
-        <v>0.23026</v>
+        <v>0.23023</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.235987</v>
+        <v>0.236134</v>
       </c>
       <c r="C141" t="n">
-        <v>0.225353</v>
+        <v>0.226094</v>
       </c>
       <c r="D141" t="n">
-        <v>0.228873</v>
+        <v>0.229187</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.231208</v>
+        <v>0.231407</v>
       </c>
       <c r="C142" t="n">
-        <v>0.22557</v>
+        <v>0.225636</v>
       </c>
       <c r="D142" t="n">
-        <v>0.228063</v>
+        <v>0.228195</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.226371</v>
+        <v>0.226482</v>
       </c>
       <c r="C143" t="n">
-        <v>0.223616</v>
+        <v>0.224789</v>
       </c>
       <c r="D143" t="n">
-        <v>0.227107</v>
+        <v>0.227097</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.200822</v>
+        <v>0.199852</v>
       </c>
       <c r="C2" t="n">
-        <v>0.205307</v>
+        <v>0.204368</v>
       </c>
       <c r="D2" t="n">
-        <v>0.212709</v>
+        <v>0.213337</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.193243</v>
+        <v>0.192201</v>
       </c>
       <c r="C3" t="n">
-        <v>0.204836</v>
+        <v>0.20602</v>
       </c>
       <c r="D3" t="n">
-        <v>0.213972</v>
+        <v>0.214512</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.189439</v>
+        <v>0.188676</v>
       </c>
       <c r="C4" t="n">
-        <v>0.20542</v>
+        <v>0.205596</v>
       </c>
       <c r="D4" t="n">
-        <v>0.213307</v>
+        <v>0.213932</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.181701</v>
+        <v>0.180834</v>
       </c>
       <c r="C5" t="n">
-        <v>0.205241</v>
+        <v>0.205347</v>
       </c>
       <c r="D5" t="n">
-        <v>0.212963</v>
+        <v>0.214064</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.179377</v>
+        <v>0.177851</v>
       </c>
       <c r="C6" t="n">
-        <v>0.206288</v>
+        <v>0.206594</v>
       </c>
       <c r="D6" t="n">
-        <v>0.214076</v>
+        <v>0.213782</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.169895</v>
+        <v>0.169089</v>
       </c>
       <c r="C7" t="n">
-        <v>0.205678</v>
+        <v>0.205898</v>
       </c>
       <c r="D7" t="n">
-        <v>0.213216</v>
+        <v>0.213431</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.161573</v>
+        <v>0.16039</v>
       </c>
       <c r="C8" t="n">
-        <v>0.204565</v>
+        <v>0.20465</v>
       </c>
       <c r="D8" t="n">
-        <v>0.212623</v>
+        <v>0.212899</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.150052</v>
+        <v>0.15113</v>
       </c>
       <c r="C9" t="n">
-        <v>0.20434</v>
+        <v>0.20534</v>
       </c>
       <c r="D9" t="n">
-        <v>0.228399</v>
+        <v>0.228725</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2294</v>
+        <v>0.229807</v>
       </c>
       <c r="C10" t="n">
-        <v>0.222645</v>
+        <v>0.222287</v>
       </c>
       <c r="D10" t="n">
-        <v>0.22799</v>
+        <v>0.227901</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.227752</v>
+        <v>0.22833</v>
       </c>
       <c r="C11" t="n">
-        <v>0.22252</v>
+        <v>0.222748</v>
       </c>
       <c r="D11" t="n">
-        <v>0.227501</v>
+        <v>0.227353</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.22584</v>
+        <v>0.225765</v>
       </c>
       <c r="C12" t="n">
-        <v>0.221395</v>
+        <v>0.221362</v>
       </c>
       <c r="D12" t="n">
-        <v>0.225924</v>
+        <v>0.226027</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.222973</v>
+        <v>0.222064</v>
       </c>
       <c r="C13" t="n">
-        <v>0.220397</v>
+        <v>0.220006</v>
       </c>
       <c r="D13" t="n">
-        <v>0.225613</v>
+        <v>0.225148</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.218258</v>
+        <v>0.217875</v>
       </c>
       <c r="C14" t="n">
-        <v>0.218975</v>
+        <v>0.218855</v>
       </c>
       <c r="D14" t="n">
-        <v>0.224353</v>
+        <v>0.224261</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.213893</v>
+        <v>0.213492</v>
       </c>
       <c r="C15" t="n">
-        <v>0.218389</v>
+        <v>0.217658</v>
       </c>
       <c r="D15" t="n">
-        <v>0.223124</v>
+        <v>0.223186</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.210648</v>
+        <v>0.209235</v>
       </c>
       <c r="C16" t="n">
-        <v>0.21747</v>
+        <v>0.217469</v>
       </c>
       <c r="D16" t="n">
-        <v>0.22262</v>
+        <v>0.222368</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.205132</v>
+        <v>0.204695</v>
       </c>
       <c r="C17" t="n">
-        <v>0.215915</v>
+        <v>0.216279</v>
       </c>
       <c r="D17" t="n">
-        <v>0.221506</v>
+        <v>0.221364</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.201923</v>
+        <v>0.199817</v>
       </c>
       <c r="C18" t="n">
-        <v>0.215252</v>
+        <v>0.215589</v>
       </c>
       <c r="D18" t="n">
-        <v>0.220865</v>
+        <v>0.220981</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.195686</v>
+        <v>0.193926</v>
       </c>
       <c r="C19" t="n">
-        <v>0.213948</v>
+        <v>0.214562</v>
       </c>
       <c r="D19" t="n">
-        <v>0.21975</v>
+        <v>0.220013</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.18798</v>
+        <v>0.188286</v>
       </c>
       <c r="C20" t="n">
-        <v>0.213821</v>
+        <v>0.215173</v>
       </c>
       <c r="D20" t="n">
-        <v>0.218845</v>
+        <v>0.21898</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.181068</v>
+        <v>0.180963</v>
       </c>
       <c r="C21" t="n">
-        <v>0.213415</v>
+        <v>0.214534</v>
       </c>
       <c r="D21" t="n">
-        <v>0.218395</v>
+        <v>0.218342</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.174326</v>
+        <v>0.173775</v>
       </c>
       <c r="C22" t="n">
-        <v>0.212659</v>
+        <v>0.212391</v>
       </c>
       <c r="D22" t="n">
-        <v>0.217922</v>
+        <v>0.217876</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.165065</v>
+        <v>0.164861</v>
       </c>
       <c r="C23" t="n">
-        <v>0.211557</v>
+        <v>0.211589</v>
       </c>
       <c r="D23" t="n">
-        <v>0.231892</v>
+        <v>0.231792</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.240548</v>
+        <v>0.240073</v>
       </c>
       <c r="C24" t="n">
-        <v>0.226593</v>
+        <v>0.226579</v>
       </c>
       <c r="D24" t="n">
-        <v>0.230869</v>
+        <v>0.230123</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.237123</v>
+        <v>0.236416</v>
       </c>
       <c r="C25" t="n">
-        <v>0.225154</v>
+        <v>0.225951</v>
       </c>
       <c r="D25" t="n">
-        <v>0.22952</v>
+        <v>0.229381</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.234249</v>
+        <v>0.233078</v>
       </c>
       <c r="C26" t="n">
-        <v>0.223416</v>
+        <v>0.223715</v>
       </c>
       <c r="D26" t="n">
-        <v>0.227874</v>
+        <v>0.227603</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.229923</v>
+        <v>0.229775</v>
       </c>
       <c r="C27" t="n">
-        <v>0.222487</v>
+        <v>0.222821</v>
       </c>
       <c r="D27" t="n">
-        <v>0.226122</v>
+        <v>0.225768</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.226267</v>
+        <v>0.22597</v>
       </c>
       <c r="C28" t="n">
-        <v>0.220727</v>
+        <v>0.221848</v>
       </c>
       <c r="D28" t="n">
-        <v>0.225269</v>
+        <v>0.225082</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.2206</v>
+        <v>0.220754</v>
       </c>
       <c r="C29" t="n">
-        <v>0.219211</v>
+        <v>0.219693</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2242</v>
+        <v>0.224151</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.215746</v>
+        <v>0.215829</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2185</v>
+        <v>0.218395</v>
       </c>
       <c r="D30" t="n">
-        <v>0.222949</v>
+        <v>0.222714</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.211803</v>
+        <v>0.211916</v>
       </c>
       <c r="C31" t="n">
-        <v>0.217688</v>
+        <v>0.217608</v>
       </c>
       <c r="D31" t="n">
-        <v>0.222101</v>
+        <v>0.222089</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.20658</v>
+        <v>0.206479</v>
       </c>
       <c r="C32" t="n">
-        <v>0.217704</v>
+        <v>0.217701</v>
       </c>
       <c r="D32" t="n">
-        <v>0.221686</v>
+        <v>0.221505</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.200587</v>
+        <v>0.200545</v>
       </c>
       <c r="C33" t="n">
-        <v>0.216655</v>
+        <v>0.21755</v>
       </c>
       <c r="D33" t="n">
-        <v>0.220795</v>
+        <v>0.220808</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.195653</v>
+        <v>0.195359</v>
       </c>
       <c r="C34" t="n">
-        <v>0.215653</v>
+        <v>0.217105</v>
       </c>
       <c r="D34" t="n">
-        <v>0.220194</v>
+        <v>0.220139</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.187733</v>
+        <v>0.18716</v>
       </c>
       <c r="C35" t="n">
-        <v>0.214876</v>
+        <v>0.215091</v>
       </c>
       <c r="D35" t="n">
-        <v>0.219555</v>
+        <v>0.219391</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180188</v>
+        <v>0.180076</v>
       </c>
       <c r="C36" t="n">
-        <v>0.213618</v>
+        <v>0.21362</v>
       </c>
       <c r="D36" t="n">
-        <v>0.218498</v>
+        <v>0.218535</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.170998</v>
+        <v>0.170231</v>
       </c>
       <c r="C37" t="n">
-        <v>0.212883</v>
+        <v>0.213081</v>
       </c>
       <c r="D37" t="n">
-        <v>0.232845</v>
+        <v>0.232854</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.243773</v>
+        <v>0.243449</v>
       </c>
       <c r="C38" t="n">
-        <v>0.227054</v>
+        <v>0.227492</v>
       </c>
       <c r="D38" t="n">
-        <v>0.230936</v>
+        <v>0.230965</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.241106</v>
+        <v>0.241637</v>
       </c>
       <c r="C39" t="n">
-        <v>0.225471</v>
+        <v>0.22632</v>
       </c>
       <c r="D39" t="n">
-        <v>0.229737</v>
+        <v>0.229689</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.237688</v>
+        <v>0.238112</v>
       </c>
       <c r="C40" t="n">
-        <v>0.224356</v>
+        <v>0.22462</v>
       </c>
       <c r="D40" t="n">
-        <v>0.228423</v>
+        <v>0.228354</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.233921</v>
+        <v>0.23407</v>
       </c>
       <c r="C41" t="n">
-        <v>0.223591</v>
+        <v>0.223636</v>
       </c>
       <c r="D41" t="n">
-        <v>0.227433</v>
+        <v>0.227463</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.230535</v>
+        <v>0.230708</v>
       </c>
       <c r="C42" t="n">
-        <v>0.22238</v>
+        <v>0.222638</v>
       </c>
       <c r="D42" t="n">
-        <v>0.226357</v>
+        <v>0.226338</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.225783</v>
+        <v>0.226236</v>
       </c>
       <c r="C43" t="n">
-        <v>0.221071</v>
+        <v>0.221327</v>
       </c>
       <c r="D43" t="n">
-        <v>0.22547</v>
+        <v>0.225375</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.2211</v>
+        <v>0.221095</v>
       </c>
       <c r="C44" t="n">
-        <v>0.22026</v>
+        <v>0.220584</v>
       </c>
       <c r="D44" t="n">
-        <v>0.224592</v>
+        <v>0.224531</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.215857</v>
+        <v>0.216644</v>
       </c>
       <c r="C45" t="n">
-        <v>0.219466</v>
+        <v>0.219447</v>
       </c>
       <c r="D45" t="n">
-        <v>0.223446</v>
+        <v>0.223489</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.209594</v>
+        <v>0.209862</v>
       </c>
       <c r="C46" t="n">
-        <v>0.218331</v>
+        <v>0.218456</v>
       </c>
       <c r="D46" t="n">
-        <v>0.222603</v>
+        <v>0.222628</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.204303</v>
+        <v>0.204328</v>
       </c>
       <c r="C47" t="n">
-        <v>0.217813</v>
+        <v>0.217881</v>
       </c>
       <c r="D47" t="n">
-        <v>0.221864</v>
+        <v>0.221896</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.19806</v>
+        <v>0.198255</v>
       </c>
       <c r="C48" t="n">
-        <v>0.216994</v>
+        <v>0.217231</v>
       </c>
       <c r="D48" t="n">
-        <v>0.220883</v>
+        <v>0.221029</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.192017</v>
+        <v>0.192092</v>
       </c>
       <c r="C49" t="n">
-        <v>0.215896</v>
+        <v>0.216004</v>
       </c>
       <c r="D49" t="n">
-        <v>0.219967</v>
+        <v>0.21994</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1849</v>
+        <v>0.185102</v>
       </c>
       <c r="C50" t="n">
-        <v>0.215057</v>
+        <v>0.21504</v>
       </c>
       <c r="D50" t="n">
-        <v>0.219493</v>
+        <v>0.219512</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.176393</v>
+        <v>0.176556</v>
       </c>
       <c r="C51" t="n">
-        <v>0.214031</v>
+        <v>0.214561</v>
       </c>
       <c r="D51" t="n">
-        <v>0.233688</v>
+        <v>0.233509</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.165528</v>
+        <v>0.165743</v>
       </c>
       <c r="C52" t="n">
-        <v>0.212993</v>
+        <v>0.213001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.232243</v>
+        <v>0.232153</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.244467</v>
+        <v>0.244553</v>
       </c>
       <c r="C53" t="n">
-        <v>0.226874</v>
+        <v>0.227024</v>
       </c>
       <c r="D53" t="n">
-        <v>0.230913</v>
+        <v>0.230703</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.240852</v>
+        <v>0.241096</v>
       </c>
       <c r="C54" t="n">
-        <v>0.225821</v>
+        <v>0.225917</v>
       </c>
       <c r="D54" t="n">
-        <v>0.229753</v>
+        <v>0.229613</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.236941</v>
+        <v>0.237006</v>
       </c>
       <c r="C55" t="n">
-        <v>0.2249</v>
+        <v>0.224848</v>
       </c>
       <c r="D55" t="n">
-        <v>0.228729</v>
+        <v>0.228512</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.232486</v>
+        <v>0.232687</v>
       </c>
       <c r="C56" t="n">
-        <v>0.223213</v>
+        <v>0.223284</v>
       </c>
       <c r="D56" t="n">
-        <v>0.227026</v>
+        <v>0.227195</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.227821</v>
+        <v>0.227699</v>
       </c>
       <c r="C57" t="n">
-        <v>0.222146</v>
+        <v>0.22254</v>
       </c>
       <c r="D57" t="n">
-        <v>0.226167</v>
+        <v>0.226229</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.223158</v>
+        <v>0.223501</v>
       </c>
       <c r="C58" t="n">
-        <v>0.221307</v>
+        <v>0.221453</v>
       </c>
       <c r="D58" t="n">
-        <v>0.225265</v>
+        <v>0.225269</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.218847</v>
+        <v>0.218935</v>
       </c>
       <c r="C59" t="n">
-        <v>0.220455</v>
+        <v>0.22078</v>
       </c>
       <c r="D59" t="n">
-        <v>0.224215</v>
+        <v>0.224497</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.213694</v>
+        <v>0.214369</v>
       </c>
       <c r="C60" t="n">
-        <v>0.219582</v>
+        <v>0.219929</v>
       </c>
       <c r="D60" t="n">
-        <v>0.223404</v>
+        <v>0.223533</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.207623</v>
+        <v>0.207789</v>
       </c>
       <c r="C61" t="n">
-        <v>0.218877</v>
+        <v>0.218979</v>
       </c>
       <c r="D61" t="n">
-        <v>0.222626</v>
+        <v>0.222735</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.201329</v>
+        <v>0.20151</v>
       </c>
       <c r="C62" t="n">
-        <v>0.217782</v>
+        <v>0.218144</v>
       </c>
       <c r="D62" t="n">
-        <v>0.221623</v>
+        <v>0.221689</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.194276</v>
+        <v>0.194304</v>
       </c>
       <c r="C63" t="n">
-        <v>0.216534</v>
+        <v>0.216697</v>
       </c>
       <c r="D63" t="n">
-        <v>0.22073</v>
+        <v>0.22079</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.187035</v>
+        <v>0.187278</v>
       </c>
       <c r="C64" t="n">
-        <v>0.215668</v>
+        <v>0.215833</v>
       </c>
       <c r="D64" t="n">
-        <v>0.219756</v>
+        <v>0.21993</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178814</v>
+        <v>0.17886</v>
       </c>
       <c r="C65" t="n">
-        <v>0.214593</v>
+        <v>0.214807</v>
       </c>
       <c r="D65" t="n">
-        <v>0.219095</v>
+        <v>0.219286</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.169265</v>
+        <v>0.169558</v>
       </c>
       <c r="C66" t="n">
-        <v>0.21366</v>
+        <v>0.213824</v>
       </c>
       <c r="D66" t="n">
-        <v>0.23285</v>
+        <v>0.232761</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.246717</v>
+        <v>0.247124</v>
       </c>
       <c r="C67" t="n">
-        <v>0.228044</v>
+        <v>0.227999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.23174</v>
+        <v>0.231463</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.24367</v>
+        <v>0.243644</v>
       </c>
       <c r="C68" t="n">
-        <v>0.226816</v>
+        <v>0.226485</v>
       </c>
       <c r="D68" t="n">
-        <v>0.230255</v>
+        <v>0.230166</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.239598</v>
+        <v>0.239563</v>
       </c>
       <c r="C69" t="n">
-        <v>0.225052</v>
+        <v>0.225285</v>
       </c>
       <c r="D69" t="n">
-        <v>0.228825</v>
+        <v>0.228779</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.234936</v>
+        <v>0.235093</v>
       </c>
       <c r="C70" t="n">
-        <v>0.223979</v>
+        <v>0.224091</v>
       </c>
       <c r="D70" t="n">
-        <v>0.227763</v>
+        <v>0.227679</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.230482</v>
+        <v>0.230466</v>
       </c>
       <c r="C71" t="n">
-        <v>0.222949</v>
+        <v>0.223075</v>
       </c>
       <c r="D71" t="n">
-        <v>0.226672</v>
+        <v>0.22648</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.225575</v>
+        <v>0.225529</v>
       </c>
       <c r="C72" t="n">
-        <v>0.22193</v>
+        <v>0.222091</v>
       </c>
       <c r="D72" t="n">
-        <v>0.225454</v>
+        <v>0.225465</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.219897</v>
+        <v>0.219931</v>
       </c>
       <c r="C73" t="n">
-        <v>0.220967</v>
+        <v>0.220899</v>
       </c>
       <c r="D73" t="n">
-        <v>0.224325</v>
+        <v>0.224388</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.214821</v>
+        <v>0.214757</v>
       </c>
       <c r="C74" t="n">
-        <v>0.219833</v>
+        <v>0.219982</v>
       </c>
       <c r="D74" t="n">
-        <v>0.223392</v>
+        <v>0.22338</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.208807</v>
+        <v>0.209397</v>
       </c>
       <c r="C75" t="n">
-        <v>0.218787</v>
+        <v>0.218972</v>
       </c>
       <c r="D75" t="n">
-        <v>0.222507</v>
+        <v>0.222598</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.203238</v>
+        <v>0.204738</v>
       </c>
       <c r="C76" t="n">
-        <v>0.217802</v>
+        <v>0.217944</v>
       </c>
       <c r="D76" t="n">
-        <v>0.221613</v>
+        <v>0.22179</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.196628</v>
+        <v>0.197639</v>
       </c>
       <c r="C77" t="n">
-        <v>0.216828</v>
+        <v>0.217023</v>
       </c>
       <c r="D77" t="n">
-        <v>0.220836</v>
+        <v>0.220953</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.189316</v>
+        <v>0.189494</v>
       </c>
       <c r="C78" t="n">
-        <v>0.21595</v>
+        <v>0.216204</v>
       </c>
       <c r="D78" t="n">
-        <v>0.220143</v>
+        <v>0.220252</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.181391</v>
+        <v>0.181302</v>
       </c>
       <c r="C79" t="n">
-        <v>0.214983</v>
+        <v>0.215135</v>
       </c>
       <c r="D79" t="n">
-        <v>0.219362</v>
+        <v>0.219546</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.171886</v>
+        <v>0.170958</v>
       </c>
       <c r="C80" t="n">
-        <v>0.214105</v>
+        <v>0.214228</v>
       </c>
       <c r="D80" t="n">
-        <v>0.233488</v>
+        <v>0.233337</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.248042</v>
+        <v>0.247912</v>
       </c>
       <c r="C81" t="n">
-        <v>0.228252</v>
+        <v>0.228428</v>
       </c>
       <c r="D81" t="n">
-        <v>0.232009</v>
+        <v>0.231947</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.244796</v>
+        <v>0.244743</v>
       </c>
       <c r="C82" t="n">
-        <v>0.227147</v>
+        <v>0.227351</v>
       </c>
       <c r="D82" t="n">
-        <v>0.231047</v>
+        <v>0.230771</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.240787</v>
+        <v>0.240691</v>
       </c>
       <c r="C83" t="n">
-        <v>0.225839</v>
+        <v>0.226065</v>
       </c>
       <c r="D83" t="n">
-        <v>0.229505</v>
+        <v>0.229354</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.236952</v>
+        <v>0.236894</v>
       </c>
       <c r="C84" t="n">
-        <v>0.224971</v>
+        <v>0.225072</v>
       </c>
       <c r="D84" t="n">
-        <v>0.228442</v>
+        <v>0.228278</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.232217</v>
+        <v>0.232409</v>
       </c>
       <c r="C85" t="n">
-        <v>0.223788</v>
+        <v>0.224018</v>
       </c>
       <c r="D85" t="n">
-        <v>0.227386</v>
+        <v>0.227209</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.227497</v>
+        <v>0.22734</v>
       </c>
       <c r="C86" t="n">
-        <v>0.222883</v>
+        <v>0.223009</v>
       </c>
       <c r="D86" t="n">
-        <v>0.226221</v>
+        <v>0.226176</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.222499</v>
+        <v>0.222203</v>
       </c>
       <c r="C87" t="n">
-        <v>0.221646</v>
+        <v>0.221784</v>
       </c>
       <c r="D87" t="n">
-        <v>0.225178</v>
+        <v>0.225062</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.217006</v>
+        <v>0.216756</v>
       </c>
       <c r="C88" t="n">
-        <v>0.220755</v>
+        <v>0.22086</v>
       </c>
       <c r="D88" t="n">
-        <v>0.224226</v>
+        <v>0.224118</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.211112</v>
+        <v>0.210921</v>
       </c>
       <c r="C89" t="n">
-        <v>0.219538</v>
+        <v>0.219646</v>
       </c>
       <c r="D89" t="n">
-        <v>0.223082</v>
+        <v>0.223131</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.204643</v>
+        <v>0.204765</v>
       </c>
       <c r="C90" t="n">
-        <v>0.218655</v>
+        <v>0.218773</v>
       </c>
       <c r="D90" t="n">
-        <v>0.222113</v>
+        <v>0.222224</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.19814</v>
+        <v>0.198384</v>
       </c>
       <c r="C91" t="n">
-        <v>0.217561</v>
+        <v>0.217687</v>
       </c>
       <c r="D91" t="n">
-        <v>0.221156</v>
+        <v>0.221214</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.191025</v>
+        <v>0.191798</v>
       </c>
       <c r="C92" t="n">
-        <v>0.216468</v>
+        <v>0.216756</v>
       </c>
       <c r="D92" t="n">
-        <v>0.220427</v>
+        <v>0.220467</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.183373</v>
+        <v>0.184097</v>
       </c>
       <c r="C93" t="n">
-        <v>0.215438</v>
+        <v>0.215849</v>
       </c>
       <c r="D93" t="n">
-        <v>0.21964</v>
+        <v>0.219675</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.174415</v>
+        <v>0.175277</v>
       </c>
       <c r="C94" t="n">
-        <v>0.214392</v>
+        <v>0.214584</v>
       </c>
       <c r="D94" t="n">
-        <v>0.23394</v>
+        <v>0.234143</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.248704</v>
+        <v>0.248897</v>
       </c>
       <c r="C95" t="n">
-        <v>0.231693</v>
+        <v>0.232017</v>
       </c>
       <c r="D95" t="n">
-        <v>0.232509</v>
+        <v>0.232652</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.245739</v>
+        <v>0.246003</v>
       </c>
       <c r="C96" t="n">
-        <v>0.230038</v>
+        <v>0.230224</v>
       </c>
       <c r="D96" t="n">
-        <v>0.231366</v>
+        <v>0.231508</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.241606</v>
+        <v>0.242266</v>
       </c>
       <c r="C97" t="n">
-        <v>0.229006</v>
+        <v>0.229512</v>
       </c>
       <c r="D97" t="n">
-        <v>0.230266</v>
+        <v>0.230521</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.237714</v>
+        <v>0.238054</v>
       </c>
       <c r="C98" t="n">
-        <v>0.227509</v>
+        <v>0.227945</v>
       </c>
       <c r="D98" t="n">
-        <v>0.229289</v>
+        <v>0.229449</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.233188</v>
+        <v>0.233423</v>
       </c>
       <c r="C99" t="n">
-        <v>0.226204</v>
+        <v>0.226991</v>
       </c>
       <c r="D99" t="n">
-        <v>0.227696</v>
+        <v>0.228078</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.228602</v>
+        <v>0.229071</v>
       </c>
       <c r="C100" t="n">
-        <v>0.225152</v>
+        <v>0.224946</v>
       </c>
       <c r="D100" t="n">
-        <v>0.226661</v>
+        <v>0.226798</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.223708</v>
+        <v>0.223832</v>
       </c>
       <c r="C101" t="n">
-        <v>0.223872</v>
+        <v>0.224212</v>
       </c>
       <c r="D101" t="n">
-        <v>0.225597</v>
+        <v>0.225472</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.218248</v>
+        <v>0.21845</v>
       </c>
       <c r="C102" t="n">
-        <v>0.222732</v>
+        <v>0.223372</v>
       </c>
       <c r="D102" t="n">
-        <v>0.224629</v>
+        <v>0.224739</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.212462</v>
+        <v>0.212912</v>
       </c>
       <c r="C103" t="n">
-        <v>0.221538</v>
+        <v>0.221828</v>
       </c>
       <c r="D103" t="n">
-        <v>0.223539</v>
+        <v>0.22394</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.206461</v>
+        <v>0.207085</v>
       </c>
       <c r="C104" t="n">
-        <v>0.220328</v>
+        <v>0.220283</v>
       </c>
       <c r="D104" t="n">
-        <v>0.222517</v>
+        <v>0.222621</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.199714</v>
+        <v>0.200292</v>
       </c>
       <c r="C105" t="n">
-        <v>0.218981</v>
+        <v>0.219111</v>
       </c>
       <c r="D105" t="n">
-        <v>0.221734</v>
+        <v>0.221912</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.192892</v>
+        <v>0.193486</v>
       </c>
       <c r="C106" t="n">
-        <v>0.217855</v>
+        <v>0.217854</v>
       </c>
       <c r="D106" t="n">
-        <v>0.220863</v>
+        <v>0.221012</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.185385</v>
+        <v>0.185554</v>
       </c>
       <c r="C107" t="n">
-        <v>0.216828</v>
+        <v>0.21647</v>
       </c>
       <c r="D107" t="n">
-        <v>0.220119</v>
+        <v>0.220201</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.176718</v>
+        <v>0.17568</v>
       </c>
       <c r="C108" t="n">
-        <v>0.215286</v>
+        <v>0.215851</v>
       </c>
       <c r="D108" t="n">
-        <v>0.234954</v>
+        <v>0.234287</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.165982</v>
+        <v>0.165023</v>
       </c>
       <c r="C109" t="n">
-        <v>0.213683</v>
+        <v>0.214176</v>
       </c>
       <c r="D109" t="n">
-        <v>0.233306</v>
+        <v>0.232699</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.246052</v>
+        <v>0.245917</v>
       </c>
       <c r="C110" t="n">
-        <v>0.22818</v>
+        <v>0.228978</v>
       </c>
       <c r="D110" t="n">
-        <v>0.232123</v>
+        <v>0.232041</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.24261</v>
+        <v>0.242722</v>
       </c>
       <c r="C111" t="n">
-        <v>0.227164</v>
+        <v>0.227877</v>
       </c>
       <c r="D111" t="n">
-        <v>0.23124</v>
+        <v>0.230777</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.238396</v>
+        <v>0.238515</v>
       </c>
       <c r="C112" t="n">
-        <v>0.226526</v>
+        <v>0.226972</v>
       </c>
       <c r="D112" t="n">
-        <v>0.230058</v>
+        <v>0.229458</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.233947</v>
+        <v>0.233846</v>
       </c>
       <c r="C113" t="n">
-        <v>0.226059</v>
+        <v>0.226462</v>
       </c>
       <c r="D113" t="n">
-        <v>0.22913</v>
+        <v>0.228645</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.229101</v>
+        <v>0.229029</v>
       </c>
       <c r="C114" t="n">
-        <v>0.22519</v>
+        <v>0.225513</v>
       </c>
       <c r="D114" t="n">
-        <v>0.227876</v>
+        <v>0.227304</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.224419</v>
+        <v>0.224229</v>
       </c>
       <c r="C115" t="n">
-        <v>0.224572</v>
+        <v>0.22502</v>
       </c>
       <c r="D115" t="n">
-        <v>0.226805</v>
+        <v>0.226705</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.219174</v>
+        <v>0.21947</v>
       </c>
       <c r="C116" t="n">
-        <v>0.223305</v>
+        <v>0.223795</v>
       </c>
       <c r="D116" t="n">
-        <v>0.225702</v>
+        <v>0.225237</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.213792</v>
+        <v>0.214008</v>
       </c>
       <c r="C117" t="n">
-        <v>0.222068</v>
+        <v>0.222503</v>
       </c>
       <c r="D117" t="n">
-        <v>0.22441</v>
+        <v>0.223955</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.207848</v>
+        <v>0.207959</v>
       </c>
       <c r="C118" t="n">
-        <v>0.221138</v>
+        <v>0.221191</v>
       </c>
       <c r="D118" t="n">
-        <v>0.223669</v>
+        <v>0.222643</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.201729</v>
+        <v>0.202355</v>
       </c>
       <c r="C119" t="n">
-        <v>0.219776</v>
+        <v>0.220815</v>
       </c>
       <c r="D119" t="n">
-        <v>0.222367</v>
+        <v>0.221923</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.19457</v>
+        <v>0.19462</v>
       </c>
       <c r="C120" t="n">
-        <v>0.218689</v>
+        <v>0.219478</v>
       </c>
       <c r="D120" t="n">
-        <v>0.22155</v>
+        <v>0.221262</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.187854</v>
+        <v>0.186958</v>
       </c>
       <c r="C121" t="n">
-        <v>0.217907</v>
+        <v>0.218508</v>
       </c>
       <c r="D121" t="n">
-        <v>0.22069</v>
+        <v>0.220447</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.178719</v>
+        <v>0.178221</v>
       </c>
       <c r="C122" t="n">
-        <v>0.216639</v>
+        <v>0.217141</v>
       </c>
       <c r="D122" t="n">
-        <v>0.219559</v>
+        <v>0.219713</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.168177</v>
+        <v>0.168289</v>
       </c>
       <c r="C123" t="n">
-        <v>0.215319</v>
+        <v>0.215653</v>
       </c>
       <c r="D123" t="n">
-        <v>0.233527</v>
+        <v>0.233285</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.246614</v>
+        <v>0.249281</v>
       </c>
       <c r="C124" t="n">
-        <v>0.228363</v>
+        <v>0.228712</v>
       </c>
       <c r="D124" t="n">
-        <v>0.232314</v>
+        <v>0.232133</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.245779</v>
+        <v>0.243363</v>
       </c>
       <c r="C125" t="n">
-        <v>0.227412</v>
+        <v>0.227611</v>
       </c>
       <c r="D125" t="n">
-        <v>0.231085</v>
+        <v>0.230808</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.239832</v>
+        <v>0.242631</v>
       </c>
       <c r="C126" t="n">
-        <v>0.226679</v>
+        <v>0.22679</v>
       </c>
       <c r="D126" t="n">
-        <v>0.230116</v>
+        <v>0.229939</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.235278</v>
+        <v>0.238143</v>
       </c>
       <c r="C127" t="n">
-        <v>0.225806</v>
+        <v>0.226145</v>
       </c>
       <c r="D127" t="n">
-        <v>0.228939</v>
+        <v>0.228744</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.232896</v>
+        <v>0.233436</v>
       </c>
       <c r="C128" t="n">
-        <v>0.224949</v>
+        <v>0.225068</v>
       </c>
       <c r="D128" t="n">
-        <v>0.227638</v>
+        <v>0.227417</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.226145</v>
+        <v>0.228424</v>
       </c>
       <c r="C129" t="n">
-        <v>0.224064</v>
+        <v>0.224787</v>
       </c>
       <c r="D129" t="n">
-        <v>0.226608</v>
+        <v>0.226382</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.220319</v>
+        <v>0.223266</v>
       </c>
       <c r="C130" t="n">
-        <v>0.222905</v>
+        <v>0.223509</v>
       </c>
       <c r="D130" t="n">
-        <v>0.225485</v>
+        <v>0.224526</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.216102</v>
+        <v>0.217532</v>
       </c>
       <c r="C131" t="n">
-        <v>0.221939</v>
+        <v>0.222529</v>
       </c>
       <c r="D131" t="n">
-        <v>0.224564</v>
+        <v>0.224029</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.210314</v>
+        <v>0.209753</v>
       </c>
       <c r="C132" t="n">
-        <v>0.221033</v>
+        <v>0.220566</v>
       </c>
       <c r="D132" t="n">
-        <v>0.223512</v>
+        <v>0.22337</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.202945</v>
+        <v>0.204733</v>
       </c>
       <c r="C133" t="n">
-        <v>0.220106</v>
+        <v>0.2204</v>
       </c>
       <c r="D133" t="n">
-        <v>0.222594</v>
+        <v>0.222389</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.196443</v>
+        <v>0.197112</v>
       </c>
       <c r="C134" t="n">
-        <v>0.219275</v>
+        <v>0.218291</v>
       </c>
       <c r="D134" t="n">
-        <v>0.221585</v>
+        <v>0.221461</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.188834</v>
+        <v>0.188966</v>
       </c>
       <c r="C135" t="n">
-        <v>0.218025</v>
+        <v>0.217128</v>
       </c>
       <c r="D135" t="n">
-        <v>0.220649</v>
+        <v>0.220605</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.180156</v>
+        <v>0.180692</v>
       </c>
       <c r="C136" t="n">
-        <v>0.216927</v>
+        <v>0.216873</v>
       </c>
       <c r="D136" t="n">
-        <v>0.219762</v>
+        <v>0.219313</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.169916</v>
+        <v>0.169918</v>
       </c>
       <c r="C137" t="n">
-        <v>0.215686</v>
+        <v>0.215882</v>
       </c>
       <c r="D137" t="n">
-        <v>0.233611</v>
+        <v>0.23366</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.247321</v>
+        <v>0.247444</v>
       </c>
       <c r="C138" t="n">
-        <v>0.22863</v>
+        <v>0.228898</v>
       </c>
       <c r="D138" t="n">
-        <v>0.232496</v>
+        <v>0.232433</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.244006</v>
+        <v>0.244061</v>
       </c>
       <c r="C139" t="n">
-        <v>0.227601</v>
+        <v>0.22771</v>
       </c>
       <c r="D139" t="n">
-        <v>0.231437</v>
+        <v>0.230828</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.240365</v>
+        <v>0.240481</v>
       </c>
       <c r="C140" t="n">
-        <v>0.22693</v>
+        <v>0.227347</v>
       </c>
       <c r="D140" t="n">
-        <v>0.23023</v>
+        <v>0.229987</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.236134</v>
+        <v>0.236167</v>
       </c>
       <c r="C141" t="n">
-        <v>0.226094</v>
+        <v>0.226458</v>
       </c>
       <c r="D141" t="n">
-        <v>0.229187</v>
+        <v>0.229001</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.231407</v>
+        <v>0.231489</v>
       </c>
       <c r="C142" t="n">
-        <v>0.225636</v>
+        <v>0.225414</v>
       </c>
       <c r="D142" t="n">
-        <v>0.228195</v>
+        <v>0.228019</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.226482</v>
+        <v>0.226464</v>
       </c>
       <c r="C143" t="n">
-        <v>0.224789</v>
+        <v>0.225222</v>
       </c>
       <c r="D143" t="n">
-        <v>0.227097</v>
+        <v>0.226828</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.199852</v>
+        <v>0.198561</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204368</v>
+        <v>0.205424</v>
       </c>
       <c r="D2" t="n">
-        <v>0.213337</v>
+        <v>0.213225</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.192201</v>
+        <v>0.190894</v>
       </c>
       <c r="C3" t="n">
-        <v>0.20602</v>
+        <v>0.205889</v>
       </c>
       <c r="D3" t="n">
-        <v>0.214512</v>
+        <v>0.214246</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.188676</v>
+        <v>0.184601</v>
       </c>
       <c r="C4" t="n">
-        <v>0.205596</v>
+        <v>0.205855</v>
       </c>
       <c r="D4" t="n">
-        <v>0.213932</v>
+        <v>0.213655</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.180834</v>
+        <v>0.182309</v>
       </c>
       <c r="C5" t="n">
-        <v>0.205347</v>
+        <v>0.205506</v>
       </c>
       <c r="D5" t="n">
-        <v>0.214064</v>
+        <v>0.21329</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.177851</v>
+        <v>0.175599</v>
       </c>
       <c r="C6" t="n">
-        <v>0.206594</v>
+        <v>0.2061</v>
       </c>
       <c r="D6" t="n">
-        <v>0.213782</v>
+        <v>0.214126</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.169089</v>
+        <v>0.168582</v>
       </c>
       <c r="C7" t="n">
-        <v>0.205898</v>
+        <v>0.205855</v>
       </c>
       <c r="D7" t="n">
-        <v>0.213431</v>
+        <v>0.213536</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.16039</v>
+        <v>0.160986</v>
       </c>
       <c r="C8" t="n">
-        <v>0.20465</v>
+        <v>0.204275</v>
       </c>
       <c r="D8" t="n">
-        <v>0.212899</v>
+        <v>0.212847</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.15113</v>
+        <v>0.151835</v>
       </c>
       <c r="C9" t="n">
-        <v>0.20534</v>
+        <v>0.204159</v>
       </c>
       <c r="D9" t="n">
-        <v>0.228725</v>
+        <v>0.229476</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.229807</v>
+        <v>0.229871</v>
       </c>
       <c r="C10" t="n">
-        <v>0.222287</v>
+        <v>0.222632</v>
       </c>
       <c r="D10" t="n">
-        <v>0.227901</v>
+        <v>0.227899</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.22833</v>
+        <v>0.227415</v>
       </c>
       <c r="C11" t="n">
-        <v>0.222748</v>
+        <v>0.223057</v>
       </c>
       <c r="D11" t="n">
-        <v>0.227353</v>
+        <v>0.22777</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.225765</v>
+        <v>0.22458</v>
       </c>
       <c r="C12" t="n">
-        <v>0.221362</v>
+        <v>0.22148</v>
       </c>
       <c r="D12" t="n">
-        <v>0.226027</v>
+        <v>0.22605</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.222064</v>
+        <v>0.221678</v>
       </c>
       <c r="C13" t="n">
-        <v>0.220006</v>
+        <v>0.220155</v>
       </c>
       <c r="D13" t="n">
-        <v>0.225148</v>
+        <v>0.225739</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.217875</v>
+        <v>0.218134</v>
       </c>
       <c r="C14" t="n">
-        <v>0.218855</v>
+        <v>0.2188</v>
       </c>
       <c r="D14" t="n">
-        <v>0.224261</v>
+        <v>0.224524</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.213492</v>
+        <v>0.213767</v>
       </c>
       <c r="C15" t="n">
-        <v>0.217658</v>
+        <v>0.218215</v>
       </c>
       <c r="D15" t="n">
-        <v>0.223186</v>
+        <v>0.223569</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.209235</v>
+        <v>0.209315</v>
       </c>
       <c r="C16" t="n">
-        <v>0.217469</v>
+        <v>0.217296</v>
       </c>
       <c r="D16" t="n">
-        <v>0.222368</v>
+        <v>0.222669</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.204695</v>
+        <v>0.20357</v>
       </c>
       <c r="C17" t="n">
-        <v>0.216279</v>
+        <v>0.215808</v>
       </c>
       <c r="D17" t="n">
-        <v>0.221364</v>
+        <v>0.221723</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.199817</v>
+        <v>0.199897</v>
       </c>
       <c r="C18" t="n">
-        <v>0.215589</v>
+        <v>0.215614</v>
       </c>
       <c r="D18" t="n">
-        <v>0.220981</v>
+        <v>0.220785</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.193926</v>
+        <v>0.19376</v>
       </c>
       <c r="C19" t="n">
-        <v>0.214562</v>
+        <v>0.214238</v>
       </c>
       <c r="D19" t="n">
-        <v>0.220013</v>
+        <v>0.220005</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.188286</v>
+        <v>0.188648</v>
       </c>
       <c r="C20" t="n">
-        <v>0.215173</v>
+        <v>0.215413</v>
       </c>
       <c r="D20" t="n">
-        <v>0.21898</v>
+        <v>0.218916</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.180963</v>
+        <v>0.181993</v>
       </c>
       <c r="C21" t="n">
-        <v>0.214534</v>
+        <v>0.213271</v>
       </c>
       <c r="D21" t="n">
-        <v>0.218342</v>
+        <v>0.218404</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.173775</v>
+        <v>0.174836</v>
       </c>
       <c r="C22" t="n">
-        <v>0.212391</v>
+        <v>0.212417</v>
       </c>
       <c r="D22" t="n">
-        <v>0.217876</v>
+        <v>0.217978</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.164861</v>
+        <v>0.165313</v>
       </c>
       <c r="C23" t="n">
-        <v>0.211589</v>
+        <v>0.211491</v>
       </c>
       <c r="D23" t="n">
-        <v>0.231792</v>
+        <v>0.23276</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.240073</v>
+        <v>0.239974</v>
       </c>
       <c r="C24" t="n">
-        <v>0.226579</v>
+        <v>0.226766</v>
       </c>
       <c r="D24" t="n">
-        <v>0.230123</v>
+        <v>0.231815</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.236416</v>
+        <v>0.236303</v>
       </c>
       <c r="C25" t="n">
-        <v>0.225951</v>
+        <v>0.226082</v>
       </c>
       <c r="D25" t="n">
-        <v>0.229381</v>
+        <v>0.22946</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.233078</v>
+        <v>0.233494</v>
       </c>
       <c r="C26" t="n">
-        <v>0.223715</v>
+        <v>0.223555</v>
       </c>
       <c r="D26" t="n">
-        <v>0.227603</v>
+        <v>0.229279</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.229775</v>
+        <v>0.229261</v>
       </c>
       <c r="C27" t="n">
-        <v>0.222821</v>
+        <v>0.224054</v>
       </c>
       <c r="D27" t="n">
-        <v>0.225768</v>
+        <v>0.226132</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.22597</v>
+        <v>0.225206</v>
       </c>
       <c r="C28" t="n">
-        <v>0.221848</v>
+        <v>0.222248</v>
       </c>
       <c r="D28" t="n">
-        <v>0.225082</v>
+        <v>0.22628</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.220754</v>
+        <v>0.220205</v>
       </c>
       <c r="C29" t="n">
-        <v>0.219693</v>
+        <v>0.219763</v>
       </c>
       <c r="D29" t="n">
-        <v>0.224151</v>
+        <v>0.224314</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.215829</v>
+        <v>0.215737</v>
       </c>
       <c r="C30" t="n">
-        <v>0.218395</v>
+        <v>0.219138</v>
       </c>
       <c r="D30" t="n">
-        <v>0.222714</v>
+        <v>0.22405</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.211916</v>
+        <v>0.211434</v>
       </c>
       <c r="C31" t="n">
-        <v>0.217608</v>
+        <v>0.218005</v>
       </c>
       <c r="D31" t="n">
-        <v>0.222089</v>
+        <v>0.222447</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.206479</v>
+        <v>0.206111</v>
       </c>
       <c r="C32" t="n">
-        <v>0.217701</v>
+        <v>0.217927</v>
       </c>
       <c r="D32" t="n">
-        <v>0.221505</v>
+        <v>0.222754</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.200545</v>
+        <v>0.200593</v>
       </c>
       <c r="C33" t="n">
-        <v>0.21755</v>
+        <v>0.217027</v>
       </c>
       <c r="D33" t="n">
-        <v>0.220808</v>
+        <v>0.220946</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.195359</v>
+        <v>0.195454</v>
       </c>
       <c r="C34" t="n">
-        <v>0.217105</v>
+        <v>0.216504</v>
       </c>
       <c r="D34" t="n">
-        <v>0.220139</v>
+        <v>0.22096</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.18716</v>
+        <v>0.187433</v>
       </c>
       <c r="C35" t="n">
-        <v>0.215091</v>
+        <v>0.214878</v>
       </c>
       <c r="D35" t="n">
-        <v>0.219391</v>
+        <v>0.219865</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180076</v>
+        <v>0.18015</v>
       </c>
       <c r="C36" t="n">
-        <v>0.21362</v>
+        <v>0.214104</v>
       </c>
       <c r="D36" t="n">
-        <v>0.218535</v>
+        <v>0.219452</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.170231</v>
+        <v>0.170556</v>
       </c>
       <c r="C37" t="n">
-        <v>0.213081</v>
+        <v>0.213066</v>
       </c>
       <c r="D37" t="n">
-        <v>0.232854</v>
+        <v>0.233238</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.243449</v>
+        <v>0.243733</v>
       </c>
       <c r="C38" t="n">
-        <v>0.227492</v>
+        <v>0.227274</v>
       </c>
       <c r="D38" t="n">
-        <v>0.230965</v>
+        <v>0.231192</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.241637</v>
+        <v>0.241317</v>
       </c>
       <c r="C39" t="n">
-        <v>0.22632</v>
+        <v>0.226057</v>
       </c>
       <c r="D39" t="n">
-        <v>0.229689</v>
+        <v>0.230109</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.238112</v>
+        <v>0.237717</v>
       </c>
       <c r="C40" t="n">
-        <v>0.22462</v>
+        <v>0.224438</v>
       </c>
       <c r="D40" t="n">
-        <v>0.228354</v>
+        <v>0.228691</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.23407</v>
+        <v>0.233629</v>
       </c>
       <c r="C41" t="n">
-        <v>0.223636</v>
+        <v>0.223541</v>
       </c>
       <c r="D41" t="n">
-        <v>0.227463</v>
+        <v>0.227749</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.230708</v>
+        <v>0.230301</v>
       </c>
       <c r="C42" t="n">
-        <v>0.222638</v>
+        <v>0.222543</v>
       </c>
       <c r="D42" t="n">
-        <v>0.226338</v>
+        <v>0.226729</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.226236</v>
+        <v>0.225773</v>
       </c>
       <c r="C43" t="n">
-        <v>0.221327</v>
+        <v>0.221472</v>
       </c>
       <c r="D43" t="n">
-        <v>0.225375</v>
+        <v>0.225798</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.221095</v>
+        <v>0.221234</v>
       </c>
       <c r="C44" t="n">
-        <v>0.220584</v>
+        <v>0.2205</v>
       </c>
       <c r="D44" t="n">
-        <v>0.224531</v>
+        <v>0.22492</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.216644</v>
+        <v>0.216253</v>
       </c>
       <c r="C45" t="n">
-        <v>0.219447</v>
+        <v>0.219381</v>
       </c>
       <c r="D45" t="n">
-        <v>0.223489</v>
+        <v>0.22385</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.209862</v>
+        <v>0.210204</v>
       </c>
       <c r="C46" t="n">
-        <v>0.218456</v>
+        <v>0.218694</v>
       </c>
       <c r="D46" t="n">
-        <v>0.222628</v>
+        <v>0.222984</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.204328</v>
+        <v>0.204914</v>
       </c>
       <c r="C47" t="n">
-        <v>0.217881</v>
+        <v>0.217995</v>
       </c>
       <c r="D47" t="n">
-        <v>0.221896</v>
+        <v>0.22213</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.198255</v>
+        <v>0.1989</v>
       </c>
       <c r="C48" t="n">
-        <v>0.217231</v>
+        <v>0.217232</v>
       </c>
       <c r="D48" t="n">
-        <v>0.221029</v>
+        <v>0.221217</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.192092</v>
+        <v>0.192894</v>
       </c>
       <c r="C49" t="n">
-        <v>0.216004</v>
+        <v>0.215891</v>
       </c>
       <c r="D49" t="n">
-        <v>0.21994</v>
+        <v>0.220147</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.185102</v>
+        <v>0.185545</v>
       </c>
       <c r="C50" t="n">
-        <v>0.21504</v>
+        <v>0.214981</v>
       </c>
       <c r="D50" t="n">
-        <v>0.219512</v>
+        <v>0.21973</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.176556</v>
+        <v>0.177223</v>
       </c>
       <c r="C51" t="n">
-        <v>0.214561</v>
+        <v>0.214408</v>
       </c>
       <c r="D51" t="n">
-        <v>0.233509</v>
+        <v>0.23386</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.165743</v>
+        <v>0.166305</v>
       </c>
       <c r="C52" t="n">
-        <v>0.213001</v>
+        <v>0.213241</v>
       </c>
       <c r="D52" t="n">
-        <v>0.232153</v>
+        <v>0.232381</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.244553</v>
+        <v>0.244871</v>
       </c>
       <c r="C53" t="n">
-        <v>0.227024</v>
+        <v>0.226957</v>
       </c>
       <c r="D53" t="n">
-        <v>0.230703</v>
+        <v>0.23124</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.241096</v>
+        <v>0.240867</v>
       </c>
       <c r="C54" t="n">
-        <v>0.225917</v>
+        <v>0.226073</v>
       </c>
       <c r="D54" t="n">
-        <v>0.229613</v>
+        <v>0.229949</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.237006</v>
+        <v>0.237407</v>
       </c>
       <c r="C55" t="n">
-        <v>0.224848</v>
+        <v>0.224823</v>
       </c>
       <c r="D55" t="n">
-        <v>0.228512</v>
+        <v>0.228798</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.232687</v>
+        <v>0.233118</v>
       </c>
       <c r="C56" t="n">
-        <v>0.223284</v>
+        <v>0.223455</v>
       </c>
       <c r="D56" t="n">
-        <v>0.227195</v>
+        <v>0.227396</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.227699</v>
+        <v>0.228186</v>
       </c>
       <c r="C57" t="n">
-        <v>0.22254</v>
+        <v>0.22237</v>
       </c>
       <c r="D57" t="n">
-        <v>0.226229</v>
+        <v>0.22653</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.223501</v>
+        <v>0.22379</v>
       </c>
       <c r="C58" t="n">
-        <v>0.221453</v>
+        <v>0.221386</v>
       </c>
       <c r="D58" t="n">
-        <v>0.225269</v>
+        <v>0.225422</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.218935</v>
+        <v>0.21875</v>
       </c>
       <c r="C59" t="n">
-        <v>0.22078</v>
+        <v>0.220477</v>
       </c>
       <c r="D59" t="n">
-        <v>0.224497</v>
+        <v>0.224491</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.214369</v>
+        <v>0.213638</v>
       </c>
       <c r="C60" t="n">
-        <v>0.219929</v>
+        <v>0.219699</v>
       </c>
       <c r="D60" t="n">
-        <v>0.223533</v>
+        <v>0.223703</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.207789</v>
+        <v>0.207629</v>
       </c>
       <c r="C61" t="n">
-        <v>0.218979</v>
+        <v>0.218938</v>
       </c>
       <c r="D61" t="n">
-        <v>0.222735</v>
+        <v>0.22288</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.20151</v>
+        <v>0.201747</v>
       </c>
       <c r="C62" t="n">
-        <v>0.218144</v>
+        <v>0.217888</v>
       </c>
       <c r="D62" t="n">
-        <v>0.221689</v>
+        <v>0.221876</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.194304</v>
+        <v>0.194429</v>
       </c>
       <c r="C63" t="n">
-        <v>0.216697</v>
+        <v>0.216748</v>
       </c>
       <c r="D63" t="n">
-        <v>0.22079</v>
+        <v>0.220799</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.187278</v>
+        <v>0.187306</v>
       </c>
       <c r="C64" t="n">
-        <v>0.215833</v>
+        <v>0.21557</v>
       </c>
       <c r="D64" t="n">
-        <v>0.21993</v>
+        <v>0.219929</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.17886</v>
+        <v>0.178938</v>
       </c>
       <c r="C65" t="n">
-        <v>0.214807</v>
+        <v>0.214659</v>
       </c>
       <c r="D65" t="n">
-        <v>0.219286</v>
+        <v>0.219361</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.169558</v>
+        <v>0.169347</v>
       </c>
       <c r="C66" t="n">
-        <v>0.213824</v>
+        <v>0.2137</v>
       </c>
       <c r="D66" t="n">
-        <v>0.232761</v>
+        <v>0.232982</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.247124</v>
+        <v>0.247117</v>
       </c>
       <c r="C67" t="n">
-        <v>0.227999</v>
+        <v>0.228585</v>
       </c>
       <c r="D67" t="n">
-        <v>0.231463</v>
+        <v>0.231906</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.243644</v>
+        <v>0.243721</v>
       </c>
       <c r="C68" t="n">
-        <v>0.226485</v>
+        <v>0.226944</v>
       </c>
       <c r="D68" t="n">
-        <v>0.230166</v>
+        <v>0.230431</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.239563</v>
+        <v>0.239773</v>
       </c>
       <c r="C69" t="n">
-        <v>0.225285</v>
+        <v>0.225411</v>
       </c>
       <c r="D69" t="n">
-        <v>0.228779</v>
+        <v>0.229075</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.235093</v>
+        <v>0.235254</v>
       </c>
       <c r="C70" t="n">
-        <v>0.224091</v>
+        <v>0.224167</v>
       </c>
       <c r="D70" t="n">
-        <v>0.227679</v>
+        <v>0.227953</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.230466</v>
+        <v>0.230678</v>
       </c>
       <c r="C71" t="n">
-        <v>0.223075</v>
+        <v>0.223219</v>
       </c>
       <c r="D71" t="n">
-        <v>0.22648</v>
+        <v>0.226929</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.225529</v>
+        <v>0.225554</v>
       </c>
       <c r="C72" t="n">
-        <v>0.222091</v>
+        <v>0.222117</v>
       </c>
       <c r="D72" t="n">
-        <v>0.225465</v>
+        <v>0.22569</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.219931</v>
+        <v>0.21989</v>
       </c>
       <c r="C73" t="n">
-        <v>0.220899</v>
+        <v>0.22092</v>
       </c>
       <c r="D73" t="n">
-        <v>0.224388</v>
+        <v>0.224528</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.214757</v>
+        <v>0.214902</v>
       </c>
       <c r="C74" t="n">
-        <v>0.219982</v>
+        <v>0.219925</v>
       </c>
       <c r="D74" t="n">
-        <v>0.22338</v>
+        <v>0.223543</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.209397</v>
+        <v>0.209081</v>
       </c>
       <c r="C75" t="n">
-        <v>0.218972</v>
+        <v>0.218921</v>
       </c>
       <c r="D75" t="n">
-        <v>0.222598</v>
+        <v>0.222621</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.204738</v>
+        <v>0.203101</v>
       </c>
       <c r="C76" t="n">
-        <v>0.217944</v>
+        <v>0.218005</v>
       </c>
       <c r="D76" t="n">
-        <v>0.22179</v>
+        <v>0.221831</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.197639</v>
+        <v>0.196679</v>
       </c>
       <c r="C77" t="n">
-        <v>0.217023</v>
+        <v>0.216997</v>
       </c>
       <c r="D77" t="n">
-        <v>0.220953</v>
+        <v>0.220906</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.189494</v>
+        <v>0.189563</v>
       </c>
       <c r="C78" t="n">
-        <v>0.216204</v>
+        <v>0.216067</v>
       </c>
       <c r="D78" t="n">
-        <v>0.220252</v>
+        <v>0.220257</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.181302</v>
+        <v>0.181416</v>
       </c>
       <c r="C79" t="n">
-        <v>0.215135</v>
+        <v>0.214999</v>
       </c>
       <c r="D79" t="n">
-        <v>0.219546</v>
+        <v>0.219555</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.170958</v>
+        <v>0.171895</v>
       </c>
       <c r="C80" t="n">
-        <v>0.214228</v>
+        <v>0.214132</v>
       </c>
       <c r="D80" t="n">
-        <v>0.233337</v>
+        <v>0.233591</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.247912</v>
+        <v>0.248305</v>
       </c>
       <c r="C81" t="n">
-        <v>0.228428</v>
+        <v>0.22854</v>
       </c>
       <c r="D81" t="n">
-        <v>0.231947</v>
+        <v>0.232155</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.244743</v>
+        <v>0.244988</v>
       </c>
       <c r="C82" t="n">
-        <v>0.227351</v>
+        <v>0.227566</v>
       </c>
       <c r="D82" t="n">
-        <v>0.230771</v>
+        <v>0.231153</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.240691</v>
+        <v>0.241055</v>
       </c>
       <c r="C83" t="n">
-        <v>0.226065</v>
+        <v>0.226038</v>
       </c>
       <c r="D83" t="n">
-        <v>0.229354</v>
+        <v>0.229721</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.236894</v>
+        <v>0.23736</v>
       </c>
       <c r="C84" t="n">
-        <v>0.225072</v>
+        <v>0.224959</v>
       </c>
       <c r="D84" t="n">
-        <v>0.228278</v>
+        <v>0.228675</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.232409</v>
+        <v>0.232585</v>
       </c>
       <c r="C85" t="n">
-        <v>0.224018</v>
+        <v>0.223899</v>
       </c>
       <c r="D85" t="n">
-        <v>0.227209</v>
+        <v>0.227462</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.22734</v>
+        <v>0.227542</v>
       </c>
       <c r="C86" t="n">
-        <v>0.223009</v>
+        <v>0.222974</v>
       </c>
       <c r="D86" t="n">
-        <v>0.226176</v>
+        <v>0.226378</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.222203</v>
+        <v>0.222522</v>
       </c>
       <c r="C87" t="n">
-        <v>0.221784</v>
+        <v>0.221818</v>
       </c>
       <c r="D87" t="n">
-        <v>0.225062</v>
+        <v>0.225328</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.216756</v>
+        <v>0.216994</v>
       </c>
       <c r="C88" t="n">
-        <v>0.22086</v>
+        <v>0.221052</v>
       </c>
       <c r="D88" t="n">
-        <v>0.224118</v>
+        <v>0.224352</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.210921</v>
+        <v>0.211412</v>
       </c>
       <c r="C89" t="n">
-        <v>0.219646</v>
+        <v>0.219813</v>
       </c>
       <c r="D89" t="n">
-        <v>0.223131</v>
+        <v>0.223233</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.204765</v>
+        <v>0.204985</v>
       </c>
       <c r="C90" t="n">
-        <v>0.218773</v>
+        <v>0.218858</v>
       </c>
       <c r="D90" t="n">
-        <v>0.222224</v>
+        <v>0.22233</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.198384</v>
+        <v>0.198443</v>
       </c>
       <c r="C91" t="n">
-        <v>0.217687</v>
+        <v>0.217858</v>
       </c>
       <c r="D91" t="n">
-        <v>0.221214</v>
+        <v>0.221337</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.191798</v>
+        <v>0.191326</v>
       </c>
       <c r="C92" t="n">
-        <v>0.216756</v>
+        <v>0.216535</v>
       </c>
       <c r="D92" t="n">
-        <v>0.220467</v>
+        <v>0.220456</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.184097</v>
+        <v>0.183403</v>
       </c>
       <c r="C93" t="n">
-        <v>0.215849</v>
+        <v>0.215802</v>
       </c>
       <c r="D93" t="n">
-        <v>0.219675</v>
+        <v>0.219766</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.175277</v>
+        <v>0.174515</v>
       </c>
       <c r="C94" t="n">
-        <v>0.214584</v>
+        <v>0.214666</v>
       </c>
       <c r="D94" t="n">
-        <v>0.234143</v>
+        <v>0.234252</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.248897</v>
+        <v>0.249016</v>
       </c>
       <c r="C95" t="n">
-        <v>0.232017</v>
+        <v>0.232402</v>
       </c>
       <c r="D95" t="n">
-        <v>0.232652</v>
+        <v>0.232808</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.246003</v>
+        <v>0.246031</v>
       </c>
       <c r="C96" t="n">
-        <v>0.230224</v>
+        <v>0.231038</v>
       </c>
       <c r="D96" t="n">
-        <v>0.231508</v>
+        <v>0.231688</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.242266</v>
+        <v>0.242195</v>
       </c>
       <c r="C97" t="n">
-        <v>0.229512</v>
+        <v>0.229463</v>
       </c>
       <c r="D97" t="n">
-        <v>0.230521</v>
+        <v>0.230537</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.238054</v>
+        <v>0.238115</v>
       </c>
       <c r="C98" t="n">
-        <v>0.227945</v>
+        <v>0.228272</v>
       </c>
       <c r="D98" t="n">
-        <v>0.229449</v>
+        <v>0.229546</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.233423</v>
+        <v>0.233287</v>
       </c>
       <c r="C99" t="n">
-        <v>0.226991</v>
+        <v>0.227203</v>
       </c>
       <c r="D99" t="n">
-        <v>0.228078</v>
+        <v>0.227831</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.229071</v>
+        <v>0.229039</v>
       </c>
       <c r="C100" t="n">
-        <v>0.224946</v>
+        <v>0.225275</v>
       </c>
       <c r="D100" t="n">
-        <v>0.226798</v>
+        <v>0.226981</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.223832</v>
+        <v>0.22392</v>
       </c>
       <c r="C101" t="n">
-        <v>0.224212</v>
+        <v>0.224333</v>
       </c>
       <c r="D101" t="n">
-        <v>0.225472</v>
+        <v>0.225963</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.21845</v>
+        <v>0.21848</v>
       </c>
       <c r="C102" t="n">
-        <v>0.223372</v>
+        <v>0.223238</v>
       </c>
       <c r="D102" t="n">
-        <v>0.224739</v>
+        <v>0.224852</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.212912</v>
+        <v>0.213164</v>
       </c>
       <c r="C103" t="n">
-        <v>0.221828</v>
+        <v>0.221876</v>
       </c>
       <c r="D103" t="n">
-        <v>0.22394</v>
+        <v>0.223889</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.207085</v>
+        <v>0.206697</v>
       </c>
       <c r="C104" t="n">
-        <v>0.220283</v>
+        <v>0.220804</v>
       </c>
       <c r="D104" t="n">
-        <v>0.222621</v>
+        <v>0.222797</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.200292</v>
+        <v>0.199974</v>
       </c>
       <c r="C105" t="n">
-        <v>0.219111</v>
+        <v>0.219033</v>
       </c>
       <c r="D105" t="n">
-        <v>0.221912</v>
+        <v>0.222011</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.193486</v>
+        <v>0.193412</v>
       </c>
       <c r="C106" t="n">
-        <v>0.217854</v>
+        <v>0.218045</v>
       </c>
       <c r="D106" t="n">
-        <v>0.221012</v>
+        <v>0.22115</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.185554</v>
+        <v>0.185748</v>
       </c>
       <c r="C107" t="n">
-        <v>0.21647</v>
+        <v>0.217019</v>
       </c>
       <c r="D107" t="n">
-        <v>0.220201</v>
+        <v>0.220308</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.17568</v>
+        <v>0.17667</v>
       </c>
       <c r="C108" t="n">
-        <v>0.215851</v>
+        <v>0.214784</v>
       </c>
       <c r="D108" t="n">
-        <v>0.234287</v>
+        <v>0.235116</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.165023</v>
+        <v>0.166102</v>
       </c>
       <c r="C109" t="n">
-        <v>0.214176</v>
+        <v>0.213708</v>
       </c>
       <c r="D109" t="n">
-        <v>0.232699</v>
+        <v>0.233435</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.245917</v>
+        <v>0.24631</v>
       </c>
       <c r="C110" t="n">
-        <v>0.228978</v>
+        <v>0.228598</v>
       </c>
       <c r="D110" t="n">
-        <v>0.232041</v>
+        <v>0.232268</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.242722</v>
+        <v>0.242866</v>
       </c>
       <c r="C111" t="n">
-        <v>0.227877</v>
+        <v>0.227642</v>
       </c>
       <c r="D111" t="n">
-        <v>0.230777</v>
+        <v>0.231437</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.238515</v>
+        <v>0.238701</v>
       </c>
       <c r="C112" t="n">
-        <v>0.226972</v>
+        <v>0.226932</v>
       </c>
       <c r="D112" t="n">
-        <v>0.229458</v>
+        <v>0.230307</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.233846</v>
+        <v>0.234075</v>
       </c>
       <c r="C113" t="n">
-        <v>0.226462</v>
+        <v>0.226614</v>
       </c>
       <c r="D113" t="n">
-        <v>0.228645</v>
+        <v>0.229321</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.229029</v>
+        <v>0.229391</v>
       </c>
       <c r="C114" t="n">
-        <v>0.225513</v>
+        <v>0.225505</v>
       </c>
       <c r="D114" t="n">
-        <v>0.227304</v>
+        <v>0.227937</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.224229</v>
+        <v>0.22454</v>
       </c>
       <c r="C115" t="n">
-        <v>0.22502</v>
+        <v>0.225255</v>
       </c>
       <c r="D115" t="n">
-        <v>0.226705</v>
+        <v>0.227076</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.21947</v>
+        <v>0.219594</v>
       </c>
       <c r="C116" t="n">
-        <v>0.223795</v>
+        <v>0.224172</v>
       </c>
       <c r="D116" t="n">
-        <v>0.225237</v>
+        <v>0.226039</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.214008</v>
+        <v>0.214159</v>
       </c>
       <c r="C117" t="n">
-        <v>0.222503</v>
+        <v>0.222666</v>
       </c>
       <c r="D117" t="n">
-        <v>0.223955</v>
+        <v>0.224631</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.207959</v>
+        <v>0.207913</v>
       </c>
       <c r="C118" t="n">
-        <v>0.221191</v>
+        <v>0.221792</v>
       </c>
       <c r="D118" t="n">
-        <v>0.222643</v>
+        <v>0.223757</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.202355</v>
+        <v>0.201713</v>
       </c>
       <c r="C119" t="n">
-        <v>0.220815</v>
+        <v>0.220679</v>
       </c>
       <c r="D119" t="n">
-        <v>0.221923</v>
+        <v>0.22257</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.19462</v>
+        <v>0.195143</v>
       </c>
       <c r="C120" t="n">
-        <v>0.219478</v>
+        <v>0.219423</v>
       </c>
       <c r="D120" t="n">
-        <v>0.221262</v>
+        <v>0.221682</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.186958</v>
+        <v>0.187614</v>
       </c>
       <c r="C121" t="n">
-        <v>0.218508</v>
+        <v>0.218325</v>
       </c>
       <c r="D121" t="n">
-        <v>0.220447</v>
+        <v>0.220683</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.178221</v>
+        <v>0.178779</v>
       </c>
       <c r="C122" t="n">
-        <v>0.217141</v>
+        <v>0.217045</v>
       </c>
       <c r="D122" t="n">
-        <v>0.219713</v>
+        <v>0.219869</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.168289</v>
+        <v>0.16896</v>
       </c>
       <c r="C123" t="n">
-        <v>0.215653</v>
+        <v>0.215573</v>
       </c>
       <c r="D123" t="n">
-        <v>0.233285</v>
+        <v>0.233812</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.249281</v>
+        <v>0.246873</v>
       </c>
       <c r="C124" t="n">
-        <v>0.228712</v>
+        <v>0.228658</v>
       </c>
       <c r="D124" t="n">
-        <v>0.232133</v>
+        <v>0.23262</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.243363</v>
+        <v>0.243486</v>
       </c>
       <c r="C125" t="n">
-        <v>0.227611</v>
+        <v>0.227748</v>
       </c>
       <c r="D125" t="n">
-        <v>0.230808</v>
+        <v>0.231403</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.242631</v>
+        <v>0.239797</v>
       </c>
       <c r="C126" t="n">
-        <v>0.22679</v>
+        <v>0.227183</v>
       </c>
       <c r="D126" t="n">
-        <v>0.229939</v>
+        <v>0.230411</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.238143</v>
+        <v>0.237668</v>
       </c>
       <c r="C127" t="n">
-        <v>0.226145</v>
+        <v>0.226201</v>
       </c>
       <c r="D127" t="n">
-        <v>0.228744</v>
+        <v>0.22909</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.233436</v>
+        <v>0.230854</v>
       </c>
       <c r="C128" t="n">
-        <v>0.225068</v>
+        <v>0.22545</v>
       </c>
       <c r="D128" t="n">
-        <v>0.227417</v>
+        <v>0.228113</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.228424</v>
+        <v>0.226114</v>
       </c>
       <c r="C129" t="n">
-        <v>0.224787</v>
+        <v>0.224764</v>
       </c>
       <c r="D129" t="n">
-        <v>0.226382</v>
+        <v>0.226974</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.223266</v>
+        <v>0.220671</v>
       </c>
       <c r="C130" t="n">
-        <v>0.223509</v>
+        <v>0.223647</v>
       </c>
       <c r="D130" t="n">
-        <v>0.224526</v>
+        <v>0.225857</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.217532</v>
+        <v>0.215504</v>
       </c>
       <c r="C131" t="n">
-        <v>0.222529</v>
+        <v>0.222402</v>
       </c>
       <c r="D131" t="n">
-        <v>0.224029</v>
+        <v>0.224912</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.209753</v>
+        <v>0.209497</v>
       </c>
       <c r="C132" t="n">
-        <v>0.220566</v>
+        <v>0.221603</v>
       </c>
       <c r="D132" t="n">
-        <v>0.22337</v>
+        <v>0.223874</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.204733</v>
+        <v>0.203993</v>
       </c>
       <c r="C133" t="n">
-        <v>0.2204</v>
+        <v>0.220792</v>
       </c>
       <c r="D133" t="n">
-        <v>0.222389</v>
+        <v>0.222907</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.197112</v>
+        <v>0.196875</v>
       </c>
       <c r="C134" t="n">
-        <v>0.218291</v>
+        <v>0.219731</v>
       </c>
       <c r="D134" t="n">
-        <v>0.221461</v>
+        <v>0.221812</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.188966</v>
+        <v>0.188827</v>
       </c>
       <c r="C135" t="n">
-        <v>0.217128</v>
+        <v>0.218439</v>
       </c>
       <c r="D135" t="n">
-        <v>0.220605</v>
+        <v>0.220953</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.180692</v>
+        <v>0.180295</v>
       </c>
       <c r="C136" t="n">
-        <v>0.216873</v>
+        <v>0.217475</v>
       </c>
       <c r="D136" t="n">
-        <v>0.219313</v>
+        <v>0.220015</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.169918</v>
+        <v>0.171138</v>
       </c>
       <c r="C137" t="n">
-        <v>0.215882</v>
+        <v>0.216089</v>
       </c>
       <c r="D137" t="n">
-        <v>0.23366</v>
+        <v>0.234083</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.247444</v>
+        <v>0.247491</v>
       </c>
       <c r="C138" t="n">
-        <v>0.228898</v>
+        <v>0.228899</v>
       </c>
       <c r="D138" t="n">
-        <v>0.232433</v>
+        <v>0.232824</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.244061</v>
+        <v>0.244237</v>
       </c>
       <c r="C139" t="n">
-        <v>0.22771</v>
+        <v>0.228013</v>
       </c>
       <c r="D139" t="n">
-        <v>0.230828</v>
+        <v>0.231731</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.240481</v>
+        <v>0.240563</v>
       </c>
       <c r="C140" t="n">
-        <v>0.227347</v>
+        <v>0.227397</v>
       </c>
       <c r="D140" t="n">
-        <v>0.229987</v>
+        <v>0.230598</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.236167</v>
+        <v>0.236335</v>
       </c>
       <c r="C141" t="n">
-        <v>0.226458</v>
+        <v>0.226833</v>
       </c>
       <c r="D141" t="n">
-        <v>0.229001</v>
+        <v>0.229657</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.231489</v>
+        <v>0.231529</v>
       </c>
       <c r="C142" t="n">
-        <v>0.225414</v>
+        <v>0.225955</v>
       </c>
       <c r="D142" t="n">
-        <v>0.228019</v>
+        <v>0.228663</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.226464</v>
+        <v>0.226758</v>
       </c>
       <c r="C143" t="n">
-        <v>0.225222</v>
+        <v>0.225395</v>
       </c>
       <c r="D143" t="n">
-        <v>0.226828</v>
+        <v>0.22737</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.198561</v>
+        <v>0.199437</v>
       </c>
       <c r="C2" t="n">
-        <v>0.205424</v>
+        <v>0.19988</v>
       </c>
       <c r="D2" t="n">
-        <v>0.213225</v>
+        <v>0.216734</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.190894</v>
+        <v>0.193043</v>
       </c>
       <c r="C3" t="n">
-        <v>0.205889</v>
+        <v>0.201315</v>
       </c>
       <c r="D3" t="n">
-        <v>0.214246</v>
+        <v>0.217494</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.184601</v>
+        <v>0.188988</v>
       </c>
       <c r="C4" t="n">
-        <v>0.205855</v>
+        <v>0.202143</v>
       </c>
       <c r="D4" t="n">
-        <v>0.213655</v>
+        <v>0.215909</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.182309</v>
+        <v>0.182963</v>
       </c>
       <c r="C5" t="n">
-        <v>0.205506</v>
+        <v>0.203403</v>
       </c>
       <c r="D5" t="n">
-        <v>0.21329</v>
+        <v>0.217127</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.175599</v>
+        <v>0.175783</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2061</v>
+        <v>0.204503</v>
       </c>
       <c r="D6" t="n">
-        <v>0.214126</v>
+        <v>0.216523</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.168582</v>
+        <v>0.168954</v>
       </c>
       <c r="C7" t="n">
-        <v>0.205855</v>
+        <v>0.204964</v>
       </c>
       <c r="D7" t="n">
-        <v>0.213536</v>
+        <v>0.216606</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.160986</v>
+        <v>0.160962</v>
       </c>
       <c r="C8" t="n">
-        <v>0.204275</v>
+        <v>0.203947</v>
       </c>
       <c r="D8" t="n">
-        <v>0.212847</v>
+        <v>0.215333</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.151835</v>
+        <v>0.151379</v>
       </c>
       <c r="C9" t="n">
-        <v>0.204159</v>
+        <v>0.205349</v>
       </c>
       <c r="D9" t="n">
-        <v>0.229476</v>
+        <v>0.230643</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.229871</v>
+        <v>0.229986</v>
       </c>
       <c r="C10" t="n">
-        <v>0.222632</v>
+        <v>0.220792</v>
       </c>
       <c r="D10" t="n">
-        <v>0.227899</v>
+        <v>0.230034</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.227415</v>
+        <v>0.229117</v>
       </c>
       <c r="C11" t="n">
-        <v>0.223057</v>
+        <v>0.220385</v>
       </c>
       <c r="D11" t="n">
-        <v>0.22777</v>
+        <v>0.228921</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.22458</v>
+        <v>0.225133</v>
       </c>
       <c r="C12" t="n">
-        <v>0.22148</v>
+        <v>0.219715</v>
       </c>
       <c r="D12" t="n">
-        <v>0.22605</v>
+        <v>0.22796</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.221678</v>
+        <v>0.222148</v>
       </c>
       <c r="C13" t="n">
-        <v>0.220155</v>
+        <v>0.218893</v>
       </c>
       <c r="D13" t="n">
-        <v>0.225739</v>
+        <v>0.226627</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.218134</v>
+        <v>0.216845</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2188</v>
+        <v>0.218736</v>
       </c>
       <c r="D14" t="n">
-        <v>0.224524</v>
+        <v>0.225064</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.213767</v>
+        <v>0.213752</v>
       </c>
       <c r="C15" t="n">
-        <v>0.218215</v>
+        <v>0.217436</v>
       </c>
       <c r="D15" t="n">
-        <v>0.223569</v>
+        <v>0.224448</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.209315</v>
+        <v>0.208199</v>
       </c>
       <c r="C16" t="n">
-        <v>0.217296</v>
+        <v>0.217721</v>
       </c>
       <c r="D16" t="n">
-        <v>0.222669</v>
+        <v>0.223448</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.20357</v>
+        <v>0.203499</v>
       </c>
       <c r="C17" t="n">
-        <v>0.215808</v>
+        <v>0.216835</v>
       </c>
       <c r="D17" t="n">
-        <v>0.221723</v>
+        <v>0.221911</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.199897</v>
+        <v>0.200292</v>
       </c>
       <c r="C18" t="n">
-        <v>0.215614</v>
+        <v>0.216248</v>
       </c>
       <c r="D18" t="n">
-        <v>0.220785</v>
+        <v>0.221668</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.19376</v>
+        <v>0.19457</v>
       </c>
       <c r="C19" t="n">
-        <v>0.214238</v>
+        <v>0.215421</v>
       </c>
       <c r="D19" t="n">
-        <v>0.220005</v>
+        <v>0.220658</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.188648</v>
+        <v>0.189274</v>
       </c>
       <c r="C20" t="n">
-        <v>0.215413</v>
+        <v>0.214104</v>
       </c>
       <c r="D20" t="n">
-        <v>0.218916</v>
+        <v>0.219804</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.181993</v>
+        <v>0.183003</v>
       </c>
       <c r="C21" t="n">
-        <v>0.213271</v>
+        <v>0.214503</v>
       </c>
       <c r="D21" t="n">
-        <v>0.218404</v>
+        <v>0.218946</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.174836</v>
+        <v>0.174837</v>
       </c>
       <c r="C22" t="n">
-        <v>0.212417</v>
+        <v>0.214692</v>
       </c>
       <c r="D22" t="n">
-        <v>0.217978</v>
+        <v>0.218516</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.165313</v>
+        <v>0.165781</v>
       </c>
       <c r="C23" t="n">
-        <v>0.211491</v>
+        <v>0.213813</v>
       </c>
       <c r="D23" t="n">
-        <v>0.23276</v>
+        <v>0.231534</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.239974</v>
+        <v>0.241149</v>
       </c>
       <c r="C24" t="n">
-        <v>0.226766</v>
+        <v>0.226964</v>
       </c>
       <c r="D24" t="n">
-        <v>0.231815</v>
+        <v>0.230222</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.236303</v>
+        <v>0.238176</v>
       </c>
       <c r="C25" t="n">
-        <v>0.226082</v>
+        <v>0.224958</v>
       </c>
       <c r="D25" t="n">
-        <v>0.22946</v>
+        <v>0.229642</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.233494</v>
+        <v>0.234398</v>
       </c>
       <c r="C26" t="n">
-        <v>0.223555</v>
+        <v>0.223797</v>
       </c>
       <c r="D26" t="n">
-        <v>0.229279</v>
+        <v>0.227816</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.229261</v>
+        <v>0.229413</v>
       </c>
       <c r="C27" t="n">
-        <v>0.224054</v>
+        <v>0.222552</v>
       </c>
       <c r="D27" t="n">
-        <v>0.226132</v>
+        <v>0.225906</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.225206</v>
+        <v>0.225115</v>
       </c>
       <c r="C28" t="n">
-        <v>0.222248</v>
+        <v>0.221476</v>
       </c>
       <c r="D28" t="n">
-        <v>0.22628</v>
+        <v>0.225011</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.220205</v>
+        <v>0.221376</v>
       </c>
       <c r="C29" t="n">
-        <v>0.219763</v>
+        <v>0.220355</v>
       </c>
       <c r="D29" t="n">
-        <v>0.224314</v>
+        <v>0.223876</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.215737</v>
+        <v>0.21669</v>
       </c>
       <c r="C30" t="n">
-        <v>0.219138</v>
+        <v>0.219703</v>
       </c>
       <c r="D30" t="n">
-        <v>0.22405</v>
+        <v>0.223181</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.211434</v>
+        <v>0.211481</v>
       </c>
       <c r="C31" t="n">
-        <v>0.218005</v>
+        <v>0.218543</v>
       </c>
       <c r="D31" t="n">
-        <v>0.222447</v>
+        <v>0.222288</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.206111</v>
+        <v>0.206699</v>
       </c>
       <c r="C32" t="n">
-        <v>0.217927</v>
+        <v>0.218494</v>
       </c>
       <c r="D32" t="n">
-        <v>0.222754</v>
+        <v>0.221655</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.200593</v>
+        <v>0.202012</v>
       </c>
       <c r="C33" t="n">
-        <v>0.217027</v>
+        <v>0.218173</v>
       </c>
       <c r="D33" t="n">
-        <v>0.220946</v>
+        <v>0.221167</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.195454</v>
+        <v>0.195903</v>
       </c>
       <c r="C34" t="n">
-        <v>0.216504</v>
+        <v>0.217476</v>
       </c>
       <c r="D34" t="n">
-        <v>0.22096</v>
+        <v>0.220591</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.187433</v>
+        <v>0.188758</v>
       </c>
       <c r="C35" t="n">
-        <v>0.214878</v>
+        <v>0.217006</v>
       </c>
       <c r="D35" t="n">
-        <v>0.219865</v>
+        <v>0.219218</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.18015</v>
+        <v>0.180741</v>
       </c>
       <c r="C36" t="n">
-        <v>0.214104</v>
+        <v>0.215523</v>
       </c>
       <c r="D36" t="n">
-        <v>0.219452</v>
+        <v>0.218171</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.170556</v>
+        <v>0.17256</v>
       </c>
       <c r="C37" t="n">
-        <v>0.213066</v>
+        <v>0.215085</v>
       </c>
       <c r="D37" t="n">
-        <v>0.233238</v>
+        <v>0.232597</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.243733</v>
+        <v>0.24431</v>
       </c>
       <c r="C38" t="n">
-        <v>0.227274</v>
+        <v>0.227894</v>
       </c>
       <c r="D38" t="n">
-        <v>0.231192</v>
+        <v>0.231241</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.241317</v>
+        <v>0.241721</v>
       </c>
       <c r="C39" t="n">
-        <v>0.226057</v>
+        <v>0.22625</v>
       </c>
       <c r="D39" t="n">
-        <v>0.230109</v>
+        <v>0.229575</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.237717</v>
+        <v>0.238269</v>
       </c>
       <c r="C40" t="n">
-        <v>0.224438</v>
+        <v>0.225055</v>
       </c>
       <c r="D40" t="n">
-        <v>0.228691</v>
+        <v>0.228326</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.233629</v>
+        <v>0.234305</v>
       </c>
       <c r="C41" t="n">
-        <v>0.223541</v>
+        <v>0.224229</v>
       </c>
       <c r="D41" t="n">
-        <v>0.227749</v>
+        <v>0.22757</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.230301</v>
+        <v>0.230077</v>
       </c>
       <c r="C42" t="n">
-        <v>0.222543</v>
+        <v>0.223111</v>
       </c>
       <c r="D42" t="n">
-        <v>0.226729</v>
+        <v>0.226878</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.225773</v>
+        <v>0.226221</v>
       </c>
       <c r="C43" t="n">
-        <v>0.221472</v>
+        <v>0.222026</v>
       </c>
       <c r="D43" t="n">
-        <v>0.225798</v>
+        <v>0.22581</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.221234</v>
+        <v>0.221674</v>
       </c>
       <c r="C44" t="n">
-        <v>0.2205</v>
+        <v>0.221394</v>
       </c>
       <c r="D44" t="n">
-        <v>0.22492</v>
+        <v>0.224999</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.216253</v>
+        <v>0.215544</v>
       </c>
       <c r="C45" t="n">
-        <v>0.219381</v>
+        <v>0.220503</v>
       </c>
       <c r="D45" t="n">
-        <v>0.22385</v>
+        <v>0.223844</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.210204</v>
+        <v>0.21083</v>
       </c>
       <c r="C46" t="n">
-        <v>0.218694</v>
+        <v>0.219676</v>
       </c>
       <c r="D46" t="n">
-        <v>0.222984</v>
+        <v>0.222556</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.204914</v>
+        <v>0.204291</v>
       </c>
       <c r="C47" t="n">
-        <v>0.217995</v>
+        <v>0.219118</v>
       </c>
       <c r="D47" t="n">
-        <v>0.22213</v>
+        <v>0.222484</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1989</v>
+        <v>0.198952</v>
       </c>
       <c r="C48" t="n">
-        <v>0.217232</v>
+        <v>0.217897</v>
       </c>
       <c r="D48" t="n">
-        <v>0.221217</v>
+        <v>0.221411</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.192894</v>
+        <v>0.191945</v>
       </c>
       <c r="C49" t="n">
-        <v>0.215891</v>
+        <v>0.217169</v>
       </c>
       <c r="D49" t="n">
-        <v>0.220147</v>
+        <v>0.220606</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.185545</v>
+        <v>0.184373</v>
       </c>
       <c r="C50" t="n">
-        <v>0.214981</v>
+        <v>0.216606</v>
       </c>
       <c r="D50" t="n">
-        <v>0.21973</v>
+        <v>0.219927</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.177223</v>
+        <v>0.17666</v>
       </c>
       <c r="C51" t="n">
-        <v>0.214408</v>
+        <v>0.2163</v>
       </c>
       <c r="D51" t="n">
-        <v>0.23386</v>
+        <v>0.233981</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.166305</v>
+        <v>0.166271</v>
       </c>
       <c r="C52" t="n">
-        <v>0.213241</v>
+        <v>0.215275</v>
       </c>
       <c r="D52" t="n">
-        <v>0.232381</v>
+        <v>0.232487</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.244871</v>
+        <v>0.244444</v>
       </c>
       <c r="C53" t="n">
-        <v>0.226957</v>
+        <v>0.227767</v>
       </c>
       <c r="D53" t="n">
-        <v>0.23124</v>
+        <v>0.231092</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.240867</v>
+        <v>0.24114</v>
       </c>
       <c r="C54" t="n">
-        <v>0.226073</v>
+        <v>0.226473</v>
       </c>
       <c r="D54" t="n">
-        <v>0.229949</v>
+        <v>0.229959</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.237407</v>
+        <v>0.237926</v>
       </c>
       <c r="C55" t="n">
-        <v>0.224823</v>
+        <v>0.225544</v>
       </c>
       <c r="D55" t="n">
-        <v>0.228798</v>
+        <v>0.228944</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.233118</v>
+        <v>0.233085</v>
       </c>
       <c r="C56" t="n">
-        <v>0.223455</v>
+        <v>0.224137</v>
       </c>
       <c r="D56" t="n">
-        <v>0.227396</v>
+        <v>0.227635</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.228186</v>
+        <v>0.228422</v>
       </c>
       <c r="C57" t="n">
-        <v>0.22237</v>
+        <v>0.223246</v>
       </c>
       <c r="D57" t="n">
-        <v>0.22653</v>
+        <v>0.226479</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.22379</v>
+        <v>0.223996</v>
       </c>
       <c r="C58" t="n">
-        <v>0.221386</v>
+        <v>0.222338</v>
       </c>
       <c r="D58" t="n">
-        <v>0.225422</v>
+        <v>0.225685</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.21875</v>
+        <v>0.218996</v>
       </c>
       <c r="C59" t="n">
-        <v>0.220477</v>
+        <v>0.221296</v>
       </c>
       <c r="D59" t="n">
-        <v>0.224491</v>
+        <v>0.224754</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.213638</v>
+        <v>0.213688</v>
       </c>
       <c r="C60" t="n">
-        <v>0.219699</v>
+        <v>0.22077</v>
       </c>
       <c r="D60" t="n">
-        <v>0.223703</v>
+        <v>0.223867</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.207629</v>
+        <v>0.207952</v>
       </c>
       <c r="C61" t="n">
-        <v>0.218938</v>
+        <v>0.219762</v>
       </c>
       <c r="D61" t="n">
-        <v>0.22288</v>
+        <v>0.223054</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.201747</v>
+        <v>0.201336</v>
       </c>
       <c r="C62" t="n">
-        <v>0.217888</v>
+        <v>0.218981</v>
       </c>
       <c r="D62" t="n">
-        <v>0.221876</v>
+        <v>0.221999</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.194429</v>
+        <v>0.194303</v>
       </c>
       <c r="C63" t="n">
-        <v>0.216748</v>
+        <v>0.217898</v>
       </c>
       <c r="D63" t="n">
-        <v>0.220799</v>
+        <v>0.221151</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.187306</v>
+        <v>0.188127</v>
       </c>
       <c r="C64" t="n">
-        <v>0.21557</v>
+        <v>0.217185</v>
       </c>
       <c r="D64" t="n">
-        <v>0.219929</v>
+        <v>0.220155</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178938</v>
+        <v>0.179969</v>
       </c>
       <c r="C65" t="n">
-        <v>0.214659</v>
+        <v>0.216581</v>
       </c>
       <c r="D65" t="n">
-        <v>0.219361</v>
+        <v>0.219528</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.169347</v>
+        <v>0.17039</v>
       </c>
       <c r="C66" t="n">
-        <v>0.2137</v>
+        <v>0.215815</v>
       </c>
       <c r="D66" t="n">
-        <v>0.232982</v>
+        <v>0.232942</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.247117</v>
+        <v>0.24639</v>
       </c>
       <c r="C67" t="n">
-        <v>0.228585</v>
+        <v>0.228957</v>
       </c>
       <c r="D67" t="n">
-        <v>0.231906</v>
+        <v>0.231896</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.243721</v>
+        <v>0.24361</v>
       </c>
       <c r="C68" t="n">
-        <v>0.226944</v>
+        <v>0.227504</v>
       </c>
       <c r="D68" t="n">
-        <v>0.230431</v>
+        <v>0.23045</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.239773</v>
+        <v>0.239448</v>
       </c>
       <c r="C69" t="n">
-        <v>0.225411</v>
+        <v>0.226039</v>
       </c>
       <c r="D69" t="n">
-        <v>0.229075</v>
+        <v>0.229285</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.235254</v>
+        <v>0.235473</v>
       </c>
       <c r="C70" t="n">
-        <v>0.224167</v>
+        <v>0.224879</v>
       </c>
       <c r="D70" t="n">
-        <v>0.227953</v>
+        <v>0.228003</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.230678</v>
+        <v>0.230536</v>
       </c>
       <c r="C71" t="n">
-        <v>0.223219</v>
+        <v>0.223769</v>
       </c>
       <c r="D71" t="n">
-        <v>0.226929</v>
+        <v>0.226937</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.225554</v>
+        <v>0.225654</v>
       </c>
       <c r="C72" t="n">
-        <v>0.222117</v>
+        <v>0.22286</v>
       </c>
       <c r="D72" t="n">
-        <v>0.22569</v>
+        <v>0.225801</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.21989</v>
+        <v>0.220212</v>
       </c>
       <c r="C73" t="n">
-        <v>0.22092</v>
+        <v>0.221717</v>
       </c>
       <c r="D73" t="n">
-        <v>0.224528</v>
+        <v>0.224863</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.214902</v>
+        <v>0.21522</v>
       </c>
       <c r="C74" t="n">
-        <v>0.219925</v>
+        <v>0.22079</v>
       </c>
       <c r="D74" t="n">
-        <v>0.223543</v>
+        <v>0.223934</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.209081</v>
+        <v>0.209516</v>
       </c>
       <c r="C75" t="n">
-        <v>0.218921</v>
+        <v>0.219966</v>
       </c>
       <c r="D75" t="n">
-        <v>0.222621</v>
+        <v>0.223007</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.203101</v>
+        <v>0.204201</v>
       </c>
       <c r="C76" t="n">
-        <v>0.218005</v>
+        <v>0.219085</v>
       </c>
       <c r="D76" t="n">
-        <v>0.221831</v>
+        <v>0.222146</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.196679</v>
+        <v>0.196174</v>
       </c>
       <c r="C77" t="n">
-        <v>0.216997</v>
+        <v>0.218407</v>
       </c>
       <c r="D77" t="n">
-        <v>0.220906</v>
+        <v>0.221366</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.189563</v>
+        <v>0.189389</v>
       </c>
       <c r="C78" t="n">
-        <v>0.216067</v>
+        <v>0.217624</v>
       </c>
       <c r="D78" t="n">
-        <v>0.220257</v>
+        <v>0.220597</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.181416</v>
+        <v>0.181894</v>
       </c>
       <c r="C79" t="n">
-        <v>0.214999</v>
+        <v>0.216768</v>
       </c>
       <c r="D79" t="n">
-        <v>0.219555</v>
+        <v>0.219871</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.171895</v>
+        <v>0.173012</v>
       </c>
       <c r="C80" t="n">
-        <v>0.214132</v>
+        <v>0.216123</v>
       </c>
       <c r="D80" t="n">
-        <v>0.233591</v>
+        <v>0.233722</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.248305</v>
+        <v>0.248047</v>
       </c>
       <c r="C81" t="n">
-        <v>0.22854</v>
+        <v>0.229195</v>
       </c>
       <c r="D81" t="n">
-        <v>0.232155</v>
+        <v>0.232434</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.244988</v>
+        <v>0.244892</v>
       </c>
       <c r="C82" t="n">
-        <v>0.227566</v>
+        <v>0.228027</v>
       </c>
       <c r="D82" t="n">
-        <v>0.231153</v>
+        <v>0.231327</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.241055</v>
+        <v>0.240826</v>
       </c>
       <c r="C83" t="n">
-        <v>0.226038</v>
+        <v>0.226622</v>
       </c>
       <c r="D83" t="n">
-        <v>0.229721</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.23736</v>
+        <v>0.236672</v>
       </c>
       <c r="C84" t="n">
-        <v>0.224959</v>
+        <v>0.225559</v>
       </c>
       <c r="D84" t="n">
-        <v>0.228675</v>
+        <v>0.228836</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.232585</v>
+        <v>0.231639</v>
       </c>
       <c r="C85" t="n">
-        <v>0.223899</v>
+        <v>0.224497</v>
       </c>
       <c r="D85" t="n">
-        <v>0.227462</v>
+        <v>0.227739</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.227542</v>
+        <v>0.227134</v>
       </c>
       <c r="C86" t="n">
-        <v>0.222974</v>
+        <v>0.223532</v>
       </c>
       <c r="D86" t="n">
-        <v>0.226378</v>
+        <v>0.226591</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.222522</v>
+        <v>0.222367</v>
       </c>
       <c r="C87" t="n">
-        <v>0.221818</v>
+        <v>0.222579</v>
       </c>
       <c r="D87" t="n">
-        <v>0.225328</v>
+        <v>0.225492</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.216994</v>
+        <v>0.216824</v>
       </c>
       <c r="C88" t="n">
-        <v>0.221052</v>
+        <v>0.221681</v>
       </c>
       <c r="D88" t="n">
-        <v>0.224352</v>
+        <v>0.22454</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.211412</v>
+        <v>0.211402</v>
       </c>
       <c r="C89" t="n">
-        <v>0.219813</v>
+        <v>0.220544</v>
       </c>
       <c r="D89" t="n">
-        <v>0.223233</v>
+        <v>0.223617</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.204985</v>
+        <v>0.206045</v>
       </c>
       <c r="C90" t="n">
-        <v>0.218858</v>
+        <v>0.219688</v>
       </c>
       <c r="D90" t="n">
-        <v>0.22233</v>
+        <v>0.222577</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.198443</v>
+        <v>0.199573</v>
       </c>
       <c r="C91" t="n">
-        <v>0.217858</v>
+        <v>0.218748</v>
       </c>
       <c r="D91" t="n">
-        <v>0.221337</v>
+        <v>0.221699</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.191326</v>
+        <v>0.192316</v>
       </c>
       <c r="C92" t="n">
-        <v>0.216535</v>
+        <v>0.217793</v>
       </c>
       <c r="D92" t="n">
-        <v>0.220456</v>
+        <v>0.220885</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.183403</v>
+        <v>0.18451</v>
       </c>
       <c r="C93" t="n">
-        <v>0.215802</v>
+        <v>0.217097</v>
       </c>
       <c r="D93" t="n">
-        <v>0.219766</v>
+        <v>0.219976</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.174515</v>
+        <v>0.175219</v>
       </c>
       <c r="C94" t="n">
-        <v>0.214666</v>
+        <v>0.216267</v>
       </c>
       <c r="D94" t="n">
-        <v>0.234252</v>
+        <v>0.23433</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.249016</v>
+        <v>0.250851</v>
       </c>
       <c r="C95" t="n">
-        <v>0.232402</v>
+        <v>0.232104</v>
       </c>
       <c r="D95" t="n">
-        <v>0.232808</v>
+        <v>0.232997</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.246031</v>
+        <v>0.24546</v>
       </c>
       <c r="C96" t="n">
-        <v>0.231038</v>
+        <v>0.230216</v>
       </c>
       <c r="D96" t="n">
-        <v>0.231688</v>
+        <v>0.231609</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.242195</v>
+        <v>0.242273</v>
       </c>
       <c r="C97" t="n">
-        <v>0.229463</v>
+        <v>0.229287</v>
       </c>
       <c r="D97" t="n">
-        <v>0.230537</v>
+        <v>0.230957</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.238115</v>
+        <v>0.237876</v>
       </c>
       <c r="C98" t="n">
-        <v>0.228272</v>
+        <v>0.227589</v>
       </c>
       <c r="D98" t="n">
-        <v>0.229546</v>
+        <v>0.229524</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.233287</v>
+        <v>0.233188</v>
       </c>
       <c r="C99" t="n">
-        <v>0.227203</v>
+        <v>0.226539</v>
       </c>
       <c r="D99" t="n">
-        <v>0.227831</v>
+        <v>0.228136</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.229039</v>
+        <v>0.228206</v>
       </c>
       <c r="C100" t="n">
-        <v>0.225275</v>
+        <v>0.225461</v>
       </c>
       <c r="D100" t="n">
-        <v>0.226981</v>
+        <v>0.226982</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.22392</v>
+        <v>0.223197</v>
       </c>
       <c r="C101" t="n">
-        <v>0.224333</v>
+        <v>0.22399</v>
       </c>
       <c r="D101" t="n">
-        <v>0.225963</v>
+        <v>0.22592</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.21848</v>
+        <v>0.218101</v>
       </c>
       <c r="C102" t="n">
-        <v>0.223238</v>
+        <v>0.222975</v>
       </c>
       <c r="D102" t="n">
-        <v>0.224852</v>
+        <v>0.225041</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.213164</v>
+        <v>0.212714</v>
       </c>
       <c r="C103" t="n">
-        <v>0.221876</v>
+        <v>0.221937</v>
       </c>
       <c r="D103" t="n">
-        <v>0.223889</v>
+        <v>0.224093</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.206697</v>
+        <v>0.206678</v>
       </c>
       <c r="C104" t="n">
-        <v>0.220804</v>
+        <v>0.221105</v>
       </c>
       <c r="D104" t="n">
-        <v>0.222797</v>
+        <v>0.222869</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.199974</v>
+        <v>0.200367</v>
       </c>
       <c r="C105" t="n">
-        <v>0.219033</v>
+        <v>0.220066</v>
       </c>
       <c r="D105" t="n">
-        <v>0.222011</v>
+        <v>0.222104</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.193412</v>
+        <v>0.193775</v>
       </c>
       <c r="C106" t="n">
-        <v>0.218045</v>
+        <v>0.219026</v>
       </c>
       <c r="D106" t="n">
-        <v>0.22115</v>
+        <v>0.221138</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.185748</v>
+        <v>0.186347</v>
       </c>
       <c r="C107" t="n">
-        <v>0.217019</v>
+        <v>0.2183</v>
       </c>
       <c r="D107" t="n">
-        <v>0.220308</v>
+        <v>0.220504</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.17667</v>
+        <v>0.177464</v>
       </c>
       <c r="C108" t="n">
-        <v>0.214784</v>
+        <v>0.217286</v>
       </c>
       <c r="D108" t="n">
-        <v>0.235116</v>
+        <v>0.235043</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.166102</v>
+        <v>0.166922</v>
       </c>
       <c r="C109" t="n">
-        <v>0.213708</v>
+        <v>0.216272</v>
       </c>
       <c r="D109" t="n">
-        <v>0.233435</v>
+        <v>0.233259</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.24631</v>
+        <v>0.246221</v>
       </c>
       <c r="C110" t="n">
-        <v>0.228598</v>
+        <v>0.228686</v>
       </c>
       <c r="D110" t="n">
-        <v>0.232268</v>
+        <v>0.232438</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.242866</v>
+        <v>0.242473</v>
       </c>
       <c r="C111" t="n">
-        <v>0.227642</v>
+        <v>0.227635</v>
       </c>
       <c r="D111" t="n">
-        <v>0.231437</v>
+        <v>0.231663</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.238701</v>
+        <v>0.238512</v>
       </c>
       <c r="C112" t="n">
-        <v>0.226932</v>
+        <v>0.226671</v>
       </c>
       <c r="D112" t="n">
-        <v>0.230307</v>
+        <v>0.230585</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.234075</v>
+        <v>0.234243</v>
       </c>
       <c r="C113" t="n">
-        <v>0.226614</v>
+        <v>0.226016</v>
       </c>
       <c r="D113" t="n">
-        <v>0.229321</v>
+        <v>0.229159</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.229391</v>
+        <v>0.229416</v>
       </c>
       <c r="C114" t="n">
-        <v>0.225505</v>
+        <v>0.224816</v>
       </c>
       <c r="D114" t="n">
-        <v>0.227937</v>
+        <v>0.228137</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.22454</v>
+        <v>0.224445</v>
       </c>
       <c r="C115" t="n">
-        <v>0.225255</v>
+        <v>0.22409</v>
       </c>
       <c r="D115" t="n">
-        <v>0.227076</v>
+        <v>0.227024</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.219594</v>
+        <v>0.219288</v>
       </c>
       <c r="C116" t="n">
-        <v>0.224172</v>
+        <v>0.223483</v>
       </c>
       <c r="D116" t="n">
-        <v>0.226039</v>
+        <v>0.226115</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.214159</v>
+        <v>0.213939</v>
       </c>
       <c r="C117" t="n">
-        <v>0.222666</v>
+        <v>0.222069</v>
       </c>
       <c r="D117" t="n">
-        <v>0.224631</v>
+        <v>0.224788</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.207913</v>
+        <v>0.20836</v>
       </c>
       <c r="C118" t="n">
-        <v>0.221792</v>
+        <v>0.221256</v>
       </c>
       <c r="D118" t="n">
-        <v>0.223757</v>
+        <v>0.223751</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.201713</v>
+        <v>0.20211</v>
       </c>
       <c r="C119" t="n">
-        <v>0.220679</v>
+        <v>0.220304</v>
       </c>
       <c r="D119" t="n">
-        <v>0.22257</v>
+        <v>0.222591</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.195143</v>
+        <v>0.195261</v>
       </c>
       <c r="C120" t="n">
-        <v>0.219423</v>
+        <v>0.219482</v>
       </c>
       <c r="D120" t="n">
-        <v>0.221682</v>
+        <v>0.221788</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.187614</v>
+        <v>0.18753</v>
       </c>
       <c r="C121" t="n">
-        <v>0.218325</v>
+        <v>0.218564</v>
       </c>
       <c r="D121" t="n">
-        <v>0.220683</v>
+        <v>0.221085</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.178779</v>
+        <v>0.178636</v>
       </c>
       <c r="C122" t="n">
-        <v>0.217045</v>
+        <v>0.217752</v>
       </c>
       <c r="D122" t="n">
-        <v>0.219869</v>
+        <v>0.220034</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.16896</v>
+        <v>0.168394</v>
       </c>
       <c r="C123" t="n">
-        <v>0.215573</v>
+        <v>0.216932</v>
       </c>
       <c r="D123" t="n">
-        <v>0.233812</v>
+        <v>0.233796</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.246873</v>
+        <v>0.247333</v>
       </c>
       <c r="C124" t="n">
-        <v>0.228658</v>
+        <v>0.228908</v>
       </c>
       <c r="D124" t="n">
-        <v>0.23262</v>
+        <v>0.232544</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.243486</v>
+        <v>0.243336</v>
       </c>
       <c r="C125" t="n">
-        <v>0.227748</v>
+        <v>0.227751</v>
       </c>
       <c r="D125" t="n">
-        <v>0.231403</v>
+        <v>0.231285</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.239797</v>
+        <v>0.242383</v>
       </c>
       <c r="C126" t="n">
-        <v>0.227183</v>
+        <v>0.227043</v>
       </c>
       <c r="D126" t="n">
-        <v>0.230411</v>
+        <v>0.230321</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.237668</v>
+        <v>0.237697</v>
       </c>
       <c r="C127" t="n">
-        <v>0.226201</v>
+        <v>0.226196</v>
       </c>
       <c r="D127" t="n">
-        <v>0.22909</v>
+        <v>0.229241</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.230854</v>
+        <v>0.230259</v>
       </c>
       <c r="C128" t="n">
-        <v>0.22545</v>
+        <v>0.2251</v>
       </c>
       <c r="D128" t="n">
-        <v>0.228113</v>
+        <v>0.227775</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.226114</v>
+        <v>0.227892</v>
       </c>
       <c r="C129" t="n">
-        <v>0.224764</v>
+        <v>0.224157</v>
       </c>
       <c r="D129" t="n">
-        <v>0.226974</v>
+        <v>0.226735</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.220671</v>
+        <v>0.22224</v>
       </c>
       <c r="C130" t="n">
-        <v>0.223647</v>
+        <v>0.223156</v>
       </c>
       <c r="D130" t="n">
-        <v>0.225857</v>
+        <v>0.225704</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.215504</v>
+        <v>0.216468</v>
       </c>
       <c r="C131" t="n">
-        <v>0.222402</v>
+        <v>0.22221</v>
       </c>
       <c r="D131" t="n">
-        <v>0.224912</v>
+        <v>0.224807</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.209497</v>
+        <v>0.209125</v>
       </c>
       <c r="C132" t="n">
-        <v>0.221603</v>
+        <v>0.221172</v>
       </c>
       <c r="D132" t="n">
-        <v>0.223874</v>
+        <v>0.223862</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.203993</v>
+        <v>0.203661</v>
       </c>
       <c r="C133" t="n">
-        <v>0.220792</v>
+        <v>0.220214</v>
       </c>
       <c r="D133" t="n">
-        <v>0.222907</v>
+        <v>0.222839</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.196875</v>
+        <v>0.196529</v>
       </c>
       <c r="C134" t="n">
-        <v>0.219731</v>
+        <v>0.219585</v>
       </c>
       <c r="D134" t="n">
-        <v>0.221812</v>
+        <v>0.221809</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.188827</v>
+        <v>0.188681</v>
       </c>
       <c r="C135" t="n">
-        <v>0.218439</v>
+        <v>0.218733</v>
       </c>
       <c r="D135" t="n">
-        <v>0.220953</v>
+        <v>0.220918</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.180295</v>
+        <v>0.179444</v>
       </c>
       <c r="C136" t="n">
-        <v>0.217475</v>
+        <v>0.217966</v>
       </c>
       <c r="D136" t="n">
-        <v>0.220015</v>
+        <v>0.22003</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.171138</v>
+        <v>0.170349</v>
       </c>
       <c r="C137" t="n">
-        <v>0.216089</v>
+        <v>0.217197</v>
       </c>
       <c r="D137" t="n">
-        <v>0.234083</v>
+        <v>0.233927</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.247491</v>
+        <v>0.247289</v>
       </c>
       <c r="C138" t="n">
-        <v>0.228899</v>
+        <v>0.229101</v>
       </c>
       <c r="D138" t="n">
-        <v>0.232824</v>
+        <v>0.232705</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.244237</v>
+        <v>0.244047</v>
       </c>
       <c r="C139" t="n">
-        <v>0.228013</v>
+        <v>0.228105</v>
       </c>
       <c r="D139" t="n">
-        <v>0.231731</v>
+        <v>0.231632</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.240563</v>
+        <v>0.240294</v>
       </c>
       <c r="C140" t="n">
-        <v>0.227397</v>
+        <v>0.227138</v>
       </c>
       <c r="D140" t="n">
-        <v>0.230598</v>
+        <v>0.230458</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.236335</v>
+        <v>0.235991</v>
       </c>
       <c r="C141" t="n">
-        <v>0.226833</v>
+        <v>0.226498</v>
       </c>
       <c r="D141" t="n">
-        <v>0.229657</v>
+        <v>0.229357</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.231529</v>
+        <v>0.231231</v>
       </c>
       <c r="C142" t="n">
-        <v>0.225955</v>
+        <v>0.225673</v>
       </c>
       <c r="D142" t="n">
-        <v>0.228663</v>
+        <v>0.228254</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.226758</v>
+        <v>0.226352</v>
       </c>
       <c r="C143" t="n">
-        <v>0.225395</v>
+        <v>0.224995</v>
       </c>
       <c r="D143" t="n">
-        <v>0.22737</v>
+        <v>0.22735</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.199437</v>
+        <v>0.194446</v>
       </c>
       <c r="C2" t="n">
-        <v>0.19988</v>
+        <v>0.202366</v>
       </c>
       <c r="D2" t="n">
-        <v>0.216734</v>
+        <v>0.206027</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.193043</v>
+        <v>0.188896</v>
       </c>
       <c r="C3" t="n">
-        <v>0.201315</v>
+        <v>0.203384</v>
       </c>
       <c r="D3" t="n">
-        <v>0.217494</v>
+        <v>0.207009</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.188988</v>
+        <v>0.184698</v>
       </c>
       <c r="C4" t="n">
-        <v>0.202143</v>
+        <v>0.203533</v>
       </c>
       <c r="D4" t="n">
-        <v>0.215909</v>
+        <v>0.207235</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.182963</v>
+        <v>0.179483</v>
       </c>
       <c r="C5" t="n">
-        <v>0.203403</v>
+        <v>0.202073</v>
       </c>
       <c r="D5" t="n">
-        <v>0.217127</v>
+        <v>0.207599</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.175783</v>
+        <v>0.174402</v>
       </c>
       <c r="C6" t="n">
-        <v>0.204503</v>
+        <v>0.203344</v>
       </c>
       <c r="D6" t="n">
-        <v>0.216523</v>
+        <v>0.207642</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.168954</v>
+        <v>0.168023</v>
       </c>
       <c r="C7" t="n">
-        <v>0.204964</v>
+        <v>0.202598</v>
       </c>
       <c r="D7" t="n">
-        <v>0.216606</v>
+        <v>0.206932</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.160962</v>
+        <v>0.159528</v>
       </c>
       <c r="C8" t="n">
-        <v>0.203947</v>
+        <v>0.20204</v>
       </c>
       <c r="D8" t="n">
-        <v>0.215333</v>
+        <v>0.206206</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.151379</v>
+        <v>0.150494</v>
       </c>
       <c r="C9" t="n">
-        <v>0.205349</v>
+        <v>0.201665</v>
       </c>
       <c r="D9" t="n">
-        <v>0.230643</v>
+        <v>0.222068</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.229986</v>
+        <v>0.229871</v>
       </c>
       <c r="C10" t="n">
-        <v>0.220792</v>
+        <v>0.222529</v>
       </c>
       <c r="D10" t="n">
-        <v>0.230034</v>
+        <v>0.22163</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.229117</v>
+        <v>0.228706</v>
       </c>
       <c r="C11" t="n">
-        <v>0.220385</v>
+        <v>0.22152</v>
       </c>
       <c r="D11" t="n">
-        <v>0.228921</v>
+        <v>0.222434</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.225133</v>
+        <v>0.225329</v>
       </c>
       <c r="C12" t="n">
-        <v>0.219715</v>
+        <v>0.220372</v>
       </c>
       <c r="D12" t="n">
-        <v>0.22796</v>
+        <v>0.220524</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.222148</v>
+        <v>0.22277</v>
       </c>
       <c r="C13" t="n">
-        <v>0.218893</v>
+        <v>0.218854</v>
       </c>
       <c r="D13" t="n">
-        <v>0.226627</v>
+        <v>0.219812</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.216845</v>
+        <v>0.218321</v>
       </c>
       <c r="C14" t="n">
-        <v>0.218736</v>
+        <v>0.217642</v>
       </c>
       <c r="D14" t="n">
-        <v>0.225064</v>
+        <v>0.218461</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.213752</v>
+        <v>0.215101</v>
       </c>
       <c r="C15" t="n">
-        <v>0.217436</v>
+        <v>0.216697</v>
       </c>
       <c r="D15" t="n">
-        <v>0.224448</v>
+        <v>0.218557</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.208199</v>
+        <v>0.209406</v>
       </c>
       <c r="C16" t="n">
-        <v>0.217721</v>
+        <v>0.216396</v>
       </c>
       <c r="D16" t="n">
-        <v>0.223448</v>
+        <v>0.21804</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.203499</v>
+        <v>0.204346</v>
       </c>
       <c r="C17" t="n">
-        <v>0.216835</v>
+        <v>0.215973</v>
       </c>
       <c r="D17" t="n">
-        <v>0.221911</v>
+        <v>0.217182</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.200292</v>
+        <v>0.199837</v>
       </c>
       <c r="C18" t="n">
-        <v>0.216248</v>
+        <v>0.215372</v>
       </c>
       <c r="D18" t="n">
-        <v>0.221668</v>
+        <v>0.216133</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.19457</v>
+        <v>0.194922</v>
       </c>
       <c r="C19" t="n">
-        <v>0.215421</v>
+        <v>0.213966</v>
       </c>
       <c r="D19" t="n">
-        <v>0.220658</v>
+        <v>0.215368</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.189274</v>
+        <v>0.188662</v>
       </c>
       <c r="C20" t="n">
-        <v>0.214104</v>
+        <v>0.212983</v>
       </c>
       <c r="D20" t="n">
-        <v>0.219804</v>
+        <v>0.214297</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.183003</v>
+        <v>0.182547</v>
       </c>
       <c r="C21" t="n">
-        <v>0.214503</v>
+        <v>0.21225</v>
       </c>
       <c r="D21" t="n">
-        <v>0.218946</v>
+        <v>0.214054</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.174837</v>
+        <v>0.175078</v>
       </c>
       <c r="C22" t="n">
-        <v>0.214692</v>
+        <v>0.211531</v>
       </c>
       <c r="D22" t="n">
-        <v>0.218516</v>
+        <v>0.213363</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.165781</v>
+        <v>0.16534</v>
       </c>
       <c r="C23" t="n">
-        <v>0.213813</v>
+        <v>0.210831</v>
       </c>
       <c r="D23" t="n">
-        <v>0.231534</v>
+        <v>0.227591</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.241149</v>
+        <v>0.241144</v>
       </c>
       <c r="C24" t="n">
-        <v>0.226964</v>
+        <v>0.225635</v>
       </c>
       <c r="D24" t="n">
-        <v>0.230222</v>
+        <v>0.226019</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.238176</v>
+        <v>0.237077</v>
       </c>
       <c r="C25" t="n">
-        <v>0.224958</v>
+        <v>0.224289</v>
       </c>
       <c r="D25" t="n">
-        <v>0.229642</v>
+        <v>0.225247</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.234398</v>
+        <v>0.233041</v>
       </c>
       <c r="C26" t="n">
-        <v>0.223797</v>
+        <v>0.223095</v>
       </c>
       <c r="D26" t="n">
-        <v>0.227816</v>
+        <v>0.223359</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.229413</v>
+        <v>0.229494</v>
       </c>
       <c r="C27" t="n">
-        <v>0.222552</v>
+        <v>0.221458</v>
       </c>
       <c r="D27" t="n">
-        <v>0.225906</v>
+        <v>0.221895</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.225115</v>
+        <v>0.225672</v>
       </c>
       <c r="C28" t="n">
-        <v>0.221476</v>
+        <v>0.220297</v>
       </c>
       <c r="D28" t="n">
-        <v>0.225011</v>
+        <v>0.221118</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.221376</v>
+        <v>0.220603</v>
       </c>
       <c r="C29" t="n">
-        <v>0.220355</v>
+        <v>0.219137</v>
       </c>
       <c r="D29" t="n">
-        <v>0.223876</v>
+        <v>0.220286</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.21669</v>
+        <v>0.216062</v>
       </c>
       <c r="C30" t="n">
-        <v>0.219703</v>
+        <v>0.218365</v>
       </c>
       <c r="D30" t="n">
-        <v>0.223181</v>
+        <v>0.218535</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.211481</v>
+        <v>0.210953</v>
       </c>
       <c r="C31" t="n">
-        <v>0.218543</v>
+        <v>0.217443</v>
       </c>
       <c r="D31" t="n">
-        <v>0.222288</v>
+        <v>0.217788</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.206699</v>
+        <v>0.205654</v>
       </c>
       <c r="C32" t="n">
-        <v>0.218494</v>
+        <v>0.2173</v>
       </c>
       <c r="D32" t="n">
-        <v>0.221655</v>
+        <v>0.217442</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.202012</v>
+        <v>0.201024</v>
       </c>
       <c r="C33" t="n">
-        <v>0.218173</v>
+        <v>0.21634</v>
       </c>
       <c r="D33" t="n">
-        <v>0.221167</v>
+        <v>0.216611</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.195903</v>
+        <v>0.195767</v>
       </c>
       <c r="C34" t="n">
-        <v>0.217476</v>
+        <v>0.215572</v>
       </c>
       <c r="D34" t="n">
-        <v>0.220591</v>
+        <v>0.216077</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.188758</v>
+        <v>0.18867</v>
       </c>
       <c r="C35" t="n">
-        <v>0.217006</v>
+        <v>0.21495</v>
       </c>
       <c r="D35" t="n">
-        <v>0.219218</v>
+        <v>0.215537</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180741</v>
+        <v>0.180328</v>
       </c>
       <c r="C36" t="n">
-        <v>0.215523</v>
+        <v>0.21351</v>
       </c>
       <c r="D36" t="n">
-        <v>0.218171</v>
+        <v>0.214509</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.17256</v>
+        <v>0.172454</v>
       </c>
       <c r="C37" t="n">
-        <v>0.215085</v>
+        <v>0.212689</v>
       </c>
       <c r="D37" t="n">
-        <v>0.232597</v>
+        <v>0.229258</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.24431</v>
+        <v>0.244199</v>
       </c>
       <c r="C38" t="n">
-        <v>0.227894</v>
+        <v>0.226544</v>
       </c>
       <c r="D38" t="n">
-        <v>0.231241</v>
+        <v>0.227649</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.241721</v>
+        <v>0.242128</v>
       </c>
       <c r="C39" t="n">
-        <v>0.22625</v>
+        <v>0.225691</v>
       </c>
       <c r="D39" t="n">
-        <v>0.229575</v>
+        <v>0.225843</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.238269</v>
+        <v>0.238128</v>
       </c>
       <c r="C40" t="n">
-        <v>0.225055</v>
+        <v>0.224116</v>
       </c>
       <c r="D40" t="n">
-        <v>0.228326</v>
+        <v>0.224709</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.234305</v>
+        <v>0.234417</v>
       </c>
       <c r="C41" t="n">
-        <v>0.224229</v>
+        <v>0.22298</v>
       </c>
       <c r="D41" t="n">
-        <v>0.22757</v>
+        <v>0.223479</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.230077</v>
+        <v>0.230065</v>
       </c>
       <c r="C42" t="n">
-        <v>0.223111</v>
+        <v>0.221973</v>
       </c>
       <c r="D42" t="n">
-        <v>0.226878</v>
+        <v>0.222632</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.226221</v>
+        <v>0.225592</v>
       </c>
       <c r="C43" t="n">
-        <v>0.222026</v>
+        <v>0.221181</v>
       </c>
       <c r="D43" t="n">
-        <v>0.22581</v>
+        <v>0.221975</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.221674</v>
+        <v>0.221138</v>
       </c>
       <c r="C44" t="n">
-        <v>0.221394</v>
+        <v>0.220317</v>
       </c>
       <c r="D44" t="n">
-        <v>0.224999</v>
+        <v>0.220756</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.215544</v>
+        <v>0.215786</v>
       </c>
       <c r="C45" t="n">
-        <v>0.220503</v>
+        <v>0.219437</v>
       </c>
       <c r="D45" t="n">
-        <v>0.223844</v>
+        <v>0.219631</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.21083</v>
+        <v>0.210434</v>
       </c>
       <c r="C46" t="n">
-        <v>0.219676</v>
+        <v>0.218488</v>
       </c>
       <c r="D46" t="n">
-        <v>0.222556</v>
+        <v>0.219007</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.204291</v>
+        <v>0.204304</v>
       </c>
       <c r="C47" t="n">
-        <v>0.219118</v>
+        <v>0.217976</v>
       </c>
       <c r="D47" t="n">
-        <v>0.222484</v>
+        <v>0.218152</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.198952</v>
+        <v>0.198222</v>
       </c>
       <c r="C48" t="n">
-        <v>0.217897</v>
+        <v>0.216808</v>
       </c>
       <c r="D48" t="n">
-        <v>0.221411</v>
+        <v>0.21718</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.191945</v>
+        <v>0.191588</v>
       </c>
       <c r="C49" t="n">
-        <v>0.217169</v>
+        <v>0.215585</v>
       </c>
       <c r="D49" t="n">
-        <v>0.220606</v>
+        <v>0.21603</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.184373</v>
+        <v>0.184082</v>
       </c>
       <c r="C50" t="n">
-        <v>0.216606</v>
+        <v>0.214921</v>
       </c>
       <c r="D50" t="n">
-        <v>0.219927</v>
+        <v>0.215434</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.17666</v>
+        <v>0.176061</v>
       </c>
       <c r="C51" t="n">
-        <v>0.2163</v>
+        <v>0.21416</v>
       </c>
       <c r="D51" t="n">
-        <v>0.233981</v>
+        <v>0.230619</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.166271</v>
+        <v>0.164869</v>
       </c>
       <c r="C52" t="n">
-        <v>0.215275</v>
+        <v>0.213065</v>
       </c>
       <c r="D52" t="n">
-        <v>0.232487</v>
+        <v>0.228908</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.244444</v>
+        <v>0.244098</v>
       </c>
       <c r="C53" t="n">
-        <v>0.227767</v>
+        <v>0.227212</v>
       </c>
       <c r="D53" t="n">
-        <v>0.231092</v>
+        <v>0.22755</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.24114</v>
+        <v>0.240382</v>
       </c>
       <c r="C54" t="n">
-        <v>0.226473</v>
+        <v>0.225697</v>
       </c>
       <c r="D54" t="n">
-        <v>0.229959</v>
+        <v>0.226397</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.237926</v>
+        <v>0.23664</v>
       </c>
       <c r="C55" t="n">
-        <v>0.225544</v>
+        <v>0.224618</v>
       </c>
       <c r="D55" t="n">
-        <v>0.228944</v>
+        <v>0.225149</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.233085</v>
+        <v>0.23232</v>
       </c>
       <c r="C56" t="n">
-        <v>0.224137</v>
+        <v>0.223666</v>
       </c>
       <c r="D56" t="n">
-        <v>0.227635</v>
+        <v>0.223574</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.228422</v>
+        <v>0.227966</v>
       </c>
       <c r="C57" t="n">
-        <v>0.223246</v>
+        <v>0.222628</v>
       </c>
       <c r="D57" t="n">
-        <v>0.226479</v>
+        <v>0.222618</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.223996</v>
+        <v>0.223461</v>
       </c>
       <c r="C58" t="n">
-        <v>0.222338</v>
+        <v>0.221525</v>
       </c>
       <c r="D58" t="n">
-        <v>0.225685</v>
+        <v>0.221498</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.218996</v>
+        <v>0.218203</v>
       </c>
       <c r="C59" t="n">
-        <v>0.221296</v>
+        <v>0.220336</v>
       </c>
       <c r="D59" t="n">
-        <v>0.224754</v>
+        <v>0.220498</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.213688</v>
+        <v>0.212344</v>
       </c>
       <c r="C60" t="n">
-        <v>0.22077</v>
+        <v>0.219664</v>
       </c>
       <c r="D60" t="n">
-        <v>0.223867</v>
+        <v>0.219835</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.207952</v>
+        <v>0.206911</v>
       </c>
       <c r="C61" t="n">
-        <v>0.219762</v>
+        <v>0.218764</v>
       </c>
       <c r="D61" t="n">
-        <v>0.223054</v>
+        <v>0.218803</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.201336</v>
+        <v>0.200739</v>
       </c>
       <c r="C62" t="n">
-        <v>0.218981</v>
+        <v>0.217711</v>
       </c>
       <c r="D62" t="n">
-        <v>0.221999</v>
+        <v>0.217755</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.194303</v>
+        <v>0.194284</v>
       </c>
       <c r="C63" t="n">
-        <v>0.217898</v>
+        <v>0.216645</v>
       </c>
       <c r="D63" t="n">
-        <v>0.221151</v>
+        <v>0.216657</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.188127</v>
+        <v>0.187325</v>
       </c>
       <c r="C64" t="n">
-        <v>0.217185</v>
+        <v>0.215715</v>
       </c>
       <c r="D64" t="n">
-        <v>0.220155</v>
+        <v>0.215907</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.179969</v>
+        <v>0.17956</v>
       </c>
       <c r="C65" t="n">
-        <v>0.216581</v>
+        <v>0.214831</v>
       </c>
       <c r="D65" t="n">
-        <v>0.219528</v>
+        <v>0.21524</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.17039</v>
+        <v>0.170172</v>
       </c>
       <c r="C66" t="n">
-        <v>0.215815</v>
+        <v>0.213755</v>
       </c>
       <c r="D66" t="n">
-        <v>0.232942</v>
+        <v>0.229773</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.24639</v>
+        <v>0.246203</v>
       </c>
       <c r="C67" t="n">
-        <v>0.228957</v>
+        <v>0.22865</v>
       </c>
       <c r="D67" t="n">
-        <v>0.231896</v>
+        <v>0.228676</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.24361</v>
+        <v>0.242984</v>
       </c>
       <c r="C68" t="n">
-        <v>0.227504</v>
+        <v>0.227128</v>
       </c>
       <c r="D68" t="n">
-        <v>0.23045</v>
+        <v>0.227098</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.239448</v>
+        <v>0.238893</v>
       </c>
       <c r="C69" t="n">
-        <v>0.226039</v>
+        <v>0.22542</v>
       </c>
       <c r="D69" t="n">
-        <v>0.229285</v>
+        <v>0.225535</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.235473</v>
+        <v>0.234463</v>
       </c>
       <c r="C70" t="n">
-        <v>0.224879</v>
+        <v>0.224101</v>
       </c>
       <c r="D70" t="n">
-        <v>0.228003</v>
+        <v>0.224266</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.230536</v>
+        <v>0.229861</v>
       </c>
       <c r="C71" t="n">
-        <v>0.223769</v>
+        <v>0.223489</v>
       </c>
       <c r="D71" t="n">
-        <v>0.226937</v>
+        <v>0.222941</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.225654</v>
+        <v>0.225219</v>
       </c>
       <c r="C72" t="n">
-        <v>0.22286</v>
+        <v>0.22243</v>
       </c>
       <c r="D72" t="n">
-        <v>0.225801</v>
+        <v>0.221891</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.220212</v>
+        <v>0.219818</v>
       </c>
       <c r="C73" t="n">
-        <v>0.221717</v>
+        <v>0.220862</v>
       </c>
       <c r="D73" t="n">
-        <v>0.224863</v>
+        <v>0.220687</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.21522</v>
+        <v>0.214939</v>
       </c>
       <c r="C74" t="n">
-        <v>0.22079</v>
+        <v>0.219914</v>
       </c>
       <c r="D74" t="n">
-        <v>0.223934</v>
+        <v>0.219772</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.209516</v>
+        <v>0.209501</v>
       </c>
       <c r="C75" t="n">
-        <v>0.219966</v>
+        <v>0.218834</v>
       </c>
       <c r="D75" t="n">
-        <v>0.223007</v>
+        <v>0.218909</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.204201</v>
+        <v>0.203719</v>
       </c>
       <c r="C76" t="n">
-        <v>0.219085</v>
+        <v>0.217975</v>
       </c>
       <c r="D76" t="n">
-        <v>0.222146</v>
+        <v>0.217937</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.196174</v>
+        <v>0.196671</v>
       </c>
       <c r="C77" t="n">
-        <v>0.218407</v>
+        <v>0.217156</v>
       </c>
       <c r="D77" t="n">
-        <v>0.221366</v>
+        <v>0.217077</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.189389</v>
+        <v>0.189584</v>
       </c>
       <c r="C78" t="n">
-        <v>0.217624</v>
+        <v>0.216069</v>
       </c>
       <c r="D78" t="n">
-        <v>0.220597</v>
+        <v>0.216291</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.181894</v>
+        <v>0.182036</v>
       </c>
       <c r="C79" t="n">
-        <v>0.216768</v>
+        <v>0.215075</v>
       </c>
       <c r="D79" t="n">
-        <v>0.219871</v>
+        <v>0.215619</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.173012</v>
+        <v>0.172055</v>
       </c>
       <c r="C80" t="n">
-        <v>0.216123</v>
+        <v>0.214267</v>
       </c>
       <c r="D80" t="n">
-        <v>0.233722</v>
+        <v>0.230424</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.248047</v>
+        <v>0.24776</v>
       </c>
       <c r="C81" t="n">
-        <v>0.229195</v>
+        <v>0.228766</v>
       </c>
       <c r="D81" t="n">
-        <v>0.232434</v>
+        <v>0.229097</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.244892</v>
+        <v>0.24448</v>
       </c>
       <c r="C82" t="n">
-        <v>0.228027</v>
+        <v>0.22748</v>
       </c>
       <c r="D82" t="n">
-        <v>0.231327</v>
+        <v>0.227754</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.240826</v>
+        <v>0.24054</v>
       </c>
       <c r="C83" t="n">
-        <v>0.226622</v>
+        <v>0.226221</v>
       </c>
       <c r="D83" t="n">
-        <v>0.23</v>
+        <v>0.226398</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.236672</v>
+        <v>0.236332</v>
       </c>
       <c r="C84" t="n">
-        <v>0.225559</v>
+        <v>0.225069</v>
       </c>
       <c r="D84" t="n">
-        <v>0.228836</v>
+        <v>0.224983</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.231639</v>
+        <v>0.231387</v>
       </c>
       <c r="C85" t="n">
-        <v>0.224497</v>
+        <v>0.223894</v>
       </c>
       <c r="D85" t="n">
-        <v>0.227739</v>
+        <v>0.223804</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.227134</v>
+        <v>0.226534</v>
       </c>
       <c r="C86" t="n">
-        <v>0.223532</v>
+        <v>0.22297</v>
       </c>
       <c r="D86" t="n">
-        <v>0.226591</v>
+        <v>0.222754</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.222367</v>
+        <v>0.222039</v>
       </c>
       <c r="C87" t="n">
-        <v>0.222579</v>
+        <v>0.221853</v>
       </c>
       <c r="D87" t="n">
-        <v>0.225492</v>
+        <v>0.221518</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.216824</v>
+        <v>0.216342</v>
       </c>
       <c r="C88" t="n">
-        <v>0.221681</v>
+        <v>0.220939</v>
       </c>
       <c r="D88" t="n">
-        <v>0.22454</v>
+        <v>0.220373</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.211402</v>
+        <v>0.211048</v>
       </c>
       <c r="C89" t="n">
-        <v>0.220544</v>
+        <v>0.219682</v>
       </c>
       <c r="D89" t="n">
-        <v>0.223617</v>
+        <v>0.219383</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.206045</v>
+        <v>0.204931</v>
       </c>
       <c r="C90" t="n">
-        <v>0.219688</v>
+        <v>0.21879</v>
       </c>
       <c r="D90" t="n">
-        <v>0.222577</v>
+        <v>0.218472</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.199573</v>
+        <v>0.198813</v>
       </c>
       <c r="C91" t="n">
-        <v>0.218748</v>
+        <v>0.217589</v>
       </c>
       <c r="D91" t="n">
-        <v>0.221699</v>
+        <v>0.217467</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.192316</v>
+        <v>0.191662</v>
       </c>
       <c r="C92" t="n">
-        <v>0.217793</v>
+        <v>0.216608</v>
       </c>
       <c r="D92" t="n">
-        <v>0.220885</v>
+        <v>0.21656</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.18451</v>
+        <v>0.184121</v>
       </c>
       <c r="C93" t="n">
-        <v>0.217097</v>
+        <v>0.215592</v>
       </c>
       <c r="D93" t="n">
-        <v>0.219976</v>
+        <v>0.215675</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.175219</v>
+        <v>0.175533</v>
       </c>
       <c r="C94" t="n">
-        <v>0.216267</v>
+        <v>0.214593</v>
       </c>
       <c r="D94" t="n">
-        <v>0.23433</v>
+        <v>0.230835</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.250851</v>
+        <v>0.248208</v>
       </c>
       <c r="C95" t="n">
-        <v>0.232104</v>
+        <v>0.231653</v>
       </c>
       <c r="D95" t="n">
-        <v>0.232997</v>
+        <v>0.229263</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.24546</v>
+        <v>0.245589</v>
       </c>
       <c r="C96" t="n">
-        <v>0.230216</v>
+        <v>0.230639</v>
       </c>
       <c r="D96" t="n">
-        <v>0.231609</v>
+        <v>0.227906</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.242273</v>
+        <v>0.241783</v>
       </c>
       <c r="C97" t="n">
-        <v>0.229287</v>
+        <v>0.228819</v>
       </c>
       <c r="D97" t="n">
-        <v>0.230957</v>
+        <v>0.226474</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.237876</v>
+        <v>0.237437</v>
       </c>
       <c r="C98" t="n">
-        <v>0.227589</v>
+        <v>0.227466</v>
       </c>
       <c r="D98" t="n">
-        <v>0.229524</v>
+        <v>0.225047</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.233188</v>
+        <v>0.23284</v>
       </c>
       <c r="C99" t="n">
-        <v>0.226539</v>
+        <v>0.225223</v>
       </c>
       <c r="D99" t="n">
-        <v>0.228136</v>
+        <v>0.223831</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.228206</v>
+        <v>0.228401</v>
       </c>
       <c r="C100" t="n">
-        <v>0.225461</v>
+        <v>0.224738</v>
       </c>
       <c r="D100" t="n">
-        <v>0.226982</v>
+        <v>0.22272</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.223197</v>
+        <v>0.222778</v>
       </c>
       <c r="C101" t="n">
-        <v>0.22399</v>
+        <v>0.223897</v>
       </c>
       <c r="D101" t="n">
-        <v>0.22592</v>
+        <v>0.221496</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.218101</v>
+        <v>0.218226</v>
       </c>
       <c r="C102" t="n">
-        <v>0.222975</v>
+        <v>0.222525</v>
       </c>
       <c r="D102" t="n">
-        <v>0.225041</v>
+        <v>0.220556</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.212714</v>
+        <v>0.212902</v>
       </c>
       <c r="C103" t="n">
-        <v>0.221937</v>
+        <v>0.221414</v>
       </c>
       <c r="D103" t="n">
-        <v>0.224093</v>
+        <v>0.219466</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.206678</v>
+        <v>0.206553</v>
       </c>
       <c r="C104" t="n">
-        <v>0.221105</v>
+        <v>0.220187</v>
       </c>
       <c r="D104" t="n">
-        <v>0.222869</v>
+        <v>0.218561</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.200367</v>
+        <v>0.200356</v>
       </c>
       <c r="C105" t="n">
-        <v>0.220066</v>
+        <v>0.219269</v>
       </c>
       <c r="D105" t="n">
-        <v>0.222104</v>
+        <v>0.217716</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.193775</v>
+        <v>0.193864</v>
       </c>
       <c r="C106" t="n">
-        <v>0.219026</v>
+        <v>0.218195</v>
       </c>
       <c r="D106" t="n">
-        <v>0.221138</v>
+        <v>0.216936</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.186347</v>
+        <v>0.186004</v>
       </c>
       <c r="C107" t="n">
-        <v>0.2183</v>
+        <v>0.216819</v>
       </c>
       <c r="D107" t="n">
-        <v>0.220504</v>
+        <v>0.216206</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.177464</v>
+        <v>0.177717</v>
       </c>
       <c r="C108" t="n">
-        <v>0.217286</v>
+        <v>0.215543</v>
       </c>
       <c r="D108" t="n">
-        <v>0.235043</v>
+        <v>0.231611</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.166922</v>
+        <v>0.167069</v>
       </c>
       <c r="C109" t="n">
-        <v>0.216272</v>
+        <v>0.214286</v>
       </c>
       <c r="D109" t="n">
-        <v>0.233259</v>
+        <v>0.229983</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.246221</v>
+        <v>0.245772</v>
       </c>
       <c r="C110" t="n">
-        <v>0.228686</v>
+        <v>0.228626</v>
       </c>
       <c r="D110" t="n">
-        <v>0.232438</v>
+        <v>0.228618</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.242473</v>
+        <v>0.242339</v>
       </c>
       <c r="C111" t="n">
-        <v>0.227635</v>
+        <v>0.227584</v>
       </c>
       <c r="D111" t="n">
-        <v>0.231663</v>
+        <v>0.227703</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.238512</v>
+        <v>0.238482</v>
       </c>
       <c r="C112" t="n">
-        <v>0.226671</v>
+        <v>0.226996</v>
       </c>
       <c r="D112" t="n">
-        <v>0.230585</v>
+        <v>0.226208</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.234243</v>
+        <v>0.234233</v>
       </c>
       <c r="C113" t="n">
-        <v>0.226016</v>
+        <v>0.225989</v>
       </c>
       <c r="D113" t="n">
-        <v>0.229159</v>
+        <v>0.225123</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.229416</v>
+        <v>0.229512</v>
       </c>
       <c r="C114" t="n">
-        <v>0.224816</v>
+        <v>0.22526</v>
       </c>
       <c r="D114" t="n">
-        <v>0.228137</v>
+        <v>0.223661</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.224445</v>
+        <v>0.224889</v>
       </c>
       <c r="C115" t="n">
-        <v>0.22409</v>
+        <v>0.224516</v>
       </c>
       <c r="D115" t="n">
-        <v>0.227024</v>
+        <v>0.222685</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.219288</v>
+        <v>0.219769</v>
       </c>
       <c r="C116" t="n">
-        <v>0.223483</v>
+        <v>0.223978</v>
       </c>
       <c r="D116" t="n">
-        <v>0.226115</v>
+        <v>0.221343</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.213939</v>
+        <v>0.21434</v>
       </c>
       <c r="C117" t="n">
-        <v>0.222069</v>
+        <v>0.222992</v>
       </c>
       <c r="D117" t="n">
-        <v>0.224788</v>
+        <v>0.220164</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.20836</v>
+        <v>0.208466</v>
       </c>
       <c r="C118" t="n">
-        <v>0.221256</v>
+        <v>0.221311</v>
       </c>
       <c r="D118" t="n">
-        <v>0.223751</v>
+        <v>0.219286</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.20211</v>
+        <v>0.201978</v>
       </c>
       <c r="C119" t="n">
-        <v>0.220304</v>
+        <v>0.220567</v>
       </c>
       <c r="D119" t="n">
-        <v>0.222591</v>
+        <v>0.218321</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.195261</v>
+        <v>0.195278</v>
       </c>
       <c r="C120" t="n">
-        <v>0.219482</v>
+        <v>0.219248</v>
       </c>
       <c r="D120" t="n">
-        <v>0.221788</v>
+        <v>0.217557</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.18753</v>
+        <v>0.187674</v>
       </c>
       <c r="C121" t="n">
-        <v>0.218564</v>
+        <v>0.218261</v>
       </c>
       <c r="D121" t="n">
-        <v>0.221085</v>
+        <v>0.21653</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.178636</v>
+        <v>0.179117</v>
       </c>
       <c r="C122" t="n">
-        <v>0.217752</v>
+        <v>0.216853</v>
       </c>
       <c r="D122" t="n">
-        <v>0.220034</v>
+        <v>0.215686</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.168394</v>
+        <v>0.169063</v>
       </c>
       <c r="C123" t="n">
-        <v>0.216932</v>
+        <v>0.215832</v>
       </c>
       <c r="D123" t="n">
-        <v>0.233796</v>
+        <v>0.230384</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.247333</v>
+        <v>0.246788</v>
       </c>
       <c r="C124" t="n">
-        <v>0.228908</v>
+        <v>0.228889</v>
       </c>
       <c r="D124" t="n">
-        <v>0.232544</v>
+        <v>0.228843</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.243336</v>
+        <v>0.243438</v>
       </c>
       <c r="C125" t="n">
-        <v>0.227751</v>
+        <v>0.227917</v>
       </c>
       <c r="D125" t="n">
-        <v>0.231285</v>
+        <v>0.227509</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.242383</v>
+        <v>0.242519</v>
       </c>
       <c r="C126" t="n">
-        <v>0.227043</v>
+        <v>0.227047</v>
       </c>
       <c r="D126" t="n">
-        <v>0.230321</v>
+        <v>0.226236</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.237697</v>
+        <v>0.235286</v>
       </c>
       <c r="C127" t="n">
-        <v>0.226196</v>
+        <v>0.226285</v>
       </c>
       <c r="D127" t="n">
-        <v>0.229241</v>
+        <v>0.224998</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.230259</v>
+        <v>0.230643</v>
       </c>
       <c r="C128" t="n">
-        <v>0.2251</v>
+        <v>0.225323</v>
       </c>
       <c r="D128" t="n">
-        <v>0.227775</v>
+        <v>0.223558</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.227892</v>
+        <v>0.227975</v>
       </c>
       <c r="C129" t="n">
-        <v>0.224157</v>
+        <v>0.224535</v>
       </c>
       <c r="D129" t="n">
-        <v>0.226735</v>
+        <v>0.222423</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.22224</v>
+        <v>0.222761</v>
       </c>
       <c r="C130" t="n">
-        <v>0.223156</v>
+        <v>0.223896</v>
       </c>
       <c r="D130" t="n">
-        <v>0.225704</v>
+        <v>0.221405</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.216468</v>
+        <v>0.217191</v>
       </c>
       <c r="C131" t="n">
-        <v>0.22221</v>
+        <v>0.222747</v>
       </c>
       <c r="D131" t="n">
-        <v>0.224807</v>
+        <v>0.220341</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.209125</v>
+        <v>0.210987</v>
       </c>
       <c r="C132" t="n">
-        <v>0.221172</v>
+        <v>0.221883</v>
       </c>
       <c r="D132" t="n">
-        <v>0.223862</v>
+        <v>0.219282</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.203661</v>
+        <v>0.20379</v>
       </c>
       <c r="C133" t="n">
-        <v>0.220214</v>
+        <v>0.220605</v>
       </c>
       <c r="D133" t="n">
-        <v>0.222839</v>
+        <v>0.21836</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.196529</v>
+        <v>0.196752</v>
       </c>
       <c r="C134" t="n">
-        <v>0.219585</v>
+        <v>0.219528</v>
       </c>
       <c r="D134" t="n">
-        <v>0.221809</v>
+        <v>0.217586</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.188681</v>
+        <v>0.18913</v>
       </c>
       <c r="C135" t="n">
-        <v>0.218733</v>
+        <v>0.218668</v>
       </c>
       <c r="D135" t="n">
-        <v>0.220918</v>
+        <v>0.216691</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.179444</v>
+        <v>0.180176</v>
       </c>
       <c r="C136" t="n">
-        <v>0.217966</v>
+        <v>0.217172</v>
       </c>
       <c r="D136" t="n">
-        <v>0.22003</v>
+        <v>0.215911</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.170349</v>
+        <v>0.170712</v>
       </c>
       <c r="C137" t="n">
-        <v>0.217197</v>
+        <v>0.215982</v>
       </c>
       <c r="D137" t="n">
-        <v>0.233927</v>
+        <v>0.230659</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.247289</v>
+        <v>0.247581</v>
       </c>
       <c r="C138" t="n">
-        <v>0.229101</v>
+        <v>0.229164</v>
       </c>
       <c r="D138" t="n">
-        <v>0.232705</v>
+        <v>0.229197</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.244047</v>
+        <v>0.244305</v>
       </c>
       <c r="C139" t="n">
-        <v>0.228105</v>
+        <v>0.228264</v>
       </c>
       <c r="D139" t="n">
-        <v>0.231632</v>
+        <v>0.227813</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.240294</v>
+        <v>0.240623</v>
       </c>
       <c r="C140" t="n">
-        <v>0.227138</v>
+        <v>0.227448</v>
       </c>
       <c r="D140" t="n">
-        <v>0.230458</v>
+        <v>0.226523</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.235991</v>
+        <v>0.236289</v>
       </c>
       <c r="C141" t="n">
-        <v>0.226498</v>
+        <v>0.226728</v>
       </c>
       <c r="D141" t="n">
-        <v>0.229357</v>
+        <v>0.225274</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.231231</v>
+        <v>0.231417</v>
       </c>
       <c r="C142" t="n">
-        <v>0.225673</v>
+        <v>0.226132</v>
       </c>
       <c r="D142" t="n">
-        <v>0.228254</v>
+        <v>0.223948</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.226352</v>
+        <v>0.226727</v>
       </c>
       <c r="C143" t="n">
-        <v>0.224995</v>
+        <v>0.225227</v>
       </c>
       <c r="D143" t="n">
-        <v>0.22735</v>
+        <v>0.222966</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.194446</v>
+        <v>0.197511</v>
       </c>
       <c r="C2" t="n">
-        <v>0.202366</v>
+        <v>0.199457</v>
       </c>
       <c r="D2" t="n">
-        <v>0.206027</v>
+        <v>0.204113</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.188896</v>
+        <v>0.19362</v>
       </c>
       <c r="C3" t="n">
-        <v>0.203384</v>
+        <v>0.200157</v>
       </c>
       <c r="D3" t="n">
-        <v>0.207009</v>
+        <v>0.205266</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.184698</v>
+        <v>0.190015</v>
       </c>
       <c r="C4" t="n">
-        <v>0.203533</v>
+        <v>0.199223</v>
       </c>
       <c r="D4" t="n">
-        <v>0.207235</v>
+        <v>0.2067</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.179483</v>
+        <v>0.181319</v>
       </c>
       <c r="C5" t="n">
-        <v>0.202073</v>
+        <v>0.19949</v>
       </c>
       <c r="D5" t="n">
-        <v>0.207599</v>
+        <v>0.206837</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.174402</v>
+        <v>0.17695</v>
       </c>
       <c r="C6" t="n">
-        <v>0.203344</v>
+        <v>0.198548</v>
       </c>
       <c r="D6" t="n">
-        <v>0.207642</v>
+        <v>0.205786</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.168023</v>
+        <v>0.169496</v>
       </c>
       <c r="C7" t="n">
-        <v>0.202598</v>
+        <v>0.199167</v>
       </c>
       <c r="D7" t="n">
-        <v>0.206932</v>
+        <v>0.205959</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.159528</v>
+        <v>0.162145</v>
       </c>
       <c r="C8" t="n">
-        <v>0.20204</v>
+        <v>0.199344</v>
       </c>
       <c r="D8" t="n">
-        <v>0.206206</v>
+        <v>0.206913</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.150494</v>
+        <v>0.151737</v>
       </c>
       <c r="C9" t="n">
-        <v>0.201665</v>
+        <v>0.200123</v>
       </c>
       <c r="D9" t="n">
-        <v>0.222068</v>
+        <v>0.22358</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.229871</v>
+        <v>0.231068</v>
       </c>
       <c r="C10" t="n">
-        <v>0.222529</v>
+        <v>0.21787</v>
       </c>
       <c r="D10" t="n">
-        <v>0.22163</v>
+        <v>0.221496</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.228706</v>
+        <v>0.228289</v>
       </c>
       <c r="C11" t="n">
-        <v>0.22152</v>
+        <v>0.217211</v>
       </c>
       <c r="D11" t="n">
-        <v>0.222434</v>
+        <v>0.221162</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.225329</v>
+        <v>0.225162</v>
       </c>
       <c r="C12" t="n">
-        <v>0.220372</v>
+        <v>0.217694</v>
       </c>
       <c r="D12" t="n">
-        <v>0.220524</v>
+        <v>0.221254</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.22277</v>
+        <v>0.222641</v>
       </c>
       <c r="C13" t="n">
-        <v>0.218854</v>
+        <v>0.216863</v>
       </c>
       <c r="D13" t="n">
-        <v>0.219812</v>
+        <v>0.221463</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.218321</v>
+        <v>0.220076</v>
       </c>
       <c r="C14" t="n">
-        <v>0.217642</v>
+        <v>0.215766</v>
       </c>
       <c r="D14" t="n">
-        <v>0.218461</v>
+        <v>0.220055</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.215101</v>
+        <v>0.216584</v>
       </c>
       <c r="C15" t="n">
-        <v>0.216697</v>
+        <v>0.215347</v>
       </c>
       <c r="D15" t="n">
-        <v>0.218557</v>
+        <v>0.219962</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.209406</v>
+        <v>0.211627</v>
       </c>
       <c r="C16" t="n">
-        <v>0.216396</v>
+        <v>0.214767</v>
       </c>
       <c r="D16" t="n">
-        <v>0.21804</v>
+        <v>0.218338</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.204346</v>
+        <v>0.206084</v>
       </c>
       <c r="C17" t="n">
-        <v>0.215973</v>
+        <v>0.212773</v>
       </c>
       <c r="D17" t="n">
-        <v>0.217182</v>
+        <v>0.218262</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.199837</v>
+        <v>0.201288</v>
       </c>
       <c r="C18" t="n">
-        <v>0.215372</v>
+        <v>0.212192</v>
       </c>
       <c r="D18" t="n">
-        <v>0.216133</v>
+        <v>0.217373</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.194922</v>
+        <v>0.196513</v>
       </c>
       <c r="C19" t="n">
-        <v>0.213966</v>
+        <v>0.21163</v>
       </c>
       <c r="D19" t="n">
-        <v>0.215368</v>
+        <v>0.216491</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.188662</v>
+        <v>0.189518</v>
       </c>
       <c r="C20" t="n">
-        <v>0.212983</v>
+        <v>0.210576</v>
       </c>
       <c r="D20" t="n">
-        <v>0.214297</v>
+        <v>0.216075</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.182547</v>
+        <v>0.183658</v>
       </c>
       <c r="C21" t="n">
-        <v>0.21225</v>
+        <v>0.209788</v>
       </c>
       <c r="D21" t="n">
-        <v>0.214054</v>
+        <v>0.215228</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.175078</v>
+        <v>0.175874</v>
       </c>
       <c r="C22" t="n">
-        <v>0.211531</v>
+        <v>0.208902</v>
       </c>
       <c r="D22" t="n">
-        <v>0.213363</v>
+        <v>0.214319</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.16534</v>
+        <v>0.164821</v>
       </c>
       <c r="C23" t="n">
-        <v>0.210831</v>
+        <v>0.207896</v>
       </c>
       <c r="D23" t="n">
-        <v>0.227591</v>
+        <v>0.227676</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.241144</v>
+        <v>0.239306</v>
       </c>
       <c r="C24" t="n">
-        <v>0.225635</v>
+        <v>0.222526</v>
       </c>
       <c r="D24" t="n">
-        <v>0.226019</v>
+        <v>0.226666</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.237077</v>
+        <v>0.236729</v>
       </c>
       <c r="C25" t="n">
-        <v>0.224289</v>
+        <v>0.221241</v>
       </c>
       <c r="D25" t="n">
-        <v>0.225247</v>
+        <v>0.225364</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.233041</v>
+        <v>0.232448</v>
       </c>
       <c r="C26" t="n">
-        <v>0.223095</v>
+        <v>0.220057</v>
       </c>
       <c r="D26" t="n">
-        <v>0.223359</v>
+        <v>0.224275</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.229494</v>
+        <v>0.230579</v>
       </c>
       <c r="C27" t="n">
-        <v>0.221458</v>
+        <v>0.219412</v>
       </c>
       <c r="D27" t="n">
-        <v>0.221895</v>
+        <v>0.22367</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.225672</v>
+        <v>0.226083</v>
       </c>
       <c r="C28" t="n">
-        <v>0.220297</v>
+        <v>0.218331</v>
       </c>
       <c r="D28" t="n">
-        <v>0.221118</v>
+        <v>0.222672</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.220603</v>
+        <v>0.22197</v>
       </c>
       <c r="C29" t="n">
-        <v>0.219137</v>
+        <v>0.216526</v>
       </c>
       <c r="D29" t="n">
-        <v>0.220286</v>
+        <v>0.221438</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.216062</v>
+        <v>0.216061</v>
       </c>
       <c r="C30" t="n">
-        <v>0.218365</v>
+        <v>0.215732</v>
       </c>
       <c r="D30" t="n">
-        <v>0.218535</v>
+        <v>0.220159</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.210953</v>
+        <v>0.211368</v>
       </c>
       <c r="C31" t="n">
-        <v>0.217443</v>
+        <v>0.214856</v>
       </c>
       <c r="D31" t="n">
-        <v>0.217788</v>
+        <v>0.219306</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.205654</v>
+        <v>0.205652</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2173</v>
+        <v>0.214809</v>
       </c>
       <c r="D32" t="n">
-        <v>0.217442</v>
+        <v>0.219008</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.201024</v>
+        <v>0.199805</v>
       </c>
       <c r="C33" t="n">
-        <v>0.21634</v>
+        <v>0.213697</v>
       </c>
       <c r="D33" t="n">
-        <v>0.216611</v>
+        <v>0.218072</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.195767</v>
+        <v>0.194261</v>
       </c>
       <c r="C34" t="n">
-        <v>0.215572</v>
+        <v>0.212787</v>
       </c>
       <c r="D34" t="n">
-        <v>0.216077</v>
+        <v>0.217029</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.18867</v>
+        <v>0.188441</v>
       </c>
       <c r="C35" t="n">
-        <v>0.21495</v>
+        <v>0.211739</v>
       </c>
       <c r="D35" t="n">
-        <v>0.215537</v>
+        <v>0.216427</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180328</v>
+        <v>0.180016</v>
       </c>
       <c r="C36" t="n">
-        <v>0.21351</v>
+        <v>0.210592</v>
       </c>
       <c r="D36" t="n">
-        <v>0.214509</v>
+        <v>0.215647</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.172454</v>
+        <v>0.171009</v>
       </c>
       <c r="C37" t="n">
-        <v>0.212689</v>
+        <v>0.209956</v>
       </c>
       <c r="D37" t="n">
-        <v>0.229258</v>
+        <v>0.229544</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.244199</v>
+        <v>0.243659</v>
       </c>
       <c r="C38" t="n">
-        <v>0.226544</v>
+        <v>0.224974</v>
       </c>
       <c r="D38" t="n">
-        <v>0.227649</v>
+        <v>0.22843</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.242128</v>
+        <v>0.240799</v>
       </c>
       <c r="C39" t="n">
-        <v>0.225691</v>
+        <v>0.22371</v>
       </c>
       <c r="D39" t="n">
-        <v>0.225843</v>
+        <v>0.226737</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.238128</v>
+        <v>0.237756</v>
       </c>
       <c r="C40" t="n">
-        <v>0.224116</v>
+        <v>0.22194</v>
       </c>
       <c r="D40" t="n">
-        <v>0.224709</v>
+        <v>0.225596</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.234417</v>
+        <v>0.233771</v>
       </c>
       <c r="C41" t="n">
-        <v>0.22298</v>
+        <v>0.22076</v>
       </c>
       <c r="D41" t="n">
-        <v>0.223479</v>
+        <v>0.22402</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.230065</v>
+        <v>0.229539</v>
       </c>
       <c r="C42" t="n">
-        <v>0.221973</v>
+        <v>0.219261</v>
       </c>
       <c r="D42" t="n">
-        <v>0.222632</v>
+        <v>0.222405</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.225592</v>
+        <v>0.22445</v>
       </c>
       <c r="C43" t="n">
-        <v>0.221181</v>
+        <v>0.217858</v>
       </c>
       <c r="D43" t="n">
-        <v>0.221975</v>
+        <v>0.221236</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.221138</v>
+        <v>0.220305</v>
       </c>
       <c r="C44" t="n">
-        <v>0.220317</v>
+        <v>0.21706</v>
       </c>
       <c r="D44" t="n">
-        <v>0.220756</v>
+        <v>0.220659</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.215786</v>
+        <v>0.216354</v>
       </c>
       <c r="C45" t="n">
-        <v>0.219437</v>
+        <v>0.216584</v>
       </c>
       <c r="D45" t="n">
-        <v>0.219631</v>
+        <v>0.220005</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.210434</v>
+        <v>0.210561</v>
       </c>
       <c r="C46" t="n">
-        <v>0.218488</v>
+        <v>0.215411</v>
       </c>
       <c r="D46" t="n">
-        <v>0.219007</v>
+        <v>0.218884</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.204304</v>
+        <v>0.204057</v>
       </c>
       <c r="C47" t="n">
-        <v>0.217976</v>
+        <v>0.214889</v>
       </c>
       <c r="D47" t="n">
-        <v>0.218152</v>
+        <v>0.217896</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.198222</v>
+        <v>0.198545</v>
       </c>
       <c r="C48" t="n">
-        <v>0.216808</v>
+        <v>0.213549</v>
       </c>
       <c r="D48" t="n">
-        <v>0.21718</v>
+        <v>0.217162</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.191588</v>
+        <v>0.192465</v>
       </c>
       <c r="C49" t="n">
-        <v>0.215585</v>
+        <v>0.213042</v>
       </c>
       <c r="D49" t="n">
-        <v>0.21603</v>
+        <v>0.216525</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.184082</v>
+        <v>0.184617</v>
       </c>
       <c r="C50" t="n">
-        <v>0.214921</v>
+        <v>0.21215</v>
       </c>
       <c r="D50" t="n">
-        <v>0.215434</v>
+        <v>0.215786</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.176061</v>
+        <v>0.175857</v>
       </c>
       <c r="C51" t="n">
-        <v>0.21416</v>
+        <v>0.211068</v>
       </c>
       <c r="D51" t="n">
-        <v>0.230619</v>
+        <v>0.230538</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.164869</v>
+        <v>0.165662</v>
       </c>
       <c r="C52" t="n">
-        <v>0.213065</v>
+        <v>0.210674</v>
       </c>
       <c r="D52" t="n">
-        <v>0.228908</v>
+        <v>0.228842</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.244098</v>
+        <v>0.245477</v>
       </c>
       <c r="C53" t="n">
-        <v>0.227212</v>
+        <v>0.224931</v>
       </c>
       <c r="D53" t="n">
-        <v>0.22755</v>
+        <v>0.228071</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.240382</v>
+        <v>0.241485</v>
       </c>
       <c r="C54" t="n">
-        <v>0.225697</v>
+        <v>0.223321</v>
       </c>
       <c r="D54" t="n">
-        <v>0.226397</v>
+        <v>0.226422</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.23664</v>
+        <v>0.238536</v>
       </c>
       <c r="C55" t="n">
-        <v>0.224618</v>
+        <v>0.222109</v>
       </c>
       <c r="D55" t="n">
-        <v>0.225149</v>
+        <v>0.225476</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.23232</v>
+        <v>0.233821</v>
       </c>
       <c r="C56" t="n">
-        <v>0.223666</v>
+        <v>0.22079</v>
       </c>
       <c r="D56" t="n">
-        <v>0.223574</v>
+        <v>0.224008</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.227966</v>
+        <v>0.228499</v>
       </c>
       <c r="C57" t="n">
-        <v>0.222628</v>
+        <v>0.219544</v>
       </c>
       <c r="D57" t="n">
-        <v>0.222618</v>
+        <v>0.223023</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.223461</v>
+        <v>0.223016</v>
       </c>
       <c r="C58" t="n">
-        <v>0.221525</v>
+        <v>0.218288</v>
       </c>
       <c r="D58" t="n">
-        <v>0.221498</v>
+        <v>0.221576</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.218203</v>
+        <v>0.218695</v>
       </c>
       <c r="C59" t="n">
-        <v>0.220336</v>
+        <v>0.217341</v>
       </c>
       <c r="D59" t="n">
-        <v>0.220498</v>
+        <v>0.220668</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.212344</v>
+        <v>0.213012</v>
       </c>
       <c r="C60" t="n">
-        <v>0.219664</v>
+        <v>0.216317</v>
       </c>
       <c r="D60" t="n">
-        <v>0.219835</v>
+        <v>0.219687</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.206911</v>
+        <v>0.206767</v>
       </c>
       <c r="C61" t="n">
-        <v>0.218764</v>
+        <v>0.215616</v>
       </c>
       <c r="D61" t="n">
-        <v>0.218803</v>
+        <v>0.219063</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.200739</v>
+        <v>0.20092</v>
       </c>
       <c r="C62" t="n">
-        <v>0.217711</v>
+        <v>0.214772</v>
       </c>
       <c r="D62" t="n">
-        <v>0.217755</v>
+        <v>0.21819</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.194284</v>
+        <v>0.19451</v>
       </c>
       <c r="C63" t="n">
-        <v>0.216645</v>
+        <v>0.213837</v>
       </c>
       <c r="D63" t="n">
-        <v>0.216657</v>
+        <v>0.217173</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.187325</v>
+        <v>0.187586</v>
       </c>
       <c r="C64" t="n">
-        <v>0.215715</v>
+        <v>0.213107</v>
       </c>
       <c r="D64" t="n">
-        <v>0.215907</v>
+        <v>0.216655</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.17956</v>
+        <v>0.179549</v>
       </c>
       <c r="C65" t="n">
-        <v>0.214831</v>
+        <v>0.212388</v>
       </c>
       <c r="D65" t="n">
-        <v>0.21524</v>
+        <v>0.216229</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.170172</v>
+        <v>0.169994</v>
       </c>
       <c r="C66" t="n">
-        <v>0.213755</v>
+        <v>0.211254</v>
       </c>
       <c r="D66" t="n">
-        <v>0.229773</v>
+        <v>0.230408</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.246203</v>
+        <v>0.247989</v>
       </c>
       <c r="C67" t="n">
-        <v>0.22865</v>
+        <v>0.225629</v>
       </c>
       <c r="D67" t="n">
-        <v>0.228676</v>
+        <v>0.229048</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.242984</v>
+        <v>0.244006</v>
       </c>
       <c r="C68" t="n">
-        <v>0.227128</v>
+        <v>0.224237</v>
       </c>
       <c r="D68" t="n">
-        <v>0.227098</v>
+        <v>0.227545</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.238893</v>
+        <v>0.240828</v>
       </c>
       <c r="C69" t="n">
-        <v>0.22542</v>
+        <v>0.222771</v>
       </c>
       <c r="D69" t="n">
-        <v>0.225535</v>
+        <v>0.226099</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.234463</v>
+        <v>0.235344</v>
       </c>
       <c r="C70" t="n">
-        <v>0.224101</v>
+        <v>0.221592</v>
       </c>
       <c r="D70" t="n">
-        <v>0.224266</v>
+        <v>0.224698</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.229861</v>
+        <v>0.230419</v>
       </c>
       <c r="C71" t="n">
-        <v>0.223489</v>
+        <v>0.220552</v>
       </c>
       <c r="D71" t="n">
-        <v>0.222941</v>
+        <v>0.223725</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.225219</v>
+        <v>0.225698</v>
       </c>
       <c r="C72" t="n">
-        <v>0.22243</v>
+        <v>0.219618</v>
       </c>
       <c r="D72" t="n">
-        <v>0.221891</v>
+        <v>0.22272</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.219818</v>
+        <v>0.220399</v>
       </c>
       <c r="C73" t="n">
-        <v>0.220862</v>
+        <v>0.218521</v>
       </c>
       <c r="D73" t="n">
-        <v>0.220687</v>
+        <v>0.221585</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.214939</v>
+        <v>0.215288</v>
       </c>
       <c r="C74" t="n">
-        <v>0.219914</v>
+        <v>0.217665</v>
       </c>
       <c r="D74" t="n">
-        <v>0.219772</v>
+        <v>0.220682</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.209501</v>
+        <v>0.209763</v>
       </c>
       <c r="C75" t="n">
-        <v>0.218834</v>
+        <v>0.21669</v>
       </c>
       <c r="D75" t="n">
-        <v>0.218909</v>
+        <v>0.219644</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.203719</v>
+        <v>0.203563</v>
       </c>
       <c r="C76" t="n">
-        <v>0.217975</v>
+        <v>0.215774</v>
       </c>
       <c r="D76" t="n">
-        <v>0.217937</v>
+        <v>0.218845</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.196671</v>
+        <v>0.19727</v>
       </c>
       <c r="C77" t="n">
-        <v>0.217156</v>
+        <v>0.214918</v>
       </c>
       <c r="D77" t="n">
-        <v>0.217077</v>
+        <v>0.217915</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.189584</v>
+        <v>0.190637</v>
       </c>
       <c r="C78" t="n">
-        <v>0.216069</v>
+        <v>0.213925</v>
       </c>
       <c r="D78" t="n">
-        <v>0.216291</v>
+        <v>0.217324</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.182036</v>
+        <v>0.182261</v>
       </c>
       <c r="C79" t="n">
-        <v>0.215075</v>
+        <v>0.212812</v>
       </c>
       <c r="D79" t="n">
-        <v>0.215619</v>
+        <v>0.216331</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.172055</v>
+        <v>0.172107</v>
       </c>
       <c r="C80" t="n">
-        <v>0.214267</v>
+        <v>0.211968</v>
       </c>
       <c r="D80" t="n">
-        <v>0.230424</v>
+        <v>0.230905</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.24776</v>
+        <v>0.247375</v>
       </c>
       <c r="C81" t="n">
-        <v>0.228766</v>
+        <v>0.226176</v>
       </c>
       <c r="D81" t="n">
-        <v>0.229097</v>
+        <v>0.229507</v>
       </c>
     </row>
     <row r="82">
@@ -4369,10 +4369,10 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.24448</v>
+        <v>0.24397</v>
       </c>
       <c r="C82" t="n">
-        <v>0.22748</v>
+        <v>0.224833</v>
       </c>
       <c r="D82" t="n">
         <v>0.227754</v>
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.24054</v>
+        <v>0.240518</v>
       </c>
       <c r="C83" t="n">
-        <v>0.226221</v>
+        <v>0.223588</v>
       </c>
       <c r="D83" t="n">
-        <v>0.226398</v>
+        <v>0.226576</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.236332</v>
+        <v>0.236254</v>
       </c>
       <c r="C84" t="n">
-        <v>0.225069</v>
+        <v>0.222376</v>
       </c>
       <c r="D84" t="n">
-        <v>0.224983</v>
+        <v>0.225407</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.231387</v>
+        <v>0.231765</v>
       </c>
       <c r="C85" t="n">
-        <v>0.223894</v>
+        <v>0.221326</v>
       </c>
       <c r="D85" t="n">
-        <v>0.223804</v>
+        <v>0.224086</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.226534</v>
+        <v>0.226966</v>
       </c>
       <c r="C86" t="n">
-        <v>0.22297</v>
+        <v>0.220218</v>
       </c>
       <c r="D86" t="n">
-        <v>0.222754</v>
+        <v>0.222914</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.222039</v>
+        <v>0.222124</v>
       </c>
       <c r="C87" t="n">
-        <v>0.221853</v>
+        <v>0.219409</v>
       </c>
       <c r="D87" t="n">
-        <v>0.221518</v>
+        <v>0.22213</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.216342</v>
+        <v>0.216757</v>
       </c>
       <c r="C88" t="n">
-        <v>0.220939</v>
+        <v>0.218231</v>
       </c>
       <c r="D88" t="n">
-        <v>0.220373</v>
+        <v>0.220818</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.211048</v>
+        <v>0.212495</v>
       </c>
       <c r="C89" t="n">
-        <v>0.219682</v>
+        <v>0.217194</v>
       </c>
       <c r="D89" t="n">
-        <v>0.219383</v>
+        <v>0.219845</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.204931</v>
+        <v>0.205263</v>
       </c>
       <c r="C90" t="n">
-        <v>0.21879</v>
+        <v>0.216226</v>
       </c>
       <c r="D90" t="n">
-        <v>0.218472</v>
+        <v>0.218949</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.198813</v>
+        <v>0.199203</v>
       </c>
       <c r="C91" t="n">
-        <v>0.217589</v>
+        <v>0.215256</v>
       </c>
       <c r="D91" t="n">
-        <v>0.217467</v>
+        <v>0.218069</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.191662</v>
+        <v>0.191846</v>
       </c>
       <c r="C92" t="n">
-        <v>0.216608</v>
+        <v>0.21395</v>
       </c>
       <c r="D92" t="n">
-        <v>0.21656</v>
+        <v>0.217044</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.184121</v>
+        <v>0.18369</v>
       </c>
       <c r="C93" t="n">
-        <v>0.215592</v>
+        <v>0.213182</v>
       </c>
       <c r="D93" t="n">
-        <v>0.215675</v>
+        <v>0.216197</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.175533</v>
+        <v>0.174364</v>
       </c>
       <c r="C94" t="n">
-        <v>0.214593</v>
+        <v>0.212227</v>
       </c>
       <c r="D94" t="n">
-        <v>0.230835</v>
+        <v>0.231319</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.248208</v>
+        <v>0.249353</v>
       </c>
       <c r="C95" t="n">
-        <v>0.231653</v>
+        <v>0.228864</v>
       </c>
       <c r="D95" t="n">
-        <v>0.229263</v>
+        <v>0.229619</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.245589</v>
+        <v>0.245681</v>
       </c>
       <c r="C96" t="n">
-        <v>0.230639</v>
+        <v>0.227634</v>
       </c>
       <c r="D96" t="n">
-        <v>0.227906</v>
+        <v>0.228256</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.241783</v>
+        <v>0.241563</v>
       </c>
       <c r="C97" t="n">
-        <v>0.228819</v>
+        <v>0.226542</v>
       </c>
       <c r="D97" t="n">
-        <v>0.226474</v>
+        <v>0.226911</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.237437</v>
+        <v>0.237807</v>
       </c>
       <c r="C98" t="n">
-        <v>0.227466</v>
+        <v>0.224343</v>
       </c>
       <c r="D98" t="n">
-        <v>0.225047</v>
+        <v>0.225647</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.23284</v>
+        <v>0.233061</v>
       </c>
       <c r="C99" t="n">
-        <v>0.225223</v>
+        <v>0.223441</v>
       </c>
       <c r="D99" t="n">
-        <v>0.223831</v>
+        <v>0.224427</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.228401</v>
+        <v>0.228307</v>
       </c>
       <c r="C100" t="n">
-        <v>0.224738</v>
+        <v>0.221694</v>
       </c>
       <c r="D100" t="n">
-        <v>0.22272</v>
+        <v>0.223186</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.222778</v>
+        <v>0.223565</v>
       </c>
       <c r="C101" t="n">
-        <v>0.223897</v>
+        <v>0.220706</v>
       </c>
       <c r="D101" t="n">
-        <v>0.221496</v>
+        <v>0.222024</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.218226</v>
+        <v>0.218069</v>
       </c>
       <c r="C102" t="n">
-        <v>0.222525</v>
+        <v>0.218875</v>
       </c>
       <c r="D102" t="n">
-        <v>0.220556</v>
+        <v>0.221084</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.212902</v>
+        <v>0.212831</v>
       </c>
       <c r="C103" t="n">
-        <v>0.221414</v>
+        <v>0.218256</v>
       </c>
       <c r="D103" t="n">
-        <v>0.219466</v>
+        <v>0.220186</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.206553</v>
+        <v>0.207174</v>
       </c>
       <c r="C104" t="n">
-        <v>0.220187</v>
+        <v>0.217325</v>
       </c>
       <c r="D104" t="n">
-        <v>0.218561</v>
+        <v>0.219304</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.200356</v>
+        <v>0.200163</v>
       </c>
       <c r="C105" t="n">
-        <v>0.219269</v>
+        <v>0.216377</v>
       </c>
       <c r="D105" t="n">
-        <v>0.217716</v>
+        <v>0.21827</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.193864</v>
+        <v>0.193395</v>
       </c>
       <c r="C106" t="n">
-        <v>0.218195</v>
+        <v>0.215294</v>
       </c>
       <c r="D106" t="n">
-        <v>0.216936</v>
+        <v>0.217393</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.186004</v>
+        <v>0.185576</v>
       </c>
       <c r="C107" t="n">
-        <v>0.216819</v>
+        <v>0.214445</v>
       </c>
       <c r="D107" t="n">
-        <v>0.216206</v>
+        <v>0.216645</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.177717</v>
+        <v>0.177286</v>
       </c>
       <c r="C108" t="n">
-        <v>0.215543</v>
+        <v>0.213389</v>
       </c>
       <c r="D108" t="n">
-        <v>0.231611</v>
+        <v>0.232009</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.167069</v>
+        <v>0.166699</v>
       </c>
       <c r="C109" t="n">
-        <v>0.214286</v>
+        <v>0.212276</v>
       </c>
       <c r="D109" t="n">
-        <v>0.229983</v>
+        <v>0.230538</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.245772</v>
+        <v>0.245949</v>
       </c>
       <c r="C110" t="n">
-        <v>0.228626</v>
+        <v>0.226018</v>
       </c>
       <c r="D110" t="n">
-        <v>0.228618</v>
+        <v>0.229164</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.242339</v>
+        <v>0.242276</v>
       </c>
       <c r="C111" t="n">
-        <v>0.227584</v>
+        <v>0.225043</v>
       </c>
       <c r="D111" t="n">
-        <v>0.227703</v>
+        <v>0.228131</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.238482</v>
+        <v>0.238224</v>
       </c>
       <c r="C112" t="n">
-        <v>0.226996</v>
+        <v>0.223695</v>
       </c>
       <c r="D112" t="n">
-        <v>0.226208</v>
+        <v>0.226665</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.234233</v>
+        <v>0.233946</v>
       </c>
       <c r="C113" t="n">
-        <v>0.225989</v>
+        <v>0.223183</v>
       </c>
       <c r="D113" t="n">
-        <v>0.225123</v>
+        <v>0.225546</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.229512</v>
+        <v>0.229126</v>
       </c>
       <c r="C114" t="n">
-        <v>0.22526</v>
+        <v>0.222228</v>
       </c>
       <c r="D114" t="n">
-        <v>0.223661</v>
+        <v>0.224216</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.224889</v>
+        <v>0.224409</v>
       </c>
       <c r="C115" t="n">
-        <v>0.224516</v>
+        <v>0.220572</v>
       </c>
       <c r="D115" t="n">
-        <v>0.222685</v>
+        <v>0.223051</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.219769</v>
+        <v>0.219219</v>
       </c>
       <c r="C116" t="n">
-        <v>0.223978</v>
+        <v>0.220879</v>
       </c>
       <c r="D116" t="n">
-        <v>0.221343</v>
+        <v>0.222002</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.21434</v>
+        <v>0.214267</v>
       </c>
       <c r="C117" t="n">
-        <v>0.222992</v>
+        <v>0.219563</v>
       </c>
       <c r="D117" t="n">
-        <v>0.220164</v>
+        <v>0.220931</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.208466</v>
+        <v>0.208231</v>
       </c>
       <c r="C118" t="n">
-        <v>0.221311</v>
+        <v>0.218877</v>
       </c>
       <c r="D118" t="n">
-        <v>0.219286</v>
+        <v>0.219804</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.201978</v>
+        <v>0.202228</v>
       </c>
       <c r="C119" t="n">
-        <v>0.220567</v>
+        <v>0.217784</v>
       </c>
       <c r="D119" t="n">
-        <v>0.218321</v>
+        <v>0.218903</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.195278</v>
+        <v>0.194607</v>
       </c>
       <c r="C120" t="n">
-        <v>0.219248</v>
+        <v>0.216586</v>
       </c>
       <c r="D120" t="n">
-        <v>0.217557</v>
+        <v>0.217891</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.187674</v>
+        <v>0.187417</v>
       </c>
       <c r="C121" t="n">
-        <v>0.218261</v>
+        <v>0.21557</v>
       </c>
       <c r="D121" t="n">
-        <v>0.21653</v>
+        <v>0.217068</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.179117</v>
+        <v>0.178208</v>
       </c>
       <c r="C122" t="n">
-        <v>0.216853</v>
+        <v>0.214802</v>
       </c>
       <c r="D122" t="n">
-        <v>0.215686</v>
+        <v>0.216258</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.169063</v>
+        <v>0.168791</v>
       </c>
       <c r="C123" t="n">
-        <v>0.215832</v>
+        <v>0.213304</v>
       </c>
       <c r="D123" t="n">
-        <v>0.230384</v>
+        <v>0.23065</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.246788</v>
+        <v>0.246726</v>
       </c>
       <c r="C124" t="n">
-        <v>0.228889</v>
+        <v>0.226302</v>
       </c>
       <c r="D124" t="n">
-        <v>0.228843</v>
+        <v>0.22929</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.243438</v>
+        <v>0.243336</v>
       </c>
       <c r="C125" t="n">
-        <v>0.227917</v>
+        <v>0.225326</v>
       </c>
       <c r="D125" t="n">
-        <v>0.227509</v>
+        <v>0.227922</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.242519</v>
+        <v>0.239694</v>
       </c>
       <c r="C126" t="n">
-        <v>0.227047</v>
+        <v>0.224413</v>
       </c>
       <c r="D126" t="n">
-        <v>0.226236</v>
+        <v>0.226662</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.235286</v>
+        <v>0.235642</v>
       </c>
       <c r="C127" t="n">
-        <v>0.226285</v>
+        <v>0.223768</v>
       </c>
       <c r="D127" t="n">
-        <v>0.224998</v>
+        <v>0.22548</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.230643</v>
+        <v>0.232518</v>
       </c>
       <c r="C128" t="n">
-        <v>0.225323</v>
+        <v>0.22213</v>
       </c>
       <c r="D128" t="n">
-        <v>0.223558</v>
+        <v>0.223953</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.227975</v>
+        <v>0.22572</v>
       </c>
       <c r="C129" t="n">
-        <v>0.224535</v>
+        <v>0.22144</v>
       </c>
       <c r="D129" t="n">
-        <v>0.222423</v>
+        <v>0.222672</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.222761</v>
+        <v>0.220578</v>
       </c>
       <c r="C130" t="n">
-        <v>0.223896</v>
+        <v>0.219834</v>
       </c>
       <c r="D130" t="n">
-        <v>0.221405</v>
+        <v>0.221689</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.217191</v>
+        <v>0.21522</v>
       </c>
       <c r="C131" t="n">
-        <v>0.222747</v>
+        <v>0.219628</v>
       </c>
       <c r="D131" t="n">
-        <v>0.220341</v>
+        <v>0.220666</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.210987</v>
+        <v>0.209696</v>
       </c>
       <c r="C132" t="n">
-        <v>0.221883</v>
+        <v>0.21795</v>
       </c>
       <c r="D132" t="n">
-        <v>0.219282</v>
+        <v>0.219663</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.20379</v>
+        <v>0.203365</v>
       </c>
       <c r="C133" t="n">
-        <v>0.220605</v>
+        <v>0.21811</v>
       </c>
       <c r="D133" t="n">
-        <v>0.21836</v>
+        <v>0.218825</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.196752</v>
+        <v>0.196935</v>
       </c>
       <c r="C134" t="n">
-        <v>0.219528</v>
+        <v>0.216773</v>
       </c>
       <c r="D134" t="n">
-        <v>0.217586</v>
+        <v>0.217961</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.18913</v>
+        <v>0.188562</v>
       </c>
       <c r="C135" t="n">
-        <v>0.218668</v>
+        <v>0.21472</v>
       </c>
       <c r="D135" t="n">
-        <v>0.216691</v>
+        <v>0.217084</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.180176</v>
+        <v>0.180481</v>
       </c>
       <c r="C136" t="n">
-        <v>0.217172</v>
+        <v>0.214648</v>
       </c>
       <c r="D136" t="n">
-        <v>0.215911</v>
+        <v>0.21629</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.170712</v>
+        <v>0.17054</v>
       </c>
       <c r="C137" t="n">
-        <v>0.215982</v>
+        <v>0.213555</v>
       </c>
       <c r="D137" t="n">
-        <v>0.230659</v>
+        <v>0.230833</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.247581</v>
+        <v>0.247263</v>
       </c>
       <c r="C138" t="n">
-        <v>0.229164</v>
+        <v>0.226552</v>
       </c>
       <c r="D138" t="n">
-        <v>0.229197</v>
+        <v>0.229346</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.244305</v>
+        <v>0.243919</v>
       </c>
       <c r="C139" t="n">
-        <v>0.228264</v>
+        <v>0.225419</v>
       </c>
       <c r="D139" t="n">
-        <v>0.227813</v>
+        <v>0.227983</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.240623</v>
+        <v>0.242667</v>
       </c>
       <c r="C140" t="n">
-        <v>0.227448</v>
+        <v>0.224437</v>
       </c>
       <c r="D140" t="n">
-        <v>0.226523</v>
+        <v>0.226739</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.236289</v>
+        <v>0.238772</v>
       </c>
       <c r="C141" t="n">
-        <v>0.226728</v>
+        <v>0.223721</v>
       </c>
       <c r="D141" t="n">
-        <v>0.225274</v>
+        <v>0.22546</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.231417</v>
+        <v>0.233874</v>
       </c>
       <c r="C142" t="n">
-        <v>0.226132</v>
+        <v>0.223105</v>
       </c>
       <c r="D142" t="n">
-        <v>0.223948</v>
+        <v>0.224329</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.226727</v>
+        <v>0.226732</v>
       </c>
       <c r="C143" t="n">
-        <v>0.225227</v>
+        <v>0.222256</v>
       </c>
       <c r="D143" t="n">
-        <v>0.222966</v>
+        <v>0.223256</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.197511</v>
+        <v>0.202605</v>
       </c>
       <c r="C2" t="n">
-        <v>0.199457</v>
+        <v>0.199275</v>
       </c>
       <c r="D2" t="n">
-        <v>0.204113</v>
+        <v>0.203518</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.19362</v>
+        <v>0.194</v>
       </c>
       <c r="C3" t="n">
-        <v>0.200157</v>
+        <v>0.200469</v>
       </c>
       <c r="D3" t="n">
-        <v>0.205266</v>
+        <v>0.205458</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.190015</v>
+        <v>0.187828</v>
       </c>
       <c r="C4" t="n">
-        <v>0.199223</v>
+        <v>0.200053</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2067</v>
+        <v>0.205635</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.181319</v>
+        <v>0.181446</v>
       </c>
       <c r="C5" t="n">
-        <v>0.19949</v>
+        <v>0.199711</v>
       </c>
       <c r="D5" t="n">
-        <v>0.206837</v>
+        <v>0.206223</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.17695</v>
+        <v>0.175928</v>
       </c>
       <c r="C6" t="n">
-        <v>0.198548</v>
+        <v>0.198304</v>
       </c>
       <c r="D6" t="n">
-        <v>0.205786</v>
+        <v>0.206323</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.169496</v>
+        <v>0.169834</v>
       </c>
       <c r="C7" t="n">
-        <v>0.199167</v>
+        <v>0.19915</v>
       </c>
       <c r="D7" t="n">
-        <v>0.205959</v>
+        <v>0.205662</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.162145</v>
+        <v>0.160852</v>
       </c>
       <c r="C8" t="n">
-        <v>0.199344</v>
+        <v>0.199404</v>
       </c>
       <c r="D8" t="n">
-        <v>0.206913</v>
+        <v>0.206001</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.151737</v>
+        <v>0.152061</v>
       </c>
       <c r="C9" t="n">
-        <v>0.200123</v>
+        <v>0.200113</v>
       </c>
       <c r="D9" t="n">
-        <v>0.22358</v>
+        <v>0.222182</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.231068</v>
+        <v>0.231287</v>
       </c>
       <c r="C10" t="n">
-        <v>0.21787</v>
+        <v>0.219081</v>
       </c>
       <c r="D10" t="n">
-        <v>0.221496</v>
+        <v>0.221256</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.228289</v>
+        <v>0.228213</v>
       </c>
       <c r="C11" t="n">
-        <v>0.217211</v>
+        <v>0.217749</v>
       </c>
       <c r="D11" t="n">
-        <v>0.221162</v>
+        <v>0.221127</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.225162</v>
+        <v>0.22615</v>
       </c>
       <c r="C12" t="n">
-        <v>0.217694</v>
+        <v>0.217319</v>
       </c>
       <c r="D12" t="n">
-        <v>0.221254</v>
+        <v>0.220577</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.222641</v>
+        <v>0.222831</v>
       </c>
       <c r="C13" t="n">
-        <v>0.216863</v>
+        <v>0.217301</v>
       </c>
       <c r="D13" t="n">
-        <v>0.221463</v>
+        <v>0.221133</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.220076</v>
+        <v>0.219065</v>
       </c>
       <c r="C14" t="n">
-        <v>0.215766</v>
+        <v>0.217099</v>
       </c>
       <c r="D14" t="n">
-        <v>0.220055</v>
+        <v>0.219178</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.216584</v>
+        <v>0.216048</v>
       </c>
       <c r="C15" t="n">
-        <v>0.215347</v>
+        <v>0.215853</v>
       </c>
       <c r="D15" t="n">
-        <v>0.219962</v>
+        <v>0.219071</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.211627</v>
+        <v>0.210843</v>
       </c>
       <c r="C16" t="n">
-        <v>0.214767</v>
+        <v>0.21444</v>
       </c>
       <c r="D16" t="n">
-        <v>0.218338</v>
+        <v>0.218107</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.206084</v>
+        <v>0.205431</v>
       </c>
       <c r="C17" t="n">
-        <v>0.212773</v>
+        <v>0.213461</v>
       </c>
       <c r="D17" t="n">
-        <v>0.218262</v>
+        <v>0.217767</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.201288</v>
+        <v>0.200672</v>
       </c>
       <c r="C18" t="n">
-        <v>0.212192</v>
+        <v>0.212176</v>
       </c>
       <c r="D18" t="n">
-        <v>0.217373</v>
+        <v>0.216546</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.196513</v>
+        <v>0.195495</v>
       </c>
       <c r="C19" t="n">
-        <v>0.21163</v>
+        <v>0.211651</v>
       </c>
       <c r="D19" t="n">
-        <v>0.216491</v>
+        <v>0.215621</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.189518</v>
+        <v>0.189265</v>
       </c>
       <c r="C20" t="n">
-        <v>0.210576</v>
+        <v>0.210788</v>
       </c>
       <c r="D20" t="n">
-        <v>0.216075</v>
+        <v>0.215078</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.183658</v>
+        <v>0.182842</v>
       </c>
       <c r="C21" t="n">
-        <v>0.209788</v>
+        <v>0.209883</v>
       </c>
       <c r="D21" t="n">
-        <v>0.215228</v>
+        <v>0.214376</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.175874</v>
+        <v>0.175695</v>
       </c>
       <c r="C22" t="n">
-        <v>0.208902</v>
+        <v>0.208842</v>
       </c>
       <c r="D22" t="n">
-        <v>0.214319</v>
+        <v>0.213628</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.164821</v>
+        <v>0.165867</v>
       </c>
       <c r="C23" t="n">
-        <v>0.207896</v>
+        <v>0.207913</v>
       </c>
       <c r="D23" t="n">
-        <v>0.227676</v>
+        <v>0.227195</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.239306</v>
+        <v>0.239716</v>
       </c>
       <c r="C24" t="n">
-        <v>0.222526</v>
+        <v>0.222833</v>
       </c>
       <c r="D24" t="n">
-        <v>0.226666</v>
+        <v>0.226428</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.236729</v>
+        <v>0.236765</v>
       </c>
       <c r="C25" t="n">
-        <v>0.221241</v>
+        <v>0.220823</v>
       </c>
       <c r="D25" t="n">
-        <v>0.225364</v>
+        <v>0.224542</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.232448</v>
+        <v>0.232652</v>
       </c>
       <c r="C26" t="n">
-        <v>0.220057</v>
+        <v>0.220068</v>
       </c>
       <c r="D26" t="n">
-        <v>0.224275</v>
+        <v>0.2237</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.230579</v>
+        <v>0.230698</v>
       </c>
       <c r="C27" t="n">
-        <v>0.219412</v>
+        <v>0.219173</v>
       </c>
       <c r="D27" t="n">
-        <v>0.22367</v>
+        <v>0.222956</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.226083</v>
+        <v>0.226358</v>
       </c>
       <c r="C28" t="n">
-        <v>0.218331</v>
+        <v>0.218012</v>
       </c>
       <c r="D28" t="n">
-        <v>0.222672</v>
+        <v>0.221926</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.22197</v>
+        <v>0.223229</v>
       </c>
       <c r="C29" t="n">
-        <v>0.216526</v>
+        <v>0.216933</v>
       </c>
       <c r="D29" t="n">
-        <v>0.221438</v>
+        <v>0.220679</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.216061</v>
+        <v>0.217323</v>
       </c>
       <c r="C30" t="n">
-        <v>0.215732</v>
+        <v>0.215545</v>
       </c>
       <c r="D30" t="n">
-        <v>0.220159</v>
+        <v>0.219465</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.211368</v>
+        <v>0.212242</v>
       </c>
       <c r="C31" t="n">
-        <v>0.214856</v>
+        <v>0.214723</v>
       </c>
       <c r="D31" t="n">
-        <v>0.219306</v>
+        <v>0.218738</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.205652</v>
+        <v>0.206526</v>
       </c>
       <c r="C32" t="n">
-        <v>0.214809</v>
+        <v>0.214498</v>
       </c>
       <c r="D32" t="n">
-        <v>0.219008</v>
+        <v>0.218399</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.199805</v>
+        <v>0.199718</v>
       </c>
       <c r="C33" t="n">
-        <v>0.213697</v>
+        <v>0.213745</v>
       </c>
       <c r="D33" t="n">
-        <v>0.218072</v>
+        <v>0.217597</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.194261</v>
+        <v>0.194137</v>
       </c>
       <c r="C34" t="n">
-        <v>0.212787</v>
+        <v>0.212588</v>
       </c>
       <c r="D34" t="n">
-        <v>0.217029</v>
+        <v>0.216615</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.188441</v>
+        <v>0.188275</v>
       </c>
       <c r="C35" t="n">
-        <v>0.211739</v>
+        <v>0.211819</v>
       </c>
       <c r="D35" t="n">
-        <v>0.216427</v>
+        <v>0.215874</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180016</v>
+        <v>0.180238</v>
       </c>
       <c r="C36" t="n">
-        <v>0.210592</v>
+        <v>0.211304</v>
       </c>
       <c r="D36" t="n">
-        <v>0.215647</v>
+        <v>0.215331</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.171009</v>
+        <v>0.171225</v>
       </c>
       <c r="C37" t="n">
-        <v>0.209956</v>
+        <v>0.20987</v>
       </c>
       <c r="D37" t="n">
-        <v>0.229544</v>
+        <v>0.229293</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.243659</v>
+        <v>0.244389</v>
       </c>
       <c r="C38" t="n">
-        <v>0.224974</v>
+        <v>0.22532</v>
       </c>
       <c r="D38" t="n">
-        <v>0.22843</v>
+        <v>0.22805</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.240799</v>
+        <v>0.24122</v>
       </c>
       <c r="C39" t="n">
-        <v>0.22371</v>
+        <v>0.223827</v>
       </c>
       <c r="D39" t="n">
-        <v>0.226737</v>
+        <v>0.226307</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.237756</v>
+        <v>0.237709</v>
       </c>
       <c r="C40" t="n">
-        <v>0.22194</v>
+        <v>0.222133</v>
       </c>
       <c r="D40" t="n">
-        <v>0.225596</v>
+        <v>0.225041</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.233771</v>
+        <v>0.233985</v>
       </c>
       <c r="C41" t="n">
-        <v>0.22076</v>
+        <v>0.220827</v>
       </c>
       <c r="D41" t="n">
-        <v>0.22402</v>
+        <v>0.223908</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.229539</v>
+        <v>0.229482</v>
       </c>
       <c r="C42" t="n">
-        <v>0.219261</v>
+        <v>0.219141</v>
       </c>
       <c r="D42" t="n">
-        <v>0.222405</v>
+        <v>0.222168</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.22445</v>
+        <v>0.22423</v>
       </c>
       <c r="C43" t="n">
-        <v>0.217858</v>
+        <v>0.21784</v>
       </c>
       <c r="D43" t="n">
-        <v>0.221236</v>
+        <v>0.221299</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.220305</v>
+        <v>0.220163</v>
       </c>
       <c r="C44" t="n">
-        <v>0.21706</v>
+        <v>0.216839</v>
       </c>
       <c r="D44" t="n">
-        <v>0.220659</v>
+        <v>0.220733</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.216354</v>
+        <v>0.215881</v>
       </c>
       <c r="C45" t="n">
-        <v>0.216584</v>
+        <v>0.216283</v>
       </c>
       <c r="D45" t="n">
-        <v>0.220005</v>
+        <v>0.219776</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.210561</v>
+        <v>0.210629</v>
       </c>
       <c r="C46" t="n">
-        <v>0.215411</v>
+        <v>0.215173</v>
       </c>
       <c r="D46" t="n">
-        <v>0.218884</v>
+        <v>0.218534</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.204057</v>
+        <v>0.203777</v>
       </c>
       <c r="C47" t="n">
-        <v>0.214889</v>
+        <v>0.214483</v>
       </c>
       <c r="D47" t="n">
-        <v>0.217896</v>
+        <v>0.217513</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.198545</v>
+        <v>0.198195</v>
       </c>
       <c r="C48" t="n">
-        <v>0.213549</v>
+        <v>0.213197</v>
       </c>
       <c r="D48" t="n">
-        <v>0.217162</v>
+        <v>0.21683</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.192465</v>
+        <v>0.191635</v>
       </c>
       <c r="C49" t="n">
-        <v>0.213042</v>
+        <v>0.212497</v>
       </c>
       <c r="D49" t="n">
-        <v>0.216525</v>
+        <v>0.216287</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.184617</v>
+        <v>0.183766</v>
       </c>
       <c r="C50" t="n">
-        <v>0.21215</v>
+        <v>0.21178</v>
       </c>
       <c r="D50" t="n">
-        <v>0.215786</v>
+        <v>0.21552</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.175857</v>
+        <v>0.175403</v>
       </c>
       <c r="C51" t="n">
-        <v>0.211068</v>
+        <v>0.211015</v>
       </c>
       <c r="D51" t="n">
-        <v>0.230538</v>
+        <v>0.23019</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.165662</v>
+        <v>0.164968</v>
       </c>
       <c r="C52" t="n">
-        <v>0.210674</v>
+        <v>0.210154</v>
       </c>
       <c r="D52" t="n">
-        <v>0.228842</v>
+        <v>0.228785</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.245477</v>
+        <v>0.245111</v>
       </c>
       <c r="C53" t="n">
-        <v>0.224931</v>
+        <v>0.224492</v>
       </c>
       <c r="D53" t="n">
-        <v>0.228071</v>
+        <v>0.227687</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.241485</v>
+        <v>0.241609</v>
       </c>
       <c r="C54" t="n">
-        <v>0.223321</v>
+        <v>0.223127</v>
       </c>
       <c r="D54" t="n">
-        <v>0.226422</v>
+        <v>0.226398</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.238536</v>
+        <v>0.238247</v>
       </c>
       <c r="C55" t="n">
-        <v>0.222109</v>
+        <v>0.221962</v>
       </c>
       <c r="D55" t="n">
-        <v>0.225476</v>
+        <v>0.225279</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.233821</v>
+        <v>0.233537</v>
       </c>
       <c r="C56" t="n">
-        <v>0.22079</v>
+        <v>0.220695</v>
       </c>
       <c r="D56" t="n">
-        <v>0.224008</v>
+        <v>0.223878</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.228499</v>
+        <v>0.228542</v>
       </c>
       <c r="C57" t="n">
-        <v>0.219544</v>
+        <v>0.219495</v>
       </c>
       <c r="D57" t="n">
-        <v>0.223023</v>
+        <v>0.222779</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.223016</v>
+        <v>0.223455</v>
       </c>
       <c r="C58" t="n">
-        <v>0.218288</v>
+        <v>0.218271</v>
       </c>
       <c r="D58" t="n">
-        <v>0.221576</v>
+        <v>0.221478</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.218695</v>
+        <v>0.218434</v>
       </c>
       <c r="C59" t="n">
-        <v>0.217341</v>
+        <v>0.217252</v>
       </c>
       <c r="D59" t="n">
-        <v>0.220668</v>
+        <v>0.220516</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.213012</v>
+        <v>0.213513</v>
       </c>
       <c r="C60" t="n">
-        <v>0.216317</v>
+        <v>0.216251</v>
       </c>
       <c r="D60" t="n">
-        <v>0.219687</v>
+        <v>0.2195</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.206767</v>
+        <v>0.206688</v>
       </c>
       <c r="C61" t="n">
-        <v>0.215616</v>
+        <v>0.21541</v>
       </c>
       <c r="D61" t="n">
-        <v>0.219063</v>
+        <v>0.218759</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.20092</v>
+        <v>0.200551</v>
       </c>
       <c r="C62" t="n">
-        <v>0.214772</v>
+        <v>0.214706</v>
       </c>
       <c r="D62" t="n">
-        <v>0.21819</v>
+        <v>0.21792</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.19451</v>
+        <v>0.194936</v>
       </c>
       <c r="C63" t="n">
-        <v>0.213837</v>
+        <v>0.213977</v>
       </c>
       <c r="D63" t="n">
-        <v>0.217173</v>
+        <v>0.217206</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.187586</v>
+        <v>0.186898</v>
       </c>
       <c r="C64" t="n">
-        <v>0.213107</v>
+        <v>0.213272</v>
       </c>
       <c r="D64" t="n">
-        <v>0.216655</v>
+        <v>0.216461</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.179549</v>
+        <v>0.179209</v>
       </c>
       <c r="C65" t="n">
-        <v>0.212388</v>
+        <v>0.21263</v>
       </c>
       <c r="D65" t="n">
-        <v>0.216229</v>
+        <v>0.216003</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.169994</v>
+        <v>0.169913</v>
       </c>
       <c r="C66" t="n">
-        <v>0.211254</v>
+        <v>0.211711</v>
       </c>
       <c r="D66" t="n">
-        <v>0.230408</v>
+        <v>0.230033</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.247989</v>
+        <v>0.246719</v>
       </c>
       <c r="C67" t="n">
-        <v>0.225629</v>
+        <v>0.225465</v>
       </c>
       <c r="D67" t="n">
-        <v>0.229048</v>
+        <v>0.228805</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.244006</v>
+        <v>0.244855</v>
       </c>
       <c r="C68" t="n">
-        <v>0.224237</v>
+        <v>0.224112</v>
       </c>
       <c r="D68" t="n">
-        <v>0.227545</v>
+        <v>0.227355</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.240828</v>
+        <v>0.240086</v>
       </c>
       <c r="C69" t="n">
-        <v>0.222771</v>
+        <v>0.222431</v>
       </c>
       <c r="D69" t="n">
-        <v>0.226099</v>
+        <v>0.225946</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.235344</v>
+        <v>0.235259</v>
       </c>
       <c r="C70" t="n">
-        <v>0.221592</v>
+        <v>0.221423</v>
       </c>
       <c r="D70" t="n">
-        <v>0.224698</v>
+        <v>0.224479</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.230419</v>
+        <v>0.230117</v>
       </c>
       <c r="C71" t="n">
-        <v>0.220552</v>
+        <v>0.220322</v>
       </c>
       <c r="D71" t="n">
-        <v>0.223725</v>
+        <v>0.223528</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.225698</v>
+        <v>0.22521</v>
       </c>
       <c r="C72" t="n">
-        <v>0.219618</v>
+        <v>0.219415</v>
       </c>
       <c r="D72" t="n">
-        <v>0.22272</v>
+        <v>0.222518</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.220399</v>
+        <v>0.220482</v>
       </c>
       <c r="C73" t="n">
-        <v>0.218521</v>
+        <v>0.21845</v>
       </c>
       <c r="D73" t="n">
-        <v>0.221585</v>
+        <v>0.221421</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.215288</v>
+        <v>0.21677</v>
       </c>
       <c r="C74" t="n">
-        <v>0.217665</v>
+        <v>0.217458</v>
       </c>
       <c r="D74" t="n">
-        <v>0.220682</v>
+        <v>0.220411</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.209763</v>
+        <v>0.20947</v>
       </c>
       <c r="C75" t="n">
-        <v>0.21669</v>
+        <v>0.216623</v>
       </c>
       <c r="D75" t="n">
-        <v>0.219644</v>
+        <v>0.219593</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.203563</v>
+        <v>0.203621</v>
       </c>
       <c r="C76" t="n">
-        <v>0.215774</v>
+        <v>0.215433</v>
       </c>
       <c r="D76" t="n">
-        <v>0.218845</v>
+        <v>0.218544</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.19727</v>
+        <v>0.197586</v>
       </c>
       <c r="C77" t="n">
-        <v>0.214918</v>
+        <v>0.214517</v>
       </c>
       <c r="D77" t="n">
-        <v>0.217915</v>
+        <v>0.217806</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.190637</v>
+        <v>0.189903</v>
       </c>
       <c r="C78" t="n">
-        <v>0.213925</v>
+        <v>0.213693</v>
       </c>
       <c r="D78" t="n">
-        <v>0.217324</v>
+        <v>0.216983</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.182261</v>
+        <v>0.181897</v>
       </c>
       <c r="C79" t="n">
-        <v>0.212812</v>
+        <v>0.212715</v>
       </c>
       <c r="D79" t="n">
-        <v>0.216331</v>
+        <v>0.216228</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.172107</v>
+        <v>0.172104</v>
       </c>
       <c r="C80" t="n">
-        <v>0.211968</v>
+        <v>0.211819</v>
       </c>
       <c r="D80" t="n">
-        <v>0.230905</v>
+        <v>0.23075</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.247375</v>
+        <v>0.24735</v>
       </c>
       <c r="C81" t="n">
-        <v>0.226176</v>
+        <v>0.226354</v>
       </c>
       <c r="D81" t="n">
-        <v>0.229507</v>
+        <v>0.229283</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.24397</v>
+        <v>0.243915</v>
       </c>
       <c r="C82" t="n">
-        <v>0.224833</v>
+        <v>0.224903</v>
       </c>
       <c r="D82" t="n">
-        <v>0.227754</v>
+        <v>0.227716</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.240518</v>
+        <v>0.240584</v>
       </c>
       <c r="C83" t="n">
-        <v>0.223588</v>
+        <v>0.223817</v>
       </c>
       <c r="D83" t="n">
-        <v>0.226576</v>
+        <v>0.226423</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.236254</v>
+        <v>0.236126</v>
       </c>
       <c r="C84" t="n">
-        <v>0.222376</v>
+        <v>0.222434</v>
       </c>
       <c r="D84" t="n">
-        <v>0.225407</v>
+        <v>0.225186</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.231765</v>
+        <v>0.23171</v>
       </c>
       <c r="C85" t="n">
-        <v>0.221326</v>
+        <v>0.221431</v>
       </c>
       <c r="D85" t="n">
-        <v>0.224086</v>
+        <v>0.223881</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.226966</v>
+        <v>0.226849</v>
       </c>
       <c r="C86" t="n">
-        <v>0.220218</v>
+        <v>0.22011</v>
       </c>
       <c r="D86" t="n">
-        <v>0.222914</v>
+        <v>0.222678</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.222124</v>
+        <v>0.221895</v>
       </c>
       <c r="C87" t="n">
-        <v>0.219409</v>
+        <v>0.219265</v>
       </c>
       <c r="D87" t="n">
-        <v>0.22213</v>
+        <v>0.221822</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.216757</v>
+        <v>0.216676</v>
       </c>
       <c r="C88" t="n">
-        <v>0.218231</v>
+        <v>0.218167</v>
       </c>
       <c r="D88" t="n">
-        <v>0.220818</v>
+        <v>0.220643</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.212495</v>
+        <v>0.211228</v>
       </c>
       <c r="C89" t="n">
-        <v>0.217194</v>
+        <v>0.2172</v>
       </c>
       <c r="D89" t="n">
-        <v>0.219845</v>
+        <v>0.219691</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.205263</v>
+        <v>0.20545</v>
       </c>
       <c r="C90" t="n">
-        <v>0.216226</v>
+        <v>0.21612</v>
       </c>
       <c r="D90" t="n">
-        <v>0.218949</v>
+        <v>0.2188</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.199203</v>
+        <v>0.198967</v>
       </c>
       <c r="C91" t="n">
-        <v>0.215256</v>
+        <v>0.215118</v>
       </c>
       <c r="D91" t="n">
-        <v>0.218069</v>
+        <v>0.217875</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.191846</v>
+        <v>0.191601</v>
       </c>
       <c r="C92" t="n">
-        <v>0.21395</v>
+        <v>0.214063</v>
       </c>
       <c r="D92" t="n">
-        <v>0.217044</v>
+        <v>0.216853</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.18369</v>
+        <v>0.183985</v>
       </c>
       <c r="C93" t="n">
-        <v>0.213182</v>
+        <v>0.213211</v>
       </c>
       <c r="D93" t="n">
-        <v>0.216197</v>
+        <v>0.21609</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.174364</v>
+        <v>0.174482</v>
       </c>
       <c r="C94" t="n">
-        <v>0.212227</v>
+        <v>0.212095</v>
       </c>
       <c r="D94" t="n">
-        <v>0.231319</v>
+        <v>0.231047</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.249353</v>
+        <v>0.248157</v>
       </c>
       <c r="C95" t="n">
-        <v>0.228864</v>
+        <v>0.228635</v>
       </c>
       <c r="D95" t="n">
-        <v>0.229619</v>
+        <v>0.229443</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.245681</v>
+        <v>0.245737</v>
       </c>
       <c r="C96" t="n">
-        <v>0.227634</v>
+        <v>0.227372</v>
       </c>
       <c r="D96" t="n">
-        <v>0.228256</v>
+        <v>0.228033</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.241563</v>
+        <v>0.244565</v>
       </c>
       <c r="C97" t="n">
-        <v>0.226542</v>
+        <v>0.226379</v>
       </c>
       <c r="D97" t="n">
-        <v>0.226911</v>
+        <v>0.226693</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.237807</v>
+        <v>0.240346</v>
       </c>
       <c r="C98" t="n">
-        <v>0.224343</v>
+        <v>0.224673</v>
       </c>
       <c r="D98" t="n">
-        <v>0.225647</v>
+        <v>0.225447</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.233061</v>
+        <v>0.234692</v>
       </c>
       <c r="C99" t="n">
-        <v>0.223441</v>
+        <v>0.223192</v>
       </c>
       <c r="D99" t="n">
-        <v>0.224427</v>
+        <v>0.224293</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.228307</v>
+        <v>0.228262</v>
       </c>
       <c r="C100" t="n">
-        <v>0.221694</v>
+        <v>0.221658</v>
       </c>
       <c r="D100" t="n">
-        <v>0.223186</v>
+        <v>0.223289</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.223565</v>
+        <v>0.223119</v>
       </c>
       <c r="C101" t="n">
-        <v>0.220706</v>
+        <v>0.220379</v>
       </c>
       <c r="D101" t="n">
-        <v>0.222024</v>
+        <v>0.222133</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.218069</v>
+        <v>0.217853</v>
       </c>
       <c r="C102" t="n">
-        <v>0.218875</v>
+        <v>0.218937</v>
       </c>
       <c r="D102" t="n">
-        <v>0.221084</v>
+        <v>0.220905</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.212831</v>
+        <v>0.214163</v>
       </c>
       <c r="C103" t="n">
-        <v>0.218256</v>
+        <v>0.218395</v>
       </c>
       <c r="D103" t="n">
-        <v>0.220186</v>
+        <v>0.220145</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.207174</v>
+        <v>0.208192</v>
       </c>
       <c r="C104" t="n">
-        <v>0.217325</v>
+        <v>0.216854</v>
       </c>
       <c r="D104" t="n">
-        <v>0.219304</v>
+        <v>0.219136</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.200163</v>
+        <v>0.200537</v>
       </c>
       <c r="C105" t="n">
-        <v>0.216377</v>
+        <v>0.216614</v>
       </c>
       <c r="D105" t="n">
-        <v>0.21827</v>
+        <v>0.218354</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.193395</v>
+        <v>0.194047</v>
       </c>
       <c r="C106" t="n">
-        <v>0.215294</v>
+        <v>0.215116</v>
       </c>
       <c r="D106" t="n">
-        <v>0.217393</v>
+        <v>0.217378</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.185576</v>
+        <v>0.186128</v>
       </c>
       <c r="C107" t="n">
-        <v>0.214445</v>
+        <v>0.214181</v>
       </c>
       <c r="D107" t="n">
-        <v>0.216645</v>
+        <v>0.216553</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.177286</v>
+        <v>0.177112</v>
       </c>
       <c r="C108" t="n">
-        <v>0.213389</v>
+        <v>0.213163</v>
       </c>
       <c r="D108" t="n">
-        <v>0.232009</v>
+        <v>0.231852</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.166699</v>
+        <v>0.166555</v>
       </c>
       <c r="C109" t="n">
-        <v>0.212276</v>
+        <v>0.21191</v>
       </c>
       <c r="D109" t="n">
-        <v>0.230538</v>
+        <v>0.230346</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.245949</v>
+        <v>0.246029</v>
       </c>
       <c r="C110" t="n">
-        <v>0.226018</v>
+        <v>0.226016</v>
       </c>
       <c r="D110" t="n">
-        <v>0.229164</v>
+        <v>0.228954</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.242276</v>
+        <v>0.242201</v>
       </c>
       <c r="C111" t="n">
-        <v>0.225043</v>
+        <v>0.224927</v>
       </c>
       <c r="D111" t="n">
-        <v>0.228131</v>
+        <v>0.228043</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.238224</v>
+        <v>0.238128</v>
       </c>
       <c r="C112" t="n">
-        <v>0.223695</v>
+        <v>0.22349</v>
       </c>
       <c r="D112" t="n">
-        <v>0.226665</v>
+        <v>0.226711</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.233946</v>
+        <v>0.233968</v>
       </c>
       <c r="C113" t="n">
-        <v>0.223183</v>
+        <v>0.22326</v>
       </c>
       <c r="D113" t="n">
-        <v>0.225546</v>
+        <v>0.22555</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.229126</v>
+        <v>0.229302</v>
       </c>
       <c r="C114" t="n">
-        <v>0.222228</v>
+        <v>0.222081</v>
       </c>
       <c r="D114" t="n">
-        <v>0.224216</v>
+        <v>0.224317</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.224409</v>
+        <v>0.224376</v>
       </c>
       <c r="C115" t="n">
-        <v>0.220572</v>
+        <v>0.221538</v>
       </c>
       <c r="D115" t="n">
-        <v>0.223051</v>
+        <v>0.223221</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.219219</v>
+        <v>0.219427</v>
       </c>
       <c r="C116" t="n">
-        <v>0.220879</v>
+        <v>0.220759</v>
       </c>
       <c r="D116" t="n">
-        <v>0.222002</v>
+        <v>0.222166</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.214267</v>
+        <v>0.214099</v>
       </c>
       <c r="C117" t="n">
-        <v>0.219563</v>
+        <v>0.219821</v>
       </c>
       <c r="D117" t="n">
-        <v>0.220931</v>
+        <v>0.221022</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.208231</v>
+        <v>0.208061</v>
       </c>
       <c r="C118" t="n">
-        <v>0.218877</v>
+        <v>0.217435</v>
       </c>
       <c r="D118" t="n">
-        <v>0.219804</v>
+        <v>0.219936</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.202228</v>
+        <v>0.201909</v>
       </c>
       <c r="C119" t="n">
-        <v>0.217784</v>
+        <v>0.21617</v>
       </c>
       <c r="D119" t="n">
-        <v>0.218903</v>
+        <v>0.218784</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.194607</v>
+        <v>0.194769</v>
       </c>
       <c r="C120" t="n">
-        <v>0.216586</v>
+        <v>0.216604</v>
       </c>
       <c r="D120" t="n">
-        <v>0.217891</v>
+        <v>0.218084</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.187417</v>
+        <v>0.186935</v>
       </c>
       <c r="C121" t="n">
-        <v>0.21557</v>
+        <v>0.214087</v>
       </c>
       <c r="D121" t="n">
-        <v>0.217068</v>
+        <v>0.217116</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.178208</v>
+        <v>0.178376</v>
       </c>
       <c r="C122" t="n">
-        <v>0.214802</v>
+        <v>0.213233</v>
       </c>
       <c r="D122" t="n">
-        <v>0.216258</v>
+        <v>0.216283</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.168791</v>
+        <v>0.167793</v>
       </c>
       <c r="C123" t="n">
-        <v>0.213304</v>
+        <v>0.213401</v>
       </c>
       <c r="D123" t="n">
-        <v>0.23065</v>
+        <v>0.230709</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.246726</v>
+        <v>0.246759</v>
       </c>
       <c r="C124" t="n">
-        <v>0.226302</v>
+        <v>0.226533</v>
       </c>
       <c r="D124" t="n">
-        <v>0.22929</v>
+        <v>0.229243</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.243336</v>
+        <v>0.24383</v>
       </c>
       <c r="C125" t="n">
-        <v>0.225326</v>
+        <v>0.22559</v>
       </c>
       <c r="D125" t="n">
-        <v>0.227922</v>
+        <v>0.228004</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.239694</v>
+        <v>0.239798</v>
       </c>
       <c r="C126" t="n">
-        <v>0.224413</v>
+        <v>0.224615</v>
       </c>
       <c r="D126" t="n">
-        <v>0.226662</v>
+        <v>0.226698</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.235642</v>
+        <v>0.237853</v>
       </c>
       <c r="C127" t="n">
-        <v>0.223768</v>
+        <v>0.223649</v>
       </c>
       <c r="D127" t="n">
-        <v>0.22548</v>
+        <v>0.225391</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.232518</v>
+        <v>0.231362</v>
       </c>
       <c r="C128" t="n">
-        <v>0.22213</v>
+        <v>0.222572</v>
       </c>
       <c r="D128" t="n">
-        <v>0.223953</v>
+        <v>0.224039</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.22572</v>
+        <v>0.22759</v>
       </c>
       <c r="C129" t="n">
-        <v>0.22144</v>
+        <v>0.221491</v>
       </c>
       <c r="D129" t="n">
-        <v>0.222672</v>
+        <v>0.222963</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.220578</v>
+        <v>0.220425</v>
       </c>
       <c r="C130" t="n">
-        <v>0.219834</v>
+        <v>0.220817</v>
       </c>
       <c r="D130" t="n">
-        <v>0.221689</v>
+        <v>0.221865</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.21522</v>
+        <v>0.215018</v>
       </c>
       <c r="C131" t="n">
-        <v>0.219628</v>
+        <v>0.219594</v>
       </c>
       <c r="D131" t="n">
-        <v>0.220666</v>
+        <v>0.22078</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.209696</v>
+        <v>0.20925</v>
       </c>
       <c r="C132" t="n">
-        <v>0.21795</v>
+        <v>0.218045</v>
       </c>
       <c r="D132" t="n">
-        <v>0.219663</v>
+        <v>0.219821</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.203365</v>
+        <v>0.203187</v>
       </c>
       <c r="C133" t="n">
-        <v>0.21811</v>
+        <v>0.216759</v>
       </c>
       <c r="D133" t="n">
-        <v>0.218825</v>
+        <v>0.218947</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.196935</v>
+        <v>0.196029</v>
       </c>
       <c r="C134" t="n">
-        <v>0.216773</v>
+        <v>0.21507</v>
       </c>
       <c r="D134" t="n">
-        <v>0.217961</v>
+        <v>0.218011</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.188562</v>
+        <v>0.188383</v>
       </c>
       <c r="C135" t="n">
-        <v>0.21472</v>
+        <v>0.213949</v>
       </c>
       <c r="D135" t="n">
-        <v>0.217084</v>
+        <v>0.217156</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.180481</v>
+        <v>0.18024</v>
       </c>
       <c r="C136" t="n">
-        <v>0.214648</v>
+        <v>0.213617</v>
       </c>
       <c r="D136" t="n">
-        <v>0.21629</v>
+        <v>0.216397</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.17054</v>
+        <v>0.170653</v>
       </c>
       <c r="C137" t="n">
-        <v>0.213555</v>
+        <v>0.212639</v>
       </c>
       <c r="D137" t="n">
-        <v>0.230833</v>
+        <v>0.230797</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.247263</v>
+        <v>0.247489</v>
       </c>
       <c r="C138" t="n">
-        <v>0.226552</v>
+        <v>0.226379</v>
       </c>
       <c r="D138" t="n">
-        <v>0.229346</v>
+        <v>0.229394</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.243919</v>
+        <v>0.24408</v>
       </c>
       <c r="C139" t="n">
-        <v>0.225419</v>
+        <v>0.22539</v>
       </c>
       <c r="D139" t="n">
-        <v>0.227983</v>
+        <v>0.228019</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.242667</v>
+        <v>0.240276</v>
       </c>
       <c r="C140" t="n">
-        <v>0.224437</v>
+        <v>0.224472</v>
       </c>
       <c r="D140" t="n">
-        <v>0.226739</v>
+        <v>0.226884</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.238772</v>
+        <v>0.235994</v>
       </c>
       <c r="C141" t="n">
-        <v>0.223721</v>
+        <v>0.223893</v>
       </c>
       <c r="D141" t="n">
-        <v>0.22546</v>
+        <v>0.225563</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.233874</v>
+        <v>0.234075</v>
       </c>
       <c r="C142" t="n">
-        <v>0.223105</v>
+        <v>0.223236</v>
       </c>
       <c r="D142" t="n">
-        <v>0.224329</v>
+        <v>0.224394</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.226732</v>
+        <v>0.227693</v>
       </c>
       <c r="C143" t="n">
-        <v>0.222256</v>
+        <v>0.222274</v>
       </c>
       <c r="D143" t="n">
-        <v>0.223256</v>
+        <v>0.223443</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.202605</v>
+        <v>0.201241</v>
       </c>
       <c r="C2" t="n">
-        <v>0.199275</v>
+        <v>0.201145</v>
       </c>
       <c r="D2" t="n">
-        <v>0.203518</v>
+        <v>0.203063</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.194</v>
+        <v>0.192413</v>
       </c>
       <c r="C3" t="n">
-        <v>0.200469</v>
+        <v>0.202267</v>
       </c>
       <c r="D3" t="n">
-        <v>0.205458</v>
+        <v>0.20392</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.187828</v>
+        <v>0.189013</v>
       </c>
       <c r="C4" t="n">
-        <v>0.200053</v>
+        <v>0.203067</v>
       </c>
       <c r="D4" t="n">
-        <v>0.205635</v>
+        <v>0.205725</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.181446</v>
+        <v>0.181274</v>
       </c>
       <c r="C5" t="n">
-        <v>0.199711</v>
+        <v>0.203138</v>
       </c>
       <c r="D5" t="n">
-        <v>0.206223</v>
+        <v>0.206546</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.175928</v>
+        <v>0.173871</v>
       </c>
       <c r="C6" t="n">
-        <v>0.198304</v>
+        <v>0.201322</v>
       </c>
       <c r="D6" t="n">
-        <v>0.206323</v>
+        <v>0.206005</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.169834</v>
+        <v>0.167698</v>
       </c>
       <c r="C7" t="n">
-        <v>0.19915</v>
+        <v>0.202385</v>
       </c>
       <c r="D7" t="n">
-        <v>0.205662</v>
+        <v>0.205242</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.160852</v>
+        <v>0.159561</v>
       </c>
       <c r="C8" t="n">
-        <v>0.199404</v>
+        <v>0.202393</v>
       </c>
       <c r="D8" t="n">
-        <v>0.206001</v>
+        <v>0.207252</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.152061</v>
+        <v>0.150291</v>
       </c>
       <c r="C9" t="n">
-        <v>0.200113</v>
+        <v>0.202757</v>
       </c>
       <c r="D9" t="n">
-        <v>0.222182</v>
+        <v>0.220702</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.231287</v>
+        <v>0.232322</v>
       </c>
       <c r="C10" t="n">
-        <v>0.219081</v>
+        <v>0.221908</v>
       </c>
       <c r="D10" t="n">
-        <v>0.221256</v>
+        <v>0.219946</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.228213</v>
+        <v>0.232075</v>
       </c>
       <c r="C11" t="n">
-        <v>0.217749</v>
+        <v>0.221027</v>
       </c>
       <c r="D11" t="n">
-        <v>0.221127</v>
+        <v>0.220877</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.22615</v>
+        <v>0.23084</v>
       </c>
       <c r="C12" t="n">
-        <v>0.217319</v>
+        <v>0.221015</v>
       </c>
       <c r="D12" t="n">
-        <v>0.220577</v>
+        <v>0.220282</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.222831</v>
+        <v>0.225363</v>
       </c>
       <c r="C13" t="n">
-        <v>0.217301</v>
+        <v>0.220836</v>
       </c>
       <c r="D13" t="n">
-        <v>0.221133</v>
+        <v>0.22001</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.219065</v>
+        <v>0.221181</v>
       </c>
       <c r="C14" t="n">
-        <v>0.217099</v>
+        <v>0.219493</v>
       </c>
       <c r="D14" t="n">
-        <v>0.219178</v>
+        <v>0.219187</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.216048</v>
+        <v>0.217249</v>
       </c>
       <c r="C15" t="n">
-        <v>0.215853</v>
+        <v>0.219003</v>
       </c>
       <c r="D15" t="n">
-        <v>0.219071</v>
+        <v>0.218726</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.210843</v>
+        <v>0.211581</v>
       </c>
       <c r="C16" t="n">
-        <v>0.21444</v>
+        <v>0.218072</v>
       </c>
       <c r="D16" t="n">
-        <v>0.218107</v>
+        <v>0.217423</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.205431</v>
+        <v>0.210379</v>
       </c>
       <c r="C17" t="n">
-        <v>0.213461</v>
+        <v>0.216835</v>
       </c>
       <c r="D17" t="n">
-        <v>0.217767</v>
+        <v>0.217195</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.200672</v>
+        <v>0.204983</v>
       </c>
       <c r="C18" t="n">
-        <v>0.212176</v>
+        <v>0.216122</v>
       </c>
       <c r="D18" t="n">
-        <v>0.216546</v>
+        <v>0.216595</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.195495</v>
+        <v>0.199546</v>
       </c>
       <c r="C19" t="n">
-        <v>0.211651</v>
+        <v>0.215239</v>
       </c>
       <c r="D19" t="n">
-        <v>0.215621</v>
+        <v>0.215697</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.189265</v>
+        <v>0.19325</v>
       </c>
       <c r="C20" t="n">
-        <v>0.210788</v>
+        <v>0.214888</v>
       </c>
       <c r="D20" t="n">
-        <v>0.215078</v>
+        <v>0.215223</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.182842</v>
+        <v>0.185062</v>
       </c>
       <c r="C21" t="n">
-        <v>0.209883</v>
+        <v>0.21409</v>
       </c>
       <c r="D21" t="n">
-        <v>0.214376</v>
+        <v>0.214801</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.175695</v>
+        <v>0.17747</v>
       </c>
       <c r="C22" t="n">
-        <v>0.208842</v>
+        <v>0.213021</v>
       </c>
       <c r="D22" t="n">
-        <v>0.213628</v>
+        <v>0.213802</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.165867</v>
+        <v>0.168578</v>
       </c>
       <c r="C23" t="n">
-        <v>0.207913</v>
+        <v>0.211677</v>
       </c>
       <c r="D23" t="n">
-        <v>0.227195</v>
+        <v>0.226804</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.239716</v>
+        <v>0.242051</v>
       </c>
       <c r="C24" t="n">
-        <v>0.222833</v>
+        <v>0.226046</v>
       </c>
       <c r="D24" t="n">
-        <v>0.226428</v>
+        <v>0.225896</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.236765</v>
+        <v>0.237831</v>
       </c>
       <c r="C25" t="n">
-        <v>0.220823</v>
+        <v>0.224729</v>
       </c>
       <c r="D25" t="n">
-        <v>0.224542</v>
+        <v>0.224117</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.232652</v>
+        <v>0.234049</v>
       </c>
       <c r="C26" t="n">
-        <v>0.220068</v>
+        <v>0.223681</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2237</v>
+        <v>0.223236</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.230698</v>
+        <v>0.23017</v>
       </c>
       <c r="C27" t="n">
-        <v>0.219173</v>
+        <v>0.222655</v>
       </c>
       <c r="D27" t="n">
-        <v>0.222956</v>
+        <v>0.222431</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.226358</v>
+        <v>0.225793</v>
       </c>
       <c r="C28" t="n">
-        <v>0.218012</v>
+        <v>0.222065</v>
       </c>
       <c r="D28" t="n">
-        <v>0.221926</v>
+        <v>0.221452</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.223229</v>
+        <v>0.220978</v>
       </c>
       <c r="C29" t="n">
-        <v>0.216933</v>
+        <v>0.220252</v>
       </c>
       <c r="D29" t="n">
-        <v>0.220679</v>
+        <v>0.220701</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.217323</v>
+        <v>0.21652</v>
       </c>
       <c r="C30" t="n">
-        <v>0.215545</v>
+        <v>0.219146</v>
       </c>
       <c r="D30" t="n">
-        <v>0.219465</v>
+        <v>0.219306</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.212242</v>
+        <v>0.211565</v>
       </c>
       <c r="C31" t="n">
-        <v>0.214723</v>
+        <v>0.218028</v>
       </c>
       <c r="D31" t="n">
-        <v>0.218738</v>
+        <v>0.218534</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.206526</v>
+        <v>0.206774</v>
       </c>
       <c r="C32" t="n">
-        <v>0.214498</v>
+        <v>0.218041</v>
       </c>
       <c r="D32" t="n">
-        <v>0.218399</v>
+        <v>0.218222</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.199718</v>
+        <v>0.201049</v>
       </c>
       <c r="C33" t="n">
-        <v>0.213745</v>
+        <v>0.21744</v>
       </c>
       <c r="D33" t="n">
-        <v>0.217597</v>
+        <v>0.217354</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.194137</v>
+        <v>0.195358</v>
       </c>
       <c r="C34" t="n">
-        <v>0.212588</v>
+        <v>0.215973</v>
       </c>
       <c r="D34" t="n">
-        <v>0.216615</v>
+        <v>0.216698</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.188275</v>
+        <v>0.189708</v>
       </c>
       <c r="C35" t="n">
-        <v>0.211819</v>
+        <v>0.215236</v>
       </c>
       <c r="D35" t="n">
-        <v>0.215874</v>
+        <v>0.216163</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180238</v>
+        <v>0.182292</v>
       </c>
       <c r="C36" t="n">
-        <v>0.211304</v>
+        <v>0.214152</v>
       </c>
       <c r="D36" t="n">
-        <v>0.215331</v>
+        <v>0.215258</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.171225</v>
+        <v>0.171853</v>
       </c>
       <c r="C37" t="n">
-        <v>0.20987</v>
+        <v>0.213365</v>
       </c>
       <c r="D37" t="n">
-        <v>0.229293</v>
+        <v>0.228511</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.244389</v>
+        <v>0.246377</v>
       </c>
       <c r="C38" t="n">
-        <v>0.22532</v>
+        <v>0.228071</v>
       </c>
       <c r="D38" t="n">
-        <v>0.22805</v>
+        <v>0.227189</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.24122</v>
+        <v>0.242587</v>
       </c>
       <c r="C39" t="n">
-        <v>0.223827</v>
+        <v>0.226705</v>
       </c>
       <c r="D39" t="n">
-        <v>0.226307</v>
+        <v>0.2261</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.237709</v>
+        <v>0.239334</v>
       </c>
       <c r="C40" t="n">
-        <v>0.222133</v>
+        <v>0.22552</v>
       </c>
       <c r="D40" t="n">
-        <v>0.225041</v>
+        <v>0.225082</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.233985</v>
+        <v>0.234505</v>
       </c>
       <c r="C41" t="n">
-        <v>0.220827</v>
+        <v>0.224121</v>
       </c>
       <c r="D41" t="n">
-        <v>0.223908</v>
+        <v>0.223518</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.229482</v>
+        <v>0.229729</v>
       </c>
       <c r="C42" t="n">
-        <v>0.219141</v>
+        <v>0.22267</v>
       </c>
       <c r="D42" t="n">
-        <v>0.222168</v>
+        <v>0.222123</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.22423</v>
+        <v>0.224854</v>
       </c>
       <c r="C43" t="n">
-        <v>0.21784</v>
+        <v>0.221159</v>
       </c>
       <c r="D43" t="n">
-        <v>0.221299</v>
+        <v>0.22102</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.220163</v>
+        <v>0.220356</v>
       </c>
       <c r="C44" t="n">
-        <v>0.216839</v>
+        <v>0.220801</v>
       </c>
       <c r="D44" t="n">
-        <v>0.220733</v>
+        <v>0.220485</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.215881</v>
+        <v>0.215547</v>
       </c>
       <c r="C45" t="n">
-        <v>0.216283</v>
+        <v>0.220324</v>
       </c>
       <c r="D45" t="n">
-        <v>0.219776</v>
+        <v>0.219794</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.210629</v>
+        <v>0.210466</v>
       </c>
       <c r="C46" t="n">
-        <v>0.215173</v>
+        <v>0.219009</v>
       </c>
       <c r="D46" t="n">
-        <v>0.218534</v>
+        <v>0.218807</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.203777</v>
+        <v>0.20543</v>
       </c>
       <c r="C47" t="n">
-        <v>0.214483</v>
+        <v>0.217956</v>
       </c>
       <c r="D47" t="n">
-        <v>0.217513</v>
+        <v>0.217662</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.198195</v>
+        <v>0.197621</v>
       </c>
       <c r="C48" t="n">
-        <v>0.213197</v>
+        <v>0.217062</v>
       </c>
       <c r="D48" t="n">
-        <v>0.21683</v>
+        <v>0.216977</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.191635</v>
+        <v>0.191586</v>
       </c>
       <c r="C49" t="n">
-        <v>0.212497</v>
+        <v>0.216388</v>
       </c>
       <c r="D49" t="n">
-        <v>0.216287</v>
+        <v>0.216234</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.183766</v>
+        <v>0.184104</v>
       </c>
       <c r="C50" t="n">
-        <v>0.21178</v>
+        <v>0.215437</v>
       </c>
       <c r="D50" t="n">
-        <v>0.21552</v>
+        <v>0.215729</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.175403</v>
+        <v>0.176271</v>
       </c>
       <c r="C51" t="n">
-        <v>0.211015</v>
+        <v>0.214421</v>
       </c>
       <c r="D51" t="n">
-        <v>0.23019</v>
+        <v>0.22981</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.164968</v>
+        <v>0.165851</v>
       </c>
       <c r="C52" t="n">
-        <v>0.210154</v>
+        <v>0.213774</v>
       </c>
       <c r="D52" t="n">
-        <v>0.228785</v>
+        <v>0.228645</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.245111</v>
+        <v>0.244859</v>
       </c>
       <c r="C53" t="n">
-        <v>0.224492</v>
+        <v>0.227912</v>
       </c>
       <c r="D53" t="n">
-        <v>0.227687</v>
+        <v>0.227672</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.241609</v>
+        <v>0.241187</v>
       </c>
       <c r="C54" t="n">
-        <v>0.223127</v>
+        <v>0.226478</v>
       </c>
       <c r="D54" t="n">
-        <v>0.226398</v>
+        <v>0.226282</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.238247</v>
+        <v>0.237568</v>
       </c>
       <c r="C55" t="n">
-        <v>0.221962</v>
+        <v>0.225428</v>
       </c>
       <c r="D55" t="n">
-        <v>0.225279</v>
+        <v>0.225034</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.233537</v>
+        <v>0.232946</v>
       </c>
       <c r="C56" t="n">
-        <v>0.220695</v>
+        <v>0.224065</v>
       </c>
       <c r="D56" t="n">
-        <v>0.223878</v>
+        <v>0.22383</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.228542</v>
+        <v>0.228151</v>
       </c>
       <c r="C57" t="n">
-        <v>0.219495</v>
+        <v>0.223038</v>
       </c>
       <c r="D57" t="n">
-        <v>0.222779</v>
+        <v>0.222874</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.223455</v>
+        <v>0.223257</v>
       </c>
       <c r="C58" t="n">
-        <v>0.218271</v>
+        <v>0.22185</v>
       </c>
       <c r="D58" t="n">
-        <v>0.221478</v>
+        <v>0.22136</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.218434</v>
+        <v>0.218334</v>
       </c>
       <c r="C59" t="n">
-        <v>0.217252</v>
+        <v>0.22083</v>
       </c>
       <c r="D59" t="n">
-        <v>0.220516</v>
+        <v>0.220536</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.213513</v>
+        <v>0.212896</v>
       </c>
       <c r="C60" t="n">
-        <v>0.216251</v>
+        <v>0.21984</v>
       </c>
       <c r="D60" t="n">
-        <v>0.2195</v>
+        <v>0.219497</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.206688</v>
+        <v>0.207878</v>
       </c>
       <c r="C61" t="n">
-        <v>0.21541</v>
+        <v>0.218857</v>
       </c>
       <c r="D61" t="n">
-        <v>0.218759</v>
+        <v>0.218861</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.200551</v>
+        <v>0.201593</v>
       </c>
       <c r="C62" t="n">
-        <v>0.214706</v>
+        <v>0.218093</v>
       </c>
       <c r="D62" t="n">
-        <v>0.21792</v>
+        <v>0.217963</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.194936</v>
+        <v>0.194347</v>
       </c>
       <c r="C63" t="n">
-        <v>0.213977</v>
+        <v>0.217073</v>
       </c>
       <c r="D63" t="n">
-        <v>0.217206</v>
+        <v>0.21731</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.186898</v>
+        <v>0.187259</v>
       </c>
       <c r="C64" t="n">
-        <v>0.213272</v>
+        <v>0.216334</v>
       </c>
       <c r="D64" t="n">
-        <v>0.216461</v>
+        <v>0.216552</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.179209</v>
+        <v>0.179057</v>
       </c>
       <c r="C65" t="n">
-        <v>0.21263</v>
+        <v>0.215663</v>
       </c>
       <c r="D65" t="n">
-        <v>0.216003</v>
+        <v>0.216166</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.169913</v>
+        <v>0.169763</v>
       </c>
       <c r="C66" t="n">
-        <v>0.211711</v>
+        <v>0.214624</v>
       </c>
       <c r="D66" t="n">
-        <v>0.230033</v>
+        <v>0.229712</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.246719</v>
+        <v>0.247306</v>
       </c>
       <c r="C67" t="n">
-        <v>0.225465</v>
+        <v>0.229167</v>
       </c>
       <c r="D67" t="n">
-        <v>0.228805</v>
+        <v>0.228586</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.244855</v>
+        <v>0.243675</v>
       </c>
       <c r="C68" t="n">
-        <v>0.224112</v>
+        <v>0.227609</v>
       </c>
       <c r="D68" t="n">
-        <v>0.227355</v>
+        <v>0.22714</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.240086</v>
+        <v>0.239785</v>
       </c>
       <c r="C69" t="n">
-        <v>0.222431</v>
+        <v>0.226169</v>
       </c>
       <c r="D69" t="n">
-        <v>0.225946</v>
+        <v>0.225798</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.235259</v>
+        <v>0.235627</v>
       </c>
       <c r="C70" t="n">
-        <v>0.221423</v>
+        <v>0.22488</v>
       </c>
       <c r="D70" t="n">
-        <v>0.224479</v>
+        <v>0.224517</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.230117</v>
+        <v>0.23065</v>
       </c>
       <c r="C71" t="n">
-        <v>0.220322</v>
+        <v>0.223911</v>
       </c>
       <c r="D71" t="n">
-        <v>0.223528</v>
+        <v>0.223431</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.22521</v>
+        <v>0.2257</v>
       </c>
       <c r="C72" t="n">
-        <v>0.219415</v>
+        <v>0.222962</v>
       </c>
       <c r="D72" t="n">
-        <v>0.222518</v>
+        <v>0.222414</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.220482</v>
+        <v>0.220663</v>
       </c>
       <c r="C73" t="n">
-        <v>0.21845</v>
+        <v>0.222138</v>
       </c>
       <c r="D73" t="n">
-        <v>0.221421</v>
+        <v>0.221411</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.21677</v>
+        <v>0.215145</v>
       </c>
       <c r="C74" t="n">
-        <v>0.217458</v>
+        <v>0.220891</v>
       </c>
       <c r="D74" t="n">
-        <v>0.220411</v>
+        <v>0.220539</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.20947</v>
+        <v>0.209259</v>
       </c>
       <c r="C75" t="n">
-        <v>0.216623</v>
+        <v>0.219978</v>
       </c>
       <c r="D75" t="n">
-        <v>0.219593</v>
+        <v>0.219552</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.203621</v>
+        <v>0.202995</v>
       </c>
       <c r="C76" t="n">
-        <v>0.215433</v>
+        <v>0.219005</v>
       </c>
       <c r="D76" t="n">
-        <v>0.218544</v>
+        <v>0.218669</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.197586</v>
+        <v>0.19719</v>
       </c>
       <c r="C77" t="n">
-        <v>0.214517</v>
+        <v>0.218088</v>
       </c>
       <c r="D77" t="n">
-        <v>0.217806</v>
+        <v>0.217888</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.189903</v>
+        <v>0.189559</v>
       </c>
       <c r="C78" t="n">
-        <v>0.213693</v>
+        <v>0.217171</v>
       </c>
       <c r="D78" t="n">
-        <v>0.216983</v>
+        <v>0.21707</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.181897</v>
+        <v>0.181725</v>
       </c>
       <c r="C79" t="n">
-        <v>0.212715</v>
+        <v>0.216051</v>
       </c>
       <c r="D79" t="n">
-        <v>0.216228</v>
+        <v>0.216173</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.172104</v>
+        <v>0.17183</v>
       </c>
       <c r="C80" t="n">
-        <v>0.211819</v>
+        <v>0.215065</v>
       </c>
       <c r="D80" t="n">
-        <v>0.23075</v>
+        <v>0.230387</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.24735</v>
+        <v>0.248945</v>
       </c>
       <c r="C81" t="n">
-        <v>0.226354</v>
+        <v>0.229102</v>
       </c>
       <c r="D81" t="n">
-        <v>0.229283</v>
+        <v>0.229123</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.243915</v>
+        <v>0.245437</v>
       </c>
       <c r="C82" t="n">
-        <v>0.224903</v>
+        <v>0.227699</v>
       </c>
       <c r="D82" t="n">
-        <v>0.227716</v>
+        <v>0.227655</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.240584</v>
+        <v>0.241392</v>
       </c>
       <c r="C83" t="n">
-        <v>0.223817</v>
+        <v>0.22644</v>
       </c>
       <c r="D83" t="n">
-        <v>0.226423</v>
+        <v>0.226282</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.236126</v>
+        <v>0.236985</v>
       </c>
       <c r="C84" t="n">
-        <v>0.222434</v>
+        <v>0.225282</v>
       </c>
       <c r="D84" t="n">
-        <v>0.225186</v>
+        <v>0.224906</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.23171</v>
+        <v>0.232237</v>
       </c>
       <c r="C85" t="n">
-        <v>0.221431</v>
+        <v>0.224262</v>
       </c>
       <c r="D85" t="n">
-        <v>0.223881</v>
+        <v>0.2238</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.226849</v>
+        <v>0.22711</v>
       </c>
       <c r="C86" t="n">
-        <v>0.22011</v>
+        <v>0.222989</v>
       </c>
       <c r="D86" t="n">
-        <v>0.222678</v>
+        <v>0.222512</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.221895</v>
+        <v>0.221725</v>
       </c>
       <c r="C87" t="n">
-        <v>0.219265</v>
+        <v>0.222127</v>
       </c>
       <c r="D87" t="n">
-        <v>0.221822</v>
+        <v>0.221718</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.216676</v>
+        <v>0.216209</v>
       </c>
       <c r="C88" t="n">
-        <v>0.218167</v>
+        <v>0.221008</v>
       </c>
       <c r="D88" t="n">
-        <v>0.220643</v>
+        <v>0.220609</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.211228</v>
+        <v>0.210254</v>
       </c>
       <c r="C89" t="n">
-        <v>0.2172</v>
+        <v>0.219952</v>
       </c>
       <c r="D89" t="n">
-        <v>0.219691</v>
+        <v>0.219587</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.20545</v>
+        <v>0.204439</v>
       </c>
       <c r="C90" t="n">
-        <v>0.21612</v>
+        <v>0.219141</v>
       </c>
       <c r="D90" t="n">
-        <v>0.2188</v>
+        <v>0.218784</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.198967</v>
+        <v>0.197938</v>
       </c>
       <c r="C91" t="n">
-        <v>0.215118</v>
+        <v>0.218</v>
       </c>
       <c r="D91" t="n">
-        <v>0.217875</v>
+        <v>0.217755</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.191601</v>
+        <v>0.19121</v>
       </c>
       <c r="C92" t="n">
-        <v>0.214063</v>
+        <v>0.216849</v>
       </c>
       <c r="D92" t="n">
-        <v>0.216853</v>
+        <v>0.21704</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.183985</v>
+        <v>0.1828</v>
       </c>
       <c r="C93" t="n">
-        <v>0.213211</v>
+        <v>0.216011</v>
       </c>
       <c r="D93" t="n">
-        <v>0.21609</v>
+        <v>0.21623</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.174482</v>
+        <v>0.173754</v>
       </c>
       <c r="C94" t="n">
-        <v>0.212095</v>
+        <v>0.215086</v>
       </c>
       <c r="D94" t="n">
-        <v>0.231047</v>
+        <v>0.230539</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.248157</v>
+        <v>0.248788</v>
       </c>
       <c r="C95" t="n">
-        <v>0.228635</v>
+        <v>0.229152</v>
       </c>
       <c r="D95" t="n">
-        <v>0.229443</v>
+        <v>0.229246</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.245737</v>
+        <v>0.245892</v>
       </c>
       <c r="C96" t="n">
-        <v>0.227372</v>
+        <v>0.227884</v>
       </c>
       <c r="D96" t="n">
-        <v>0.228033</v>
+        <v>0.227902</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.244565</v>
+        <v>0.242225</v>
       </c>
       <c r="C97" t="n">
-        <v>0.226379</v>
+        <v>0.226627</v>
       </c>
       <c r="D97" t="n">
-        <v>0.226693</v>
+        <v>0.226505</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.240346</v>
+        <v>0.237851</v>
       </c>
       <c r="C98" t="n">
-        <v>0.224673</v>
+        <v>0.225406</v>
       </c>
       <c r="D98" t="n">
-        <v>0.225447</v>
+        <v>0.225334</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.234692</v>
+        <v>0.233353</v>
       </c>
       <c r="C99" t="n">
-        <v>0.223192</v>
+        <v>0.224378</v>
       </c>
       <c r="D99" t="n">
-        <v>0.224293</v>
+        <v>0.224237</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.228262</v>
+        <v>0.22835</v>
       </c>
       <c r="C100" t="n">
-        <v>0.221658</v>
+        <v>0.223333</v>
       </c>
       <c r="D100" t="n">
-        <v>0.223289</v>
+        <v>0.22323</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.223119</v>
+        <v>0.22365</v>
       </c>
       <c r="C101" t="n">
-        <v>0.220379</v>
+        <v>0.222182</v>
       </c>
       <c r="D101" t="n">
-        <v>0.222133</v>
+        <v>0.221878</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.217853</v>
+        <v>0.218158</v>
       </c>
       <c r="C102" t="n">
-        <v>0.218937</v>
+        <v>0.221016</v>
       </c>
       <c r="D102" t="n">
-        <v>0.220905</v>
+        <v>0.221037</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.214163</v>
+        <v>0.212134</v>
       </c>
       <c r="C103" t="n">
-        <v>0.218395</v>
+        <v>0.220141</v>
       </c>
       <c r="D103" t="n">
-        <v>0.220145</v>
+        <v>0.220109</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.208192</v>
+        <v>0.207161</v>
       </c>
       <c r="C104" t="n">
-        <v>0.216854</v>
+        <v>0.219122</v>
       </c>
       <c r="D104" t="n">
-        <v>0.219136</v>
+        <v>0.219222</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.200537</v>
+        <v>0.201353</v>
       </c>
       <c r="C105" t="n">
-        <v>0.216614</v>
+        <v>0.218158</v>
       </c>
       <c r="D105" t="n">
-        <v>0.218354</v>
+        <v>0.21826</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.194047</v>
+        <v>0.192869</v>
       </c>
       <c r="C106" t="n">
-        <v>0.215116</v>
+        <v>0.217064</v>
       </c>
       <c r="D106" t="n">
-        <v>0.217378</v>
+        <v>0.217369</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.186128</v>
+        <v>0.184531</v>
       </c>
       <c r="C107" t="n">
-        <v>0.214181</v>
+        <v>0.216089</v>
       </c>
       <c r="D107" t="n">
-        <v>0.216553</v>
+        <v>0.216684</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.177112</v>
+        <v>0.176223</v>
       </c>
       <c r="C108" t="n">
-        <v>0.213163</v>
+        <v>0.215115</v>
       </c>
       <c r="D108" t="n">
-        <v>0.231852</v>
+        <v>0.231535</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.166555</v>
+        <v>0.165326</v>
       </c>
       <c r="C109" t="n">
-        <v>0.21191</v>
+        <v>0.213999</v>
       </c>
       <c r="D109" t="n">
-        <v>0.230346</v>
+        <v>0.229895</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.246029</v>
+        <v>0.249412</v>
       </c>
       <c r="C110" t="n">
-        <v>0.226016</v>
+        <v>0.228686</v>
       </c>
       <c r="D110" t="n">
-        <v>0.228954</v>
+        <v>0.228581</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.242201</v>
+        <v>0.245661</v>
       </c>
       <c r="C111" t="n">
-        <v>0.224927</v>
+        <v>0.227818</v>
       </c>
       <c r="D111" t="n">
-        <v>0.228043</v>
+        <v>0.227707</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.238128</v>
+        <v>0.24145</v>
       </c>
       <c r="C112" t="n">
-        <v>0.22349</v>
+        <v>0.226706</v>
       </c>
       <c r="D112" t="n">
-        <v>0.226711</v>
+        <v>0.226472</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.233968</v>
+        <v>0.236736</v>
       </c>
       <c r="C113" t="n">
-        <v>0.22326</v>
+        <v>0.22593</v>
       </c>
       <c r="D113" t="n">
-        <v>0.22555</v>
+        <v>0.225321</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.229302</v>
+        <v>0.231361</v>
       </c>
       <c r="C114" t="n">
-        <v>0.222081</v>
+        <v>0.225003</v>
       </c>
       <c r="D114" t="n">
-        <v>0.224317</v>
+        <v>0.224008</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.224376</v>
+        <v>0.22663</v>
       </c>
       <c r="C115" t="n">
-        <v>0.221538</v>
+        <v>0.224116</v>
       </c>
       <c r="D115" t="n">
-        <v>0.223221</v>
+        <v>0.222799</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.219427</v>
+        <v>0.220527</v>
       </c>
       <c r="C116" t="n">
-        <v>0.220759</v>
+        <v>0.223879</v>
       </c>
       <c r="D116" t="n">
-        <v>0.222166</v>
+        <v>0.221746</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.214099</v>
+        <v>0.215236</v>
       </c>
       <c r="C117" t="n">
-        <v>0.219821</v>
+        <v>0.222578</v>
       </c>
       <c r="D117" t="n">
-        <v>0.221022</v>
+        <v>0.22047</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.208061</v>
+        <v>0.208798</v>
       </c>
       <c r="C118" t="n">
-        <v>0.217435</v>
+        <v>0.221253</v>
       </c>
       <c r="D118" t="n">
-        <v>0.219936</v>
+        <v>0.219699</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.201909</v>
+        <v>0.202297</v>
       </c>
       <c r="C119" t="n">
-        <v>0.21617</v>
+        <v>0.220002</v>
       </c>
       <c r="D119" t="n">
-        <v>0.218784</v>
+        <v>0.218899</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.194769</v>
+        <v>0.194777</v>
       </c>
       <c r="C120" t="n">
-        <v>0.216604</v>
+        <v>0.218511</v>
       </c>
       <c r="D120" t="n">
-        <v>0.218084</v>
+        <v>0.217766</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.186935</v>
+        <v>0.186376</v>
       </c>
       <c r="C121" t="n">
-        <v>0.214087</v>
+        <v>0.218424</v>
       </c>
       <c r="D121" t="n">
-        <v>0.217116</v>
+        <v>0.216956</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.178376</v>
+        <v>0.178044</v>
       </c>
       <c r="C122" t="n">
-        <v>0.213233</v>
+        <v>0.217237</v>
       </c>
       <c r="D122" t="n">
-        <v>0.216283</v>
+        <v>0.216105</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.167793</v>
+        <v>0.167413</v>
       </c>
       <c r="C123" t="n">
-        <v>0.213401</v>
+        <v>0.21592</v>
       </c>
       <c r="D123" t="n">
-        <v>0.230709</v>
+        <v>0.230196</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.246759</v>
+        <v>0.249892</v>
       </c>
       <c r="C124" t="n">
-        <v>0.226533</v>
+        <v>0.229204</v>
       </c>
       <c r="D124" t="n">
-        <v>0.229243</v>
+        <v>0.228934</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.24383</v>
+        <v>0.246388</v>
       </c>
       <c r="C125" t="n">
-        <v>0.22559</v>
+        <v>0.228225</v>
       </c>
       <c r="D125" t="n">
-        <v>0.228004</v>
+        <v>0.227747</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.239798</v>
+        <v>0.24233</v>
       </c>
       <c r="C126" t="n">
-        <v>0.224615</v>
+        <v>0.227486</v>
       </c>
       <c r="D126" t="n">
-        <v>0.226698</v>
+        <v>0.22649</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.237853</v>
+        <v>0.237577</v>
       </c>
       <c r="C127" t="n">
-        <v>0.223649</v>
+        <v>0.226647</v>
       </c>
       <c r="D127" t="n">
-        <v>0.225391</v>
+        <v>0.225342</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.231362</v>
+        <v>0.232618</v>
       </c>
       <c r="C128" t="n">
-        <v>0.222572</v>
+        <v>0.224831</v>
       </c>
       <c r="D128" t="n">
-        <v>0.224039</v>
+        <v>0.223935</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.22759</v>
+        <v>0.227085</v>
       </c>
       <c r="C129" t="n">
-        <v>0.221491</v>
+        <v>0.224551</v>
       </c>
       <c r="D129" t="n">
-        <v>0.222963</v>
+        <v>0.222829</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.220425</v>
+        <v>0.221874</v>
       </c>
       <c r="C130" t="n">
-        <v>0.220817</v>
+        <v>0.223684</v>
       </c>
       <c r="D130" t="n">
-        <v>0.221865</v>
+        <v>0.221956</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.215018</v>
+        <v>0.215183</v>
       </c>
       <c r="C131" t="n">
-        <v>0.219594</v>
+        <v>0.222232</v>
       </c>
       <c r="D131" t="n">
-        <v>0.22078</v>
+        <v>0.220854</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.20925</v>
+        <v>0.208165</v>
       </c>
       <c r="C132" t="n">
-        <v>0.218045</v>
+        <v>0.221079</v>
       </c>
       <c r="D132" t="n">
-        <v>0.219821</v>
+        <v>0.219871</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.203187</v>
+        <v>0.202971</v>
       </c>
       <c r="C133" t="n">
-        <v>0.216759</v>
+        <v>0.220257</v>
       </c>
       <c r="D133" t="n">
-        <v>0.218947</v>
+        <v>0.219058</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.196029</v>
+        <v>0.196496</v>
       </c>
       <c r="C134" t="n">
-        <v>0.21507</v>
+        <v>0.218888</v>
       </c>
       <c r="D134" t="n">
-        <v>0.218011</v>
+        <v>0.217926</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.188383</v>
+        <v>0.188499</v>
       </c>
       <c r="C135" t="n">
-        <v>0.213949</v>
+        <v>0.217975</v>
       </c>
       <c r="D135" t="n">
-        <v>0.217156</v>
+        <v>0.217006</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.18024</v>
+        <v>0.180022</v>
       </c>
       <c r="C136" t="n">
-        <v>0.213617</v>
+        <v>0.217786</v>
       </c>
       <c r="D136" t="n">
-        <v>0.216397</v>
+        <v>0.21621</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.170653</v>
+        <v>0.169232</v>
       </c>
       <c r="C137" t="n">
-        <v>0.212639</v>
+        <v>0.215557</v>
       </c>
       <c r="D137" t="n">
-        <v>0.230797</v>
+        <v>0.230382</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.247489</v>
+        <v>0.247925</v>
       </c>
       <c r="C138" t="n">
-        <v>0.226379</v>
+        <v>0.229424</v>
       </c>
       <c r="D138" t="n">
-        <v>0.229394</v>
+        <v>0.228945</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.24408</v>
+        <v>0.244339</v>
       </c>
       <c r="C139" t="n">
-        <v>0.22539</v>
+        <v>0.228431</v>
       </c>
       <c r="D139" t="n">
-        <v>0.228019</v>
+        <v>0.227706</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.240276</v>
+        <v>0.24041</v>
       </c>
       <c r="C140" t="n">
-        <v>0.224472</v>
+        <v>0.227558</v>
       </c>
       <c r="D140" t="n">
-        <v>0.226884</v>
+        <v>0.22672</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.235994</v>
+        <v>0.236219</v>
       </c>
       <c r="C141" t="n">
-        <v>0.223893</v>
+        <v>0.226964</v>
       </c>
       <c r="D141" t="n">
-        <v>0.225563</v>
+        <v>0.225361</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.234075</v>
+        <v>0.231372</v>
       </c>
       <c r="C142" t="n">
-        <v>0.223236</v>
+        <v>0.225932</v>
       </c>
       <c r="D142" t="n">
-        <v>0.224394</v>
+        <v>0.224256</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.227693</v>
+        <v>0.22641</v>
       </c>
       <c r="C143" t="n">
-        <v>0.222274</v>
+        <v>0.225032</v>
       </c>
       <c r="D143" t="n">
-        <v>0.223443</v>
+        <v>0.223373</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.201241</v>
+        <v>0.187292</v>
       </c>
       <c r="C2" t="n">
-        <v>0.201145</v>
+        <v>0.206229</v>
       </c>
       <c r="D2" t="n">
-        <v>0.203063</v>
+        <v>0.209873</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.192413</v>
+        <v>0.183982</v>
       </c>
       <c r="C3" t="n">
-        <v>0.202267</v>
+        <v>0.206842</v>
       </c>
       <c r="D3" t="n">
-        <v>0.20392</v>
+        <v>0.211012</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.189013</v>
+        <v>0.179004</v>
       </c>
       <c r="C4" t="n">
-        <v>0.203067</v>
+        <v>0.206135</v>
       </c>
       <c r="D4" t="n">
-        <v>0.205725</v>
+        <v>0.210745</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.181274</v>
+        <v>0.176892</v>
       </c>
       <c r="C5" t="n">
-        <v>0.203138</v>
+        <v>0.206722</v>
       </c>
       <c r="D5" t="n">
-        <v>0.206546</v>
+        <v>0.211549</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.173871</v>
+        <v>0.17022</v>
       </c>
       <c r="C6" t="n">
-        <v>0.201322</v>
+        <v>0.206327</v>
       </c>
       <c r="D6" t="n">
-        <v>0.206005</v>
+        <v>0.212704</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.167698</v>
+        <v>0.163509</v>
       </c>
       <c r="C7" t="n">
-        <v>0.202385</v>
+        <v>0.206321</v>
       </c>
       <c r="D7" t="n">
-        <v>0.205242</v>
+        <v>0.211818</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.159561</v>
+        <v>0.156318</v>
       </c>
       <c r="C8" t="n">
-        <v>0.202393</v>
+        <v>0.206192</v>
       </c>
       <c r="D8" t="n">
-        <v>0.207252</v>
+        <v>0.212862</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.150291</v>
+        <v>0.146334</v>
       </c>
       <c r="C9" t="n">
-        <v>0.202757</v>
+        <v>0.205238</v>
       </c>
       <c r="D9" t="n">
-        <v>0.220702</v>
+        <v>0.227673</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.232322</v>
+        <v>0.231139</v>
       </c>
       <c r="C10" t="n">
-        <v>0.221908</v>
+        <v>0.224944</v>
       </c>
       <c r="D10" t="n">
-        <v>0.219946</v>
+        <v>0.226193</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.232075</v>
+        <v>0.228081</v>
       </c>
       <c r="C11" t="n">
-        <v>0.221027</v>
+        <v>0.224007</v>
       </c>
       <c r="D11" t="n">
-        <v>0.220877</v>
+        <v>0.226517</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.23084</v>
+        <v>0.225517</v>
       </c>
       <c r="C12" t="n">
-        <v>0.221015</v>
+        <v>0.222663</v>
       </c>
       <c r="D12" t="n">
-        <v>0.220282</v>
+        <v>0.225181</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.225363</v>
+        <v>0.222864</v>
       </c>
       <c r="C13" t="n">
-        <v>0.220836</v>
+        <v>0.221498</v>
       </c>
       <c r="D13" t="n">
-        <v>0.22001</v>
+        <v>0.224215</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.221181</v>
+        <v>0.21893</v>
       </c>
       <c r="C14" t="n">
-        <v>0.219493</v>
+        <v>0.221017</v>
       </c>
       <c r="D14" t="n">
-        <v>0.219187</v>
+        <v>0.224629</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.217249</v>
+        <v>0.214659</v>
       </c>
       <c r="C15" t="n">
-        <v>0.219003</v>
+        <v>0.220245</v>
       </c>
       <c r="D15" t="n">
-        <v>0.218726</v>
+        <v>0.224124</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.211581</v>
+        <v>0.209928</v>
       </c>
       <c r="C16" t="n">
-        <v>0.218072</v>
+        <v>0.219581</v>
       </c>
       <c r="D16" t="n">
-        <v>0.217423</v>
+        <v>0.22305</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.210379</v>
+        <v>0.20518</v>
       </c>
       <c r="C17" t="n">
-        <v>0.216835</v>
+        <v>0.218457</v>
       </c>
       <c r="D17" t="n">
-        <v>0.217195</v>
+        <v>0.222995</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.204983</v>
+        <v>0.200207</v>
       </c>
       <c r="C18" t="n">
-        <v>0.216122</v>
+        <v>0.217573</v>
       </c>
       <c r="D18" t="n">
-        <v>0.216595</v>
+        <v>0.221534</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.199546</v>
+        <v>0.195783</v>
       </c>
       <c r="C19" t="n">
-        <v>0.215239</v>
+        <v>0.217195</v>
       </c>
       <c r="D19" t="n">
-        <v>0.215697</v>
+        <v>0.221762</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.19325</v>
+        <v>0.189275</v>
       </c>
       <c r="C20" t="n">
-        <v>0.214888</v>
+        <v>0.216497</v>
       </c>
       <c r="D20" t="n">
-        <v>0.215223</v>
+        <v>0.221599</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.185062</v>
+        <v>0.181574</v>
       </c>
       <c r="C21" t="n">
-        <v>0.21409</v>
+        <v>0.215746</v>
       </c>
       <c r="D21" t="n">
-        <v>0.214801</v>
+        <v>0.220998</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.17747</v>
+        <v>0.174132</v>
       </c>
       <c r="C22" t="n">
-        <v>0.213021</v>
+        <v>0.214832</v>
       </c>
       <c r="D22" t="n">
-        <v>0.213802</v>
+        <v>0.21979</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.168578</v>
+        <v>0.16528</v>
       </c>
       <c r="C23" t="n">
-        <v>0.211677</v>
+        <v>0.21423</v>
       </c>
       <c r="D23" t="n">
-        <v>0.226804</v>
+        <v>0.233436</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.242051</v>
+        <v>0.243142</v>
       </c>
       <c r="C24" t="n">
-        <v>0.226046</v>
+        <v>0.228939</v>
       </c>
       <c r="D24" t="n">
-        <v>0.225896</v>
+        <v>0.232471</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.237831</v>
+        <v>0.239615</v>
       </c>
       <c r="C25" t="n">
-        <v>0.224729</v>
+        <v>0.227393</v>
       </c>
       <c r="D25" t="n">
-        <v>0.224117</v>
+        <v>0.231226</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.234049</v>
+        <v>0.236139</v>
       </c>
       <c r="C26" t="n">
-        <v>0.223681</v>
+        <v>0.227107</v>
       </c>
       <c r="D26" t="n">
-        <v>0.223236</v>
+        <v>0.230275</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.23017</v>
+        <v>0.232566</v>
       </c>
       <c r="C27" t="n">
-        <v>0.222655</v>
+        <v>0.224972</v>
       </c>
       <c r="D27" t="n">
-        <v>0.222431</v>
+        <v>0.229388</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.225793</v>
+        <v>0.227385</v>
       </c>
       <c r="C28" t="n">
-        <v>0.222065</v>
+        <v>0.224321</v>
       </c>
       <c r="D28" t="n">
-        <v>0.221452</v>
+        <v>0.228411</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.220978</v>
+        <v>0.222635</v>
       </c>
       <c r="C29" t="n">
-        <v>0.220252</v>
+        <v>0.223063</v>
       </c>
       <c r="D29" t="n">
-        <v>0.220701</v>
+        <v>0.227283</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.21652</v>
+        <v>0.217695</v>
       </c>
       <c r="C30" t="n">
-        <v>0.219146</v>
+        <v>0.221902</v>
       </c>
       <c r="D30" t="n">
-        <v>0.219306</v>
+        <v>0.226614</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.211565</v>
+        <v>0.212684</v>
       </c>
       <c r="C31" t="n">
-        <v>0.218028</v>
+        <v>0.220735</v>
       </c>
       <c r="D31" t="n">
-        <v>0.218534</v>
+        <v>0.225598</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.206774</v>
+        <v>0.20734</v>
       </c>
       <c r="C32" t="n">
-        <v>0.218041</v>
+        <v>0.219663</v>
       </c>
       <c r="D32" t="n">
-        <v>0.218222</v>
+        <v>0.225321</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.201049</v>
+        <v>0.20071</v>
       </c>
       <c r="C33" t="n">
-        <v>0.21744</v>
+        <v>0.219014</v>
       </c>
       <c r="D33" t="n">
-        <v>0.217354</v>
+        <v>0.224224</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.195358</v>
+        <v>0.194395</v>
       </c>
       <c r="C34" t="n">
-        <v>0.215973</v>
+        <v>0.21802</v>
       </c>
       <c r="D34" t="n">
-        <v>0.216698</v>
+        <v>0.223667</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.189708</v>
+        <v>0.186684</v>
       </c>
       <c r="C35" t="n">
-        <v>0.215236</v>
+        <v>0.217046</v>
       </c>
       <c r="D35" t="n">
-        <v>0.216163</v>
+        <v>0.222733</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.182292</v>
+        <v>0.181061</v>
       </c>
       <c r="C36" t="n">
-        <v>0.214152</v>
+        <v>0.216342</v>
       </c>
       <c r="D36" t="n">
-        <v>0.215258</v>
+        <v>0.222081</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.171853</v>
+        <v>0.169795</v>
       </c>
       <c r="C37" t="n">
-        <v>0.213365</v>
+        <v>0.215854</v>
       </c>
       <c r="D37" t="n">
-        <v>0.228511</v>
+        <v>0.235696</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.246377</v>
+        <v>0.248879</v>
       </c>
       <c r="C38" t="n">
-        <v>0.228071</v>
+        <v>0.229763</v>
       </c>
       <c r="D38" t="n">
-        <v>0.227189</v>
+        <v>0.234257</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.242587</v>
+        <v>0.244774</v>
       </c>
       <c r="C39" t="n">
-        <v>0.226705</v>
+        <v>0.228245</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2261</v>
+        <v>0.233102</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.239334</v>
+        <v>0.241026</v>
       </c>
       <c r="C40" t="n">
-        <v>0.22552</v>
+        <v>0.226658</v>
       </c>
       <c r="D40" t="n">
-        <v>0.225082</v>
+        <v>0.231628</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.234505</v>
+        <v>0.236858</v>
       </c>
       <c r="C41" t="n">
-        <v>0.224121</v>
+        <v>0.225711</v>
       </c>
       <c r="D41" t="n">
-        <v>0.223518</v>
+        <v>0.230805</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.229729</v>
+        <v>0.232237</v>
       </c>
       <c r="C42" t="n">
-        <v>0.22267</v>
+        <v>0.224436</v>
       </c>
       <c r="D42" t="n">
-        <v>0.222123</v>
+        <v>0.229469</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.224854</v>
+        <v>0.227177</v>
       </c>
       <c r="C43" t="n">
-        <v>0.221159</v>
+        <v>0.223405</v>
       </c>
       <c r="D43" t="n">
-        <v>0.22102</v>
+        <v>0.228368</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.220356</v>
+        <v>0.22226</v>
       </c>
       <c r="C44" t="n">
-        <v>0.220801</v>
+        <v>0.222302</v>
       </c>
       <c r="D44" t="n">
-        <v>0.220485</v>
+        <v>0.227503</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.215547</v>
+        <v>0.216502</v>
       </c>
       <c r="C45" t="n">
-        <v>0.220324</v>
+        <v>0.22123</v>
       </c>
       <c r="D45" t="n">
-        <v>0.219794</v>
+        <v>0.226573</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.210466</v>
+        <v>0.2114</v>
       </c>
       <c r="C46" t="n">
-        <v>0.219009</v>
+        <v>0.220403</v>
       </c>
       <c r="D46" t="n">
-        <v>0.218807</v>
+        <v>0.225474</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.20543</v>
+        <v>0.204573</v>
       </c>
       <c r="C47" t="n">
-        <v>0.217956</v>
+        <v>0.219849</v>
       </c>
       <c r="D47" t="n">
-        <v>0.217662</v>
+        <v>0.224613</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.197621</v>
+        <v>0.198267</v>
       </c>
       <c r="C48" t="n">
-        <v>0.217062</v>
+        <v>0.218845</v>
       </c>
       <c r="D48" t="n">
-        <v>0.216977</v>
+        <v>0.223838</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.191586</v>
+        <v>0.191099</v>
       </c>
       <c r="C49" t="n">
-        <v>0.216388</v>
+        <v>0.217926</v>
       </c>
       <c r="D49" t="n">
-        <v>0.216234</v>
+        <v>0.223185</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.184104</v>
+        <v>0.183731</v>
       </c>
       <c r="C50" t="n">
-        <v>0.215437</v>
+        <v>0.217302</v>
       </c>
       <c r="D50" t="n">
-        <v>0.215729</v>
+        <v>0.222298</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.176271</v>
+        <v>0.172869</v>
       </c>
       <c r="C51" t="n">
-        <v>0.214421</v>
+        <v>0.216228</v>
       </c>
       <c r="D51" t="n">
-        <v>0.22981</v>
+        <v>0.236836</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.165851</v>
+        <v>0.161871</v>
       </c>
       <c r="C52" t="n">
-        <v>0.213774</v>
+        <v>0.215748</v>
       </c>
       <c r="D52" t="n">
-        <v>0.228645</v>
+        <v>0.235449</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.244859</v>
+        <v>0.247769</v>
       </c>
       <c r="C53" t="n">
-        <v>0.227912</v>
+        <v>0.229059</v>
       </c>
       <c r="D53" t="n">
-        <v>0.227672</v>
+        <v>0.234269</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.241187</v>
+        <v>0.243592</v>
       </c>
       <c r="C54" t="n">
-        <v>0.226478</v>
+        <v>0.227574</v>
       </c>
       <c r="D54" t="n">
-        <v>0.226282</v>
+        <v>0.232952</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.237568</v>
+        <v>0.239389</v>
       </c>
       <c r="C55" t="n">
-        <v>0.225428</v>
+        <v>0.226449</v>
       </c>
       <c r="D55" t="n">
-        <v>0.225034</v>
+        <v>0.231637</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.232946</v>
+        <v>0.234805</v>
       </c>
       <c r="C56" t="n">
-        <v>0.224065</v>
+        <v>0.22552</v>
       </c>
       <c r="D56" t="n">
-        <v>0.22383</v>
+        <v>0.230491</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.228151</v>
+        <v>0.230401</v>
       </c>
       <c r="C57" t="n">
-        <v>0.223038</v>
+        <v>0.224386</v>
       </c>
       <c r="D57" t="n">
-        <v>0.222874</v>
+        <v>0.229579</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.223257</v>
+        <v>0.224628</v>
       </c>
       <c r="C58" t="n">
-        <v>0.22185</v>
+        <v>0.223346</v>
       </c>
       <c r="D58" t="n">
-        <v>0.22136</v>
+        <v>0.22827</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.218334</v>
+        <v>0.218949</v>
       </c>
       <c r="C59" t="n">
-        <v>0.22083</v>
+        <v>0.222174</v>
       </c>
       <c r="D59" t="n">
-        <v>0.220536</v>
+        <v>0.227342</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.212896</v>
+        <v>0.213275</v>
       </c>
       <c r="C60" t="n">
-        <v>0.21984</v>
+        <v>0.221052</v>
       </c>
       <c r="D60" t="n">
-        <v>0.219497</v>
+        <v>0.226352</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.207878</v>
+        <v>0.206692</v>
       </c>
       <c r="C61" t="n">
-        <v>0.218857</v>
+        <v>0.220193</v>
       </c>
       <c r="D61" t="n">
-        <v>0.218861</v>
+        <v>0.225524</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.201593</v>
+        <v>0.200398</v>
       </c>
       <c r="C62" t="n">
-        <v>0.218093</v>
+        <v>0.219293</v>
       </c>
       <c r="D62" t="n">
-        <v>0.217963</v>
+        <v>0.22462</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.194347</v>
+        <v>0.193096</v>
       </c>
       <c r="C63" t="n">
-        <v>0.217073</v>
+        <v>0.218512</v>
       </c>
       <c r="D63" t="n">
-        <v>0.21731</v>
+        <v>0.223724</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.187259</v>
+        <v>0.185345</v>
       </c>
       <c r="C64" t="n">
-        <v>0.216334</v>
+        <v>0.217698</v>
       </c>
       <c r="D64" t="n">
-        <v>0.216552</v>
+        <v>0.222897</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.179057</v>
+        <v>0.177726</v>
       </c>
       <c r="C65" t="n">
-        <v>0.215663</v>
+        <v>0.216983</v>
       </c>
       <c r="D65" t="n">
-        <v>0.216166</v>
+        <v>0.222256</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.169763</v>
+        <v>0.167032</v>
       </c>
       <c r="C66" t="n">
-        <v>0.214624</v>
+        <v>0.215886</v>
       </c>
       <c r="D66" t="n">
-        <v>0.229712</v>
+        <v>0.236524</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.247306</v>
+        <v>0.250983</v>
       </c>
       <c r="C67" t="n">
-        <v>0.229167</v>
+        <v>0.231128</v>
       </c>
       <c r="D67" t="n">
-        <v>0.228586</v>
+        <v>0.234957</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.243675</v>
+        <v>0.246922</v>
       </c>
       <c r="C68" t="n">
-        <v>0.227609</v>
+        <v>0.229816</v>
       </c>
       <c r="D68" t="n">
-        <v>0.22714</v>
+        <v>0.23352</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.239785</v>
+        <v>0.24234</v>
       </c>
       <c r="C69" t="n">
-        <v>0.226169</v>
+        <v>0.228207</v>
       </c>
       <c r="D69" t="n">
-        <v>0.225798</v>
+        <v>0.232314</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.235627</v>
+        <v>0.237651</v>
       </c>
       <c r="C70" t="n">
-        <v>0.22488</v>
+        <v>0.226759</v>
       </c>
       <c r="D70" t="n">
-        <v>0.224517</v>
+        <v>0.231079</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.23065</v>
+        <v>0.232612</v>
       </c>
       <c r="C71" t="n">
-        <v>0.223911</v>
+        <v>0.225621</v>
       </c>
       <c r="D71" t="n">
-        <v>0.223431</v>
+        <v>0.230032</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.2257</v>
+        <v>0.2275</v>
       </c>
       <c r="C72" t="n">
-        <v>0.222962</v>
+        <v>0.224178</v>
       </c>
       <c r="D72" t="n">
-        <v>0.222414</v>
+        <v>0.228745</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.220663</v>
+        <v>0.222083</v>
       </c>
       <c r="C73" t="n">
-        <v>0.222138</v>
+        <v>0.223074</v>
       </c>
       <c r="D73" t="n">
-        <v>0.221411</v>
+        <v>0.227756</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.215145</v>
+        <v>0.215699</v>
       </c>
       <c r="C74" t="n">
-        <v>0.220891</v>
+        <v>0.221867</v>
       </c>
       <c r="D74" t="n">
-        <v>0.220539</v>
+        <v>0.226814</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.209259</v>
+        <v>0.209667</v>
       </c>
       <c r="C75" t="n">
-        <v>0.219978</v>
+        <v>0.220973</v>
       </c>
       <c r="D75" t="n">
-        <v>0.219552</v>
+        <v>0.225878</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.202995</v>
+        <v>0.202946</v>
       </c>
       <c r="C76" t="n">
-        <v>0.219005</v>
+        <v>0.22015</v>
       </c>
       <c r="D76" t="n">
-        <v>0.218669</v>
+        <v>0.225063</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.19719</v>
+        <v>0.196222</v>
       </c>
       <c r="C77" t="n">
-        <v>0.218088</v>
+        <v>0.219205</v>
       </c>
       <c r="D77" t="n">
-        <v>0.217888</v>
+        <v>0.224187</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.189559</v>
+        <v>0.188555</v>
       </c>
       <c r="C78" t="n">
-        <v>0.217171</v>
+        <v>0.218341</v>
       </c>
       <c r="D78" t="n">
-        <v>0.21707</v>
+        <v>0.223308</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.181725</v>
+        <v>0.179944</v>
       </c>
       <c r="C79" t="n">
-        <v>0.216051</v>
+        <v>0.217394</v>
       </c>
       <c r="D79" t="n">
-        <v>0.216173</v>
+        <v>0.222776</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.17183</v>
+        <v>0.169766</v>
       </c>
       <c r="C80" t="n">
-        <v>0.215065</v>
+        <v>0.216569</v>
       </c>
       <c r="D80" t="n">
-        <v>0.230387</v>
+        <v>0.238898</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.248945</v>
+        <v>0.251071</v>
       </c>
       <c r="C81" t="n">
-        <v>0.229102</v>
+        <v>0.238485</v>
       </c>
       <c r="D81" t="n">
-        <v>0.229123</v>
+        <v>0.236543</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.245437</v>
+        <v>0.247217</v>
       </c>
       <c r="C82" t="n">
-        <v>0.227699</v>
+        <v>0.233573</v>
       </c>
       <c r="D82" t="n">
-        <v>0.227655</v>
+        <v>0.234982</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.241392</v>
+        <v>0.243499</v>
       </c>
       <c r="C83" t="n">
-        <v>0.22644</v>
+        <v>0.230278</v>
       </c>
       <c r="D83" t="n">
-        <v>0.226282</v>
+        <v>0.233183</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.236985</v>
+        <v>0.239247</v>
       </c>
       <c r="C84" t="n">
-        <v>0.225282</v>
+        <v>0.227726</v>
       </c>
       <c r="D84" t="n">
-        <v>0.224906</v>
+        <v>0.231928</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.232237</v>
+        <v>0.233745</v>
       </c>
       <c r="C85" t="n">
-        <v>0.224262</v>
+        <v>0.225567</v>
       </c>
       <c r="D85" t="n">
-        <v>0.2238</v>
+        <v>0.230557</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.22711</v>
+        <v>0.228775</v>
       </c>
       <c r="C86" t="n">
-        <v>0.222989</v>
+        <v>0.224477</v>
       </c>
       <c r="D86" t="n">
-        <v>0.222512</v>
+        <v>0.229474</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.221725</v>
+        <v>0.223145</v>
       </c>
       <c r="C87" t="n">
-        <v>0.222127</v>
+        <v>0.223515</v>
       </c>
       <c r="D87" t="n">
-        <v>0.221718</v>
+        <v>0.228263</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.216209</v>
+        <v>0.217208</v>
       </c>
       <c r="C88" t="n">
-        <v>0.221008</v>
+        <v>0.222424</v>
       </c>
       <c r="D88" t="n">
-        <v>0.220609</v>
+        <v>0.22724</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.210254</v>
+        <v>0.211176</v>
       </c>
       <c r="C89" t="n">
-        <v>0.219952</v>
+        <v>0.221344</v>
       </c>
       <c r="D89" t="n">
-        <v>0.219587</v>
+        <v>0.226241</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.204439</v>
+        <v>0.20484</v>
       </c>
       <c r="C90" t="n">
-        <v>0.219141</v>
+        <v>0.220256</v>
       </c>
       <c r="D90" t="n">
-        <v>0.218784</v>
+        <v>0.225489</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.197938</v>
+        <v>0.197888</v>
       </c>
       <c r="C91" t="n">
-        <v>0.218</v>
+        <v>0.219415</v>
       </c>
       <c r="D91" t="n">
-        <v>0.217755</v>
+        <v>0.224505</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.19121</v>
+        <v>0.190605</v>
       </c>
       <c r="C92" t="n">
-        <v>0.216849</v>
+        <v>0.218492</v>
       </c>
       <c r="D92" t="n">
-        <v>0.21704</v>
+        <v>0.223735</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.1828</v>
+        <v>0.182097</v>
       </c>
       <c r="C93" t="n">
-        <v>0.216011</v>
+        <v>0.217706</v>
       </c>
       <c r="D93" t="n">
-        <v>0.21623</v>
+        <v>0.222895</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.173754</v>
+        <v>0.1719</v>
       </c>
       <c r="C94" t="n">
-        <v>0.215086</v>
+        <v>0.216915</v>
       </c>
       <c r="D94" t="n">
-        <v>0.230539</v>
+        <v>0.239711</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.248788</v>
+        <v>0.251299</v>
       </c>
       <c r="C95" t="n">
-        <v>0.229152</v>
+        <v>0.235879</v>
       </c>
       <c r="D95" t="n">
-        <v>0.229246</v>
+        <v>0.237182</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.245892</v>
+        <v>0.248019</v>
       </c>
       <c r="C96" t="n">
-        <v>0.227884</v>
+        <v>0.232276</v>
       </c>
       <c r="D96" t="n">
-        <v>0.227902</v>
+        <v>0.235335</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.242225</v>
+        <v>0.244127</v>
       </c>
       <c r="C97" t="n">
-        <v>0.226627</v>
+        <v>0.229777</v>
       </c>
       <c r="D97" t="n">
-        <v>0.226505</v>
+        <v>0.233933</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.237851</v>
+        <v>0.239723</v>
       </c>
       <c r="C98" t="n">
-        <v>0.225406</v>
+        <v>0.227738</v>
       </c>
       <c r="D98" t="n">
-        <v>0.225334</v>
+        <v>0.232964</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.233353</v>
+        <v>0.23491</v>
       </c>
       <c r="C99" t="n">
-        <v>0.224378</v>
+        <v>0.226186</v>
       </c>
       <c r="D99" t="n">
-        <v>0.224237</v>
+        <v>0.231522</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.22835</v>
+        <v>0.229923</v>
       </c>
       <c r="C100" t="n">
-        <v>0.223333</v>
+        <v>0.224924</v>
       </c>
       <c r="D100" t="n">
-        <v>0.22323</v>
+        <v>0.230428</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.22365</v>
+        <v>0.224131</v>
       </c>
       <c r="C101" t="n">
-        <v>0.222182</v>
+        <v>0.223825</v>
       </c>
       <c r="D101" t="n">
-        <v>0.221878</v>
+        <v>0.228937</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.218158</v>
+        <v>0.218559</v>
       </c>
       <c r="C102" t="n">
-        <v>0.221016</v>
+        <v>0.222639</v>
       </c>
       <c r="D102" t="n">
-        <v>0.221037</v>
+        <v>0.227841</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.212134</v>
+        <v>0.212431</v>
       </c>
       <c r="C103" t="n">
-        <v>0.220141</v>
+        <v>0.221594</v>
       </c>
       <c r="D103" t="n">
-        <v>0.220109</v>
+        <v>0.226936</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.207161</v>
+        <v>0.206093</v>
       </c>
       <c r="C104" t="n">
-        <v>0.219122</v>
+        <v>0.220637</v>
       </c>
       <c r="D104" t="n">
-        <v>0.219222</v>
+        <v>0.226475</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.201353</v>
+        <v>0.199207</v>
       </c>
       <c r="C105" t="n">
-        <v>0.218158</v>
+        <v>0.219782</v>
       </c>
       <c r="D105" t="n">
-        <v>0.21826</v>
+        <v>0.22552</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.192869</v>
+        <v>0.192019</v>
       </c>
       <c r="C106" t="n">
-        <v>0.217064</v>
+        <v>0.218899</v>
       </c>
       <c r="D106" t="n">
-        <v>0.217369</v>
+        <v>0.22466</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.184531</v>
+        <v>0.183749</v>
       </c>
       <c r="C107" t="n">
-        <v>0.216089</v>
+        <v>0.218093</v>
       </c>
       <c r="D107" t="n">
-        <v>0.216684</v>
+        <v>0.223865</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.176223</v>
+        <v>0.174303</v>
       </c>
       <c r="C108" t="n">
-        <v>0.215115</v>
+        <v>0.217262</v>
       </c>
       <c r="D108" t="n">
-        <v>0.231535</v>
+        <v>0.239576</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.165326</v>
+        <v>0.162838</v>
       </c>
       <c r="C109" t="n">
-        <v>0.213999</v>
+        <v>0.216542</v>
       </c>
       <c r="D109" t="n">
-        <v>0.229895</v>
+        <v>0.237213</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.249412</v>
+        <v>0.249639</v>
       </c>
       <c r="C110" t="n">
-        <v>0.228686</v>
+        <v>0.233106</v>
       </c>
       <c r="D110" t="n">
-        <v>0.228581</v>
+        <v>0.235342</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.245661</v>
+        <v>0.245731</v>
       </c>
       <c r="C111" t="n">
-        <v>0.227818</v>
+        <v>0.230117</v>
       </c>
       <c r="D111" t="n">
-        <v>0.227707</v>
+        <v>0.233703</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.24145</v>
+        <v>0.241243</v>
       </c>
       <c r="C112" t="n">
-        <v>0.226706</v>
+        <v>0.227957</v>
       </c>
       <c r="D112" t="n">
-        <v>0.226472</v>
+        <v>0.232291</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.236736</v>
+        <v>0.236498</v>
       </c>
       <c r="C113" t="n">
-        <v>0.22593</v>
+        <v>0.226393</v>
       </c>
       <c r="D113" t="n">
-        <v>0.225321</v>
+        <v>0.230896</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.231361</v>
+        <v>0.231101</v>
       </c>
       <c r="C114" t="n">
-        <v>0.225003</v>
+        <v>0.224926</v>
       </c>
       <c r="D114" t="n">
-        <v>0.224008</v>
+        <v>0.229691</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.22663</v>
+        <v>0.225563</v>
       </c>
       <c r="C115" t="n">
-        <v>0.224116</v>
+        <v>0.223667</v>
       </c>
       <c r="D115" t="n">
-        <v>0.222799</v>
+        <v>0.22859</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.220527</v>
+        <v>0.219876</v>
       </c>
       <c r="C116" t="n">
-        <v>0.223879</v>
+        <v>0.223096</v>
       </c>
       <c r="D116" t="n">
-        <v>0.221746</v>
+        <v>0.227856</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.215236</v>
+        <v>0.213794</v>
       </c>
       <c r="C117" t="n">
-        <v>0.222578</v>
+        <v>0.221964</v>
       </c>
       <c r="D117" t="n">
-        <v>0.22047</v>
+        <v>0.226983</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.208798</v>
+        <v>0.207545</v>
       </c>
       <c r="C118" t="n">
-        <v>0.221253</v>
+        <v>0.221041</v>
       </c>
       <c r="D118" t="n">
-        <v>0.219699</v>
+        <v>0.226085</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.202297</v>
+        <v>0.200654</v>
       </c>
       <c r="C119" t="n">
-        <v>0.220002</v>
+        <v>0.220161</v>
       </c>
       <c r="D119" t="n">
-        <v>0.218899</v>
+        <v>0.225282</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.194777</v>
+        <v>0.193435</v>
       </c>
       <c r="C120" t="n">
-        <v>0.218511</v>
+        <v>0.219251</v>
       </c>
       <c r="D120" t="n">
-        <v>0.217766</v>
+        <v>0.224461</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.186376</v>
+        <v>0.185456</v>
       </c>
       <c r="C121" t="n">
-        <v>0.218424</v>
+        <v>0.218443</v>
       </c>
       <c r="D121" t="n">
-        <v>0.216956</v>
+        <v>0.223722</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.178044</v>
+        <v>0.175966</v>
       </c>
       <c r="C122" t="n">
-        <v>0.217237</v>
+        <v>0.217652</v>
       </c>
       <c r="D122" t="n">
-        <v>0.216105</v>
+        <v>0.223001</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.167413</v>
+        <v>0.16491</v>
       </c>
       <c r="C123" t="n">
-        <v>0.21592</v>
+        <v>0.216747</v>
       </c>
       <c r="D123" t="n">
-        <v>0.230196</v>
+        <v>0.237285</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.249892</v>
+        <v>0.251293</v>
       </c>
       <c r="C124" t="n">
-        <v>0.229204</v>
+        <v>0.233339</v>
       </c>
       <c r="D124" t="n">
-        <v>0.228934</v>
+        <v>0.235374</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.246388</v>
+        <v>0.247604</v>
       </c>
       <c r="C125" t="n">
-        <v>0.228225</v>
+        <v>0.230313</v>
       </c>
       <c r="D125" t="n">
-        <v>0.227747</v>
+        <v>0.2337</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.24233</v>
+        <v>0.243229</v>
       </c>
       <c r="C126" t="n">
-        <v>0.227486</v>
+        <v>0.228265</v>
       </c>
       <c r="D126" t="n">
-        <v>0.22649</v>
+        <v>0.232315</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.237577</v>
+        <v>0.237169</v>
       </c>
       <c r="C127" t="n">
-        <v>0.226647</v>
+        <v>0.226554</v>
       </c>
       <c r="D127" t="n">
-        <v>0.225342</v>
+        <v>0.230895</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.232618</v>
+        <v>0.232007</v>
       </c>
       <c r="C128" t="n">
-        <v>0.224831</v>
+        <v>0.225147</v>
       </c>
       <c r="D128" t="n">
-        <v>0.223935</v>
+        <v>0.229728</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.227085</v>
+        <v>0.226576</v>
       </c>
       <c r="C129" t="n">
-        <v>0.224551</v>
+        <v>0.223895</v>
       </c>
       <c r="D129" t="n">
-        <v>0.222829</v>
+        <v>0.228673</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.221874</v>
+        <v>0.221042</v>
       </c>
       <c r="C130" t="n">
-        <v>0.223684</v>
+        <v>0.222836</v>
       </c>
       <c r="D130" t="n">
-        <v>0.221956</v>
+        <v>0.227668</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.215183</v>
+        <v>0.214901</v>
       </c>
       <c r="C131" t="n">
-        <v>0.222232</v>
+        <v>0.221859</v>
       </c>
       <c r="D131" t="n">
-        <v>0.220854</v>
+        <v>0.226699</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.208165</v>
+        <v>0.208636</v>
       </c>
       <c r="C132" t="n">
-        <v>0.221079</v>
+        <v>0.220818</v>
       </c>
       <c r="D132" t="n">
-        <v>0.219871</v>
+        <v>0.225807</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.202971</v>
+        <v>0.201996</v>
       </c>
       <c r="C133" t="n">
-        <v>0.220257</v>
+        <v>0.219893</v>
       </c>
       <c r="D133" t="n">
-        <v>0.219058</v>
+        <v>0.224951</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.196496</v>
+        <v>0.195117</v>
       </c>
       <c r="C134" t="n">
-        <v>0.218888</v>
+        <v>0.219067</v>
       </c>
       <c r="D134" t="n">
-        <v>0.217926</v>
+        <v>0.224143</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.188499</v>
+        <v>0.18742</v>
       </c>
       <c r="C135" t="n">
-        <v>0.217975</v>
+        <v>0.218239</v>
       </c>
       <c r="D135" t="n">
-        <v>0.217006</v>
+        <v>0.223409</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.180022</v>
+        <v>0.178418</v>
       </c>
       <c r="C136" t="n">
-        <v>0.217786</v>
+        <v>0.217829</v>
       </c>
       <c r="D136" t="n">
-        <v>0.21621</v>
+        <v>0.223041</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.169232</v>
+        <v>0.167876</v>
       </c>
       <c r="C137" t="n">
-        <v>0.215557</v>
+        <v>0.21699</v>
       </c>
       <c r="D137" t="n">
-        <v>0.230382</v>
+        <v>0.238591</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.247925</v>
+        <v>0.250586</v>
       </c>
       <c r="C138" t="n">
-        <v>0.229424</v>
+        <v>0.234758</v>
       </c>
       <c r="D138" t="n">
-        <v>0.228945</v>
+        <v>0.236406</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.244339</v>
+        <v>0.247147</v>
       </c>
       <c r="C139" t="n">
-        <v>0.228431</v>
+        <v>0.231578</v>
       </c>
       <c r="D139" t="n">
-        <v>0.227706</v>
+        <v>0.234698</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.24041</v>
+        <v>0.242923</v>
       </c>
       <c r="C140" t="n">
-        <v>0.227558</v>
+        <v>0.229123</v>
       </c>
       <c r="D140" t="n">
-        <v>0.22672</v>
+        <v>0.233163</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.236219</v>
+        <v>0.238252</v>
       </c>
       <c r="C141" t="n">
-        <v>0.226964</v>
+        <v>0.227302</v>
       </c>
       <c r="D141" t="n">
-        <v>0.225361</v>
+        <v>0.231711</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.231372</v>
+        <v>0.2333</v>
       </c>
       <c r="C142" t="n">
-        <v>0.225932</v>
+        <v>0.225811</v>
       </c>
       <c r="D142" t="n">
-        <v>0.224256</v>
+        <v>0.230522</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.22641</v>
+        <v>0.227843</v>
       </c>
       <c r="C143" t="n">
-        <v>0.225032</v>
+        <v>0.22452</v>
       </c>
       <c r="D143" t="n">
-        <v>0.223373</v>
+        <v>0.229318</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -93,7 +93,7 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_set</v>
+            <v>absl::flat_hash_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +553,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.194612</v>
+                  <v>0.187292</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.191638</v>
+                  <v>0.183982</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.185948</v>
+                  <v>0.179004</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.181213</v>
+                  <v>0.176892</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.176405</v>
+                  <v>0.17022</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.168787</v>
+                  <v>0.163509</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.161006</v>
+                  <v>0.156318</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.150825</v>
+                  <v>0.146334</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.228826</v>
+                  <v>0.231139</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.226788</v>
+                  <v>0.228081</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.224044</v>
+                  <v>0.225517</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.220862</v>
+                  <v>0.222864</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.216427</v>
+                  <v>0.21893</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.212846</v>
+                  <v>0.214659</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.208735</v>
+                  <v>0.209928</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.203903</v>
+                  <v>0.20518</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.199642</v>
+                  <v>0.200207</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.194027</v>
+                  <v>0.195783</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.188103</v>
+                  <v>0.189275</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.180311</v>
+                  <v>0.181574</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.17321</v>
+                  <v>0.174132</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.164054</v>
+                  <v>0.16528</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.239603</v>
+                  <v>0.243142</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.236062</v>
+                  <v>0.239615</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.233229</v>
+                  <v>0.236139</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.229128</v>
+                  <v>0.232566</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.22522</v>
+                  <v>0.227385</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.21992</v>
+                  <v>0.222635</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.215386</v>
+                  <v>0.217695</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.211557</v>
+                  <v>0.212684</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.206831</v>
+                  <v>0.20734</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.200459</v>
+                  <v>0.20071</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.194838</v>
+                  <v>0.194395</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.1876</v>
+                  <v>0.186684</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.180276</v>
+                  <v>0.181061</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.171747</v>
+                  <v>0.169795</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.243193</v>
+                  <v>0.248879</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.241149</v>
+                  <v>0.244774</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.237429</v>
+                  <v>0.241026</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.23329</v>
+                  <v>0.236858</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.230414</v>
+                  <v>0.232237</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.22565</v>
+                  <v>0.227177</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.220718</v>
+                  <v>0.22226</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.216313</v>
+                  <v>0.216502</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.210133</v>
+                  <v>0.2114</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.204258</v>
+                  <v>0.204573</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.198303</v>
+                  <v>0.198267</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.192364</v>
+                  <v>0.191099</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.185475</v>
+                  <v>0.183731</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.177313</v>
+                  <v>0.172869</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.165935</v>
+                  <v>0.161871</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.244443</v>
+                  <v>0.247769</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.24075</v>
+                  <v>0.243592</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.237198</v>
+                  <v>0.239389</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.232552</v>
+                  <v>0.234805</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.227956</v>
+                  <v>0.230401</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.223337</v>
+                  <v>0.224628</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.218764</v>
+                  <v>0.218949</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.21417</v>
+                  <v>0.213275</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.207987</v>
+                  <v>0.206692</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.201565</v>
+                  <v>0.200398</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.194506</v>
+                  <v>0.193096</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.187368</v>
+                  <v>0.185345</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.179344</v>
+                  <v>0.177726</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.169953</v>
+                  <v>0.167032</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.246575</v>
+                  <v>0.250983</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.243515</v>
+                  <v>0.246922</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.239984</v>
+                  <v>0.24234</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.235197</v>
+                  <v>0.237651</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.230719</v>
+                  <v>0.232612</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.225781</v>
+                  <v>0.2275</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.220304</v>
+                  <v>0.222083</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.214988</v>
+                  <v>0.215699</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.209112</v>
+                  <v>0.209667</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.203632</v>
+                  <v>0.202946</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.196996</v>
+                  <v>0.196222</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.1892</v>
+                  <v>0.188555</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.181456</v>
+                  <v>0.179944</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.17154</v>
+                  <v>0.169766</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.248397</v>
+                  <v>0.251071</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.244699</v>
+                  <v>0.247217</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.240805</v>
+                  <v>0.243499</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.236921</v>
+                  <v>0.239247</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.23242</v>
+                  <v>0.233745</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.227354</v>
+                  <v>0.228775</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.222391</v>
+                  <v>0.223145</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.217037</v>
+                  <v>0.217208</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.211349</v>
+                  <v>0.211176</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.205524</v>
+                  <v>0.20484</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.198702</v>
+                  <v>0.197888</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.191964</v>
+                  <v>0.190605</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.183929</v>
+                  <v>0.182097</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.17547</v>
+                  <v>0.1719</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.248616</v>
+                  <v>0.251299</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.245787</v>
+                  <v>0.248019</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.242009</v>
+                  <v>0.244127</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.238089</v>
+                  <v>0.239723</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.23324</v>
+                  <v>0.23491</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.228697</v>
+                  <v>0.229923</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.223516</v>
+                  <v>0.224131</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.21841</v>
+                  <v>0.218559</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.213314</v>
+                  <v>0.212431</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.207162</v>
+                  <v>0.206093</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.200421</v>
+                  <v>0.199207</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.193599</v>
+                  <v>0.192019</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.185725</v>
+                  <v>0.183749</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.176764</v>
+                  <v>0.174303</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.166714</v>
+                  <v>0.162838</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.245794</v>
+                  <v>0.249639</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.242525</v>
+                  <v>0.245731</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.238424</v>
+                  <v>0.241243</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.234103</v>
+                  <v>0.236498</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.229231</v>
+                  <v>0.231101</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.224664</v>
+                  <v>0.225563</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.219304</v>
+                  <v>0.219876</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.214252</v>
+                  <v>0.213794</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.208518</v>
+                  <v>0.207545</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.202065</v>
+                  <v>0.200654</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.195244</v>
+                  <v>0.193435</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.187756</v>
+                  <v>0.185456</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.179133</v>
+                  <v>0.175966</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.169207</v>
+                  <v>0.16491</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.246917</v>
+                  <v>0.251293</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.246332</v>
+                  <v>0.247604</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.242585</v>
+                  <v>0.243229</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.238219</v>
+                  <v>0.237169</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.232265</v>
+                  <v>0.232007</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.228123</v>
+                  <v>0.226576</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.222635</v>
+                  <v>0.221042</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.216763</v>
+                  <v>0.214901</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.210668</v>
+                  <v>0.208636</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.204186</v>
+                  <v>0.201996</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.196987</v>
+                  <v>0.195117</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.189119</v>
+                  <v>0.18742</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.180213</v>
+                  <v>0.178418</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.169992</v>
+                  <v>0.167876</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.247592</v>
+                  <v>0.250586</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.244288</v>
+                  <v>0.247147</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.240723</v>
+                  <v>0.242923</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.236424</v>
+                  <v>0.238252</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.231662</v>
+                  <v>0.2333</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.226876</v>
+                  <v>0.227843</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +987,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_set</v>
+            <v>foa_unordered_rc16_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1447,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.201291</v>
+                  <v>0.206229</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.201516</v>
+                  <v>0.206842</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.200249</v>
+                  <v>0.206135</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.200249</v>
+                  <v>0.206722</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.200505</v>
+                  <v>0.206327</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.199087</v>
+                  <v>0.206321</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.198418</v>
+                  <v>0.206192</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.198247</v>
+                  <v>0.205238</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.221437</v>
+                  <v>0.224944</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.219922</v>
+                  <v>0.224007</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.218528</v>
+                  <v>0.222663</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.2171</v>
+                  <v>0.221498</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.215463</v>
+                  <v>0.221017</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.214955</v>
+                  <v>0.220245</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.213377</v>
+                  <v>0.219581</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.212913</v>
+                  <v>0.218457</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.211602</v>
+                  <v>0.217573</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.210815</v>
+                  <v>0.217195</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.207504</v>
+                  <v>0.216497</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.207086</v>
+                  <v>0.215746</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.205552</v>
+                  <v>0.214832</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.204648</v>
+                  <v>0.21423</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.224703</v>
+                  <v>0.228939</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.223023</v>
+                  <v>0.227393</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.220848</v>
+                  <v>0.227107</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.218965</v>
+                  <v>0.224972</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.217972</v>
+                  <v>0.224321</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.215821</v>
+                  <v>0.223063</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.214615</v>
+                  <v>0.221902</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.213219</v>
+                  <v>0.220735</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.211578</v>
+                  <v>0.219663</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.210634</v>
+                  <v>0.219014</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.210872</v>
+                  <v>0.21802</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.208499</v>
+                  <v>0.217046</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.206422</v>
+                  <v>0.216342</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.206007</v>
+                  <v>0.215854</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.2255</v>
+                  <v>0.229763</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.223422</v>
+                  <v>0.228245</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.221975</v>
+                  <v>0.226658</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.220213</v>
+                  <v>0.225711</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.218556</v>
+                  <v>0.224436</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.217427</v>
+                  <v>0.223405</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.216138</v>
+                  <v>0.222302</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.214962</v>
+                  <v>0.22123</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.2136</v>
+                  <v>0.220403</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.213041</v>
+                  <v>0.219849</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.211832</v>
+                  <v>0.218845</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.209509</v>
+                  <v>0.217926</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.208684</v>
+                  <v>0.217302</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.207132</v>
+                  <v>0.216228</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.205146</v>
+                  <v>0.215748</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.225152</v>
+                  <v>0.229059</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.222728</v>
+                  <v>0.227574</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.221529</v>
+                  <v>0.226449</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.219913</v>
+                  <v>0.22552</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.218323</v>
+                  <v>0.224386</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.217431</v>
+                  <v>0.223346</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.215819</v>
+                  <v>0.222174</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.215038</v>
+                  <v>0.221052</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.213131</v>
+                  <v>0.220193</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.212027</v>
+                  <v>0.219293</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.210712</v>
+                  <v>0.218512</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.208761</v>
+                  <v>0.217698</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.207429</v>
+                  <v>0.216983</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.20611</v>
+                  <v>0.215886</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.226496</v>
+                  <v>0.231128</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.224306</v>
+                  <v>0.229816</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.22236</v>
+                  <v>0.228207</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.220723</v>
+                  <v>0.226759</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.219672</v>
+                  <v>0.225621</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.217845</v>
+                  <v>0.224178</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.216338</v>
+                  <v>0.223074</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.215434</v>
+                  <v>0.221867</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.21392</v>
+                  <v>0.220973</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.212572</v>
+                  <v>0.22015</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.211105</v>
+                  <v>0.219205</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.209406</v>
+                  <v>0.218341</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.207868</v>
+                  <v>0.217394</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.20659</v>
+                  <v>0.216569</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.226701</v>
+                  <v>0.238485</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.225122</v>
+                  <v>0.233573</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.223251</v>
+                  <v>0.230278</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.221644</v>
+                  <v>0.227726</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.220299</v>
+                  <v>0.225567</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.218858</v>
+                  <v>0.224477</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.217246</v>
+                  <v>0.223515</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.215881</v>
+                  <v>0.222424</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.214362</v>
+                  <v>0.221344</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.212958</v>
+                  <v>0.220256</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.211369</v>
+                  <v>0.219415</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.209912</v>
+                  <v>0.218492</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.20825</v>
+                  <v>0.217706</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.206617</v>
+                  <v>0.216915</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.228183</v>
+                  <v>0.235879</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.227169</v>
+                  <v>0.232276</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.22497</v>
+                  <v>0.229777</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.222703</v>
+                  <v>0.227738</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.221276</v>
+                  <v>0.226186</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.219577</v>
+                  <v>0.224924</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.218228</v>
+                  <v>0.223825</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.21622</v>
+                  <v>0.222639</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.214969</v>
+                  <v>0.221594</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.213557</v>
+                  <v>0.220637</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.212248</v>
+                  <v>0.219782</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.210401</v>
+                  <v>0.218899</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.208988</v>
+                  <v>0.218093</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.207346</v>
+                  <v>0.217262</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.205767</v>
+                  <v>0.216542</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.225906</v>
+                  <v>0.233106</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.224097</v>
+                  <v>0.230117</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.222728</v>
+                  <v>0.227957</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.221308</v>
+                  <v>0.226393</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.220196</v>
+                  <v>0.224926</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.21862</v>
+                  <v>0.223667</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.21655</v>
+                  <v>0.223096</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.215537</v>
+                  <v>0.221964</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.214238</v>
+                  <v>0.221041</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.212117</v>
+                  <v>0.220161</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.210881</v>
+                  <v>0.219251</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.209702</v>
+                  <v>0.218443</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.208043</v>
+                  <v>0.217652</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.206454</v>
+                  <v>0.216747</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.226329</v>
+                  <v>0.233339</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.224658</v>
+                  <v>0.230313</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.222948</v>
+                  <v>0.228265</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.221866</v>
+                  <v>0.226554</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.220554</v>
+                  <v>0.225147</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.218875</v>
+                  <v>0.223895</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.216964</v>
+                  <v>0.222836</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.216028</v>
+                  <v>0.221859</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.214504</v>
+                  <v>0.220818</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.212833</v>
+                  <v>0.219893</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.211468</v>
+                  <v>0.219067</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.209966</v>
+                  <v>0.218239</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.208345</v>
+                  <v>0.217829</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.206874</v>
+                  <v>0.21699</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.226779</v>
+                  <v>0.234758</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.224795</v>
+                  <v>0.231578</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.223089</v>
+                  <v>0.229123</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.222063</v>
+                  <v>0.227302</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.220921</v>
+                  <v>0.225811</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.219072</v>
+                  <v>0.22452</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1881,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_set</v>
+            <v>foa_unordered_rc15_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2341,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.208606</v>
+                  <v>0.209873</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.209511</v>
+                  <v>0.211012</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.208379</v>
+                  <v>0.210745</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.207471</v>
+                  <v>0.211549</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.208052</v>
+                  <v>0.212704</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.207445</v>
+                  <v>0.211818</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.206031</v>
+                  <v>0.212862</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.227022</v>
+                  <v>0.227673</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.225902</v>
+                  <v>0.226193</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.225349</v>
+                  <v>0.226517</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.224759</v>
+                  <v>0.225181</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.222172</v>
+                  <v>0.224215</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.220768</v>
+                  <v>0.224629</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.220222</v>
+                  <v>0.224124</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.219154</v>
+                  <v>0.22305</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.218249</v>
+                  <v>0.222995</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.217496</v>
+                  <v>0.221534</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.21592</v>
+                  <v>0.221762</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.215069</v>
+                  <v>0.221599</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.214014</v>
+                  <v>0.220998</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.213713</v>
+                  <v>0.21979</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.231544</v>
+                  <v>0.233436</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.229919</v>
+                  <v>0.232471</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.228007</v>
+                  <v>0.231226</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.225997</v>
+                  <v>0.230275</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.224769</v>
+                  <v>0.229388</v>
                 </pt>
                 <pt idx="26">
+                  <v>0.228411</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.227283</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.226614</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.225598</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.225321</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.224224</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.223667</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.222733</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.222081</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.235696</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.234257</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.233102</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.231628</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.230805</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.229469</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.228368</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.227503</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.226573</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.225474</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.224613</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.223838</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.223185</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.222298</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.236836</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.235449</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.234269</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.232952</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.231637</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.230491</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.229579</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.22827</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.227342</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.226352</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.225524</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.22462</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.223724</v>
+                </pt>
+                <pt idx="62">
                   <v>0.222897</v>
                 </pt>
-                <pt idx="27">
-                  <v>0.221417</v>
-                </pt>
-                <pt idx="28">
-                  <v>0.220399</v>
-                </pt>
-                <pt idx="29">
-                  <v>0.219409</v>
-                </pt>
-                <pt idx="30">
-                  <v>0.218654</v>
-                </pt>
-                <pt idx="31">
-                  <v>0.2176</v>
-                </pt>
-                <pt idx="32">
-                  <v>0.216706</v>
-                </pt>
-                <pt idx="33">
-                  <v>0.215503</v>
-                </pt>
-                <pt idx="34">
-                  <v>0.21437</v>
-                </pt>
-                <pt idx="35">
-                  <v>0.232848</v>
-                </pt>
-                <pt idx="36">
-                  <v>0.230791</v>
-                </pt>
-                <pt idx="37">
-                  <v>0.228567</v>
-                </pt>
-                <pt idx="38">
-                  <v>0.227428</v>
-                </pt>
-                <pt idx="39">
-                  <v>0.225946</v>
-                </pt>
-                <pt idx="40">
-                  <v>0.224501</v>
-                </pt>
-                <pt idx="41">
-                  <v>0.223499</v>
-                </pt>
-                <pt idx="42">
-                  <v>0.221763</v>
-                </pt>
-                <pt idx="43">
-                  <v>0.220712</v>
-                </pt>
-                <pt idx="44">
-                  <v>0.219726</v>
-                </pt>
-                <pt idx="45">
-                  <v>0.218625</v>
-                </pt>
-                <pt idx="46">
-                  <v>0.217414</v>
-                </pt>
-                <pt idx="47">
-                  <v>0.216309</v>
-                </pt>
-                <pt idx="48">
-                  <v>0.215473</v>
-                </pt>
-                <pt idx="49">
-                  <v>0.234185</v>
-                </pt>
-                <pt idx="50">
-                  <v>0.231995</v>
-                </pt>
-                <pt idx="51">
-                  <v>0.230333</v>
-                </pt>
-                <pt idx="52">
-                  <v>0.228753</v>
-                </pt>
-                <pt idx="53">
-                  <v>0.227289</v>
-                </pt>
-                <pt idx="54">
-                  <v>0.225584</v>
-                </pt>
-                <pt idx="55">
-                  <v>0.224278</v>
-                </pt>
-                <pt idx="56">
-                  <v>0.223081</v>
-                </pt>
-                <pt idx="57">
-                  <v>0.221831</v>
-                </pt>
-                <pt idx="58">
-                  <v>0.221009</v>
-                </pt>
-                <pt idx="59">
-                  <v>0.219558</v>
-                </pt>
-                <pt idx="60">
-                  <v>0.218221</v>
-                </pt>
-                <pt idx="61">
-                  <v>0.216985</v>
-                </pt>
-                <pt idx="62">
-                  <v>0.215766</v>
-                </pt>
                 <pt idx="63">
-                  <v>0.215022</v>
+                  <v>0.222256</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.232794</v>
+                  <v>0.236524</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.231625</v>
+                  <v>0.234957</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.229878</v>
+                  <v>0.23352</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.227973</v>
+                  <v>0.232314</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.226546</v>
+                  <v>0.231079</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.224849</v>
+                  <v>0.230032</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.223557</v>
+                  <v>0.228745</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.222089</v>
+                  <v>0.227756</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.220911</v>
+                  <v>0.226814</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.219549</v>
+                  <v>0.225878</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.218464</v>
+                  <v>0.225063</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.217405</v>
+                  <v>0.224187</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.216331</v>
+                  <v>0.223308</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.215458</v>
+                  <v>0.222776</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.233837</v>
+                  <v>0.238898</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.232005</v>
+                  <v>0.236543</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.230439</v>
+                  <v>0.234982</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.228893</v>
+                  <v>0.233183</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.227426</v>
+                  <v>0.231928</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.225865</v>
+                  <v>0.230557</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.224498</v>
+                  <v>0.229474</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.223047</v>
+                  <v>0.228263</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.221774</v>
+                  <v>0.22724</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.22041</v>
+                  <v>0.226241</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.219137</v>
+                  <v>0.225489</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.217886</v>
+                  <v>0.224505</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.216679</v>
+                  <v>0.223735</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.215674</v>
+                  <v>0.222895</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.234727</v>
+                  <v>0.239711</v>
                 </pt>
                 <pt idx="93">
+                  <v>0.237182</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.235335</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.233933</v>
+                </pt>
+                <pt idx="96">
                   <v>0.232964</v>
                 </pt>
-                <pt idx="94">
-                  <v>0.231308</v>
-                </pt>
-                <pt idx="95">
-                  <v>0.229417</v>
-                </pt>
-                <pt idx="96">
-                  <v>0.227967</v>
-                </pt>
                 <pt idx="97">
-                  <v>0.226301</v>
+                  <v>0.231522</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.224841</v>
+                  <v>0.230428</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.223213</v>
+                  <v>0.228937</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.222211</v>
+                  <v>0.227841</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.220851</v>
+                  <v>0.226936</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.219426</v>
+                  <v>0.226475</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.218379</v>
+                  <v>0.22552</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.217286</v>
+                  <v>0.22466</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.216168</v>
+                  <v>0.223865</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.235399</v>
+                  <v>0.239576</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.233298</v>
+                  <v>0.237213</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.231768</v>
+                  <v>0.235342</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.22999</v>
+                  <v>0.233703</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.228418</v>
+                  <v>0.232291</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.22708</v>
+                  <v>0.230896</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.225417</v>
+                  <v>0.229691</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.22423</v>
+                  <v>0.22859</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.223036</v>
+                  <v>0.227856</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.221508</v>
+                  <v>0.226983</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.22016</v>
+                  <v>0.226085</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.219138</v>
+                  <v>0.225282</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.217869</v>
+                  <v>0.224461</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.216605</v>
+                  <v>0.223722</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.215346</v>
+                  <v>0.223001</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.233921</v>
+                  <v>0.237285</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.23228</v>
+                  <v>0.235374</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.229977</v>
+                  <v>0.2337</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.229139</v>
+                  <v>0.232315</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.227523</v>
+                  <v>0.230895</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.226097</v>
+                  <v>0.229728</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.224516</v>
+                  <v>0.228673</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.223005</v>
+                  <v>0.227668</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.221893</v>
+                  <v>0.226699</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.220026</v>
+                  <v>0.225807</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.219126</v>
+                  <v>0.224951</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.217574</v>
+                  <v>0.224143</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.216965</v>
+                  <v>0.223409</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.215759</v>
+                  <v>0.223041</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.233797</v>
+                  <v>0.238591</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.23263</v>
+                  <v>0.236406</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.231029</v>
+                  <v>0.234698</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.229376</v>
+                  <v>0.233163</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.22777</v>
+                  <v>0.231711</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.2262</v>
+                  <v>0.230522</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.224234</v>
+                  <v>0.229318</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3217,30 +3217,30 @@
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="3" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="4" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="7" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>absl::flat_hash_set</t>
+          <t>absl::flat_hash_map</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_set</t>
+          <t>foa_unordered_rc16_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_set</t>
+          <t>foa_unordered_rc15_map</t>
         </is>
       </c>
     </row>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.187292</v>
+        <v>0.187856</v>
       </c>
       <c r="C2" t="n">
-        <v>0.206229</v>
+        <v>0.206718</v>
       </c>
       <c r="D2" t="n">
-        <v>0.209873</v>
+        <v>0.211167</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.183982</v>
+        <v>0.182199</v>
       </c>
       <c r="C3" t="n">
-        <v>0.206842</v>
+        <v>0.206525</v>
       </c>
       <c r="D3" t="n">
-        <v>0.211012</v>
+        <v>0.212072</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.179004</v>
+        <v>0.177167</v>
       </c>
       <c r="C4" t="n">
-        <v>0.206135</v>
+        <v>0.206506</v>
       </c>
       <c r="D4" t="n">
-        <v>0.210745</v>
+        <v>0.211192</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.176892</v>
+        <v>0.174265</v>
       </c>
       <c r="C5" t="n">
-        <v>0.206722</v>
+        <v>0.20634</v>
       </c>
       <c r="D5" t="n">
-        <v>0.211549</v>
+        <v>0.211718</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.17022</v>
+        <v>0.169288</v>
       </c>
       <c r="C6" t="n">
-        <v>0.206327</v>
+        <v>0.206618</v>
       </c>
       <c r="D6" t="n">
-        <v>0.212704</v>
+        <v>0.212973</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.163509</v>
+        <v>0.163454</v>
       </c>
       <c r="C7" t="n">
-        <v>0.206321</v>
+        <v>0.205875</v>
       </c>
       <c r="D7" t="n">
-        <v>0.211818</v>
+        <v>0.211751</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.156318</v>
+        <v>0.156387</v>
       </c>
       <c r="C8" t="n">
-        <v>0.206192</v>
+        <v>0.206674</v>
       </c>
       <c r="D8" t="n">
-        <v>0.212862</v>
+        <v>0.213125</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.146334</v>
+        <v>0.14551</v>
       </c>
       <c r="C9" t="n">
-        <v>0.205238</v>
+        <v>0.205484</v>
       </c>
       <c r="D9" t="n">
-        <v>0.227673</v>
+        <v>0.227093</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.231139</v>
+        <v>0.230008</v>
       </c>
       <c r="C10" t="n">
-        <v>0.224944</v>
+        <v>0.225193</v>
       </c>
       <c r="D10" t="n">
-        <v>0.226193</v>
+        <v>0.226269</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.228081</v>
+        <v>0.226638</v>
       </c>
       <c r="C11" t="n">
-        <v>0.224007</v>
+        <v>0.223056</v>
       </c>
       <c r="D11" t="n">
-        <v>0.226517</v>
+        <v>0.226123</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.225517</v>
+        <v>0.223956</v>
       </c>
       <c r="C12" t="n">
-        <v>0.222663</v>
+        <v>0.222036</v>
       </c>
       <c r="D12" t="n">
-        <v>0.225181</v>
+        <v>0.225072</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.222864</v>
+        <v>0.222216</v>
       </c>
       <c r="C13" t="n">
-        <v>0.221498</v>
+        <v>0.220991</v>
       </c>
       <c r="D13" t="n">
-        <v>0.224215</v>
+        <v>0.224231</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.21893</v>
+        <v>0.218992</v>
       </c>
       <c r="C14" t="n">
-        <v>0.221017</v>
+        <v>0.220563</v>
       </c>
       <c r="D14" t="n">
-        <v>0.224629</v>
+        <v>0.224776</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.214659</v>
+        <v>0.21412</v>
       </c>
       <c r="C15" t="n">
-        <v>0.220245</v>
+        <v>0.220026</v>
       </c>
       <c r="D15" t="n">
-        <v>0.224124</v>
+        <v>0.224017</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.209928</v>
+        <v>0.209621</v>
       </c>
       <c r="C16" t="n">
-        <v>0.219581</v>
+        <v>0.219807</v>
       </c>
       <c r="D16" t="n">
-        <v>0.22305</v>
+        <v>0.223395</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.20518</v>
+        <v>0.204892</v>
       </c>
       <c r="C17" t="n">
-        <v>0.218457</v>
+        <v>0.218641</v>
       </c>
       <c r="D17" t="n">
-        <v>0.222995</v>
+        <v>0.223186</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.200207</v>
+        <v>0.199046</v>
       </c>
       <c r="C18" t="n">
-        <v>0.217573</v>
+        <v>0.217547</v>
       </c>
       <c r="D18" t="n">
-        <v>0.221534</v>
+        <v>0.222153</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.195783</v>
+        <v>0.195209</v>
       </c>
       <c r="C19" t="n">
-        <v>0.217195</v>
+        <v>0.216687</v>
       </c>
       <c r="D19" t="n">
-        <v>0.221762</v>
+        <v>0.221649</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.189275</v>
+        <v>0.188496</v>
       </c>
       <c r="C20" t="n">
-        <v>0.216497</v>
+        <v>0.216083</v>
       </c>
       <c r="D20" t="n">
-        <v>0.221599</v>
+        <v>0.221341</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.181574</v>
+        <v>0.181232</v>
       </c>
       <c r="C21" t="n">
-        <v>0.215746</v>
+        <v>0.215472</v>
       </c>
       <c r="D21" t="n">
-        <v>0.220998</v>
+        <v>0.221001</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.174132</v>
+        <v>0.173329</v>
       </c>
       <c r="C22" t="n">
-        <v>0.214832</v>
+        <v>0.214563</v>
       </c>
       <c r="D22" t="n">
-        <v>0.21979</v>
+        <v>0.220167</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.16528</v>
+        <v>0.16532</v>
       </c>
       <c r="C23" t="n">
-        <v>0.21423</v>
+        <v>0.213745</v>
       </c>
       <c r="D23" t="n">
-        <v>0.233436</v>
+        <v>0.234181</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.243142</v>
+        <v>0.242652</v>
       </c>
       <c r="C24" t="n">
-        <v>0.228939</v>
+        <v>0.228287</v>
       </c>
       <c r="D24" t="n">
-        <v>0.232471</v>
+        <v>0.232371</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.239615</v>
+        <v>0.238592</v>
       </c>
       <c r="C25" t="n">
-        <v>0.227393</v>
+        <v>0.226682</v>
       </c>
       <c r="D25" t="n">
-        <v>0.231226</v>
+        <v>0.231306</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.236139</v>
+        <v>0.23577</v>
       </c>
       <c r="C26" t="n">
-        <v>0.227107</v>
+        <v>0.226022</v>
       </c>
       <c r="D26" t="n">
-        <v>0.230275</v>
+        <v>0.230463</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.232566</v>
+        <v>0.232109</v>
       </c>
       <c r="C27" t="n">
-        <v>0.224972</v>
+        <v>0.225092</v>
       </c>
       <c r="D27" t="n">
-        <v>0.229388</v>
+        <v>0.229176</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.227385</v>
+        <v>0.227622</v>
       </c>
       <c r="C28" t="n">
-        <v>0.224321</v>
+        <v>0.224155</v>
       </c>
       <c r="D28" t="n">
-        <v>0.228411</v>
+        <v>0.228582</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.222635</v>
+        <v>0.222341</v>
       </c>
       <c r="C29" t="n">
-        <v>0.223063</v>
+        <v>0.222766</v>
       </c>
       <c r="D29" t="n">
-        <v>0.227283</v>
+        <v>0.22727</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.217695</v>
+        <v>0.218542</v>
       </c>
       <c r="C30" t="n">
-        <v>0.221902</v>
+        <v>0.22153</v>
       </c>
       <c r="D30" t="n">
-        <v>0.226614</v>
+        <v>0.226487</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.212684</v>
+        <v>0.212284</v>
       </c>
       <c r="C31" t="n">
-        <v>0.220735</v>
+        <v>0.220516</v>
       </c>
       <c r="D31" t="n">
-        <v>0.225598</v>
+        <v>0.226005</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.20734</v>
+        <v>0.207897</v>
       </c>
       <c r="C32" t="n">
-        <v>0.219663</v>
+        <v>0.219797</v>
       </c>
       <c r="D32" t="n">
-        <v>0.225321</v>
+        <v>0.225407</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.20071</v>
+        <v>0.201447</v>
       </c>
       <c r="C33" t="n">
-        <v>0.219014</v>
+        <v>0.218985</v>
       </c>
       <c r="D33" t="n">
-        <v>0.224224</v>
+        <v>0.224343</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.194395</v>
+        <v>0.194428</v>
       </c>
       <c r="C34" t="n">
-        <v>0.21802</v>
+        <v>0.218139</v>
       </c>
       <c r="D34" t="n">
-        <v>0.223667</v>
+        <v>0.22402</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.186684</v>
+        <v>0.18718</v>
       </c>
       <c r="C35" t="n">
-        <v>0.217046</v>
+        <v>0.2173</v>
       </c>
       <c r="D35" t="n">
-        <v>0.222733</v>
+        <v>0.222916</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.181061</v>
+        <v>0.179936</v>
       </c>
       <c r="C36" t="n">
-        <v>0.216342</v>
+        <v>0.216493</v>
       </c>
       <c r="D36" t="n">
-        <v>0.222081</v>
+        <v>0.22232</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.169795</v>
+        <v>0.17027</v>
       </c>
       <c r="C37" t="n">
-        <v>0.215854</v>
+        <v>0.216179</v>
       </c>
       <c r="D37" t="n">
-        <v>0.235696</v>
+        <v>0.236158</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.248879</v>
+        <v>0.248498</v>
       </c>
       <c r="C38" t="n">
-        <v>0.229763</v>
+        <v>0.22958</v>
       </c>
       <c r="D38" t="n">
-        <v>0.234257</v>
+        <v>0.234548</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.244774</v>
+        <v>0.245568</v>
       </c>
       <c r="C39" t="n">
-        <v>0.228245</v>
+        <v>0.228068</v>
       </c>
       <c r="D39" t="n">
-        <v>0.233102</v>
+        <v>0.233143</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.241026</v>
+        <v>0.241211</v>
       </c>
       <c r="C40" t="n">
-        <v>0.226658</v>
+        <v>0.226888</v>
       </c>
       <c r="D40" t="n">
-        <v>0.231628</v>
+        <v>0.231993</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.236858</v>
+        <v>0.236948</v>
       </c>
       <c r="C41" t="n">
-        <v>0.225711</v>
+        <v>0.225624</v>
       </c>
       <c r="D41" t="n">
-        <v>0.230805</v>
+        <v>0.230908</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.232237</v>
+        <v>0.232226</v>
       </c>
       <c r="C42" t="n">
-        <v>0.224436</v>
+        <v>0.224628</v>
       </c>
       <c r="D42" t="n">
-        <v>0.229469</v>
+        <v>0.229492</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.227177</v>
+        <v>0.227342</v>
       </c>
       <c r="C43" t="n">
-        <v>0.223405</v>
+        <v>0.223595</v>
       </c>
       <c r="D43" t="n">
-        <v>0.228368</v>
+        <v>0.228482</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.22226</v>
+        <v>0.22233</v>
       </c>
       <c r="C44" t="n">
-        <v>0.222302</v>
+        <v>0.222509</v>
       </c>
       <c r="D44" t="n">
-        <v>0.227503</v>
+        <v>0.227521</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.216502</v>
+        <v>0.216627</v>
       </c>
       <c r="C45" t="n">
-        <v>0.22123</v>
+        <v>0.221462</v>
       </c>
       <c r="D45" t="n">
-        <v>0.226573</v>
+        <v>0.226651</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.2114</v>
+        <v>0.212032</v>
       </c>
       <c r="C46" t="n">
-        <v>0.220403</v>
+        <v>0.220506</v>
       </c>
       <c r="D46" t="n">
-        <v>0.225474</v>
+        <v>0.225541</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.204573</v>
+        <v>0.204767</v>
       </c>
       <c r="C47" t="n">
-        <v>0.219849</v>
+        <v>0.219974</v>
       </c>
       <c r="D47" t="n">
-        <v>0.224613</v>
+        <v>0.224831</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.198267</v>
+        <v>0.198438</v>
       </c>
       <c r="C48" t="n">
-        <v>0.218845</v>
+        <v>0.219087</v>
       </c>
       <c r="D48" t="n">
-        <v>0.223838</v>
+        <v>0.22402</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.191099</v>
+        <v>0.191168</v>
       </c>
       <c r="C49" t="n">
-        <v>0.217926</v>
+        <v>0.217983</v>
       </c>
       <c r="D49" t="n">
-        <v>0.223185</v>
+        <v>0.223312</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.183731</v>
+        <v>0.183001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.217302</v>
+        <v>0.217358</v>
       </c>
       <c r="D50" t="n">
-        <v>0.222298</v>
+        <v>0.222586</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.172869</v>
+        <v>0.173931</v>
       </c>
       <c r="C51" t="n">
-        <v>0.216228</v>
+        <v>0.216409</v>
       </c>
       <c r="D51" t="n">
-        <v>0.236836</v>
+        <v>0.23793</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.161871</v>
+        <v>0.162245</v>
       </c>
       <c r="C52" t="n">
-        <v>0.215748</v>
+        <v>0.21587</v>
       </c>
       <c r="D52" t="n">
-        <v>0.235449</v>
+        <v>0.235963</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.247769</v>
+        <v>0.247796</v>
       </c>
       <c r="C53" t="n">
-        <v>0.229059</v>
+        <v>0.229128</v>
       </c>
       <c r="D53" t="n">
-        <v>0.234269</v>
+        <v>0.234535</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.243592</v>
+        <v>0.243993</v>
       </c>
       <c r="C54" t="n">
-        <v>0.227574</v>
+        <v>0.227815</v>
       </c>
       <c r="D54" t="n">
-        <v>0.232952</v>
+        <v>0.23299</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.239389</v>
+        <v>0.23952</v>
       </c>
       <c r="C55" t="n">
-        <v>0.226449</v>
+        <v>0.226528</v>
       </c>
       <c r="D55" t="n">
-        <v>0.231637</v>
+        <v>0.231919</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.234805</v>
+        <v>0.235474</v>
       </c>
       <c r="C56" t="n">
-        <v>0.22552</v>
+        <v>0.225386</v>
       </c>
       <c r="D56" t="n">
-        <v>0.230491</v>
+        <v>0.230446</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.230401</v>
+        <v>0.230513</v>
       </c>
       <c r="C57" t="n">
-        <v>0.224386</v>
+        <v>0.224486</v>
       </c>
       <c r="D57" t="n">
-        <v>0.229579</v>
+        <v>0.229406</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.224628</v>
+        <v>0.224929</v>
       </c>
       <c r="C58" t="n">
-        <v>0.223346</v>
+        <v>0.223245</v>
       </c>
       <c r="D58" t="n">
-        <v>0.22827</v>
+        <v>0.228215</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.218949</v>
+        <v>0.219303</v>
       </c>
       <c r="C59" t="n">
-        <v>0.222174</v>
+        <v>0.222276</v>
       </c>
       <c r="D59" t="n">
-        <v>0.227342</v>
+        <v>0.227259</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.213275</v>
+        <v>0.213464</v>
       </c>
       <c r="C60" t="n">
-        <v>0.221052</v>
+        <v>0.221311</v>
       </c>
       <c r="D60" t="n">
-        <v>0.226352</v>
+        <v>0.226267</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.206692</v>
+        <v>0.207311</v>
       </c>
       <c r="C61" t="n">
-        <v>0.220193</v>
+        <v>0.220278</v>
       </c>
       <c r="D61" t="n">
-        <v>0.225524</v>
+        <v>0.225358</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.200398</v>
+        <v>0.200667</v>
       </c>
       <c r="C62" t="n">
-        <v>0.219293</v>
+        <v>0.219294</v>
       </c>
       <c r="D62" t="n">
-        <v>0.22462</v>
+        <v>0.224493</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.193096</v>
+        <v>0.193844</v>
       </c>
       <c r="C63" t="n">
-        <v>0.218512</v>
+        <v>0.218585</v>
       </c>
       <c r="D63" t="n">
-        <v>0.223724</v>
+        <v>0.223784</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.185345</v>
+        <v>0.186057</v>
       </c>
       <c r="C64" t="n">
-        <v>0.217698</v>
+        <v>0.217527</v>
       </c>
       <c r="D64" t="n">
-        <v>0.222897</v>
+        <v>0.222844</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177726</v>
+        <v>0.176949</v>
       </c>
       <c r="C65" t="n">
-        <v>0.216983</v>
+        <v>0.216824</v>
       </c>
       <c r="D65" t="n">
-        <v>0.222256</v>
+        <v>0.22215</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.167032</v>
+        <v>0.166687</v>
       </c>
       <c r="C66" t="n">
-        <v>0.215886</v>
+        <v>0.216073</v>
       </c>
       <c r="D66" t="n">
-        <v>0.236524</v>
+        <v>0.236472</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.250983</v>
+        <v>0.252165</v>
       </c>
       <c r="C67" t="n">
-        <v>0.231128</v>
+        <v>0.232552</v>
       </c>
       <c r="D67" t="n">
-        <v>0.234957</v>
+        <v>0.234903</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.246922</v>
+        <v>0.247086</v>
       </c>
       <c r="C68" t="n">
-        <v>0.229816</v>
+        <v>0.231186</v>
       </c>
       <c r="D68" t="n">
-        <v>0.23352</v>
+        <v>0.233514</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.24234</v>
+        <v>0.24299</v>
       </c>
       <c r="C69" t="n">
-        <v>0.228207</v>
+        <v>0.22894</v>
       </c>
       <c r="D69" t="n">
-        <v>0.232314</v>
+        <v>0.23225</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.237651</v>
+        <v>0.237736</v>
       </c>
       <c r="C70" t="n">
-        <v>0.226759</v>
+        <v>0.22735</v>
       </c>
       <c r="D70" t="n">
-        <v>0.231079</v>
+        <v>0.231096</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.232612</v>
+        <v>0.232897</v>
       </c>
       <c r="C71" t="n">
-        <v>0.225621</v>
+        <v>0.225676</v>
       </c>
       <c r="D71" t="n">
-        <v>0.230032</v>
+        <v>0.229986</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.2275</v>
+        <v>0.227501</v>
       </c>
       <c r="C72" t="n">
-        <v>0.224178</v>
+        <v>0.22437</v>
       </c>
       <c r="D72" t="n">
-        <v>0.228745</v>
+        <v>0.228866</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.222083</v>
+        <v>0.222153</v>
       </c>
       <c r="C73" t="n">
-        <v>0.223074</v>
+        <v>0.223082</v>
       </c>
       <c r="D73" t="n">
-        <v>0.227756</v>
+        <v>0.227747</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.215699</v>
+        <v>0.215801</v>
       </c>
       <c r="C74" t="n">
-        <v>0.221867</v>
+        <v>0.221962</v>
       </c>
       <c r="D74" t="n">
-        <v>0.226814</v>
+        <v>0.226793</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.209667</v>
+        <v>0.209839</v>
       </c>
       <c r="C75" t="n">
-        <v>0.220973</v>
+        <v>0.221169</v>
       </c>
       <c r="D75" t="n">
-        <v>0.225878</v>
+        <v>0.225856</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.202946</v>
+        <v>0.203125</v>
       </c>
       <c r="C76" t="n">
-        <v>0.22015</v>
+        <v>0.220163</v>
       </c>
       <c r="D76" t="n">
-        <v>0.225063</v>
+        <v>0.22514</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.196222</v>
+        <v>0.19637</v>
       </c>
       <c r="C77" t="n">
-        <v>0.219205</v>
+        <v>0.219245</v>
       </c>
       <c r="D77" t="n">
-        <v>0.224187</v>
+        <v>0.224177</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.188555</v>
+        <v>0.188646</v>
       </c>
       <c r="C78" t="n">
-        <v>0.218341</v>
+        <v>0.21835</v>
       </c>
       <c r="D78" t="n">
-        <v>0.223308</v>
+        <v>0.223518</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179944</v>
+        <v>0.179905</v>
       </c>
       <c r="C79" t="n">
-        <v>0.217394</v>
+        <v>0.217495</v>
       </c>
       <c r="D79" t="n">
-        <v>0.222776</v>
+        <v>0.222717</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.169766</v>
+        <v>0.169606</v>
       </c>
       <c r="C80" t="n">
-        <v>0.216569</v>
+        <v>0.216551</v>
       </c>
       <c r="D80" t="n">
-        <v>0.238898</v>
+        <v>0.239217</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.251071</v>
+        <v>0.251225</v>
       </c>
       <c r="C81" t="n">
-        <v>0.238485</v>
+        <v>0.237211</v>
       </c>
       <c r="D81" t="n">
-        <v>0.236543</v>
+        <v>0.237055</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.247217</v>
+        <v>0.247402</v>
       </c>
       <c r="C82" t="n">
-        <v>0.233573</v>
+        <v>0.23373</v>
       </c>
       <c r="D82" t="n">
-        <v>0.234982</v>
+        <v>0.234764</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.243499</v>
+        <v>0.243441</v>
       </c>
       <c r="C83" t="n">
-        <v>0.230278</v>
+        <v>0.230264</v>
       </c>
       <c r="D83" t="n">
-        <v>0.233183</v>
+        <v>0.233144</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.239247</v>
+        <v>0.239074</v>
       </c>
       <c r="C84" t="n">
-        <v>0.227726</v>
+        <v>0.227729</v>
       </c>
       <c r="D84" t="n">
-        <v>0.231928</v>
+        <v>0.232124</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.233745</v>
+        <v>0.233817</v>
       </c>
       <c r="C85" t="n">
-        <v>0.225567</v>
+        <v>0.225712</v>
       </c>
       <c r="D85" t="n">
-        <v>0.230557</v>
+        <v>0.230801</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.228775</v>
+        <v>0.228906</v>
       </c>
       <c r="C86" t="n">
-        <v>0.224477</v>
+        <v>0.224629</v>
       </c>
       <c r="D86" t="n">
-        <v>0.229474</v>
+        <v>0.229545</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.223145</v>
+        <v>0.223312</v>
       </c>
       <c r="C87" t="n">
-        <v>0.223515</v>
+        <v>0.223617</v>
       </c>
       <c r="D87" t="n">
-        <v>0.228263</v>
+        <v>0.228501</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.217208</v>
+        <v>0.217357</v>
       </c>
       <c r="C88" t="n">
-        <v>0.222424</v>
+        <v>0.222578</v>
       </c>
       <c r="D88" t="n">
-        <v>0.22724</v>
+        <v>0.227381</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.211176</v>
+        <v>0.211356</v>
       </c>
       <c r="C89" t="n">
-        <v>0.221344</v>
+        <v>0.221405</v>
       </c>
       <c r="D89" t="n">
-        <v>0.226241</v>
+        <v>0.226352</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.20484</v>
+        <v>0.204885</v>
       </c>
       <c r="C90" t="n">
-        <v>0.220256</v>
+        <v>0.220445</v>
       </c>
       <c r="D90" t="n">
-        <v>0.225489</v>
+        <v>0.225611</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.197888</v>
+        <v>0.197999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.219415</v>
+        <v>0.219564</v>
       </c>
       <c r="D91" t="n">
-        <v>0.224505</v>
+        <v>0.224738</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190605</v>
+        <v>0.190823</v>
       </c>
       <c r="C92" t="n">
-        <v>0.218492</v>
+        <v>0.218668</v>
       </c>
       <c r="D92" t="n">
-        <v>0.223735</v>
+        <v>0.223851</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.182097</v>
+        <v>0.18212</v>
       </c>
       <c r="C93" t="n">
-        <v>0.217706</v>
+        <v>0.21783</v>
       </c>
       <c r="D93" t="n">
-        <v>0.222895</v>
+        <v>0.223001</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.1719</v>
+        <v>0.171999</v>
       </c>
       <c r="C94" t="n">
-        <v>0.216915</v>
+        <v>0.21722</v>
       </c>
       <c r="D94" t="n">
-        <v>0.239711</v>
+        <v>0.24024</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.251299</v>
+        <v>0.251498</v>
       </c>
       <c r="C95" t="n">
-        <v>0.235879</v>
+        <v>0.235909</v>
       </c>
       <c r="D95" t="n">
-        <v>0.237182</v>
+        <v>0.237437</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.248019</v>
+        <v>0.248176</v>
       </c>
       <c r="C96" t="n">
-        <v>0.232276</v>
+        <v>0.232504</v>
       </c>
       <c r="D96" t="n">
-        <v>0.235335</v>
+        <v>0.235464</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.244127</v>
+        <v>0.244423</v>
       </c>
       <c r="C97" t="n">
-        <v>0.229777</v>
+        <v>0.229761</v>
       </c>
       <c r="D97" t="n">
-        <v>0.233933</v>
+        <v>0.234318</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.239723</v>
+        <v>0.239976</v>
       </c>
       <c r="C98" t="n">
-        <v>0.227738</v>
+        <v>0.227718</v>
       </c>
       <c r="D98" t="n">
-        <v>0.232964</v>
+        <v>0.232915</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.23491</v>
+        <v>0.235034</v>
       </c>
       <c r="C99" t="n">
-        <v>0.226186</v>
+        <v>0.226098</v>
       </c>
       <c r="D99" t="n">
-        <v>0.231522</v>
+        <v>0.2317</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.229923</v>
+        <v>0.229983</v>
       </c>
       <c r="C100" t="n">
-        <v>0.224924</v>
+        <v>0.224887</v>
       </c>
       <c r="D100" t="n">
-        <v>0.230428</v>
+        <v>0.230503</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.224131</v>
+        <v>0.224357</v>
       </c>
       <c r="C101" t="n">
-        <v>0.223825</v>
+        <v>0.223737</v>
       </c>
       <c r="D101" t="n">
-        <v>0.228937</v>
+        <v>0.229</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.218559</v>
+        <v>0.21877</v>
       </c>
       <c r="C102" t="n">
-        <v>0.222639</v>
+        <v>0.222511</v>
       </c>
       <c r="D102" t="n">
-        <v>0.227841</v>
+        <v>0.227989</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.212431</v>
+        <v>0.212582</v>
       </c>
       <c r="C103" t="n">
-        <v>0.221594</v>
+        <v>0.221466</v>
       </c>
       <c r="D103" t="n">
-        <v>0.226936</v>
+        <v>0.227014</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.206093</v>
+        <v>0.206082</v>
       </c>
       <c r="C104" t="n">
-        <v>0.220637</v>
+        <v>0.220603</v>
       </c>
       <c r="D104" t="n">
-        <v>0.226475</v>
+        <v>0.22646</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.199207</v>
+        <v>0.199443</v>
       </c>
       <c r="C105" t="n">
-        <v>0.219782</v>
+        <v>0.219615</v>
       </c>
       <c r="D105" t="n">
-        <v>0.22552</v>
+        <v>0.225476</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.192019</v>
+        <v>0.192009</v>
       </c>
       <c r="C106" t="n">
-        <v>0.218899</v>
+        <v>0.218772</v>
       </c>
       <c r="D106" t="n">
-        <v>0.22466</v>
+        <v>0.224651</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183749</v>
+        <v>0.183459</v>
       </c>
       <c r="C107" t="n">
-        <v>0.218093</v>
+        <v>0.217884</v>
       </c>
       <c r="D107" t="n">
-        <v>0.223865</v>
+        <v>0.223906</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.174303</v>
+        <v>0.174257</v>
       </c>
       <c r="C108" t="n">
-        <v>0.217262</v>
+        <v>0.217124</v>
       </c>
       <c r="D108" t="n">
-        <v>0.239576</v>
+        <v>0.239435</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.162838</v>
+        <v>0.163197</v>
       </c>
       <c r="C109" t="n">
-        <v>0.216542</v>
+        <v>0.216424</v>
       </c>
       <c r="D109" t="n">
-        <v>0.237213</v>
+        <v>0.237073</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.249639</v>
+        <v>0.249262</v>
       </c>
       <c r="C110" t="n">
-        <v>0.233106</v>
+        <v>0.232917</v>
       </c>
       <c r="D110" t="n">
-        <v>0.235342</v>
+        <v>0.235193</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.245731</v>
+        <v>0.24552</v>
       </c>
       <c r="C111" t="n">
-        <v>0.230117</v>
+        <v>0.230016</v>
       </c>
       <c r="D111" t="n">
-        <v>0.233703</v>
+        <v>0.233539</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.241243</v>
+        <v>0.241091</v>
       </c>
       <c r="C112" t="n">
-        <v>0.227957</v>
+        <v>0.227952</v>
       </c>
       <c r="D112" t="n">
-        <v>0.232291</v>
+        <v>0.232119</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.236498</v>
+        <v>0.236449</v>
       </c>
       <c r="C113" t="n">
-        <v>0.226393</v>
+        <v>0.226332</v>
       </c>
       <c r="D113" t="n">
-        <v>0.230896</v>
+        <v>0.230864</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.231101</v>
+        <v>0.23108</v>
       </c>
       <c r="C114" t="n">
-        <v>0.224926</v>
+        <v>0.224891</v>
       </c>
       <c r="D114" t="n">
-        <v>0.229691</v>
+        <v>0.229632</v>
       </c>
     </row>
     <row r="115">
@@ -4831,10 +4831,10 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.225563</v>
+        <v>0.225457</v>
       </c>
       <c r="C115" t="n">
-        <v>0.223667</v>
+        <v>0.223768</v>
       </c>
       <c r="D115" t="n">
         <v>0.22859</v>
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.219876</v>
+        <v>0.219831</v>
       </c>
       <c r="C116" t="n">
-        <v>0.223096</v>
+        <v>0.223074</v>
       </c>
       <c r="D116" t="n">
-        <v>0.227856</v>
+        <v>0.227972</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.213794</v>
+        <v>0.213767</v>
       </c>
       <c r="C117" t="n">
-        <v>0.221964</v>
+        <v>0.221981</v>
       </c>
       <c r="D117" t="n">
-        <v>0.226983</v>
+        <v>0.226965</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.207545</v>
+        <v>0.207479</v>
       </c>
       <c r="C118" t="n">
-        <v>0.221041</v>
+        <v>0.221048</v>
       </c>
       <c r="D118" t="n">
-        <v>0.226085</v>
+        <v>0.226077</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.200654</v>
+        <v>0.200555</v>
       </c>
       <c r="C119" t="n">
-        <v>0.220161</v>
+        <v>0.220163</v>
       </c>
       <c r="D119" t="n">
-        <v>0.225282</v>
+        <v>0.225206</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.193435</v>
+        <v>0.19344</v>
       </c>
       <c r="C120" t="n">
-        <v>0.219251</v>
+        <v>0.219232</v>
       </c>
       <c r="D120" t="n">
-        <v>0.224461</v>
+        <v>0.224439</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.185456</v>
+        <v>0.185255</v>
       </c>
       <c r="C121" t="n">
-        <v>0.218443</v>
+        <v>0.218418</v>
       </c>
       <c r="D121" t="n">
-        <v>0.223722</v>
+        <v>0.223605</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.175966</v>
+        <v>0.175944</v>
       </c>
       <c r="C122" t="n">
-        <v>0.217652</v>
+        <v>0.217546</v>
       </c>
       <c r="D122" t="n">
-        <v>0.223001</v>
+        <v>0.222917</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.16491</v>
+        <v>0.16493</v>
       </c>
       <c r="C123" t="n">
-        <v>0.216747</v>
+        <v>0.21668</v>
       </c>
       <c r="D123" t="n">
-        <v>0.237285</v>
+        <v>0.23726</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.251293</v>
+        <v>0.249949</v>
       </c>
       <c r="C124" t="n">
-        <v>0.233339</v>
+        <v>0.233434</v>
       </c>
       <c r="D124" t="n">
-        <v>0.235374</v>
+        <v>0.2354</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.247604</v>
+        <v>0.246195</v>
       </c>
       <c r="C125" t="n">
-        <v>0.230313</v>
+        <v>0.230354</v>
       </c>
       <c r="D125" t="n">
-        <v>0.2337</v>
+        <v>0.233693</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.243229</v>
+        <v>0.241865</v>
       </c>
       <c r="C126" t="n">
-        <v>0.228265</v>
+        <v>0.228274</v>
       </c>
       <c r="D126" t="n">
-        <v>0.232315</v>
+        <v>0.232286</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.237169</v>
+        <v>0.237209</v>
       </c>
       <c r="C127" t="n">
-        <v>0.226554</v>
+        <v>0.226501</v>
       </c>
       <c r="D127" t="n">
-        <v>0.230895</v>
+        <v>0.230961</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.232007</v>
+        <v>0.232893</v>
       </c>
       <c r="C128" t="n">
-        <v>0.225147</v>
+        <v>0.225143</v>
       </c>
       <c r="D128" t="n">
-        <v>0.229728</v>
+        <v>0.229783</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.226576</v>
+        <v>0.226591</v>
       </c>
       <c r="C129" t="n">
-        <v>0.223895</v>
+        <v>0.223937</v>
       </c>
       <c r="D129" t="n">
-        <v>0.228673</v>
+        <v>0.228665</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.221042</v>
+        <v>0.222437</v>
       </c>
       <c r="C130" t="n">
-        <v>0.222836</v>
+        <v>0.222837</v>
       </c>
       <c r="D130" t="n">
-        <v>0.227668</v>
+        <v>0.227679</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.214901</v>
+        <v>0.216622</v>
       </c>
       <c r="C131" t="n">
-        <v>0.221859</v>
+        <v>0.221832</v>
       </c>
       <c r="D131" t="n">
-        <v>0.226699</v>
+        <v>0.226775</v>
       </c>
     </row>
     <row r="132">
@@ -5069,10 +5069,10 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.208636</v>
+        <v>0.210524</v>
       </c>
       <c r="C132" t="n">
-        <v>0.220818</v>
+        <v>0.220846</v>
       </c>
       <c r="D132" t="n">
         <v>0.225807</v>
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.201996</v>
+        <v>0.20395</v>
       </c>
       <c r="C133" t="n">
-        <v>0.219893</v>
+        <v>0.219908</v>
       </c>
       <c r="D133" t="n">
-        <v>0.224951</v>
+        <v>0.224921</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.195117</v>
+        <v>0.196697</v>
       </c>
       <c r="C134" t="n">
-        <v>0.219067</v>
+        <v>0.219079</v>
       </c>
       <c r="D134" t="n">
-        <v>0.224143</v>
+        <v>0.224122</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.18742</v>
+        <v>0.189024</v>
       </c>
       <c r="C135" t="n">
-        <v>0.218239</v>
+        <v>0.218205</v>
       </c>
       <c r="D135" t="n">
-        <v>0.223409</v>
+        <v>0.223362</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.178418</v>
+        <v>0.180135</v>
       </c>
       <c r="C136" t="n">
-        <v>0.217829</v>
+        <v>0.217844</v>
       </c>
       <c r="D136" t="n">
-        <v>0.223041</v>
+        <v>0.223102</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.167876</v>
+        <v>0.168961</v>
       </c>
       <c r="C137" t="n">
-        <v>0.21699</v>
+        <v>0.216971</v>
       </c>
       <c r="D137" t="n">
-        <v>0.238591</v>
+        <v>0.238532</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.250586</v>
+        <v>0.250501</v>
       </c>
       <c r="C138" t="n">
-        <v>0.234758</v>
+        <v>0.234801</v>
       </c>
       <c r="D138" t="n">
-        <v>0.236406</v>
+        <v>0.23647</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.247147</v>
+        <v>0.247079</v>
       </c>
       <c r="C139" t="n">
-        <v>0.231578</v>
+        <v>0.231545</v>
       </c>
       <c r="D139" t="n">
-        <v>0.234698</v>
+        <v>0.234641</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.242923</v>
+        <v>0.242928</v>
       </c>
       <c r="C140" t="n">
-        <v>0.229123</v>
+        <v>0.229103</v>
       </c>
       <c r="D140" t="n">
-        <v>0.233163</v>
+        <v>0.233147</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.238252</v>
+        <v>0.238378</v>
       </c>
       <c r="C141" t="n">
-        <v>0.227302</v>
+        <v>0.227338</v>
       </c>
       <c r="D141" t="n">
-        <v>0.231711</v>
+        <v>0.231656</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.2333</v>
+        <v>0.233346</v>
       </c>
       <c r="C142" t="n">
-        <v>0.225811</v>
+        <v>0.225818</v>
       </c>
       <c r="D142" t="n">
-        <v>0.230522</v>
+        <v>0.230425</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.227843</v>
+        <v>0.227801</v>
       </c>
       <c r="C143" t="n">
-        <v>0.22452</v>
+        <v>0.224542</v>
       </c>
       <c r="D143" t="n">
-        <v>0.229318</v>
+        <v>0.229245</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.187856</v>
+        <v>0.187153</v>
       </c>
       <c r="C2" t="n">
-        <v>0.206718</v>
+        <v>0.206361</v>
       </c>
       <c r="D2" t="n">
-        <v>0.211167</v>
+        <v>0.209084</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.182199</v>
+        <v>0.18262</v>
       </c>
       <c r="C3" t="n">
-        <v>0.206525</v>
+        <v>0.20736</v>
       </c>
       <c r="D3" t="n">
-        <v>0.212072</v>
+        <v>0.209976</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.177167</v>
+        <v>0.179133</v>
       </c>
       <c r="C4" t="n">
-        <v>0.206506</v>
+        <v>0.206231</v>
       </c>
       <c r="D4" t="n">
-        <v>0.211192</v>
+        <v>0.210852</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.174265</v>
+        <v>0.175749</v>
       </c>
       <c r="C5" t="n">
-        <v>0.20634</v>
+        <v>0.206959</v>
       </c>
       <c r="D5" t="n">
-        <v>0.211718</v>
+        <v>0.212391</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.169288</v>
+        <v>0.169449</v>
       </c>
       <c r="C6" t="n">
-        <v>0.206618</v>
+        <v>0.206712</v>
       </c>
       <c r="D6" t="n">
-        <v>0.212973</v>
+        <v>0.212389</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.163454</v>
+        <v>0.163765</v>
       </c>
       <c r="C7" t="n">
-        <v>0.205875</v>
+        <v>0.206439</v>
       </c>
       <c r="D7" t="n">
-        <v>0.211751</v>
+        <v>0.211813</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.156387</v>
+        <v>0.157238</v>
       </c>
       <c r="C8" t="n">
-        <v>0.206674</v>
+        <v>0.20621</v>
       </c>
       <c r="D8" t="n">
-        <v>0.213125</v>
+        <v>0.213305</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.14551</v>
+        <v>0.145708</v>
       </c>
       <c r="C9" t="n">
-        <v>0.205484</v>
+        <v>0.205473</v>
       </c>
       <c r="D9" t="n">
-        <v>0.227093</v>
+        <v>0.227887</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.230008</v>
+        <v>0.231162</v>
       </c>
       <c r="C10" t="n">
-        <v>0.225193</v>
+        <v>0.224401</v>
       </c>
       <c r="D10" t="n">
-        <v>0.226269</v>
+        <v>0.226746</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.226638</v>
+        <v>0.228064</v>
       </c>
       <c r="C11" t="n">
-        <v>0.223056</v>
+        <v>0.223069</v>
       </c>
       <c r="D11" t="n">
-        <v>0.226123</v>
+        <v>0.226727</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.223956</v>
+        <v>0.22477</v>
       </c>
       <c r="C12" t="n">
-        <v>0.222036</v>
+        <v>0.222691</v>
       </c>
       <c r="D12" t="n">
-        <v>0.225072</v>
+        <v>0.225379</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.222216</v>
+        <v>0.222777</v>
       </c>
       <c r="C13" t="n">
-        <v>0.220991</v>
+        <v>0.221603</v>
       </c>
       <c r="D13" t="n">
-        <v>0.224231</v>
+        <v>0.224276</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.218992</v>
+        <v>0.219673</v>
       </c>
       <c r="C14" t="n">
-        <v>0.220563</v>
+        <v>0.221483</v>
       </c>
       <c r="D14" t="n">
-        <v>0.224776</v>
+        <v>0.22477</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.21412</v>
+        <v>0.214976</v>
       </c>
       <c r="C15" t="n">
-        <v>0.220026</v>
+        <v>0.220081</v>
       </c>
       <c r="D15" t="n">
-        <v>0.224017</v>
+        <v>0.223712</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.209621</v>
+        <v>0.210202</v>
       </c>
       <c r="C16" t="n">
-        <v>0.219807</v>
+        <v>0.220424</v>
       </c>
       <c r="D16" t="n">
-        <v>0.223395</v>
+        <v>0.223227</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.204892</v>
+        <v>0.204981</v>
       </c>
       <c r="C17" t="n">
-        <v>0.218641</v>
+        <v>0.219307</v>
       </c>
       <c r="D17" t="n">
-        <v>0.223186</v>
+        <v>0.223035</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.199046</v>
+        <v>0.200188</v>
       </c>
       <c r="C18" t="n">
-        <v>0.217547</v>
+        <v>0.21834</v>
       </c>
       <c r="D18" t="n">
-        <v>0.222153</v>
+        <v>0.222089</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.195209</v>
+        <v>0.195916</v>
       </c>
       <c r="C19" t="n">
-        <v>0.216687</v>
+        <v>0.216795</v>
       </c>
       <c r="D19" t="n">
-        <v>0.221649</v>
+        <v>0.221614</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.188496</v>
+        <v>0.189283</v>
       </c>
       <c r="C20" t="n">
-        <v>0.216083</v>
+        <v>0.216567</v>
       </c>
       <c r="D20" t="n">
-        <v>0.221341</v>
+        <v>0.221423</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.181232</v>
+        <v>0.181475</v>
       </c>
       <c r="C21" t="n">
-        <v>0.215472</v>
+        <v>0.215601</v>
       </c>
       <c r="D21" t="n">
-        <v>0.221001</v>
+        <v>0.220935</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.173329</v>
+        <v>0.173983</v>
       </c>
       <c r="C22" t="n">
-        <v>0.214563</v>
+        <v>0.214737</v>
       </c>
       <c r="D22" t="n">
-        <v>0.220167</v>
+        <v>0.22009</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.16532</v>
+        <v>0.164768</v>
       </c>
       <c r="C23" t="n">
-        <v>0.213745</v>
+        <v>0.214535</v>
       </c>
       <c r="D23" t="n">
-        <v>0.234181</v>
+        <v>0.234859</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.242652</v>
+        <v>0.242881</v>
       </c>
       <c r="C24" t="n">
-        <v>0.228287</v>
+        <v>0.231011</v>
       </c>
       <c r="D24" t="n">
-        <v>0.232371</v>
+        <v>0.23298</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.238592</v>
+        <v>0.239161</v>
       </c>
       <c r="C25" t="n">
-        <v>0.226682</v>
+        <v>0.228215</v>
       </c>
       <c r="D25" t="n">
-        <v>0.231306</v>
+        <v>0.231448</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.23577</v>
+        <v>0.235726</v>
       </c>
       <c r="C26" t="n">
-        <v>0.226022</v>
+        <v>0.225987</v>
       </c>
       <c r="D26" t="n">
-        <v>0.230463</v>
+        <v>0.23062</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.232109</v>
+        <v>0.232945</v>
       </c>
       <c r="C27" t="n">
-        <v>0.225092</v>
+        <v>0.225079</v>
       </c>
       <c r="D27" t="n">
-        <v>0.229176</v>
+        <v>0.229366</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.227622</v>
+        <v>0.227559</v>
       </c>
       <c r="C28" t="n">
-        <v>0.224155</v>
+        <v>0.224211</v>
       </c>
       <c r="D28" t="n">
-        <v>0.228582</v>
+        <v>0.228593</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.222341</v>
+        <v>0.222833</v>
       </c>
       <c r="C29" t="n">
-        <v>0.222766</v>
+        <v>0.222757</v>
       </c>
       <c r="D29" t="n">
-        <v>0.22727</v>
+        <v>0.227573</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.218542</v>
+        <v>0.219672</v>
       </c>
       <c r="C30" t="n">
-        <v>0.22153</v>
+        <v>0.221744</v>
       </c>
       <c r="D30" t="n">
-        <v>0.226487</v>
+        <v>0.226971</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.212284</v>
+        <v>0.214671</v>
       </c>
       <c r="C31" t="n">
-        <v>0.220516</v>
+        <v>0.220542</v>
       </c>
       <c r="D31" t="n">
-        <v>0.226005</v>
+        <v>0.225876</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.207897</v>
+        <v>0.207822</v>
       </c>
       <c r="C32" t="n">
-        <v>0.219797</v>
+        <v>0.219726</v>
       </c>
       <c r="D32" t="n">
-        <v>0.225407</v>
+        <v>0.225542</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.201447</v>
+        <v>0.200985</v>
       </c>
       <c r="C33" t="n">
-        <v>0.218985</v>
+        <v>0.218781</v>
       </c>
       <c r="D33" t="n">
-        <v>0.224343</v>
+        <v>0.224559</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.194428</v>
+        <v>0.194729</v>
       </c>
       <c r="C34" t="n">
-        <v>0.218139</v>
+        <v>0.218057</v>
       </c>
       <c r="D34" t="n">
-        <v>0.22402</v>
+        <v>0.224011</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.18718</v>
+        <v>0.186633</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2173</v>
+        <v>0.217072</v>
       </c>
       <c r="D35" t="n">
-        <v>0.222916</v>
+        <v>0.22294</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.179936</v>
+        <v>0.17908</v>
       </c>
       <c r="C36" t="n">
-        <v>0.216493</v>
+        <v>0.216428</v>
       </c>
       <c r="D36" t="n">
-        <v>0.22232</v>
+        <v>0.222176</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.17027</v>
+        <v>0.169283</v>
       </c>
       <c r="C37" t="n">
         <v>0.216179</v>
       </c>
       <c r="D37" t="n">
-        <v>0.236158</v>
+        <v>0.236542</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.248498</v>
+        <v>0.249127</v>
       </c>
       <c r="C38" t="n">
-        <v>0.22958</v>
+        <v>0.229536</v>
       </c>
       <c r="D38" t="n">
-        <v>0.234548</v>
+        <v>0.234734</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.245568</v>
+        <v>0.245198</v>
       </c>
       <c r="C39" t="n">
-        <v>0.228068</v>
+        <v>0.228101</v>
       </c>
       <c r="D39" t="n">
-        <v>0.233143</v>
+        <v>0.233011</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.241211</v>
+        <v>0.241256</v>
       </c>
       <c r="C40" t="n">
-        <v>0.226888</v>
+        <v>0.226637</v>
       </c>
       <c r="D40" t="n">
-        <v>0.231993</v>
+        <v>0.232049</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.236948</v>
+        <v>0.236913</v>
       </c>
       <c r="C41" t="n">
-        <v>0.225624</v>
+        <v>0.225687</v>
       </c>
       <c r="D41" t="n">
-        <v>0.230908</v>
+        <v>0.230961</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.232226</v>
+        <v>0.232515</v>
       </c>
       <c r="C42" t="n">
-        <v>0.224628</v>
+        <v>0.224381</v>
       </c>
       <c r="D42" t="n">
-        <v>0.229492</v>
+        <v>0.229605</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.227342</v>
+        <v>0.227814</v>
       </c>
       <c r="C43" t="n">
-        <v>0.223595</v>
+        <v>0.22367</v>
       </c>
       <c r="D43" t="n">
-        <v>0.228482</v>
+        <v>0.228579</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.22233</v>
+        <v>0.222247</v>
       </c>
       <c r="C44" t="n">
-        <v>0.222509</v>
+        <v>0.222204</v>
       </c>
       <c r="D44" t="n">
-        <v>0.227521</v>
+        <v>0.227509</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.216627</v>
+        <v>0.216713</v>
       </c>
       <c r="C45" t="n">
-        <v>0.221462</v>
+        <v>0.221298</v>
       </c>
       <c r="D45" t="n">
-        <v>0.226651</v>
+        <v>0.226746</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.212032</v>
+        <v>0.211261</v>
       </c>
       <c r="C46" t="n">
-        <v>0.220506</v>
+        <v>0.220443</v>
       </c>
       <c r="D46" t="n">
-        <v>0.225541</v>
+        <v>0.225671</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.204767</v>
+        <v>0.204991</v>
       </c>
       <c r="C47" t="n">
-        <v>0.219974</v>
+        <v>0.21959</v>
       </c>
       <c r="D47" t="n">
-        <v>0.224831</v>
+        <v>0.224791</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.198438</v>
+        <v>0.198574</v>
       </c>
       <c r="C48" t="n">
-        <v>0.219087</v>
+        <v>0.218956</v>
       </c>
       <c r="D48" t="n">
-        <v>0.22402</v>
+        <v>0.223878</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.191168</v>
+        <v>0.191231</v>
       </c>
       <c r="C49" t="n">
-        <v>0.217983</v>
+        <v>0.217814</v>
       </c>
       <c r="D49" t="n">
-        <v>0.223312</v>
+        <v>0.223164</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.183001</v>
+        <v>0.183278</v>
       </c>
       <c r="C50" t="n">
-        <v>0.217358</v>
+        <v>0.217691</v>
       </c>
       <c r="D50" t="n">
-        <v>0.222586</v>
+        <v>0.222567</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173931</v>
+        <v>0.173995</v>
       </c>
       <c r="C51" t="n">
-        <v>0.216409</v>
+        <v>0.216527</v>
       </c>
       <c r="D51" t="n">
-        <v>0.23793</v>
+        <v>0.237212</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.162245</v>
+        <v>0.162246</v>
       </c>
       <c r="C52" t="n">
-        <v>0.21587</v>
+        <v>0.21591</v>
       </c>
       <c r="D52" t="n">
-        <v>0.235963</v>
+        <v>0.235446</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.247796</v>
+        <v>0.247486</v>
       </c>
       <c r="C53" t="n">
-        <v>0.229128</v>
+        <v>0.229407</v>
       </c>
       <c r="D53" t="n">
-        <v>0.234535</v>
+        <v>0.234312</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.243993</v>
+        <v>0.244108</v>
       </c>
       <c r="C54" t="n">
-        <v>0.227815</v>
+        <v>0.227618</v>
       </c>
       <c r="D54" t="n">
-        <v>0.23299</v>
+        <v>0.232829</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.23952</v>
+        <v>0.239731</v>
       </c>
       <c r="C55" t="n">
-        <v>0.226528</v>
+        <v>0.226601</v>
       </c>
       <c r="D55" t="n">
-        <v>0.231919</v>
+        <v>0.231689</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.235474</v>
+        <v>0.235359</v>
       </c>
       <c r="C56" t="n">
-        <v>0.225386</v>
+        <v>0.225367</v>
       </c>
       <c r="D56" t="n">
-        <v>0.230446</v>
+        <v>0.230322</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.230513</v>
+        <v>0.230483</v>
       </c>
       <c r="C57" t="n">
-        <v>0.224486</v>
+        <v>0.225652</v>
       </c>
       <c r="D57" t="n">
-        <v>0.229406</v>
+        <v>0.229433</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.224929</v>
+        <v>0.224562</v>
       </c>
       <c r="C58" t="n">
-        <v>0.223245</v>
+        <v>0.223381</v>
       </c>
       <c r="D58" t="n">
-        <v>0.228215</v>
+        <v>0.22822</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.219303</v>
+        <v>0.219127</v>
       </c>
       <c r="C59" t="n">
-        <v>0.222276</v>
+        <v>0.222062</v>
       </c>
       <c r="D59" t="n">
-        <v>0.227259</v>
+        <v>0.227242</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.213464</v>
+        <v>0.21348</v>
       </c>
       <c r="C60" t="n">
-        <v>0.221311</v>
+        <v>0.221048</v>
       </c>
       <c r="D60" t="n">
-        <v>0.226267</v>
+        <v>0.226228</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.207311</v>
+        <v>0.207175</v>
       </c>
       <c r="C61" t="n">
-        <v>0.220278</v>
+        <v>0.220092</v>
       </c>
       <c r="D61" t="n">
-        <v>0.225358</v>
+        <v>0.225308</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.200667</v>
+        <v>0.200836</v>
       </c>
       <c r="C62" t="n">
-        <v>0.219294</v>
+        <v>0.219286</v>
       </c>
       <c r="D62" t="n">
-        <v>0.224493</v>
+        <v>0.224496</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.193844</v>
+        <v>0.19363</v>
       </c>
       <c r="C63" t="n">
-        <v>0.218585</v>
+        <v>0.21845</v>
       </c>
       <c r="D63" t="n">
-        <v>0.223784</v>
+        <v>0.223666</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.186057</v>
+        <v>0.185953</v>
       </c>
       <c r="C64" t="n">
-        <v>0.217527</v>
+        <v>0.217687</v>
       </c>
       <c r="D64" t="n">
-        <v>0.222844</v>
+        <v>0.222804</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.176949</v>
+        <v>0.17723</v>
       </c>
       <c r="C65" t="n">
-        <v>0.216824</v>
+        <v>0.216631</v>
       </c>
       <c r="D65" t="n">
-        <v>0.22215</v>
+        <v>0.222184</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.166687</v>
+        <v>0.167033</v>
       </c>
       <c r="C66" t="n">
-        <v>0.216073</v>
+        <v>0.216304</v>
       </c>
       <c r="D66" t="n">
-        <v>0.236472</v>
+        <v>0.236524</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.252165</v>
+        <v>0.250834</v>
       </c>
       <c r="C67" t="n">
-        <v>0.232552</v>
+        <v>0.231191</v>
       </c>
       <c r="D67" t="n">
-        <v>0.234903</v>
+        <v>0.234982</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.247086</v>
+        <v>0.246285</v>
       </c>
       <c r="C68" t="n">
-        <v>0.231186</v>
+        <v>0.230214</v>
       </c>
       <c r="D68" t="n">
-        <v>0.233514</v>
+        <v>0.233656</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.24299</v>
+        <v>0.242659</v>
       </c>
       <c r="C69" t="n">
-        <v>0.22894</v>
+        <v>0.228367</v>
       </c>
       <c r="D69" t="n">
-        <v>0.23225</v>
+        <v>0.232339</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.237736</v>
+        <v>0.237968</v>
       </c>
       <c r="C70" t="n">
-        <v>0.22735</v>
+        <v>0.226941</v>
       </c>
       <c r="D70" t="n">
-        <v>0.231096</v>
+        <v>0.231131</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.232897</v>
+        <v>0.23283</v>
       </c>
       <c r="C71" t="n">
-        <v>0.225676</v>
+        <v>0.225441</v>
       </c>
       <c r="D71" t="n">
-        <v>0.229986</v>
+        <v>0.229908</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.227501</v>
+        <v>0.227454</v>
       </c>
       <c r="C72" t="n">
-        <v>0.22437</v>
+        <v>0.224232</v>
       </c>
       <c r="D72" t="n">
-        <v>0.228866</v>
+        <v>0.228783</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.222153</v>
+        <v>0.22211</v>
       </c>
       <c r="C73" t="n">
-        <v>0.223082</v>
+        <v>0.223033</v>
       </c>
       <c r="D73" t="n">
-        <v>0.227747</v>
+        <v>0.22775</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.215801</v>
+        <v>0.215953</v>
       </c>
       <c r="C74" t="n">
-        <v>0.221962</v>
+        <v>0.22184</v>
       </c>
       <c r="D74" t="n">
-        <v>0.226793</v>
+        <v>0.22675</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.209839</v>
+        <v>0.20996</v>
       </c>
       <c r="C75" t="n">
-        <v>0.221169</v>
+        <v>0.220969</v>
       </c>
       <c r="D75" t="n">
-        <v>0.225856</v>
+        <v>0.225821</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.203125</v>
+        <v>0.203339</v>
       </c>
       <c r="C76" t="n">
-        <v>0.220163</v>
+        <v>0.220049</v>
       </c>
       <c r="D76" t="n">
-        <v>0.22514</v>
+        <v>0.225075</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.19637</v>
+        <v>0.197132</v>
       </c>
       <c r="C77" t="n">
-        <v>0.219245</v>
+        <v>0.219237</v>
       </c>
       <c r="D77" t="n">
-        <v>0.224177</v>
+        <v>0.224108</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.188646</v>
+        <v>0.188901</v>
       </c>
       <c r="C78" t="n">
-        <v>0.21835</v>
+        <v>0.218343</v>
       </c>
       <c r="D78" t="n">
-        <v>0.223518</v>
+        <v>0.223402</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179905</v>
+        <v>0.179879</v>
       </c>
       <c r="C79" t="n">
-        <v>0.217495</v>
+        <v>0.21739</v>
       </c>
       <c r="D79" t="n">
-        <v>0.222717</v>
+        <v>0.22271</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.169606</v>
+        <v>0.170522</v>
       </c>
       <c r="C80" t="n">
-        <v>0.216551</v>
+        <v>0.216524</v>
       </c>
       <c r="D80" t="n">
-        <v>0.239217</v>
+        <v>0.239025</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.251225</v>
+        <v>0.25109</v>
       </c>
       <c r="C81" t="n">
-        <v>0.237211</v>
+        <v>0.238942</v>
       </c>
       <c r="D81" t="n">
-        <v>0.237055</v>
+        <v>0.236526</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.247402</v>
+        <v>0.247319</v>
       </c>
       <c r="C82" t="n">
-        <v>0.23373</v>
+        <v>0.23479</v>
       </c>
       <c r="D82" t="n">
-        <v>0.234764</v>
+        <v>0.234933</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.243441</v>
+        <v>0.24325</v>
       </c>
       <c r="C83" t="n">
-        <v>0.230264</v>
+        <v>0.230494</v>
       </c>
       <c r="D83" t="n">
-        <v>0.233144</v>
+        <v>0.233211</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.239074</v>
+        <v>0.238729</v>
       </c>
       <c r="C84" t="n">
-        <v>0.227729</v>
+        <v>0.227827</v>
       </c>
       <c r="D84" t="n">
-        <v>0.232124</v>
+        <v>0.231925</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.233817</v>
+        <v>0.233733</v>
       </c>
       <c r="C85" t="n">
-        <v>0.225712</v>
+        <v>0.225822</v>
       </c>
       <c r="D85" t="n">
-        <v>0.230801</v>
+        <v>0.230553</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.228906</v>
+        <v>0.228734</v>
       </c>
       <c r="C86" t="n">
-        <v>0.224629</v>
+        <v>0.224584</v>
       </c>
       <c r="D86" t="n">
-        <v>0.229545</v>
+        <v>0.229445</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.223312</v>
+        <v>0.223212</v>
       </c>
       <c r="C87" t="n">
-        <v>0.223617</v>
+        <v>0.223599</v>
       </c>
       <c r="D87" t="n">
-        <v>0.228501</v>
+        <v>0.228291</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.217357</v>
+        <v>0.217313</v>
       </c>
       <c r="C88" t="n">
-        <v>0.222578</v>
+        <v>0.222558</v>
       </c>
       <c r="D88" t="n">
-        <v>0.227381</v>
+        <v>0.227162</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.211356</v>
+        <v>0.211376</v>
       </c>
       <c r="C89" t="n">
-        <v>0.221405</v>
+        <v>0.221428</v>
       </c>
       <c r="D89" t="n">
-        <v>0.226352</v>
+        <v>0.22619</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.204885</v>
+        <v>0.204895</v>
       </c>
       <c r="C90" t="n">
-        <v>0.220445</v>
+        <v>0.220291</v>
       </c>
       <c r="D90" t="n">
-        <v>0.225611</v>
+        <v>0.22536</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.197999</v>
+        <v>0.1979</v>
       </c>
       <c r="C91" t="n">
-        <v>0.219564</v>
+        <v>0.219476</v>
       </c>
       <c r="D91" t="n">
-        <v>0.224738</v>
+        <v>0.22454</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190823</v>
+        <v>0.190706</v>
       </c>
       <c r="C92" t="n">
-        <v>0.218668</v>
+        <v>0.218512</v>
       </c>
       <c r="D92" t="n">
-        <v>0.223851</v>
+        <v>0.22365</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.18212</v>
+        <v>0.182021</v>
       </c>
       <c r="C93" t="n">
-        <v>0.21783</v>
+        <v>0.217781</v>
       </c>
       <c r="D93" t="n">
-        <v>0.223001</v>
+        <v>0.222908</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.171999</v>
+        <v>0.172045</v>
       </c>
       <c r="C94" t="n">
-        <v>0.21722</v>
+        <v>0.216937</v>
       </c>
       <c r="D94" t="n">
-        <v>0.24024</v>
+        <v>0.2398</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.251498</v>
+        <v>0.251348</v>
       </c>
       <c r="C95" t="n">
-        <v>0.235909</v>
+        <v>0.235894</v>
       </c>
       <c r="D95" t="n">
-        <v>0.237437</v>
+        <v>0.237322</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.248176</v>
+        <v>0.248025</v>
       </c>
       <c r="C96" t="n">
-        <v>0.232504</v>
+        <v>0.232407</v>
       </c>
       <c r="D96" t="n">
-        <v>0.235464</v>
+        <v>0.235477</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.244423</v>
+        <v>0.244073</v>
       </c>
       <c r="C97" t="n">
-        <v>0.229761</v>
+        <v>0.229869</v>
       </c>
       <c r="D97" t="n">
-        <v>0.234318</v>
+        <v>0.234205</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.239976</v>
+        <v>0.239894</v>
       </c>
       <c r="C98" t="n">
-        <v>0.227718</v>
+        <v>0.227713</v>
       </c>
       <c r="D98" t="n">
-        <v>0.232915</v>
+        <v>0.23294</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.235034</v>
+        <v>0.235003</v>
       </c>
       <c r="C99" t="n">
-        <v>0.226098</v>
+        <v>0.22612</v>
       </c>
       <c r="D99" t="n">
-        <v>0.2317</v>
+        <v>0.231514</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.229983</v>
+        <v>0.229931</v>
       </c>
       <c r="C100" t="n">
-        <v>0.224887</v>
+        <v>0.224973</v>
       </c>
       <c r="D100" t="n">
-        <v>0.230503</v>
+        <v>0.230421</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.224357</v>
+        <v>0.224515</v>
       </c>
       <c r="C101" t="n">
-        <v>0.223737</v>
+        <v>0.223765</v>
       </c>
       <c r="D101" t="n">
-        <v>0.229</v>
+        <v>0.228977</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.21877</v>
+        <v>0.218581</v>
       </c>
       <c r="C102" t="n">
-        <v>0.222511</v>
+        <v>0.222631</v>
       </c>
       <c r="D102" t="n">
-        <v>0.227989</v>
+        <v>0.22792</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.212582</v>
+        <v>0.212555</v>
       </c>
       <c r="C103" t="n">
-        <v>0.221466</v>
+        <v>0.221586</v>
       </c>
       <c r="D103" t="n">
-        <v>0.227014</v>
+        <v>0.227008</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.206082</v>
+        <v>0.206146</v>
       </c>
       <c r="C104" t="n">
-        <v>0.220603</v>
+        <v>0.220576</v>
       </c>
       <c r="D104" t="n">
-        <v>0.22646</v>
+        <v>0.226381</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.199443</v>
+        <v>0.199248</v>
       </c>
       <c r="C105" t="n">
-        <v>0.219615</v>
+        <v>0.219681</v>
       </c>
       <c r="D105" t="n">
-        <v>0.225476</v>
+        <v>0.225556</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.192009</v>
+        <v>0.191893</v>
       </c>
       <c r="C106" t="n">
-        <v>0.218772</v>
+        <v>0.218796</v>
       </c>
       <c r="D106" t="n">
-        <v>0.224651</v>
+        <v>0.224694</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183459</v>
+        <v>0.183797</v>
       </c>
       <c r="C107" t="n">
-        <v>0.217884</v>
+        <v>0.217994</v>
       </c>
       <c r="D107" t="n">
-        <v>0.223906</v>
+        <v>0.22396</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.174257</v>
+        <v>0.174147</v>
       </c>
       <c r="C108" t="n">
-        <v>0.217124</v>
+        <v>0.217192</v>
       </c>
       <c r="D108" t="n">
-        <v>0.239435</v>
+        <v>0.239397</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.163197</v>
+        <v>0.162478</v>
       </c>
       <c r="C109" t="n">
         <v>0.216424</v>
       </c>
       <c r="D109" t="n">
-        <v>0.237073</v>
+        <v>0.237161</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.249262</v>
+        <v>0.249423</v>
       </c>
       <c r="C110" t="n">
-        <v>0.232917</v>
+        <v>0.232929</v>
       </c>
       <c r="D110" t="n">
-        <v>0.235193</v>
+        <v>0.235238</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.24552</v>
+        <v>0.24562</v>
       </c>
       <c r="C111" t="n">
-        <v>0.230016</v>
+        <v>0.230093</v>
       </c>
       <c r="D111" t="n">
-        <v>0.233539</v>
+        <v>0.233626</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.241091</v>
+        <v>0.241139</v>
       </c>
       <c r="C112" t="n">
-        <v>0.227952</v>
+        <v>0.227948</v>
       </c>
       <c r="D112" t="n">
-        <v>0.232119</v>
+        <v>0.232168</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.236449</v>
+        <v>0.236275</v>
       </c>
       <c r="C113" t="n">
-        <v>0.226332</v>
+        <v>0.226345</v>
       </c>
       <c r="D113" t="n">
-        <v>0.230864</v>
+        <v>0.230878</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.23108</v>
+        <v>0.231028</v>
       </c>
       <c r="C114" t="n">
-        <v>0.224891</v>
+        <v>0.224905</v>
       </c>
       <c r="D114" t="n">
-        <v>0.229632</v>
+        <v>0.229712</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.225457</v>
+        <v>0.225428</v>
       </c>
       <c r="C115" t="n">
-        <v>0.223768</v>
+        <v>0.223683</v>
       </c>
       <c r="D115" t="n">
-        <v>0.22859</v>
+        <v>0.228547</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.219831</v>
+        <v>0.219803</v>
       </c>
       <c r="C116" t="n">
-        <v>0.223074</v>
+        <v>0.223047</v>
       </c>
       <c r="D116" t="n">
-        <v>0.227972</v>
+        <v>0.227903</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.213767</v>
+        <v>0.213685</v>
       </c>
       <c r="C117" t="n">
-        <v>0.221981</v>
+        <v>0.221965</v>
       </c>
       <c r="D117" t="n">
-        <v>0.226965</v>
+        <v>0.226943</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.207479</v>
+        <v>0.207389</v>
       </c>
       <c r="C118" t="n">
-        <v>0.221048</v>
+        <v>0.221021</v>
       </c>
       <c r="D118" t="n">
-        <v>0.226077</v>
+        <v>0.226054</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.200555</v>
+        <v>0.200604</v>
       </c>
       <c r="C119" t="n">
-        <v>0.220163</v>
+        <v>0.220215</v>
       </c>
       <c r="D119" t="n">
-        <v>0.225206</v>
+        <v>0.225202</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.19344</v>
+        <v>0.19334</v>
       </c>
       <c r="C120" t="n">
-        <v>0.219232</v>
+        <v>0.219258</v>
       </c>
       <c r="D120" t="n">
-        <v>0.224439</v>
+        <v>0.224393</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.185255</v>
+        <v>0.185372</v>
       </c>
       <c r="C121" t="n">
-        <v>0.218418</v>
+        <v>0.218478</v>
       </c>
       <c r="D121" t="n">
-        <v>0.223605</v>
+        <v>0.223736</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.175944</v>
+        <v>0.175912</v>
       </c>
       <c r="C122" t="n">
-        <v>0.217546</v>
+        <v>0.217613</v>
       </c>
       <c r="D122" t="n">
-        <v>0.222917</v>
+        <v>0.222962</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.16493</v>
+        <v>0.164855</v>
       </c>
       <c r="C123" t="n">
-        <v>0.21668</v>
+        <v>0.216721</v>
       </c>
       <c r="D123" t="n">
-        <v>0.23726</v>
+        <v>0.23724</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.249949</v>
+        <v>0.250012</v>
       </c>
       <c r="C124" t="n">
-        <v>0.233434</v>
+        <v>0.233325</v>
       </c>
       <c r="D124" t="n">
-        <v>0.2354</v>
+        <v>0.235439</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.246195</v>
+        <v>0.247525</v>
       </c>
       <c r="C125" t="n">
-        <v>0.230354</v>
+        <v>0.230308</v>
       </c>
       <c r="D125" t="n">
-        <v>0.233693</v>
+        <v>0.233711</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.241865</v>
+        <v>0.24319</v>
       </c>
       <c r="C126" t="n">
-        <v>0.228274</v>
+        <v>0.228269</v>
       </c>
       <c r="D126" t="n">
-        <v>0.232286</v>
+        <v>0.232244</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.237209</v>
+        <v>0.238474</v>
       </c>
       <c r="C127" t="n">
-        <v>0.226501</v>
+        <v>0.226513</v>
       </c>
       <c r="D127" t="n">
-        <v>0.230961</v>
+        <v>0.230934</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.232893</v>
+        <v>0.233417</v>
       </c>
       <c r="C128" t="n">
-        <v>0.225143</v>
+        <v>0.225166</v>
       </c>
       <c r="D128" t="n">
-        <v>0.229783</v>
+        <v>0.229749</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.226591</v>
+        <v>0.22802</v>
       </c>
       <c r="C129" t="n">
-        <v>0.223937</v>
+        <v>0.223914</v>
       </c>
       <c r="D129" t="n">
-        <v>0.228665</v>
+        <v>0.228623</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.222437</v>
+        <v>0.222445</v>
       </c>
       <c r="C130" t="n">
-        <v>0.222837</v>
+        <v>0.222843</v>
       </c>
       <c r="D130" t="n">
-        <v>0.227679</v>
+        <v>0.227636</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.216622</v>
+        <v>0.216533</v>
       </c>
       <c r="C131" t="n">
-        <v>0.221832</v>
+        <v>0.221863</v>
       </c>
       <c r="D131" t="n">
-        <v>0.226775</v>
+        <v>0.226663</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.210524</v>
+        <v>0.210387</v>
       </c>
       <c r="C132" t="n">
-        <v>0.220846</v>
+        <v>0.220845</v>
       </c>
       <c r="D132" t="n">
-        <v>0.225807</v>
+        <v>0.225725</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.20395</v>
+        <v>0.203959</v>
       </c>
       <c r="C133" t="n">
         <v>0.219908</v>
       </c>
       <c r="D133" t="n">
-        <v>0.224921</v>
+        <v>0.224903</v>
       </c>
     </row>
     <row r="134">
@@ -5097,10 +5097,10 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.196697</v>
+        <v>0.196592</v>
       </c>
       <c r="C134" t="n">
-        <v>0.219079</v>
+        <v>0.219098</v>
       </c>
       <c r="D134" t="n">
         <v>0.224122</v>
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.189024</v>
+        <v>0.189069</v>
       </c>
       <c r="C135" t="n">
-        <v>0.218205</v>
+        <v>0.218221</v>
       </c>
       <c r="D135" t="n">
-        <v>0.223362</v>
+        <v>0.223388</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.180135</v>
+        <v>0.179773</v>
       </c>
       <c r="C136" t="n">
-        <v>0.217844</v>
+        <v>0.217838</v>
       </c>
       <c r="D136" t="n">
-        <v>0.223102</v>
+        <v>0.223072</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.168961</v>
+        <v>0.168903</v>
       </c>
       <c r="C137" t="n">
-        <v>0.216971</v>
+        <v>0.216998</v>
       </c>
       <c r="D137" t="n">
-        <v>0.238532</v>
+        <v>0.23861</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.250501</v>
+        <v>0.250674</v>
       </c>
       <c r="C138" t="n">
-        <v>0.234801</v>
+        <v>0.234751</v>
       </c>
       <c r="D138" t="n">
-        <v>0.23647</v>
+        <v>0.236501</v>
       </c>
     </row>
     <row r="139">
@@ -5170,10 +5170,10 @@
         <v>0.247079</v>
       </c>
       <c r="C139" t="n">
-        <v>0.231545</v>
+        <v>0.231679</v>
       </c>
       <c r="D139" t="n">
-        <v>0.234641</v>
+        <v>0.23471</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.242928</v>
+        <v>0.242977</v>
       </c>
       <c r="C140" t="n">
-        <v>0.229103</v>
+        <v>0.229212</v>
       </c>
       <c r="D140" t="n">
-        <v>0.233147</v>
+        <v>0.233161</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.238378</v>
+        <v>0.238303</v>
       </c>
       <c r="C141" t="n">
-        <v>0.227338</v>
+        <v>0.227342</v>
       </c>
       <c r="D141" t="n">
-        <v>0.231656</v>
+        <v>0.231827</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.233346</v>
+        <v>0.233278</v>
       </c>
       <c r="C142" t="n">
-        <v>0.225818</v>
+        <v>0.225927</v>
       </c>
       <c r="D142" t="n">
-        <v>0.230425</v>
+        <v>0.230459</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.227801</v>
+        <v>0.227729</v>
       </c>
       <c r="C143" t="n">
-        <v>0.224542</v>
+        <v>0.224602</v>
       </c>
       <c r="D143" t="n">
-        <v>0.229245</v>
+        <v>0.229369</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.187153</v>
+        <v>0.189748</v>
       </c>
       <c r="C2" t="n">
-        <v>0.206361</v>
+        <v>0.206874</v>
       </c>
       <c r="D2" t="n">
-        <v>0.209084</v>
+        <v>0.210842</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.18262</v>
+        <v>0.183657</v>
       </c>
       <c r="C3" t="n">
-        <v>0.20736</v>
+        <v>0.206461</v>
       </c>
       <c r="D3" t="n">
-        <v>0.209976</v>
+        <v>0.213197</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.179133</v>
+        <v>0.178918</v>
       </c>
       <c r="C4" t="n">
-        <v>0.206231</v>
+        <v>0.206292</v>
       </c>
       <c r="D4" t="n">
-        <v>0.210852</v>
+        <v>0.213879</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.175749</v>
+        <v>0.176358</v>
       </c>
       <c r="C5" t="n">
-        <v>0.206959</v>
+        <v>0.206417</v>
       </c>
       <c r="D5" t="n">
-        <v>0.212391</v>
+        <v>0.213352</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.169449</v>
+        <v>0.16919</v>
       </c>
       <c r="C6" t="n">
-        <v>0.206712</v>
+        <v>0.206804</v>
       </c>
       <c r="D6" t="n">
-        <v>0.212389</v>
+        <v>0.213467</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.163765</v>
+        <v>0.163938</v>
       </c>
       <c r="C7" t="n">
-        <v>0.206439</v>
+        <v>0.205994</v>
       </c>
       <c r="D7" t="n">
-        <v>0.211813</v>
+        <v>0.214532</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.157238</v>
+        <v>0.156858</v>
       </c>
       <c r="C8" t="n">
-        <v>0.20621</v>
+        <v>0.206282</v>
       </c>
       <c r="D8" t="n">
-        <v>0.213305</v>
+        <v>0.214697</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.145708</v>
+        <v>0.145813</v>
       </c>
       <c r="C9" t="n">
-        <v>0.205473</v>
+        <v>0.205818</v>
       </c>
       <c r="D9" t="n">
-        <v>0.227887</v>
+        <v>0.228669</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.231162</v>
+        <v>0.231205</v>
       </c>
       <c r="C10" t="n">
-        <v>0.224401</v>
+        <v>0.22577</v>
       </c>
       <c r="D10" t="n">
-        <v>0.226746</v>
+        <v>0.228453</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.228064</v>
+        <v>0.228559</v>
       </c>
       <c r="C11" t="n">
-        <v>0.223069</v>
+        <v>0.224064</v>
       </c>
       <c r="D11" t="n">
-        <v>0.226727</v>
+        <v>0.228398</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.22477</v>
+        <v>0.224508</v>
       </c>
       <c r="C12" t="n">
-        <v>0.222691</v>
+        <v>0.223229</v>
       </c>
       <c r="D12" t="n">
-        <v>0.225379</v>
+        <v>0.227894</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.222777</v>
+        <v>0.222692</v>
       </c>
       <c r="C13" t="n">
-        <v>0.221603</v>
+        <v>0.221669</v>
       </c>
       <c r="D13" t="n">
-        <v>0.224276</v>
+        <v>0.226596</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.219673</v>
+        <v>0.218866</v>
       </c>
       <c r="C14" t="n">
-        <v>0.221483</v>
+        <v>0.220938</v>
       </c>
       <c r="D14" t="n">
-        <v>0.22477</v>
+        <v>0.22702</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.214976</v>
+        <v>0.214739</v>
       </c>
       <c r="C15" t="n">
-        <v>0.220081</v>
+        <v>0.220398</v>
       </c>
       <c r="D15" t="n">
-        <v>0.223712</v>
+        <v>0.225628</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.210202</v>
+        <v>0.210819</v>
       </c>
       <c r="C16" t="n">
-        <v>0.220424</v>
+        <v>0.220251</v>
       </c>
       <c r="D16" t="n">
-        <v>0.223227</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.204981</v>
+        <v>0.205694</v>
       </c>
       <c r="C17" t="n">
-        <v>0.219307</v>
+        <v>0.21841</v>
       </c>
       <c r="D17" t="n">
-        <v>0.223035</v>
+        <v>0.225128</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.200188</v>
+        <v>0.201027</v>
       </c>
       <c r="C18" t="n">
-        <v>0.21834</v>
+        <v>0.217471</v>
       </c>
       <c r="D18" t="n">
-        <v>0.222089</v>
+        <v>0.223881</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.195916</v>
+        <v>0.195821</v>
       </c>
       <c r="C19" t="n">
-        <v>0.216795</v>
+        <v>0.216422</v>
       </c>
       <c r="D19" t="n">
-        <v>0.221614</v>
+        <v>0.223394</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.189283</v>
+        <v>0.188347</v>
       </c>
       <c r="C20" t="n">
-        <v>0.216567</v>
+        <v>0.21623</v>
       </c>
       <c r="D20" t="n">
-        <v>0.221423</v>
+        <v>0.223172</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.181475</v>
+        <v>0.182401</v>
       </c>
       <c r="C21" t="n">
-        <v>0.215601</v>
+        <v>0.215509</v>
       </c>
       <c r="D21" t="n">
-        <v>0.220935</v>
+        <v>0.223227</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.173983</v>
+        <v>0.172601</v>
       </c>
       <c r="C22" t="n">
-        <v>0.214737</v>
+        <v>0.214767</v>
       </c>
       <c r="D22" t="n">
-        <v>0.22009</v>
+        <v>0.22247</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.164768</v>
+        <v>0.164633</v>
       </c>
       <c r="C23" t="n">
-        <v>0.214535</v>
+        <v>0.214157</v>
       </c>
       <c r="D23" t="n">
-        <v>0.234859</v>
+        <v>0.234897</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.242881</v>
+        <v>0.242813</v>
       </c>
       <c r="C24" t="n">
-        <v>0.231011</v>
+        <v>0.228367</v>
       </c>
       <c r="D24" t="n">
-        <v>0.23298</v>
+        <v>0.233802</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.239161</v>
+        <v>0.238765</v>
       </c>
       <c r="C25" t="n">
-        <v>0.228215</v>
+        <v>0.226974</v>
       </c>
       <c r="D25" t="n">
-        <v>0.231448</v>
+        <v>0.232473</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.235726</v>
+        <v>0.235676</v>
       </c>
       <c r="C26" t="n">
-        <v>0.225987</v>
+        <v>0.225663</v>
       </c>
       <c r="D26" t="n">
-        <v>0.23062</v>
+        <v>0.232134</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.232945</v>
+        <v>0.231995</v>
       </c>
       <c r="C27" t="n">
-        <v>0.225079</v>
+        <v>0.224688</v>
       </c>
       <c r="D27" t="n">
-        <v>0.229366</v>
+        <v>0.231013</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.227559</v>
+        <v>0.227557</v>
       </c>
       <c r="C28" t="n">
-        <v>0.224211</v>
+        <v>0.224082</v>
       </c>
       <c r="D28" t="n">
-        <v>0.228593</v>
+        <v>0.23021</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.222833</v>
+        <v>0.222709</v>
       </c>
       <c r="C29" t="n">
-        <v>0.222757</v>
+        <v>0.222886</v>
       </c>
       <c r="D29" t="n">
-        <v>0.227573</v>
+        <v>0.229109</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.219672</v>
+        <v>0.217701</v>
       </c>
       <c r="C30" t="n">
-        <v>0.221744</v>
+        <v>0.221364</v>
       </c>
       <c r="D30" t="n">
-        <v>0.226971</v>
+        <v>0.228556</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.214671</v>
+        <v>0.213108</v>
       </c>
       <c r="C31" t="n">
-        <v>0.220542</v>
+        <v>0.220428</v>
       </c>
       <c r="D31" t="n">
-        <v>0.225876</v>
+        <v>0.227417</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.207822</v>
+        <v>0.207432</v>
       </c>
       <c r="C32" t="n">
-        <v>0.219726</v>
+        <v>0.219446</v>
       </c>
       <c r="D32" t="n">
-        <v>0.225542</v>
+        <v>0.22696</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.200985</v>
+        <v>0.201094</v>
       </c>
       <c r="C33" t="n">
-        <v>0.218781</v>
+        <v>0.218792</v>
       </c>
       <c r="D33" t="n">
-        <v>0.224559</v>
+        <v>0.226366</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.194729</v>
+        <v>0.195273</v>
       </c>
       <c r="C34" t="n">
-        <v>0.218057</v>
+        <v>0.218137</v>
       </c>
       <c r="D34" t="n">
-        <v>0.224011</v>
+        <v>0.225714</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.186633</v>
+        <v>0.188526</v>
       </c>
       <c r="C35" t="n">
-        <v>0.217072</v>
+        <v>0.216989</v>
       </c>
       <c r="D35" t="n">
-        <v>0.22294</v>
+        <v>0.224862</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.17908</v>
+        <v>0.180054</v>
       </c>
       <c r="C36" t="n">
-        <v>0.216428</v>
+        <v>0.216172</v>
       </c>
       <c r="D36" t="n">
-        <v>0.222176</v>
+        <v>0.224219</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.169283</v>
+        <v>0.170103</v>
       </c>
       <c r="C37" t="n">
-        <v>0.216179</v>
+        <v>0.215695</v>
       </c>
       <c r="D37" t="n">
-        <v>0.236542</v>
+        <v>0.237619</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.249127</v>
+        <v>0.248685</v>
       </c>
       <c r="C38" t="n">
-        <v>0.229536</v>
+        <v>0.229465</v>
       </c>
       <c r="D38" t="n">
-        <v>0.234734</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.245198</v>
+        <v>0.24527</v>
       </c>
       <c r="C39" t="n">
-        <v>0.228101</v>
+        <v>0.228121</v>
       </c>
       <c r="D39" t="n">
-        <v>0.233011</v>
+        <v>0.234849</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.241256</v>
+        <v>0.241407</v>
       </c>
       <c r="C40" t="n">
-        <v>0.226637</v>
+        <v>0.226607</v>
       </c>
       <c r="D40" t="n">
-        <v>0.232049</v>
+        <v>0.23367</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.236913</v>
+        <v>0.237019</v>
       </c>
       <c r="C41" t="n">
         <v>0.225687</v>
       </c>
       <c r="D41" t="n">
-        <v>0.230961</v>
+        <v>0.232589</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.232515</v>
+        <v>0.232614</v>
       </c>
       <c r="C42" t="n">
-        <v>0.224381</v>
+        <v>0.224187</v>
       </c>
       <c r="D42" t="n">
-        <v>0.229605</v>
+        <v>0.231435</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.227814</v>
+        <v>0.227564</v>
       </c>
       <c r="C43" t="n">
-        <v>0.22367</v>
+        <v>0.223171</v>
       </c>
       <c r="D43" t="n">
-        <v>0.228579</v>
+        <v>0.230263</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.222247</v>
+        <v>0.222302</v>
       </c>
       <c r="C44" t="n">
-        <v>0.222204</v>
+        <v>0.222165</v>
       </c>
       <c r="D44" t="n">
-        <v>0.227509</v>
+        <v>0.229275</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.216713</v>
+        <v>0.216614</v>
       </c>
       <c r="C45" t="n">
-        <v>0.221298</v>
+        <v>0.221164</v>
       </c>
       <c r="D45" t="n">
-        <v>0.226746</v>
+        <v>0.228564</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.211261</v>
+        <v>0.211457</v>
       </c>
       <c r="C46" t="n">
-        <v>0.220443</v>
+        <v>0.220283</v>
       </c>
       <c r="D46" t="n">
-        <v>0.225671</v>
+        <v>0.227475</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.204991</v>
+        <v>0.204525</v>
       </c>
       <c r="C47" t="n">
-        <v>0.21959</v>
+        <v>0.219526</v>
       </c>
       <c r="D47" t="n">
-        <v>0.224791</v>
+        <v>0.226642</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.198574</v>
+        <v>0.19836</v>
       </c>
       <c r="C48" t="n">
-        <v>0.218956</v>
+        <v>0.218793</v>
       </c>
       <c r="D48" t="n">
-        <v>0.223878</v>
+        <v>0.225615</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.191231</v>
+        <v>0.190657</v>
       </c>
       <c r="C49" t="n">
-        <v>0.217814</v>
+        <v>0.217914</v>
       </c>
       <c r="D49" t="n">
-        <v>0.223164</v>
+        <v>0.225064</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.183278</v>
+        <v>0.183895</v>
       </c>
       <c r="C50" t="n">
-        <v>0.217691</v>
+        <v>0.217293</v>
       </c>
       <c r="D50" t="n">
-        <v>0.222567</v>
+        <v>0.224559</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173995</v>
+        <v>0.173345</v>
       </c>
       <c r="C51" t="n">
-        <v>0.216527</v>
+        <v>0.216278</v>
       </c>
       <c r="D51" t="n">
-        <v>0.237212</v>
+        <v>0.238574</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.162246</v>
+        <v>0.162089</v>
       </c>
       <c r="C52" t="n">
-        <v>0.21591</v>
+        <v>0.215872</v>
       </c>
       <c r="D52" t="n">
-        <v>0.235446</v>
+        <v>0.237138</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.247486</v>
+        <v>0.247496</v>
       </c>
       <c r="C53" t="n">
-        <v>0.229407</v>
+        <v>0.228925</v>
       </c>
       <c r="D53" t="n">
-        <v>0.234312</v>
+        <v>0.235781</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.244108</v>
+        <v>0.243662</v>
       </c>
       <c r="C54" t="n">
-        <v>0.227618</v>
+        <v>0.227374</v>
       </c>
       <c r="D54" t="n">
-        <v>0.232829</v>
+        <v>0.234626</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.239731</v>
+        <v>0.239546</v>
       </c>
       <c r="C55" t="n">
-        <v>0.226601</v>
+        <v>0.226326</v>
       </c>
       <c r="D55" t="n">
-        <v>0.231689</v>
+        <v>0.233379</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.235359</v>
+        <v>0.235023</v>
       </c>
       <c r="C56" t="n">
-        <v>0.225367</v>
+        <v>0.225178</v>
       </c>
       <c r="D56" t="n">
-        <v>0.230322</v>
+        <v>0.232047</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.230483</v>
+        <v>0.230187</v>
       </c>
       <c r="C57" t="n">
-        <v>0.225652</v>
+        <v>0.224257</v>
       </c>
       <c r="D57" t="n">
-        <v>0.229433</v>
+        <v>0.231208</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.224562</v>
+        <v>0.22458</v>
       </c>
       <c r="C58" t="n">
-        <v>0.223381</v>
+        <v>0.223101</v>
       </c>
       <c r="D58" t="n">
-        <v>0.22822</v>
+        <v>0.229994</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.219127</v>
+        <v>0.219207</v>
       </c>
       <c r="C59" t="n">
-        <v>0.222062</v>
+        <v>0.221937</v>
       </c>
       <c r="D59" t="n">
-        <v>0.227242</v>
+        <v>0.229061</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.21348</v>
+        <v>0.213104</v>
       </c>
       <c r="C60" t="n">
-        <v>0.221048</v>
+        <v>0.220987</v>
       </c>
       <c r="D60" t="n">
-        <v>0.226228</v>
+        <v>0.228072</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.207175</v>
+        <v>0.206702</v>
       </c>
       <c r="C61" t="n">
-        <v>0.220092</v>
+        <v>0.22006</v>
       </c>
       <c r="D61" t="n">
-        <v>0.225308</v>
+        <v>0.227284</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.200836</v>
+        <v>0.20023</v>
       </c>
       <c r="C62" t="n">
-        <v>0.219286</v>
+        <v>0.219152</v>
       </c>
       <c r="D62" t="n">
-        <v>0.224496</v>
+        <v>0.226293</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.19363</v>
+        <v>0.19326</v>
       </c>
       <c r="C63" t="n">
-        <v>0.21845</v>
+        <v>0.218335</v>
       </c>
       <c r="D63" t="n">
-        <v>0.223666</v>
+        <v>0.225675</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.185953</v>
+        <v>0.185338</v>
       </c>
       <c r="C64" t="n">
-        <v>0.217687</v>
+        <v>0.217586</v>
       </c>
       <c r="D64" t="n">
-        <v>0.222804</v>
+        <v>0.224812</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.17723</v>
+        <v>0.176986</v>
       </c>
       <c r="C65" t="n">
-        <v>0.216631</v>
+        <v>0.216716</v>
       </c>
       <c r="D65" t="n">
-        <v>0.222184</v>
+        <v>0.224127</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.167033</v>
+        <v>0.166206</v>
       </c>
       <c r="C66" t="n">
-        <v>0.216304</v>
+        <v>0.215915</v>
       </c>
       <c r="D66" t="n">
-        <v>0.236524</v>
+        <v>0.238117</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.250834</v>
+        <v>0.250827</v>
       </c>
       <c r="C67" t="n">
-        <v>0.231191</v>
+        <v>0.232063</v>
       </c>
       <c r="D67" t="n">
-        <v>0.234982</v>
+        <v>0.236594</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.246285</v>
+        <v>0.246778</v>
       </c>
       <c r="C68" t="n">
-        <v>0.230214</v>
+        <v>0.230498</v>
       </c>
       <c r="D68" t="n">
-        <v>0.233656</v>
+        <v>0.235241</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.242659</v>
+        <v>0.242524</v>
       </c>
       <c r="C69" t="n">
-        <v>0.228367</v>
+        <v>0.228516</v>
       </c>
       <c r="D69" t="n">
-        <v>0.232339</v>
+        <v>0.23396</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.237968</v>
+        <v>0.237955</v>
       </c>
       <c r="C70" t="n">
-        <v>0.226941</v>
+        <v>0.227017</v>
       </c>
       <c r="D70" t="n">
-        <v>0.231131</v>
+        <v>0.232871</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.23283</v>
+        <v>0.232787</v>
       </c>
       <c r="C71" t="n">
-        <v>0.225441</v>
+        <v>0.225419</v>
       </c>
       <c r="D71" t="n">
-        <v>0.229908</v>
+        <v>0.231662</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.227454</v>
+        <v>0.227484</v>
       </c>
       <c r="C72" t="n">
-        <v>0.224232</v>
+        <v>0.224133</v>
       </c>
       <c r="D72" t="n">
-        <v>0.228783</v>
+        <v>0.23053</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.22211</v>
+        <v>0.222006</v>
       </c>
       <c r="C73" t="n">
-        <v>0.223033</v>
+        <v>0.222827</v>
       </c>
       <c r="D73" t="n">
-        <v>0.22775</v>
+        <v>0.229514</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.215953</v>
+        <v>0.215441</v>
       </c>
       <c r="C74" t="n">
-        <v>0.22184</v>
+        <v>0.221869</v>
       </c>
       <c r="D74" t="n">
-        <v>0.22675</v>
+        <v>0.228603</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.20996</v>
+        <v>0.209517</v>
       </c>
       <c r="C75" t="n">
-        <v>0.220969</v>
+        <v>0.220956</v>
       </c>
       <c r="D75" t="n">
-        <v>0.225821</v>
+        <v>0.227861</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.203339</v>
+        <v>0.202787</v>
       </c>
       <c r="C76" t="n">
-        <v>0.220049</v>
+        <v>0.220061</v>
       </c>
       <c r="D76" t="n">
-        <v>0.225075</v>
+        <v>0.227064</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.197132</v>
+        <v>0.195968</v>
       </c>
       <c r="C77" t="n">
-        <v>0.219237</v>
+        <v>0.219072</v>
       </c>
       <c r="D77" t="n">
-        <v>0.224108</v>
+        <v>0.226053</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.188901</v>
+        <v>0.188767</v>
       </c>
       <c r="C78" t="n">
-        <v>0.218343</v>
+        <v>0.218197</v>
       </c>
       <c r="D78" t="n">
-        <v>0.223402</v>
+        <v>0.22536</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179879</v>
+        <v>0.180248</v>
       </c>
       <c r="C79" t="n">
-        <v>0.21739</v>
+        <v>0.217255</v>
       </c>
       <c r="D79" t="n">
-        <v>0.22271</v>
+        <v>0.224617</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.170522</v>
+        <v>0.17043</v>
       </c>
       <c r="C80" t="n">
-        <v>0.216524</v>
+        <v>0.216357</v>
       </c>
       <c r="D80" t="n">
-        <v>0.239025</v>
+        <v>0.240402</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.25109</v>
+        <v>0.251444</v>
       </c>
       <c r="C81" t="n">
-        <v>0.238942</v>
+        <v>0.238418</v>
       </c>
       <c r="D81" t="n">
-        <v>0.236526</v>
+        <v>0.238867</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.247319</v>
+        <v>0.247145</v>
       </c>
       <c r="C82" t="n">
-        <v>0.23479</v>
+        <v>0.233959</v>
       </c>
       <c r="D82" t="n">
-        <v>0.234933</v>
+        <v>0.236385</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.24325</v>
+        <v>0.243327</v>
       </c>
       <c r="C83" t="n">
-        <v>0.230494</v>
+        <v>0.229732</v>
       </c>
       <c r="D83" t="n">
-        <v>0.233211</v>
+        <v>0.235039</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.238729</v>
+        <v>0.23902</v>
       </c>
       <c r="C84" t="n">
-        <v>0.227827</v>
+        <v>0.227505</v>
       </c>
       <c r="D84" t="n">
-        <v>0.231925</v>
+        <v>0.233775</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.233733</v>
+        <v>0.234009</v>
       </c>
       <c r="C85" t="n">
-        <v>0.225822</v>
+        <v>0.225839</v>
       </c>
       <c r="D85" t="n">
-        <v>0.230553</v>
+        <v>0.232551</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.228734</v>
+        <v>0.228749</v>
       </c>
       <c r="C86" t="n">
-        <v>0.224584</v>
+        <v>0.224517</v>
       </c>
       <c r="D86" t="n">
-        <v>0.229445</v>
+        <v>0.231194</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.223212</v>
+        <v>0.223045</v>
       </c>
       <c r="C87" t="n">
-        <v>0.223599</v>
+        <v>0.223429</v>
       </c>
       <c r="D87" t="n">
-        <v>0.228291</v>
+        <v>0.230045</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.217313</v>
+        <v>0.217261</v>
       </c>
       <c r="C88" t="n">
-        <v>0.222558</v>
+        <v>0.222377</v>
       </c>
       <c r="D88" t="n">
-        <v>0.227162</v>
+        <v>0.22902</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.211376</v>
+        <v>0.211153</v>
       </c>
       <c r="C89" t="n">
-        <v>0.221428</v>
+        <v>0.221294</v>
       </c>
       <c r="D89" t="n">
-        <v>0.22619</v>
+        <v>0.228151</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.204895</v>
+        <v>0.204734</v>
       </c>
       <c r="C90" t="n">
-        <v>0.220291</v>
+        <v>0.220258</v>
       </c>
       <c r="D90" t="n">
-        <v>0.22536</v>
+        <v>0.227306</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1979</v>
+        <v>0.197851</v>
       </c>
       <c r="C91" t="n">
-        <v>0.219476</v>
+        <v>0.219403</v>
       </c>
       <c r="D91" t="n">
-        <v>0.22454</v>
+        <v>0.22638</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190706</v>
+        <v>0.190632</v>
       </c>
       <c r="C92" t="n">
-        <v>0.218512</v>
+        <v>0.218521</v>
       </c>
       <c r="D92" t="n">
-        <v>0.22365</v>
+        <v>0.225641</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.182021</v>
+        <v>0.181971</v>
       </c>
       <c r="C93" t="n">
-        <v>0.217781</v>
+        <v>0.217723</v>
       </c>
       <c r="D93" t="n">
-        <v>0.222908</v>
+        <v>0.224859</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.172045</v>
+        <v>0.17198</v>
       </c>
       <c r="C94" t="n">
-        <v>0.216937</v>
+        <v>0.2169</v>
       </c>
       <c r="D94" t="n">
-        <v>0.2398</v>
+        <v>0.241266</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.251348</v>
+        <v>0.251351</v>
       </c>
       <c r="C95" t="n">
-        <v>0.235894</v>
+        <v>0.235928</v>
       </c>
       <c r="D95" t="n">
-        <v>0.237322</v>
+        <v>0.238507</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.248025</v>
+        <v>0.247967</v>
       </c>
       <c r="C96" t="n">
-        <v>0.232407</v>
+        <v>0.232396</v>
       </c>
       <c r="D96" t="n">
-        <v>0.235477</v>
+        <v>0.236884</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.244073</v>
+        <v>0.243942</v>
       </c>
       <c r="C97" t="n">
-        <v>0.229869</v>
+        <v>0.229638</v>
       </c>
       <c r="D97" t="n">
-        <v>0.234205</v>
+        <v>0.235962</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.239894</v>
+        <v>0.239647</v>
       </c>
       <c r="C98" t="n">
-        <v>0.227713</v>
+        <v>0.227565</v>
       </c>
       <c r="D98" t="n">
-        <v>0.23294</v>
+        <v>0.234509</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.235003</v>
+        <v>0.234951</v>
       </c>
       <c r="C99" t="n">
-        <v>0.22612</v>
+        <v>0.226093</v>
       </c>
       <c r="D99" t="n">
-        <v>0.231514</v>
+        <v>0.233302</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.229931</v>
+        <v>0.229763</v>
       </c>
       <c r="C100" t="n">
-        <v>0.224973</v>
+        <v>0.224809</v>
       </c>
       <c r="D100" t="n">
-        <v>0.230421</v>
+        <v>0.232034</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.224515</v>
+        <v>0.224327</v>
       </c>
       <c r="C101" t="n">
-        <v>0.223765</v>
+        <v>0.223689</v>
       </c>
       <c r="D101" t="n">
-        <v>0.228977</v>
+        <v>0.230666</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.218581</v>
+        <v>0.21857</v>
       </c>
       <c r="C102" t="n">
-        <v>0.222631</v>
+        <v>0.222474</v>
       </c>
       <c r="D102" t="n">
-        <v>0.22792</v>
+        <v>0.229598</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.212555</v>
+        <v>0.212403</v>
       </c>
       <c r="C103" t="n">
-        <v>0.221586</v>
+        <v>0.221409</v>
       </c>
       <c r="D103" t="n">
-        <v>0.227008</v>
+        <v>0.22856</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.206146</v>
+        <v>0.206166</v>
       </c>
       <c r="C104" t="n">
-        <v>0.220576</v>
+        <v>0.220493</v>
       </c>
       <c r="D104" t="n">
-        <v>0.226381</v>
+        <v>0.228131</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.199248</v>
+        <v>0.199119</v>
       </c>
       <c r="C105" t="n">
-        <v>0.219681</v>
+        <v>0.219621</v>
       </c>
       <c r="D105" t="n">
-        <v>0.225556</v>
+        <v>0.22737</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.191893</v>
+        <v>0.191978</v>
       </c>
       <c r="C106" t="n">
-        <v>0.218796</v>
+        <v>0.218799</v>
       </c>
       <c r="D106" t="n">
-        <v>0.224694</v>
+        <v>0.226518</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183797</v>
+        <v>0.183699</v>
       </c>
       <c r="C107" t="n">
-        <v>0.217994</v>
+        <v>0.217896</v>
       </c>
       <c r="D107" t="n">
-        <v>0.22396</v>
+        <v>0.225736</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.174147</v>
+        <v>0.17405</v>
       </c>
       <c r="C108" t="n">
-        <v>0.217192</v>
+        <v>0.217104</v>
       </c>
       <c r="D108" t="n">
-        <v>0.239397</v>
+        <v>0.241045</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.162478</v>
+        <v>0.162681</v>
       </c>
       <c r="C109" t="n">
-        <v>0.216424</v>
+        <v>0.216355</v>
       </c>
       <c r="D109" t="n">
-        <v>0.237161</v>
+        <v>0.238761</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.249423</v>
+        <v>0.249371</v>
       </c>
       <c r="C110" t="n">
-        <v>0.232929</v>
+        <v>0.233031</v>
       </c>
       <c r="D110" t="n">
-        <v>0.235238</v>
+        <v>0.236867</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.24562</v>
+        <v>0.245643</v>
       </c>
       <c r="C111" t="n">
-        <v>0.230093</v>
+        <v>0.230074</v>
       </c>
       <c r="D111" t="n">
-        <v>0.233626</v>
+        <v>0.235337</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.241139</v>
+        <v>0.24116</v>
       </c>
       <c r="C112" t="n">
-        <v>0.227948</v>
+        <v>0.227968</v>
       </c>
       <c r="D112" t="n">
-        <v>0.232168</v>
+        <v>0.233963</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.236275</v>
+        <v>0.236437</v>
       </c>
       <c r="C113" t="n">
-        <v>0.226345</v>
+        <v>0.22637</v>
       </c>
       <c r="D113" t="n">
-        <v>0.230878</v>
+        <v>0.23275</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.231028</v>
+        <v>0.231219</v>
       </c>
       <c r="C114" t="n">
-        <v>0.224905</v>
+        <v>0.224964</v>
       </c>
       <c r="D114" t="n">
-        <v>0.229712</v>
+        <v>0.231526</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.225428</v>
+        <v>0.225713</v>
       </c>
       <c r="C115" t="n">
-        <v>0.223683</v>
+        <v>0.223732</v>
       </c>
       <c r="D115" t="n">
-        <v>0.228547</v>
+        <v>0.23044</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.219803</v>
+        <v>0.219693</v>
       </c>
       <c r="C116" t="n">
-        <v>0.223047</v>
+        <v>0.223124</v>
       </c>
       <c r="D116" t="n">
-        <v>0.227903</v>
+        <v>0.229873</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.213685</v>
+        <v>0.21386</v>
       </c>
       <c r="C117" t="n">
-        <v>0.221965</v>
+        <v>0.22203</v>
       </c>
       <c r="D117" t="n">
-        <v>0.226943</v>
+        <v>0.22888</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.207389</v>
+        <v>0.207564</v>
       </c>
       <c r="C118" t="n">
-        <v>0.221021</v>
+        <v>0.22103</v>
       </c>
       <c r="D118" t="n">
-        <v>0.226054</v>
+        <v>0.227958</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.200604</v>
+        <v>0.200745</v>
       </c>
       <c r="C119" t="n">
-        <v>0.220215</v>
+        <v>0.220208</v>
       </c>
       <c r="D119" t="n">
-        <v>0.225202</v>
+        <v>0.227188</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.19334</v>
+        <v>0.193558</v>
       </c>
       <c r="C120" t="n">
-        <v>0.219258</v>
+        <v>0.219272</v>
       </c>
       <c r="D120" t="n">
-        <v>0.224393</v>
+        <v>0.226371</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.185372</v>
+        <v>0.185274</v>
       </c>
       <c r="C121" t="n">
-        <v>0.218478</v>
+        <v>0.218495</v>
       </c>
       <c r="D121" t="n">
-        <v>0.223736</v>
+        <v>0.225665</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.175912</v>
+        <v>0.176222</v>
       </c>
       <c r="C122" t="n">
-        <v>0.217613</v>
+        <v>0.217684</v>
       </c>
       <c r="D122" t="n">
-        <v>0.222962</v>
+        <v>0.225005</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.164855</v>
+        <v>0.164605</v>
       </c>
       <c r="C123" t="n">
-        <v>0.216721</v>
+        <v>0.216799</v>
       </c>
       <c r="D123" t="n">
-        <v>0.23724</v>
+        <v>0.239078</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.250012</v>
+        <v>0.251336</v>
       </c>
       <c r="C124" t="n">
-        <v>0.233325</v>
+        <v>0.233636</v>
       </c>
       <c r="D124" t="n">
-        <v>0.235439</v>
+        <v>0.237167</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.247525</v>
+        <v>0.247733</v>
       </c>
       <c r="C125" t="n">
-        <v>0.230308</v>
+        <v>0.230481</v>
       </c>
       <c r="D125" t="n">
-        <v>0.233711</v>
+        <v>0.235627</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.24319</v>
+        <v>0.243451</v>
       </c>
       <c r="C126" t="n">
-        <v>0.228269</v>
+        <v>0.228423</v>
       </c>
       <c r="D126" t="n">
-        <v>0.232244</v>
+        <v>0.234178</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.238474</v>
+        <v>0.237554</v>
       </c>
       <c r="C127" t="n">
-        <v>0.226513</v>
+        <v>0.22673</v>
       </c>
       <c r="D127" t="n">
-        <v>0.230934</v>
+        <v>0.232888</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.233417</v>
+        <v>0.232135</v>
       </c>
       <c r="C128" t="n">
-        <v>0.225166</v>
+        <v>0.225298</v>
       </c>
       <c r="D128" t="n">
-        <v>0.229749</v>
+        <v>0.231825</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.22802</v>
+        <v>0.226735</v>
       </c>
       <c r="C129" t="n">
-        <v>0.223914</v>
+        <v>0.224079</v>
       </c>
       <c r="D129" t="n">
-        <v>0.228623</v>
+        <v>0.230637</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.222445</v>
+        <v>0.221046</v>
       </c>
       <c r="C130" t="n">
-        <v>0.222843</v>
+        <v>0.222986</v>
       </c>
       <c r="D130" t="n">
-        <v>0.227636</v>
+        <v>0.229662</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.216533</v>
+        <v>0.215071</v>
       </c>
       <c r="C131" t="n">
-        <v>0.221863</v>
+        <v>0.221909</v>
       </c>
       <c r="D131" t="n">
-        <v>0.226663</v>
+        <v>0.228643</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.210387</v>
+        <v>0.208899</v>
       </c>
       <c r="C132" t="n">
-        <v>0.220845</v>
+        <v>0.220999</v>
       </c>
       <c r="D132" t="n">
-        <v>0.225725</v>
+        <v>0.227781</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.203959</v>
+        <v>0.20405</v>
       </c>
       <c r="C133" t="n">
-        <v>0.219908</v>
+        <v>0.220048</v>
       </c>
       <c r="D133" t="n">
-        <v>0.224903</v>
+        <v>0.226981</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.196592</v>
+        <v>0.196767</v>
       </c>
       <c r="C134" t="n">
-        <v>0.219098</v>
+        <v>0.219196</v>
       </c>
       <c r="D134" t="n">
-        <v>0.224122</v>
+        <v>0.226182</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.189069</v>
+        <v>0.189101</v>
       </c>
       <c r="C135" t="n">
-        <v>0.218221</v>
+        <v>0.218331</v>
       </c>
       <c r="D135" t="n">
-        <v>0.223388</v>
+        <v>0.22539</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.179773</v>
+        <v>0.179928</v>
       </c>
       <c r="C136" t="n">
-        <v>0.217838</v>
+        <v>0.217955</v>
       </c>
       <c r="D136" t="n">
-        <v>0.223072</v>
+        <v>0.225141</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.168903</v>
+        <v>0.167899</v>
       </c>
       <c r="C137" t="n">
-        <v>0.216998</v>
+        <v>0.217063</v>
       </c>
       <c r="D137" t="n">
-        <v>0.23861</v>
+        <v>0.240327</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.250674</v>
+        <v>0.250699</v>
       </c>
       <c r="C138" t="n">
-        <v>0.234751</v>
+        <v>0.234961</v>
       </c>
       <c r="D138" t="n">
-        <v>0.236501</v>
+        <v>0.238245</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.247079</v>
+        <v>0.247217</v>
       </c>
       <c r="C139" t="n">
-        <v>0.231679</v>
+        <v>0.231758</v>
       </c>
       <c r="D139" t="n">
-        <v>0.23471</v>
+        <v>0.236422</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.242977</v>
+        <v>0.243118</v>
       </c>
       <c r="C140" t="n">
-        <v>0.229212</v>
+        <v>0.229314</v>
       </c>
       <c r="D140" t="n">
-        <v>0.233161</v>
+        <v>0.234943</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.238303</v>
+        <v>0.238465</v>
       </c>
       <c r="C141" t="n">
-        <v>0.227342</v>
+        <v>0.227441</v>
       </c>
       <c r="D141" t="n">
-        <v>0.231827</v>
+        <v>0.233495</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.233278</v>
+        <v>0.233451</v>
       </c>
       <c r="C142" t="n">
-        <v>0.225927</v>
+        <v>0.225918</v>
       </c>
       <c r="D142" t="n">
-        <v>0.230459</v>
+        <v>0.23231</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.227729</v>
+        <v>0.227954</v>
       </c>
       <c r="C143" t="n">
-        <v>0.224602</v>
+        <v>0.224557</v>
       </c>
       <c r="D143" t="n">
-        <v>0.229369</v>
+        <v>0.231134</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.189748</v>
+        <v>0.184854</v>
       </c>
       <c r="C2" t="n">
-        <v>0.206874</v>
+        <v>0.207048</v>
       </c>
       <c r="D2" t="n">
-        <v>0.210842</v>
+        <v>0.212139</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.183657</v>
+        <v>0.182413</v>
       </c>
       <c r="C3" t="n">
-        <v>0.206461</v>
+        <v>0.207557</v>
       </c>
       <c r="D3" t="n">
-        <v>0.213197</v>
+        <v>0.212419</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.178918</v>
+        <v>0.178389</v>
       </c>
       <c r="C4" t="n">
-        <v>0.206292</v>
+        <v>0.207212</v>
       </c>
       <c r="D4" t="n">
-        <v>0.213879</v>
+        <v>0.214559</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.176358</v>
+        <v>0.175475</v>
       </c>
       <c r="C5" t="n">
-        <v>0.206417</v>
+        <v>0.207772</v>
       </c>
       <c r="D5" t="n">
-        <v>0.213352</v>
+        <v>0.21431</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.16919</v>
+        <v>0.16917</v>
       </c>
       <c r="C6" t="n">
-        <v>0.206804</v>
+        <v>0.206229</v>
       </c>
       <c r="D6" t="n">
-        <v>0.213467</v>
+        <v>0.212969</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.163938</v>
+        <v>0.163493</v>
       </c>
       <c r="C7" t="n">
-        <v>0.205994</v>
+        <v>0.206337</v>
       </c>
       <c r="D7" t="n">
-        <v>0.214532</v>
+        <v>0.213463</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.156858</v>
+        <v>0.155814</v>
       </c>
       <c r="C8" t="n">
-        <v>0.206282</v>
+        <v>0.205743</v>
       </c>
       <c r="D8" t="n">
-        <v>0.214697</v>
+        <v>0.214799</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.145813</v>
+        <v>0.145956</v>
       </c>
       <c r="C9" t="n">
-        <v>0.205818</v>
+        <v>0.205685</v>
       </c>
       <c r="D9" t="n">
-        <v>0.228669</v>
+        <v>0.229334</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.231205</v>
+        <v>0.231016</v>
       </c>
       <c r="C10" t="n">
-        <v>0.22577</v>
+        <v>0.224566</v>
       </c>
       <c r="D10" t="n">
-        <v>0.228453</v>
+        <v>0.228557</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.228559</v>
+        <v>0.228183</v>
       </c>
       <c r="C11" t="n">
-        <v>0.224064</v>
+        <v>0.223531</v>
       </c>
       <c r="D11" t="n">
-        <v>0.228398</v>
+        <v>0.228494</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.224508</v>
+        <v>0.225138</v>
       </c>
       <c r="C12" t="n">
-        <v>0.223229</v>
+        <v>0.223577</v>
       </c>
       <c r="D12" t="n">
-        <v>0.227894</v>
+        <v>0.22813</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.222692</v>
+        <v>0.222364</v>
       </c>
       <c r="C13" t="n">
-        <v>0.221669</v>
+        <v>0.222192</v>
       </c>
       <c r="D13" t="n">
-        <v>0.226596</v>
+        <v>0.226208</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.218866</v>
+        <v>0.218231</v>
       </c>
       <c r="C14" t="n">
-        <v>0.220938</v>
+        <v>0.221259</v>
       </c>
       <c r="D14" t="n">
-        <v>0.22702</v>
+        <v>0.226228</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.214739</v>
+        <v>0.214682</v>
       </c>
       <c r="C15" t="n">
-        <v>0.220398</v>
+        <v>0.21997</v>
       </c>
       <c r="D15" t="n">
-        <v>0.225628</v>
+        <v>0.226066</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.210819</v>
+        <v>0.209559</v>
       </c>
       <c r="C16" t="n">
-        <v>0.220251</v>
+        <v>0.220144</v>
       </c>
       <c r="D16" t="n">
-        <v>0.225</v>
+        <v>0.22489</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.205694</v>
+        <v>0.205185</v>
       </c>
       <c r="C17" t="n">
-        <v>0.21841</v>
+        <v>0.218704</v>
       </c>
       <c r="D17" t="n">
-        <v>0.225128</v>
+        <v>0.224907</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.201027</v>
+        <v>0.200248</v>
       </c>
       <c r="C18" t="n">
-        <v>0.217471</v>
+        <v>0.217673</v>
       </c>
       <c r="D18" t="n">
-        <v>0.223881</v>
+        <v>0.223934</v>
       </c>
     </row>
     <row r="19">
@@ -3487,10 +3487,10 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.195821</v>
+        <v>0.195442</v>
       </c>
       <c r="C19" t="n">
-        <v>0.216422</v>
+        <v>0.216779</v>
       </c>
       <c r="D19" t="n">
         <v>0.223394</v>
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.188347</v>
+        <v>0.188417</v>
       </c>
       <c r="C20" t="n">
-        <v>0.21623</v>
+        <v>0.216116</v>
       </c>
       <c r="D20" t="n">
-        <v>0.223172</v>
+        <v>0.223015</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.182401</v>
+        <v>0.180655</v>
       </c>
       <c r="C21" t="n">
-        <v>0.215509</v>
+        <v>0.215415</v>
       </c>
       <c r="D21" t="n">
-        <v>0.223227</v>
+        <v>0.222907</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.172601</v>
+        <v>0.172652</v>
       </c>
       <c r="C22" t="n">
-        <v>0.214767</v>
+        <v>0.214777</v>
       </c>
       <c r="D22" t="n">
-        <v>0.22247</v>
+        <v>0.222195</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.164633</v>
+        <v>0.163673</v>
       </c>
       <c r="C23" t="n">
-        <v>0.214157</v>
+        <v>0.213946</v>
       </c>
       <c r="D23" t="n">
-        <v>0.234897</v>
+        <v>0.235963</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.242813</v>
+        <v>0.242363</v>
       </c>
       <c r="C24" t="n">
-        <v>0.228367</v>
+        <v>0.231084</v>
       </c>
       <c r="D24" t="n">
-        <v>0.233802</v>
+        <v>0.234377</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.238765</v>
+        <v>0.238878</v>
       </c>
       <c r="C25" t="n">
-        <v>0.226974</v>
+        <v>0.227313</v>
       </c>
       <c r="D25" t="n">
-        <v>0.232473</v>
+        <v>0.232692</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.235676</v>
+        <v>0.235914</v>
       </c>
       <c r="C26" t="n">
-        <v>0.225663</v>
+        <v>0.226265</v>
       </c>
       <c r="D26" t="n">
-        <v>0.232134</v>
+        <v>0.23228</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.231995</v>
+        <v>0.232037</v>
       </c>
       <c r="C27" t="n">
-        <v>0.224688</v>
+        <v>0.225361</v>
       </c>
       <c r="D27" t="n">
-        <v>0.231013</v>
+        <v>0.230885</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.227557</v>
+        <v>0.22927</v>
       </c>
       <c r="C28" t="n">
-        <v>0.224082</v>
+        <v>0.22414</v>
       </c>
       <c r="D28" t="n">
-        <v>0.23021</v>
+        <v>0.230415</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.222709</v>
+        <v>0.22255</v>
       </c>
       <c r="C29" t="n">
-        <v>0.222886</v>
+        <v>0.222736</v>
       </c>
       <c r="D29" t="n">
-        <v>0.229109</v>
+        <v>0.229077</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.217701</v>
+        <v>0.217758</v>
       </c>
       <c r="C30" t="n">
-        <v>0.221364</v>
+        <v>0.221572</v>
       </c>
       <c r="D30" t="n">
-        <v>0.228556</v>
+        <v>0.228351</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.213108</v>
+        <v>0.212684</v>
       </c>
       <c r="C31" t="n">
-        <v>0.220428</v>
+        <v>0.220462</v>
       </c>
       <c r="D31" t="n">
-        <v>0.227417</v>
+        <v>0.227365</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.207432</v>
+        <v>0.208441</v>
       </c>
       <c r="C32" t="n">
-        <v>0.219446</v>
+        <v>0.219418</v>
       </c>
       <c r="D32" t="n">
-        <v>0.22696</v>
+        <v>0.226799</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.201094</v>
+        <v>0.201127</v>
       </c>
       <c r="C33" t="n">
-        <v>0.218792</v>
+        <v>0.218817</v>
       </c>
       <c r="D33" t="n">
-        <v>0.226366</v>
+        <v>0.226146</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.195273</v>
+        <v>0.194673</v>
       </c>
       <c r="C34" t="n">
-        <v>0.218137</v>
+        <v>0.218073</v>
       </c>
       <c r="D34" t="n">
-        <v>0.225714</v>
+        <v>0.225697</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.188526</v>
+        <v>0.187381</v>
       </c>
       <c r="C35" t="n">
-        <v>0.216989</v>
+        <v>0.216967</v>
       </c>
       <c r="D35" t="n">
-        <v>0.224862</v>
+        <v>0.224994</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180054</v>
+        <v>0.179017</v>
       </c>
       <c r="C36" t="n">
-        <v>0.216172</v>
+        <v>0.216451</v>
       </c>
       <c r="D36" t="n">
-        <v>0.224219</v>
+        <v>0.224182</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.170103</v>
+        <v>0.168559</v>
       </c>
       <c r="C37" t="n">
-        <v>0.215695</v>
+        <v>0.215758</v>
       </c>
       <c r="D37" t="n">
-        <v>0.237619</v>
+        <v>0.238418</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.248685</v>
+        <v>0.248314</v>
       </c>
       <c r="C38" t="n">
-        <v>0.229465</v>
+        <v>0.229882</v>
       </c>
       <c r="D38" t="n">
-        <v>0.236</v>
+        <v>0.2362</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.24527</v>
+        <v>0.245455</v>
       </c>
       <c r="C39" t="n">
-        <v>0.228121</v>
+        <v>0.228476</v>
       </c>
       <c r="D39" t="n">
-        <v>0.234849</v>
+        <v>0.234919</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.241407</v>
+        <v>0.241354</v>
       </c>
       <c r="C40" t="n">
-        <v>0.226607</v>
+        <v>0.226608</v>
       </c>
       <c r="D40" t="n">
-        <v>0.23367</v>
+        <v>0.233703</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.237019</v>
+        <v>0.23736</v>
       </c>
       <c r="C41" t="n">
-        <v>0.225687</v>
+        <v>0.225954</v>
       </c>
       <c r="D41" t="n">
-        <v>0.232589</v>
+        <v>0.232733</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.232614</v>
+        <v>0.232241</v>
       </c>
       <c r="C42" t="n">
-        <v>0.224187</v>
+        <v>0.22435</v>
       </c>
       <c r="D42" t="n">
-        <v>0.231435</v>
+        <v>0.231247</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.227564</v>
+        <v>0.227275</v>
       </c>
       <c r="C43" t="n">
-        <v>0.223171</v>
+        <v>0.223299</v>
       </c>
       <c r="D43" t="n">
-        <v>0.230263</v>
+        <v>0.230232</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.222302</v>
+        <v>0.221907</v>
       </c>
       <c r="C44" t="n">
-        <v>0.222165</v>
+        <v>0.222386</v>
       </c>
       <c r="D44" t="n">
-        <v>0.229275</v>
+        <v>0.229186</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.216614</v>
+        <v>0.216829</v>
       </c>
       <c r="C45" t="n">
-        <v>0.221164</v>
+        <v>0.221276</v>
       </c>
       <c r="D45" t="n">
-        <v>0.228564</v>
+        <v>0.228439</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.211457</v>
+        <v>0.211139</v>
       </c>
       <c r="C46" t="n">
-        <v>0.220283</v>
+        <v>0.220437</v>
       </c>
       <c r="D46" t="n">
-        <v>0.227475</v>
+        <v>0.227414</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.204525</v>
+        <v>0.204273</v>
       </c>
       <c r="C47" t="n">
-        <v>0.219526</v>
+        <v>0.219669</v>
       </c>
       <c r="D47" t="n">
-        <v>0.226642</v>
+        <v>0.22668</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.19836</v>
+        <v>0.197538</v>
       </c>
       <c r="C48" t="n">
-        <v>0.218793</v>
+        <v>0.218904</v>
       </c>
       <c r="D48" t="n">
-        <v>0.225615</v>
+        <v>0.22565</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.190657</v>
+        <v>0.190827</v>
       </c>
       <c r="C49" t="n">
-        <v>0.217914</v>
+        <v>0.217862</v>
       </c>
       <c r="D49" t="n">
-        <v>0.225064</v>
+        <v>0.225206</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.183895</v>
+        <v>0.183565</v>
       </c>
       <c r="C50" t="n">
-        <v>0.217293</v>
+        <v>0.217523</v>
       </c>
       <c r="D50" t="n">
-        <v>0.224559</v>
+        <v>0.224542</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173345</v>
+        <v>0.173054</v>
       </c>
       <c r="C51" t="n">
-        <v>0.216278</v>
+        <v>0.216452</v>
       </c>
       <c r="D51" t="n">
-        <v>0.238574</v>
+        <v>0.238426</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.162089</v>
+        <v>0.162134</v>
       </c>
       <c r="C52" t="n">
-        <v>0.215872</v>
+        <v>0.215712</v>
       </c>
       <c r="D52" t="n">
-        <v>0.237138</v>
+        <v>0.237287</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.247496</v>
+        <v>0.247867</v>
       </c>
       <c r="C53" t="n">
-        <v>0.228925</v>
+        <v>0.22899</v>
       </c>
       <c r="D53" t="n">
-        <v>0.235781</v>
+        <v>0.236022</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.243662</v>
+        <v>0.243577</v>
       </c>
       <c r="C54" t="n">
-        <v>0.227374</v>
+        <v>0.227468</v>
       </c>
       <c r="D54" t="n">
-        <v>0.234626</v>
+        <v>0.234879</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.239546</v>
+        <v>0.239689</v>
       </c>
       <c r="C55" t="n">
-        <v>0.226326</v>
+        <v>0.226503</v>
       </c>
       <c r="D55" t="n">
-        <v>0.233379</v>
+        <v>0.233551</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.235023</v>
+        <v>0.235106</v>
       </c>
       <c r="C56" t="n">
-        <v>0.225178</v>
+        <v>0.225164</v>
       </c>
       <c r="D56" t="n">
-        <v>0.232047</v>
+        <v>0.232242</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.230187</v>
+        <v>0.230242</v>
       </c>
       <c r="C57" t="n">
-        <v>0.224257</v>
+        <v>0.22419</v>
       </c>
       <c r="D57" t="n">
-        <v>0.231208</v>
+        <v>0.23128</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.22458</v>
+        <v>0.224615</v>
       </c>
       <c r="C58" t="n">
-        <v>0.223101</v>
+        <v>0.22321</v>
       </c>
       <c r="D58" t="n">
-        <v>0.229994</v>
+        <v>0.230037</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.219207</v>
+        <v>0.219077</v>
       </c>
       <c r="C59" t="n">
-        <v>0.221937</v>
+        <v>0.221986</v>
       </c>
       <c r="D59" t="n">
-        <v>0.229061</v>
+        <v>0.229173</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.213104</v>
+        <v>0.213144</v>
       </c>
       <c r="C60" t="n">
-        <v>0.220987</v>
+        <v>0.220963</v>
       </c>
       <c r="D60" t="n">
-        <v>0.228072</v>
+        <v>0.228145</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.206702</v>
+        <v>0.206622</v>
       </c>
       <c r="C61" t="n">
-        <v>0.22006</v>
+        <v>0.220085</v>
       </c>
       <c r="D61" t="n">
-        <v>0.227284</v>
+        <v>0.227452</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.20023</v>
+        <v>0.200542</v>
       </c>
       <c r="C62" t="n">
-        <v>0.219152</v>
+        <v>0.219272</v>
       </c>
       <c r="D62" t="n">
-        <v>0.226293</v>
+        <v>0.226467</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.19326</v>
+        <v>0.193384</v>
       </c>
       <c r="C63" t="n">
-        <v>0.218335</v>
+        <v>0.218328</v>
       </c>
       <c r="D63" t="n">
-        <v>0.225675</v>
+        <v>0.225757</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.185338</v>
+        <v>0.185113</v>
       </c>
       <c r="C64" t="n">
-        <v>0.217586</v>
+        <v>0.217509</v>
       </c>
       <c r="D64" t="n">
-        <v>0.224812</v>
+        <v>0.224842</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.176986</v>
+        <v>0.176586</v>
       </c>
       <c r="C65" t="n">
-        <v>0.216716</v>
+        <v>0.216644</v>
       </c>
       <c r="D65" t="n">
-        <v>0.224127</v>
+        <v>0.224037</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.166206</v>
+        <v>0.166182</v>
       </c>
       <c r="C66" t="n">
-        <v>0.215915</v>
+        <v>0.215879</v>
       </c>
       <c r="D66" t="n">
-        <v>0.238117</v>
+        <v>0.23931</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.250827</v>
+        <v>0.250447</v>
       </c>
       <c r="C67" t="n">
-        <v>0.232063</v>
+        <v>0.256283</v>
       </c>
       <c r="D67" t="n">
-        <v>0.236594</v>
+        <v>0.237253</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.246778</v>
+        <v>0.246434</v>
       </c>
       <c r="C68" t="n">
-        <v>0.230498</v>
+        <v>0.248528</v>
       </c>
       <c r="D68" t="n">
-        <v>0.235241</v>
+        <v>0.235728</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.242524</v>
+        <v>0.242129</v>
       </c>
       <c r="C69" t="n">
-        <v>0.228516</v>
+        <v>0.240616</v>
       </c>
       <c r="D69" t="n">
-        <v>0.23396</v>
+        <v>0.234595</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.237955</v>
+        <v>0.237575</v>
       </c>
       <c r="C70" t="n">
-        <v>0.227017</v>
+        <v>0.234245</v>
       </c>
       <c r="D70" t="n">
-        <v>0.232871</v>
+        <v>0.233276</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.232787</v>
+        <v>0.232558</v>
       </c>
       <c r="C71" t="n">
-        <v>0.225419</v>
+        <v>0.230016</v>
       </c>
       <c r="D71" t="n">
-        <v>0.231662</v>
+        <v>0.231913</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.227484</v>
+        <v>0.227321</v>
       </c>
       <c r="C72" t="n">
-        <v>0.224133</v>
+        <v>0.225927</v>
       </c>
       <c r="D72" t="n">
-        <v>0.23053</v>
+        <v>0.230859</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.222006</v>
+        <v>0.221866</v>
       </c>
       <c r="C73" t="n">
-        <v>0.222827</v>
+        <v>0.224109</v>
       </c>
       <c r="D73" t="n">
-        <v>0.229514</v>
+        <v>0.229762</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.215441</v>
+        <v>0.215495</v>
       </c>
       <c r="C74" t="n">
-        <v>0.221869</v>
+        <v>0.223013</v>
       </c>
       <c r="D74" t="n">
-        <v>0.228603</v>
+        <v>0.228648</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.209517</v>
+        <v>0.209309</v>
       </c>
       <c r="C75" t="n">
-        <v>0.220956</v>
+        <v>0.221773</v>
       </c>
       <c r="D75" t="n">
-        <v>0.227861</v>
+        <v>0.227815</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.202787</v>
+        <v>0.202599</v>
       </c>
       <c r="C76" t="n">
-        <v>0.220061</v>
+        <v>0.220764</v>
       </c>
       <c r="D76" t="n">
-        <v>0.227064</v>
+        <v>0.226911</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.195968</v>
+        <v>0.195997</v>
       </c>
       <c r="C77" t="n">
-        <v>0.219072</v>
+        <v>0.219341</v>
       </c>
       <c r="D77" t="n">
-        <v>0.226053</v>
+        <v>0.22604</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.188767</v>
+        <v>0.18937</v>
       </c>
       <c r="C78" t="n">
-        <v>0.218197</v>
+        <v>0.218291</v>
       </c>
       <c r="D78" t="n">
-        <v>0.22536</v>
+        <v>0.225318</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.180248</v>
+        <v>0.178686</v>
       </c>
       <c r="C79" t="n">
-        <v>0.217255</v>
+        <v>0.217363</v>
       </c>
       <c r="D79" t="n">
-        <v>0.224617</v>
+        <v>0.224661</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.17043</v>
+        <v>0.169517</v>
       </c>
       <c r="C80" t="n">
-        <v>0.216357</v>
+        <v>0.216426</v>
       </c>
       <c r="D80" t="n">
-        <v>0.240402</v>
+        <v>0.241213</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.251444</v>
+        <v>0.251077</v>
       </c>
       <c r="C81" t="n">
-        <v>0.238418</v>
+        <v>0.239684</v>
       </c>
       <c r="D81" t="n">
-        <v>0.238867</v>
+        <v>0.239187</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.247145</v>
+        <v>0.247417</v>
       </c>
       <c r="C82" t="n">
-        <v>0.233959</v>
+        <v>0.234637</v>
       </c>
       <c r="D82" t="n">
-        <v>0.236385</v>
+        <v>0.237022</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.243327</v>
+        <v>0.243232</v>
       </c>
       <c r="C83" t="n">
-        <v>0.229732</v>
+        <v>0.229854</v>
       </c>
       <c r="D83" t="n">
-        <v>0.235039</v>
+        <v>0.235634</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.23902</v>
+        <v>0.238802</v>
       </c>
       <c r="C84" t="n">
-        <v>0.227505</v>
+        <v>0.227661</v>
       </c>
       <c r="D84" t="n">
-        <v>0.233775</v>
+        <v>0.233712</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.234009</v>
+        <v>0.233904</v>
       </c>
       <c r="C85" t="n">
-        <v>0.225839</v>
+        <v>0.226316</v>
       </c>
       <c r="D85" t="n">
-        <v>0.232551</v>
+        <v>0.232482</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.228749</v>
+        <v>0.228823</v>
       </c>
       <c r="C86" t="n">
-        <v>0.224517</v>
+        <v>0.224759</v>
       </c>
       <c r="D86" t="n">
-        <v>0.231194</v>
+        <v>0.231414</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.223045</v>
+        <v>0.223167</v>
       </c>
       <c r="C87" t="n">
-        <v>0.223429</v>
+        <v>0.223599</v>
       </c>
       <c r="D87" t="n">
-        <v>0.230045</v>
+        <v>0.230137</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.217261</v>
+        <v>0.217205</v>
       </c>
       <c r="C88" t="n">
-        <v>0.222377</v>
+        <v>0.222544</v>
       </c>
       <c r="D88" t="n">
-        <v>0.22902</v>
+        <v>0.229046</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.211153</v>
+        <v>0.211312</v>
       </c>
       <c r="C89" t="n">
-        <v>0.221294</v>
+        <v>0.22143</v>
       </c>
       <c r="D89" t="n">
-        <v>0.228151</v>
+        <v>0.22818</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.204734</v>
+        <v>0.204978</v>
       </c>
       <c r="C90" t="n">
-        <v>0.220258</v>
+        <v>0.220369</v>
       </c>
       <c r="D90" t="n">
-        <v>0.227306</v>
+        <v>0.227319</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.197851</v>
+        <v>0.197963</v>
       </c>
       <c r="C91" t="n">
-        <v>0.219403</v>
+        <v>0.219471</v>
       </c>
       <c r="D91" t="n">
-        <v>0.22638</v>
+        <v>0.226418</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190632</v>
+        <v>0.190599</v>
       </c>
       <c r="C92" t="n">
-        <v>0.218521</v>
+        <v>0.218576</v>
       </c>
       <c r="D92" t="n">
-        <v>0.225641</v>
+        <v>0.225723</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.181971</v>
+        <v>0.181807</v>
       </c>
       <c r="C93" t="n">
-        <v>0.217723</v>
+        <v>0.217796</v>
       </c>
       <c r="D93" t="n">
-        <v>0.224859</v>
+        <v>0.224878</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.17198</v>
+        <v>0.172087</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2169</v>
+        <v>0.216944</v>
       </c>
       <c r="D94" t="n">
-        <v>0.241266</v>
+        <v>0.241584</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.251351</v>
+        <v>0.251459</v>
       </c>
       <c r="C95" t="n">
-        <v>0.235928</v>
+        <v>0.236642</v>
       </c>
       <c r="D95" t="n">
-        <v>0.238507</v>
+        <v>0.239469</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.247967</v>
+        <v>0.247964</v>
       </c>
       <c r="C96" t="n">
-        <v>0.232396</v>
+        <v>0.233141</v>
       </c>
       <c r="D96" t="n">
-        <v>0.236884</v>
+        <v>0.237765</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.243942</v>
+        <v>0.244201</v>
       </c>
       <c r="C97" t="n">
-        <v>0.229638</v>
+        <v>0.230093</v>
       </c>
       <c r="D97" t="n">
-        <v>0.235962</v>
+        <v>0.2362</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.239647</v>
+        <v>0.23984</v>
       </c>
       <c r="C98" t="n">
-        <v>0.227565</v>
+        <v>0.227968</v>
       </c>
       <c r="D98" t="n">
-        <v>0.234509</v>
+        <v>0.234768</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.234951</v>
+        <v>0.234952</v>
       </c>
       <c r="C99" t="n">
-        <v>0.226093</v>
+        <v>0.226513</v>
       </c>
       <c r="D99" t="n">
-        <v>0.233302</v>
+        <v>0.233621</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.229763</v>
+        <v>0.229758</v>
       </c>
       <c r="C100" t="n">
-        <v>0.224809</v>
+        <v>0.225395</v>
       </c>
       <c r="D100" t="n">
-        <v>0.232034</v>
+        <v>0.231998</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.224327</v>
+        <v>0.224306</v>
       </c>
       <c r="C101" t="n">
-        <v>0.223689</v>
+        <v>0.224021</v>
       </c>
       <c r="D101" t="n">
-        <v>0.230666</v>
+        <v>0.230778</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.21857</v>
+        <v>0.218577</v>
       </c>
       <c r="C102" t="n">
-        <v>0.222474</v>
+        <v>0.222852</v>
       </c>
       <c r="D102" t="n">
-        <v>0.229598</v>
+        <v>0.229744</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.212403</v>
+        <v>0.212439</v>
       </c>
       <c r="C103" t="n">
-        <v>0.221409</v>
+        <v>0.221646</v>
       </c>
       <c r="D103" t="n">
-        <v>0.22856</v>
+        <v>0.228765</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.206166</v>
+        <v>0.206212</v>
       </c>
       <c r="C104" t="n">
-        <v>0.220493</v>
+        <v>0.220761</v>
       </c>
       <c r="D104" t="n">
-        <v>0.228131</v>
+        <v>0.227996</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.199119</v>
+        <v>0.199256</v>
       </c>
       <c r="C105" t="n">
-        <v>0.219621</v>
+        <v>0.219822</v>
       </c>
       <c r="D105" t="n">
-        <v>0.22737</v>
+        <v>0.227212</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.191978</v>
+        <v>0.192085</v>
       </c>
       <c r="C106" t="n">
-        <v>0.218799</v>
+        <v>0.218948</v>
       </c>
       <c r="D106" t="n">
-        <v>0.226518</v>
+        <v>0.226292</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183699</v>
+        <v>0.183784</v>
       </c>
       <c r="C107" t="n">
-        <v>0.217896</v>
+        <v>0.218022</v>
       </c>
       <c r="D107" t="n">
-        <v>0.225736</v>
+        <v>0.225283</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.17405</v>
+        <v>0.174146</v>
       </c>
       <c r="C108" t="n">
-        <v>0.217104</v>
+        <v>0.217244</v>
       </c>
       <c r="D108" t="n">
-        <v>0.241045</v>
+        <v>0.241167</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.162681</v>
+        <v>0.162897</v>
       </c>
       <c r="C109" t="n">
-        <v>0.216355</v>
+        <v>0.216339</v>
       </c>
       <c r="D109" t="n">
-        <v>0.238761</v>
+        <v>0.23897</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.249371</v>
+        <v>0.249684</v>
       </c>
       <c r="C110" t="n">
-        <v>0.233031</v>
+        <v>0.233176</v>
       </c>
       <c r="D110" t="n">
-        <v>0.236867</v>
+        <v>0.23706</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.245643</v>
+        <v>0.245844</v>
       </c>
       <c r="C111" t="n">
-        <v>0.230074</v>
+        <v>0.230294</v>
       </c>
       <c r="D111" t="n">
-        <v>0.235337</v>
+        <v>0.235503</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.24116</v>
+        <v>0.241353</v>
       </c>
       <c r="C112" t="n">
-        <v>0.227968</v>
+        <v>0.228002</v>
       </c>
       <c r="D112" t="n">
-        <v>0.233963</v>
+        <v>0.234146</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.236437</v>
+        <v>0.236487</v>
       </c>
       <c r="C113" t="n">
-        <v>0.22637</v>
+        <v>0.226497</v>
       </c>
       <c r="D113" t="n">
-        <v>0.23275</v>
+        <v>0.232776</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.231219</v>
+        <v>0.231354</v>
       </c>
       <c r="C114" t="n">
-        <v>0.224964</v>
+        <v>0.225118</v>
       </c>
       <c r="D114" t="n">
-        <v>0.231526</v>
+        <v>0.23156</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.225713</v>
+        <v>0.225691</v>
       </c>
       <c r="C115" t="n">
-        <v>0.223732</v>
+        <v>0.223815</v>
       </c>
       <c r="D115" t="n">
-        <v>0.23044</v>
+        <v>0.230469</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.219693</v>
+        <v>0.220098</v>
       </c>
       <c r="C116" t="n">
-        <v>0.223124</v>
+        <v>0.222763</v>
       </c>
       <c r="D116" t="n">
-        <v>0.229873</v>
+        <v>0.229456</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.21386</v>
+        <v>0.213966</v>
       </c>
       <c r="C117" t="n">
-        <v>0.22203</v>
+        <v>0.222131</v>
       </c>
       <c r="D117" t="n">
-        <v>0.22888</v>
+        <v>0.228906</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.207564</v>
+        <v>0.207663</v>
       </c>
       <c r="C118" t="n">
-        <v>0.22103</v>
+        <v>0.22112</v>
       </c>
       <c r="D118" t="n">
-        <v>0.227958</v>
+        <v>0.227996</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.200745</v>
+        <v>0.20108</v>
       </c>
       <c r="C119" t="n">
-        <v>0.220208</v>
+        <v>0.220245</v>
       </c>
       <c r="D119" t="n">
-        <v>0.227188</v>
+        <v>0.227185</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.193558</v>
+        <v>0.193682</v>
       </c>
       <c r="C120" t="n">
-        <v>0.219272</v>
+        <v>0.219309</v>
       </c>
       <c r="D120" t="n">
-        <v>0.226371</v>
+        <v>0.226332</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.185274</v>
+        <v>0.185645</v>
       </c>
       <c r="C121" t="n">
-        <v>0.218495</v>
+        <v>0.218492</v>
       </c>
       <c r="D121" t="n">
-        <v>0.225665</v>
+        <v>0.22567</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.176222</v>
+        <v>0.176147</v>
       </c>
       <c r="C122" t="n">
-        <v>0.217684</v>
+        <v>0.217516</v>
       </c>
       <c r="D122" t="n">
-        <v>0.225005</v>
+        <v>0.225001</v>
       </c>
     </row>
     <row r="123">
@@ -4943,10 +4943,10 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.164605</v>
+        <v>0.164901</v>
       </c>
       <c r="C123" t="n">
-        <v>0.216799</v>
+        <v>0.216801</v>
       </c>
       <c r="D123" t="n">
         <v>0.239078</v>
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.251336</v>
+        <v>0.250234</v>
       </c>
       <c r="C124" t="n">
-        <v>0.233636</v>
+        <v>0.233671</v>
       </c>
       <c r="D124" t="n">
-        <v>0.237167</v>
+        <v>0.237186</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.247733</v>
+        <v>0.247849</v>
       </c>
       <c r="C125" t="n">
-        <v>0.230481</v>
+        <v>0.230546</v>
       </c>
       <c r="D125" t="n">
-        <v>0.235627</v>
+        <v>0.235497</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.243451</v>
+        <v>0.243372</v>
       </c>
       <c r="C126" t="n">
-        <v>0.228423</v>
+        <v>0.228426</v>
       </c>
       <c r="D126" t="n">
-        <v>0.234178</v>
+        <v>0.234005</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.237554</v>
+        <v>0.238672</v>
       </c>
       <c r="C127" t="n">
-        <v>0.22673</v>
+        <v>0.226651</v>
       </c>
       <c r="D127" t="n">
-        <v>0.232888</v>
+        <v>0.232769</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.232135</v>
+        <v>0.233559</v>
       </c>
       <c r="C128" t="n">
-        <v>0.225298</v>
+        <v>0.22521</v>
       </c>
       <c r="D128" t="n">
-        <v>0.231825</v>
+        <v>0.231606</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.226735</v>
+        <v>0.228154</v>
       </c>
       <c r="C129" t="n">
-        <v>0.224079</v>
+        <v>0.224059</v>
       </c>
       <c r="D129" t="n">
-        <v>0.230637</v>
+        <v>0.230494</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.221046</v>
+        <v>0.221473</v>
       </c>
       <c r="C130" t="n">
-        <v>0.222986</v>
+        <v>0.222922</v>
       </c>
       <c r="D130" t="n">
-        <v>0.229662</v>
+        <v>0.229524</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.215071</v>
+        <v>0.215053</v>
       </c>
       <c r="C131" t="n">
-        <v>0.221909</v>
+        <v>0.22194</v>
       </c>
       <c r="D131" t="n">
-        <v>0.228643</v>
+        <v>0.228555</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.208899</v>
+        <v>0.208811</v>
       </c>
       <c r="C132" t="n">
-        <v>0.220999</v>
+        <v>0.220939</v>
       </c>
       <c r="D132" t="n">
-        <v>0.227781</v>
+        <v>0.22763</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.20405</v>
+        <v>0.202182</v>
       </c>
       <c r="C133" t="n">
-        <v>0.220048</v>
+        <v>0.220073</v>
       </c>
       <c r="D133" t="n">
-        <v>0.226981</v>
+        <v>0.226797</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.196767</v>
+        <v>0.195052</v>
       </c>
       <c r="C134" t="n">
-        <v>0.219196</v>
+        <v>0.219102</v>
       </c>
       <c r="D134" t="n">
-        <v>0.226182</v>
+        <v>0.226053</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.189101</v>
+        <v>0.187471</v>
       </c>
       <c r="C135" t="n">
-        <v>0.218331</v>
+        <v>0.21825</v>
       </c>
       <c r="D135" t="n">
-        <v>0.22539</v>
+        <v>0.225318</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.179928</v>
+        <v>0.178739</v>
       </c>
       <c r="C136" t="n">
-        <v>0.217955</v>
+        <v>0.217417</v>
       </c>
       <c r="D136" t="n">
-        <v>0.225141</v>
+        <v>0.224688</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.167899</v>
+        <v>0.168074</v>
       </c>
       <c r="C137" t="n">
-        <v>0.217063</v>
+        <v>0.217026</v>
       </c>
       <c r="D137" t="n">
-        <v>0.240327</v>
+        <v>0.240407</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.250699</v>
+        <v>0.250744</v>
       </c>
       <c r="C138" t="n">
-        <v>0.234961</v>
+        <v>0.235036</v>
       </c>
       <c r="D138" t="n">
-        <v>0.238245</v>
+        <v>0.238237</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.247217</v>
+        <v>0.247364</v>
       </c>
       <c r="C139" t="n">
-        <v>0.231758</v>
+        <v>0.231875</v>
       </c>
       <c r="D139" t="n">
-        <v>0.236422</v>
+        <v>0.236496</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.243118</v>
+        <v>0.243184</v>
       </c>
       <c r="C140" t="n">
-        <v>0.229314</v>
+        <v>0.229262</v>
       </c>
       <c r="D140" t="n">
-        <v>0.234943</v>
+        <v>0.234914</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.238465</v>
+        <v>0.238523</v>
       </c>
       <c r="C141" t="n">
-        <v>0.227441</v>
+        <v>0.227559</v>
       </c>
       <c r="D141" t="n">
-        <v>0.233495</v>
+        <v>0.233554</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.233451</v>
+        <v>0.233387</v>
       </c>
       <c r="C142" t="n">
-        <v>0.225918</v>
+        <v>0.226046</v>
       </c>
       <c r="D142" t="n">
-        <v>0.23231</v>
+        <v>0.232396</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.227954</v>
+        <v>0.227899</v>
       </c>
       <c r="C143" t="n">
-        <v>0.224557</v>
+        <v>0.224688</v>
       </c>
       <c r="D143" t="n">
-        <v>0.231134</v>
+        <v>0.231241</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.184854</v>
+        <v>0.186487</v>
       </c>
       <c r="C2" t="n">
-        <v>0.207048</v>
+        <v>0.205328</v>
       </c>
       <c r="D2" t="n">
-        <v>0.212139</v>
+        <v>0.21471</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.182413</v>
+        <v>0.182724</v>
       </c>
       <c r="C3" t="n">
-        <v>0.207557</v>
+        <v>0.205813</v>
       </c>
       <c r="D3" t="n">
-        <v>0.212419</v>
+        <v>0.214449</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.178389</v>
+        <v>0.177719</v>
       </c>
       <c r="C4" t="n">
-        <v>0.207212</v>
+        <v>0.205978</v>
       </c>
       <c r="D4" t="n">
-        <v>0.214559</v>
+        <v>0.214399</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.175475</v>
+        <v>0.174707</v>
       </c>
       <c r="C5" t="n">
-        <v>0.207772</v>
+        <v>0.206636</v>
       </c>
       <c r="D5" t="n">
-        <v>0.21431</v>
+        <v>0.215131</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.16917</v>
+        <v>0.168803</v>
       </c>
       <c r="C6" t="n">
-        <v>0.206229</v>
+        <v>0.206046</v>
       </c>
       <c r="D6" t="n">
-        <v>0.212969</v>
+        <v>0.215188</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.163493</v>
+        <v>0.163368</v>
       </c>
       <c r="C7" t="n">
-        <v>0.206337</v>
+        <v>0.205761</v>
       </c>
       <c r="D7" t="n">
-        <v>0.213463</v>
+        <v>0.214521</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.155814</v>
+        <v>0.156897</v>
       </c>
       <c r="C8" t="n">
-        <v>0.205743</v>
+        <v>0.205644</v>
       </c>
       <c r="D8" t="n">
-        <v>0.214799</v>
+        <v>0.215178</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.145956</v>
+        <v>0.145979</v>
       </c>
       <c r="C9" t="n">
-        <v>0.205685</v>
+        <v>0.205381</v>
       </c>
       <c r="D9" t="n">
-        <v>0.229334</v>
+        <v>0.23236</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.231016</v>
+        <v>0.230003</v>
       </c>
       <c r="C10" t="n">
-        <v>0.224566</v>
+        <v>0.225187</v>
       </c>
       <c r="D10" t="n">
-        <v>0.228557</v>
+        <v>0.231014</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.228183</v>
+        <v>0.227173</v>
       </c>
       <c r="C11" t="n">
-        <v>0.223531</v>
+        <v>0.223202</v>
       </c>
       <c r="D11" t="n">
-        <v>0.228494</v>
+        <v>0.230427</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.225138</v>
+        <v>0.224289</v>
       </c>
       <c r="C12" t="n">
-        <v>0.223577</v>
+        <v>0.222116</v>
       </c>
       <c r="D12" t="n">
-        <v>0.22813</v>
+        <v>0.229844</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.222364</v>
+        <v>0.222548</v>
       </c>
       <c r="C13" t="n">
-        <v>0.222192</v>
+        <v>0.221145</v>
       </c>
       <c r="D13" t="n">
-        <v>0.226208</v>
+        <v>0.22868</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.218231</v>
+        <v>0.218185</v>
       </c>
       <c r="C14" t="n">
-        <v>0.221259</v>
+        <v>0.22055</v>
       </c>
       <c r="D14" t="n">
-        <v>0.226228</v>
+        <v>0.228139</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.214682</v>
+        <v>0.215015</v>
       </c>
       <c r="C15" t="n">
-        <v>0.21997</v>
+        <v>0.219891</v>
       </c>
       <c r="D15" t="n">
-        <v>0.226066</v>
+        <v>0.227055</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.209559</v>
+        <v>0.2095</v>
       </c>
       <c r="C16" t="n">
-        <v>0.220144</v>
+        <v>0.219542</v>
       </c>
       <c r="D16" t="n">
-        <v>0.22489</v>
+        <v>0.226547</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.205185</v>
+        <v>0.204253</v>
       </c>
       <c r="C17" t="n">
-        <v>0.218704</v>
+        <v>0.21849</v>
       </c>
       <c r="D17" t="n">
-        <v>0.224907</v>
+        <v>0.226143</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.200248</v>
+        <v>0.199304</v>
       </c>
       <c r="C18" t="n">
-        <v>0.217673</v>
+        <v>0.217455</v>
       </c>
       <c r="D18" t="n">
-        <v>0.223934</v>
+        <v>0.22491</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.195442</v>
+        <v>0.195352</v>
       </c>
       <c r="C19" t="n">
-        <v>0.216779</v>
+        <v>0.216853</v>
       </c>
       <c r="D19" t="n">
-        <v>0.223394</v>
+        <v>0.224223</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.188417</v>
+        <v>0.187784</v>
       </c>
       <c r="C20" t="n">
-        <v>0.216116</v>
+        <v>0.216757</v>
       </c>
       <c r="D20" t="n">
-        <v>0.223015</v>
+        <v>0.223914</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.180655</v>
+        <v>0.180889</v>
       </c>
       <c r="C21" t="n">
-        <v>0.215415</v>
+        <v>0.215202</v>
       </c>
       <c r="D21" t="n">
-        <v>0.222907</v>
+        <v>0.223804</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.172652</v>
+        <v>0.172333</v>
       </c>
       <c r="C22" t="n">
-        <v>0.214777</v>
+        <v>0.215022</v>
       </c>
       <c r="D22" t="n">
-        <v>0.222195</v>
+        <v>0.223194</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.163673</v>
+        <v>0.164036</v>
       </c>
       <c r="C23" t="n">
-        <v>0.213946</v>
+        <v>0.214023</v>
       </c>
       <c r="D23" t="n">
-        <v>0.235963</v>
+        <v>0.236687</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.242363</v>
+        <v>0.242006</v>
       </c>
       <c r="C24" t="n">
-        <v>0.231084</v>
+        <v>0.227985</v>
       </c>
       <c r="D24" t="n">
-        <v>0.234377</v>
+        <v>0.23516</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.238878</v>
+        <v>0.238605</v>
       </c>
       <c r="C25" t="n">
-        <v>0.227313</v>
+        <v>0.226766</v>
       </c>
       <c r="D25" t="n">
-        <v>0.232692</v>
+        <v>0.233778</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.235914</v>
+        <v>0.235157</v>
       </c>
       <c r="C26" t="n">
-        <v>0.226265</v>
+        <v>0.225925</v>
       </c>
       <c r="D26" t="n">
-        <v>0.23228</v>
+        <v>0.232814</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.232037</v>
+        <v>0.231653</v>
       </c>
       <c r="C27" t="n">
-        <v>0.225361</v>
+        <v>0.224985</v>
       </c>
       <c r="D27" t="n">
-        <v>0.230885</v>
+        <v>0.231722</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.22927</v>
+        <v>0.227281</v>
       </c>
       <c r="C28" t="n">
-        <v>0.22414</v>
+        <v>0.223888</v>
       </c>
       <c r="D28" t="n">
-        <v>0.230415</v>
+        <v>0.230857</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.22255</v>
+        <v>0.222217</v>
       </c>
       <c r="C29" t="n">
-        <v>0.222736</v>
+        <v>0.222432</v>
       </c>
       <c r="D29" t="n">
-        <v>0.229077</v>
+        <v>0.229753</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.217758</v>
+        <v>0.21883</v>
       </c>
       <c r="C30" t="n">
-        <v>0.221572</v>
+        <v>0.22164</v>
       </c>
       <c r="D30" t="n">
-        <v>0.228351</v>
+        <v>0.228959</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.212684</v>
+        <v>0.211713</v>
       </c>
       <c r="C31" t="n">
-        <v>0.220462</v>
+        <v>0.220216</v>
       </c>
       <c r="D31" t="n">
-        <v>0.227365</v>
+        <v>0.228044</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.208441</v>
+        <v>0.207052</v>
       </c>
       <c r="C32" t="n">
-        <v>0.219418</v>
+        <v>0.219473</v>
       </c>
       <c r="D32" t="n">
-        <v>0.226799</v>
+        <v>0.227386</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.201127</v>
+        <v>0.200964</v>
       </c>
       <c r="C33" t="n">
-        <v>0.218817</v>
+        <v>0.218721</v>
       </c>
       <c r="D33" t="n">
-        <v>0.226146</v>
+        <v>0.226516</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.194673</v>
+        <v>0.196116</v>
       </c>
       <c r="C34" t="n">
-        <v>0.218073</v>
+        <v>0.218109</v>
       </c>
       <c r="D34" t="n">
-        <v>0.225697</v>
+        <v>0.22571</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.187381</v>
+        <v>0.187805</v>
       </c>
       <c r="C35" t="n">
-        <v>0.216967</v>
+        <v>0.217051</v>
       </c>
       <c r="D35" t="n">
-        <v>0.224994</v>
+        <v>0.224881</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.179017</v>
+        <v>0.180529</v>
       </c>
       <c r="C36" t="n">
-        <v>0.216451</v>
+        <v>0.216359</v>
       </c>
       <c r="D36" t="n">
-        <v>0.224182</v>
+        <v>0.224319</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.168559</v>
+        <v>0.169057</v>
       </c>
       <c r="C37" t="n">
-        <v>0.215758</v>
+        <v>0.215918</v>
       </c>
       <c r="D37" t="n">
-        <v>0.238418</v>
+        <v>0.237844</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.248314</v>
+        <v>0.248529</v>
       </c>
       <c r="C38" t="n">
-        <v>0.229882</v>
+        <v>0.229378</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2362</v>
+        <v>0.236524</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.245455</v>
+        <v>0.244975</v>
       </c>
       <c r="C39" t="n">
-        <v>0.228476</v>
+        <v>0.228144</v>
       </c>
       <c r="D39" t="n">
-        <v>0.234919</v>
+        <v>0.235022</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.241354</v>
+        <v>0.241394</v>
       </c>
       <c r="C40" t="n">
-        <v>0.226608</v>
+        <v>0.226602</v>
       </c>
       <c r="D40" t="n">
-        <v>0.233703</v>
+        <v>0.233636</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.23736</v>
+        <v>0.237006</v>
       </c>
       <c r="C41" t="n">
-        <v>0.225954</v>
+        <v>0.225628</v>
       </c>
       <c r="D41" t="n">
-        <v>0.232733</v>
+        <v>0.232657</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.232241</v>
+        <v>0.232043</v>
       </c>
       <c r="C42" t="n">
-        <v>0.22435</v>
+        <v>0.224443</v>
       </c>
       <c r="D42" t="n">
-        <v>0.231247</v>
+        <v>0.231647</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.227275</v>
+        <v>0.227379</v>
       </c>
       <c r="C43" t="n">
-        <v>0.223299</v>
+        <v>0.223247</v>
       </c>
       <c r="D43" t="n">
-        <v>0.230232</v>
+        <v>0.230359</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.221907</v>
+        <v>0.222196</v>
       </c>
       <c r="C44" t="n">
-        <v>0.222386</v>
+        <v>0.222238</v>
       </c>
       <c r="D44" t="n">
-        <v>0.229186</v>
+        <v>0.229365</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.216829</v>
+        <v>0.217035</v>
       </c>
       <c r="C45" t="n">
-        <v>0.221276</v>
+        <v>0.221188</v>
       </c>
       <c r="D45" t="n">
-        <v>0.228439</v>
+        <v>0.228573</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.211139</v>
+        <v>0.211512</v>
       </c>
       <c r="C46" t="n">
-        <v>0.220437</v>
+        <v>0.220249</v>
       </c>
       <c r="D46" t="n">
-        <v>0.227414</v>
+        <v>0.22756</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.204273</v>
+        <v>0.204583</v>
       </c>
       <c r="C47" t="n">
-        <v>0.219669</v>
+        <v>0.219634</v>
       </c>
       <c r="D47" t="n">
-        <v>0.22668</v>
+        <v>0.226901</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.197538</v>
+        <v>0.198283</v>
       </c>
       <c r="C48" t="n">
-        <v>0.218904</v>
+        <v>0.218841</v>
       </c>
       <c r="D48" t="n">
-        <v>0.22565</v>
+        <v>0.225894</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.190827</v>
+        <v>0.191538</v>
       </c>
       <c r="C49" t="n">
-        <v>0.217862</v>
+        <v>0.217974</v>
       </c>
       <c r="D49" t="n">
-        <v>0.225206</v>
+        <v>0.225271</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.183565</v>
+        <v>0.183143</v>
       </c>
       <c r="C50" t="n">
-        <v>0.217523</v>
+        <v>0.217286</v>
       </c>
       <c r="D50" t="n">
-        <v>0.224542</v>
+        <v>0.224392</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173054</v>
+        <v>0.173849</v>
       </c>
       <c r="C51" t="n">
-        <v>0.216452</v>
+        <v>0.216389</v>
       </c>
       <c r="D51" t="n">
-        <v>0.238426</v>
+        <v>0.238604</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.162134</v>
+        <v>0.162019</v>
       </c>
       <c r="C52" t="n">
-        <v>0.215712</v>
+        <v>0.215741</v>
       </c>
       <c r="D52" t="n">
-        <v>0.237287</v>
+        <v>0.2374</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.247867</v>
+        <v>0.247633</v>
       </c>
       <c r="C53" t="n">
-        <v>0.22899</v>
+        <v>0.229086</v>
       </c>
       <c r="D53" t="n">
-        <v>0.236022</v>
+        <v>0.235673</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.243577</v>
+        <v>0.243981</v>
       </c>
       <c r="C54" t="n">
-        <v>0.227468</v>
+        <v>0.227692</v>
       </c>
       <c r="D54" t="n">
-        <v>0.234879</v>
+        <v>0.23452</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.239689</v>
+        <v>0.239688</v>
       </c>
       <c r="C55" t="n">
-        <v>0.226503</v>
+        <v>0.226495</v>
       </c>
       <c r="D55" t="n">
-        <v>0.233551</v>
+        <v>0.233313</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.235106</v>
+        <v>0.235054</v>
       </c>
       <c r="C56" t="n">
-        <v>0.225164</v>
+        <v>0.225383</v>
       </c>
       <c r="D56" t="n">
-        <v>0.232242</v>
+        <v>0.232168</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.230242</v>
+        <v>0.230511</v>
       </c>
       <c r="C57" t="n">
-        <v>0.22419</v>
+        <v>0.224347</v>
       </c>
       <c r="D57" t="n">
-        <v>0.23128</v>
+        <v>0.231231</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.224615</v>
+        <v>0.224946</v>
       </c>
       <c r="C58" t="n">
-        <v>0.22321</v>
+        <v>0.223212</v>
       </c>
       <c r="D58" t="n">
-        <v>0.230037</v>
+        <v>0.230249</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.219077</v>
+        <v>0.219279</v>
       </c>
       <c r="C59" t="n">
-        <v>0.221986</v>
+        <v>0.222049</v>
       </c>
       <c r="D59" t="n">
-        <v>0.229173</v>
+        <v>0.229265</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.213144</v>
+        <v>0.213408</v>
       </c>
       <c r="C60" t="n">
-        <v>0.220963</v>
+        <v>0.221177</v>
       </c>
       <c r="D60" t="n">
-        <v>0.228145</v>
+        <v>0.228147</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.206622</v>
+        <v>0.207104</v>
       </c>
       <c r="C61" t="n">
-        <v>0.220085</v>
+        <v>0.220227</v>
       </c>
       <c r="D61" t="n">
-        <v>0.227452</v>
+        <v>0.227312</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.200542</v>
+        <v>0.200527</v>
       </c>
       <c r="C62" t="n">
-        <v>0.219272</v>
+        <v>0.219246</v>
       </c>
       <c r="D62" t="n">
-        <v>0.226467</v>
+        <v>0.226447</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.193384</v>
+        <v>0.19368</v>
       </c>
       <c r="C63" t="n">
-        <v>0.218328</v>
+        <v>0.218452</v>
       </c>
       <c r="D63" t="n">
-        <v>0.225757</v>
+        <v>0.225654</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.185113</v>
+        <v>0.185845</v>
       </c>
       <c r="C64" t="n">
-        <v>0.217509</v>
+        <v>0.217626</v>
       </c>
       <c r="D64" t="n">
-        <v>0.224842</v>
+        <v>0.224832</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.176586</v>
+        <v>0.177155</v>
       </c>
       <c r="C65" t="n">
-        <v>0.216644</v>
+        <v>0.216714</v>
       </c>
       <c r="D65" t="n">
-        <v>0.224037</v>
+        <v>0.224029</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.166182</v>
+        <v>0.166593</v>
       </c>
       <c r="C66" t="n">
-        <v>0.215879</v>
+        <v>0.215995</v>
       </c>
       <c r="D66" t="n">
-        <v>0.23931</v>
+        <v>0.238117</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.250447</v>
+        <v>0.250821</v>
       </c>
       <c r="C67" t="n">
-        <v>0.256283</v>
+        <v>0.231865</v>
       </c>
       <c r="D67" t="n">
-        <v>0.237253</v>
+        <v>0.236566</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.246434</v>
+        <v>0.246525</v>
       </c>
       <c r="C68" t="n">
-        <v>0.248528</v>
+        <v>0.229955</v>
       </c>
       <c r="D68" t="n">
-        <v>0.235728</v>
+        <v>0.235206</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.242129</v>
+        <v>0.24251</v>
       </c>
       <c r="C69" t="n">
-        <v>0.240616</v>
+        <v>0.228222</v>
       </c>
       <c r="D69" t="n">
-        <v>0.234595</v>
+        <v>0.23404</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.237575</v>
+        <v>0.237634</v>
       </c>
       <c r="C70" t="n">
-        <v>0.234245</v>
+        <v>0.22675</v>
       </c>
       <c r="D70" t="n">
-        <v>0.233276</v>
+        <v>0.232691</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.232558</v>
+        <v>0.232679</v>
       </c>
       <c r="C71" t="n">
-        <v>0.230016</v>
+        <v>0.22535</v>
       </c>
       <c r="D71" t="n">
-        <v>0.231913</v>
+        <v>0.231773</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.227321</v>
+        <v>0.227434</v>
       </c>
       <c r="C72" t="n">
-        <v>0.225927</v>
+        <v>0.224179</v>
       </c>
       <c r="D72" t="n">
-        <v>0.230859</v>
+        <v>0.230529</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.221866</v>
+        <v>0.221827</v>
       </c>
       <c r="C73" t="n">
-        <v>0.224109</v>
+        <v>0.222967</v>
       </c>
       <c r="D73" t="n">
-        <v>0.229762</v>
+        <v>0.229591</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.215495</v>
+        <v>0.215669</v>
       </c>
       <c r="C74" t="n">
-        <v>0.223013</v>
+        <v>0.221922</v>
       </c>
       <c r="D74" t="n">
-        <v>0.228648</v>
+        <v>0.228583</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.209309</v>
+        <v>0.209611</v>
       </c>
       <c r="C75" t="n">
-        <v>0.221773</v>
+        <v>0.220913</v>
       </c>
       <c r="D75" t="n">
-        <v>0.227815</v>
+        <v>0.227723</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.202599</v>
+        <v>0.202972</v>
       </c>
       <c r="C76" t="n">
-        <v>0.220764</v>
+        <v>0.220075</v>
       </c>
       <c r="D76" t="n">
-        <v>0.226911</v>
+        <v>0.22685</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.195997</v>
+        <v>0.196266</v>
       </c>
       <c r="C77" t="n">
-        <v>0.219341</v>
+        <v>0.219168</v>
       </c>
       <c r="D77" t="n">
-        <v>0.22604</v>
+        <v>0.225899</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.18937</v>
+        <v>0.188517</v>
       </c>
       <c r="C78" t="n">
-        <v>0.218291</v>
+        <v>0.21826</v>
       </c>
       <c r="D78" t="n">
-        <v>0.225318</v>
+        <v>0.225128</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.178686</v>
+        <v>0.179997</v>
       </c>
       <c r="C79" t="n">
-        <v>0.217363</v>
+        <v>0.217343</v>
       </c>
       <c r="D79" t="n">
-        <v>0.224661</v>
+        <v>0.224538</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.169517</v>
+        <v>0.169891</v>
       </c>
       <c r="C80" t="n">
-        <v>0.216426</v>
+        <v>0.216451</v>
       </c>
       <c r="D80" t="n">
-        <v>0.241213</v>
+        <v>0.2401</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.251077</v>
+        <v>0.251299</v>
       </c>
       <c r="C81" t="n">
-        <v>0.239684</v>
+        <v>0.238719</v>
       </c>
       <c r="D81" t="n">
-        <v>0.239187</v>
+        <v>0.237856</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.247417</v>
+        <v>0.24726</v>
       </c>
       <c r="C82" t="n">
-        <v>0.234637</v>
+        <v>0.233225</v>
       </c>
       <c r="D82" t="n">
-        <v>0.237022</v>
+        <v>0.236415</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.243232</v>
+        <v>0.24334</v>
       </c>
       <c r="C83" t="n">
-        <v>0.229854</v>
+        <v>0.229862</v>
       </c>
       <c r="D83" t="n">
-        <v>0.235634</v>
+        <v>0.234962</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.238802</v>
+        <v>0.238828</v>
       </c>
       <c r="C84" t="n">
-        <v>0.227661</v>
+        <v>0.22732</v>
       </c>
       <c r="D84" t="n">
-        <v>0.233712</v>
+        <v>0.233755</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.233904</v>
+        <v>0.233776</v>
       </c>
       <c r="C85" t="n">
-        <v>0.226316</v>
+        <v>0.225557</v>
       </c>
       <c r="D85" t="n">
-        <v>0.232482</v>
+        <v>0.232335</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.228823</v>
+        <v>0.228672</v>
       </c>
       <c r="C86" t="n">
-        <v>0.224759</v>
+        <v>0.224611</v>
       </c>
       <c r="D86" t="n">
-        <v>0.231414</v>
+        <v>0.231204</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.223167</v>
+        <v>0.22318</v>
       </c>
       <c r="C87" t="n">
-        <v>0.223599</v>
+        <v>0.223365</v>
       </c>
       <c r="D87" t="n">
-        <v>0.230137</v>
+        <v>0.230038</v>
       </c>
     </row>
     <row r="88">
@@ -4456,10 +4456,10 @@
         <v>0.217205</v>
       </c>
       <c r="C88" t="n">
-        <v>0.222544</v>
+        <v>0.222409</v>
       </c>
       <c r="D88" t="n">
-        <v>0.229046</v>
+        <v>0.229027</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.211312</v>
+        <v>0.211189</v>
       </c>
       <c r="C89" t="n">
-        <v>0.22143</v>
+        <v>0.221261</v>
       </c>
       <c r="D89" t="n">
-        <v>0.22818</v>
+        <v>0.228044</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.204978</v>
+        <v>0.204786</v>
       </c>
       <c r="C90" t="n">
-        <v>0.220369</v>
+        <v>0.220354</v>
       </c>
       <c r="D90" t="n">
-        <v>0.227319</v>
+        <v>0.227169</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.197963</v>
+        <v>0.197991</v>
       </c>
       <c r="C91" t="n">
-        <v>0.219471</v>
+        <v>0.219465</v>
       </c>
       <c r="D91" t="n">
-        <v>0.226418</v>
+        <v>0.226367</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190599</v>
+        <v>0.190583</v>
       </c>
       <c r="C92" t="n">
-        <v>0.218576</v>
+        <v>0.218552</v>
       </c>
       <c r="D92" t="n">
-        <v>0.225723</v>
+        <v>0.225518</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.181807</v>
+        <v>0.181903</v>
       </c>
       <c r="C93" t="n">
-        <v>0.217796</v>
+        <v>0.217637</v>
       </c>
       <c r="D93" t="n">
-        <v>0.224878</v>
+        <v>0.224789</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.172087</v>
+        <v>0.172231</v>
       </c>
       <c r="C94" t="n">
-        <v>0.216944</v>
+        <v>0.216914</v>
       </c>
       <c r="D94" t="n">
-        <v>0.241584</v>
+        <v>0.241434</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.251459</v>
+        <v>0.251323</v>
       </c>
       <c r="C95" t="n">
-        <v>0.236642</v>
+        <v>0.235932</v>
       </c>
       <c r="D95" t="n">
-        <v>0.239469</v>
+        <v>0.239232</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.247964</v>
+        <v>0.248128</v>
       </c>
       <c r="C96" t="n">
-        <v>0.233141</v>
+        <v>0.232556</v>
       </c>
       <c r="D96" t="n">
-        <v>0.237765</v>
+        <v>0.237239</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.244201</v>
+        <v>0.244098</v>
       </c>
       <c r="C97" t="n">
-        <v>0.230093</v>
+        <v>0.230131</v>
       </c>
       <c r="D97" t="n">
-        <v>0.2362</v>
+        <v>0.23592</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.23984</v>
+        <v>0.239748</v>
       </c>
       <c r="C98" t="n">
-        <v>0.227968</v>
+        <v>0.227915</v>
       </c>
       <c r="D98" t="n">
-        <v>0.234768</v>
+        <v>0.23457</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.234952</v>
+        <v>0.235029</v>
       </c>
       <c r="C99" t="n">
-        <v>0.226513</v>
+        <v>0.226215</v>
       </c>
       <c r="D99" t="n">
-        <v>0.233621</v>
+        <v>0.233235</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.229758</v>
+        <v>0.229881</v>
       </c>
       <c r="C100" t="n">
-        <v>0.225395</v>
+        <v>0.224992</v>
       </c>
       <c r="D100" t="n">
-        <v>0.231998</v>
+        <v>0.232062</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.224306</v>
+        <v>0.224466</v>
       </c>
       <c r="C101" t="n">
-        <v>0.224021</v>
+        <v>0.223753</v>
       </c>
       <c r="D101" t="n">
-        <v>0.230778</v>
+        <v>0.230707</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.218577</v>
+        <v>0.21853</v>
       </c>
       <c r="C102" t="n">
-        <v>0.222852</v>
+        <v>0.222625</v>
       </c>
       <c r="D102" t="n">
-        <v>0.229744</v>
+        <v>0.229591</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.212439</v>
+        <v>0.212444</v>
       </c>
       <c r="C103" t="n">
-        <v>0.221646</v>
+        <v>0.221588</v>
       </c>
       <c r="D103" t="n">
-        <v>0.228765</v>
+        <v>0.228686</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.206212</v>
+        <v>0.206072</v>
       </c>
       <c r="C104" t="n">
-        <v>0.220761</v>
+        <v>0.220641</v>
       </c>
       <c r="D104" t="n">
-        <v>0.227996</v>
+        <v>0.228101</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.199256</v>
+        <v>0.199363</v>
       </c>
       <c r="C105" t="n">
-        <v>0.219822</v>
+        <v>0.219687</v>
       </c>
       <c r="D105" t="n">
-        <v>0.227212</v>
+        <v>0.227268</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.192085</v>
+        <v>0.192014</v>
       </c>
       <c r="C106" t="n">
-        <v>0.218948</v>
+        <v>0.218818</v>
       </c>
       <c r="D106" t="n">
-        <v>0.226292</v>
+        <v>0.226407</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183784</v>
+        <v>0.183767</v>
       </c>
       <c r="C107" t="n">
-        <v>0.218022</v>
+        <v>0.21794</v>
       </c>
       <c r="D107" t="n">
-        <v>0.225283</v>
+        <v>0.22564</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.174146</v>
+        <v>0.174261</v>
       </c>
       <c r="C108" t="n">
-        <v>0.217244</v>
+        <v>0.217112</v>
       </c>
       <c r="D108" t="n">
-        <v>0.241167</v>
+        <v>0.241138</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.162897</v>
+        <v>0.163064</v>
       </c>
       <c r="C109" t="n">
-        <v>0.216339</v>
+        <v>0.216347</v>
       </c>
       <c r="D109" t="n">
-        <v>0.23897</v>
+        <v>0.238994</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.249684</v>
+        <v>0.249503</v>
       </c>
       <c r="C110" t="n">
-        <v>0.233176</v>
+        <v>0.23294</v>
       </c>
       <c r="D110" t="n">
-        <v>0.23706</v>
+        <v>0.237043</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.245844</v>
+        <v>0.245684</v>
       </c>
       <c r="C111" t="n">
-        <v>0.230294</v>
+        <v>0.230105</v>
       </c>
       <c r="D111" t="n">
-        <v>0.235503</v>
+        <v>0.235456</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.241353</v>
+        <v>0.241213</v>
       </c>
       <c r="C112" t="n">
-        <v>0.228002</v>
+        <v>0.227943</v>
       </c>
       <c r="D112" t="n">
-        <v>0.234146</v>
+        <v>0.234069</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.236487</v>
+        <v>0.236452</v>
       </c>
       <c r="C113" t="n">
-        <v>0.226497</v>
+        <v>0.226335</v>
       </c>
       <c r="D113" t="n">
-        <v>0.232776</v>
+        <v>0.232745</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.231354</v>
+        <v>0.231255</v>
       </c>
       <c r="C114" t="n">
-        <v>0.225118</v>
+        <v>0.224954</v>
       </c>
       <c r="D114" t="n">
-        <v>0.23156</v>
+        <v>0.231516</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.225691</v>
+        <v>0.225576</v>
       </c>
       <c r="C115" t="n">
-        <v>0.223815</v>
+        <v>0.223708</v>
       </c>
       <c r="D115" t="n">
-        <v>0.230469</v>
+        <v>0.230459</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.220098</v>
+        <v>0.21989</v>
       </c>
       <c r="C116" t="n">
-        <v>0.222763</v>
+        <v>0.222927</v>
       </c>
       <c r="D116" t="n">
-        <v>0.229456</v>
+        <v>0.229402</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.213966</v>
+        <v>0.213836</v>
       </c>
       <c r="C117" t="n">
-        <v>0.222131</v>
+        <v>0.222016</v>
       </c>
       <c r="D117" t="n">
-        <v>0.228906</v>
+        <v>0.228872</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.207663</v>
+        <v>0.207391</v>
       </c>
       <c r="C118" t="n">
-        <v>0.22112</v>
+        <v>0.221069</v>
       </c>
       <c r="D118" t="n">
-        <v>0.227996</v>
+        <v>0.228006</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.20108</v>
+        <v>0.200691</v>
       </c>
       <c r="C119" t="n">
-        <v>0.220245</v>
+        <v>0.22019</v>
       </c>
       <c r="D119" t="n">
-        <v>0.227185</v>
+        <v>0.227113</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.193682</v>
+        <v>0.193565</v>
       </c>
       <c r="C120" t="n">
-        <v>0.219309</v>
+        <v>0.21925</v>
       </c>
       <c r="D120" t="n">
-        <v>0.226332</v>
+        <v>0.226219</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.185645</v>
+        <v>0.185365</v>
       </c>
       <c r="C121" t="n">
-        <v>0.218492</v>
+        <v>0.218496</v>
       </c>
       <c r="D121" t="n">
-        <v>0.22567</v>
+        <v>0.225483</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.176147</v>
+        <v>0.175757</v>
       </c>
       <c r="C122" t="n">
-        <v>0.217516</v>
+        <v>0.217598</v>
       </c>
       <c r="D122" t="n">
-        <v>0.225001</v>
+        <v>0.224873</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.164901</v>
+        <v>0.164624</v>
       </c>
       <c r="C123" t="n">
-        <v>0.216801</v>
+        <v>0.216789</v>
       </c>
       <c r="D123" t="n">
-        <v>0.239078</v>
+        <v>0.239002</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.250234</v>
+        <v>0.250044</v>
       </c>
       <c r="C124" t="n">
-        <v>0.233671</v>
+        <v>0.233359</v>
       </c>
       <c r="D124" t="n">
-        <v>0.237186</v>
+        <v>0.237046</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.247849</v>
+        <v>0.246384</v>
       </c>
       <c r="C125" t="n">
-        <v>0.230546</v>
+        <v>0.23038</v>
       </c>
       <c r="D125" t="n">
-        <v>0.235497</v>
+        <v>0.235461</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.243372</v>
+        <v>0.24205</v>
       </c>
       <c r="C126" t="n">
-        <v>0.228426</v>
+        <v>0.228296</v>
       </c>
       <c r="D126" t="n">
-        <v>0.234005</v>
+        <v>0.233953</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.238672</v>
+        <v>0.237208</v>
       </c>
       <c r="C127" t="n">
-        <v>0.226651</v>
+        <v>0.22655</v>
       </c>
       <c r="D127" t="n">
-        <v>0.232769</v>
+        <v>0.23267</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.233559</v>
+        <v>0.232036</v>
       </c>
       <c r="C128" t="n">
-        <v>0.22521</v>
+        <v>0.225173</v>
       </c>
       <c r="D128" t="n">
-        <v>0.231606</v>
+        <v>0.231529</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.228154</v>
+        <v>0.22655</v>
       </c>
       <c r="C129" t="n">
-        <v>0.224059</v>
+        <v>0.223981</v>
       </c>
       <c r="D129" t="n">
-        <v>0.230494</v>
+        <v>0.230419</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.221473</v>
+        <v>0.220946</v>
       </c>
       <c r="C130" t="n">
-        <v>0.222922</v>
+        <v>0.222856</v>
       </c>
       <c r="D130" t="n">
-        <v>0.229524</v>
+        <v>0.229448</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.215053</v>
+        <v>0.214976</v>
       </c>
       <c r="C131" t="n">
-        <v>0.22194</v>
+        <v>0.221878</v>
       </c>
       <c r="D131" t="n">
-        <v>0.228555</v>
+        <v>0.228547</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.208811</v>
+        <v>0.208712</v>
       </c>
       <c r="C132" t="n">
-        <v>0.220939</v>
+        <v>0.220928</v>
       </c>
       <c r="D132" t="n">
-        <v>0.22763</v>
+        <v>0.227581</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.202182</v>
+        <v>0.202073</v>
       </c>
       <c r="C133" t="n">
-        <v>0.220073</v>
+        <v>0.219982</v>
       </c>
       <c r="D133" t="n">
-        <v>0.226797</v>
+        <v>0.226799</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.195052</v>
+        <v>0.195112</v>
       </c>
       <c r="C134" t="n">
-        <v>0.219102</v>
+        <v>0.21911</v>
       </c>
       <c r="D134" t="n">
-        <v>0.226053</v>
+        <v>0.226011</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.187471</v>
+        <v>0.187561</v>
       </c>
       <c r="C135" t="n">
-        <v>0.21825</v>
+        <v>0.218217</v>
       </c>
       <c r="D135" t="n">
-        <v>0.225318</v>
+        <v>0.225232</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.178739</v>
+        <v>0.178313</v>
       </c>
       <c r="C136" t="n">
-        <v>0.217417</v>
+        <v>0.217697</v>
       </c>
       <c r="D136" t="n">
-        <v>0.224688</v>
+        <v>0.224853</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.168074</v>
+        <v>0.167589</v>
       </c>
       <c r="C137" t="n">
-        <v>0.217026</v>
+        <v>0.216865</v>
       </c>
       <c r="D137" t="n">
-        <v>0.240407</v>
+        <v>0.240299</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.250744</v>
+        <v>0.250702</v>
       </c>
       <c r="C138" t="n">
-        <v>0.235036</v>
+        <v>0.234868</v>
       </c>
       <c r="D138" t="n">
-        <v>0.238237</v>
+        <v>0.238209</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.247364</v>
+        <v>0.247203</v>
       </c>
       <c r="C139" t="n">
-        <v>0.231875</v>
+        <v>0.231737</v>
       </c>
       <c r="D139" t="n">
-        <v>0.236496</v>
+        <v>0.236507</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.243184</v>
+        <v>0.243095</v>
       </c>
       <c r="C140" t="n">
-        <v>0.229262</v>
+        <v>0.229195</v>
       </c>
       <c r="D140" t="n">
-        <v>0.234914</v>
+        <v>0.234898</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.238523</v>
+        <v>0.238333</v>
       </c>
       <c r="C141" t="n">
-        <v>0.227559</v>
+        <v>0.227468</v>
       </c>
       <c r="D141" t="n">
-        <v>0.233554</v>
+        <v>0.233486</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.233387</v>
+        <v>0.2334</v>
       </c>
       <c r="C142" t="n">
-        <v>0.226046</v>
+        <v>0.22592</v>
       </c>
       <c r="D142" t="n">
-        <v>0.232396</v>
+        <v>0.232282</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.227899</v>
+        <v>0.227884</v>
       </c>
       <c r="C143" t="n">
-        <v>0.224688</v>
+        <v>0.224647</v>
       </c>
       <c r="D143" t="n">
-        <v>0.231241</v>
+        <v>0.231222</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.186487</v>
+        <v>0.190417</v>
       </c>
       <c r="C2" t="n">
-        <v>0.205328</v>
+        <v>0.206568</v>
       </c>
       <c r="D2" t="n">
-        <v>0.21471</v>
+        <v>0.210298</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.182724</v>
+        <v>0.183216</v>
       </c>
       <c r="C3" t="n">
-        <v>0.205813</v>
+        <v>0.207121</v>
       </c>
       <c r="D3" t="n">
-        <v>0.214449</v>
+        <v>0.210504</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.177719</v>
+        <v>0.179193</v>
       </c>
       <c r="C4" t="n">
-        <v>0.205978</v>
+        <v>0.206185</v>
       </c>
       <c r="D4" t="n">
-        <v>0.214399</v>
+        <v>0.212811</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.174707</v>
+        <v>0.175175</v>
       </c>
       <c r="C5" t="n">
-        <v>0.206636</v>
+        <v>0.20647</v>
       </c>
       <c r="D5" t="n">
-        <v>0.215131</v>
+        <v>0.211862</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.168803</v>
+        <v>0.169982</v>
       </c>
       <c r="C6" t="n">
-        <v>0.206046</v>
+        <v>0.207629</v>
       </c>
       <c r="D6" t="n">
-        <v>0.215188</v>
+        <v>0.212781</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.163368</v>
+        <v>0.163095</v>
       </c>
       <c r="C7" t="n">
-        <v>0.205761</v>
+        <v>0.206203</v>
       </c>
       <c r="D7" t="n">
-        <v>0.214521</v>
+        <v>0.211426</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.156897</v>
+        <v>0.156412</v>
       </c>
       <c r="C8" t="n">
-        <v>0.205644</v>
+        <v>0.206207</v>
       </c>
       <c r="D8" t="n">
-        <v>0.215178</v>
+        <v>0.21307</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.145979</v>
+        <v>0.145131</v>
       </c>
       <c r="C9" t="n">
-        <v>0.205381</v>
+        <v>0.205463</v>
       </c>
       <c r="D9" t="n">
-        <v>0.23236</v>
+        <v>0.227134</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.230003</v>
+        <v>0.229898</v>
       </c>
       <c r="C10" t="n">
-        <v>0.225187</v>
+        <v>0.225488</v>
       </c>
       <c r="D10" t="n">
-        <v>0.231014</v>
+        <v>0.226843</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.227173</v>
+        <v>0.226913</v>
       </c>
       <c r="C11" t="n">
-        <v>0.223202</v>
+        <v>0.22426</v>
       </c>
       <c r="D11" t="n">
-        <v>0.230427</v>
+        <v>0.226347</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.224289</v>
+        <v>0.224726</v>
       </c>
       <c r="C12" t="n">
-        <v>0.222116</v>
+        <v>0.223241</v>
       </c>
       <c r="D12" t="n">
-        <v>0.229844</v>
+        <v>0.225694</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.222548</v>
+        <v>0.222137</v>
       </c>
       <c r="C13" t="n">
-        <v>0.221145</v>
+        <v>0.222061</v>
       </c>
       <c r="D13" t="n">
-        <v>0.22868</v>
+        <v>0.224494</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.218185</v>
+        <v>0.217986</v>
       </c>
       <c r="C14" t="n">
-        <v>0.22055</v>
+        <v>0.220829</v>
       </c>
       <c r="D14" t="n">
-        <v>0.228139</v>
+        <v>0.224649</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.215015</v>
+        <v>0.214884</v>
       </c>
       <c r="C15" t="n">
-        <v>0.219891</v>
+        <v>0.220492</v>
       </c>
       <c r="D15" t="n">
-        <v>0.227055</v>
+        <v>0.223343</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2095</v>
+        <v>0.209436</v>
       </c>
       <c r="C16" t="n">
-        <v>0.219542</v>
+        <v>0.219609</v>
       </c>
       <c r="D16" t="n">
-        <v>0.226547</v>
+        <v>0.223023</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.204253</v>
+        <v>0.20425</v>
       </c>
       <c r="C17" t="n">
-        <v>0.21849</v>
+        <v>0.218827</v>
       </c>
       <c r="D17" t="n">
-        <v>0.226143</v>
+        <v>0.222898</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.199304</v>
+        <v>0.199071</v>
       </c>
       <c r="C18" t="n">
-        <v>0.217455</v>
+        <v>0.217331</v>
       </c>
       <c r="D18" t="n">
-        <v>0.22491</v>
+        <v>0.222528</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.195352</v>
+        <v>0.194647</v>
       </c>
       <c r="C19" t="n">
-        <v>0.216853</v>
+        <v>0.216629</v>
       </c>
       <c r="D19" t="n">
-        <v>0.224223</v>
+        <v>0.221142</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.187784</v>
+        <v>0.188708</v>
       </c>
       <c r="C20" t="n">
-        <v>0.216757</v>
+        <v>0.216025</v>
       </c>
       <c r="D20" t="n">
-        <v>0.223914</v>
+        <v>0.221148</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.180889</v>
+        <v>0.181399</v>
       </c>
       <c r="C21" t="n">
-        <v>0.215202</v>
+        <v>0.215494</v>
       </c>
       <c r="D21" t="n">
-        <v>0.223804</v>
+        <v>0.220534</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.172333</v>
+        <v>0.173187</v>
       </c>
       <c r="C22" t="n">
-        <v>0.215022</v>
+        <v>0.214673</v>
       </c>
       <c r="D22" t="n">
-        <v>0.223194</v>
+        <v>0.220366</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.164036</v>
+        <v>0.164645</v>
       </c>
       <c r="C23" t="n">
-        <v>0.214023</v>
+        <v>0.213817</v>
       </c>
       <c r="D23" t="n">
-        <v>0.236687</v>
+        <v>0.233504</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.242006</v>
+        <v>0.241924</v>
       </c>
       <c r="C24" t="n">
-        <v>0.227985</v>
+        <v>0.228631</v>
       </c>
       <c r="D24" t="n">
-        <v>0.23516</v>
+        <v>0.232049</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.238605</v>
+        <v>0.238684</v>
       </c>
       <c r="C25" t="n">
-        <v>0.226766</v>
+        <v>0.226668</v>
       </c>
       <c r="D25" t="n">
-        <v>0.233778</v>
+        <v>0.230826</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.235157</v>
+        <v>0.235434</v>
       </c>
       <c r="C26" t="n">
-        <v>0.225925</v>
+        <v>0.225997</v>
       </c>
       <c r="D26" t="n">
-        <v>0.232814</v>
+        <v>0.23008</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.231653</v>
+        <v>0.231443</v>
       </c>
       <c r="C27" t="n">
-        <v>0.224985</v>
+        <v>0.225289</v>
       </c>
       <c r="D27" t="n">
-        <v>0.231722</v>
+        <v>0.228936</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.227281</v>
+        <v>0.227129</v>
       </c>
       <c r="C28" t="n">
-        <v>0.223888</v>
+        <v>0.224345</v>
       </c>
       <c r="D28" t="n">
-        <v>0.230857</v>
+        <v>0.228342</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.222217</v>
+        <v>0.222486</v>
       </c>
       <c r="C29" t="n">
-        <v>0.222432</v>
+        <v>0.222725</v>
       </c>
       <c r="D29" t="n">
-        <v>0.229753</v>
+        <v>0.227132</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.21883</v>
+        <v>0.217195</v>
       </c>
       <c r="C30" t="n">
-        <v>0.22164</v>
+        <v>0.221554</v>
       </c>
       <c r="D30" t="n">
-        <v>0.228959</v>
+        <v>0.226519</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.211713</v>
+        <v>0.212274</v>
       </c>
       <c r="C31" t="n">
-        <v>0.220216</v>
+        <v>0.220452</v>
       </c>
       <c r="D31" t="n">
-        <v>0.228044</v>
+        <v>0.225462</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.207052</v>
+        <v>0.207454</v>
       </c>
       <c r="C32" t="n">
-        <v>0.219473</v>
+        <v>0.219601</v>
       </c>
       <c r="D32" t="n">
-        <v>0.227386</v>
+        <v>0.225124</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.200964</v>
+        <v>0.200628</v>
       </c>
       <c r="C33" t="n">
-        <v>0.218721</v>
+        <v>0.218819</v>
       </c>
       <c r="D33" t="n">
-        <v>0.226516</v>
+        <v>0.224138</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.196116</v>
+        <v>0.195621</v>
       </c>
       <c r="C34" t="n">
-        <v>0.218109</v>
+        <v>0.218222</v>
       </c>
       <c r="D34" t="n">
-        <v>0.22571</v>
+        <v>0.223528</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.187805</v>
+        <v>0.186418</v>
       </c>
       <c r="C35" t="n">
-        <v>0.217051</v>
+        <v>0.217185</v>
       </c>
       <c r="D35" t="n">
-        <v>0.224881</v>
+        <v>0.222841</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180529</v>
+        <v>0.179912</v>
       </c>
       <c r="C36" t="n">
-        <v>0.216359</v>
+        <v>0.216459</v>
       </c>
       <c r="D36" t="n">
-        <v>0.224319</v>
+        <v>0.222168</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.169057</v>
+        <v>0.168916</v>
       </c>
       <c r="C37" t="n">
-        <v>0.215918</v>
+        <v>0.215731</v>
       </c>
       <c r="D37" t="n">
-        <v>0.237844</v>
+        <v>0.235642</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.248529</v>
+        <v>0.248568</v>
       </c>
       <c r="C38" t="n">
-        <v>0.229378</v>
+        <v>0.229805</v>
       </c>
       <c r="D38" t="n">
-        <v>0.236524</v>
+        <v>0.23371</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.244975</v>
+        <v>0.244999</v>
       </c>
       <c r="C39" t="n">
-        <v>0.228144</v>
+        <v>0.22829</v>
       </c>
       <c r="D39" t="n">
-        <v>0.235022</v>
+        <v>0.232538</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.241394</v>
+        <v>0.241181</v>
       </c>
       <c r="C40" t="n">
-        <v>0.226602</v>
+        <v>0.226724</v>
       </c>
       <c r="D40" t="n">
-        <v>0.233636</v>
+        <v>0.231653</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.237006</v>
+        <v>0.236904</v>
       </c>
       <c r="C41" t="n">
-        <v>0.225628</v>
+        <v>0.225798</v>
       </c>
       <c r="D41" t="n">
-        <v>0.232657</v>
+        <v>0.230597</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.232043</v>
+        <v>0.232556</v>
       </c>
       <c r="C42" t="n">
-        <v>0.224443</v>
+        <v>0.224505</v>
       </c>
       <c r="D42" t="n">
-        <v>0.231647</v>
+        <v>0.229301</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.227379</v>
+        <v>0.227575</v>
       </c>
       <c r="C43" t="n">
-        <v>0.223247</v>
+        <v>0.223465</v>
       </c>
       <c r="D43" t="n">
-        <v>0.230359</v>
+        <v>0.22806</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.222196</v>
+        <v>0.222144</v>
       </c>
       <c r="C44" t="n">
-        <v>0.222238</v>
+        <v>0.222429</v>
       </c>
       <c r="D44" t="n">
-        <v>0.229365</v>
+        <v>0.227309</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.217035</v>
+        <v>0.216802</v>
       </c>
       <c r="C45" t="n">
-        <v>0.221188</v>
+        <v>0.22123</v>
       </c>
       <c r="D45" t="n">
-        <v>0.228573</v>
+        <v>0.226517</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.211512</v>
+        <v>0.211432</v>
       </c>
       <c r="C46" t="n">
-        <v>0.220249</v>
+        <v>0.220327</v>
       </c>
       <c r="D46" t="n">
-        <v>0.22756</v>
+        <v>0.225565</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.204583</v>
+        <v>0.204727</v>
       </c>
       <c r="C47" t="n">
-        <v>0.219634</v>
+        <v>0.219702</v>
       </c>
       <c r="D47" t="n">
-        <v>0.226901</v>
+        <v>0.224714</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.198283</v>
+        <v>0.198384</v>
       </c>
       <c r="C48" t="n">
-        <v>0.218841</v>
+        <v>0.218999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.225894</v>
+        <v>0.223991</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.191538</v>
+        <v>0.190578</v>
       </c>
       <c r="C49" t="n">
-        <v>0.217974</v>
+        <v>0.217933</v>
       </c>
       <c r="D49" t="n">
-        <v>0.225271</v>
+        <v>0.223288</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.183143</v>
+        <v>0.182299</v>
       </c>
       <c r="C50" t="n">
-        <v>0.217286</v>
+        <v>0.217564</v>
       </c>
       <c r="D50" t="n">
-        <v>0.224392</v>
+        <v>0.222657</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173849</v>
+        <v>0.1739</v>
       </c>
       <c r="C51" t="n">
-        <v>0.216389</v>
+        <v>0.216527</v>
       </c>
       <c r="D51" t="n">
-        <v>0.238604</v>
+        <v>0.236286</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.162019</v>
+        <v>0.162824</v>
       </c>
       <c r="C52" t="n">
-        <v>0.215741</v>
+        <v>0.215681</v>
       </c>
       <c r="D52" t="n">
-        <v>0.2374</v>
+        <v>0.235078</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.247633</v>
+        <v>0.247724</v>
       </c>
       <c r="C53" t="n">
-        <v>0.229086</v>
+        <v>0.228974</v>
       </c>
       <c r="D53" t="n">
-        <v>0.235673</v>
+        <v>0.233567</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.243981</v>
+        <v>0.243872</v>
       </c>
       <c r="C54" t="n">
-        <v>0.227692</v>
+        <v>0.227625</v>
       </c>
       <c r="D54" t="n">
-        <v>0.23452</v>
+        <v>0.232278</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.239688</v>
+        <v>0.23971</v>
       </c>
       <c r="C55" t="n">
-        <v>0.226495</v>
+        <v>0.226618</v>
       </c>
       <c r="D55" t="n">
-        <v>0.233313</v>
+        <v>0.231094</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.235054</v>
+        <v>0.23499</v>
       </c>
       <c r="C56" t="n">
-        <v>0.225383</v>
+        <v>0.225476</v>
       </c>
       <c r="D56" t="n">
-        <v>0.232168</v>
+        <v>0.230083</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.230511</v>
+        <v>0.230274</v>
       </c>
       <c r="C57" t="n">
-        <v>0.224347</v>
+        <v>0.224444</v>
       </c>
       <c r="D57" t="n">
-        <v>0.231231</v>
+        <v>0.229164</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.224946</v>
+        <v>0.224801</v>
       </c>
       <c r="C58" t="n">
-        <v>0.223212</v>
+        <v>0.223318</v>
       </c>
       <c r="D58" t="n">
-        <v>0.230249</v>
+        <v>0.228114</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.219279</v>
+        <v>0.219182</v>
       </c>
       <c r="C59" t="n">
-        <v>0.222049</v>
+        <v>0.222063</v>
       </c>
       <c r="D59" t="n">
-        <v>0.229265</v>
+        <v>0.227097</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.213408</v>
+        <v>0.213081</v>
       </c>
       <c r="C60" t="n">
-        <v>0.221177</v>
+        <v>0.221088</v>
       </c>
       <c r="D60" t="n">
-        <v>0.228147</v>
+        <v>0.22603</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.207104</v>
+        <v>0.206615</v>
       </c>
       <c r="C61" t="n">
-        <v>0.220227</v>
+        <v>0.220235</v>
       </c>
       <c r="D61" t="n">
-        <v>0.227312</v>
+        <v>0.22535</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.200527</v>
+        <v>0.200197</v>
       </c>
       <c r="C62" t="n">
-        <v>0.219246</v>
+        <v>0.219218</v>
       </c>
       <c r="D62" t="n">
-        <v>0.226447</v>
+        <v>0.224299</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.19368</v>
+        <v>0.192916</v>
       </c>
       <c r="C63" t="n">
-        <v>0.218452</v>
+        <v>0.218396</v>
       </c>
       <c r="D63" t="n">
-        <v>0.225654</v>
+        <v>0.22363</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.185845</v>
+        <v>0.18481</v>
       </c>
       <c r="C64" t="n">
-        <v>0.217626</v>
+        <v>0.217663</v>
       </c>
       <c r="D64" t="n">
-        <v>0.224832</v>
+        <v>0.222908</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177155</v>
+        <v>0.177717</v>
       </c>
       <c r="C65" t="n">
-        <v>0.216714</v>
+        <v>0.216775</v>
       </c>
       <c r="D65" t="n">
-        <v>0.224029</v>
+        <v>0.222086</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.166593</v>
+        <v>0.165822</v>
       </c>
       <c r="C66" t="n">
-        <v>0.215995</v>
+        <v>0.215991</v>
       </c>
       <c r="D66" t="n">
-        <v>0.238117</v>
+        <v>0.236023</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.250821</v>
+        <v>0.250735</v>
       </c>
       <c r="C67" t="n">
-        <v>0.231865</v>
+        <v>0.231682</v>
       </c>
       <c r="D67" t="n">
-        <v>0.236566</v>
+        <v>0.234362</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.246525</v>
+        <v>0.246841</v>
       </c>
       <c r="C68" t="n">
-        <v>0.229955</v>
+        <v>0.230069</v>
       </c>
       <c r="D68" t="n">
-        <v>0.235206</v>
+        <v>0.233146</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.24251</v>
+        <v>0.242664</v>
       </c>
       <c r="C69" t="n">
-        <v>0.228222</v>
+        <v>0.228365</v>
       </c>
       <c r="D69" t="n">
-        <v>0.23404</v>
+        <v>0.231944</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.237634</v>
+        <v>0.238053</v>
       </c>
       <c r="C70" t="n">
-        <v>0.22675</v>
+        <v>0.226922</v>
       </c>
       <c r="D70" t="n">
-        <v>0.232691</v>
+        <v>0.230632</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.232679</v>
+        <v>0.232739</v>
       </c>
       <c r="C71" t="n">
-        <v>0.22535</v>
+        <v>0.225473</v>
       </c>
       <c r="D71" t="n">
-        <v>0.231773</v>
+        <v>0.229711</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.227434</v>
+        <v>0.227502</v>
       </c>
       <c r="C72" t="n">
-        <v>0.224179</v>
+        <v>0.224134</v>
       </c>
       <c r="D72" t="n">
-        <v>0.230529</v>
+        <v>0.228539</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.221827</v>
+        <v>0.221969</v>
       </c>
       <c r="C73" t="n">
-        <v>0.222967</v>
+        <v>0.222969</v>
       </c>
       <c r="D73" t="n">
-        <v>0.229591</v>
+        <v>0.227564</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.215669</v>
+        <v>0.215533</v>
       </c>
       <c r="C74" t="n">
-        <v>0.221922</v>
+        <v>0.221852</v>
       </c>
       <c r="D74" t="n">
-        <v>0.228583</v>
+        <v>0.226651</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.209611</v>
+        <v>0.209379</v>
       </c>
       <c r="C75" t="n">
-        <v>0.220913</v>
+        <v>0.221027</v>
       </c>
       <c r="D75" t="n">
-        <v>0.227723</v>
+        <v>0.225792</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.202972</v>
+        <v>0.202751</v>
       </c>
       <c r="C76" t="n">
-        <v>0.220075</v>
+        <v>0.220067</v>
       </c>
       <c r="D76" t="n">
-        <v>0.22685</v>
+        <v>0.224926</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.196266</v>
+        <v>0.196261</v>
       </c>
       <c r="C77" t="n">
-        <v>0.219168</v>
+        <v>0.21909</v>
       </c>
       <c r="D77" t="n">
-        <v>0.225899</v>
+        <v>0.224166</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.188517</v>
+        <v>0.187589</v>
       </c>
       <c r="C78" t="n">
-        <v>0.21826</v>
+        <v>0.21829</v>
       </c>
       <c r="D78" t="n">
-        <v>0.225128</v>
+        <v>0.223388</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179997</v>
+        <v>0.180279</v>
       </c>
       <c r="C79" t="n">
-        <v>0.217343</v>
+        <v>0.217407</v>
       </c>
       <c r="D79" t="n">
-        <v>0.224538</v>
+        <v>0.222772</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.169891</v>
+        <v>0.170469</v>
       </c>
       <c r="C80" t="n">
-        <v>0.216451</v>
+        <v>0.216368</v>
       </c>
       <c r="D80" t="n">
-        <v>0.2401</v>
+        <v>0.238562</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.251299</v>
+        <v>0.251084</v>
       </c>
       <c r="C81" t="n">
-        <v>0.238719</v>
+        <v>0.238346</v>
       </c>
       <c r="D81" t="n">
-        <v>0.237856</v>
+        <v>0.235948</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.24726</v>
+        <v>0.247355</v>
       </c>
       <c r="C82" t="n">
-        <v>0.233225</v>
+        <v>0.233451</v>
       </c>
       <c r="D82" t="n">
-        <v>0.236415</v>
+        <v>0.234295</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.24334</v>
+        <v>0.243319</v>
       </c>
       <c r="C83" t="n">
-        <v>0.229862</v>
+        <v>0.229505</v>
       </c>
       <c r="D83" t="n">
-        <v>0.234962</v>
+        <v>0.232994</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.238828</v>
+        <v>0.239069</v>
       </c>
       <c r="C84" t="n">
-        <v>0.22732</v>
+        <v>0.227614</v>
       </c>
       <c r="D84" t="n">
-        <v>0.233755</v>
+        <v>0.231703</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.233776</v>
+        <v>0.233979</v>
       </c>
       <c r="C85" t="n">
-        <v>0.225557</v>
+        <v>0.225758</v>
       </c>
       <c r="D85" t="n">
-        <v>0.232335</v>
+        <v>0.230467</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.228672</v>
+        <v>0.228684</v>
       </c>
       <c r="C86" t="n">
-        <v>0.224611</v>
+        <v>0.22446</v>
       </c>
       <c r="D86" t="n">
-        <v>0.231204</v>
+        <v>0.229259</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.22318</v>
+        <v>0.223184</v>
       </c>
       <c r="C87" t="n">
-        <v>0.223365</v>
+        <v>0.223344</v>
       </c>
       <c r="D87" t="n">
-        <v>0.230038</v>
+        <v>0.228068</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.217205</v>
+        <v>0.217262</v>
       </c>
       <c r="C88" t="n">
-        <v>0.222409</v>
+        <v>0.222378</v>
       </c>
       <c r="D88" t="n">
-        <v>0.229027</v>
+        <v>0.227112</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.211189</v>
+        <v>0.211346</v>
       </c>
       <c r="C89" t="n">
-        <v>0.221261</v>
+        <v>0.221334</v>
       </c>
       <c r="D89" t="n">
-        <v>0.228044</v>
+        <v>0.226139</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.204786</v>
+        <v>0.204917</v>
       </c>
       <c r="C90" t="n">
-        <v>0.220354</v>
+        <v>0.220357</v>
       </c>
       <c r="D90" t="n">
-        <v>0.227169</v>
+        <v>0.225311</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.197991</v>
+        <v>0.197959</v>
       </c>
       <c r="C91" t="n">
-        <v>0.219465</v>
+        <v>0.219377</v>
       </c>
       <c r="D91" t="n">
-        <v>0.226367</v>
+        <v>0.224438</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190583</v>
+        <v>0.190856</v>
       </c>
       <c r="C92" t="n">
-        <v>0.218552</v>
+        <v>0.218535</v>
       </c>
       <c r="D92" t="n">
-        <v>0.225518</v>
+        <v>0.223669</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.181903</v>
+        <v>0.181758</v>
       </c>
       <c r="C93" t="n">
-        <v>0.217637</v>
+        <v>0.217662</v>
       </c>
       <c r="D93" t="n">
-        <v>0.224789</v>
+        <v>0.223001</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.172231</v>
+        <v>0.171847</v>
       </c>
       <c r="C94" t="n">
-        <v>0.216914</v>
+        <v>0.216903</v>
       </c>
       <c r="D94" t="n">
-        <v>0.241434</v>
+        <v>0.239794</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.251323</v>
+        <v>0.251374</v>
       </c>
       <c r="C95" t="n">
-        <v>0.235932</v>
+        <v>0.236618</v>
       </c>
       <c r="D95" t="n">
-        <v>0.239232</v>
+        <v>0.237052</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.248128</v>
+        <v>0.247961</v>
       </c>
       <c r="C96" t="n">
-        <v>0.232556</v>
+        <v>0.232712</v>
       </c>
       <c r="D96" t="n">
-        <v>0.237239</v>
+        <v>0.235119</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.244098</v>
+        <v>0.244079</v>
       </c>
       <c r="C97" t="n">
-        <v>0.230131</v>
+        <v>0.230143</v>
       </c>
       <c r="D97" t="n">
-        <v>0.23592</v>
+        <v>0.233905</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.239748</v>
+        <v>0.239792</v>
       </c>
       <c r="C98" t="n">
-        <v>0.227915</v>
+        <v>0.227955</v>
       </c>
       <c r="D98" t="n">
-        <v>0.23457</v>
+        <v>0.23257</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.235029</v>
+        <v>0.234912</v>
       </c>
       <c r="C99" t="n">
-        <v>0.226215</v>
+        <v>0.226329</v>
       </c>
       <c r="D99" t="n">
-        <v>0.233235</v>
+        <v>0.231357</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.229881</v>
+        <v>0.229819</v>
       </c>
       <c r="C100" t="n">
-        <v>0.224992</v>
+        <v>0.225069</v>
       </c>
       <c r="D100" t="n">
-        <v>0.232062</v>
+        <v>0.229863</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.224466</v>
+        <v>0.224358</v>
       </c>
       <c r="C101" t="n">
-        <v>0.223753</v>
+        <v>0.223891</v>
       </c>
       <c r="D101" t="n">
-        <v>0.230707</v>
+        <v>0.228797</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.21853</v>
+        <v>0.218555</v>
       </c>
       <c r="C102" t="n">
-        <v>0.222625</v>
+        <v>0.222756</v>
       </c>
       <c r="D102" t="n">
-        <v>0.229591</v>
+        <v>0.227771</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.212444</v>
+        <v>0.21243</v>
       </c>
       <c r="C103" t="n">
-        <v>0.221588</v>
+        <v>0.221652</v>
       </c>
       <c r="D103" t="n">
-        <v>0.228686</v>
+        <v>0.226887</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.206072</v>
+        <v>0.20613</v>
       </c>
       <c r="C104" t="n">
-        <v>0.220641</v>
+        <v>0.220711</v>
       </c>
       <c r="D104" t="n">
-        <v>0.228101</v>
+        <v>0.226321</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.199363</v>
+        <v>0.199327</v>
       </c>
       <c r="C105" t="n">
-        <v>0.219687</v>
+        <v>0.219757</v>
       </c>
       <c r="D105" t="n">
-        <v>0.227268</v>
+        <v>0.225482</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.192014</v>
+        <v>0.192261</v>
       </c>
       <c r="C106" t="n">
-        <v>0.218818</v>
+        <v>0.21888</v>
       </c>
       <c r="D106" t="n">
-        <v>0.226407</v>
+        <v>0.224578</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183767</v>
+        <v>0.184015</v>
       </c>
       <c r="C107" t="n">
-        <v>0.21794</v>
+        <v>0.217978</v>
       </c>
       <c r="D107" t="n">
-        <v>0.22564</v>
+        <v>0.223544</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.174261</v>
+        <v>0.174175</v>
       </c>
       <c r="C108" t="n">
-        <v>0.217112</v>
+        <v>0.217187</v>
       </c>
       <c r="D108" t="n">
-        <v>0.241138</v>
+        <v>0.239249</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.163064</v>
+        <v>0.162725</v>
       </c>
       <c r="C109" t="n">
         <v>0.216347</v>
       </c>
       <c r="D109" t="n">
-        <v>0.238994</v>
+        <v>0.236927</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.249503</v>
+        <v>0.249515</v>
       </c>
       <c r="C110" t="n">
-        <v>0.23294</v>
+        <v>0.233026</v>
       </c>
       <c r="D110" t="n">
-        <v>0.237043</v>
+        <v>0.235003</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.245684</v>
+        <v>0.245762</v>
       </c>
       <c r="C111" t="n">
-        <v>0.230105</v>
+        <v>0.23017</v>
       </c>
       <c r="D111" t="n">
-        <v>0.235456</v>
+        <v>0.23348</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.241213</v>
+        <v>0.241229</v>
       </c>
       <c r="C112" t="n">
-        <v>0.227943</v>
+        <v>0.228028</v>
       </c>
       <c r="D112" t="n">
-        <v>0.234069</v>
+        <v>0.232128</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.236452</v>
+        <v>0.236514</v>
       </c>
       <c r="C113" t="n">
-        <v>0.226335</v>
+        <v>0.226458</v>
       </c>
       <c r="D113" t="n">
-        <v>0.232745</v>
+        <v>0.230821</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.231255</v>
+        <v>0.231294</v>
       </c>
       <c r="C114" t="n">
-        <v>0.224954</v>
+        <v>0.225036</v>
       </c>
       <c r="D114" t="n">
-        <v>0.231516</v>
+        <v>0.229646</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.225576</v>
+        <v>0.22584</v>
       </c>
       <c r="C115" t="n">
-        <v>0.223708</v>
+        <v>0.223835</v>
       </c>
       <c r="D115" t="n">
-        <v>0.230459</v>
+        <v>0.228578</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.21989</v>
+        <v>0.219998</v>
       </c>
       <c r="C116" t="n">
-        <v>0.222927</v>
+        <v>0.222996</v>
       </c>
       <c r="D116" t="n">
-        <v>0.229402</v>
+        <v>0.227541</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.213836</v>
+        <v>0.213833</v>
       </c>
       <c r="C117" t="n">
-        <v>0.222016</v>
+        <v>0.222069</v>
       </c>
       <c r="D117" t="n">
-        <v>0.228872</v>
+        <v>0.227063</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.207391</v>
+        <v>0.207573</v>
       </c>
       <c r="C118" t="n">
-        <v>0.221069</v>
+        <v>0.221055</v>
       </c>
       <c r="D118" t="n">
-        <v>0.228006</v>
+        <v>0.226159</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.200691</v>
+        <v>0.200903</v>
       </c>
       <c r="C119" t="n">
-        <v>0.22019</v>
+        <v>0.220212</v>
       </c>
       <c r="D119" t="n">
-        <v>0.227113</v>
+        <v>0.225392</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.193565</v>
+        <v>0.193535</v>
       </c>
       <c r="C120" t="n">
-        <v>0.21925</v>
+        <v>0.219292</v>
       </c>
       <c r="D120" t="n">
-        <v>0.226219</v>
+        <v>0.224531</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.185365</v>
+        <v>0.185651</v>
       </c>
       <c r="C121" t="n">
-        <v>0.218496</v>
+        <v>0.21845</v>
       </c>
       <c r="D121" t="n">
-        <v>0.225483</v>
+        <v>0.223791</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.175757</v>
+        <v>0.176091</v>
       </c>
       <c r="C122" t="n">
-        <v>0.217598</v>
+        <v>0.217573</v>
       </c>
       <c r="D122" t="n">
-        <v>0.224873</v>
+        <v>0.223067</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.164624</v>
+        <v>0.164817</v>
       </c>
       <c r="C123" t="n">
-        <v>0.216789</v>
+        <v>0.216721</v>
       </c>
       <c r="D123" t="n">
-        <v>0.239002</v>
+        <v>0.23701</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.250044</v>
+        <v>0.25013</v>
       </c>
       <c r="C124" t="n">
-        <v>0.233359</v>
+        <v>0.233442</v>
       </c>
       <c r="D124" t="n">
-        <v>0.237046</v>
+        <v>0.235135</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.246384</v>
+        <v>0.246371</v>
       </c>
       <c r="C125" t="n">
-        <v>0.23038</v>
+        <v>0.230347</v>
       </c>
       <c r="D125" t="n">
-        <v>0.235461</v>
+        <v>0.233448</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.24205</v>
+        <v>0.241966</v>
       </c>
       <c r="C126" t="n">
-        <v>0.228296</v>
+        <v>0.22831</v>
       </c>
       <c r="D126" t="n">
-        <v>0.233953</v>
+        <v>0.232024</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.237208</v>
+        <v>0.23721</v>
       </c>
       <c r="C127" t="n">
-        <v>0.22655</v>
+        <v>0.226557</v>
       </c>
       <c r="D127" t="n">
-        <v>0.23267</v>
+        <v>0.230781</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.232036</v>
+        <v>0.232117</v>
       </c>
       <c r="C128" t="n">
-        <v>0.225173</v>
+        <v>0.225175</v>
       </c>
       <c r="D128" t="n">
-        <v>0.231529</v>
+        <v>0.229635</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.22655</v>
+        <v>0.226628</v>
       </c>
       <c r="C129" t="n">
-        <v>0.223981</v>
+        <v>0.224021</v>
       </c>
       <c r="D129" t="n">
-        <v>0.230419</v>
+        <v>0.228563</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.220946</v>
+        <v>0.220888</v>
       </c>
       <c r="C130" t="n">
-        <v>0.222856</v>
+        <v>0.222881</v>
       </c>
       <c r="D130" t="n">
-        <v>0.229448</v>
+        <v>0.227581</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.214976</v>
+        <v>0.21509</v>
       </c>
       <c r="C131" t="n">
-        <v>0.221878</v>
+        <v>0.221885</v>
       </c>
       <c r="D131" t="n">
-        <v>0.228547</v>
+        <v>0.226721</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.208712</v>
+        <v>0.208939</v>
       </c>
       <c r="C132" t="n">
-        <v>0.220928</v>
+        <v>0.220887</v>
       </c>
       <c r="D132" t="n">
-        <v>0.227581</v>
+        <v>0.225789</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.202073</v>
+        <v>0.202087</v>
       </c>
       <c r="C133" t="n">
-        <v>0.219982</v>
+        <v>0.219981</v>
       </c>
       <c r="D133" t="n">
-        <v>0.226799</v>
+        <v>0.224998</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.195112</v>
+        <v>0.19516</v>
       </c>
       <c r="C134" t="n">
-        <v>0.21911</v>
+        <v>0.219118</v>
       </c>
       <c r="D134" t="n">
-        <v>0.226011</v>
+        <v>0.224244</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.187561</v>
+        <v>0.187581</v>
       </c>
       <c r="C135" t="n">
-        <v>0.218217</v>
+        <v>0.21824</v>
       </c>
       <c r="D135" t="n">
-        <v>0.225232</v>
+        <v>0.223518</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.178313</v>
+        <v>0.178484</v>
       </c>
       <c r="C136" t="n">
-        <v>0.217697</v>
+        <v>0.217502</v>
       </c>
       <c r="D136" t="n">
-        <v>0.224853</v>
+        <v>0.222868</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.167589</v>
+        <v>0.167842</v>
       </c>
       <c r="C137" t="n">
-        <v>0.216865</v>
+        <v>0.21688</v>
       </c>
       <c r="D137" t="n">
-        <v>0.240299</v>
+        <v>0.238416</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.250702</v>
+        <v>0.250745</v>
       </c>
       <c r="C138" t="n">
-        <v>0.234868</v>
+        <v>0.235001</v>
       </c>
       <c r="D138" t="n">
-        <v>0.238209</v>
+        <v>0.236266</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.247203</v>
+        <v>0.247336</v>
       </c>
       <c r="C139" t="n">
-        <v>0.231737</v>
+        <v>0.231797</v>
       </c>
       <c r="D139" t="n">
-        <v>0.236507</v>
+        <v>0.234559</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.243095</v>
+        <v>0.243184</v>
       </c>
       <c r="C140" t="n">
-        <v>0.229195</v>
+        <v>0.22936</v>
       </c>
       <c r="D140" t="n">
-        <v>0.234898</v>
+        <v>0.232947</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.238333</v>
+        <v>0.238484</v>
       </c>
       <c r="C141" t="n">
-        <v>0.227468</v>
+        <v>0.227555</v>
       </c>
       <c r="D141" t="n">
-        <v>0.233486</v>
+        <v>0.231617</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.2334</v>
+        <v>0.233469</v>
       </c>
       <c r="C142" t="n">
-        <v>0.22592</v>
+        <v>0.226011</v>
       </c>
       <c r="D142" t="n">
-        <v>0.232282</v>
+        <v>0.230413</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.227884</v>
+        <v>0.228083</v>
       </c>
       <c r="C143" t="n">
-        <v>0.224647</v>
+        <v>0.224714</v>
       </c>
       <c r="D143" t="n">
-        <v>0.231222</v>
+        <v>0.229292</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.190417</v>
+        <v>0.190002</v>
       </c>
       <c r="C2" t="n">
-        <v>0.206568</v>
+        <v>0.206767</v>
       </c>
       <c r="D2" t="n">
-        <v>0.210298</v>
+        <v>0.214448</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.183216</v>
+        <v>0.183046</v>
       </c>
       <c r="C3" t="n">
-        <v>0.207121</v>
+        <v>0.207175</v>
       </c>
       <c r="D3" t="n">
-        <v>0.210504</v>
+        <v>0.212947</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.179193</v>
+        <v>0.179042</v>
       </c>
       <c r="C4" t="n">
-        <v>0.206185</v>
+        <v>0.205824</v>
       </c>
       <c r="D4" t="n">
-        <v>0.212811</v>
+        <v>0.212877</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.175175</v>
+        <v>0.175882</v>
       </c>
       <c r="C5" t="n">
-        <v>0.20647</v>
+        <v>0.207086</v>
       </c>
       <c r="D5" t="n">
-        <v>0.211862</v>
+        <v>0.213269</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.169982</v>
+        <v>0.170239</v>
       </c>
       <c r="C6" t="n">
-        <v>0.207629</v>
+        <v>0.20691</v>
       </c>
       <c r="D6" t="n">
-        <v>0.212781</v>
+        <v>0.213802</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.163095</v>
+        <v>0.164216</v>
       </c>
       <c r="C7" t="n">
-        <v>0.206203</v>
+        <v>0.206392</v>
       </c>
       <c r="D7" t="n">
-        <v>0.211426</v>
+        <v>0.214206</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.156412</v>
+        <v>0.156824</v>
       </c>
       <c r="C8" t="n">
-        <v>0.206207</v>
+        <v>0.206284</v>
       </c>
       <c r="D8" t="n">
-        <v>0.21307</v>
+        <v>0.213969</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.145131</v>
+        <v>0.145738</v>
       </c>
       <c r="C9" t="n">
-        <v>0.205463</v>
+        <v>0.205561</v>
       </c>
       <c r="D9" t="n">
-        <v>0.227134</v>
+        <v>0.2293</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.229898</v>
+        <v>0.230878</v>
       </c>
       <c r="C10" t="n">
-        <v>0.225488</v>
+        <v>0.22455</v>
       </c>
       <c r="D10" t="n">
-        <v>0.226843</v>
+        <v>0.228774</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.226913</v>
+        <v>0.227704</v>
       </c>
       <c r="C11" t="n">
-        <v>0.22426</v>
+        <v>0.224214</v>
       </c>
       <c r="D11" t="n">
-        <v>0.226347</v>
+        <v>0.2283</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.224726</v>
+        <v>0.224193</v>
       </c>
       <c r="C12" t="n">
-        <v>0.223241</v>
+        <v>0.22362</v>
       </c>
       <c r="D12" t="n">
-        <v>0.225694</v>
+        <v>0.226883</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.222137</v>
+        <v>0.222339</v>
       </c>
       <c r="C13" t="n">
-        <v>0.222061</v>
+        <v>0.221777</v>
       </c>
       <c r="D13" t="n">
-        <v>0.224494</v>
+        <v>0.22545</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.217986</v>
+        <v>0.217417</v>
       </c>
       <c r="C14" t="n">
-        <v>0.220829</v>
+        <v>0.221598</v>
       </c>
       <c r="D14" t="n">
-        <v>0.224649</v>
+        <v>0.22589</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.214884</v>
+        <v>0.214251</v>
       </c>
       <c r="C15" t="n">
-        <v>0.220492</v>
+        <v>0.221013</v>
       </c>
       <c r="D15" t="n">
-        <v>0.223343</v>
+        <v>0.224955</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.209436</v>
+        <v>0.208864</v>
       </c>
       <c r="C16" t="n">
-        <v>0.219609</v>
+        <v>0.220453</v>
       </c>
       <c r="D16" t="n">
-        <v>0.223023</v>
+        <v>0.223839</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.20425</v>
+        <v>0.204594</v>
       </c>
       <c r="C17" t="n">
-        <v>0.218827</v>
+        <v>0.219226</v>
       </c>
       <c r="D17" t="n">
-        <v>0.222898</v>
+        <v>0.223765</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.199071</v>
+        <v>0.19947</v>
       </c>
       <c r="C18" t="n">
-        <v>0.217331</v>
+        <v>0.217841</v>
       </c>
       <c r="D18" t="n">
-        <v>0.222528</v>
+        <v>0.222717</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.194647</v>
+        <v>0.195588</v>
       </c>
       <c r="C19" t="n">
-        <v>0.216629</v>
+        <v>0.216843</v>
       </c>
       <c r="D19" t="n">
-        <v>0.221142</v>
+        <v>0.222279</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.188708</v>
+        <v>0.188688</v>
       </c>
       <c r="C20" t="n">
-        <v>0.216025</v>
+        <v>0.216593</v>
       </c>
       <c r="D20" t="n">
-        <v>0.221148</v>
+        <v>0.222045</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.181399</v>
+        <v>0.181058</v>
       </c>
       <c r="C21" t="n">
-        <v>0.215494</v>
+        <v>0.215932</v>
       </c>
       <c r="D21" t="n">
-        <v>0.220534</v>
+        <v>0.221362</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.173187</v>
+        <v>0.172709</v>
       </c>
       <c r="C22" t="n">
-        <v>0.214673</v>
+        <v>0.215046</v>
       </c>
       <c r="D22" t="n">
-        <v>0.220366</v>
+        <v>0.220642</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.164645</v>
+        <v>0.164776</v>
       </c>
       <c r="C23" t="n">
-        <v>0.213817</v>
+        <v>0.214012</v>
       </c>
       <c r="D23" t="n">
-        <v>0.233504</v>
+        <v>0.235503</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.241924</v>
+        <v>0.242032</v>
       </c>
       <c r="C24" t="n">
-        <v>0.228631</v>
+        <v>0.228782</v>
       </c>
       <c r="D24" t="n">
-        <v>0.232049</v>
+        <v>0.233124</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.238684</v>
+        <v>0.238618</v>
       </c>
       <c r="C25" t="n">
-        <v>0.226668</v>
+        <v>0.227189</v>
       </c>
       <c r="D25" t="n">
-        <v>0.230826</v>
+        <v>0.231704</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.235434</v>
+        <v>0.235726</v>
       </c>
       <c r="C26" t="n">
-        <v>0.225997</v>
+        <v>0.226242</v>
       </c>
       <c r="D26" t="n">
-        <v>0.23008</v>
+        <v>0.230776</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.231443</v>
+        <v>0.231954</v>
       </c>
       <c r="C27" t="n">
-        <v>0.225289</v>
+        <v>0.225479</v>
       </c>
       <c r="D27" t="n">
-        <v>0.228936</v>
+        <v>0.23001</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.227129</v>
+        <v>0.22757</v>
       </c>
       <c r="C28" t="n">
-        <v>0.224345</v>
+        <v>0.224719</v>
       </c>
       <c r="D28" t="n">
-        <v>0.228342</v>
+        <v>0.229069</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.222486</v>
+        <v>0.222944</v>
       </c>
       <c r="C29" t="n">
-        <v>0.222725</v>
+        <v>0.223062</v>
       </c>
       <c r="D29" t="n">
-        <v>0.227132</v>
+        <v>0.22788</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.217195</v>
+        <v>0.217626</v>
       </c>
       <c r="C30" t="n">
-        <v>0.221554</v>
+        <v>0.221835</v>
       </c>
       <c r="D30" t="n">
-        <v>0.226519</v>
+        <v>0.227106</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.212274</v>
+        <v>0.212415</v>
       </c>
       <c r="C31" t="n">
-        <v>0.220452</v>
+        <v>0.220611</v>
       </c>
       <c r="D31" t="n">
-        <v>0.225462</v>
+        <v>0.226143</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.207454</v>
+        <v>0.207805</v>
       </c>
       <c r="C32" t="n">
-        <v>0.219601</v>
+        <v>0.219782</v>
       </c>
       <c r="D32" t="n">
-        <v>0.225124</v>
+        <v>0.225344</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.200628</v>
+        <v>0.203233</v>
       </c>
       <c r="C33" t="n">
-        <v>0.218819</v>
+        <v>0.219067</v>
       </c>
       <c r="D33" t="n">
-        <v>0.224138</v>
+        <v>0.224588</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.195621</v>
+        <v>0.194831</v>
       </c>
       <c r="C34" t="n">
-        <v>0.218222</v>
+        <v>0.218733</v>
       </c>
       <c r="D34" t="n">
-        <v>0.223528</v>
+        <v>0.223966</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.186418</v>
+        <v>0.186536</v>
       </c>
       <c r="C35" t="n">
-        <v>0.217185</v>
+        <v>0.217535</v>
       </c>
       <c r="D35" t="n">
-        <v>0.222841</v>
+        <v>0.223061</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.179912</v>
+        <v>0.180632</v>
       </c>
       <c r="C36" t="n">
-        <v>0.216459</v>
+        <v>0.216691</v>
       </c>
       <c r="D36" t="n">
-        <v>0.222168</v>
+        <v>0.222457</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.168916</v>
+        <v>0.170441</v>
       </c>
       <c r="C37" t="n">
-        <v>0.215731</v>
+        <v>0.216344</v>
       </c>
       <c r="D37" t="n">
-        <v>0.235642</v>
+        <v>0.236245</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.248568</v>
+        <v>0.248748</v>
       </c>
       <c r="C38" t="n">
-        <v>0.229805</v>
+        <v>0.230031</v>
       </c>
       <c r="D38" t="n">
-        <v>0.23371</v>
+        <v>0.234452</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.244999</v>
+        <v>0.245772</v>
       </c>
       <c r="C39" t="n">
-        <v>0.22829</v>
+        <v>0.228487</v>
       </c>
       <c r="D39" t="n">
-        <v>0.232538</v>
+        <v>0.233351</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.241181</v>
+        <v>0.241889</v>
       </c>
       <c r="C40" t="n">
-        <v>0.226724</v>
+        <v>0.227071</v>
       </c>
       <c r="D40" t="n">
-        <v>0.231653</v>
+        <v>0.232159</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.236904</v>
+        <v>0.237352</v>
       </c>
       <c r="C41" t="n">
-        <v>0.225798</v>
+        <v>0.225978</v>
       </c>
       <c r="D41" t="n">
-        <v>0.230597</v>
+        <v>0.230759</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.232556</v>
+        <v>0.232448</v>
       </c>
       <c r="C42" t="n">
-        <v>0.224505</v>
+        <v>0.224651</v>
       </c>
       <c r="D42" t="n">
-        <v>0.229301</v>
+        <v>0.22991</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.227575</v>
+        <v>0.227605</v>
       </c>
       <c r="C43" t="n">
-        <v>0.223465</v>
+        <v>0.223675</v>
       </c>
       <c r="D43" t="n">
-        <v>0.22806</v>
+        <v>0.228587</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.222144</v>
+        <v>0.221968</v>
       </c>
       <c r="C44" t="n">
-        <v>0.222429</v>
+        <v>0.222536</v>
       </c>
       <c r="D44" t="n">
-        <v>0.227309</v>
+        <v>0.227619</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.216802</v>
+        <v>0.216459</v>
       </c>
       <c r="C45" t="n">
-        <v>0.22123</v>
+        <v>0.221507</v>
       </c>
       <c r="D45" t="n">
-        <v>0.226517</v>
+        <v>0.226656</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.211432</v>
+        <v>0.21137</v>
       </c>
       <c r="C46" t="n">
-        <v>0.220327</v>
+        <v>0.220739</v>
       </c>
       <c r="D46" t="n">
-        <v>0.225565</v>
+        <v>0.225783</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.204727</v>
+        <v>0.204476</v>
       </c>
       <c r="C47" t="n">
-        <v>0.219702</v>
+        <v>0.220107</v>
       </c>
       <c r="D47" t="n">
-        <v>0.224714</v>
+        <v>0.224699</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.198384</v>
+        <v>0.198217</v>
       </c>
       <c r="C48" t="n">
-        <v>0.218999</v>
+        <v>0.219247</v>
       </c>
       <c r="D48" t="n">
-        <v>0.223991</v>
+        <v>0.223961</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.190578</v>
+        <v>0.190655</v>
       </c>
       <c r="C49" t="n">
-        <v>0.217933</v>
+        <v>0.218206</v>
       </c>
       <c r="D49" t="n">
-        <v>0.223288</v>
+        <v>0.22331</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.182299</v>
+        <v>0.182255</v>
       </c>
       <c r="C50" t="n">
-        <v>0.217564</v>
+        <v>0.217468</v>
       </c>
       <c r="D50" t="n">
-        <v>0.222657</v>
+        <v>0.222468</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.1739</v>
+        <v>0.174713</v>
       </c>
       <c r="C51" t="n">
-        <v>0.216527</v>
+        <v>0.216359</v>
       </c>
       <c r="D51" t="n">
-        <v>0.236286</v>
+        <v>0.236809</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.162824</v>
+        <v>0.161468</v>
       </c>
       <c r="C52" t="n">
-        <v>0.215681</v>
+        <v>0.215777</v>
       </c>
       <c r="D52" t="n">
-        <v>0.235078</v>
+        <v>0.235486</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.247724</v>
+        <v>0.247606</v>
       </c>
       <c r="C53" t="n">
-        <v>0.228974</v>
+        <v>0.229247</v>
       </c>
       <c r="D53" t="n">
-        <v>0.233567</v>
+        <v>0.234264</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.243872</v>
+        <v>0.243599</v>
       </c>
       <c r="C54" t="n">
-        <v>0.227625</v>
+        <v>0.227865</v>
       </c>
       <c r="D54" t="n">
-        <v>0.232278</v>
+        <v>0.232999</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.23971</v>
+        <v>0.239635</v>
       </c>
       <c r="C55" t="n">
-        <v>0.226618</v>
+        <v>0.226636</v>
       </c>
       <c r="D55" t="n">
-        <v>0.231094</v>
+        <v>0.231589</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.23499</v>
+        <v>0.235242</v>
       </c>
       <c r="C56" t="n">
-        <v>0.225476</v>
+        <v>0.22557</v>
       </c>
       <c r="D56" t="n">
-        <v>0.230083</v>
+        <v>0.230497</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.230274</v>
+        <v>0.230421</v>
       </c>
       <c r="C57" t="n">
-        <v>0.224444</v>
+        <v>0.224577</v>
       </c>
       <c r="D57" t="n">
-        <v>0.229164</v>
+        <v>0.229487</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.224801</v>
+        <v>0.224727</v>
       </c>
       <c r="C58" t="n">
-        <v>0.223318</v>
+        <v>0.223474</v>
       </c>
       <c r="D58" t="n">
-        <v>0.228114</v>
+        <v>0.228388</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.219182</v>
+        <v>0.219436</v>
       </c>
       <c r="C59" t="n">
-        <v>0.222063</v>
+        <v>0.222264</v>
       </c>
       <c r="D59" t="n">
-        <v>0.227097</v>
+        <v>0.227379</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.213081</v>
+        <v>0.213414</v>
       </c>
       <c r="C60" t="n">
-        <v>0.221088</v>
+        <v>0.221224</v>
       </c>
       <c r="D60" t="n">
-        <v>0.22603</v>
+        <v>0.226322</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.206615</v>
+        <v>0.206927</v>
       </c>
       <c r="C61" t="n">
-        <v>0.220235</v>
+        <v>0.220385</v>
       </c>
       <c r="D61" t="n">
-        <v>0.22535</v>
+        <v>0.225432</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.200197</v>
+        <v>0.200456</v>
       </c>
       <c r="C62" t="n">
-        <v>0.219218</v>
+        <v>0.219292</v>
       </c>
       <c r="D62" t="n">
-        <v>0.224299</v>
+        <v>0.224575</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.192916</v>
+        <v>0.193268</v>
       </c>
       <c r="C63" t="n">
-        <v>0.218396</v>
+        <v>0.218639</v>
       </c>
       <c r="D63" t="n">
-        <v>0.22363</v>
+        <v>0.223823</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.18481</v>
+        <v>0.185069</v>
       </c>
       <c r="C64" t="n">
-        <v>0.217663</v>
+        <v>0.217719</v>
       </c>
       <c r="D64" t="n">
-        <v>0.222908</v>
+        <v>0.22297</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177717</v>
+        <v>0.177176</v>
       </c>
       <c r="C65" t="n">
-        <v>0.216775</v>
+        <v>0.216926</v>
       </c>
       <c r="D65" t="n">
-        <v>0.222086</v>
+        <v>0.222161</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.165822</v>
+        <v>0.166596</v>
       </c>
       <c r="C66" t="n">
-        <v>0.215991</v>
+        <v>0.216174</v>
       </c>
       <c r="D66" t="n">
-        <v>0.236023</v>
+        <v>0.236548</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.250735</v>
+        <v>0.250903</v>
       </c>
       <c r="C67" t="n">
-        <v>0.231682</v>
+        <v>0.231428</v>
       </c>
       <c r="D67" t="n">
-        <v>0.234362</v>
+        <v>0.234943</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.246841</v>
+        <v>0.246429</v>
       </c>
       <c r="C68" t="n">
-        <v>0.230069</v>
+        <v>0.230009</v>
       </c>
       <c r="D68" t="n">
-        <v>0.233146</v>
+        <v>0.233697</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.242664</v>
+        <v>0.24229</v>
       </c>
       <c r="C69" t="n">
-        <v>0.228365</v>
+        <v>0.22824</v>
       </c>
       <c r="D69" t="n">
-        <v>0.231944</v>
+        <v>0.232381</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.238053</v>
+        <v>0.237858</v>
       </c>
       <c r="C70" t="n">
-        <v>0.226922</v>
+        <v>0.226908</v>
       </c>
       <c r="D70" t="n">
-        <v>0.230632</v>
+        <v>0.23116</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.232739</v>
+        <v>0.232811</v>
       </c>
       <c r="C71" t="n">
-        <v>0.225473</v>
+        <v>0.225643</v>
       </c>
       <c r="D71" t="n">
-        <v>0.229711</v>
+        <v>0.230072</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.227502</v>
+        <v>0.227488</v>
       </c>
       <c r="C72" t="n">
-        <v>0.224134</v>
+        <v>0.224335</v>
       </c>
       <c r="D72" t="n">
-        <v>0.228539</v>
+        <v>0.228895</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.221969</v>
+        <v>0.222068</v>
       </c>
       <c r="C73" t="n">
-        <v>0.222969</v>
+        <v>0.223684</v>
       </c>
       <c r="D73" t="n">
-        <v>0.227564</v>
+        <v>0.227865</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.215533</v>
+        <v>0.215841</v>
       </c>
       <c r="C74" t="n">
-        <v>0.221852</v>
+        <v>0.222108</v>
       </c>
       <c r="D74" t="n">
-        <v>0.226651</v>
+        <v>0.226964</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.209379</v>
+        <v>0.209874</v>
       </c>
       <c r="C75" t="n">
-        <v>0.221027</v>
+        <v>0.221156</v>
       </c>
       <c r="D75" t="n">
-        <v>0.225792</v>
+        <v>0.22602</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.202751</v>
+        <v>0.203217</v>
       </c>
       <c r="C76" t="n">
-        <v>0.220067</v>
+        <v>0.220279</v>
       </c>
       <c r="D76" t="n">
-        <v>0.224926</v>
+        <v>0.225115</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.196261</v>
+        <v>0.19647</v>
       </c>
       <c r="C77" t="n">
-        <v>0.21909</v>
+        <v>0.219307</v>
       </c>
       <c r="D77" t="n">
-        <v>0.224166</v>
+        <v>0.224303</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.187589</v>
+        <v>0.188492</v>
       </c>
       <c r="C78" t="n">
-        <v>0.21829</v>
+        <v>0.218496</v>
       </c>
       <c r="D78" t="n">
-        <v>0.223388</v>
+        <v>0.223417</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.180279</v>
+        <v>0.179795</v>
       </c>
       <c r="C79" t="n">
-        <v>0.217407</v>
+        <v>0.217485</v>
       </c>
       <c r="D79" t="n">
-        <v>0.222772</v>
+        <v>0.222764</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.170469</v>
+        <v>0.16973</v>
       </c>
       <c r="C80" t="n">
-        <v>0.216368</v>
+        <v>0.216537</v>
       </c>
       <c r="D80" t="n">
-        <v>0.238562</v>
+        <v>0.238813</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.251084</v>
+        <v>0.251202</v>
       </c>
       <c r="C81" t="n">
-        <v>0.238346</v>
+        <v>0.2388</v>
       </c>
       <c r="D81" t="n">
-        <v>0.235948</v>
+        <v>0.236724</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.247355</v>
+        <v>0.247583</v>
       </c>
       <c r="C82" t="n">
-        <v>0.233451</v>
+        <v>0.232821</v>
       </c>
       <c r="D82" t="n">
-        <v>0.234295</v>
+        <v>0.234761</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.243319</v>
+        <v>0.243569</v>
       </c>
       <c r="C83" t="n">
-        <v>0.229505</v>
+        <v>0.229797</v>
       </c>
       <c r="D83" t="n">
-        <v>0.232994</v>
+        <v>0.233067</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.239069</v>
+        <v>0.238962</v>
       </c>
       <c r="C84" t="n">
-        <v>0.227614</v>
+        <v>0.227693</v>
       </c>
       <c r="D84" t="n">
-        <v>0.231703</v>
+        <v>0.231882</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.233979</v>
+        <v>0.233759</v>
       </c>
       <c r="C85" t="n">
-        <v>0.225758</v>
+        <v>0.22587</v>
       </c>
       <c r="D85" t="n">
-        <v>0.230467</v>
+        <v>0.230651</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.228684</v>
+        <v>0.228704</v>
       </c>
       <c r="C86" t="n">
-        <v>0.22446</v>
+        <v>0.224685</v>
       </c>
       <c r="D86" t="n">
-        <v>0.229259</v>
+        <v>0.229441</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.223184</v>
+        <v>0.223243</v>
       </c>
       <c r="C87" t="n">
-        <v>0.223344</v>
+        <v>0.223504</v>
       </c>
       <c r="D87" t="n">
-        <v>0.228068</v>
+        <v>0.228292</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.217262</v>
+        <v>0.217269</v>
       </c>
       <c r="C88" t="n">
-        <v>0.222378</v>
+        <v>0.222596</v>
       </c>
       <c r="D88" t="n">
-        <v>0.227112</v>
+        <v>0.227204</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.211346</v>
+        <v>0.211141</v>
       </c>
       <c r="C89" t="n">
-        <v>0.221334</v>
+        <v>0.221306</v>
       </c>
       <c r="D89" t="n">
-        <v>0.226139</v>
+        <v>0.226258</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.204917</v>
+        <v>0.204588</v>
       </c>
       <c r="C90" t="n">
-        <v>0.220357</v>
+        <v>0.220387</v>
       </c>
       <c r="D90" t="n">
-        <v>0.225311</v>
+        <v>0.225431</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.197959</v>
+        <v>0.197921</v>
       </c>
       <c r="C91" t="n">
-        <v>0.219377</v>
+        <v>0.219503</v>
       </c>
       <c r="D91" t="n">
-        <v>0.224438</v>
+        <v>0.224543</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190856</v>
+        <v>0.190565</v>
       </c>
       <c r="C92" t="n">
-        <v>0.218535</v>
+        <v>0.218561</v>
       </c>
       <c r="D92" t="n">
-        <v>0.223669</v>
+        <v>0.223763</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.181758</v>
+        <v>0.182011</v>
       </c>
       <c r="C93" t="n">
-        <v>0.217662</v>
+        <v>0.21779</v>
       </c>
       <c r="D93" t="n">
-        <v>0.223001</v>
+        <v>0.223008</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.171847</v>
+        <v>0.172104</v>
       </c>
       <c r="C94" t="n">
-        <v>0.216903</v>
+        <v>0.217047</v>
       </c>
       <c r="D94" t="n">
-        <v>0.239794</v>
+        <v>0.239724</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.251374</v>
+        <v>0.251529</v>
       </c>
       <c r="C95" t="n">
-        <v>0.236618</v>
+        <v>0.23634</v>
       </c>
       <c r="D95" t="n">
-        <v>0.237052</v>
+        <v>0.237243</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.247961</v>
+        <v>0.248151</v>
       </c>
       <c r="C96" t="n">
-        <v>0.232712</v>
+        <v>0.232758</v>
       </c>
       <c r="D96" t="n">
-        <v>0.235119</v>
+        <v>0.235393</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.244079</v>
+        <v>0.244217</v>
       </c>
       <c r="C97" t="n">
-        <v>0.230143</v>
+        <v>0.229847</v>
       </c>
       <c r="D97" t="n">
-        <v>0.233905</v>
+        <v>0.234252</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.239792</v>
+        <v>0.2398</v>
       </c>
       <c r="C98" t="n">
-        <v>0.227955</v>
+        <v>0.227873</v>
       </c>
       <c r="D98" t="n">
-        <v>0.23257</v>
+        <v>0.2327</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.234912</v>
+        <v>0.234995</v>
       </c>
       <c r="C99" t="n">
-        <v>0.226329</v>
+        <v>0.22626</v>
       </c>
       <c r="D99" t="n">
-        <v>0.231357</v>
+        <v>0.231442</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.229819</v>
+        <v>0.229841</v>
       </c>
       <c r="C100" t="n">
-        <v>0.225069</v>
+        <v>0.225017</v>
       </c>
       <c r="D100" t="n">
-        <v>0.229863</v>
+        <v>0.23036</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.224358</v>
+        <v>0.224234</v>
       </c>
       <c r="C101" t="n">
-        <v>0.223891</v>
+        <v>0.223775</v>
       </c>
       <c r="D101" t="n">
-        <v>0.228797</v>
+        <v>0.228816</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.218555</v>
+        <v>0.218535</v>
       </c>
       <c r="C102" t="n">
-        <v>0.222756</v>
+        <v>0.222639</v>
       </c>
       <c r="D102" t="n">
-        <v>0.227771</v>
+        <v>0.227739</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.21243</v>
+        <v>0.212443</v>
       </c>
       <c r="C103" t="n">
-        <v>0.221652</v>
+        <v>0.221468</v>
       </c>
       <c r="D103" t="n">
-        <v>0.226887</v>
+        <v>0.226722</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.20613</v>
+        <v>0.206082</v>
       </c>
       <c r="C104" t="n">
-        <v>0.220711</v>
+        <v>0.220582</v>
       </c>
       <c r="D104" t="n">
-        <v>0.226321</v>
+        <v>0.226216</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.199327</v>
+        <v>0.199109</v>
       </c>
       <c r="C105" t="n">
-        <v>0.219757</v>
+        <v>0.219588</v>
       </c>
       <c r="D105" t="n">
-        <v>0.225482</v>
+        <v>0.225185</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.192261</v>
+        <v>0.191995</v>
       </c>
       <c r="C106" t="n">
-        <v>0.21888</v>
+        <v>0.218713</v>
       </c>
       <c r="D106" t="n">
-        <v>0.224578</v>
+        <v>0.224326</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.184015</v>
+        <v>0.183706</v>
       </c>
       <c r="C107" t="n">
-        <v>0.217978</v>
+        <v>0.217886</v>
       </c>
       <c r="D107" t="n">
-        <v>0.223544</v>
+        <v>0.223667</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.174175</v>
+        <v>0.174275</v>
       </c>
       <c r="C108" t="n">
-        <v>0.217187</v>
+        <v>0.217106</v>
       </c>
       <c r="D108" t="n">
-        <v>0.239249</v>
+        <v>0.239267</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.162725</v>
+        <v>0.162764</v>
       </c>
       <c r="C109" t="n">
-        <v>0.216347</v>
+        <v>0.216265</v>
       </c>
       <c r="D109" t="n">
-        <v>0.236927</v>
+        <v>0.237056</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.249515</v>
+        <v>0.249446</v>
       </c>
       <c r="C110" t="n">
-        <v>0.233026</v>
+        <v>0.233066</v>
       </c>
       <c r="D110" t="n">
-        <v>0.235003</v>
+        <v>0.235145</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.245762</v>
+        <v>0.245577</v>
       </c>
       <c r="C111" t="n">
-        <v>0.23017</v>
+        <v>0.230074</v>
       </c>
       <c r="D111" t="n">
-        <v>0.23348</v>
+        <v>0.23355</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.241229</v>
+        <v>0.241118</v>
       </c>
       <c r="C112" t="n">
-        <v>0.228028</v>
+        <v>0.227968</v>
       </c>
       <c r="D112" t="n">
-        <v>0.232128</v>
+        <v>0.232096</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.236514</v>
+        <v>0.236384</v>
       </c>
       <c r="C113" t="n">
-        <v>0.226458</v>
+        <v>0.226313</v>
       </c>
       <c r="D113" t="n">
-        <v>0.230821</v>
+        <v>0.230818</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.231294</v>
+        <v>0.231187</v>
       </c>
       <c r="C114" t="n">
-        <v>0.225036</v>
+        <v>0.224921</v>
       </c>
       <c r="D114" t="n">
-        <v>0.229646</v>
+        <v>0.229584</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.22584</v>
+        <v>0.22559</v>
       </c>
       <c r="C115" t="n">
-        <v>0.223835</v>
+        <v>0.223654</v>
       </c>
       <c r="D115" t="n">
-        <v>0.228578</v>
+        <v>0.228483</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.219998</v>
+        <v>0.219722</v>
       </c>
       <c r="C116" t="n">
-        <v>0.222996</v>
+        <v>0.22294</v>
       </c>
       <c r="D116" t="n">
-        <v>0.227541</v>
+        <v>0.22751</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.213833</v>
+        <v>0.213851</v>
       </c>
       <c r="C117" t="n">
-        <v>0.222069</v>
+        <v>0.222013</v>
       </c>
       <c r="D117" t="n">
-        <v>0.227063</v>
+        <v>0.226902</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.207573</v>
+        <v>0.207522</v>
       </c>
       <c r="C118" t="n">
-        <v>0.221055</v>
+        <v>0.221028</v>
       </c>
       <c r="D118" t="n">
-        <v>0.226159</v>
+        <v>0.226035</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.200903</v>
+        <v>0.200847</v>
       </c>
       <c r="C119" t="n">
-        <v>0.220212</v>
+        <v>0.220153</v>
       </c>
       <c r="D119" t="n">
-        <v>0.225392</v>
+        <v>0.22517</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.193535</v>
+        <v>0.193419</v>
       </c>
       <c r="C120" t="n">
-        <v>0.219292</v>
+        <v>0.219207</v>
       </c>
       <c r="D120" t="n">
-        <v>0.224531</v>
+        <v>0.224317</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.185651</v>
+        <v>0.185447</v>
       </c>
       <c r="C121" t="n">
-        <v>0.21845</v>
+        <v>0.218415</v>
       </c>
       <c r="D121" t="n">
-        <v>0.223791</v>
+        <v>0.223729</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.176091</v>
+        <v>0.175837</v>
       </c>
       <c r="C122" t="n">
-        <v>0.217573</v>
+        <v>0.217559</v>
       </c>
       <c r="D122" t="n">
-        <v>0.223067</v>
+        <v>0.2229</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.164817</v>
+        <v>0.164792</v>
       </c>
       <c r="C123" t="n">
-        <v>0.216721</v>
+        <v>0.216752</v>
       </c>
       <c r="D123" t="n">
-        <v>0.23701</v>
+        <v>0.237256</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.25013</v>
+        <v>0.25004</v>
       </c>
       <c r="C124" t="n">
-        <v>0.233442</v>
+        <v>0.233633</v>
       </c>
       <c r="D124" t="n">
-        <v>0.235135</v>
+        <v>0.235329</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.246371</v>
+        <v>0.247682</v>
       </c>
       <c r="C125" t="n">
-        <v>0.230347</v>
+        <v>0.230454</v>
       </c>
       <c r="D125" t="n">
-        <v>0.233448</v>
+        <v>0.233656</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.241966</v>
+        <v>0.241967</v>
       </c>
       <c r="C126" t="n">
-        <v>0.22831</v>
+        <v>0.228378</v>
       </c>
       <c r="D126" t="n">
-        <v>0.232024</v>
+        <v>0.232206</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.23721</v>
+        <v>0.238706</v>
       </c>
       <c r="C127" t="n">
-        <v>0.226557</v>
+        <v>0.226594</v>
       </c>
       <c r="D127" t="n">
-        <v>0.230781</v>
+        <v>0.23087</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.232117</v>
+        <v>0.233607</v>
       </c>
       <c r="C128" t="n">
-        <v>0.225175</v>
+        <v>0.225205</v>
       </c>
       <c r="D128" t="n">
-        <v>0.229635</v>
+        <v>0.229723</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.226628</v>
+        <v>0.228135</v>
       </c>
       <c r="C129" t="n">
-        <v>0.224021</v>
+        <v>0.224015</v>
       </c>
       <c r="D129" t="n">
-        <v>0.228563</v>
+        <v>0.228591</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.220888</v>
+        <v>0.222515</v>
       </c>
       <c r="C130" t="n">
-        <v>0.222881</v>
+        <v>0.222907</v>
       </c>
       <c r="D130" t="n">
-        <v>0.227581</v>
+        <v>0.227555</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.21509</v>
+        <v>0.21665</v>
       </c>
       <c r="C131" t="n">
-        <v>0.221885</v>
+        <v>0.22187</v>
       </c>
       <c r="D131" t="n">
-        <v>0.226721</v>
+        <v>0.226574</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.208939</v>
+        <v>0.210542</v>
       </c>
       <c r="C132" t="n">
-        <v>0.220887</v>
+        <v>0.220896</v>
       </c>
       <c r="D132" t="n">
-        <v>0.225789</v>
+        <v>0.225664</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.202087</v>
+        <v>0.203951</v>
       </c>
       <c r="C133" t="n">
-        <v>0.219981</v>
+        <v>0.219937</v>
       </c>
       <c r="D133" t="n">
-        <v>0.224998</v>
+        <v>0.224819</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.19516</v>
+        <v>0.195671</v>
       </c>
       <c r="C134" t="n">
-        <v>0.219118</v>
+        <v>0.219034</v>
       </c>
       <c r="D134" t="n">
-        <v>0.224244</v>
+        <v>0.224061</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.187581</v>
+        <v>0.187516</v>
       </c>
       <c r="C135" t="n">
-        <v>0.21824</v>
+        <v>0.218229</v>
       </c>
       <c r="D135" t="n">
-        <v>0.223518</v>
+        <v>0.223289</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.178484</v>
+        <v>0.178199</v>
       </c>
       <c r="C136" t="n">
-        <v>0.217502</v>
+        <v>0.217682</v>
       </c>
       <c r="D136" t="n">
-        <v>0.222868</v>
+        <v>0.222745</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.167842</v>
+        <v>0.167882</v>
       </c>
       <c r="C137" t="n">
-        <v>0.21688</v>
+        <v>0.216954</v>
       </c>
       <c r="D137" t="n">
-        <v>0.238416</v>
+        <v>0.238547</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.250745</v>
+        <v>0.250695</v>
       </c>
       <c r="C138" t="n">
-        <v>0.235001</v>
+        <v>0.23499</v>
       </c>
       <c r="D138" t="n">
-        <v>0.236266</v>
+        <v>0.236388</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.247336</v>
+        <v>0.247211</v>
       </c>
       <c r="C139" t="n">
-        <v>0.231797</v>
+        <v>0.231733</v>
       </c>
       <c r="D139" t="n">
-        <v>0.234559</v>
+        <v>0.234646</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.243184</v>
+        <v>0.243067</v>
       </c>
       <c r="C140" t="n">
-        <v>0.22936</v>
+        <v>0.229263</v>
       </c>
       <c r="D140" t="n">
-        <v>0.232947</v>
+        <v>0.233032</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.238484</v>
+        <v>0.238358</v>
       </c>
       <c r="C141" t="n">
-        <v>0.227555</v>
+        <v>0.227445</v>
       </c>
       <c r="D141" t="n">
-        <v>0.231617</v>
+        <v>0.231623</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.233469</v>
+        <v>0.23336</v>
       </c>
       <c r="C142" t="n">
-        <v>0.226011</v>
+        <v>0.225919</v>
       </c>
       <c r="D142" t="n">
-        <v>0.230413</v>
+        <v>0.230407</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.228083</v>
+        <v>0.227903</v>
       </c>
       <c r="C143" t="n">
-        <v>0.224714</v>
+        <v>0.22466</v>
       </c>
       <c r="D143" t="n">
-        <v>0.229292</v>
+        <v>0.229256</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.190002</v>
+        <v>0.189053</v>
       </c>
       <c r="C2" t="n">
-        <v>0.206767</v>
+        <v>0.206171</v>
       </c>
       <c r="D2" t="n">
-        <v>0.214448</v>
+        <v>0.214094</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.183046</v>
+        <v>0.183321</v>
       </c>
       <c r="C3" t="n">
-        <v>0.207175</v>
+        <v>0.206525</v>
       </c>
       <c r="D3" t="n">
-        <v>0.212947</v>
+        <v>0.212126</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.179042</v>
+        <v>0.178587</v>
       </c>
       <c r="C4" t="n">
-        <v>0.205824</v>
+        <v>0.206519</v>
       </c>
       <c r="D4" t="n">
-        <v>0.212877</v>
+        <v>0.212225</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.175882</v>
+        <v>0.176771</v>
       </c>
       <c r="C5" t="n">
-        <v>0.207086</v>
+        <v>0.20662</v>
       </c>
       <c r="D5" t="n">
-        <v>0.213269</v>
+        <v>0.213542</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.170239</v>
+        <v>0.170359</v>
       </c>
       <c r="C6" t="n">
-        <v>0.20691</v>
+        <v>0.206315</v>
       </c>
       <c r="D6" t="n">
-        <v>0.213802</v>
+        <v>0.214231</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.164216</v>
+        <v>0.163721</v>
       </c>
       <c r="C7" t="n">
-        <v>0.206392</v>
+        <v>0.206545</v>
       </c>
       <c r="D7" t="n">
-        <v>0.214206</v>
+        <v>0.214422</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.156824</v>
+        <v>0.156918</v>
       </c>
       <c r="C8" t="n">
-        <v>0.206284</v>
+        <v>0.206301</v>
       </c>
       <c r="D8" t="n">
-        <v>0.213969</v>
+        <v>0.214332</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.145738</v>
+        <v>0.145658</v>
       </c>
       <c r="C9" t="n">
-        <v>0.205561</v>
+        <v>0.204822</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2293</v>
+        <v>0.22896</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.230878</v>
+        <v>0.231058</v>
       </c>
       <c r="C10" t="n">
-        <v>0.22455</v>
+        <v>0.227181</v>
       </c>
       <c r="D10" t="n">
-        <v>0.228774</v>
+        <v>0.229021</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.227704</v>
+        <v>0.227399</v>
       </c>
       <c r="C11" t="n">
-        <v>0.224214</v>
+        <v>0.224452</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2283</v>
+        <v>0.228334</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.224193</v>
+        <v>0.225279</v>
       </c>
       <c r="C12" t="n">
-        <v>0.22362</v>
+        <v>0.223649</v>
       </c>
       <c r="D12" t="n">
-        <v>0.226883</v>
+        <v>0.226873</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.222339</v>
+        <v>0.222498</v>
       </c>
       <c r="C13" t="n">
-        <v>0.221777</v>
+        <v>0.221754</v>
       </c>
       <c r="D13" t="n">
-        <v>0.22545</v>
+        <v>0.225314</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.217417</v>
+        <v>0.218889</v>
       </c>
       <c r="C14" t="n">
-        <v>0.221598</v>
+        <v>0.220859</v>
       </c>
       <c r="D14" t="n">
-        <v>0.22589</v>
+        <v>0.225806</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.214251</v>
+        <v>0.21454</v>
       </c>
       <c r="C15" t="n">
-        <v>0.221013</v>
+        <v>0.220332</v>
       </c>
       <c r="D15" t="n">
-        <v>0.224955</v>
+        <v>0.224827</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.208864</v>
+        <v>0.210059</v>
       </c>
       <c r="C16" t="n">
-        <v>0.220453</v>
+        <v>0.219967</v>
       </c>
       <c r="D16" t="n">
-        <v>0.223839</v>
+        <v>0.223935</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.204594</v>
+        <v>0.204853</v>
       </c>
       <c r="C17" t="n">
-        <v>0.219226</v>
+        <v>0.218672</v>
       </c>
       <c r="D17" t="n">
-        <v>0.223765</v>
+        <v>0.223618</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.19947</v>
+        <v>0.200314</v>
       </c>
       <c r="C18" t="n">
-        <v>0.217841</v>
+        <v>0.217604</v>
       </c>
       <c r="D18" t="n">
-        <v>0.222717</v>
+        <v>0.222725</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.195588</v>
+        <v>0.195436</v>
       </c>
       <c r="C19" t="n">
-        <v>0.216843</v>
+        <v>0.216645</v>
       </c>
       <c r="D19" t="n">
-        <v>0.222279</v>
+        <v>0.222302</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.188688</v>
+        <v>0.189327</v>
       </c>
       <c r="C20" t="n">
-        <v>0.216593</v>
+        <v>0.216423</v>
       </c>
       <c r="D20" t="n">
-        <v>0.222045</v>
+        <v>0.221892</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.181058</v>
+        <v>0.181166</v>
       </c>
       <c r="C21" t="n">
-        <v>0.215932</v>
+        <v>0.215885</v>
       </c>
       <c r="D21" t="n">
-        <v>0.221362</v>
+        <v>0.221356</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.172709</v>
+        <v>0.173177</v>
       </c>
       <c r="C22" t="n">
         <v>0.215046</v>
       </c>
       <c r="D22" t="n">
-        <v>0.220642</v>
+        <v>0.22047</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.164776</v>
+        <v>0.16371</v>
       </c>
       <c r="C23" t="n">
-        <v>0.214012</v>
+        <v>0.214027</v>
       </c>
       <c r="D23" t="n">
-        <v>0.235503</v>
+        <v>0.235185</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.242032</v>
+        <v>0.242842</v>
       </c>
       <c r="C24" t="n">
-        <v>0.228782</v>
+        <v>0.228178</v>
       </c>
       <c r="D24" t="n">
-        <v>0.233124</v>
+        <v>0.233093</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.238618</v>
+        <v>0.239486</v>
       </c>
       <c r="C25" t="n">
-        <v>0.227189</v>
+        <v>0.226547</v>
       </c>
       <c r="D25" t="n">
-        <v>0.231704</v>
+        <v>0.231595</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.235726</v>
+        <v>0.235727</v>
       </c>
       <c r="C26" t="n">
-        <v>0.226242</v>
+        <v>0.225859</v>
       </c>
       <c r="D26" t="n">
-        <v>0.230776</v>
+        <v>0.230609</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.231954</v>
+        <v>0.231821</v>
       </c>
       <c r="C27" t="n">
-        <v>0.225479</v>
+        <v>0.224804</v>
       </c>
       <c r="D27" t="n">
-        <v>0.23001</v>
+        <v>0.229855</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.22757</v>
+        <v>0.226928</v>
       </c>
       <c r="C28" t="n">
-        <v>0.224719</v>
+        <v>0.223677</v>
       </c>
       <c r="D28" t="n">
-        <v>0.229069</v>
+        <v>0.228845</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.222944</v>
+        <v>0.222444</v>
       </c>
       <c r="C29" t="n">
-        <v>0.223062</v>
+        <v>0.222575</v>
       </c>
       <c r="D29" t="n">
-        <v>0.22788</v>
+        <v>0.227689</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.217626</v>
+        <v>0.218162</v>
       </c>
       <c r="C30" t="n">
-        <v>0.221835</v>
+        <v>0.221329</v>
       </c>
       <c r="D30" t="n">
-        <v>0.227106</v>
+        <v>0.226827</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.212415</v>
+        <v>0.212631</v>
       </c>
       <c r="C31" t="n">
-        <v>0.220611</v>
+        <v>0.220247</v>
       </c>
       <c r="D31" t="n">
-        <v>0.226143</v>
+        <v>0.225939</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.207805</v>
+        <v>0.208101</v>
       </c>
       <c r="C32" t="n">
-        <v>0.219782</v>
+        <v>0.219413</v>
       </c>
       <c r="D32" t="n">
-        <v>0.225344</v>
+        <v>0.225246</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.203233</v>
+        <v>0.203237</v>
       </c>
       <c r="C33" t="n">
-        <v>0.219067</v>
+        <v>0.218534</v>
       </c>
       <c r="D33" t="n">
-        <v>0.224588</v>
+        <v>0.224285</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.194831</v>
+        <v>0.194868</v>
       </c>
       <c r="C34" t="n">
-        <v>0.218733</v>
+        <v>0.217824</v>
       </c>
       <c r="D34" t="n">
-        <v>0.223966</v>
+        <v>0.22371</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.186536</v>
+        <v>0.186986</v>
       </c>
       <c r="C35" t="n">
-        <v>0.217535</v>
+        <v>0.217166</v>
       </c>
       <c r="D35" t="n">
-        <v>0.223061</v>
+        <v>0.22302</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180632</v>
+        <v>0.179842</v>
       </c>
       <c r="C36" t="n">
-        <v>0.216691</v>
+        <v>0.216164</v>
       </c>
       <c r="D36" t="n">
-        <v>0.222457</v>
+        <v>0.222138</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.170441</v>
+        <v>0.170379</v>
       </c>
       <c r="C37" t="n">
-        <v>0.216344</v>
+        <v>0.215708</v>
       </c>
       <c r="D37" t="n">
-        <v>0.236245</v>
+        <v>0.236301</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.248748</v>
+        <v>0.24824</v>
       </c>
       <c r="C38" t="n">
-        <v>0.230031</v>
+        <v>0.229288</v>
       </c>
       <c r="D38" t="n">
-        <v>0.234452</v>
+        <v>0.234371</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.245772</v>
+        <v>0.245479</v>
       </c>
       <c r="C39" t="n">
-        <v>0.228487</v>
+        <v>0.228233</v>
       </c>
       <c r="D39" t="n">
-        <v>0.233351</v>
+        <v>0.233148</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.241889</v>
+        <v>0.24149</v>
       </c>
       <c r="C40" t="n">
-        <v>0.227071</v>
+        <v>0.226539</v>
       </c>
       <c r="D40" t="n">
-        <v>0.232159</v>
+        <v>0.232245</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.237352</v>
+        <v>0.237109</v>
       </c>
       <c r="C41" t="n">
-        <v>0.225978</v>
+        <v>0.225702</v>
       </c>
       <c r="D41" t="n">
-        <v>0.230759</v>
+        <v>0.230992</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.232448</v>
+        <v>0.232387</v>
       </c>
       <c r="C42" t="n">
-        <v>0.224651</v>
+        <v>0.224339</v>
       </c>
       <c r="D42" t="n">
-        <v>0.22991</v>
+        <v>0.229634</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.227605</v>
+        <v>0.227323</v>
       </c>
       <c r="C43" t="n">
-        <v>0.223675</v>
+        <v>0.223074</v>
       </c>
       <c r="D43" t="n">
-        <v>0.228587</v>
+        <v>0.228473</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.221968</v>
+        <v>0.221719</v>
       </c>
       <c r="C44" t="n">
-        <v>0.222536</v>
+        <v>0.222171</v>
       </c>
       <c r="D44" t="n">
-        <v>0.227619</v>
+        <v>0.227596</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.216459</v>
+        <v>0.21679</v>
       </c>
       <c r="C45" t="n">
-        <v>0.221507</v>
+        <v>0.221175</v>
       </c>
       <c r="D45" t="n">
-        <v>0.226656</v>
+        <v>0.226574</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.21137</v>
+        <v>0.211328</v>
       </c>
       <c r="C46" t="n">
-        <v>0.220739</v>
+        <v>0.220291</v>
       </c>
       <c r="D46" t="n">
-        <v>0.225783</v>
+        <v>0.225602</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.204476</v>
+        <v>0.204712</v>
       </c>
       <c r="C47" t="n">
-        <v>0.220107</v>
+        <v>0.219594</v>
       </c>
       <c r="D47" t="n">
-        <v>0.224699</v>
+        <v>0.224657</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.198217</v>
+        <v>0.198283</v>
       </c>
       <c r="C48" t="n">
-        <v>0.219247</v>
+        <v>0.218833</v>
       </c>
       <c r="D48" t="n">
-        <v>0.223961</v>
+        <v>0.223831</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.190655</v>
+        <v>0.19112</v>
       </c>
       <c r="C49" t="n">
-        <v>0.218206</v>
+        <v>0.217967</v>
       </c>
       <c r="D49" t="n">
-        <v>0.22331</v>
+        <v>0.223246</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.182255</v>
+        <v>0.182076</v>
       </c>
       <c r="C50" t="n">
-        <v>0.217468</v>
+        <v>0.217288</v>
       </c>
       <c r="D50" t="n">
-        <v>0.222468</v>
+        <v>0.222463</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.174713</v>
+        <v>0.172991</v>
       </c>
       <c r="C51" t="n">
-        <v>0.216359</v>
+        <v>0.216208</v>
       </c>
       <c r="D51" t="n">
-        <v>0.236809</v>
+        <v>0.237406</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.161468</v>
+        <v>0.162346</v>
       </c>
       <c r="C52" t="n">
-        <v>0.215777</v>
+        <v>0.215747</v>
       </c>
       <c r="D52" t="n">
-        <v>0.235486</v>
+        <v>0.235415</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.247606</v>
+        <v>0.247534</v>
       </c>
       <c r="C53" t="n">
-        <v>0.229247</v>
+        <v>0.229055</v>
       </c>
       <c r="D53" t="n">
-        <v>0.234264</v>
+        <v>0.234077</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.243599</v>
+        <v>0.243744</v>
       </c>
       <c r="C54" t="n">
-        <v>0.227865</v>
+        <v>0.227736</v>
       </c>
       <c r="D54" t="n">
-        <v>0.232999</v>
+        <v>0.232652</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.239635</v>
+        <v>0.238997</v>
       </c>
       <c r="C55" t="n">
-        <v>0.226636</v>
+        <v>0.226567</v>
       </c>
       <c r="D55" t="n">
-        <v>0.231589</v>
+        <v>0.231391</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.235242</v>
+        <v>0.235224</v>
       </c>
       <c r="C56" t="n">
-        <v>0.22557</v>
+        <v>0.225397</v>
       </c>
       <c r="D56" t="n">
-        <v>0.230497</v>
+        <v>0.230254</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.230421</v>
+        <v>0.230333</v>
       </c>
       <c r="C57" t="n">
-        <v>0.224577</v>
+        <v>0.224426</v>
       </c>
       <c r="D57" t="n">
-        <v>0.229487</v>
+        <v>0.229262</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.224727</v>
+        <v>0.224575</v>
       </c>
       <c r="C58" t="n">
-        <v>0.223474</v>
+        <v>0.223358</v>
       </c>
       <c r="D58" t="n">
-        <v>0.228388</v>
+        <v>0.228208</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.219436</v>
+        <v>0.219114</v>
       </c>
       <c r="C59" t="n">
-        <v>0.222264</v>
+        <v>0.222229</v>
       </c>
       <c r="D59" t="n">
-        <v>0.227379</v>
+        <v>0.227197</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.213414</v>
+        <v>0.212995</v>
       </c>
       <c r="C60" t="n">
-        <v>0.221224</v>
+        <v>0.221129</v>
       </c>
       <c r="D60" t="n">
-        <v>0.226322</v>
+        <v>0.226175</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.206927</v>
+        <v>0.206792</v>
       </c>
       <c r="C61" t="n">
-        <v>0.220385</v>
+        <v>0.220278</v>
       </c>
       <c r="D61" t="n">
-        <v>0.225432</v>
+        <v>0.225364</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.200456</v>
+        <v>0.200498</v>
       </c>
       <c r="C62" t="n">
-        <v>0.219292</v>
+        <v>0.219341</v>
       </c>
       <c r="D62" t="n">
-        <v>0.224575</v>
+        <v>0.224387</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.193268</v>
+        <v>0.193529</v>
       </c>
       <c r="C63" t="n">
-        <v>0.218639</v>
+        <v>0.218457</v>
       </c>
       <c r="D63" t="n">
-        <v>0.223823</v>
+        <v>0.223692</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.185069</v>
+        <v>0.185426</v>
       </c>
       <c r="C64" t="n">
-        <v>0.217719</v>
+        <v>0.217606</v>
       </c>
       <c r="D64" t="n">
-        <v>0.22297</v>
+        <v>0.222784</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177176</v>
+        <v>0.176815</v>
       </c>
       <c r="C65" t="n">
-        <v>0.216926</v>
+        <v>0.21675</v>
       </c>
       <c r="D65" t="n">
-        <v>0.222161</v>
+        <v>0.222035</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.166596</v>
+        <v>0.166036</v>
       </c>
       <c r="C66" t="n">
-        <v>0.216174</v>
+        <v>0.216044</v>
       </c>
       <c r="D66" t="n">
-        <v>0.236548</v>
+        <v>0.236216</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.250903</v>
+        <v>0.250038</v>
       </c>
       <c r="C67" t="n">
-        <v>0.231428</v>
+        <v>0.236358</v>
       </c>
       <c r="D67" t="n">
-        <v>0.234943</v>
+        <v>0.234705</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.246429</v>
+        <v>0.246358</v>
       </c>
       <c r="C68" t="n">
-        <v>0.230009</v>
+        <v>0.233522</v>
       </c>
       <c r="D68" t="n">
-        <v>0.233697</v>
+        <v>0.233432</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.24229</v>
+        <v>0.24184</v>
       </c>
       <c r="C69" t="n">
-        <v>0.22824</v>
+        <v>0.230598</v>
       </c>
       <c r="D69" t="n">
-        <v>0.232381</v>
+        <v>0.232174</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.237858</v>
+        <v>0.237821</v>
       </c>
       <c r="C70" t="n">
-        <v>0.226908</v>
+        <v>0.228436</v>
       </c>
       <c r="D70" t="n">
-        <v>0.23116</v>
+        <v>0.230892</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.232811</v>
+        <v>0.232508</v>
       </c>
       <c r="C71" t="n">
-        <v>0.225643</v>
+        <v>0.226327</v>
       </c>
       <c r="D71" t="n">
-        <v>0.230072</v>
+        <v>0.229833</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.227488</v>
+        <v>0.227432</v>
       </c>
       <c r="C72" t="n">
-        <v>0.224335</v>
+        <v>0.224319</v>
       </c>
       <c r="D72" t="n">
-        <v>0.228895</v>
+        <v>0.228722</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.222068</v>
+        <v>0.221701</v>
       </c>
       <c r="C73" t="n">
-        <v>0.223684</v>
+        <v>0.22305</v>
       </c>
       <c r="D73" t="n">
-        <v>0.227865</v>
+        <v>0.227675</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.215841</v>
+        <v>0.215546</v>
       </c>
       <c r="C74" t="n">
-        <v>0.222108</v>
+        <v>0.221987</v>
       </c>
       <c r="D74" t="n">
-        <v>0.226964</v>
+        <v>0.22679</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.209874</v>
+        <v>0.209375</v>
       </c>
       <c r="C75" t="n">
-        <v>0.221156</v>
+        <v>0.221056</v>
       </c>
       <c r="D75" t="n">
-        <v>0.22602</v>
+        <v>0.225813</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.203217</v>
+        <v>0.202566</v>
       </c>
       <c r="C76" t="n">
-        <v>0.220279</v>
+        <v>0.220041</v>
       </c>
       <c r="D76" t="n">
-        <v>0.225115</v>
+        <v>0.224934</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.19647</v>
+        <v>0.195791</v>
       </c>
       <c r="C77" t="n">
-        <v>0.219307</v>
+        <v>0.219103</v>
       </c>
       <c r="D77" t="n">
-        <v>0.224303</v>
+        <v>0.224076</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.188492</v>
+        <v>0.187714</v>
       </c>
       <c r="C78" t="n">
-        <v>0.218496</v>
+        <v>0.218197</v>
       </c>
       <c r="D78" t="n">
-        <v>0.223417</v>
+        <v>0.223259</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179795</v>
+        <v>0.178973</v>
       </c>
       <c r="C79" t="n">
-        <v>0.217485</v>
+        <v>0.217302</v>
       </c>
       <c r="D79" t="n">
-        <v>0.222764</v>
+        <v>0.222615</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.16973</v>
+        <v>0.169719</v>
       </c>
       <c r="C80" t="n">
-        <v>0.216537</v>
+        <v>0.216384</v>
       </c>
       <c r="D80" t="n">
-        <v>0.238813</v>
+        <v>0.239412</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.251202</v>
+        <v>0.251358</v>
       </c>
       <c r="C81" t="n">
-        <v>0.2388</v>
+        <v>0.238847</v>
       </c>
       <c r="D81" t="n">
-        <v>0.236724</v>
+        <v>0.236357</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.247583</v>
+        <v>0.246965</v>
       </c>
       <c r="C82" t="n">
-        <v>0.232821</v>
+        <v>0.233824</v>
       </c>
       <c r="D82" t="n">
-        <v>0.234761</v>
+        <v>0.234751</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.243569</v>
+        <v>0.243849</v>
       </c>
       <c r="C83" t="n">
-        <v>0.229797</v>
+        <v>0.230378</v>
       </c>
       <c r="D83" t="n">
-        <v>0.233067</v>
+        <v>0.233232</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.238962</v>
+        <v>0.238799</v>
       </c>
       <c r="C84" t="n">
-        <v>0.227693</v>
+        <v>0.227679</v>
       </c>
       <c r="D84" t="n">
-        <v>0.231882</v>
+        <v>0.231958</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.233759</v>
+        <v>0.233919</v>
       </c>
       <c r="C85" t="n">
-        <v>0.22587</v>
+        <v>0.225835</v>
       </c>
       <c r="D85" t="n">
-        <v>0.230651</v>
+        <v>0.230657</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.228704</v>
+        <v>0.228828</v>
       </c>
       <c r="C86" t="n">
-        <v>0.224685</v>
+        <v>0.224605</v>
       </c>
       <c r="D86" t="n">
-        <v>0.229441</v>
+        <v>0.229402</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.223243</v>
+        <v>0.22313</v>
       </c>
       <c r="C87" t="n">
-        <v>0.223504</v>
+        <v>0.223476</v>
       </c>
       <c r="D87" t="n">
-        <v>0.228292</v>
+        <v>0.228296</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.217269</v>
+        <v>0.217315</v>
       </c>
       <c r="C88" t="n">
-        <v>0.222596</v>
+        <v>0.222491</v>
       </c>
       <c r="D88" t="n">
-        <v>0.227204</v>
+        <v>0.227142</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.211141</v>
+        <v>0.211101</v>
       </c>
       <c r="C89" t="n">
-        <v>0.221306</v>
+        <v>0.221362</v>
       </c>
       <c r="D89" t="n">
-        <v>0.226258</v>
+        <v>0.226158</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.204588</v>
+        <v>0.204837</v>
       </c>
       <c r="C90" t="n">
-        <v>0.220387</v>
+        <v>0.220458</v>
       </c>
       <c r="D90" t="n">
-        <v>0.225431</v>
+        <v>0.22528</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.197921</v>
+        <v>0.19809</v>
       </c>
       <c r="C91" t="n">
-        <v>0.219503</v>
+        <v>0.219363</v>
       </c>
       <c r="D91" t="n">
-        <v>0.224543</v>
+        <v>0.22441</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190565</v>
+        <v>0.190386</v>
       </c>
       <c r="C92" t="n">
-        <v>0.218561</v>
+        <v>0.218577</v>
       </c>
       <c r="D92" t="n">
-        <v>0.223763</v>
+        <v>0.223643</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.182011</v>
+        <v>0.181941</v>
       </c>
       <c r="C93" t="n">
-        <v>0.21779</v>
+        <v>0.217674</v>
       </c>
       <c r="D93" t="n">
-        <v>0.223008</v>
+        <v>0.222881</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.172104</v>
+        <v>0.172185</v>
       </c>
       <c r="C94" t="n">
-        <v>0.217047</v>
+        <v>0.217006</v>
       </c>
       <c r="D94" t="n">
-        <v>0.239724</v>
+        <v>0.239689</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.251529</v>
+        <v>0.251371</v>
       </c>
       <c r="C95" t="n">
-        <v>0.23634</v>
+        <v>0.235997</v>
       </c>
       <c r="D95" t="n">
-        <v>0.237243</v>
+        <v>0.236921</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.248151</v>
+        <v>0.247949</v>
       </c>
       <c r="C96" t="n">
-        <v>0.232758</v>
+        <v>0.232507</v>
       </c>
       <c r="D96" t="n">
-        <v>0.235393</v>
+        <v>0.235294</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.244217</v>
+        <v>0.24406</v>
       </c>
       <c r="C97" t="n">
-        <v>0.229847</v>
+        <v>0.229758</v>
       </c>
       <c r="D97" t="n">
-        <v>0.234252</v>
+        <v>0.234149</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.2398</v>
+        <v>0.239812</v>
       </c>
       <c r="C98" t="n">
-        <v>0.227873</v>
+        <v>0.227631</v>
       </c>
       <c r="D98" t="n">
-        <v>0.2327</v>
+        <v>0.232766</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.234995</v>
+        <v>0.235035</v>
       </c>
       <c r="C99" t="n">
-        <v>0.22626</v>
+        <v>0.226102</v>
       </c>
       <c r="D99" t="n">
-        <v>0.231442</v>
+        <v>0.231518</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.229841</v>
+        <v>0.229806</v>
       </c>
       <c r="C100" t="n">
-        <v>0.225017</v>
+        <v>0.224881</v>
       </c>
       <c r="D100" t="n">
-        <v>0.23036</v>
+        <v>0.230179</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.224234</v>
+        <v>0.224406</v>
       </c>
       <c r="C101" t="n">
-        <v>0.223775</v>
+        <v>0.223725</v>
       </c>
       <c r="D101" t="n">
-        <v>0.228816</v>
+        <v>0.228861</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.218535</v>
+        <v>0.218524</v>
       </c>
       <c r="C102" t="n">
-        <v>0.222639</v>
+        <v>0.222552</v>
       </c>
       <c r="D102" t="n">
-        <v>0.227739</v>
+        <v>0.227743</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.212443</v>
+        <v>0.212462</v>
       </c>
       <c r="C103" t="n">
-        <v>0.221468</v>
+        <v>0.221431</v>
       </c>
       <c r="D103" t="n">
-        <v>0.226722</v>
+        <v>0.226834</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.206082</v>
+        <v>0.206135</v>
       </c>
       <c r="C104" t="n">
-        <v>0.220582</v>
+        <v>0.220548</v>
       </c>
       <c r="D104" t="n">
-        <v>0.226216</v>
+        <v>0.22626</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.199109</v>
+        <v>0.199209</v>
       </c>
       <c r="C105" t="n">
-        <v>0.219588</v>
+        <v>0.219707</v>
       </c>
       <c r="D105" t="n">
-        <v>0.225185</v>
+        <v>0.225436</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.191995</v>
+        <v>0.191973</v>
       </c>
       <c r="C106" t="n">
-        <v>0.218713</v>
+        <v>0.218773</v>
       </c>
       <c r="D106" t="n">
-        <v>0.224326</v>
+        <v>0.224491</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183706</v>
+        <v>0.183777</v>
       </c>
       <c r="C107" t="n">
-        <v>0.217886</v>
+        <v>0.217963</v>
       </c>
       <c r="D107" t="n">
-        <v>0.223667</v>
+        <v>0.223796</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.174275</v>
+        <v>0.174248</v>
       </c>
       <c r="C108" t="n">
-        <v>0.217106</v>
+        <v>0.217204</v>
       </c>
       <c r="D108" t="n">
-        <v>0.239267</v>
+        <v>0.239506</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.162764</v>
+        <v>0.162635</v>
       </c>
       <c r="C109" t="n">
-        <v>0.216265</v>
+        <v>0.216504</v>
       </c>
       <c r="D109" t="n">
-        <v>0.237056</v>
+        <v>0.237284</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.249446</v>
+        <v>0.249387</v>
       </c>
       <c r="C110" t="n">
-        <v>0.233066</v>
+        <v>0.233062</v>
       </c>
       <c r="D110" t="n">
-        <v>0.235145</v>
+        <v>0.235319</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.245577</v>
+        <v>0.24573</v>
       </c>
       <c r="C111" t="n">
-        <v>0.230074</v>
+        <v>0.230161</v>
       </c>
       <c r="D111" t="n">
-        <v>0.23355</v>
+        <v>0.233757</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.241118</v>
+        <v>0.241216</v>
       </c>
       <c r="C112" t="n">
-        <v>0.227968</v>
+        <v>0.228092</v>
       </c>
       <c r="D112" t="n">
-        <v>0.232096</v>
+        <v>0.232295</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.236384</v>
+        <v>0.236476</v>
       </c>
       <c r="C113" t="n">
-        <v>0.226313</v>
+        <v>0.226458</v>
       </c>
       <c r="D113" t="n">
-        <v>0.230818</v>
+        <v>0.231029</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.231187</v>
+        <v>0.231203</v>
       </c>
       <c r="C114" t="n">
-        <v>0.224921</v>
+        <v>0.225045</v>
       </c>
       <c r="D114" t="n">
-        <v>0.229584</v>
+        <v>0.22975</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.22559</v>
+        <v>0.225657</v>
       </c>
       <c r="C115" t="n">
-        <v>0.223654</v>
+        <v>0.223773</v>
       </c>
       <c r="D115" t="n">
-        <v>0.228483</v>
+        <v>0.228639</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.219722</v>
+        <v>0.219919</v>
       </c>
       <c r="C116" t="n">
-        <v>0.22294</v>
+        <v>0.22317</v>
       </c>
       <c r="D116" t="n">
-        <v>0.22751</v>
+        <v>0.227642</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.213851</v>
+        <v>0.213884</v>
       </c>
       <c r="C117" t="n">
-        <v>0.222013</v>
+        <v>0.222041</v>
       </c>
       <c r="D117" t="n">
-        <v>0.226902</v>
+        <v>0.22708</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.207522</v>
+        <v>0.2075</v>
       </c>
       <c r="C118" t="n">
-        <v>0.221028</v>
+        <v>0.221087</v>
       </c>
       <c r="D118" t="n">
-        <v>0.226035</v>
+        <v>0.22618</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.200847</v>
+        <v>0.20084</v>
       </c>
       <c r="C119" t="n">
-        <v>0.220153</v>
+        <v>0.220219</v>
       </c>
       <c r="D119" t="n">
-        <v>0.22517</v>
+        <v>0.225298</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.193419</v>
+        <v>0.193499</v>
       </c>
       <c r="C120" t="n">
-        <v>0.219207</v>
+        <v>0.219319</v>
       </c>
       <c r="D120" t="n">
-        <v>0.224317</v>
+        <v>0.224476</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.185447</v>
+        <v>0.18537</v>
       </c>
       <c r="C121" t="n">
-        <v>0.218415</v>
+        <v>0.218528</v>
       </c>
       <c r="D121" t="n">
-        <v>0.223729</v>
+        <v>0.223808</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.175837</v>
+        <v>0.175896</v>
       </c>
       <c r="C122" t="n">
-        <v>0.217559</v>
+        <v>0.217658</v>
       </c>
       <c r="D122" t="n">
-        <v>0.2229</v>
+        <v>0.223103</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.164792</v>
+        <v>0.164805</v>
       </c>
       <c r="C123" t="n">
-        <v>0.216752</v>
+        <v>0.216822</v>
       </c>
       <c r="D123" t="n">
-        <v>0.237256</v>
+        <v>0.237391</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.25004</v>
+        <v>0.250455</v>
       </c>
       <c r="C124" t="n">
-        <v>0.233633</v>
+        <v>0.233531</v>
       </c>
       <c r="D124" t="n">
-        <v>0.235329</v>
+        <v>0.235442</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.247682</v>
+        <v>0.246408</v>
       </c>
       <c r="C125" t="n">
-        <v>0.230454</v>
+        <v>0.230473</v>
       </c>
       <c r="D125" t="n">
-        <v>0.233656</v>
+        <v>0.233789</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.241967</v>
+        <v>0.241897</v>
       </c>
       <c r="C126" t="n">
-        <v>0.228378</v>
+        <v>0.228316</v>
       </c>
       <c r="D126" t="n">
-        <v>0.232206</v>
+        <v>0.232315</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.238706</v>
+        <v>0.238637</v>
       </c>
       <c r="C127" t="n">
-        <v>0.226594</v>
+        <v>0.226603</v>
       </c>
       <c r="D127" t="n">
-        <v>0.23087</v>
+        <v>0.230922</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.233607</v>
+        <v>0.233515</v>
       </c>
       <c r="C128" t="n">
-        <v>0.225205</v>
+        <v>0.225216</v>
       </c>
       <c r="D128" t="n">
-        <v>0.229723</v>
+        <v>0.229775</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.228135</v>
+        <v>0.228068</v>
       </c>
       <c r="C129" t="n">
-        <v>0.224015</v>
+        <v>0.223983</v>
       </c>
       <c r="D129" t="n">
-        <v>0.228591</v>
+        <v>0.228635</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.222515</v>
+        <v>0.222463</v>
       </c>
       <c r="C130" t="n">
-        <v>0.222907</v>
+        <v>0.222903</v>
       </c>
       <c r="D130" t="n">
-        <v>0.227555</v>
+        <v>0.227638</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.21665</v>
+        <v>0.216639</v>
       </c>
       <c r="C131" t="n">
-        <v>0.22187</v>
+        <v>0.221901</v>
       </c>
       <c r="D131" t="n">
-        <v>0.226574</v>
+        <v>0.226715</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.210542</v>
+        <v>0.210486</v>
       </c>
       <c r="C132" t="n">
-        <v>0.220896</v>
+        <v>0.220927</v>
       </c>
       <c r="D132" t="n">
-        <v>0.225664</v>
+        <v>0.225803</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.203951</v>
+        <v>0.20399</v>
       </c>
       <c r="C133" t="n">
-        <v>0.219937</v>
+        <v>0.21997</v>
       </c>
       <c r="D133" t="n">
-        <v>0.224819</v>
+        <v>0.224945</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.195671</v>
+        <v>0.196767</v>
       </c>
       <c r="C134" t="n">
-        <v>0.219034</v>
+        <v>0.219153</v>
       </c>
       <c r="D134" t="n">
-        <v>0.224061</v>
+        <v>0.224192</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.187516</v>
+        <v>0.187361</v>
       </c>
       <c r="C135" t="n">
-        <v>0.218229</v>
+        <v>0.218309</v>
       </c>
       <c r="D135" t="n">
-        <v>0.223289</v>
+        <v>0.223375</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.178199</v>
+        <v>0.178486</v>
       </c>
       <c r="C136" t="n">
-        <v>0.217682</v>
+        <v>0.217882</v>
       </c>
       <c r="D136" t="n">
-        <v>0.222745</v>
+        <v>0.223139</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.167882</v>
+        <v>0.168901</v>
       </c>
       <c r="C137" t="n">
-        <v>0.216954</v>
+        <v>0.216933</v>
       </c>
       <c r="D137" t="n">
-        <v>0.238547</v>
+        <v>0.238735</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.250695</v>
+        <v>0.25144</v>
       </c>
       <c r="C138" t="n">
-        <v>0.23499</v>
+        <v>0.235061</v>
       </c>
       <c r="D138" t="n">
-        <v>0.236388</v>
+        <v>0.236597</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.247211</v>
+        <v>0.247255</v>
       </c>
       <c r="C139" t="n">
-        <v>0.231733</v>
+        <v>0.231891</v>
       </c>
       <c r="D139" t="n">
-        <v>0.234646</v>
+        <v>0.234819</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.243067</v>
+        <v>0.243107</v>
       </c>
       <c r="C140" t="n">
-        <v>0.229263</v>
+        <v>0.229312</v>
       </c>
       <c r="D140" t="n">
-        <v>0.233032</v>
+        <v>0.233258</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.238358</v>
+        <v>0.238495</v>
       </c>
       <c r="C141" t="n">
-        <v>0.227445</v>
+        <v>0.227465</v>
       </c>
       <c r="D141" t="n">
-        <v>0.231623</v>
+        <v>0.231838</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.23336</v>
+        <v>0.233464</v>
       </c>
       <c r="C142" t="n">
-        <v>0.225919</v>
+        <v>0.22601</v>
       </c>
       <c r="D142" t="n">
-        <v>0.230407</v>
+        <v>0.230603</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.227903</v>
+        <v>0.227948</v>
       </c>
       <c r="C143" t="n">
-        <v>0.22466</v>
+        <v>0.224727</v>
       </c>
       <c r="D143" t="n">
-        <v>0.229256</v>
+        <v>0.229437</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.189053</v>
+        <v>0.185676</v>
       </c>
       <c r="C2" t="n">
-        <v>0.206171</v>
+        <v>0.206342</v>
       </c>
       <c r="D2" t="n">
-        <v>0.214094</v>
+        <v>0.211897</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.183321</v>
+        <v>0.180132</v>
       </c>
       <c r="C3" t="n">
-        <v>0.206525</v>
+        <v>0.206391</v>
       </c>
       <c r="D3" t="n">
-        <v>0.212126</v>
+        <v>0.210989</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.178587</v>
+        <v>0.174649</v>
       </c>
       <c r="C4" t="n">
-        <v>0.206519</v>
+        <v>0.206251</v>
       </c>
       <c r="D4" t="n">
-        <v>0.212225</v>
+        <v>0.211994</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.176771</v>
+        <v>0.1708</v>
       </c>
       <c r="C5" t="n">
-        <v>0.20662</v>
+        <v>0.206083</v>
       </c>
       <c r="D5" t="n">
-        <v>0.213542</v>
+        <v>0.212742</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.170359</v>
+        <v>0.165824</v>
       </c>
       <c r="C6" t="n">
-        <v>0.206315</v>
+        <v>0.205704</v>
       </c>
       <c r="D6" t="n">
-        <v>0.214231</v>
+        <v>0.213364</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.163721</v>
+        <v>0.161776</v>
       </c>
       <c r="C7" t="n">
-        <v>0.206545</v>
+        <v>0.206787</v>
       </c>
       <c r="D7" t="n">
-        <v>0.214422</v>
+        <v>0.212527</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.156918</v>
+        <v>0.155428</v>
       </c>
       <c r="C8" t="n">
-        <v>0.206301</v>
+        <v>0.206972</v>
       </c>
       <c r="D8" t="n">
-        <v>0.214332</v>
+        <v>0.212803</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.145658</v>
+        <v>0.144948</v>
       </c>
       <c r="C9" t="n">
-        <v>0.204822</v>
+        <v>0.206525</v>
       </c>
       <c r="D9" t="n">
-        <v>0.22896</v>
+        <v>0.230537</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.231058</v>
+        <v>0.228</v>
       </c>
       <c r="C10" t="n">
-        <v>0.227181</v>
+        <v>0.224501</v>
       </c>
       <c r="D10" t="n">
-        <v>0.229021</v>
+        <v>0.228573</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.227399</v>
+        <v>0.223182</v>
       </c>
       <c r="C11" t="n">
-        <v>0.224452</v>
+        <v>0.223081</v>
       </c>
       <c r="D11" t="n">
-        <v>0.228334</v>
+        <v>0.228183</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.225279</v>
+        <v>0.221801</v>
       </c>
       <c r="C12" t="n">
-        <v>0.223649</v>
+        <v>0.22144</v>
       </c>
       <c r="D12" t="n">
-        <v>0.226873</v>
+        <v>0.22688</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.222498</v>
+        <v>0.219356</v>
       </c>
       <c r="C13" t="n">
-        <v>0.221754</v>
+        <v>0.22076</v>
       </c>
       <c r="D13" t="n">
-        <v>0.225314</v>
+        <v>0.225906</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.218889</v>
+        <v>0.214861</v>
       </c>
       <c r="C14" t="n">
-        <v>0.220859</v>
+        <v>0.220292</v>
       </c>
       <c r="D14" t="n">
-        <v>0.225806</v>
+        <v>0.226138</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.21454</v>
+        <v>0.211667</v>
       </c>
       <c r="C15" t="n">
-        <v>0.220332</v>
+        <v>0.219296</v>
       </c>
       <c r="D15" t="n">
-        <v>0.224827</v>
+        <v>0.224852</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.210059</v>
+        <v>0.207499</v>
       </c>
       <c r="C16" t="n">
-        <v>0.219967</v>
+        <v>0.219351</v>
       </c>
       <c r="D16" t="n">
-        <v>0.223935</v>
+        <v>0.224285</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.204853</v>
+        <v>0.203217</v>
       </c>
       <c r="C17" t="n">
-        <v>0.218672</v>
+        <v>0.218208</v>
       </c>
       <c r="D17" t="n">
-        <v>0.223618</v>
+        <v>0.223738</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.200314</v>
+        <v>0.198195</v>
       </c>
       <c r="C18" t="n">
-        <v>0.217604</v>
+        <v>0.217761</v>
       </c>
       <c r="D18" t="n">
-        <v>0.222725</v>
+        <v>0.222833</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.195436</v>
+        <v>0.193629</v>
       </c>
       <c r="C19" t="n">
-        <v>0.216645</v>
+        <v>0.216502</v>
       </c>
       <c r="D19" t="n">
-        <v>0.222302</v>
+        <v>0.222362</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.189327</v>
+        <v>0.187751</v>
       </c>
       <c r="C20" t="n">
-        <v>0.216423</v>
+        <v>0.216044</v>
       </c>
       <c r="D20" t="n">
-        <v>0.221892</v>
+        <v>0.221665</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.181166</v>
+        <v>0.180035</v>
       </c>
       <c r="C21" t="n">
-        <v>0.215885</v>
+        <v>0.215723</v>
       </c>
       <c r="D21" t="n">
-        <v>0.221356</v>
+        <v>0.22088</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.173177</v>
+        <v>0.172784</v>
       </c>
       <c r="C22" t="n">
-        <v>0.215046</v>
+        <v>0.214961</v>
       </c>
       <c r="D22" t="n">
-        <v>0.22047</v>
+        <v>0.220591</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.16371</v>
+        <v>0.165292</v>
       </c>
       <c r="C23" t="n">
-        <v>0.214027</v>
+        <v>0.214347</v>
       </c>
       <c r="D23" t="n">
-        <v>0.235185</v>
+        <v>0.235194</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.242842</v>
+        <v>0.240475</v>
       </c>
       <c r="C24" t="n">
-        <v>0.228178</v>
+        <v>0.228229</v>
       </c>
       <c r="D24" t="n">
-        <v>0.233093</v>
+        <v>0.233005</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.239486</v>
+        <v>0.236492</v>
       </c>
       <c r="C25" t="n">
-        <v>0.226547</v>
+        <v>0.226899</v>
       </c>
       <c r="D25" t="n">
-        <v>0.231595</v>
+        <v>0.231578</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.235727</v>
+        <v>0.233241</v>
       </c>
       <c r="C26" t="n">
-        <v>0.225859</v>
+        <v>0.225716</v>
       </c>
       <c r="D26" t="n">
-        <v>0.230609</v>
+        <v>0.230628</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.231821</v>
+        <v>0.230251</v>
       </c>
       <c r="C27" t="n">
-        <v>0.224804</v>
+        <v>0.224617</v>
       </c>
       <c r="D27" t="n">
-        <v>0.229855</v>
+        <v>0.229637</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.226928</v>
+        <v>0.224755</v>
       </c>
       <c r="C28" t="n">
-        <v>0.223677</v>
+        <v>0.223593</v>
       </c>
       <c r="D28" t="n">
-        <v>0.228845</v>
+        <v>0.228573</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.222444</v>
+        <v>0.219593</v>
       </c>
       <c r="C29" t="n">
-        <v>0.222575</v>
+        <v>0.222753</v>
       </c>
       <c r="D29" t="n">
-        <v>0.227689</v>
+        <v>0.228004</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.218162</v>
+        <v>0.214348</v>
       </c>
       <c r="C30" t="n">
-        <v>0.221329</v>
+        <v>0.221393</v>
       </c>
       <c r="D30" t="n">
-        <v>0.226827</v>
+        <v>0.226931</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.212631</v>
+        <v>0.209574</v>
       </c>
       <c r="C31" t="n">
-        <v>0.220247</v>
+        <v>0.220153</v>
       </c>
       <c r="D31" t="n">
-        <v>0.225939</v>
+        <v>0.225776</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.208101</v>
+        <v>0.205184</v>
       </c>
       <c r="C32" t="n">
-        <v>0.219413</v>
+        <v>0.219776</v>
       </c>
       <c r="D32" t="n">
-        <v>0.225246</v>
+        <v>0.225286</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.203237</v>
+        <v>0.198948</v>
       </c>
       <c r="C33" t="n">
-        <v>0.218534</v>
+        <v>0.219098</v>
       </c>
       <c r="D33" t="n">
-        <v>0.224285</v>
+        <v>0.224204</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.194868</v>
+        <v>0.192883</v>
       </c>
       <c r="C34" t="n">
-        <v>0.217824</v>
+        <v>0.21838</v>
       </c>
       <c r="D34" t="n">
-        <v>0.22371</v>
+        <v>0.223657</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.186986</v>
+        <v>0.185908</v>
       </c>
       <c r="C35" t="n">
-        <v>0.217166</v>
+        <v>0.217386</v>
       </c>
       <c r="D35" t="n">
-        <v>0.22302</v>
+        <v>0.222663</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.179842</v>
+        <v>0.178589</v>
       </c>
       <c r="C36" t="n">
-        <v>0.216164</v>
+        <v>0.216909</v>
       </c>
       <c r="D36" t="n">
-        <v>0.222138</v>
+        <v>0.22225</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.170379</v>
+        <v>0.16982</v>
       </c>
       <c r="C37" t="n">
-        <v>0.215708</v>
+        <v>0.216298</v>
       </c>
       <c r="D37" t="n">
-        <v>0.236301</v>
+        <v>0.236223</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.24824</v>
+        <v>0.247158</v>
       </c>
       <c r="C38" t="n">
-        <v>0.229288</v>
+        <v>0.229586</v>
       </c>
       <c r="D38" t="n">
-        <v>0.234371</v>
+        <v>0.234484</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.245479</v>
+        <v>0.243364</v>
       </c>
       <c r="C39" t="n">
-        <v>0.228233</v>
+        <v>0.228129</v>
       </c>
       <c r="D39" t="n">
-        <v>0.233148</v>
+        <v>0.232956</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.24149</v>
+        <v>0.239461</v>
       </c>
       <c r="C40" t="n">
-        <v>0.226539</v>
+        <v>0.226778</v>
       </c>
       <c r="D40" t="n">
-        <v>0.232245</v>
+        <v>0.231998</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.237109</v>
+        <v>0.234532</v>
       </c>
       <c r="C41" t="n">
-        <v>0.225702</v>
+        <v>0.225629</v>
       </c>
       <c r="D41" t="n">
-        <v>0.230992</v>
+        <v>0.230815</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.232387</v>
+        <v>0.230356</v>
       </c>
       <c r="C42" t="n">
-        <v>0.224339</v>
+        <v>0.224275</v>
       </c>
       <c r="D42" t="n">
-        <v>0.229634</v>
+        <v>0.229637</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.227323</v>
+        <v>0.225328</v>
       </c>
       <c r="C43" t="n">
-        <v>0.223074</v>
+        <v>0.223361</v>
       </c>
       <c r="D43" t="n">
-        <v>0.228473</v>
+        <v>0.228293</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.221719</v>
+        <v>0.220181</v>
       </c>
       <c r="C44" t="n">
-        <v>0.222171</v>
+        <v>0.222586</v>
       </c>
       <c r="D44" t="n">
-        <v>0.227596</v>
+        <v>0.227189</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.21679</v>
+        <v>0.214766</v>
       </c>
       <c r="C45" t="n">
-        <v>0.221175</v>
+        <v>0.2215</v>
       </c>
       <c r="D45" t="n">
-        <v>0.226574</v>
+        <v>0.226545</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.211328</v>
+        <v>0.209469</v>
       </c>
       <c r="C46" t="n">
-        <v>0.220291</v>
+        <v>0.220451</v>
       </c>
       <c r="D46" t="n">
-        <v>0.225602</v>
+        <v>0.225806</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.204712</v>
+        <v>0.202881</v>
       </c>
       <c r="C47" t="n">
-        <v>0.219594</v>
+        <v>0.219739</v>
       </c>
       <c r="D47" t="n">
-        <v>0.224657</v>
+        <v>0.224646</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.198283</v>
+        <v>0.196644</v>
       </c>
       <c r="C48" t="n">
-        <v>0.218833</v>
+        <v>0.21908</v>
       </c>
       <c r="D48" t="n">
-        <v>0.223831</v>
+        <v>0.2238</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.19112</v>
+        <v>0.189799</v>
       </c>
       <c r="C49" t="n">
-        <v>0.217967</v>
+        <v>0.218299</v>
       </c>
       <c r="D49" t="n">
-        <v>0.223246</v>
+        <v>0.223402</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.182076</v>
+        <v>0.182171</v>
       </c>
       <c r="C50" t="n">
-        <v>0.217288</v>
+        <v>0.217688</v>
       </c>
       <c r="D50" t="n">
-        <v>0.222463</v>
+        <v>0.222666</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.172991</v>
+        <v>0.173181</v>
       </c>
       <c r="C51" t="n">
-        <v>0.216208</v>
+        <v>0.216902</v>
       </c>
       <c r="D51" t="n">
-        <v>0.237406</v>
+        <v>0.23705</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.162346</v>
+        <v>0.163578</v>
       </c>
       <c r="C52" t="n">
-        <v>0.215747</v>
+        <v>0.216369</v>
       </c>
       <c r="D52" t="n">
-        <v>0.235415</v>
+        <v>0.235127</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.247534</v>
+        <v>0.246029</v>
       </c>
       <c r="C53" t="n">
-        <v>0.229055</v>
+        <v>0.228988</v>
       </c>
       <c r="D53" t="n">
-        <v>0.234077</v>
+        <v>0.233555</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.243744</v>
+        <v>0.241922</v>
       </c>
       <c r="C54" t="n">
-        <v>0.227736</v>
+        <v>0.227582</v>
       </c>
       <c r="D54" t="n">
-        <v>0.232652</v>
+        <v>0.232415</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.238997</v>
+        <v>0.237858</v>
       </c>
       <c r="C55" t="n">
-        <v>0.226567</v>
+        <v>0.226392</v>
       </c>
       <c r="D55" t="n">
-        <v>0.231391</v>
+        <v>0.231165</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.235224</v>
+        <v>0.233269</v>
       </c>
       <c r="C56" t="n">
-        <v>0.225397</v>
+        <v>0.22518</v>
       </c>
       <c r="D56" t="n">
-        <v>0.230254</v>
+        <v>0.23025</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.230333</v>
+        <v>0.22815</v>
       </c>
       <c r="C57" t="n">
-        <v>0.224426</v>
+        <v>0.224197</v>
       </c>
       <c r="D57" t="n">
-        <v>0.229262</v>
+        <v>0.229226</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.224575</v>
+        <v>0.222562</v>
       </c>
       <c r="C58" t="n">
-        <v>0.223358</v>
+        <v>0.223289</v>
       </c>
       <c r="D58" t="n">
-        <v>0.228208</v>
+        <v>0.228065</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.219114</v>
+        <v>0.216924</v>
       </c>
       <c r="C59" t="n">
-        <v>0.222229</v>
+        <v>0.222134</v>
       </c>
       <c r="D59" t="n">
-        <v>0.227197</v>
+        <v>0.227236</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.212995</v>
+        <v>0.211116</v>
       </c>
       <c r="C60" t="n">
-        <v>0.221129</v>
+        <v>0.221132</v>
       </c>
       <c r="D60" t="n">
-        <v>0.226175</v>
+        <v>0.226157</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.206792</v>
+        <v>0.205038</v>
       </c>
       <c r="C61" t="n">
-        <v>0.220278</v>
+        <v>0.220484</v>
       </c>
       <c r="D61" t="n">
-        <v>0.225364</v>
+        <v>0.225522</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.200498</v>
+        <v>0.198903</v>
       </c>
       <c r="C62" t="n">
-        <v>0.219341</v>
+        <v>0.219576</v>
       </c>
       <c r="D62" t="n">
-        <v>0.224387</v>
+        <v>0.22457</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.193529</v>
+        <v>0.192346</v>
       </c>
       <c r="C63" t="n">
-        <v>0.218457</v>
+        <v>0.218924</v>
       </c>
       <c r="D63" t="n">
-        <v>0.223692</v>
+        <v>0.223777</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.185426</v>
+        <v>0.185033</v>
       </c>
       <c r="C64" t="n">
-        <v>0.217606</v>
+        <v>0.218057</v>
       </c>
       <c r="D64" t="n">
-        <v>0.222784</v>
+        <v>0.222988</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.176815</v>
+        <v>0.176946</v>
       </c>
       <c r="C65" t="n">
-        <v>0.21675</v>
+        <v>0.217249</v>
       </c>
       <c r="D65" t="n">
-        <v>0.222035</v>
+        <v>0.22218</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.166036</v>
+        <v>0.167037</v>
       </c>
       <c r="C66" t="n">
-        <v>0.216044</v>
+        <v>0.216769</v>
       </c>
       <c r="D66" t="n">
-        <v>0.236216</v>
+        <v>0.236041</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.250038</v>
+        <v>0.247886</v>
       </c>
       <c r="C67" t="n">
-        <v>0.236358</v>
+        <v>0.231031</v>
       </c>
       <c r="D67" t="n">
-        <v>0.234705</v>
+        <v>0.234558</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.246358</v>
+        <v>0.245132</v>
       </c>
       <c r="C68" t="n">
-        <v>0.233522</v>
+        <v>0.229239</v>
       </c>
       <c r="D68" t="n">
-        <v>0.233432</v>
+        <v>0.23311</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.24184</v>
+        <v>0.240446</v>
       </c>
       <c r="C69" t="n">
-        <v>0.230598</v>
+        <v>0.227931</v>
       </c>
       <c r="D69" t="n">
-        <v>0.232174</v>
+        <v>0.231838</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.237821</v>
+        <v>0.235549</v>
       </c>
       <c r="C70" t="n">
-        <v>0.228436</v>
+        <v>0.226548</v>
       </c>
       <c r="D70" t="n">
-        <v>0.230892</v>
+        <v>0.230683</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.232508</v>
+        <v>0.230497</v>
       </c>
       <c r="C71" t="n">
-        <v>0.226327</v>
+        <v>0.225228</v>
       </c>
       <c r="D71" t="n">
-        <v>0.229833</v>
+        <v>0.229723</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.227432</v>
+        <v>0.225119</v>
       </c>
       <c r="C72" t="n">
-        <v>0.224319</v>
+        <v>0.223998</v>
       </c>
       <c r="D72" t="n">
-        <v>0.228722</v>
+        <v>0.228403</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.221701</v>
+        <v>0.219382</v>
       </c>
       <c r="C73" t="n">
-        <v>0.22305</v>
+        <v>0.22295</v>
       </c>
       <c r="D73" t="n">
-        <v>0.227675</v>
+        <v>0.227463</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.215546</v>
+        <v>0.213502</v>
       </c>
       <c r="C74" t="n">
-        <v>0.221987</v>
+        <v>0.221952</v>
       </c>
       <c r="D74" t="n">
-        <v>0.22679</v>
+        <v>0.226427</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.209375</v>
+        <v>0.207758</v>
       </c>
       <c r="C75" t="n">
-        <v>0.221056</v>
+        <v>0.221102</v>
       </c>
       <c r="D75" t="n">
-        <v>0.225813</v>
+        <v>0.225606</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.202566</v>
+        <v>0.20141</v>
       </c>
       <c r="C76" t="n">
-        <v>0.220041</v>
+        <v>0.220159</v>
       </c>
       <c r="D76" t="n">
-        <v>0.224934</v>
+        <v>0.22483</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.195791</v>
+        <v>0.194878</v>
       </c>
       <c r="C77" t="n">
-        <v>0.219103</v>
+        <v>0.219366</v>
       </c>
       <c r="D77" t="n">
-        <v>0.224076</v>
+        <v>0.223922</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.187714</v>
+        <v>0.187626</v>
       </c>
       <c r="C78" t="n">
-        <v>0.218197</v>
+        <v>0.218513</v>
       </c>
       <c r="D78" t="n">
-        <v>0.223259</v>
+        <v>0.223154</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.178973</v>
+        <v>0.179617</v>
       </c>
       <c r="C79" t="n">
-        <v>0.217302</v>
+        <v>0.217776</v>
       </c>
       <c r="D79" t="n">
-        <v>0.222615</v>
+        <v>0.222414</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.169719</v>
+        <v>0.170136</v>
       </c>
       <c r="C80" t="n">
-        <v>0.216384</v>
+        <v>0.217</v>
       </c>
       <c r="D80" t="n">
-        <v>0.239412</v>
+        <v>0.238619</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.251358</v>
+        <v>0.249767</v>
       </c>
       <c r="C81" t="n">
-        <v>0.238847</v>
+        <v>0.23851</v>
       </c>
       <c r="D81" t="n">
-        <v>0.236357</v>
+        <v>0.236031</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.246965</v>
+        <v>0.246486</v>
       </c>
       <c r="C82" t="n">
-        <v>0.233824</v>
+        <v>0.233595</v>
       </c>
       <c r="D82" t="n">
-        <v>0.234751</v>
+        <v>0.234536</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.243849</v>
+        <v>0.24203</v>
       </c>
       <c r="C83" t="n">
-        <v>0.230378</v>
+        <v>0.229784</v>
       </c>
       <c r="D83" t="n">
-        <v>0.233232</v>
+        <v>0.23288</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.238799</v>
+        <v>0.237216</v>
       </c>
       <c r="C84" t="n">
-        <v>0.227679</v>
+        <v>0.22734</v>
       </c>
       <c r="D84" t="n">
-        <v>0.231958</v>
+        <v>0.231862</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.233919</v>
+        <v>0.23196</v>
       </c>
       <c r="C85" t="n">
-        <v>0.225835</v>
+        <v>0.225908</v>
       </c>
       <c r="D85" t="n">
-        <v>0.230657</v>
+        <v>0.230503</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.228828</v>
+        <v>0.22674</v>
       </c>
       <c r="C86" t="n">
-        <v>0.224605</v>
+        <v>0.224539</v>
       </c>
       <c r="D86" t="n">
-        <v>0.229402</v>
+        <v>0.229322</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.22313</v>
+        <v>0.220989</v>
       </c>
       <c r="C87" t="n">
-        <v>0.223476</v>
+        <v>0.223482</v>
       </c>
       <c r="D87" t="n">
-        <v>0.228296</v>
+        <v>0.228112</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.217315</v>
+        <v>0.215007</v>
       </c>
       <c r="C88" t="n">
-        <v>0.222491</v>
+        <v>0.222417</v>
       </c>
       <c r="D88" t="n">
-        <v>0.227142</v>
+        <v>0.227253</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.211101</v>
+        <v>0.209143</v>
       </c>
       <c r="C89" t="n">
-        <v>0.221362</v>
+        <v>0.221441</v>
       </c>
       <c r="D89" t="n">
-        <v>0.226158</v>
+        <v>0.22631</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.204837</v>
+        <v>0.202998</v>
       </c>
       <c r="C90" t="n">
-        <v>0.220458</v>
+        <v>0.22047</v>
       </c>
       <c r="D90" t="n">
-        <v>0.22528</v>
+        <v>0.225465</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.19809</v>
+        <v>0.196529</v>
       </c>
       <c r="C91" t="n">
-        <v>0.219363</v>
+        <v>0.219611</v>
       </c>
       <c r="D91" t="n">
-        <v>0.22441</v>
+        <v>0.224652</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190386</v>
+        <v>0.189471</v>
       </c>
       <c r="C92" t="n">
-        <v>0.218577</v>
+        <v>0.218781</v>
       </c>
       <c r="D92" t="n">
-        <v>0.223643</v>
+        <v>0.223952</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.181941</v>
+        <v>0.181552</v>
       </c>
       <c r="C93" t="n">
-        <v>0.217674</v>
+        <v>0.218146</v>
       </c>
       <c r="D93" t="n">
-        <v>0.222881</v>
+        <v>0.223109</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.172185</v>
+        <v>0.172356</v>
       </c>
       <c r="C94" t="n">
-        <v>0.217006</v>
+        <v>0.217397</v>
       </c>
       <c r="D94" t="n">
-        <v>0.239689</v>
+        <v>0.239774</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.251371</v>
+        <v>0.249836</v>
       </c>
       <c r="C95" t="n">
-        <v>0.235997</v>
+        <v>0.235481</v>
       </c>
       <c r="D95" t="n">
-        <v>0.236921</v>
+        <v>0.237342</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.247949</v>
+        <v>0.246249</v>
       </c>
       <c r="C96" t="n">
-        <v>0.232507</v>
+        <v>0.232079</v>
       </c>
       <c r="D96" t="n">
-        <v>0.235294</v>
+        <v>0.235483</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.24406</v>
+        <v>0.242157</v>
       </c>
       <c r="C97" t="n">
-        <v>0.229758</v>
+        <v>0.229629</v>
       </c>
       <c r="D97" t="n">
-        <v>0.234149</v>
+        <v>0.234252</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.239812</v>
+        <v>0.237786</v>
       </c>
       <c r="C98" t="n">
-        <v>0.227631</v>
+        <v>0.227636</v>
       </c>
       <c r="D98" t="n">
-        <v>0.232766</v>
+        <v>0.232742</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.235035</v>
+        <v>0.23273</v>
       </c>
       <c r="C99" t="n">
-        <v>0.226102</v>
+        <v>0.226187</v>
       </c>
       <c r="D99" t="n">
-        <v>0.231518</v>
+        <v>0.231237</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.229806</v>
+        <v>0.227544</v>
       </c>
       <c r="C100" t="n">
-        <v>0.224881</v>
+        <v>0.224965</v>
       </c>
       <c r="D100" t="n">
-        <v>0.230179</v>
+        <v>0.23003</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.224406</v>
+        <v>0.222201</v>
       </c>
       <c r="C101" t="n">
-        <v>0.223725</v>
+        <v>0.223704</v>
       </c>
       <c r="D101" t="n">
-        <v>0.228861</v>
+        <v>0.228936</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.218524</v>
+        <v>0.216409</v>
       </c>
       <c r="C102" t="n">
-        <v>0.222552</v>
+        <v>0.222612</v>
       </c>
       <c r="D102" t="n">
-        <v>0.227743</v>
+        <v>0.227882</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.212462</v>
+        <v>0.210403</v>
       </c>
       <c r="C103" t="n">
-        <v>0.221431</v>
+        <v>0.22165</v>
       </c>
       <c r="D103" t="n">
-        <v>0.226834</v>
+        <v>0.227102</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.206135</v>
+        <v>0.204425</v>
       </c>
       <c r="C104" t="n">
-        <v>0.220548</v>
+        <v>0.220799</v>
       </c>
       <c r="D104" t="n">
-        <v>0.22626</v>
+        <v>0.226506</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.199209</v>
+        <v>0.19783</v>
       </c>
       <c r="C105" t="n">
-        <v>0.219707</v>
+        <v>0.219989</v>
       </c>
       <c r="D105" t="n">
-        <v>0.225436</v>
+        <v>0.225625</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.191973</v>
+        <v>0.190879</v>
       </c>
       <c r="C106" t="n">
-        <v>0.218773</v>
+        <v>0.219073</v>
       </c>
       <c r="D106" t="n">
-        <v>0.224491</v>
+        <v>0.22479</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183777</v>
+        <v>0.183233</v>
       </c>
       <c r="C107" t="n">
-        <v>0.217963</v>
+        <v>0.218324</v>
       </c>
       <c r="D107" t="n">
-        <v>0.223796</v>
+        <v>0.223892</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.174248</v>
+        <v>0.174194</v>
       </c>
       <c r="C108" t="n">
-        <v>0.217204</v>
+        <v>0.217587</v>
       </c>
       <c r="D108" t="n">
-        <v>0.239506</v>
+        <v>0.239514</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.162635</v>
+        <v>0.163543</v>
       </c>
       <c r="C109" t="n">
-        <v>0.216504</v>
+        <v>0.216951</v>
       </c>
       <c r="D109" t="n">
-        <v>0.237284</v>
+        <v>0.237236</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.249387</v>
+        <v>0.247516</v>
       </c>
       <c r="C110" t="n">
-        <v>0.233062</v>
+        <v>0.232698</v>
       </c>
       <c r="D110" t="n">
-        <v>0.235319</v>
+        <v>0.235278</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.24573</v>
+        <v>0.243635</v>
       </c>
       <c r="C111" t="n">
-        <v>0.230161</v>
+        <v>0.229939</v>
       </c>
       <c r="D111" t="n">
-        <v>0.233757</v>
+        <v>0.233667</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.241216</v>
+        <v>0.23917</v>
       </c>
       <c r="C112" t="n">
-        <v>0.228092</v>
+        <v>0.227824</v>
       </c>
       <c r="D112" t="n">
-        <v>0.232295</v>
+        <v>0.232252</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.236476</v>
+        <v>0.234229</v>
       </c>
       <c r="C113" t="n">
-        <v>0.226458</v>
+        <v>0.226297</v>
       </c>
       <c r="D113" t="n">
-        <v>0.231029</v>
+        <v>0.230946</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.231203</v>
+        <v>0.229117</v>
       </c>
       <c r="C114" t="n">
-        <v>0.225045</v>
+        <v>0.224973</v>
       </c>
       <c r="D114" t="n">
-        <v>0.22975</v>
+        <v>0.229701</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.225657</v>
+        <v>0.223487</v>
       </c>
       <c r="C115" t="n">
         <v>0.223773</v>
       </c>
       <c r="D115" t="n">
-        <v>0.228639</v>
+        <v>0.228696</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.219919</v>
+        <v>0.217854</v>
       </c>
       <c r="C116" t="n">
-        <v>0.22317</v>
+        <v>0.22318</v>
       </c>
       <c r="D116" t="n">
-        <v>0.227642</v>
+        <v>0.227727</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.213884</v>
+        <v>0.211891</v>
       </c>
       <c r="C117" t="n">
-        <v>0.222041</v>
+        <v>0.222151</v>
       </c>
       <c r="D117" t="n">
-        <v>0.22708</v>
+        <v>0.227247</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.2075</v>
+        <v>0.206023</v>
       </c>
       <c r="C118" t="n">
-        <v>0.221087</v>
+        <v>0.221241</v>
       </c>
       <c r="D118" t="n">
-        <v>0.22618</v>
+        <v>0.226364</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.20084</v>
+        <v>0.19968</v>
       </c>
       <c r="C119" t="n">
-        <v>0.220219</v>
+        <v>0.220424</v>
       </c>
       <c r="D119" t="n">
-        <v>0.225298</v>
+        <v>0.225553</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.193499</v>
+        <v>0.19286</v>
       </c>
       <c r="C120" t="n">
-        <v>0.219319</v>
+        <v>0.219588</v>
       </c>
       <c r="D120" t="n">
-        <v>0.224476</v>
+        <v>0.224697</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.18537</v>
+        <v>0.185266</v>
       </c>
       <c r="C121" t="n">
-        <v>0.218528</v>
+        <v>0.218791</v>
       </c>
       <c r="D121" t="n">
-        <v>0.223808</v>
+        <v>0.223953</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.175896</v>
+        <v>0.177203</v>
       </c>
       <c r="C122" t="n">
-        <v>0.217658</v>
+        <v>0.218026</v>
       </c>
       <c r="D122" t="n">
-        <v>0.223103</v>
+        <v>0.223213</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.164805</v>
+        <v>0.166714</v>
       </c>
       <c r="C123" t="n">
-        <v>0.216822</v>
+        <v>0.217271</v>
       </c>
       <c r="D123" t="n">
-        <v>0.237391</v>
+        <v>0.23738</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.250455</v>
+        <v>0.249321</v>
       </c>
       <c r="C124" t="n">
-        <v>0.233531</v>
+        <v>0.233173</v>
       </c>
       <c r="D124" t="n">
-        <v>0.235442</v>
+        <v>0.23526</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.246408</v>
+        <v>0.245492</v>
       </c>
       <c r="C125" t="n">
-        <v>0.230473</v>
+        <v>0.230177</v>
       </c>
       <c r="D125" t="n">
-        <v>0.233789</v>
+        <v>0.233617</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.241897</v>
+        <v>0.240417</v>
       </c>
       <c r="C126" t="n">
-        <v>0.228316</v>
+        <v>0.228056</v>
       </c>
       <c r="D126" t="n">
-        <v>0.232315</v>
+        <v>0.232109</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.238637</v>
+        <v>0.236239</v>
       </c>
       <c r="C127" t="n">
-        <v>0.226603</v>
+        <v>0.226466</v>
       </c>
       <c r="D127" t="n">
-        <v>0.230922</v>
+        <v>0.230799</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.233515</v>
+        <v>0.231105</v>
       </c>
       <c r="C128" t="n">
-        <v>0.225216</v>
+        <v>0.225136</v>
       </c>
       <c r="D128" t="n">
-        <v>0.229775</v>
+        <v>0.22962</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.228068</v>
+        <v>0.225593</v>
       </c>
       <c r="C129" t="n">
-        <v>0.223983</v>
+        <v>0.223995</v>
       </c>
       <c r="D129" t="n">
-        <v>0.228635</v>
+        <v>0.228491</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.222463</v>
+        <v>0.219863</v>
       </c>
       <c r="C130" t="n">
-        <v>0.222903</v>
+        <v>0.222928</v>
       </c>
       <c r="D130" t="n">
-        <v>0.227638</v>
+        <v>0.227558</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.216639</v>
+        <v>0.213642</v>
       </c>
       <c r="C131" t="n">
-        <v>0.221901</v>
+        <v>0.221979</v>
       </c>
       <c r="D131" t="n">
-        <v>0.226715</v>
+        <v>0.226934</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.210486</v>
+        <v>0.207919</v>
       </c>
       <c r="C132" t="n">
-        <v>0.220927</v>
+        <v>0.22102</v>
       </c>
       <c r="D132" t="n">
-        <v>0.225803</v>
+        <v>0.226011</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.20399</v>
+        <v>0.201427</v>
       </c>
       <c r="C133" t="n">
-        <v>0.21997</v>
+        <v>0.220173</v>
       </c>
       <c r="D133" t="n">
-        <v>0.224945</v>
+        <v>0.22526</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.196767</v>
+        <v>0.194541</v>
       </c>
       <c r="C134" t="n">
-        <v>0.219153</v>
+        <v>0.21938</v>
       </c>
       <c r="D134" t="n">
-        <v>0.224192</v>
+        <v>0.224423</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.187361</v>
+        <v>0.187094</v>
       </c>
       <c r="C135" t="n">
-        <v>0.218309</v>
+        <v>0.218588</v>
       </c>
       <c r="D135" t="n">
-        <v>0.223375</v>
+        <v>0.22371</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.178486</v>
+        <v>0.178481</v>
       </c>
       <c r="C136" t="n">
-        <v>0.217882</v>
+        <v>0.218255</v>
       </c>
       <c r="D136" t="n">
-        <v>0.223139</v>
+        <v>0.223366</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.168901</v>
+        <v>0.168417</v>
       </c>
       <c r="C137" t="n">
-        <v>0.216933</v>
+        <v>0.217477</v>
       </c>
       <c r="D137" t="n">
-        <v>0.238735</v>
+        <v>0.238627</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.25144</v>
+        <v>0.249333</v>
       </c>
       <c r="C138" t="n">
-        <v>0.235061</v>
+        <v>0.234564</v>
       </c>
       <c r="D138" t="n">
-        <v>0.236597</v>
+        <v>0.236505</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.247255</v>
+        <v>0.245169</v>
       </c>
       <c r="C139" t="n">
-        <v>0.231891</v>
+        <v>0.231494</v>
       </c>
       <c r="D139" t="n">
-        <v>0.234819</v>
+        <v>0.234734</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.243107</v>
+        <v>0.241156</v>
       </c>
       <c r="C140" t="n">
-        <v>0.229312</v>
+        <v>0.229038</v>
       </c>
       <c r="D140" t="n">
-        <v>0.233258</v>
+        <v>0.232983</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.238495</v>
+        <v>0.236386</v>
       </c>
       <c r="C141" t="n">
-        <v>0.227465</v>
+        <v>0.227304</v>
       </c>
       <c r="D141" t="n">
-        <v>0.231838</v>
+        <v>0.231551</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.233464</v>
+        <v>0.231271</v>
       </c>
       <c r="C142" t="n">
-        <v>0.22601</v>
+        <v>0.225886</v>
       </c>
       <c r="D142" t="n">
-        <v>0.230603</v>
+        <v>0.230425</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.227948</v>
+        <v>0.225791</v>
       </c>
       <c r="C143" t="n">
-        <v>0.224727</v>
+        <v>0.224623</v>
       </c>
       <c r="D143" t="n">
-        <v>0.229437</v>
+        <v>0.229457</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.185676</v>
+        <v>0.200012</v>
       </c>
       <c r="C2" t="n">
-        <v>0.206342</v>
+        <v>0.197803</v>
       </c>
       <c r="D2" t="n">
-        <v>0.211897</v>
+        <v>0.209697</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.180132</v>
+        <v>0.193153</v>
       </c>
       <c r="C3" t="n">
-        <v>0.206391</v>
+        <v>0.219566</v>
       </c>
       <c r="D3" t="n">
-        <v>0.210989</v>
+        <v>0.211149</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.174649</v>
+        <v>0.188082</v>
       </c>
       <c r="C4" t="n">
-        <v>0.206251</v>
+        <v>0.242233</v>
       </c>
       <c r="D4" t="n">
-        <v>0.211994</v>
+        <v>0.210373</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1708</v>
+        <v>0.182908</v>
       </c>
       <c r="C5" t="n">
-        <v>0.206083</v>
+        <v>0.265393</v>
       </c>
       <c r="D5" t="n">
-        <v>0.212742</v>
+        <v>0.210223</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.165824</v>
+        <v>0.175607</v>
       </c>
       <c r="C6" t="n">
-        <v>0.205704</v>
+        <v>0.291334</v>
       </c>
       <c r="D6" t="n">
-        <v>0.213364</v>
+        <v>0.210662</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.161776</v>
+        <v>0.170344</v>
       </c>
       <c r="C7" t="n">
-        <v>0.206787</v>
+        <v>0.315308</v>
       </c>
       <c r="D7" t="n">
-        <v>0.212527</v>
+        <v>0.211015</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.155428</v>
+        <v>0.160961</v>
       </c>
       <c r="C8" t="n">
-        <v>0.206972</v>
+        <v>0.129804</v>
       </c>
       <c r="D8" t="n">
-        <v>0.212803</v>
+        <v>0.212451</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.144948</v>
+        <v>0.148777</v>
       </c>
       <c r="C9" t="n">
-        <v>0.206525</v>
+        <v>0.136669</v>
       </c>
       <c r="D9" t="n">
-        <v>0.230537</v>
+        <v>0.226939</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.228</v>
+        <v>0.233678</v>
       </c>
       <c r="C10" t="n">
-        <v>0.224501</v>
+        <v>0.148815</v>
       </c>
       <c r="D10" t="n">
-        <v>0.228573</v>
+        <v>0.225693</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.223182</v>
+        <v>0.231239</v>
       </c>
       <c r="C11" t="n">
-        <v>0.223081</v>
+        <v>0.159107</v>
       </c>
       <c r="D11" t="n">
-        <v>0.228183</v>
+        <v>0.226173</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.221801</v>
+        <v>0.227962</v>
       </c>
       <c r="C12" t="n">
-        <v>0.22144</v>
+        <v>0.170513</v>
       </c>
       <c r="D12" t="n">
-        <v>0.22688</v>
+        <v>0.226191</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.219356</v>
+        <v>0.224497</v>
       </c>
       <c r="C13" t="n">
-        <v>0.22076</v>
+        <v>0.18286</v>
       </c>
       <c r="D13" t="n">
-        <v>0.225906</v>
+        <v>0.225749</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.214861</v>
+        <v>0.220215</v>
       </c>
       <c r="C14" t="n">
-        <v>0.220292</v>
+        <v>0.196175</v>
       </c>
       <c r="D14" t="n">
-        <v>0.226138</v>
+        <v>0.225173</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.211667</v>
+        <v>0.216003</v>
       </c>
       <c r="C15" t="n">
-        <v>0.219296</v>
+        <v>0.207817</v>
       </c>
       <c r="D15" t="n">
-        <v>0.224852</v>
+        <v>0.224658</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.207499</v>
+        <v>0.210905</v>
       </c>
       <c r="C16" t="n">
-        <v>0.219351</v>
+        <v>0.220875</v>
       </c>
       <c r="D16" t="n">
-        <v>0.224285</v>
+        <v>0.223823</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.203217</v>
+        <v>0.207237</v>
       </c>
       <c r="C17" t="n">
-        <v>0.218208</v>
+        <v>0.23603</v>
       </c>
       <c r="D17" t="n">
-        <v>0.223738</v>
+        <v>0.223537</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.198195</v>
+        <v>0.201612</v>
       </c>
       <c r="C18" t="n">
-        <v>0.217761</v>
+        <v>0.254641</v>
       </c>
       <c r="D18" t="n">
-        <v>0.222833</v>
+        <v>0.222779</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.193629</v>
+        <v>0.197327</v>
       </c>
       <c r="C19" t="n">
-        <v>0.216502</v>
+        <v>0.274232</v>
       </c>
       <c r="D19" t="n">
-        <v>0.222362</v>
+        <v>0.222357</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.187751</v>
+        <v>0.190201</v>
       </c>
       <c r="C20" t="n">
-        <v>0.216044</v>
+        <v>0.294886</v>
       </c>
       <c r="D20" t="n">
-        <v>0.221665</v>
+        <v>0.221344</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.180035</v>
+        <v>0.182871</v>
       </c>
       <c r="C21" t="n">
-        <v>0.215723</v>
+        <v>0.313687</v>
       </c>
       <c r="D21" t="n">
-        <v>0.22088</v>
+        <v>0.220885</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.172784</v>
+        <v>0.175993</v>
       </c>
       <c r="C22" t="n">
-        <v>0.214961</v>
+        <v>0.155311</v>
       </c>
       <c r="D22" t="n">
-        <v>0.220591</v>
+        <v>0.221055</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.165292</v>
+        <v>0.166983</v>
       </c>
       <c r="C23" t="n">
-        <v>0.214347</v>
+        <v>0.161988</v>
       </c>
       <c r="D23" t="n">
-        <v>0.235194</v>
+        <v>0.234337</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.240475</v>
+        <v>0.242488</v>
       </c>
       <c r="C24" t="n">
-        <v>0.228229</v>
+        <v>0.170911</v>
       </c>
       <c r="D24" t="n">
-        <v>0.233005</v>
+        <v>0.2323</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.236492</v>
+        <v>0.239265</v>
       </c>
       <c r="C25" t="n">
-        <v>0.226899</v>
+        <v>0.179988</v>
       </c>
       <c r="D25" t="n">
-        <v>0.231578</v>
+        <v>0.231465</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.233241</v>
+        <v>0.235848</v>
       </c>
       <c r="C26" t="n">
-        <v>0.225716</v>
+        <v>0.189912</v>
       </c>
       <c r="D26" t="n">
-        <v>0.230628</v>
+        <v>0.230339</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.230251</v>
+        <v>0.231458</v>
       </c>
       <c r="C27" t="n">
-        <v>0.224617</v>
+        <v>0.198625</v>
       </c>
       <c r="D27" t="n">
-        <v>0.229637</v>
+        <v>0.229854</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.224755</v>
+        <v>0.22717</v>
       </c>
       <c r="C28" t="n">
-        <v>0.223593</v>
+        <v>0.2088</v>
       </c>
       <c r="D28" t="n">
-        <v>0.228573</v>
+        <v>0.22882</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.219593</v>
+        <v>0.222182</v>
       </c>
       <c r="C29" t="n">
-        <v>0.222753</v>
+        <v>0.220882</v>
       </c>
       <c r="D29" t="n">
-        <v>0.228004</v>
+        <v>0.227741</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.214348</v>
+        <v>0.216946</v>
       </c>
       <c r="C30" t="n">
-        <v>0.221393</v>
+        <v>0.232475</v>
       </c>
       <c r="D30" t="n">
-        <v>0.226931</v>
+        <v>0.226507</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.209574</v>
+        <v>0.212394</v>
       </c>
       <c r="C31" t="n">
-        <v>0.220153</v>
+        <v>0.249475</v>
       </c>
       <c r="D31" t="n">
-        <v>0.225776</v>
+        <v>0.22561</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.205184</v>
+        <v>0.20664</v>
       </c>
       <c r="C32" t="n">
-        <v>0.219776</v>
+        <v>0.267226</v>
       </c>
       <c r="D32" t="n">
-        <v>0.225286</v>
+        <v>0.224969</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.198948</v>
+        <v>0.20116</v>
       </c>
       <c r="C33" t="n">
-        <v>0.219098</v>
+        <v>0.287891</v>
       </c>
       <c r="D33" t="n">
-        <v>0.224204</v>
+        <v>0.224232</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.192883</v>
+        <v>0.194927</v>
       </c>
       <c r="C34" t="n">
-        <v>0.21838</v>
+        <v>0.309502</v>
       </c>
       <c r="D34" t="n">
-        <v>0.223657</v>
+        <v>0.223609</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.185908</v>
+        <v>0.18808</v>
       </c>
       <c r="C35" t="n">
-        <v>0.217386</v>
+        <v>0.332728</v>
       </c>
       <c r="D35" t="n">
-        <v>0.222663</v>
+        <v>0.222928</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.178589</v>
+        <v>0.180636</v>
       </c>
       <c r="C36" t="n">
-        <v>0.216909</v>
+        <v>0.360823</v>
       </c>
       <c r="D36" t="n">
-        <v>0.22225</v>
+        <v>0.222451</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.16982</v>
+        <v>0.170827</v>
       </c>
       <c r="C37" t="n">
-        <v>0.216298</v>
+        <v>0.173791</v>
       </c>
       <c r="D37" t="n">
-        <v>0.236223</v>
+        <v>0.235718</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.247158</v>
+        <v>0.248407</v>
       </c>
       <c r="C38" t="n">
-        <v>0.229586</v>
+        <v>0.180256</v>
       </c>
       <c r="D38" t="n">
-        <v>0.234484</v>
+        <v>0.234135</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.243364</v>
+        <v>0.244687</v>
       </c>
       <c r="C39" t="n">
-        <v>0.228129</v>
+        <v>0.188774</v>
       </c>
       <c r="D39" t="n">
-        <v>0.232956</v>
+        <v>0.233053</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.239461</v>
+        <v>0.239962</v>
       </c>
       <c r="C40" t="n">
-        <v>0.226778</v>
+        <v>0.196781</v>
       </c>
       <c r="D40" t="n">
-        <v>0.231998</v>
+        <v>0.232072</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.234532</v>
+        <v>0.235798</v>
       </c>
       <c r="C41" t="n">
-        <v>0.225629</v>
+        <v>0.207626</v>
       </c>
       <c r="D41" t="n">
-        <v>0.230815</v>
+        <v>0.230831</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.230356</v>
+        <v>0.230722</v>
       </c>
       <c r="C42" t="n">
-        <v>0.224275</v>
+        <v>0.217698</v>
       </c>
       <c r="D42" t="n">
-        <v>0.229637</v>
+        <v>0.229681</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.225328</v>
+        <v>0.22621</v>
       </c>
       <c r="C43" t="n">
-        <v>0.223361</v>
+        <v>0.229875</v>
       </c>
       <c r="D43" t="n">
-        <v>0.228293</v>
+        <v>0.228421</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.220181</v>
+        <v>0.221104</v>
       </c>
       <c r="C44" t="n">
-        <v>0.222586</v>
+        <v>0.243353</v>
       </c>
       <c r="D44" t="n">
-        <v>0.227189</v>
+        <v>0.22765</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.214766</v>
+        <v>0.216096</v>
       </c>
       <c r="C45" t="n">
-        <v>0.2215</v>
+        <v>0.258675</v>
       </c>
       <c r="D45" t="n">
-        <v>0.226545</v>
+        <v>0.226684</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.209469</v>
+        <v>0.21052</v>
       </c>
       <c r="C46" t="n">
-        <v>0.220451</v>
+        <v>0.275434</v>
       </c>
       <c r="D46" t="n">
-        <v>0.225806</v>
+        <v>0.225698</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.202881</v>
+        <v>0.204371</v>
       </c>
       <c r="C47" t="n">
-        <v>0.219739</v>
+        <v>0.29524</v>
       </c>
       <c r="D47" t="n">
-        <v>0.224646</v>
+        <v>0.224889</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.196644</v>
+        <v>0.198333</v>
       </c>
       <c r="C48" t="n">
-        <v>0.21908</v>
+        <v>0.318876</v>
       </c>
       <c r="D48" t="n">
-        <v>0.2238</v>
+        <v>0.22426</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.189799</v>
+        <v>0.19099</v>
       </c>
       <c r="C49" t="n">
-        <v>0.218299</v>
+        <v>0.343007</v>
       </c>
       <c r="D49" t="n">
-        <v>0.223402</v>
+        <v>0.223368</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.182171</v>
+        <v>0.183524</v>
       </c>
       <c r="C50" t="n">
-        <v>0.217688</v>
+        <v>0.369959</v>
       </c>
       <c r="D50" t="n">
-        <v>0.222666</v>
+        <v>0.222851</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173181</v>
+        <v>0.174033</v>
       </c>
       <c r="C51" t="n">
-        <v>0.216902</v>
+        <v>0.17825</v>
       </c>
       <c r="D51" t="n">
-        <v>0.23705</v>
+        <v>0.236828</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.163578</v>
+        <v>0.162952</v>
       </c>
       <c r="C52" t="n">
-        <v>0.216369</v>
+        <v>0.183432</v>
       </c>
       <c r="D52" t="n">
-        <v>0.235127</v>
+        <v>0.235371</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.246029</v>
+        <v>0.246174</v>
       </c>
       <c r="C53" t="n">
-        <v>0.228988</v>
+        <v>0.191844</v>
       </c>
       <c r="D53" t="n">
-        <v>0.233555</v>
+        <v>0.234119</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.241922</v>
+        <v>0.242003</v>
       </c>
       <c r="C54" t="n">
-        <v>0.227582</v>
+        <v>0.200446</v>
       </c>
       <c r="D54" t="n">
-        <v>0.232415</v>
+        <v>0.232685</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.237858</v>
+        <v>0.237787</v>
       </c>
       <c r="C55" t="n">
-        <v>0.226392</v>
+        <v>0.21076</v>
       </c>
       <c r="D55" t="n">
-        <v>0.231165</v>
+        <v>0.231449</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.233269</v>
+        <v>0.233371</v>
       </c>
       <c r="C56" t="n">
-        <v>0.22518</v>
+        <v>0.219721</v>
       </c>
       <c r="D56" t="n">
-        <v>0.23025</v>
+        <v>0.230276</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.22815</v>
+        <v>0.228569</v>
       </c>
       <c r="C57" t="n">
-        <v>0.224197</v>
+        <v>0.234096</v>
       </c>
       <c r="D57" t="n">
-        <v>0.229226</v>
+        <v>0.229297</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.222562</v>
+        <v>0.223262</v>
       </c>
       <c r="C58" t="n">
-        <v>0.223289</v>
+        <v>0.246616</v>
       </c>
       <c r="D58" t="n">
-        <v>0.228065</v>
+        <v>0.228182</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.216924</v>
+        <v>0.217779</v>
       </c>
       <c r="C59" t="n">
-        <v>0.222134</v>
+        <v>0.260476</v>
       </c>
       <c r="D59" t="n">
-        <v>0.227236</v>
+        <v>0.227238</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.211116</v>
+        <v>0.2124</v>
       </c>
       <c r="C60" t="n">
-        <v>0.221132</v>
+        <v>0.276628</v>
       </c>
       <c r="D60" t="n">
-        <v>0.226157</v>
+        <v>0.226311</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.205038</v>
+        <v>0.206369</v>
       </c>
       <c r="C61" t="n">
-        <v>0.220484</v>
+        <v>0.297509</v>
       </c>
       <c r="D61" t="n">
-        <v>0.225522</v>
+        <v>0.225514</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.198903</v>
+        <v>0.200163</v>
       </c>
       <c r="C62" t="n">
-        <v>0.219576</v>
+        <v>0.321493</v>
       </c>
       <c r="D62" t="n">
-        <v>0.22457</v>
+        <v>0.224707</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.192346</v>
+        <v>0.193626</v>
       </c>
       <c r="C63" t="n">
-        <v>0.218924</v>
+        <v>0.346263</v>
       </c>
       <c r="D63" t="n">
-        <v>0.223777</v>
+        <v>0.223825</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.185033</v>
+        <v>0.185958</v>
       </c>
       <c r="C64" t="n">
-        <v>0.218057</v>
+        <v>0.376102</v>
       </c>
       <c r="D64" t="n">
-        <v>0.222988</v>
+        <v>0.222883</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.176946</v>
+        <v>0.17684</v>
       </c>
       <c r="C65" t="n">
-        <v>0.217249</v>
+        <v>0.180613</v>
       </c>
       <c r="D65" t="n">
-        <v>0.22218</v>
+        <v>0.222272</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.167037</v>
+        <v>0.166712</v>
       </c>
       <c r="C66" t="n">
-        <v>0.216769</v>
+        <v>0.185921</v>
       </c>
       <c r="D66" t="n">
-        <v>0.236041</v>
+        <v>0.236408</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.247886</v>
+        <v>0.248085</v>
       </c>
       <c r="C67" t="n">
-        <v>0.231031</v>
+        <v>0.19254</v>
       </c>
       <c r="D67" t="n">
-        <v>0.234558</v>
+        <v>0.234827</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.245132</v>
+        <v>0.244073</v>
       </c>
       <c r="C68" t="n">
-        <v>0.229239</v>
+        <v>0.201267</v>
       </c>
       <c r="D68" t="n">
-        <v>0.23311</v>
+        <v>0.233592</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.240446</v>
+        <v>0.239978</v>
       </c>
       <c r="C69" t="n">
-        <v>0.227931</v>
+        <v>0.212975</v>
       </c>
       <c r="D69" t="n">
-        <v>0.231838</v>
+        <v>0.232286</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.235549</v>
+        <v>0.235422</v>
       </c>
       <c r="C70" t="n">
-        <v>0.226548</v>
+        <v>0.222019</v>
       </c>
       <c r="D70" t="n">
-        <v>0.230683</v>
+        <v>0.231176</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.230497</v>
+        <v>0.230652</v>
       </c>
       <c r="C71" t="n">
-        <v>0.225228</v>
+        <v>0.233806</v>
       </c>
       <c r="D71" t="n">
-        <v>0.229723</v>
+        <v>0.230044</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.225119</v>
+        <v>0.225824</v>
       </c>
       <c r="C72" t="n">
-        <v>0.223998</v>
+        <v>0.247399</v>
       </c>
       <c r="D72" t="n">
-        <v>0.228403</v>
+        <v>0.229075</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.219382</v>
+        <v>0.220292</v>
       </c>
       <c r="C73" t="n">
-        <v>0.22295</v>
+        <v>0.264291</v>
       </c>
       <c r="D73" t="n">
-        <v>0.227463</v>
+        <v>0.227771</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.213502</v>
+        <v>0.214871</v>
       </c>
       <c r="C74" t="n">
-        <v>0.221952</v>
+        <v>0.280577</v>
       </c>
       <c r="D74" t="n">
-        <v>0.226427</v>
+        <v>0.226842</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.207758</v>
+        <v>0.209047</v>
       </c>
       <c r="C75" t="n">
-        <v>0.221102</v>
+        <v>0.298173</v>
       </c>
       <c r="D75" t="n">
-        <v>0.225606</v>
+        <v>0.225973</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.20141</v>
+        <v>0.20276</v>
       </c>
       <c r="C76" t="n">
-        <v>0.220159</v>
+        <v>0.320345</v>
       </c>
       <c r="D76" t="n">
-        <v>0.22483</v>
+        <v>0.225091</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.194878</v>
+        <v>0.196003</v>
       </c>
       <c r="C77" t="n">
-        <v>0.219366</v>
+        <v>0.347786</v>
       </c>
       <c r="D77" t="n">
-        <v>0.223922</v>
+        <v>0.224359</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.187626</v>
+        <v>0.188441</v>
       </c>
       <c r="C78" t="n">
-        <v>0.218513</v>
+        <v>0.37601</v>
       </c>
       <c r="D78" t="n">
-        <v>0.223154</v>
+        <v>0.223485</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179617</v>
+        <v>0.180198</v>
       </c>
       <c r="C79" t="n">
-        <v>0.217776</v>
+        <v>0.226702</v>
       </c>
       <c r="D79" t="n">
-        <v>0.222414</v>
+        <v>0.22274</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.170136</v>
+        <v>0.16941</v>
       </c>
       <c r="C80" t="n">
-        <v>0.217</v>
+        <v>0.2318</v>
       </c>
       <c r="D80" t="n">
-        <v>0.238619</v>
+        <v>0.239975</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.249767</v>
+        <v>0.249574</v>
       </c>
       <c r="C81" t="n">
-        <v>0.23851</v>
+        <v>0.235306</v>
       </c>
       <c r="D81" t="n">
-        <v>0.236031</v>
+        <v>0.237402</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.246486</v>
+        <v>0.245613</v>
       </c>
       <c r="C82" t="n">
-        <v>0.233595</v>
+        <v>0.238696</v>
       </c>
       <c r="D82" t="n">
-        <v>0.234536</v>
+        <v>0.235498</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.24203</v>
+        <v>0.241352</v>
       </c>
       <c r="C83" t="n">
-        <v>0.229784</v>
+        <v>0.24962</v>
       </c>
       <c r="D83" t="n">
-        <v>0.23288</v>
+        <v>0.234058</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.237216</v>
+        <v>0.237355</v>
       </c>
       <c r="C84" t="n">
-        <v>0.22734</v>
+        <v>0.256488</v>
       </c>
       <c r="D84" t="n">
-        <v>0.231862</v>
+        <v>0.233032</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.23196</v>
+        <v>0.231743</v>
       </c>
       <c r="C85" t="n">
-        <v>0.225908</v>
+        <v>0.267994</v>
       </c>
       <c r="D85" t="n">
-        <v>0.230503</v>
+        <v>0.23146</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.22674</v>
+        <v>0.226685</v>
       </c>
       <c r="C86" t="n">
-        <v>0.224539</v>
+        <v>0.27872</v>
       </c>
       <c r="D86" t="n">
-        <v>0.229322</v>
+        <v>0.22985</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.220989</v>
+        <v>0.221466</v>
       </c>
       <c r="C87" t="n">
-        <v>0.223482</v>
+        <v>0.292335</v>
       </c>
       <c r="D87" t="n">
-        <v>0.228112</v>
+        <v>0.228379</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.215007</v>
+        <v>0.215647</v>
       </c>
       <c r="C88" t="n">
-        <v>0.222417</v>
+        <v>0.304005</v>
       </c>
       <c r="D88" t="n">
-        <v>0.227253</v>
+        <v>0.227333</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.209143</v>
+        <v>0.209984</v>
       </c>
       <c r="C89" t="n">
-        <v>0.221441</v>
+        <v>0.322314</v>
       </c>
       <c r="D89" t="n">
-        <v>0.22631</v>
+        <v>0.226459</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.202998</v>
+        <v>0.203654</v>
       </c>
       <c r="C90" t="n">
-        <v>0.22047</v>
+        <v>0.340235</v>
       </c>
       <c r="D90" t="n">
-        <v>0.225465</v>
+        <v>0.225576</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.196529</v>
+        <v>0.197127</v>
       </c>
       <c r="C91" t="n">
-        <v>0.219611</v>
+        <v>0.362597</v>
       </c>
       <c r="D91" t="n">
-        <v>0.224652</v>
+        <v>0.224775</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.189471</v>
+        <v>0.189716</v>
       </c>
       <c r="C92" t="n">
-        <v>0.218781</v>
+        <v>0.393907</v>
       </c>
       <c r="D92" t="n">
-        <v>0.223952</v>
+        <v>0.223855</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.181552</v>
+        <v>0.181437</v>
       </c>
       <c r="C93" t="n">
-        <v>0.218146</v>
+        <v>0.417441</v>
       </c>
       <c r="D93" t="n">
-        <v>0.223109</v>
+        <v>0.223176</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.172356</v>
+        <v>0.173017</v>
       </c>
       <c r="C94" t="n">
-        <v>0.217397</v>
+        <v>0.378164</v>
       </c>
       <c r="D94" t="n">
-        <v>0.239774</v>
+        <v>0.240405</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.249836</v>
+        <v>0.249779</v>
       </c>
       <c r="C95" t="n">
-        <v>0.235481</v>
+        <v>0.383729</v>
       </c>
       <c r="D95" t="n">
-        <v>0.237342</v>
+        <v>0.237768</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.246249</v>
+        <v>0.246129</v>
       </c>
       <c r="C96" t="n">
-        <v>0.232079</v>
+        <v>0.383571</v>
       </c>
       <c r="D96" t="n">
-        <v>0.235483</v>
+        <v>0.236068</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.242157</v>
+        <v>0.242045</v>
       </c>
       <c r="C97" t="n">
-        <v>0.229629</v>
+        <v>0.395255</v>
       </c>
       <c r="D97" t="n">
-        <v>0.234252</v>
+        <v>0.234842</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.237786</v>
+        <v>0.237676</v>
       </c>
       <c r="C98" t="n">
-        <v>0.227636</v>
+        <v>0.400455</v>
       </c>
       <c r="D98" t="n">
-        <v>0.232742</v>
+        <v>0.233147</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.23273</v>
+        <v>0.232789</v>
       </c>
       <c r="C99" t="n">
-        <v>0.226187</v>
+        <v>0.406752</v>
       </c>
       <c r="D99" t="n">
-        <v>0.231237</v>
+        <v>0.231858</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.227544</v>
+        <v>0.227853</v>
       </c>
       <c r="C100" t="n">
-        <v>0.224965</v>
+        <v>0.417771</v>
       </c>
       <c r="D100" t="n">
-        <v>0.23003</v>
+        <v>0.230147</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.222201</v>
+        <v>0.222309</v>
       </c>
       <c r="C101" t="n">
-        <v>0.223704</v>
+        <v>0.432842</v>
       </c>
       <c r="D101" t="n">
-        <v>0.228936</v>
+        <v>0.228907</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.216409</v>
+        <v>0.217113</v>
       </c>
       <c r="C102" t="n">
-        <v>0.222612</v>
+        <v>0.444065</v>
       </c>
       <c r="D102" t="n">
-        <v>0.227882</v>
+        <v>0.227853</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.210403</v>
+        <v>0.211453</v>
       </c>
       <c r="C103" t="n">
-        <v>0.22165</v>
+        <v>0.468412</v>
       </c>
       <c r="D103" t="n">
-        <v>0.227102</v>
+        <v>0.227174</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.204425</v>
+        <v>0.205347</v>
       </c>
       <c r="C104" t="n">
-        <v>0.220799</v>
+        <v>0.492392</v>
       </c>
       <c r="D104" t="n">
-        <v>0.226506</v>
+        <v>0.22652</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.19783</v>
+        <v>0.199034</v>
       </c>
       <c r="C105" t="n">
-        <v>0.219989</v>
+        <v>0.518729</v>
       </c>
       <c r="D105" t="n">
-        <v>0.225625</v>
+        <v>0.225645</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.190879</v>
+        <v>0.191559</v>
       </c>
       <c r="C106" t="n">
-        <v>0.219073</v>
+        <v>0.5464059999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>0.22479</v>
+        <v>0.22478</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183233</v>
+        <v>0.183444</v>
       </c>
       <c r="C107" t="n">
-        <v>0.218324</v>
+        <v>0.580531</v>
       </c>
       <c r="D107" t="n">
-        <v>0.223892</v>
+        <v>0.223993</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.174194</v>
+        <v>0.17371</v>
       </c>
       <c r="C108" t="n">
-        <v>0.217587</v>
+        <v>0.478511</v>
       </c>
       <c r="D108" t="n">
-        <v>0.239514</v>
+        <v>0.239865</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.163543</v>
+        <v>0.162807</v>
       </c>
       <c r="C109" t="n">
-        <v>0.216951</v>
+        <v>0.487266</v>
       </c>
       <c r="D109" t="n">
-        <v>0.237236</v>
+        <v>0.237311</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.247516</v>
+        <v>0.247596</v>
       </c>
       <c r="C110" t="n">
-        <v>0.232698</v>
+        <v>0.495824</v>
       </c>
       <c r="D110" t="n">
-        <v>0.235278</v>
+        <v>0.235366</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.243635</v>
+        <v>0.243629</v>
       </c>
       <c r="C111" t="n">
-        <v>0.229939</v>
+        <v>0.505317</v>
       </c>
       <c r="D111" t="n">
-        <v>0.233667</v>
+        <v>0.233681</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.23917</v>
+        <v>0.239132</v>
       </c>
       <c r="C112" t="n">
-        <v>0.227824</v>
+        <v>0.518221</v>
       </c>
       <c r="D112" t="n">
-        <v>0.232252</v>
+        <v>0.232228</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.234229</v>
+        <v>0.234298</v>
       </c>
       <c r="C113" t="n">
-        <v>0.226297</v>
+        <v>0.5306</v>
       </c>
       <c r="D113" t="n">
-        <v>0.230946</v>
+        <v>0.230938</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.229117</v>
+        <v>0.229192</v>
       </c>
       <c r="C114" t="n">
-        <v>0.224973</v>
+        <v>0.545943</v>
       </c>
       <c r="D114" t="n">
-        <v>0.229701</v>
+        <v>0.229714</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.223487</v>
+        <v>0.223766</v>
       </c>
       <c r="C115" t="n">
-        <v>0.223773</v>
+        <v>0.563163</v>
       </c>
       <c r="D115" t="n">
-        <v>0.228696</v>
+        <v>0.228601</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.217854</v>
+        <v>0.218354</v>
       </c>
       <c r="C116" t="n">
-        <v>0.22318</v>
+        <v>0.582345</v>
       </c>
       <c r="D116" t="n">
-        <v>0.227727</v>
+        <v>0.227606</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.211891</v>
+        <v>0.212737</v>
       </c>
       <c r="C117" t="n">
-        <v>0.222151</v>
+        <v>0.598124</v>
       </c>
       <c r="D117" t="n">
-        <v>0.227247</v>
+        <v>0.227132</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.206023</v>
+        <v>0.206498</v>
       </c>
       <c r="C118" t="n">
-        <v>0.221241</v>
+        <v>0.6336889999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>0.226364</v>
+        <v>0.226082</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.19968</v>
+        <v>0.200138</v>
       </c>
       <c r="C119" t="n">
-        <v>0.220424</v>
+        <v>0.6749270000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>0.225553</v>
+        <v>0.225308</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.19286</v>
+        <v>0.193169</v>
       </c>
       <c r="C120" t="n">
-        <v>0.219588</v>
+        <v>0.726202</v>
       </c>
       <c r="D120" t="n">
-        <v>0.224697</v>
+        <v>0.224478</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.185266</v>
+        <v>0.184852</v>
       </c>
       <c r="C121" t="n">
-        <v>0.218791</v>
+        <v>0.790945</v>
       </c>
       <c r="D121" t="n">
-        <v>0.223953</v>
+        <v>0.22377</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.177203</v>
+        <v>0.175831</v>
       </c>
       <c r="C122" t="n">
-        <v>0.218026</v>
+        <v>0.520234</v>
       </c>
       <c r="D122" t="n">
-        <v>0.223213</v>
+        <v>0.22304</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.166714</v>
+        <v>0.165316</v>
       </c>
       <c r="C123" t="n">
-        <v>0.217271</v>
+        <v>0.528363</v>
       </c>
       <c r="D123" t="n">
-        <v>0.23738</v>
+        <v>0.237494</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.249321</v>
+        <v>0.248016</v>
       </c>
       <c r="C124" t="n">
-        <v>0.233173</v>
+        <v>0.535081</v>
       </c>
       <c r="D124" t="n">
-        <v>0.23526</v>
+        <v>0.235585</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.245492</v>
+        <v>0.24407</v>
       </c>
       <c r="C125" t="n">
-        <v>0.230177</v>
+        <v>0.547861</v>
       </c>
       <c r="D125" t="n">
-        <v>0.233617</v>
+        <v>0.233893</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.240417</v>
+        <v>0.23979</v>
       </c>
       <c r="C126" t="n">
-        <v>0.228056</v>
+        <v>0.557617</v>
       </c>
       <c r="D126" t="n">
-        <v>0.232109</v>
+        <v>0.232397</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.236239</v>
+        <v>0.235103</v>
       </c>
       <c r="C127" t="n">
-        <v>0.226466</v>
+        <v>0.574027</v>
       </c>
       <c r="D127" t="n">
-        <v>0.230799</v>
+        <v>0.231087</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.231105</v>
+        <v>0.230018</v>
       </c>
       <c r="C128" t="n">
-        <v>0.225136</v>
+        <v>0.589224</v>
       </c>
       <c r="D128" t="n">
-        <v>0.22962</v>
+        <v>0.229902</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.225593</v>
+        <v>0.224805</v>
       </c>
       <c r="C129" t="n">
-        <v>0.223995</v>
+        <v>0.598724</v>
       </c>
       <c r="D129" t="n">
-        <v>0.228491</v>
+        <v>0.228752</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.219863</v>
+        <v>0.21951</v>
       </c>
       <c r="C130" t="n">
-        <v>0.222928</v>
+        <v>0.624038</v>
       </c>
       <c r="D130" t="n">
-        <v>0.227558</v>
+        <v>0.227705</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.213642</v>
+        <v>0.213758</v>
       </c>
       <c r="C131" t="n">
-        <v>0.221979</v>
+        <v>0.653002</v>
       </c>
       <c r="D131" t="n">
-        <v>0.226934</v>
+        <v>0.226762</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.207919</v>
+        <v>0.207695</v>
       </c>
       <c r="C132" t="n">
-        <v>0.22102</v>
+        <v>0.690578</v>
       </c>
       <c r="D132" t="n">
-        <v>0.226011</v>
+        <v>0.225831</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.201427</v>
+        <v>0.201783</v>
       </c>
       <c r="C133" t="n">
-        <v>0.220173</v>
+        <v>0.747698</v>
       </c>
       <c r="D133" t="n">
-        <v>0.22526</v>
+        <v>0.224906</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.194541</v>
+        <v>0.195131</v>
       </c>
       <c r="C134" t="n">
-        <v>0.21938</v>
+        <v>0.8138069999999999</v>
       </c>
       <c r="D134" t="n">
-        <v>0.224423</v>
+        <v>0.224148</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.187094</v>
+        <v>0.186962</v>
       </c>
       <c r="C135" t="n">
-        <v>0.218588</v>
+        <v>0.891495</v>
       </c>
       <c r="D135" t="n">
-        <v>0.22371</v>
+        <v>0.223329</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.178481</v>
+        <v>0.17821</v>
       </c>
       <c r="C136" t="n">
-        <v>0.218255</v>
+        <v>0.537976</v>
       </c>
       <c r="D136" t="n">
-        <v>0.223366</v>
+        <v>0.222969</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.168417</v>
+        <v>0.168055</v>
       </c>
       <c r="C137" t="n">
-        <v>0.217477</v>
+        <v>0.549328</v>
       </c>
       <c r="D137" t="n">
-        <v>0.238627</v>
+        <v>0.238572</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.249333</v>
+        <v>0.248822</v>
       </c>
       <c r="C138" t="n">
-        <v>0.234564</v>
+        <v>0.557211</v>
       </c>
       <c r="D138" t="n">
-        <v>0.236505</v>
+        <v>0.236492</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.245169</v>
+        <v>0.245115</v>
       </c>
       <c r="C139" t="n">
-        <v>0.231494</v>
+        <v>0.56799</v>
       </c>
       <c r="D139" t="n">
-        <v>0.234734</v>
+        <v>0.234747</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.241156</v>
+        <v>0.240821</v>
       </c>
       <c r="C140" t="n">
-        <v>0.229038</v>
+        <v>0.578848</v>
       </c>
       <c r="D140" t="n">
-        <v>0.232983</v>
+        <v>0.233209</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.236386</v>
+        <v>0.236299</v>
       </c>
       <c r="C141" t="n">
-        <v>0.227304</v>
+        <v>0.594082</v>
       </c>
       <c r="D141" t="n">
-        <v>0.231551</v>
+        <v>0.231832</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.231271</v>
+        <v>0.231384</v>
       </c>
       <c r="C142" t="n">
-        <v>0.225886</v>
+        <v>0.609891</v>
       </c>
       <c r="D142" t="n">
-        <v>0.230425</v>
+        <v>0.230586</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.225791</v>
+        <v>0.226022</v>
       </c>
       <c r="C143" t="n">
-        <v>0.224623</v>
+        <v>0.625973</v>
       </c>
       <c r="D143" t="n">
-        <v>0.229457</v>
+        <v>0.229332</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -93,7 +93,15 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +561,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.187292</v>
+                  <v>0.0641531</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.183982</v>
+                  <v>0.0641417</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.179004</v>
+                  <v>0.0639055</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.176892</v>
+                  <v>0.0642133</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.17022</v>
+                  <v>0.06474820000000001</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.163509</v>
+                  <v>0.06536599999999999</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.156318</v>
+                  <v>0.0651717</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.146334</v>
+                  <v>0.06583840000000001</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.231139</v>
+                  <v>0.0890715</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.228081</v>
+                  <v>0.0891439</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.225517</v>
+                  <v>0.088877</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.222864</v>
+                  <v>0.0889416</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.21893</v>
+                  <v>0.0880235</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.214659</v>
+                  <v>0.0873052</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.209928</v>
+                  <v>0.08651929999999999</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.20518</v>
+                  <v>0.08555</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.200207</v>
+                  <v>0.08422979999999999</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.195783</v>
+                  <v>0.08232540000000001</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.189275</v>
+                  <v>0.0812894</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.181574</v>
+                  <v>0.0828969</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.174132</v>
+                  <v>0.08242620000000001</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.16528</v>
+                  <v>0.0803682</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.243142</v>
+                  <v>0.130945</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.239615</v>
+                  <v>0.13039</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.236139</v>
+                  <v>0.128396</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.232566</v>
+                  <v>0.126</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.227385</v>
+                  <v>0.122747</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.222635</v>
+                  <v>0.120164</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.217695</v>
+                  <v>0.117158</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.212684</v>
+                  <v>0.114482</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.20734</v>
+                  <v>0.110654</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.20071</v>
+                  <v>0.106787</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.194395</v>
+                  <v>0.10302</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.186684</v>
+                  <v>0.09905659999999999</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.181061</v>
+                  <v>0.0947708</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.169795</v>
+                  <v>0.0912707</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.248879</v>
+                  <v>0.15299</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.244774</v>
+                  <v>0.149699</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.241026</v>
+                  <v>0.145819</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.236858</v>
+                  <v>0.142408</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.232237</v>
+                  <v>0.138561</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.227177</v>
+                  <v>0.134735</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.22226</v>
+                  <v>0.13049</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.216502</v>
+                  <v>0.126237</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.2114</v>
+                  <v>0.121969</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.204573</v>
+                  <v>0.117384</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.198267</v>
+                  <v>0.112872</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.191099</v>
+                  <v>0.107687</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.183731</v>
+                  <v>0.102518</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.172869</v>
+                  <v>0.097793</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.161871</v>
+                  <v>0.0929044</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.247769</v>
+                  <v>0.156627</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.243592</v>
+                  <v>0.152789</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.239389</v>
+                  <v>0.148886</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.234805</v>
+                  <v>0.14427</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.230401</v>
+                  <v>0.139987</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.224628</v>
+                  <v>0.135316</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.218949</v>
+                  <v>0.130625</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.213275</v>
+                  <v>0.125715</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.206692</v>
+                  <v>0.120655</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.200398</v>
+                  <v>0.115997</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.193096</v>
+                  <v>0.11107</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.185345</v>
+                  <v>0.105984</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.177726</v>
+                  <v>0.101445</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.167032</v>
+                  <v>0.0964059</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.250983</v>
+                  <v>0.160513</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.246922</v>
+                  <v>0.156502</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.24234</v>
+                  <v>0.152045</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.237651</v>
+                  <v>0.147806</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.232612</v>
+                  <v>0.143057</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.2275</v>
+                  <v>0.138315</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.222083</v>
+                  <v>0.133812</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.215699</v>
+                  <v>0.1287</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.209667</v>
+                  <v>0.123811</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.202946</v>
+                  <v>0.118628</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.196222</v>
+                  <v>0.11366</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.188555</v>
+                  <v>0.108714</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.179944</v>
+                  <v>0.1037</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.169766</v>
+                  <v>0.0989589</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.251071</v>
+                  <v>0.16153</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.247217</v>
+                  <v>0.157354</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.243499</v>
+                  <v>0.153056</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.239247</v>
+                  <v>0.148496</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.233745</v>
+                  <v>0.143805</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.228775</v>
+                  <v>0.138941</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.223145</v>
+                  <v>0.134036</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.217208</v>
+                  <v>0.12898</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.211176</v>
+                  <v>0.124047</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.20484</v>
+                  <v>0.119119</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.197888</v>
+                  <v>0.114214</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.190605</v>
+                  <v>0.109355</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.182097</v>
+                  <v>0.104326</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.1719</v>
+                  <v>0.0995196</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.251299</v>
+                  <v>0.162541</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.248019</v>
+                  <v>0.158578</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.244127</v>
+                  <v>0.154191</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.239723</v>
+                  <v>0.149705</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.23491</v>
+                  <v>0.144991</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.229923</v>
+                  <v>0.140036</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.224131</v>
+                  <v>0.135058</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.218559</v>
+                  <v>0.130142</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.212431</v>
+                  <v>0.12503</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.206093</v>
+                  <v>0.120231</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.199207</v>
+                  <v>0.115215</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.192019</v>
+                  <v>0.110352</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.183749</v>
+                  <v>0.105395</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.174303</v>
+                  <v>0.100493</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.162838</v>
+                  <v>0.0955453</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.249639</v>
+                  <v>0.159334</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.245731</v>
+                  <v>0.155161</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.241243</v>
+                  <v>0.150658</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.236498</v>
+                  <v>0.145997</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.231101</v>
+                  <v>0.141009</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.225563</v>
+                  <v>0.136065</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.219876</v>
+                  <v>0.131067</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.213794</v>
+                  <v>0.126055</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.207545</v>
+                  <v>0.121106</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.200654</v>
+                  <v>0.116169</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.193435</v>
+                  <v>0.11124</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.185456</v>
+                  <v>0.106338</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.175966</v>
+                  <v>0.10148</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.16491</v>
+                  <v>0.0966804</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.251293</v>
+                  <v>0.162912</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.247604</v>
+                  <v>0.158517</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.243229</v>
+                  <v>0.1538</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.237169</v>
+                  <v>0.148946</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.232007</v>
+                  <v>0.149784</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.226576</v>
+                  <v>0.144275</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.221042</v>
+                  <v>0.138341</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.214901</v>
+                  <v>0.133876</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.208636</v>
+                  <v>0.127861</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.201996</v>
+                  <v>0.123254</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.195117</v>
+                  <v>0.118096</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.18742</v>
+                  <v>0.112946</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.178418</v>
+                  <v>0.107887</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.167876</v>
+                  <v>0.10276</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.250586</v>
+                  <v>0.170386</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.247147</v>
+                  <v>0.165981</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.242923</v>
+                  <v>0.161275</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.238252</v>
+                  <v>0.1562</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.2333</v>
+                  <v>0.150804</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.227843</v>
+                  <v>0.145563</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +995,15 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>ankerl::unordered_dense::map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1463,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.206229</v>
+                  <v>0.0575077</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.206842</v>
+                  <v>0.0598211</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.206135</v>
+                  <v>0.0649882</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.206722</v>
+                  <v>0.07328460000000001</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.206327</v>
+                  <v>0.09369329999999999</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.206321</v>
+                  <v>0.111546</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.206192</v>
+                  <v>0.06318840000000001</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.205238</v>
+                  <v>0.06369279999999999</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.224944</v>
+                  <v>0.064666</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.224007</v>
+                  <v>0.0662118</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.222663</v>
+                  <v>0.0703285</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.221498</v>
+                  <v>0.0767543</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.221017</v>
+                  <v>0.0847386</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.220245</v>
+                  <v>0.0924473</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.219581</v>
+                  <v>0.103137</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.218457</v>
+                  <v>0.117766</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.217573</v>
+                  <v>0.138113</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.217195</v>
+                  <v>0.157701</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.216497</v>
+                  <v>0.183703</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.215746</v>
+                  <v>0.219332</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.214832</v>
+                  <v>0.0967408</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.21423</v>
+                  <v>0.101705</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.228939</v>
+                  <v>0.110323</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.227393</v>
+                  <v>0.118336</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.227107</v>
+                  <v>0.125077</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.224972</v>
+                  <v>0.131743</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.224321</v>
+                  <v>0.136642</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.223063</v>
+                  <v>0.159372</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.221902</v>
+                  <v>0.164708</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.220735</v>
+                  <v>0.180538</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.219663</v>
+                  <v>0.189276</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.219014</v>
+                  <v>0.205969</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.21802</v>
+                  <v>0.226981</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.217046</v>
+                  <v>0.25275</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.216342</v>
+                  <v>0.280765</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.215854</v>
+                  <v>0.125211</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.229763</v>
+                  <v>0.128879</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.228245</v>
+                  <v>0.139033</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.226658</v>
+                  <v>0.143689</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.225711</v>
+                  <v>0.153829</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.224436</v>
+                  <v>0.162005</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.223405</v>
+                  <v>0.17317</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.222302</v>
+                  <v>0.180018</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.22123</v>
+                  <v>0.189111</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.220403</v>
+                  <v>0.20117</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.219849</v>
+                  <v>0.218393</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.218845</v>
+                  <v>0.234699</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.217926</v>
+                  <v>0.256116</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.217302</v>
+                  <v>0.28101</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.216228</v>
+                  <v>0.134014</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.215748</v>
+                  <v>0.138441</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.229059</v>
+                  <v>0.144747</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.227574</v>
+                  <v>0.151243</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.226449</v>
+                  <v>0.158688</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.22552</v>
+                  <v>0.168342</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.224386</v>
+                  <v>0.174264</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.223346</v>
+                  <v>0.18304</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.222174</v>
+                  <v>0.195721</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.221052</v>
+                  <v>0.209809</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.220193</v>
+                  <v>0.221223</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.219293</v>
+                  <v>0.238103</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.218512</v>
+                  <v>0.256781</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.217698</v>
+                  <v>0.278367</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.216983</v>
+                  <v>0.142277</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.215886</v>
+                  <v>0.147209</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.231128</v>
+                  <v>0.153107</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.229816</v>
+                  <v>0.15876</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.228207</v>
+                  <v>0.165429</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.226759</v>
+                  <v>0.172505</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.225621</v>
+                  <v>0.180261</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.224178</v>
+                  <v>0.189204</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.223074</v>
+                  <v>0.200303</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.221867</v>
+                  <v>0.212441</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.220973</v>
+                  <v>0.227473</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.22015</v>
+                  <v>0.24306</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.219205</v>
+                  <v>0.261431</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.218341</v>
+                  <v>0.283264</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.217394</v>
+                  <v>0.170899</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.216569</v>
+                  <v>0.176969</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.238485</v>
+                  <v>0.182018</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.233573</v>
+                  <v>0.187372</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.230278</v>
+                  <v>0.194064</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.227726</v>
+                  <v>0.200521</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.225567</v>
+                  <v>0.208855</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.224477</v>
+                  <v>0.217776</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.223515</v>
+                  <v>0.228866</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.222424</v>
+                  <v>0.241842</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.221344</v>
+                  <v>0.253365</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.220256</v>
+                  <v>0.270187</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.219415</v>
+                  <v>0.291567</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.218492</v>
+                  <v>0.313726</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.217706</v>
+                  <v>0.340231</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.216915</v>
+                  <v>0.247908</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.235879</v>
+                  <v>0.254082</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.232276</v>
+                  <v>0.259408</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.229777</v>
+                  <v>0.265515</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.227738</v>
+                  <v>0.271721</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.226186</v>
+                  <v>0.280084</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.224924</v>
+                  <v>0.290491</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.223825</v>
+                  <v>0.300365</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.222639</v>
+                  <v>0.313845</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.221594</v>
+                  <v>0.32929</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.220637</v>
+                  <v>0.348304</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.219782</v>
+                  <v>0.371064</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.218899</v>
+                  <v>0.399163</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.218093</v>
+                  <v>0.429455</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.217262</v>
+                  <v>0.346596</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.216542</v>
+                  <v>0.351235</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.233106</v>
+                  <v>0.354989</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.230117</v>
+                  <v>0.36553</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.227957</v>
+                  <v>0.367381</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.226393</v>
+                  <v>0.377436</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.224926</v>
+                  <v>0.385652</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.223667</v>
+                  <v>0.39901</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.223096</v>
+                  <v>0.414407</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.221964</v>
+                  <v>0.432204</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.221041</v>
+                  <v>0.460297</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.220161</v>
+                  <v>0.491839</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.219251</v>
+                  <v>0.5331669999999999</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.218443</v>
+                  <v>0.583111</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.217652</v>
+                  <v>0.423701</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.216747</v>
+                  <v>0.425895</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.233339</v>
+                  <v>0.42969</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.230313</v>
+                  <v>0.434953</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.228265</v>
+                  <v>0.442049</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.226554</v>
+                  <v>0.449396</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.225147</v>
+                  <v>0.461779</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.223895</v>
+                  <v>0.47465</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.222836</v>
+                  <v>0.495717</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.221859</v>
+                  <v>0.512256</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.220818</v>
+                  <v>0.54552</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.219893</v>
+                  <v>0.582205</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.219067</v>
+                  <v>0.630783</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.218239</v>
+                  <v>0.693116</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.217829</v>
+                  <v>0.478361</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.21699</v>
+                  <v>0.479962</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.234758</v>
+                  <v>0.483763</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.231578</v>
+                  <v>0.488763</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.229123</v>
+                  <v>0.490947</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.227302</v>
+                  <v>0.518307</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.225811</v>
+                  <v>0.52015</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.22452</v>
+                  <v>0.53886</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1897,15 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>foa_unordered_rc15_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2365,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.209873</v>
+                  <v>0.157822</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.211012</v>
+                  <v>0.158856</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.210745</v>
+                  <v>0.159729</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.211549</v>
+                  <v>0.15887</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.212704</v>
+                  <v>0.160271</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.211818</v>
+                  <v>0.159772</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.212862</v>
+                  <v>0.159948</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.227673</v>
+                  <v>0.164801</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.226193</v>
+                  <v>0.165641</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.226517</v>
+                  <v>0.165795</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.225181</v>
+                  <v>0.166284</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.224215</v>
+                  <v>0.166196</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.224629</v>
+                  <v>0.166822</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.224124</v>
+                  <v>0.16633</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.22305</v>
+                  <v>0.166022</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.222995</v>
+                  <v>0.165367</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.221534</v>
+                  <v>0.165413</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.221762</v>
+                  <v>0.165358</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.221599</v>
+                  <v>0.165959</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.220998</v>
+                  <v>0.165915</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.21979</v>
+                  <v>0.167046</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.233436</v>
+                  <v>0.182004</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.232471</v>
+                  <v>0.179886</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.231226</v>
+                  <v>0.176643</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.230275</v>
+                  <v>0.176678</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.229388</v>
+                  <v>0.175759</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.228411</v>
+                  <v>0.175754</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.227283</v>
+                  <v>0.176854</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.226614</v>
+                  <v>0.175894</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.225598</v>
+                  <v>0.172402</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.225321</v>
+                  <v>0.17302</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.224224</v>
+                  <v>0.17105</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.223667</v>
+                  <v>0.170195</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.222733</v>
+                  <v>0.169719</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.222081</v>
+                  <v>0.168159</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.235696</v>
+                  <v>0.184916</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.234257</v>
+                  <v>0.183052</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.233102</v>
+                  <v>0.182508</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.231628</v>
+                  <v>0.181083</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.230805</v>
+                  <v>0.17982</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.229469</v>
+                  <v>0.178386</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.228368</v>
+                  <v>0.178092</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.227503</v>
+                  <v>0.176222</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.226573</v>
+                  <v>0.175981</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.225474</v>
+                  <v>0.174595</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.224613</v>
+                  <v>0.173326</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.223838</v>
+                  <v>0.171569</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.223185</v>
+                  <v>0.171515</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.222298</v>
+                  <v>0.169954</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.236836</v>
+                  <v>0.186997</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.235449</v>
+                  <v>0.185308</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.234269</v>
+                  <v>0.183876</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.232952</v>
+                  <v>0.182684</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.231637</v>
+                  <v>0.181455</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.230491</v>
+                  <v>0.180231</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.229579</v>
+                  <v>0.179365</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.22827</v>
+                  <v>0.177796</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.227342</v>
+                  <v>0.176715</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.226352</v>
+                  <v>0.175502</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.225524</v>
+                  <v>0.174353</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.22462</v>
+                  <v>0.173807</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.223724</v>
+                  <v>0.17214</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.222897</v>
+                  <v>0.170786</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.222256</v>
+                  <v>0.169619</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.236524</v>
+                  <v>0.186654</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.234957</v>
+                  <v>0.185313</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.23352</v>
+                  <v>0.183854</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.232314</v>
+                  <v>0.182476</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.231079</v>
+                  <v>0.181164</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.230032</v>
+                  <v>0.179912</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.228745</v>
+                  <v>0.178749</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.227756</v>
+                  <v>0.177311</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.226814</v>
+                  <v>0.176193</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.225878</v>
+                  <v>0.174878</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.225063</v>
+                  <v>0.173741</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.224187</v>
+                  <v>0.172506</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.223308</v>
+                  <v>0.171313</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.222776</v>
+                  <v>0.170248</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.238898</v>
+                  <v>0.187436</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.236543</v>
+                  <v>0.185778</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.234982</v>
+                  <v>0.184273</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.233183</v>
+                  <v>0.182842</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.231928</v>
+                  <v>0.181428</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.230557</v>
+                  <v>0.180248</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.229474</v>
+                  <v>0.17884</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.228263</v>
+                  <v>0.177651</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.22724</v>
+                  <v>0.176506</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.226241</v>
+                  <v>0.175158</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.225489</v>
+                  <v>0.17393</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.224505</v>
+                  <v>0.172921</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.223735</v>
+                  <v>0.171658</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.222895</v>
+                  <v>0.170365</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.239711</v>
+                  <v>0.187853</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.237182</v>
+                  <v>0.186208</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.235335</v>
+                  <v>0.18493</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.233933</v>
+                  <v>0.183349</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.232964</v>
+                  <v>0.181904</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.231522</v>
+                  <v>0.180677</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.230428</v>
+                  <v>0.17923</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.228937</v>
+                  <v>0.178029</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227841</v>
+                  <v>0.17673</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.226936</v>
+                  <v>0.175554</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.226475</v>
+                  <v>0.174295</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.22552</v>
+                  <v>0.173194</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.22466</v>
+                  <v>0.17194</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.223865</v>
+                  <v>0.170673</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.239576</v>
+                  <v>0.18821</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.237213</v>
+                  <v>0.18648</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.235342</v>
+                  <v>0.185181</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.233703</v>
+                  <v>0.183927</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.232291</v>
+                  <v>0.18249</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.230896</v>
+                  <v>0.18114</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.229691</v>
+                  <v>0.179757</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.22859</v>
+                  <v>0.178537</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.227856</v>
+                  <v>0.177269</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.226983</v>
+                  <v>0.175893</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.226085</v>
+                  <v>0.174715</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.225282</v>
+                  <v>0.173489</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.224461</v>
+                  <v>0.172158</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.223722</v>
+                  <v>0.170948</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.223001</v>
+                  <v>0.169715</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.237285</v>
+                  <v>0.187153</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.235374</v>
+                  <v>0.185547</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.2337</v>
+                  <v>0.184049</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.232315</v>
+                  <v>0.182769</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.230895</v>
+                  <v>0.181451</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.229728</v>
+                  <v>0.180103</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.228673</v>
+                  <v>0.178785</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.227668</v>
+                  <v>0.177335</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.226699</v>
+                  <v>0.176054</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.225807</v>
+                  <v>0.174854</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.224951</v>
+                  <v>0.173636</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.224143</v>
+                  <v>0.172385</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.223409</v>
+                  <v>0.171224</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.223041</v>
+                  <v>0.170001</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.238591</v>
+                  <v>0.196784</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.236406</v>
+                  <v>0.194704</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.234698</v>
+                  <v>0.192719</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.233163</v>
+                  <v>0.191072</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.231711</v>
+                  <v>0.189256</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.230522</v>
+                  <v>0.187704</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.229318</v>
+                  <v>0.185987</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2825,7 +2849,6 @@
         <axId val="163989376"/>
         <scaling>
           <orientation val="minMax"/>
-          <max val="0.4"/>
         </scaling>
         <delete val="0"/>
         <axPos val="l"/>
@@ -3217,8 +3240,8 @@
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3235,7 +3258,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>ankerl::unordered_dense::map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.185676</v>
+        <v>0.201191</v>
       </c>
       <c r="C2" t="n">
-        <v>0.206342</v>
+        <v>0.213558</v>
       </c>
       <c r="D2" t="n">
-        <v>0.211897</v>
+        <v>0.223088</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.180132</v>
+        <v>0.19301</v>
       </c>
       <c r="C3" t="n">
-        <v>0.206391</v>
+        <v>0.21306</v>
       </c>
       <c r="D3" t="n">
-        <v>0.210989</v>
+        <v>0.223041</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.174649</v>
+        <v>0.186651</v>
       </c>
       <c r="C4" t="n">
-        <v>0.206251</v>
+        <v>0.213401</v>
       </c>
       <c r="D4" t="n">
-        <v>0.211994</v>
+        <v>0.22343</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1708</v>
+        <v>0.179645</v>
       </c>
       <c r="C5" t="n">
-        <v>0.206083</v>
+        <v>0.213079</v>
       </c>
       <c r="D5" t="n">
-        <v>0.212742</v>
+        <v>0.223021</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.165824</v>
+        <v>0.173182</v>
       </c>
       <c r="C6" t="n">
-        <v>0.205704</v>
+        <v>0.213702</v>
       </c>
       <c r="D6" t="n">
-        <v>0.213364</v>
+        <v>0.223735</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.161776</v>
+        <v>0.167729</v>
       </c>
       <c r="C7" t="n">
-        <v>0.206787</v>
+        <v>0.213739</v>
       </c>
       <c r="D7" t="n">
-        <v>0.212527</v>
+        <v>0.222447</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.155428</v>
+        <v>0.158107</v>
       </c>
       <c r="C8" t="n">
-        <v>0.206972</v>
+        <v>0.213119</v>
       </c>
       <c r="D8" t="n">
-        <v>0.212803</v>
+        <v>0.222758</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.144948</v>
+        <v>0.14881</v>
       </c>
       <c r="C9" t="n">
-        <v>0.206525</v>
+        <v>0.212308</v>
       </c>
       <c r="D9" t="n">
-        <v>0.230537</v>
+        <v>0.240165</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.228</v>
+        <v>0.232282</v>
       </c>
       <c r="C10" t="n">
-        <v>0.224501</v>
+        <v>0.230812</v>
       </c>
       <c r="D10" t="n">
-        <v>0.228573</v>
+        <v>0.23797</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.223182</v>
+        <v>0.228905</v>
       </c>
       <c r="C11" t="n">
-        <v>0.223081</v>
+        <v>0.230689</v>
       </c>
       <c r="D11" t="n">
-        <v>0.228183</v>
+        <v>0.237261</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.221801</v>
+        <v>0.225406</v>
       </c>
       <c r="C12" t="n">
-        <v>0.22144</v>
+        <v>0.228451</v>
       </c>
       <c r="D12" t="n">
-        <v>0.22688</v>
+        <v>0.236655</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.219356</v>
+        <v>0.222712</v>
       </c>
       <c r="C13" t="n">
-        <v>0.22076</v>
+        <v>0.227947</v>
       </c>
       <c r="D13" t="n">
-        <v>0.225906</v>
+        <v>0.235474</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.214861</v>
+        <v>0.217668</v>
       </c>
       <c r="C14" t="n">
-        <v>0.220292</v>
+        <v>0.228062</v>
       </c>
       <c r="D14" t="n">
-        <v>0.226138</v>
+        <v>0.234168</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.211667</v>
+        <v>0.21471</v>
       </c>
       <c r="C15" t="n">
-        <v>0.219296</v>
+        <v>0.226903</v>
       </c>
       <c r="D15" t="n">
-        <v>0.224852</v>
+        <v>0.2332</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.207499</v>
+        <v>0.210247</v>
       </c>
       <c r="C16" t="n">
-        <v>0.219351</v>
+        <v>0.226388</v>
       </c>
       <c r="D16" t="n">
-        <v>0.224285</v>
+        <v>0.233056</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.203217</v>
+        <v>0.205461</v>
       </c>
       <c r="C17" t="n">
-        <v>0.218208</v>
+        <v>0.225578</v>
       </c>
       <c r="D17" t="n">
-        <v>0.223738</v>
+        <v>0.232065</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.198195</v>
+        <v>0.199662</v>
       </c>
       <c r="C18" t="n">
-        <v>0.217761</v>
+        <v>0.223984</v>
       </c>
       <c r="D18" t="n">
-        <v>0.222833</v>
+        <v>0.23101</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.193629</v>
+        <v>0.195874</v>
       </c>
       <c r="C19" t="n">
-        <v>0.216502</v>
+        <v>0.222912</v>
       </c>
       <c r="D19" t="n">
-        <v>0.222362</v>
+        <v>0.230044</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.187751</v>
+        <v>0.190145</v>
       </c>
       <c r="C20" t="n">
-        <v>0.216044</v>
+        <v>0.222471</v>
       </c>
       <c r="D20" t="n">
-        <v>0.221665</v>
+        <v>0.229291</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.180035</v>
+        <v>0.182578</v>
       </c>
       <c r="C21" t="n">
-        <v>0.215723</v>
+        <v>0.221478</v>
       </c>
       <c r="D21" t="n">
-        <v>0.22088</v>
+        <v>0.228711</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.172784</v>
+        <v>0.175153</v>
       </c>
       <c r="C22" t="n">
-        <v>0.214961</v>
+        <v>0.221066</v>
       </c>
       <c r="D22" t="n">
-        <v>0.220591</v>
+        <v>0.227905</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.165292</v>
+        <v>0.166735</v>
       </c>
       <c r="C23" t="n">
-        <v>0.214347</v>
+        <v>0.220551</v>
       </c>
       <c r="D23" t="n">
-        <v>0.235194</v>
+        <v>0.243406</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.240475</v>
+        <v>0.241775</v>
       </c>
       <c r="C24" t="n">
-        <v>0.228229</v>
+        <v>0.238152</v>
       </c>
       <c r="D24" t="n">
-        <v>0.233005</v>
+        <v>0.241296</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.236492</v>
+        <v>0.237459</v>
       </c>
       <c r="C25" t="n">
-        <v>0.226899</v>
+        <v>0.234376</v>
       </c>
       <c r="D25" t="n">
-        <v>0.231578</v>
+        <v>0.239818</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.233241</v>
+        <v>0.23452</v>
       </c>
       <c r="C26" t="n">
-        <v>0.225716</v>
+        <v>0.233821</v>
       </c>
       <c r="D26" t="n">
-        <v>0.230628</v>
+        <v>0.238537</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.230251</v>
+        <v>0.230425</v>
       </c>
       <c r="C27" t="n">
-        <v>0.224617</v>
+        <v>0.2329</v>
       </c>
       <c r="D27" t="n">
-        <v>0.229637</v>
+        <v>0.237415</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.224755</v>
+        <v>0.226133</v>
       </c>
       <c r="C28" t="n">
-        <v>0.223593</v>
+        <v>0.230715</v>
       </c>
       <c r="D28" t="n">
-        <v>0.228573</v>
+        <v>0.236345</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.219593</v>
+        <v>0.221408</v>
       </c>
       <c r="C29" t="n">
-        <v>0.222753</v>
+        <v>0.229392</v>
       </c>
       <c r="D29" t="n">
-        <v>0.228004</v>
+        <v>0.234925</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.214348</v>
+        <v>0.216388</v>
       </c>
       <c r="C30" t="n">
-        <v>0.221393</v>
+        <v>0.22812</v>
       </c>
       <c r="D30" t="n">
-        <v>0.226931</v>
+        <v>0.234046</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.209574</v>
+        <v>0.211109</v>
       </c>
       <c r="C31" t="n">
-        <v>0.220153</v>
+        <v>0.227271</v>
       </c>
       <c r="D31" t="n">
-        <v>0.225776</v>
+        <v>0.232936</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.205184</v>
+        <v>0.205718</v>
       </c>
       <c r="C32" t="n">
-        <v>0.219776</v>
+        <v>0.226289</v>
       </c>
       <c r="D32" t="n">
-        <v>0.225286</v>
+        <v>0.23234</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.198948</v>
+        <v>0.199707</v>
       </c>
       <c r="C33" t="n">
-        <v>0.219098</v>
+        <v>0.225262</v>
       </c>
       <c r="D33" t="n">
-        <v>0.224204</v>
+        <v>0.231179</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.192883</v>
+        <v>0.194486</v>
       </c>
       <c r="C34" t="n">
-        <v>0.21838</v>
+        <v>0.224612</v>
       </c>
       <c r="D34" t="n">
-        <v>0.223657</v>
+        <v>0.230666</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.185908</v>
+        <v>0.187326</v>
       </c>
       <c r="C35" t="n">
-        <v>0.217386</v>
+        <v>0.223451</v>
       </c>
       <c r="D35" t="n">
-        <v>0.222663</v>
+        <v>0.229907</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.178589</v>
+        <v>0.179455</v>
       </c>
       <c r="C36" t="n">
-        <v>0.216909</v>
+        <v>0.222895</v>
       </c>
       <c r="D36" t="n">
-        <v>0.22225</v>
+        <v>0.22924</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.16982</v>
+        <v>0.17084</v>
       </c>
       <c r="C37" t="n">
-        <v>0.216298</v>
+        <v>0.222092</v>
       </c>
       <c r="D37" t="n">
-        <v>0.236223</v>
+        <v>0.243546</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.247158</v>
+        <v>0.24783</v>
       </c>
       <c r="C38" t="n">
-        <v>0.229586</v>
+        <v>0.237021</v>
       </c>
       <c r="D38" t="n">
-        <v>0.234484</v>
+        <v>0.241857</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.243364</v>
+        <v>0.243913</v>
       </c>
       <c r="C39" t="n">
-        <v>0.228129</v>
+        <v>0.235339</v>
       </c>
       <c r="D39" t="n">
-        <v>0.232956</v>
+        <v>0.240361</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.239461</v>
+        <v>0.240251</v>
       </c>
       <c r="C40" t="n">
-        <v>0.226778</v>
+        <v>0.234146</v>
       </c>
       <c r="D40" t="n">
-        <v>0.231998</v>
+        <v>0.239034</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.234532</v>
+        <v>0.235874</v>
       </c>
       <c r="C41" t="n">
-        <v>0.225629</v>
+        <v>0.232684</v>
       </c>
       <c r="D41" t="n">
-        <v>0.230815</v>
+        <v>0.237778</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.230356</v>
+        <v>0.230861</v>
       </c>
       <c r="C42" t="n">
-        <v>0.224275</v>
+        <v>0.231505</v>
       </c>
       <c r="D42" t="n">
-        <v>0.229637</v>
+        <v>0.236501</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.225328</v>
+        <v>0.225576</v>
       </c>
       <c r="C43" t="n">
-        <v>0.223361</v>
+        <v>0.230533</v>
       </c>
       <c r="D43" t="n">
-        <v>0.228293</v>
+        <v>0.235478</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.220181</v>
+        <v>0.221029</v>
       </c>
       <c r="C44" t="n">
-        <v>0.222586</v>
+        <v>0.229446</v>
       </c>
       <c r="D44" t="n">
-        <v>0.227189</v>
+        <v>0.234368</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.214766</v>
+        <v>0.215021</v>
       </c>
       <c r="C45" t="n">
-        <v>0.2215</v>
+        <v>0.22843</v>
       </c>
       <c r="D45" t="n">
-        <v>0.226545</v>
+        <v>0.233566</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.209469</v>
+        <v>0.210199</v>
       </c>
       <c r="C46" t="n">
-        <v>0.220451</v>
+        <v>0.227192</v>
       </c>
       <c r="D46" t="n">
-        <v>0.225806</v>
+        <v>0.232488</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.202881</v>
+        <v>0.204309</v>
       </c>
       <c r="C47" t="n">
-        <v>0.219739</v>
+        <v>0.226442</v>
       </c>
       <c r="D47" t="n">
-        <v>0.224646</v>
+        <v>0.231833</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.196644</v>
+        <v>0.198211</v>
       </c>
       <c r="C48" t="n">
-        <v>0.21908</v>
+        <v>0.225506</v>
       </c>
       <c r="D48" t="n">
-        <v>0.2238</v>
+        <v>0.230819</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.189799</v>
+        <v>0.191869</v>
       </c>
       <c r="C49" t="n">
-        <v>0.218299</v>
+        <v>0.224775</v>
       </c>
       <c r="D49" t="n">
-        <v>0.223402</v>
+        <v>0.229909</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.182171</v>
+        <v>0.183124</v>
       </c>
       <c r="C50" t="n">
-        <v>0.217688</v>
+        <v>0.224017</v>
       </c>
       <c r="D50" t="n">
-        <v>0.222666</v>
+        <v>0.229249</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173181</v>
+        <v>0.174261</v>
       </c>
       <c r="C51" t="n">
-        <v>0.216902</v>
+        <v>0.222954</v>
       </c>
       <c r="D51" t="n">
-        <v>0.23705</v>
+        <v>0.243883</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.163578</v>
+        <v>0.164085</v>
       </c>
       <c r="C52" t="n">
-        <v>0.216369</v>
+        <v>0.22261</v>
       </c>
       <c r="D52" t="n">
-        <v>0.235127</v>
+        <v>0.24219</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.246029</v>
+        <v>0.246169</v>
       </c>
       <c r="C53" t="n">
-        <v>0.228988</v>
+        <v>0.236718</v>
       </c>
       <c r="D53" t="n">
-        <v>0.233555</v>
+        <v>0.240651</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.241922</v>
+        <v>0.242199</v>
       </c>
       <c r="C54" t="n">
-        <v>0.227582</v>
+        <v>0.235213</v>
       </c>
       <c r="D54" t="n">
-        <v>0.232415</v>
+        <v>0.239383</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.237858</v>
+        <v>0.237919</v>
       </c>
       <c r="C55" t="n">
-        <v>0.226392</v>
+        <v>0.233864</v>
       </c>
       <c r="D55" t="n">
-        <v>0.231165</v>
+        <v>0.238136</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.233269</v>
+        <v>0.233408</v>
       </c>
       <c r="C56" t="n">
-        <v>0.22518</v>
+        <v>0.232527</v>
       </c>
       <c r="D56" t="n">
-        <v>0.23025</v>
+        <v>0.237009</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.22815</v>
+        <v>0.228</v>
       </c>
       <c r="C57" t="n">
-        <v>0.224197</v>
+        <v>0.231333</v>
       </c>
       <c r="D57" t="n">
-        <v>0.229226</v>
+        <v>0.235897</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.222562</v>
+        <v>0.223099</v>
       </c>
       <c r="C58" t="n">
-        <v>0.223289</v>
+        <v>0.230409</v>
       </c>
       <c r="D58" t="n">
-        <v>0.228065</v>
+        <v>0.234804</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.216924</v>
+        <v>0.217376</v>
       </c>
       <c r="C59" t="n">
-        <v>0.222134</v>
+        <v>0.229247</v>
       </c>
       <c r="D59" t="n">
-        <v>0.227236</v>
+        <v>0.233689</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.211116</v>
+        <v>0.211843</v>
       </c>
       <c r="C60" t="n">
-        <v>0.221132</v>
+        <v>0.228215</v>
       </c>
       <c r="D60" t="n">
-        <v>0.226157</v>
+        <v>0.23268</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.205038</v>
+        <v>0.205439</v>
       </c>
       <c r="C61" t="n">
-        <v>0.220484</v>
+        <v>0.227191</v>
       </c>
       <c r="D61" t="n">
-        <v>0.225522</v>
+        <v>0.231829</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.198903</v>
+        <v>0.199809</v>
       </c>
       <c r="C62" t="n">
-        <v>0.219576</v>
+        <v>0.226072</v>
       </c>
       <c r="D62" t="n">
-        <v>0.22457</v>
+        <v>0.230987</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.192346</v>
+        <v>0.193097</v>
       </c>
       <c r="C63" t="n">
-        <v>0.218924</v>
+        <v>0.22523</v>
       </c>
       <c r="D63" t="n">
-        <v>0.223777</v>
+        <v>0.230434</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.185033</v>
+        <v>0.18579</v>
       </c>
       <c r="C64" t="n">
-        <v>0.218057</v>
+        <v>0.224395</v>
       </c>
       <c r="D64" t="n">
-        <v>0.222988</v>
+        <v>0.229634</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.176946</v>
+        <v>0.177355</v>
       </c>
       <c r="C65" t="n">
-        <v>0.217249</v>
+        <v>0.223212</v>
       </c>
       <c r="D65" t="n">
-        <v>0.22218</v>
+        <v>0.228778</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.167037</v>
+        <v>0.167262</v>
       </c>
       <c r="C66" t="n">
-        <v>0.216769</v>
+        <v>0.222684</v>
       </c>
       <c r="D66" t="n">
-        <v>0.236041</v>
+        <v>0.242855</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.247886</v>
+        <v>0.24691</v>
       </c>
       <c r="C67" t="n">
-        <v>0.231031</v>
+        <v>0.238414</v>
       </c>
       <c r="D67" t="n">
-        <v>0.234558</v>
+        <v>0.241403</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.245132</v>
+        <v>0.243071</v>
       </c>
       <c r="C68" t="n">
-        <v>0.229239</v>
+        <v>0.236644</v>
       </c>
       <c r="D68" t="n">
-        <v>0.23311</v>
+        <v>0.24009</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.240446</v>
+        <v>0.239492</v>
       </c>
       <c r="C69" t="n">
-        <v>0.227931</v>
+        <v>0.235109</v>
       </c>
       <c r="D69" t="n">
-        <v>0.231838</v>
+        <v>0.238766</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.235549</v>
+        <v>0.23496</v>
       </c>
       <c r="C70" t="n">
-        <v>0.226548</v>
+        <v>0.233711</v>
       </c>
       <c r="D70" t="n">
-        <v>0.230683</v>
+        <v>0.237615</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.230497</v>
+        <v>0.229851</v>
       </c>
       <c r="C71" t="n">
-        <v>0.225228</v>
+        <v>0.23237</v>
       </c>
       <c r="D71" t="n">
-        <v>0.229723</v>
+        <v>0.236386</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.225119</v>
+        <v>0.22472</v>
       </c>
       <c r="C72" t="n">
-        <v>0.223998</v>
+        <v>0.230969</v>
       </c>
       <c r="D72" t="n">
-        <v>0.228403</v>
+        <v>0.235296</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.219382</v>
+        <v>0.219173</v>
       </c>
       <c r="C73" t="n">
-        <v>0.22295</v>
+        <v>0.229864</v>
       </c>
       <c r="D73" t="n">
-        <v>0.227463</v>
+        <v>0.234239</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.213502</v>
+        <v>0.213389</v>
       </c>
       <c r="C74" t="n">
-        <v>0.221952</v>
+        <v>0.228815</v>
       </c>
       <c r="D74" t="n">
-        <v>0.226427</v>
+        <v>0.233311</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.207758</v>
+        <v>0.207607</v>
       </c>
       <c r="C75" t="n">
-        <v>0.221102</v>
+        <v>0.22786</v>
       </c>
       <c r="D75" t="n">
-        <v>0.225606</v>
+        <v>0.23232</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.20141</v>
+        <v>0.201644</v>
       </c>
       <c r="C76" t="n">
-        <v>0.220159</v>
+        <v>0.226623</v>
       </c>
       <c r="D76" t="n">
-        <v>0.22483</v>
+        <v>0.231585</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.194878</v>
+        <v>0.195047</v>
       </c>
       <c r="C77" t="n">
-        <v>0.219366</v>
+        <v>0.225698</v>
       </c>
       <c r="D77" t="n">
-        <v>0.223922</v>
+        <v>0.230846</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.187626</v>
+        <v>0.18765</v>
       </c>
       <c r="C78" t="n">
-        <v>0.218513</v>
+        <v>0.22469</v>
       </c>
       <c r="D78" t="n">
-        <v>0.223154</v>
+        <v>0.230073</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179617</v>
+        <v>0.179835</v>
       </c>
       <c r="C79" t="n">
-        <v>0.217776</v>
+        <v>0.223673</v>
       </c>
       <c r="D79" t="n">
-        <v>0.222414</v>
+        <v>0.229351</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.170136</v>
+        <v>0.170167</v>
       </c>
       <c r="C80" t="n">
-        <v>0.217</v>
+        <v>0.222789</v>
       </c>
       <c r="D80" t="n">
-        <v>0.238619</v>
+        <v>0.245874</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.249767</v>
+        <v>0.248839</v>
       </c>
       <c r="C81" t="n">
-        <v>0.23851</v>
+        <v>0.248219</v>
       </c>
       <c r="D81" t="n">
-        <v>0.236031</v>
+        <v>0.243273</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.246486</v>
+        <v>0.245107</v>
       </c>
       <c r="C82" t="n">
-        <v>0.233595</v>
+        <v>0.242458</v>
       </c>
       <c r="D82" t="n">
-        <v>0.234536</v>
+        <v>0.241413</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.24203</v>
+        <v>0.241238</v>
       </c>
       <c r="C83" t="n">
-        <v>0.229784</v>
+        <v>0.237715</v>
       </c>
       <c r="D83" t="n">
-        <v>0.23288</v>
+        <v>0.240076</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.237216</v>
+        <v>0.236507</v>
       </c>
       <c r="C84" t="n">
-        <v>0.22734</v>
+        <v>0.235121</v>
       </c>
       <c r="D84" t="n">
-        <v>0.231862</v>
+        <v>0.23859</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.23196</v>
+        <v>0.231624</v>
       </c>
       <c r="C85" t="n">
-        <v>0.225908</v>
+        <v>0.233096</v>
       </c>
       <c r="D85" t="n">
-        <v>0.230503</v>
+        <v>0.237107</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.22674</v>
+        <v>0.226244</v>
       </c>
       <c r="C86" t="n">
-        <v>0.224539</v>
+        <v>0.231815</v>
       </c>
       <c r="D86" t="n">
-        <v>0.229322</v>
+        <v>0.235894</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.220989</v>
+        <v>0.22093</v>
       </c>
       <c r="C87" t="n">
-        <v>0.223482</v>
+        <v>0.230702</v>
       </c>
       <c r="D87" t="n">
-        <v>0.228112</v>
+        <v>0.234875</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.215007</v>
+        <v>0.215227</v>
       </c>
       <c r="C88" t="n">
-        <v>0.222417</v>
+        <v>0.229555</v>
       </c>
       <c r="D88" t="n">
-        <v>0.227253</v>
+        <v>0.23383</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.209143</v>
+        <v>0.209256</v>
       </c>
       <c r="C89" t="n">
-        <v>0.221441</v>
+        <v>0.228357</v>
       </c>
       <c r="D89" t="n">
-        <v>0.22631</v>
+        <v>0.2328</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.202998</v>
+        <v>0.203329</v>
       </c>
       <c r="C90" t="n">
-        <v>0.22047</v>
+        <v>0.227001</v>
       </c>
       <c r="D90" t="n">
-        <v>0.225465</v>
+        <v>0.231966</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.196529</v>
+        <v>0.196615</v>
       </c>
       <c r="C91" t="n">
-        <v>0.219611</v>
+        <v>0.225976</v>
       </c>
       <c r="D91" t="n">
-        <v>0.224652</v>
+        <v>0.23107</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.189471</v>
+        <v>0.18977</v>
       </c>
       <c r="C92" t="n">
-        <v>0.218781</v>
+        <v>0.224987</v>
       </c>
       <c r="D92" t="n">
-        <v>0.223952</v>
+        <v>0.23034</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.181552</v>
+        <v>0.181554</v>
       </c>
       <c r="C93" t="n">
-        <v>0.218146</v>
+        <v>0.224104</v>
       </c>
       <c r="D93" t="n">
-        <v>0.223109</v>
+        <v>0.229615</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.172356</v>
+        <v>0.172334</v>
       </c>
       <c r="C94" t="n">
-        <v>0.217397</v>
+        <v>0.223318</v>
       </c>
       <c r="D94" t="n">
-        <v>0.239774</v>
+        <v>0.246669</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.249836</v>
+        <v>0.249123</v>
       </c>
       <c r="C95" t="n">
-        <v>0.235481</v>
+        <v>0.243043</v>
       </c>
       <c r="D95" t="n">
-        <v>0.237342</v>
+        <v>0.243955</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.246249</v>
+        <v>0.245526</v>
       </c>
       <c r="C96" t="n">
-        <v>0.232079</v>
+        <v>0.239775</v>
       </c>
       <c r="D96" t="n">
-        <v>0.235483</v>
+        <v>0.242258</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.242157</v>
+        <v>0.241558</v>
       </c>
       <c r="C97" t="n">
-        <v>0.229629</v>
+        <v>0.237004</v>
       </c>
       <c r="D97" t="n">
-        <v>0.234252</v>
+        <v>0.241038</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.237786</v>
+        <v>0.23721</v>
       </c>
       <c r="C98" t="n">
-        <v>0.227636</v>
+        <v>0.234904</v>
       </c>
       <c r="D98" t="n">
-        <v>0.232742</v>
+        <v>0.239649</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.23273</v>
+        <v>0.232389</v>
       </c>
       <c r="C99" t="n">
-        <v>0.226187</v>
+        <v>0.233338</v>
       </c>
       <c r="D99" t="n">
-        <v>0.231237</v>
+        <v>0.238386</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.227544</v>
+        <v>0.227291</v>
       </c>
       <c r="C100" t="n">
-        <v>0.224965</v>
+        <v>0.232007</v>
       </c>
       <c r="D100" t="n">
-        <v>0.23003</v>
+        <v>0.236886</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.222201</v>
+        <v>0.222851</v>
       </c>
       <c r="C101" t="n">
-        <v>0.223704</v>
+        <v>0.230579</v>
       </c>
       <c r="D101" t="n">
-        <v>0.228936</v>
+        <v>0.235377</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.216409</v>
+        <v>0.217333</v>
       </c>
       <c r="C102" t="n">
-        <v>0.222612</v>
+        <v>0.22928</v>
       </c>
       <c r="D102" t="n">
-        <v>0.227882</v>
+        <v>0.23437</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.210403</v>
+        <v>0.211445</v>
       </c>
       <c r="C103" t="n">
-        <v>0.22165</v>
+        <v>0.228182</v>
       </c>
       <c r="D103" t="n">
-        <v>0.227102</v>
+        <v>0.233789</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.204425</v>
+        <v>0.205148</v>
       </c>
       <c r="C104" t="n">
-        <v>0.220799</v>
+        <v>0.22716</v>
       </c>
       <c r="D104" t="n">
-        <v>0.226506</v>
+        <v>0.232805</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.19783</v>
+        <v>0.198686</v>
       </c>
       <c r="C105" t="n">
-        <v>0.219989</v>
+        <v>0.226279</v>
       </c>
       <c r="D105" t="n">
-        <v>0.225625</v>
+        <v>0.23201</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.190879</v>
+        <v>0.191581</v>
       </c>
       <c r="C106" t="n">
-        <v>0.219073</v>
+        <v>0.225252</v>
       </c>
       <c r="D106" t="n">
-        <v>0.22479</v>
+        <v>0.23119</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183233</v>
+        <v>0.183693</v>
       </c>
       <c r="C107" t="n">
-        <v>0.218324</v>
+        <v>0.224354</v>
       </c>
       <c r="D107" t="n">
-        <v>0.223892</v>
+        <v>0.230333</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.174194</v>
+        <v>0.174197</v>
       </c>
       <c r="C108" t="n">
-        <v>0.217587</v>
+        <v>0.223526</v>
       </c>
       <c r="D108" t="n">
-        <v>0.239514</v>
+        <v>0.245863</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.163543</v>
+        <v>0.163738</v>
       </c>
       <c r="C109" t="n">
-        <v>0.216951</v>
+        <v>0.222652</v>
       </c>
       <c r="D109" t="n">
-        <v>0.237236</v>
+        <v>0.243615</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.247516</v>
+        <v>0.246939</v>
       </c>
       <c r="C110" t="n">
-        <v>0.232698</v>
+        <v>0.239973</v>
       </c>
       <c r="D110" t="n">
-        <v>0.235278</v>
+        <v>0.24168</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.243635</v>
+        <v>0.243153</v>
       </c>
       <c r="C111" t="n">
-        <v>0.229939</v>
+        <v>0.237219</v>
       </c>
       <c r="D111" t="n">
-        <v>0.233667</v>
+        <v>0.240073</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.23917</v>
+        <v>0.238648</v>
       </c>
       <c r="C112" t="n">
-        <v>0.227824</v>
+        <v>0.235056</v>
       </c>
       <c r="D112" t="n">
-        <v>0.232252</v>
+        <v>0.238656</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.234229</v>
+        <v>0.233727</v>
       </c>
       <c r="C113" t="n">
-        <v>0.226297</v>
+        <v>0.233417</v>
       </c>
       <c r="D113" t="n">
-        <v>0.230946</v>
+        <v>0.237349</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.229117</v>
+        <v>0.228638</v>
       </c>
       <c r="C114" t="n">
-        <v>0.224973</v>
+        <v>0.231946</v>
       </c>
       <c r="D114" t="n">
-        <v>0.229701</v>
+        <v>0.236199</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.223487</v>
+        <v>0.223225</v>
       </c>
       <c r="C115" t="n">
-        <v>0.223773</v>
+        <v>0.230579</v>
       </c>
       <c r="D115" t="n">
-        <v>0.228696</v>
+        <v>0.23525</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.217854</v>
+        <v>0.217566</v>
       </c>
       <c r="C116" t="n">
-        <v>0.22318</v>
+        <v>0.229869</v>
       </c>
       <c r="D116" t="n">
-        <v>0.227727</v>
+        <v>0.234607</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.211891</v>
+        <v>0.211469</v>
       </c>
       <c r="C117" t="n">
-        <v>0.222151</v>
+        <v>0.228741</v>
       </c>
       <c r="D117" t="n">
-        <v>0.227247</v>
+        <v>0.233764</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.206023</v>
+        <v>0.205429</v>
       </c>
       <c r="C118" t="n">
-        <v>0.221241</v>
+        <v>0.227754</v>
       </c>
       <c r="D118" t="n">
-        <v>0.226364</v>
+        <v>0.232781</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.19968</v>
+        <v>0.199086</v>
       </c>
       <c r="C119" t="n">
-        <v>0.220424</v>
+        <v>0.226704</v>
       </c>
       <c r="D119" t="n">
-        <v>0.225553</v>
+        <v>0.231994</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.19286</v>
+        <v>0.19233</v>
       </c>
       <c r="C120" t="n">
-        <v>0.219588</v>
+        <v>0.225743</v>
       </c>
       <c r="D120" t="n">
-        <v>0.224697</v>
+        <v>0.23112</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.185266</v>
+        <v>0.184765</v>
       </c>
       <c r="C121" t="n">
-        <v>0.218791</v>
+        <v>0.224911</v>
       </c>
       <c r="D121" t="n">
-        <v>0.223953</v>
+        <v>0.230332</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.177203</v>
+        <v>0.175938</v>
       </c>
       <c r="C122" t="n">
-        <v>0.218026</v>
+        <v>0.223794</v>
       </c>
       <c r="D122" t="n">
-        <v>0.223213</v>
+        <v>0.229635</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.166714</v>
+        <v>0.165737</v>
       </c>
       <c r="C123" t="n">
-        <v>0.217271</v>
+        <v>0.222993</v>
       </c>
       <c r="D123" t="n">
-        <v>0.23738</v>
+        <v>0.243988</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.249321</v>
+        <v>0.248865</v>
       </c>
       <c r="C124" t="n">
-        <v>0.233173</v>
+        <v>0.240437</v>
       </c>
       <c r="D124" t="n">
-        <v>0.23526</v>
+        <v>0.242252</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.245492</v>
+        <v>0.245075</v>
       </c>
       <c r="C125" t="n">
-        <v>0.230177</v>
+        <v>0.237486</v>
       </c>
       <c r="D125" t="n">
-        <v>0.233617</v>
+        <v>0.240607</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.240417</v>
+        <v>0.240665</v>
       </c>
       <c r="C126" t="n">
-        <v>0.228056</v>
+        <v>0.235319</v>
       </c>
       <c r="D126" t="n">
-        <v>0.232109</v>
+        <v>0.23908</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.236239</v>
+        <v>0.235816</v>
       </c>
       <c r="C127" t="n">
-        <v>0.226466</v>
+        <v>0.233593</v>
       </c>
       <c r="D127" t="n">
-        <v>0.230799</v>
+        <v>0.237765</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.231105</v>
+        <v>0.230628</v>
       </c>
       <c r="C128" t="n">
-        <v>0.225136</v>
+        <v>0.23215</v>
       </c>
       <c r="D128" t="n">
-        <v>0.22962</v>
+        <v>0.236634</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.225593</v>
+        <v>0.225192</v>
       </c>
       <c r="C129" t="n">
-        <v>0.223995</v>
+        <v>0.230879</v>
       </c>
       <c r="D129" t="n">
-        <v>0.228491</v>
+        <v>0.235482</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.219863</v>
+        <v>0.219574</v>
       </c>
       <c r="C130" t="n">
-        <v>0.222928</v>
+        <v>0.229693</v>
       </c>
       <c r="D130" t="n">
-        <v>0.227558</v>
+        <v>0.234547</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.213642</v>
+        <v>0.212966</v>
       </c>
       <c r="C131" t="n">
-        <v>0.221979</v>
+        <v>0.2286</v>
       </c>
       <c r="D131" t="n">
-        <v>0.226934</v>
+        <v>0.233545</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.207919</v>
+        <v>0.206565</v>
       </c>
       <c r="C132" t="n">
-        <v>0.22102</v>
+        <v>0.22753</v>
       </c>
       <c r="D132" t="n">
-        <v>0.226011</v>
+        <v>0.232852</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.201427</v>
+        <v>0.201273</v>
       </c>
       <c r="C133" t="n">
-        <v>0.220173</v>
+        <v>0.226531</v>
       </c>
       <c r="D133" t="n">
-        <v>0.22526</v>
+        <v>0.231771</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.194541</v>
+        <v>0.194474</v>
       </c>
       <c r="C134" t="n">
-        <v>0.21938</v>
+        <v>0.225577</v>
       </c>
       <c r="D134" t="n">
-        <v>0.224423</v>
+        <v>0.230956</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.187094</v>
+        <v>0.187214</v>
       </c>
       <c r="C135" t="n">
-        <v>0.218588</v>
+        <v>0.22469</v>
       </c>
       <c r="D135" t="n">
-        <v>0.22371</v>
+        <v>0.230209</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.178481</v>
+        <v>0.178612</v>
       </c>
       <c r="C136" t="n">
-        <v>0.218255</v>
+        <v>0.224235</v>
       </c>
       <c r="D136" t="n">
-        <v>0.223366</v>
+        <v>0.229893</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.168417</v>
+        <v>0.168715</v>
       </c>
       <c r="C137" t="n">
-        <v>0.217477</v>
+        <v>0.223321</v>
       </c>
       <c r="D137" t="n">
-        <v>0.238627</v>
+        <v>0.245137</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.249333</v>
+        <v>0.24833</v>
       </c>
       <c r="C138" t="n">
-        <v>0.234564</v>
+        <v>0.241803</v>
       </c>
       <c r="D138" t="n">
-        <v>0.236505</v>
+        <v>0.242909</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.245169</v>
+        <v>0.244954</v>
       </c>
       <c r="C139" t="n">
-        <v>0.231494</v>
+        <v>0.238627</v>
       </c>
       <c r="D139" t="n">
-        <v>0.234734</v>
+        <v>0.241138</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.241156</v>
+        <v>0.240281</v>
       </c>
       <c r="C140" t="n">
-        <v>0.229038</v>
+        <v>0.236271</v>
       </c>
       <c r="D140" t="n">
-        <v>0.232983</v>
+        <v>0.239827</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.236386</v>
+        <v>0.235871</v>
       </c>
       <c r="C141" t="n">
-        <v>0.227304</v>
+        <v>0.234388</v>
       </c>
       <c r="D141" t="n">
-        <v>0.231551</v>
+        <v>0.238407</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.231271</v>
+        <v>0.230815</v>
       </c>
       <c r="C142" t="n">
-        <v>0.225886</v>
+        <v>0.232905</v>
       </c>
       <c r="D142" t="n">
-        <v>0.230425</v>
+        <v>0.237173</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.225791</v>
+        <v>0.225372</v>
       </c>
       <c r="C143" t="n">
-        <v>0.224623</v>
+        <v>0.231508</v>
       </c>
       <c r="D143" t="n">
-        <v>0.229457</v>
+        <v>0.235818</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.201191</v>
+        <v>0.202219</v>
       </c>
       <c r="C2" t="n">
-        <v>0.213558</v>
+        <v>0.208294</v>
       </c>
       <c r="D2" t="n">
-        <v>0.223088</v>
+        <v>0.210173</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.19301</v>
+        <v>0.192707</v>
       </c>
       <c r="C3" t="n">
-        <v>0.21306</v>
+        <v>0.207484</v>
       </c>
       <c r="D3" t="n">
-        <v>0.223041</v>
+        <v>0.209409</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.186651</v>
+        <v>0.185587</v>
       </c>
       <c r="C4" t="n">
-        <v>0.213401</v>
+        <v>0.208085</v>
       </c>
       <c r="D4" t="n">
-        <v>0.22343</v>
+        <v>0.211512</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.179645</v>
+        <v>0.180097</v>
       </c>
       <c r="C5" t="n">
-        <v>0.213079</v>
+        <v>0.208448</v>
       </c>
       <c r="D5" t="n">
-        <v>0.223021</v>
+        <v>0.211447</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.173182</v>
+        <v>0.172485</v>
       </c>
       <c r="C6" t="n">
-        <v>0.213702</v>
+        <v>0.207512</v>
       </c>
       <c r="D6" t="n">
-        <v>0.223735</v>
+        <v>0.212724</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.167729</v>
+        <v>0.166785</v>
       </c>
       <c r="C7" t="n">
-        <v>0.213739</v>
+        <v>0.206974</v>
       </c>
       <c r="D7" t="n">
-        <v>0.222447</v>
+        <v>0.211666</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.158107</v>
+        <v>0.157646</v>
       </c>
       <c r="C8" t="n">
-        <v>0.213119</v>
+        <v>0.208064</v>
       </c>
       <c r="D8" t="n">
-        <v>0.222758</v>
+        <v>0.213146</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.14881</v>
+        <v>0.149309</v>
       </c>
       <c r="C9" t="n">
-        <v>0.212308</v>
+        <v>0.206799</v>
       </c>
       <c r="D9" t="n">
-        <v>0.240165</v>
+        <v>0.22854</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.232282</v>
+        <v>0.232285</v>
       </c>
       <c r="C10" t="n">
-        <v>0.230812</v>
+        <v>0.225141</v>
       </c>
       <c r="D10" t="n">
-        <v>0.23797</v>
+        <v>0.22609</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.228905</v>
+        <v>0.230196</v>
       </c>
       <c r="C11" t="n">
-        <v>0.230689</v>
+        <v>0.224248</v>
       </c>
       <c r="D11" t="n">
-        <v>0.237261</v>
+        <v>0.226611</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.225406</v>
+        <v>0.226816</v>
       </c>
       <c r="C12" t="n">
-        <v>0.228451</v>
+        <v>0.223756</v>
       </c>
       <c r="D12" t="n">
-        <v>0.236655</v>
+        <v>0.225883</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.222712</v>
+        <v>0.223239</v>
       </c>
       <c r="C13" t="n">
-        <v>0.227947</v>
+        <v>0.222367</v>
       </c>
       <c r="D13" t="n">
-        <v>0.235474</v>
+        <v>0.225107</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.217668</v>
+        <v>0.219091</v>
       </c>
       <c r="C14" t="n">
-        <v>0.228062</v>
+        <v>0.221805</v>
       </c>
       <c r="D14" t="n">
-        <v>0.234168</v>
+        <v>0.225217</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.21471</v>
+        <v>0.216577</v>
       </c>
       <c r="C15" t="n">
-        <v>0.226903</v>
+        <v>0.221062</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2332</v>
+        <v>0.224149</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.210247</v>
+        <v>0.210849</v>
       </c>
       <c r="C16" t="n">
-        <v>0.226388</v>
+        <v>0.220383</v>
       </c>
       <c r="D16" t="n">
-        <v>0.233056</v>
+        <v>0.223333</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.205461</v>
+        <v>0.205634</v>
       </c>
       <c r="C17" t="n">
-        <v>0.225578</v>
+        <v>0.219342</v>
       </c>
       <c r="D17" t="n">
-        <v>0.232065</v>
+        <v>0.223573</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.199662</v>
+        <v>0.19968</v>
       </c>
       <c r="C18" t="n">
-        <v>0.223984</v>
+        <v>0.218541</v>
       </c>
       <c r="D18" t="n">
-        <v>0.23101</v>
+        <v>0.222248</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.195874</v>
+        <v>0.194796</v>
       </c>
       <c r="C19" t="n">
-        <v>0.222912</v>
+        <v>0.217432</v>
       </c>
       <c r="D19" t="n">
-        <v>0.230044</v>
+        <v>0.221473</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.190145</v>
+        <v>0.189905</v>
       </c>
       <c r="C20" t="n">
-        <v>0.222471</v>
+        <v>0.21701</v>
       </c>
       <c r="D20" t="n">
-        <v>0.229291</v>
+        <v>0.221444</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.182578</v>
+        <v>0.182037</v>
       </c>
       <c r="C21" t="n">
-        <v>0.221478</v>
+        <v>0.216172</v>
       </c>
       <c r="D21" t="n">
-        <v>0.228711</v>
+        <v>0.221046</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.175153</v>
+        <v>0.175472</v>
       </c>
       <c r="C22" t="n">
-        <v>0.221066</v>
+        <v>0.215757</v>
       </c>
       <c r="D22" t="n">
-        <v>0.227905</v>
+        <v>0.220266</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.166735</v>
+        <v>0.165857</v>
       </c>
       <c r="C23" t="n">
-        <v>0.220551</v>
+        <v>0.214554</v>
       </c>
       <c r="D23" t="n">
-        <v>0.243406</v>
+        <v>0.234306</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.241775</v>
+        <v>0.241248</v>
       </c>
       <c r="C24" t="n">
-        <v>0.238152</v>
+        <v>0.231558</v>
       </c>
       <c r="D24" t="n">
-        <v>0.241296</v>
+        <v>0.23252</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.237459</v>
+        <v>0.237869</v>
       </c>
       <c r="C25" t="n">
-        <v>0.234376</v>
+        <v>0.229892</v>
       </c>
       <c r="D25" t="n">
-        <v>0.239818</v>
+        <v>0.23131</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.23452</v>
+        <v>0.234614</v>
       </c>
       <c r="C26" t="n">
-        <v>0.233821</v>
+        <v>0.227154</v>
       </c>
       <c r="D26" t="n">
-        <v>0.238537</v>
+        <v>0.230536</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.230425</v>
+        <v>0.230315</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2329</v>
+        <v>0.22632</v>
       </c>
       <c r="D27" t="n">
-        <v>0.237415</v>
+        <v>0.229548</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.226133</v>
+        <v>0.226336</v>
       </c>
       <c r="C28" t="n">
-        <v>0.230715</v>
+        <v>0.224696</v>
       </c>
       <c r="D28" t="n">
-        <v>0.236345</v>
+        <v>0.228801</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.221408</v>
+        <v>0.221555</v>
       </c>
       <c r="C29" t="n">
-        <v>0.229392</v>
+        <v>0.223469</v>
       </c>
       <c r="D29" t="n">
-        <v>0.234925</v>
+        <v>0.227487</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.216388</v>
+        <v>0.215988</v>
       </c>
       <c r="C30" t="n">
-        <v>0.22812</v>
+        <v>0.222258</v>
       </c>
       <c r="D30" t="n">
-        <v>0.234046</v>
+        <v>0.226959</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.211109</v>
+        <v>0.210421</v>
       </c>
       <c r="C31" t="n">
-        <v>0.227271</v>
+        <v>0.221208</v>
       </c>
       <c r="D31" t="n">
-        <v>0.232936</v>
+        <v>0.225589</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.205718</v>
+        <v>0.205172</v>
       </c>
       <c r="C32" t="n">
-        <v>0.226289</v>
+        <v>0.220561</v>
       </c>
       <c r="D32" t="n">
-        <v>0.23234</v>
+        <v>0.225305</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.199707</v>
+        <v>0.199165</v>
       </c>
       <c r="C33" t="n">
-        <v>0.225262</v>
+        <v>0.219611</v>
       </c>
       <c r="D33" t="n">
-        <v>0.231179</v>
+        <v>0.224181</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.194486</v>
+        <v>0.193711</v>
       </c>
       <c r="C34" t="n">
-        <v>0.224612</v>
+        <v>0.219005</v>
       </c>
       <c r="D34" t="n">
-        <v>0.230666</v>
+        <v>0.223697</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.187326</v>
+        <v>0.186469</v>
       </c>
       <c r="C35" t="n">
-        <v>0.223451</v>
+        <v>0.217953</v>
       </c>
       <c r="D35" t="n">
-        <v>0.229907</v>
+        <v>0.222696</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.179455</v>
+        <v>0.179122</v>
       </c>
       <c r="C36" t="n">
-        <v>0.222895</v>
+        <v>0.217081</v>
       </c>
       <c r="D36" t="n">
-        <v>0.22924</v>
+        <v>0.222103</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.17084</v>
+        <v>0.169985</v>
       </c>
       <c r="C37" t="n">
-        <v>0.222092</v>
+        <v>0.216496</v>
       </c>
       <c r="D37" t="n">
-        <v>0.243546</v>
+        <v>0.236376</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.24783</v>
+        <v>0.247709</v>
       </c>
       <c r="C38" t="n">
-        <v>0.237021</v>
+        <v>0.230439</v>
       </c>
       <c r="D38" t="n">
-        <v>0.241857</v>
+        <v>0.234541</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.243913</v>
+        <v>0.243299</v>
       </c>
       <c r="C39" t="n">
-        <v>0.235339</v>
+        <v>0.228723</v>
       </c>
       <c r="D39" t="n">
-        <v>0.240361</v>
+        <v>0.233056</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.240251</v>
+        <v>0.239824</v>
       </c>
       <c r="C40" t="n">
-        <v>0.234146</v>
+        <v>0.227398</v>
       </c>
       <c r="D40" t="n">
-        <v>0.239034</v>
+        <v>0.231982</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.235874</v>
+        <v>0.235133</v>
       </c>
       <c r="C41" t="n">
-        <v>0.232684</v>
+        <v>0.226429</v>
       </c>
       <c r="D41" t="n">
-        <v>0.237778</v>
+        <v>0.230778</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.230861</v>
+        <v>0.230136</v>
       </c>
       <c r="C42" t="n">
-        <v>0.231505</v>
+        <v>0.225086</v>
       </c>
       <c r="D42" t="n">
-        <v>0.236501</v>
+        <v>0.229823</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.225576</v>
+        <v>0.224896</v>
       </c>
       <c r="C43" t="n">
-        <v>0.230533</v>
+        <v>0.223959</v>
       </c>
       <c r="D43" t="n">
-        <v>0.235478</v>
+        <v>0.22849</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.221029</v>
+        <v>0.22031</v>
       </c>
       <c r="C44" t="n">
-        <v>0.229446</v>
+        <v>0.222883</v>
       </c>
       <c r="D44" t="n">
-        <v>0.234368</v>
+        <v>0.22767</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.215021</v>
+        <v>0.214713</v>
       </c>
       <c r="C45" t="n">
-        <v>0.22843</v>
+        <v>0.221819</v>
       </c>
       <c r="D45" t="n">
-        <v>0.233566</v>
+        <v>0.226511</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.210199</v>
+        <v>0.208951</v>
       </c>
       <c r="C46" t="n">
-        <v>0.227192</v>
+        <v>0.220917</v>
       </c>
       <c r="D46" t="n">
-        <v>0.232488</v>
+        <v>0.225778</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.204309</v>
+        <v>0.203201</v>
       </c>
       <c r="C47" t="n">
-        <v>0.226442</v>
+        <v>0.220224</v>
       </c>
       <c r="D47" t="n">
-        <v>0.231833</v>
+        <v>0.224927</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.198211</v>
+        <v>0.196765</v>
       </c>
       <c r="C48" t="n">
-        <v>0.225506</v>
+        <v>0.219516</v>
       </c>
       <c r="D48" t="n">
-        <v>0.230819</v>
+        <v>0.224156</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.191869</v>
+        <v>0.190118</v>
       </c>
       <c r="C49" t="n">
-        <v>0.224775</v>
+        <v>0.218526</v>
       </c>
       <c r="D49" t="n">
-        <v>0.229909</v>
+        <v>0.223235</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.183124</v>
+        <v>0.182348</v>
       </c>
       <c r="C50" t="n">
-        <v>0.224017</v>
+        <v>0.217968</v>
       </c>
       <c r="D50" t="n">
-        <v>0.229249</v>
+        <v>0.222498</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.174261</v>
+        <v>0.173943</v>
       </c>
       <c r="C51" t="n">
-        <v>0.222954</v>
+        <v>0.216715</v>
       </c>
       <c r="D51" t="n">
-        <v>0.243883</v>
+        <v>0.237645</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.164085</v>
+        <v>0.164369</v>
       </c>
       <c r="C52" t="n">
-        <v>0.22261</v>
+        <v>0.216046</v>
       </c>
       <c r="D52" t="n">
-        <v>0.24219</v>
+        <v>0.235608</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.246169</v>
+        <v>0.245823</v>
       </c>
       <c r="C53" t="n">
-        <v>0.236718</v>
+        <v>0.229662</v>
       </c>
       <c r="D53" t="n">
-        <v>0.240651</v>
+        <v>0.234063</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.242199</v>
+        <v>0.242016</v>
       </c>
       <c r="C54" t="n">
-        <v>0.235213</v>
+        <v>0.228374</v>
       </c>
       <c r="D54" t="n">
-        <v>0.239383</v>
+        <v>0.232984</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.237919</v>
+        <v>0.237554</v>
       </c>
       <c r="C55" t="n">
-        <v>0.233864</v>
+        <v>0.227129</v>
       </c>
       <c r="D55" t="n">
-        <v>0.238136</v>
+        <v>0.231533</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.233408</v>
+        <v>0.233312</v>
       </c>
       <c r="C56" t="n">
-        <v>0.232527</v>
+        <v>0.225973</v>
       </c>
       <c r="D56" t="n">
-        <v>0.237009</v>
+        <v>0.230389</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.228</v>
+        <v>0.228183</v>
       </c>
       <c r="C57" t="n">
-        <v>0.231333</v>
+        <v>0.225031</v>
       </c>
       <c r="D57" t="n">
-        <v>0.235897</v>
+        <v>0.229315</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.223099</v>
+        <v>0.222988</v>
       </c>
       <c r="C58" t="n">
-        <v>0.230409</v>
+        <v>0.223931</v>
       </c>
       <c r="D58" t="n">
-        <v>0.234804</v>
+        <v>0.228259</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.217376</v>
+        <v>0.217326</v>
       </c>
       <c r="C59" t="n">
-        <v>0.229247</v>
+        <v>0.222756</v>
       </c>
       <c r="D59" t="n">
-        <v>0.233689</v>
+        <v>0.227303</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.211843</v>
+        <v>0.211667</v>
       </c>
       <c r="C60" t="n">
-        <v>0.228215</v>
+        <v>0.221698</v>
       </c>
       <c r="D60" t="n">
-        <v>0.23268</v>
+        <v>0.226177</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.205439</v>
+        <v>0.205624</v>
       </c>
       <c r="C61" t="n">
-        <v>0.227191</v>
+        <v>0.220901</v>
       </c>
       <c r="D61" t="n">
-        <v>0.231829</v>
+        <v>0.225426</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.199809</v>
+        <v>0.199667</v>
       </c>
       <c r="C62" t="n">
-        <v>0.226072</v>
+        <v>0.21987</v>
       </c>
       <c r="D62" t="n">
-        <v>0.230987</v>
+        <v>0.224493</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.193097</v>
+        <v>0.193135</v>
       </c>
       <c r="C63" t="n">
-        <v>0.22523</v>
+        <v>0.21915</v>
       </c>
       <c r="D63" t="n">
-        <v>0.230434</v>
+        <v>0.223703</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.18579</v>
+        <v>0.185584</v>
       </c>
       <c r="C64" t="n">
-        <v>0.224395</v>
+        <v>0.218217</v>
       </c>
       <c r="D64" t="n">
-        <v>0.229634</v>
+        <v>0.222895</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177355</v>
+        <v>0.177406</v>
       </c>
       <c r="C65" t="n">
-        <v>0.223212</v>
+        <v>0.217304</v>
       </c>
       <c r="D65" t="n">
-        <v>0.228778</v>
+        <v>0.222101</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.167262</v>
+        <v>0.167055</v>
       </c>
       <c r="C66" t="n">
-        <v>0.222684</v>
+        <v>0.216389</v>
       </c>
       <c r="D66" t="n">
-        <v>0.242855</v>
+        <v>0.2365</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.24691</v>
+        <v>0.247331</v>
       </c>
       <c r="C67" t="n">
-        <v>0.238414</v>
+        <v>0.232008</v>
       </c>
       <c r="D67" t="n">
-        <v>0.241403</v>
+        <v>0.234984</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.243071</v>
+        <v>0.243728</v>
       </c>
       <c r="C68" t="n">
-        <v>0.236644</v>
+        <v>0.230466</v>
       </c>
       <c r="D68" t="n">
-        <v>0.24009</v>
+        <v>0.2336</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.239492</v>
+        <v>0.239607</v>
       </c>
       <c r="C69" t="n">
-        <v>0.235109</v>
+        <v>0.229036</v>
       </c>
       <c r="D69" t="n">
-        <v>0.238766</v>
+        <v>0.232608</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.23496</v>
+        <v>0.235069</v>
       </c>
       <c r="C70" t="n">
-        <v>0.233711</v>
+        <v>0.227386</v>
       </c>
       <c r="D70" t="n">
-        <v>0.237615</v>
+        <v>0.231224</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.229851</v>
+        <v>0.23003</v>
       </c>
       <c r="C71" t="n">
-        <v>0.23237</v>
+        <v>0.226047</v>
       </c>
       <c r="D71" t="n">
-        <v>0.236386</v>
+        <v>0.230226</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.22472</v>
+        <v>0.224858</v>
       </c>
       <c r="C72" t="n">
-        <v>0.230969</v>
+        <v>0.22484</v>
       </c>
       <c r="D72" t="n">
-        <v>0.235296</v>
+        <v>0.228864</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.219173</v>
+        <v>0.219211</v>
       </c>
       <c r="C73" t="n">
-        <v>0.229864</v>
+        <v>0.22351</v>
       </c>
       <c r="D73" t="n">
-        <v>0.234239</v>
+        <v>0.227938</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.213389</v>
+        <v>0.21346</v>
       </c>
       <c r="C74" t="n">
-        <v>0.228815</v>
+        <v>0.222625</v>
       </c>
       <c r="D74" t="n">
-        <v>0.233311</v>
+        <v>0.226912</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.207607</v>
+        <v>0.20742</v>
       </c>
       <c r="C75" t="n">
-        <v>0.22786</v>
+        <v>0.221678</v>
       </c>
       <c r="D75" t="n">
-        <v>0.23232</v>
+        <v>0.226018</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.201644</v>
+        <v>0.201431</v>
       </c>
       <c r="C76" t="n">
-        <v>0.226623</v>
+        <v>0.220752</v>
       </c>
       <c r="D76" t="n">
-        <v>0.231585</v>
+        <v>0.225157</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.195047</v>
+        <v>0.194917</v>
       </c>
       <c r="C77" t="n">
-        <v>0.225698</v>
+        <v>0.219695</v>
       </c>
       <c r="D77" t="n">
-        <v>0.230846</v>
+        <v>0.224339</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.18765</v>
+        <v>0.187895</v>
       </c>
       <c r="C78" t="n">
-        <v>0.22469</v>
+        <v>0.218922</v>
       </c>
       <c r="D78" t="n">
-        <v>0.230073</v>
+        <v>0.223492</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179835</v>
+        <v>0.179645</v>
       </c>
       <c r="C79" t="n">
-        <v>0.223673</v>
+        <v>0.217956</v>
       </c>
       <c r="D79" t="n">
-        <v>0.229351</v>
+        <v>0.222749</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.170167</v>
+        <v>0.169848</v>
       </c>
       <c r="C80" t="n">
-        <v>0.222789</v>
+        <v>0.216934</v>
       </c>
       <c r="D80" t="n">
-        <v>0.245874</v>
+        <v>0.23885</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.248839</v>
+        <v>0.24936</v>
       </c>
       <c r="C81" t="n">
-        <v>0.248219</v>
+        <v>0.2398</v>
       </c>
       <c r="D81" t="n">
-        <v>0.243273</v>
+        <v>0.236588</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.245107</v>
+        <v>0.245604</v>
       </c>
       <c r="C82" t="n">
-        <v>0.242458</v>
+        <v>0.234873</v>
       </c>
       <c r="D82" t="n">
-        <v>0.241413</v>
+        <v>0.235124</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.241238</v>
+        <v>0.241349</v>
       </c>
       <c r="C83" t="n">
-        <v>0.237715</v>
+        <v>0.230263</v>
       </c>
       <c r="D83" t="n">
-        <v>0.240076</v>
+        <v>0.233186</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.236507</v>
+        <v>0.236761</v>
       </c>
       <c r="C84" t="n">
-        <v>0.235121</v>
+        <v>0.228227</v>
       </c>
       <c r="D84" t="n">
-        <v>0.23859</v>
+        <v>0.23189</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.231624</v>
+        <v>0.23162</v>
       </c>
       <c r="C85" t="n">
-        <v>0.233096</v>
+        <v>0.226433</v>
       </c>
       <c r="D85" t="n">
-        <v>0.237107</v>
+        <v>0.23069</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.226244</v>
+        <v>0.226157</v>
       </c>
       <c r="C86" t="n">
-        <v>0.231815</v>
+        <v>0.225216</v>
       </c>
       <c r="D86" t="n">
-        <v>0.235894</v>
+        <v>0.229426</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.22093</v>
+        <v>0.220881</v>
       </c>
       <c r="C87" t="n">
-        <v>0.230702</v>
+        <v>0.224032</v>
       </c>
       <c r="D87" t="n">
-        <v>0.234875</v>
+        <v>0.228333</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.215227</v>
+        <v>0.214882</v>
       </c>
       <c r="C88" t="n">
-        <v>0.229555</v>
+        <v>0.222945</v>
       </c>
       <c r="D88" t="n">
-        <v>0.23383</v>
+        <v>0.22733</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.209256</v>
+        <v>0.208977</v>
       </c>
       <c r="C89" t="n">
-        <v>0.228357</v>
+        <v>0.221938</v>
       </c>
       <c r="D89" t="n">
-        <v>0.2328</v>
+        <v>0.226317</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.203329</v>
+        <v>0.20281</v>
       </c>
       <c r="C90" t="n">
-        <v>0.227001</v>
+        <v>0.220952</v>
       </c>
       <c r="D90" t="n">
-        <v>0.231966</v>
+        <v>0.225483</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.196615</v>
+        <v>0.196534</v>
       </c>
       <c r="C91" t="n">
-        <v>0.225976</v>
+        <v>0.220054</v>
       </c>
       <c r="D91" t="n">
-        <v>0.23107</v>
+        <v>0.224594</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.18977</v>
+        <v>0.189603</v>
       </c>
       <c r="C92" t="n">
-        <v>0.224987</v>
+        <v>0.219064</v>
       </c>
       <c r="D92" t="n">
-        <v>0.23034</v>
+        <v>0.223777</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.181554</v>
+        <v>0.181665</v>
       </c>
       <c r="C93" t="n">
-        <v>0.224104</v>
+        <v>0.218273</v>
       </c>
       <c r="D93" t="n">
-        <v>0.229615</v>
+        <v>0.223095</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.172334</v>
+        <v>0.172283</v>
       </c>
       <c r="C94" t="n">
-        <v>0.223318</v>
+        <v>0.217456</v>
       </c>
       <c r="D94" t="n">
-        <v>0.246669</v>
+        <v>0.240239</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.249123</v>
+        <v>0.249547</v>
       </c>
       <c r="C95" t="n">
-        <v>0.243043</v>
+        <v>0.236677</v>
       </c>
       <c r="D95" t="n">
-        <v>0.243955</v>
+        <v>0.237719</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.245526</v>
+        <v>0.245573</v>
       </c>
       <c r="C96" t="n">
-        <v>0.239775</v>
+        <v>0.233589</v>
       </c>
       <c r="D96" t="n">
-        <v>0.242258</v>
+        <v>0.235475</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.241558</v>
+        <v>0.241426</v>
       </c>
       <c r="C97" t="n">
-        <v>0.237004</v>
+        <v>0.230801</v>
       </c>
       <c r="D97" t="n">
-        <v>0.241038</v>
+        <v>0.234339</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.23721</v>
+        <v>0.23714</v>
       </c>
       <c r="C98" t="n">
-        <v>0.234904</v>
+        <v>0.228531</v>
       </c>
       <c r="D98" t="n">
-        <v>0.239649</v>
+        <v>0.233053</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.232389</v>
+        <v>0.232447</v>
       </c>
       <c r="C99" t="n">
-        <v>0.233338</v>
+        <v>0.227025</v>
       </c>
       <c r="D99" t="n">
-        <v>0.238386</v>
+        <v>0.231782</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.227291</v>
+        <v>0.227146</v>
       </c>
       <c r="C100" t="n">
-        <v>0.232007</v>
+        <v>0.22566</v>
       </c>
       <c r="D100" t="n">
-        <v>0.236886</v>
+        <v>0.23063</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.222851</v>
+        <v>0.222911</v>
       </c>
       <c r="C101" t="n">
-        <v>0.230579</v>
+        <v>0.224396</v>
       </c>
       <c r="D101" t="n">
-        <v>0.235377</v>
+        <v>0.229055</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.217333</v>
+        <v>0.217342</v>
       </c>
       <c r="C102" t="n">
-        <v>0.22928</v>
+        <v>0.223197</v>
       </c>
       <c r="D102" t="n">
-        <v>0.23437</v>
+        <v>0.228006</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.211445</v>
+        <v>0.211382</v>
       </c>
       <c r="C103" t="n">
-        <v>0.228182</v>
+        <v>0.22216</v>
       </c>
       <c r="D103" t="n">
-        <v>0.233789</v>
+        <v>0.227022</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.205148</v>
+        <v>0.205327</v>
       </c>
       <c r="C104" t="n">
-        <v>0.22716</v>
+        <v>0.221135</v>
       </c>
       <c r="D104" t="n">
-        <v>0.232805</v>
+        <v>0.226391</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.198686</v>
+        <v>0.198783</v>
       </c>
       <c r="C105" t="n">
-        <v>0.226279</v>
+        <v>0.220226</v>
       </c>
       <c r="D105" t="n">
-        <v>0.23201</v>
+        <v>0.225395</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.191581</v>
+        <v>0.191685</v>
       </c>
       <c r="C106" t="n">
-        <v>0.225252</v>
+        <v>0.219323</v>
       </c>
       <c r="D106" t="n">
-        <v>0.23119</v>
+        <v>0.224632</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183693</v>
+        <v>0.183987</v>
       </c>
       <c r="C107" t="n">
-        <v>0.224354</v>
+        <v>0.218429</v>
       </c>
       <c r="D107" t="n">
-        <v>0.230333</v>
+        <v>0.22387</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.174197</v>
+        <v>0.174781</v>
       </c>
       <c r="C108" t="n">
-        <v>0.223526</v>
+        <v>0.217575</v>
       </c>
       <c r="D108" t="n">
-        <v>0.245863</v>
+        <v>0.239549</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.163738</v>
+        <v>0.16428</v>
       </c>
       <c r="C109" t="n">
-        <v>0.222652</v>
+        <v>0.216804</v>
       </c>
       <c r="D109" t="n">
-        <v>0.243615</v>
+        <v>0.237228</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.246939</v>
+        <v>0.246935</v>
       </c>
       <c r="C110" t="n">
-        <v>0.239973</v>
+        <v>0.233616</v>
       </c>
       <c r="D110" t="n">
-        <v>0.24168</v>
+        <v>0.235304</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.243153</v>
+        <v>0.243107</v>
       </c>
       <c r="C111" t="n">
-        <v>0.237219</v>
+        <v>0.230606</v>
       </c>
       <c r="D111" t="n">
-        <v>0.240073</v>
+        <v>0.233673</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.238648</v>
+        <v>0.238633</v>
       </c>
       <c r="C112" t="n">
-        <v>0.235056</v>
+        <v>0.228511</v>
       </c>
       <c r="D112" t="n">
-        <v>0.238656</v>
+        <v>0.232231</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.233727</v>
+        <v>0.2338</v>
       </c>
       <c r="C113" t="n">
-        <v>0.233417</v>
+        <v>0.226907</v>
       </c>
       <c r="D113" t="n">
-        <v>0.237349</v>
+        <v>0.230946</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.228638</v>
+        <v>0.228619</v>
       </c>
       <c r="C114" t="n">
-        <v>0.231946</v>
+        <v>0.225466</v>
       </c>
       <c r="D114" t="n">
-        <v>0.236199</v>
+        <v>0.229734</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.223225</v>
+        <v>0.2231</v>
       </c>
       <c r="C115" t="n">
-        <v>0.230579</v>
+        <v>0.224281</v>
       </c>
       <c r="D115" t="n">
-        <v>0.23525</v>
+        <v>0.228643</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.217566</v>
+        <v>0.217232</v>
       </c>
       <c r="C116" t="n">
-        <v>0.229869</v>
+        <v>0.223655</v>
       </c>
       <c r="D116" t="n">
-        <v>0.234607</v>
+        <v>0.227658</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.211469</v>
+        <v>0.211522</v>
       </c>
       <c r="C117" t="n">
-        <v>0.228741</v>
+        <v>0.222592</v>
       </c>
       <c r="D117" t="n">
-        <v>0.233764</v>
+        <v>0.227044</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.205429</v>
+        <v>0.205526</v>
       </c>
       <c r="C118" t="n">
-        <v>0.227754</v>
+        <v>0.221563</v>
       </c>
       <c r="D118" t="n">
-        <v>0.232781</v>
+        <v>0.226171</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.199086</v>
+        <v>0.199399</v>
       </c>
       <c r="C119" t="n">
-        <v>0.226704</v>
+        <v>0.220679</v>
       </c>
       <c r="D119" t="n">
-        <v>0.231994</v>
+        <v>0.225289</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.19233</v>
+        <v>0.192533</v>
       </c>
       <c r="C120" t="n">
-        <v>0.225743</v>
+        <v>0.219748</v>
       </c>
       <c r="D120" t="n">
-        <v>0.23112</v>
+        <v>0.224439</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.184765</v>
+        <v>0.1849</v>
       </c>
       <c r="C121" t="n">
-        <v>0.224911</v>
+        <v>0.218922</v>
       </c>
       <c r="D121" t="n">
-        <v>0.230332</v>
+        <v>0.22373</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.175938</v>
+        <v>0.176576</v>
       </c>
       <c r="C122" t="n">
-        <v>0.223794</v>
+        <v>0.218045</v>
       </c>
       <c r="D122" t="n">
-        <v>0.229635</v>
+        <v>0.22305</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.165737</v>
+        <v>0.16606</v>
       </c>
       <c r="C123" t="n">
-        <v>0.222993</v>
+        <v>0.217187</v>
       </c>
       <c r="D123" t="n">
-        <v>0.243988</v>
+        <v>0.237362</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.248865</v>
+        <v>0.247533</v>
       </c>
       <c r="C124" t="n">
-        <v>0.240437</v>
+        <v>0.234093</v>
       </c>
       <c r="D124" t="n">
-        <v>0.242252</v>
+        <v>0.235435</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.245075</v>
+        <v>0.243775</v>
       </c>
       <c r="C125" t="n">
-        <v>0.237486</v>
+        <v>0.230992</v>
       </c>
       <c r="D125" t="n">
-        <v>0.240607</v>
+        <v>0.233777</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.240665</v>
+        <v>0.239339</v>
       </c>
       <c r="C126" t="n">
-        <v>0.235319</v>
+        <v>0.228796</v>
       </c>
       <c r="D126" t="n">
-        <v>0.23908</v>
+        <v>0.23228</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.235816</v>
+        <v>0.235954</v>
       </c>
       <c r="C127" t="n">
-        <v>0.233593</v>
+        <v>0.227057</v>
       </c>
       <c r="D127" t="n">
-        <v>0.237765</v>
+        <v>0.231006</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.230628</v>
+        <v>0.23073</v>
       </c>
       <c r="C128" t="n">
-        <v>0.23215</v>
+        <v>0.225712</v>
       </c>
       <c r="D128" t="n">
-        <v>0.236634</v>
+        <v>0.229836</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.225192</v>
+        <v>0.22526</v>
       </c>
       <c r="C129" t="n">
-        <v>0.230879</v>
+        <v>0.224551</v>
       </c>
       <c r="D129" t="n">
-        <v>0.235482</v>
+        <v>0.228714</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.219574</v>
+        <v>0.219725</v>
       </c>
       <c r="C130" t="n">
-        <v>0.229693</v>
+        <v>0.223402</v>
       </c>
       <c r="D130" t="n">
-        <v>0.234547</v>
+        <v>0.227692</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.212966</v>
+        <v>0.21391</v>
       </c>
       <c r="C131" t="n">
-        <v>0.2286</v>
+        <v>0.222425</v>
       </c>
       <c r="D131" t="n">
-        <v>0.233545</v>
+        <v>0.226712</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.206565</v>
+        <v>0.207793</v>
       </c>
       <c r="C132" t="n">
-        <v>0.22753</v>
+        <v>0.221434</v>
       </c>
       <c r="D132" t="n">
-        <v>0.232852</v>
+        <v>0.225794</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.201273</v>
+        <v>0.200334</v>
       </c>
       <c r="C133" t="n">
-        <v>0.226531</v>
+        <v>0.220487</v>
       </c>
       <c r="D133" t="n">
-        <v>0.231771</v>
+        <v>0.22494</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.194474</v>
+        <v>0.193785</v>
       </c>
       <c r="C134" t="n">
-        <v>0.225577</v>
+        <v>0.219574</v>
       </c>
       <c r="D134" t="n">
-        <v>0.230956</v>
+        <v>0.224135</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.187214</v>
+        <v>0.186572</v>
       </c>
       <c r="C135" t="n">
-        <v>0.22469</v>
+        <v>0.218672</v>
       </c>
       <c r="D135" t="n">
-        <v>0.230209</v>
+        <v>0.223414</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.178612</v>
+        <v>0.178647</v>
       </c>
       <c r="C136" t="n">
-        <v>0.224235</v>
+        <v>0.218107</v>
       </c>
       <c r="D136" t="n">
-        <v>0.229893</v>
+        <v>0.222691</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.168715</v>
+        <v>0.168522</v>
       </c>
       <c r="C137" t="n">
-        <v>0.223321</v>
+        <v>0.21725</v>
       </c>
       <c r="D137" t="n">
-        <v>0.245137</v>
+        <v>0.238671</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.24833</v>
+        <v>0.249602</v>
       </c>
       <c r="C138" t="n">
-        <v>0.241803</v>
+        <v>0.23535</v>
       </c>
       <c r="D138" t="n">
-        <v>0.242909</v>
+        <v>0.236547</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.244954</v>
+        <v>0.244935</v>
       </c>
       <c r="C139" t="n">
-        <v>0.238627</v>
+        <v>0.232172</v>
       </c>
       <c r="D139" t="n">
-        <v>0.241138</v>
+        <v>0.234694</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.240281</v>
+        <v>0.240553</v>
       </c>
       <c r="C140" t="n">
-        <v>0.236271</v>
+        <v>0.229685</v>
       </c>
       <c r="D140" t="n">
-        <v>0.239827</v>
+        <v>0.233107</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.235871</v>
+        <v>0.23613</v>
       </c>
       <c r="C141" t="n">
-        <v>0.234388</v>
+        <v>0.227897</v>
       </c>
       <c r="D141" t="n">
-        <v>0.238407</v>
+        <v>0.23173</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.230815</v>
+        <v>0.230711</v>
       </c>
       <c r="C142" t="n">
-        <v>0.232905</v>
+        <v>0.226404</v>
       </c>
       <c r="D142" t="n">
-        <v>0.237173</v>
+        <v>0.230488</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.225372</v>
+        <v>0.225424</v>
       </c>
       <c r="C143" t="n">
-        <v>0.231508</v>
+        <v>0.225128</v>
       </c>
       <c r="D143" t="n">
-        <v>0.235818</v>
+        <v>0.229315</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.202219</v>
+        <v>0.201558</v>
       </c>
       <c r="C2" t="n">
-        <v>0.208294</v>
+        <v>0.20708</v>
       </c>
       <c r="D2" t="n">
-        <v>0.210173</v>
+        <v>0.21087</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.192707</v>
+        <v>0.191271</v>
       </c>
       <c r="C3" t="n">
-        <v>0.207484</v>
+        <v>0.207795</v>
       </c>
       <c r="D3" t="n">
-        <v>0.209409</v>
+        <v>0.211057</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.185587</v>
+        <v>0.183915</v>
       </c>
       <c r="C4" t="n">
-        <v>0.208085</v>
+        <v>0.206464</v>
       </c>
       <c r="D4" t="n">
-        <v>0.211512</v>
+        <v>0.21222</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.180097</v>
+        <v>0.179365</v>
       </c>
       <c r="C5" t="n">
-        <v>0.208448</v>
+        <v>0.207761</v>
       </c>
       <c r="D5" t="n">
-        <v>0.211447</v>
+        <v>0.212122</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.172485</v>
+        <v>0.173082</v>
       </c>
       <c r="C6" t="n">
-        <v>0.207512</v>
+        <v>0.207887</v>
       </c>
       <c r="D6" t="n">
-        <v>0.212724</v>
+        <v>0.212381</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.166785</v>
+        <v>0.165229</v>
       </c>
       <c r="C7" t="n">
-        <v>0.206974</v>
+        <v>0.206613</v>
       </c>
       <c r="D7" t="n">
-        <v>0.211666</v>
+        <v>0.211464</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.157646</v>
+        <v>0.158749</v>
       </c>
       <c r="C8" t="n">
-        <v>0.208064</v>
+        <v>0.207302</v>
       </c>
       <c r="D8" t="n">
-        <v>0.213146</v>
+        <v>0.212233</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.149309</v>
+        <v>0.149317</v>
       </c>
       <c r="C9" t="n">
-        <v>0.206799</v>
+        <v>0.206622</v>
       </c>
       <c r="D9" t="n">
-        <v>0.22854</v>
+        <v>0.227541</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.232285</v>
+        <v>0.23231</v>
       </c>
       <c r="C10" t="n">
-        <v>0.225141</v>
+        <v>0.223744</v>
       </c>
       <c r="D10" t="n">
-        <v>0.22609</v>
+        <v>0.227187</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.230196</v>
+        <v>0.230449</v>
       </c>
       <c r="C11" t="n">
-        <v>0.224248</v>
+        <v>0.223256</v>
       </c>
       <c r="D11" t="n">
-        <v>0.226611</v>
+        <v>0.226555</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.226816</v>
+        <v>0.227489</v>
       </c>
       <c r="C12" t="n">
-        <v>0.223756</v>
+        <v>0.221944</v>
       </c>
       <c r="D12" t="n">
-        <v>0.225883</v>
+        <v>0.225456</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.223239</v>
+        <v>0.224007</v>
       </c>
       <c r="C13" t="n">
-        <v>0.222367</v>
+        <v>0.221697</v>
       </c>
       <c r="D13" t="n">
-        <v>0.225107</v>
+        <v>0.224521</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.219091</v>
+        <v>0.219269</v>
       </c>
       <c r="C14" t="n">
-        <v>0.221805</v>
+        <v>0.22059</v>
       </c>
       <c r="D14" t="n">
-        <v>0.225217</v>
+        <v>0.224435</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.216577</v>
+        <v>0.216095</v>
       </c>
       <c r="C15" t="n">
-        <v>0.221062</v>
+        <v>0.219819</v>
       </c>
       <c r="D15" t="n">
-        <v>0.224149</v>
+        <v>0.223973</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.210849</v>
+        <v>0.211159</v>
       </c>
       <c r="C16" t="n">
-        <v>0.220383</v>
+        <v>0.220143</v>
       </c>
       <c r="D16" t="n">
-        <v>0.223333</v>
+        <v>0.223356</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.205634</v>
+        <v>0.204711</v>
       </c>
       <c r="C17" t="n">
-        <v>0.219342</v>
+        <v>0.218697</v>
       </c>
       <c r="D17" t="n">
-        <v>0.223573</v>
+        <v>0.223104</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.19968</v>
+        <v>0.200109</v>
       </c>
       <c r="C18" t="n">
-        <v>0.218541</v>
+        <v>0.217365</v>
       </c>
       <c r="D18" t="n">
-        <v>0.222248</v>
+        <v>0.22213</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.194796</v>
+        <v>0.19566</v>
       </c>
       <c r="C19" t="n">
-        <v>0.217432</v>
+        <v>0.216534</v>
       </c>
       <c r="D19" t="n">
-        <v>0.221473</v>
+        <v>0.22145</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.189905</v>
+        <v>0.18928</v>
       </c>
       <c r="C20" t="n">
-        <v>0.21701</v>
+        <v>0.215955</v>
       </c>
       <c r="D20" t="n">
-        <v>0.221444</v>
+        <v>0.221581</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.182037</v>
+        <v>0.181908</v>
       </c>
       <c r="C21" t="n">
-        <v>0.216172</v>
+        <v>0.215656</v>
       </c>
       <c r="D21" t="n">
-        <v>0.221046</v>
+        <v>0.22117</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.175472</v>
+        <v>0.175154</v>
       </c>
       <c r="C22" t="n">
-        <v>0.215757</v>
+        <v>0.214998</v>
       </c>
       <c r="D22" t="n">
-        <v>0.220266</v>
+        <v>0.220325</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.165857</v>
+        <v>0.165866</v>
       </c>
       <c r="C23" t="n">
-        <v>0.214554</v>
+        <v>0.214007</v>
       </c>
       <c r="D23" t="n">
-        <v>0.234306</v>
+        <v>0.234047</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.241248</v>
+        <v>0.243824</v>
       </c>
       <c r="C24" t="n">
-        <v>0.231558</v>
+        <v>0.229632</v>
       </c>
       <c r="D24" t="n">
-        <v>0.23252</v>
+        <v>0.232138</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.237869</v>
+        <v>0.23784</v>
       </c>
       <c r="C25" t="n">
-        <v>0.229892</v>
+        <v>0.227776</v>
       </c>
       <c r="D25" t="n">
-        <v>0.23131</v>
+        <v>0.231121</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.234614</v>
+        <v>0.23544</v>
       </c>
       <c r="C26" t="n">
-        <v>0.227154</v>
+        <v>0.226404</v>
       </c>
       <c r="D26" t="n">
-        <v>0.230536</v>
+        <v>0.229948</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.230315</v>
+        <v>0.231534</v>
       </c>
       <c r="C27" t="n">
-        <v>0.22632</v>
+        <v>0.225155</v>
       </c>
       <c r="D27" t="n">
-        <v>0.229548</v>
+        <v>0.228963</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.226336</v>
+        <v>0.226206</v>
       </c>
       <c r="C28" t="n">
-        <v>0.224696</v>
+        <v>0.22422</v>
       </c>
       <c r="D28" t="n">
-        <v>0.228801</v>
+        <v>0.22815</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.221555</v>
+        <v>0.221567</v>
       </c>
       <c r="C29" t="n">
-        <v>0.223469</v>
+        <v>0.222982</v>
       </c>
       <c r="D29" t="n">
-        <v>0.227487</v>
+        <v>0.227481</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.215988</v>
+        <v>0.21702</v>
       </c>
       <c r="C30" t="n">
-        <v>0.222258</v>
+        <v>0.221641</v>
       </c>
       <c r="D30" t="n">
-        <v>0.226959</v>
+        <v>0.226585</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.210421</v>
+        <v>0.211792</v>
       </c>
       <c r="C31" t="n">
-        <v>0.221208</v>
+        <v>0.220577</v>
       </c>
       <c r="D31" t="n">
-        <v>0.225589</v>
+        <v>0.225628</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.205172</v>
+        <v>0.206257</v>
       </c>
       <c r="C32" t="n">
-        <v>0.220561</v>
+        <v>0.219719</v>
       </c>
       <c r="D32" t="n">
-        <v>0.225305</v>
+        <v>0.224987</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.199165</v>
+        <v>0.200587</v>
       </c>
       <c r="C33" t="n">
-        <v>0.219611</v>
+        <v>0.218925</v>
       </c>
       <c r="D33" t="n">
-        <v>0.224181</v>
+        <v>0.224341</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.193711</v>
+        <v>0.194677</v>
       </c>
       <c r="C34" t="n">
-        <v>0.219005</v>
+        <v>0.218381</v>
       </c>
       <c r="D34" t="n">
-        <v>0.223697</v>
+        <v>0.223741</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.186469</v>
+        <v>0.187165</v>
       </c>
       <c r="C35" t="n">
-        <v>0.217953</v>
+        <v>0.217267</v>
       </c>
       <c r="D35" t="n">
-        <v>0.222696</v>
+        <v>0.223071</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.179122</v>
+        <v>0.179599</v>
       </c>
       <c r="C36" t="n">
-        <v>0.217081</v>
+        <v>0.216518</v>
       </c>
       <c r="D36" t="n">
-        <v>0.222103</v>
+        <v>0.222476</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.169985</v>
+        <v>0.17037</v>
       </c>
       <c r="C37" t="n">
-        <v>0.216496</v>
+        <v>0.215925</v>
       </c>
       <c r="D37" t="n">
-        <v>0.236376</v>
+        <v>0.23604</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.247709</v>
+        <v>0.247115</v>
       </c>
       <c r="C38" t="n">
-        <v>0.230439</v>
+        <v>0.229579</v>
       </c>
       <c r="D38" t="n">
-        <v>0.234541</v>
+        <v>0.233878</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.243299</v>
+        <v>0.243871</v>
       </c>
       <c r="C39" t="n">
-        <v>0.228723</v>
+        <v>0.228017</v>
       </c>
       <c r="D39" t="n">
-        <v>0.233056</v>
+        <v>0.232825</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.239824</v>
+        <v>0.240053</v>
       </c>
       <c r="C40" t="n">
-        <v>0.227398</v>
+        <v>0.22675</v>
       </c>
       <c r="D40" t="n">
-        <v>0.231982</v>
+        <v>0.231826</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.235133</v>
+        <v>0.235963</v>
       </c>
       <c r="C41" t="n">
-        <v>0.226429</v>
+        <v>0.225517</v>
       </c>
       <c r="D41" t="n">
-        <v>0.230778</v>
+        <v>0.230845</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.230136</v>
+        <v>0.230191</v>
       </c>
       <c r="C42" t="n">
-        <v>0.225086</v>
+        <v>0.224405</v>
       </c>
       <c r="D42" t="n">
-        <v>0.229823</v>
+        <v>0.229499</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.224896</v>
+        <v>0.225498</v>
       </c>
       <c r="C43" t="n">
-        <v>0.223959</v>
+        <v>0.223255</v>
       </c>
       <c r="D43" t="n">
-        <v>0.22849</v>
+        <v>0.228302</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.22031</v>
+        <v>0.220258</v>
       </c>
       <c r="C44" t="n">
-        <v>0.222883</v>
+        <v>0.222238</v>
       </c>
       <c r="D44" t="n">
-        <v>0.22767</v>
+        <v>0.227499</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.214713</v>
+        <v>0.214583</v>
       </c>
       <c r="C45" t="n">
-        <v>0.221819</v>
+        <v>0.221238</v>
       </c>
       <c r="D45" t="n">
-        <v>0.226511</v>
+        <v>0.226523</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.208951</v>
+        <v>0.20913</v>
       </c>
       <c r="C46" t="n">
-        <v>0.220917</v>
+        <v>0.220203</v>
       </c>
       <c r="D46" t="n">
-        <v>0.225778</v>
+        <v>0.225651</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.203201</v>
+        <v>0.203362</v>
       </c>
       <c r="C47" t="n">
-        <v>0.220224</v>
+        <v>0.219777</v>
       </c>
       <c r="D47" t="n">
-        <v>0.224927</v>
+        <v>0.22484</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.196765</v>
+        <v>0.196616</v>
       </c>
       <c r="C48" t="n">
-        <v>0.219516</v>
+        <v>0.218885</v>
       </c>
       <c r="D48" t="n">
-        <v>0.224156</v>
+        <v>0.224009</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.190118</v>
+        <v>0.19026</v>
       </c>
       <c r="C49" t="n">
-        <v>0.218526</v>
+        <v>0.218066</v>
       </c>
       <c r="D49" t="n">
-        <v>0.223235</v>
+        <v>0.22334</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.182348</v>
+        <v>0.183026</v>
       </c>
       <c r="C50" t="n">
-        <v>0.217968</v>
+        <v>0.21732</v>
       </c>
       <c r="D50" t="n">
-        <v>0.222498</v>
+        <v>0.222657</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173943</v>
+        <v>0.174081</v>
       </c>
       <c r="C51" t="n">
-        <v>0.216715</v>
+        <v>0.216431</v>
       </c>
       <c r="D51" t="n">
-        <v>0.237645</v>
+        <v>0.236038</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.164369</v>
+        <v>0.163714</v>
       </c>
       <c r="C52" t="n">
-        <v>0.216046</v>
+        <v>0.215836</v>
       </c>
       <c r="D52" t="n">
-        <v>0.235608</v>
+        <v>0.234824</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.245823</v>
+        <v>0.246138</v>
       </c>
       <c r="C53" t="n">
-        <v>0.229662</v>
+        <v>0.22903</v>
       </c>
       <c r="D53" t="n">
-        <v>0.234063</v>
+        <v>0.233615</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.242016</v>
+        <v>0.242395</v>
       </c>
       <c r="C54" t="n">
-        <v>0.228374</v>
+        <v>0.227615</v>
       </c>
       <c r="D54" t="n">
-        <v>0.232984</v>
+        <v>0.232556</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.237554</v>
+        <v>0.237714</v>
       </c>
       <c r="C55" t="n">
-        <v>0.227129</v>
+        <v>0.226504</v>
       </c>
       <c r="D55" t="n">
-        <v>0.231533</v>
+        <v>0.231106</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.233312</v>
+        <v>0.23262</v>
       </c>
       <c r="C56" t="n">
-        <v>0.225973</v>
+        <v>0.225248</v>
       </c>
       <c r="D56" t="n">
-        <v>0.230389</v>
+        <v>0.23011</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.228183</v>
+        <v>0.227494</v>
       </c>
       <c r="C57" t="n">
-        <v>0.225031</v>
+        <v>0.224383</v>
       </c>
       <c r="D57" t="n">
-        <v>0.229315</v>
+        <v>0.229034</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.222988</v>
+        <v>0.222416</v>
       </c>
       <c r="C58" t="n">
-        <v>0.223931</v>
+        <v>0.223389</v>
       </c>
       <c r="D58" t="n">
-        <v>0.228259</v>
+        <v>0.228047</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.217326</v>
+        <v>0.216941</v>
       </c>
       <c r="C59" t="n">
-        <v>0.222756</v>
+        <v>0.222297</v>
       </c>
       <c r="D59" t="n">
-        <v>0.227303</v>
+        <v>0.227167</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.211667</v>
+        <v>0.211326</v>
       </c>
       <c r="C60" t="n">
-        <v>0.221698</v>
+        <v>0.221177</v>
       </c>
       <c r="D60" t="n">
-        <v>0.226177</v>
+        <v>0.226155</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.205624</v>
+        <v>0.20551</v>
       </c>
       <c r="C61" t="n">
-        <v>0.220901</v>
+        <v>0.22034</v>
       </c>
       <c r="D61" t="n">
-        <v>0.225426</v>
+        <v>0.22542</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.199667</v>
+        <v>0.19953</v>
       </c>
       <c r="C62" t="n">
-        <v>0.21987</v>
+        <v>0.219393</v>
       </c>
       <c r="D62" t="n">
-        <v>0.224493</v>
+        <v>0.224447</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.193135</v>
+        <v>0.192904</v>
       </c>
       <c r="C63" t="n">
-        <v>0.21915</v>
+        <v>0.2186</v>
       </c>
       <c r="D63" t="n">
-        <v>0.223703</v>
+        <v>0.223765</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.185584</v>
+        <v>0.185288</v>
       </c>
       <c r="C64" t="n">
-        <v>0.218217</v>
+        <v>0.217768</v>
       </c>
       <c r="D64" t="n">
-        <v>0.222895</v>
+        <v>0.223072</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177406</v>
+        <v>0.176899</v>
       </c>
       <c r="C65" t="n">
-        <v>0.217304</v>
+        <v>0.216868</v>
       </c>
       <c r="D65" t="n">
-        <v>0.222101</v>
+        <v>0.222234</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.167055</v>
+        <v>0.167059</v>
       </c>
       <c r="C66" t="n">
-        <v>0.216389</v>
+        <v>0.215926</v>
       </c>
       <c r="D66" t="n">
-        <v>0.2365</v>
+        <v>0.23589</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.247331</v>
+        <v>0.247433</v>
       </c>
       <c r="C67" t="n">
-        <v>0.232008</v>
+        <v>0.230549</v>
       </c>
       <c r="D67" t="n">
-        <v>0.234984</v>
+        <v>0.234522</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.243728</v>
+        <v>0.243733</v>
       </c>
       <c r="C68" t="n">
-        <v>0.230466</v>
+        <v>0.229136</v>
       </c>
       <c r="D68" t="n">
-        <v>0.2336</v>
+        <v>0.233251</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.239607</v>
+        <v>0.239569</v>
       </c>
       <c r="C69" t="n">
-        <v>0.229036</v>
+        <v>0.227635</v>
       </c>
       <c r="D69" t="n">
-        <v>0.232608</v>
+        <v>0.232104</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.235069</v>
+        <v>0.234624</v>
       </c>
       <c r="C70" t="n">
-        <v>0.227386</v>
+        <v>0.226345</v>
       </c>
       <c r="D70" t="n">
-        <v>0.231224</v>
+        <v>0.230817</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.23003</v>
+        <v>0.229352</v>
       </c>
       <c r="C71" t="n">
-        <v>0.226047</v>
+        <v>0.225134</v>
       </c>
       <c r="D71" t="n">
-        <v>0.230226</v>
+        <v>0.229763</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.224858</v>
+        <v>0.22413</v>
       </c>
       <c r="C72" t="n">
-        <v>0.22484</v>
+        <v>0.223997</v>
       </c>
       <c r="D72" t="n">
-        <v>0.228864</v>
+        <v>0.228667</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.219211</v>
+        <v>0.218969</v>
       </c>
       <c r="C73" t="n">
-        <v>0.22351</v>
+        <v>0.222843</v>
       </c>
       <c r="D73" t="n">
-        <v>0.227938</v>
+        <v>0.227731</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.21346</v>
+        <v>0.213381</v>
       </c>
       <c r="C74" t="n">
-        <v>0.222625</v>
+        <v>0.221776</v>
       </c>
       <c r="D74" t="n">
-        <v>0.226912</v>
+        <v>0.226699</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.20742</v>
+        <v>0.207436</v>
       </c>
       <c r="C75" t="n">
-        <v>0.221678</v>
+        <v>0.221041</v>
       </c>
       <c r="D75" t="n">
-        <v>0.226018</v>
+        <v>0.225916</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.201431</v>
+        <v>0.201298</v>
       </c>
       <c r="C76" t="n">
-        <v>0.220752</v>
+        <v>0.220058</v>
       </c>
       <c r="D76" t="n">
-        <v>0.225157</v>
+        <v>0.225077</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.194917</v>
+        <v>0.194821</v>
       </c>
       <c r="C77" t="n">
-        <v>0.219695</v>
+        <v>0.219275</v>
       </c>
       <c r="D77" t="n">
-        <v>0.224339</v>
+        <v>0.224185</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.187895</v>
+        <v>0.187994</v>
       </c>
       <c r="C78" t="n">
-        <v>0.218922</v>
+        <v>0.218325</v>
       </c>
       <c r="D78" t="n">
-        <v>0.223492</v>
+        <v>0.22345</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179645</v>
+        <v>0.179742</v>
       </c>
       <c r="C79" t="n">
-        <v>0.217956</v>
+        <v>0.2174</v>
       </c>
       <c r="D79" t="n">
-        <v>0.222749</v>
+        <v>0.222738</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.169848</v>
+        <v>0.169995</v>
       </c>
       <c r="C80" t="n">
-        <v>0.216934</v>
+        <v>0.216318</v>
       </c>
       <c r="D80" t="n">
-        <v>0.23885</v>
+        <v>0.23862</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.24936</v>
+        <v>0.249334</v>
       </c>
       <c r="C81" t="n">
-        <v>0.2398</v>
+        <v>0.239549</v>
       </c>
       <c r="D81" t="n">
-        <v>0.236588</v>
+        <v>0.236191</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.245604</v>
+        <v>0.245997</v>
       </c>
       <c r="C82" t="n">
-        <v>0.234873</v>
+        <v>0.233967</v>
       </c>
       <c r="D82" t="n">
-        <v>0.235124</v>
+        <v>0.234424</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.241349</v>
+        <v>0.241551</v>
       </c>
       <c r="C83" t="n">
-        <v>0.230263</v>
+        <v>0.230027</v>
       </c>
       <c r="D83" t="n">
-        <v>0.233186</v>
+        <v>0.232902</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.236761</v>
+        <v>0.236392</v>
       </c>
       <c r="C84" t="n">
-        <v>0.228227</v>
+        <v>0.227555</v>
       </c>
       <c r="D84" t="n">
-        <v>0.23189</v>
+        <v>0.231772</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.23162</v>
+        <v>0.23123</v>
       </c>
       <c r="C85" t="n">
-        <v>0.226433</v>
+        <v>0.225839</v>
       </c>
       <c r="D85" t="n">
-        <v>0.23069</v>
+        <v>0.23039</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.226157</v>
+        <v>0.226196</v>
       </c>
       <c r="C86" t="n">
-        <v>0.225216</v>
+        <v>0.224377</v>
       </c>
       <c r="D86" t="n">
-        <v>0.229426</v>
+        <v>0.229324</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.220881</v>
+        <v>0.220388</v>
       </c>
       <c r="C87" t="n">
-        <v>0.224032</v>
+        <v>0.223398</v>
       </c>
       <c r="D87" t="n">
-        <v>0.228333</v>
+        <v>0.22825</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.214882</v>
+        <v>0.214644</v>
       </c>
       <c r="C88" t="n">
-        <v>0.222945</v>
+        <v>0.222337</v>
       </c>
       <c r="D88" t="n">
-        <v>0.22733</v>
+        <v>0.227228</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.208977</v>
+        <v>0.20891</v>
       </c>
       <c r="C89" t="n">
-        <v>0.221938</v>
+        <v>0.221362</v>
       </c>
       <c r="D89" t="n">
-        <v>0.226317</v>
+        <v>0.226295</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.20281</v>
+        <v>0.202717</v>
       </c>
       <c r="C90" t="n">
-        <v>0.220952</v>
+        <v>0.220315</v>
       </c>
       <c r="D90" t="n">
-        <v>0.225483</v>
+        <v>0.225433</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.196534</v>
+        <v>0.196572</v>
       </c>
       <c r="C91" t="n">
-        <v>0.220054</v>
+        <v>0.219402</v>
       </c>
       <c r="D91" t="n">
-        <v>0.224594</v>
+        <v>0.224542</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.189603</v>
+        <v>0.18946</v>
       </c>
       <c r="C92" t="n">
-        <v>0.219064</v>
+        <v>0.21847</v>
       </c>
       <c r="D92" t="n">
-        <v>0.223777</v>
+        <v>0.223827</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.181665</v>
+        <v>0.181758</v>
       </c>
       <c r="C93" t="n">
-        <v>0.218273</v>
+        <v>0.217734</v>
       </c>
       <c r="D93" t="n">
-        <v>0.223095</v>
+        <v>0.22311</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.172283</v>
+        <v>0.172514</v>
       </c>
       <c r="C94" t="n">
-        <v>0.217456</v>
+        <v>0.217018</v>
       </c>
       <c r="D94" t="n">
-        <v>0.240239</v>
+        <v>0.239679</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.249547</v>
+        <v>0.251378</v>
       </c>
       <c r="C95" t="n">
-        <v>0.236677</v>
+        <v>0.236181</v>
       </c>
       <c r="D95" t="n">
-        <v>0.237719</v>
+        <v>0.237177</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.245573</v>
+        <v>0.247544</v>
       </c>
       <c r="C96" t="n">
-        <v>0.233589</v>
+        <v>0.232698</v>
       </c>
       <c r="D96" t="n">
-        <v>0.235475</v>
+        <v>0.235028</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.241426</v>
+        <v>0.244028</v>
       </c>
       <c r="C97" t="n">
-        <v>0.230801</v>
+        <v>0.229764</v>
       </c>
       <c r="D97" t="n">
-        <v>0.234339</v>
+        <v>0.233919</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.23714</v>
+        <v>0.239423</v>
       </c>
       <c r="C98" t="n">
-        <v>0.228531</v>
+        <v>0.22775</v>
       </c>
       <c r="D98" t="n">
-        <v>0.233053</v>
+        <v>0.232614</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.232447</v>
+        <v>0.233256</v>
       </c>
       <c r="C99" t="n">
-        <v>0.227025</v>
+        <v>0.226318</v>
       </c>
       <c r="D99" t="n">
-        <v>0.231782</v>
+        <v>0.231397</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.227146</v>
+        <v>0.227735</v>
       </c>
       <c r="C100" t="n">
-        <v>0.22566</v>
+        <v>0.224949</v>
       </c>
       <c r="D100" t="n">
-        <v>0.23063</v>
+        <v>0.230049</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.222911</v>
+        <v>0.222145</v>
       </c>
       <c r="C101" t="n">
-        <v>0.224396</v>
+        <v>0.223832</v>
       </c>
       <c r="D101" t="n">
-        <v>0.229055</v>
+        <v>0.228828</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.217342</v>
+        <v>0.216458</v>
       </c>
       <c r="C102" t="n">
-        <v>0.223197</v>
+        <v>0.222677</v>
       </c>
       <c r="D102" t="n">
-        <v>0.228006</v>
+        <v>0.227831</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.211382</v>
+        <v>0.210403</v>
       </c>
       <c r="C103" t="n">
-        <v>0.22216</v>
+        <v>0.221535</v>
       </c>
       <c r="D103" t="n">
-        <v>0.227022</v>
+        <v>0.226936</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.205327</v>
+        <v>0.204216</v>
       </c>
       <c r="C104" t="n">
-        <v>0.221135</v>
+        <v>0.220657</v>
       </c>
       <c r="D104" t="n">
-        <v>0.226391</v>
+        <v>0.226223</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.198783</v>
+        <v>0.19767</v>
       </c>
       <c r="C105" t="n">
-        <v>0.220226</v>
+        <v>0.219754</v>
       </c>
       <c r="D105" t="n">
-        <v>0.225395</v>
+        <v>0.225488</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.191685</v>
+        <v>0.191015</v>
       </c>
       <c r="C106" t="n">
-        <v>0.219323</v>
+        <v>0.218886</v>
       </c>
       <c r="D106" t="n">
-        <v>0.224632</v>
+        <v>0.224832</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183987</v>
+        <v>0.183184</v>
       </c>
       <c r="C107" t="n">
-        <v>0.218429</v>
+        <v>0.217909</v>
       </c>
       <c r="D107" t="n">
-        <v>0.22387</v>
+        <v>0.223881</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.174781</v>
+        <v>0.174714</v>
       </c>
       <c r="C108" t="n">
-        <v>0.217575</v>
+        <v>0.217068</v>
       </c>
       <c r="D108" t="n">
-        <v>0.239549</v>
+        <v>0.239186</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.16428</v>
+        <v>0.163755</v>
       </c>
       <c r="C109" t="n">
-        <v>0.216804</v>
+        <v>0.216252</v>
       </c>
       <c r="D109" t="n">
-        <v>0.237228</v>
+        <v>0.237025</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.246935</v>
+        <v>0.247377</v>
       </c>
       <c r="C110" t="n">
-        <v>0.233616</v>
+        <v>0.233172</v>
       </c>
       <c r="D110" t="n">
-        <v>0.235304</v>
+        <v>0.23502</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.243107</v>
+        <v>0.243688</v>
       </c>
       <c r="C111" t="n">
-        <v>0.230606</v>
+        <v>0.230216</v>
       </c>
       <c r="D111" t="n">
-        <v>0.233673</v>
+        <v>0.233439</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.238633</v>
+        <v>0.239111</v>
       </c>
       <c r="C112" t="n">
-        <v>0.228511</v>
+        <v>0.228059</v>
       </c>
       <c r="D112" t="n">
-        <v>0.232231</v>
+        <v>0.232133</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.2338</v>
+        <v>0.234029</v>
       </c>
       <c r="C113" t="n">
-        <v>0.226907</v>
+        <v>0.22651</v>
       </c>
       <c r="D113" t="n">
-        <v>0.230946</v>
+        <v>0.230843</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.228619</v>
+        <v>0.228842</v>
       </c>
       <c r="C114" t="n">
-        <v>0.225466</v>
+        <v>0.225049</v>
       </c>
       <c r="D114" t="n">
-        <v>0.229734</v>
+        <v>0.229684</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.2231</v>
+        <v>0.223397</v>
       </c>
       <c r="C115" t="n">
-        <v>0.224281</v>
+        <v>0.223806</v>
       </c>
       <c r="D115" t="n">
-        <v>0.228643</v>
+        <v>0.228639</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.217232</v>
+        <v>0.217644</v>
       </c>
       <c r="C116" t="n">
-        <v>0.223655</v>
+        <v>0.223212</v>
       </c>
       <c r="D116" t="n">
-        <v>0.227658</v>
+        <v>0.227609</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.211522</v>
+        <v>0.211616</v>
       </c>
       <c r="C117" t="n">
-        <v>0.222592</v>
+        <v>0.222187</v>
       </c>
       <c r="D117" t="n">
-        <v>0.227044</v>
+        <v>0.227122</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.205526</v>
+        <v>0.205528</v>
       </c>
       <c r="C118" t="n">
-        <v>0.221563</v>
+        <v>0.221215</v>
       </c>
       <c r="D118" t="n">
-        <v>0.226171</v>
+        <v>0.226206</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.199399</v>
+        <v>0.199203</v>
       </c>
       <c r="C119" t="n">
-        <v>0.220679</v>
+        <v>0.220321</v>
       </c>
       <c r="D119" t="n">
-        <v>0.225289</v>
+        <v>0.225341</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.192533</v>
+        <v>0.192656</v>
       </c>
       <c r="C120" t="n">
-        <v>0.219748</v>
+        <v>0.219379</v>
       </c>
       <c r="D120" t="n">
-        <v>0.224439</v>
+        <v>0.224476</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.1849</v>
+        <v>0.185331</v>
       </c>
       <c r="C121" t="n">
-        <v>0.218922</v>
+        <v>0.218446</v>
       </c>
       <c r="D121" t="n">
-        <v>0.22373</v>
+        <v>0.223769</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.176576</v>
+        <v>0.176571</v>
       </c>
       <c r="C122" t="n">
-        <v>0.218045</v>
+        <v>0.217619</v>
       </c>
       <c r="D122" t="n">
-        <v>0.22305</v>
+        <v>0.223152</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.16606</v>
+        <v>0.166038</v>
       </c>
       <c r="C123" t="n">
-        <v>0.217187</v>
+        <v>0.216828</v>
       </c>
       <c r="D123" t="n">
-        <v>0.237362</v>
+        <v>0.237131</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.247533</v>
+        <v>0.247942</v>
       </c>
       <c r="C124" t="n">
-        <v>0.234093</v>
+        <v>0.233529</v>
       </c>
       <c r="D124" t="n">
-        <v>0.235435</v>
+        <v>0.235193</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.243775</v>
+        <v>0.244267</v>
       </c>
       <c r="C125" t="n">
-        <v>0.230992</v>
+        <v>0.230437</v>
       </c>
       <c r="D125" t="n">
-        <v>0.233777</v>
+        <v>0.233476</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.239339</v>
+        <v>0.241108</v>
       </c>
       <c r="C126" t="n">
-        <v>0.228796</v>
+        <v>0.228267</v>
       </c>
       <c r="D126" t="n">
-        <v>0.23228</v>
+        <v>0.232066</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.235954</v>
+        <v>0.236247</v>
       </c>
       <c r="C127" t="n">
-        <v>0.227057</v>
+        <v>0.226525</v>
       </c>
       <c r="D127" t="n">
-        <v>0.231006</v>
+        <v>0.230796</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.23073</v>
+        <v>0.231034</v>
       </c>
       <c r="C128" t="n">
-        <v>0.225712</v>
+        <v>0.225235</v>
       </c>
       <c r="D128" t="n">
-        <v>0.229836</v>
+        <v>0.22963</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.22526</v>
+        <v>0.225491</v>
       </c>
       <c r="C129" t="n">
-        <v>0.224551</v>
+        <v>0.224018</v>
       </c>
       <c r="D129" t="n">
-        <v>0.228714</v>
+        <v>0.22856</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.219725</v>
+        <v>0.219798</v>
       </c>
       <c r="C130" t="n">
-        <v>0.223402</v>
+        <v>0.222943</v>
       </c>
       <c r="D130" t="n">
-        <v>0.227692</v>
+        <v>0.227646</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.21391</v>
+        <v>0.214004</v>
       </c>
       <c r="C131" t="n">
-        <v>0.222425</v>
+        <v>0.221975</v>
       </c>
       <c r="D131" t="n">
-        <v>0.226712</v>
+        <v>0.226764</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.207793</v>
+        <v>0.207962</v>
       </c>
       <c r="C132" t="n">
-        <v>0.221434</v>
+        <v>0.220968</v>
       </c>
       <c r="D132" t="n">
-        <v>0.225794</v>
+        <v>0.225779</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.200334</v>
+        <v>0.201461</v>
       </c>
       <c r="C133" t="n">
-        <v>0.220487</v>
+        <v>0.220052</v>
       </c>
       <c r="D133" t="n">
-        <v>0.22494</v>
+        <v>0.225039</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.193785</v>
+        <v>0.194798</v>
       </c>
       <c r="C134" t="n">
-        <v>0.219574</v>
+        <v>0.219125</v>
       </c>
       <c r="D134" t="n">
-        <v>0.224135</v>
+        <v>0.224283</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.186572</v>
+        <v>0.187314</v>
       </c>
       <c r="C135" t="n">
-        <v>0.218672</v>
+        <v>0.218194</v>
       </c>
       <c r="D135" t="n">
-        <v>0.223414</v>
+        <v>0.223583</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.178647</v>
+        <v>0.178507</v>
       </c>
       <c r="C136" t="n">
-        <v>0.218107</v>
+        <v>0.217693</v>
       </c>
       <c r="D136" t="n">
-        <v>0.222691</v>
+        <v>0.222976</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.168522</v>
+        <v>0.168622</v>
       </c>
       <c r="C137" t="n">
-        <v>0.21725</v>
+        <v>0.216957</v>
       </c>
       <c r="D137" t="n">
-        <v>0.238671</v>
+        <v>0.238368</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.249602</v>
+        <v>0.24896</v>
       </c>
       <c r="C138" t="n">
-        <v>0.23535</v>
+        <v>0.234961</v>
       </c>
       <c r="D138" t="n">
-        <v>0.236547</v>
+        <v>0.236251</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.244935</v>
+        <v>0.245426</v>
       </c>
       <c r="C139" t="n">
-        <v>0.232172</v>
+        <v>0.231754</v>
       </c>
       <c r="D139" t="n">
-        <v>0.234694</v>
+        <v>0.234555</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.240553</v>
+        <v>0.241893</v>
       </c>
       <c r="C140" t="n">
-        <v>0.229685</v>
+        <v>0.229266</v>
       </c>
       <c r="D140" t="n">
-        <v>0.233107</v>
+        <v>0.232964</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.23613</v>
+        <v>0.236301</v>
       </c>
       <c r="C141" t="n">
-        <v>0.227897</v>
+        <v>0.227464</v>
       </c>
       <c r="D141" t="n">
-        <v>0.23173</v>
+        <v>0.231582</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.230711</v>
+        <v>0.230856</v>
       </c>
       <c r="C142" t="n">
-        <v>0.226404</v>
+        <v>0.225997</v>
       </c>
       <c r="D142" t="n">
-        <v>0.230488</v>
+        <v>0.230404</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.225424</v>
+        <v>0.225656</v>
       </c>
       <c r="C143" t="n">
-        <v>0.225128</v>
+        <v>0.224746</v>
       </c>
       <c r="D143" t="n">
-        <v>0.229315</v>
+        <v>0.229372</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.201558</v>
+        <v>0.193464</v>
       </c>
       <c r="C2" t="n">
-        <v>0.20708</v>
+        <v>0.20473</v>
       </c>
       <c r="D2" t="n">
-        <v>0.21087</v>
+        <v>0.210294</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.191271</v>
+        <v>0.188177</v>
       </c>
       <c r="C3" t="n">
-        <v>0.207795</v>
+        <v>0.20668</v>
       </c>
       <c r="D3" t="n">
-        <v>0.211057</v>
+        <v>0.210419</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.183915</v>
+        <v>0.183122</v>
       </c>
       <c r="C4" t="n">
-        <v>0.206464</v>
+        <v>0.204732</v>
       </c>
       <c r="D4" t="n">
-        <v>0.21222</v>
+        <v>0.212548</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.179365</v>
+        <v>0.178739</v>
       </c>
       <c r="C5" t="n">
-        <v>0.207761</v>
+        <v>0.206222</v>
       </c>
       <c r="D5" t="n">
-        <v>0.212122</v>
+        <v>0.212234</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.173082</v>
+        <v>0.17142</v>
       </c>
       <c r="C6" t="n">
-        <v>0.207887</v>
+        <v>0.207298</v>
       </c>
       <c r="D6" t="n">
-        <v>0.212381</v>
+        <v>0.212407</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.165229</v>
+        <v>0.165098</v>
       </c>
       <c r="C7" t="n">
-        <v>0.206613</v>
+        <v>0.206411</v>
       </c>
       <c r="D7" t="n">
-        <v>0.211464</v>
+        <v>0.211896</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.158749</v>
+        <v>0.155845</v>
       </c>
       <c r="C8" t="n">
-        <v>0.207302</v>
+        <v>0.206812</v>
       </c>
       <c r="D8" t="n">
-        <v>0.212233</v>
+        <v>0.213205</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.149317</v>
+        <v>0.148373</v>
       </c>
       <c r="C9" t="n">
-        <v>0.206622</v>
+        <v>0.206269</v>
       </c>
       <c r="D9" t="n">
-        <v>0.227541</v>
+        <v>0.227961</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.23231</v>
+        <v>0.231482</v>
       </c>
       <c r="C10" t="n">
-        <v>0.223744</v>
+        <v>0.227144</v>
       </c>
       <c r="D10" t="n">
-        <v>0.227187</v>
+        <v>0.226954</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.230449</v>
+        <v>0.229591</v>
       </c>
       <c r="C11" t="n">
-        <v>0.223256</v>
+        <v>0.222664</v>
       </c>
       <c r="D11" t="n">
-        <v>0.226555</v>
+        <v>0.226962</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.227489</v>
+        <v>0.22501</v>
       </c>
       <c r="C12" t="n">
-        <v>0.221944</v>
+        <v>0.222105</v>
       </c>
       <c r="D12" t="n">
-        <v>0.225456</v>
+        <v>0.225912</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.224007</v>
+        <v>0.222293</v>
       </c>
       <c r="C13" t="n">
-        <v>0.221697</v>
+        <v>0.220822</v>
       </c>
       <c r="D13" t="n">
-        <v>0.224521</v>
+        <v>0.224312</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.219269</v>
+        <v>0.217284</v>
       </c>
       <c r="C14" t="n">
-        <v>0.22059</v>
+        <v>0.220244</v>
       </c>
       <c r="D14" t="n">
-        <v>0.224435</v>
+        <v>0.224544</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.216095</v>
+        <v>0.213646</v>
       </c>
       <c r="C15" t="n">
-        <v>0.219819</v>
+        <v>0.219648</v>
       </c>
       <c r="D15" t="n">
-        <v>0.223973</v>
+        <v>0.223417</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.211159</v>
+        <v>0.209045</v>
       </c>
       <c r="C16" t="n">
-        <v>0.220143</v>
+        <v>0.219474</v>
       </c>
       <c r="D16" t="n">
-        <v>0.223356</v>
+        <v>0.223285</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.204711</v>
+        <v>0.204383</v>
       </c>
       <c r="C17" t="n">
-        <v>0.218697</v>
+        <v>0.218228</v>
       </c>
       <c r="D17" t="n">
-        <v>0.223104</v>
+        <v>0.22301</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.200109</v>
+        <v>0.199075</v>
       </c>
       <c r="C18" t="n">
-        <v>0.217365</v>
+        <v>0.217603</v>
       </c>
       <c r="D18" t="n">
-        <v>0.22213</v>
+        <v>0.222032</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.19566</v>
+        <v>0.193397</v>
       </c>
       <c r="C19" t="n">
-        <v>0.216534</v>
+        <v>0.216743</v>
       </c>
       <c r="D19" t="n">
-        <v>0.22145</v>
+        <v>0.22123</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.18928</v>
+        <v>0.188584</v>
       </c>
       <c r="C20" t="n">
-        <v>0.215955</v>
+        <v>0.216439</v>
       </c>
       <c r="D20" t="n">
-        <v>0.221581</v>
+        <v>0.221425</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.181908</v>
+        <v>0.181739</v>
       </c>
       <c r="C21" t="n">
-        <v>0.215656</v>
+        <v>0.215541</v>
       </c>
       <c r="D21" t="n">
-        <v>0.22117</v>
+        <v>0.220461</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.175154</v>
+        <v>0.174997</v>
       </c>
       <c r="C22" t="n">
-        <v>0.214998</v>
+        <v>0.215863</v>
       </c>
       <c r="D22" t="n">
-        <v>0.220325</v>
+        <v>0.220108</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.165866</v>
+        <v>0.166158</v>
       </c>
       <c r="C23" t="n">
-        <v>0.214007</v>
+        <v>0.214793</v>
       </c>
       <c r="D23" t="n">
-        <v>0.234047</v>
+        <v>0.233702</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.243824</v>
+        <v>0.240856</v>
       </c>
       <c r="C24" t="n">
-        <v>0.229632</v>
+        <v>0.228069</v>
       </c>
       <c r="D24" t="n">
-        <v>0.232138</v>
+        <v>0.232276</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.23784</v>
+        <v>0.237372</v>
       </c>
       <c r="C25" t="n">
-        <v>0.227776</v>
+        <v>0.226257</v>
       </c>
       <c r="D25" t="n">
-        <v>0.231121</v>
+        <v>0.230504</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.23544</v>
+        <v>0.234246</v>
       </c>
       <c r="C26" t="n">
-        <v>0.226404</v>
+        <v>0.225483</v>
       </c>
       <c r="D26" t="n">
-        <v>0.229948</v>
+        <v>0.230355</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.231534</v>
+        <v>0.229974</v>
       </c>
       <c r="C27" t="n">
-        <v>0.225155</v>
+        <v>0.224559</v>
       </c>
       <c r="D27" t="n">
-        <v>0.228963</v>
+        <v>0.229213</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.226206</v>
+        <v>0.225995</v>
       </c>
       <c r="C28" t="n">
-        <v>0.22422</v>
+        <v>0.22368</v>
       </c>
       <c r="D28" t="n">
-        <v>0.22815</v>
+        <v>0.228048</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.221567</v>
+        <v>0.22061</v>
       </c>
       <c r="C29" t="n">
-        <v>0.222982</v>
+        <v>0.222834</v>
       </c>
       <c r="D29" t="n">
-        <v>0.227481</v>
+        <v>0.227364</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.21702</v>
+        <v>0.215374</v>
       </c>
       <c r="C30" t="n">
-        <v>0.221641</v>
+        <v>0.221917</v>
       </c>
       <c r="D30" t="n">
-        <v>0.226585</v>
+        <v>0.226734</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.211792</v>
+        <v>0.210106</v>
       </c>
       <c r="C31" t="n">
-        <v>0.220577</v>
+        <v>0.220594</v>
       </c>
       <c r="D31" t="n">
-        <v>0.225628</v>
+        <v>0.225583</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.206257</v>
+        <v>0.204803</v>
       </c>
       <c r="C32" t="n">
-        <v>0.219719</v>
+        <v>0.219819</v>
       </c>
       <c r="D32" t="n">
-        <v>0.224987</v>
+        <v>0.225077</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.200587</v>
+        <v>0.19869</v>
       </c>
       <c r="C33" t="n">
-        <v>0.218925</v>
+        <v>0.219046</v>
       </c>
       <c r="D33" t="n">
-        <v>0.224341</v>
+        <v>0.223925</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.194677</v>
+        <v>0.193202</v>
       </c>
       <c r="C34" t="n">
-        <v>0.218381</v>
+        <v>0.218399</v>
       </c>
       <c r="D34" t="n">
-        <v>0.223741</v>
+        <v>0.223533</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.187165</v>
+        <v>0.186583</v>
       </c>
       <c r="C35" t="n">
-        <v>0.217267</v>
+        <v>0.217527</v>
       </c>
       <c r="D35" t="n">
-        <v>0.223071</v>
+        <v>0.222482</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.179599</v>
+        <v>0.178747</v>
       </c>
       <c r="C36" t="n">
-        <v>0.216518</v>
+        <v>0.217002</v>
       </c>
       <c r="D36" t="n">
-        <v>0.222476</v>
+        <v>0.221949</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.17037</v>
+        <v>0.169894</v>
       </c>
       <c r="C37" t="n">
-        <v>0.215925</v>
+        <v>0.216541</v>
       </c>
       <c r="D37" t="n">
-        <v>0.23604</v>
+        <v>0.235351</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.247115</v>
+        <v>0.247473</v>
       </c>
       <c r="C38" t="n">
-        <v>0.229579</v>
+        <v>0.229158</v>
       </c>
       <c r="D38" t="n">
-        <v>0.233878</v>
+        <v>0.233741</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.243871</v>
+        <v>0.243985</v>
       </c>
       <c r="C39" t="n">
-        <v>0.228017</v>
+        <v>0.227872</v>
       </c>
       <c r="D39" t="n">
-        <v>0.232825</v>
+        <v>0.232561</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.240053</v>
+        <v>0.239373</v>
       </c>
       <c r="C40" t="n">
-        <v>0.22675</v>
+        <v>0.226446</v>
       </c>
       <c r="D40" t="n">
-        <v>0.231826</v>
+        <v>0.231485</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.235963</v>
+        <v>0.235066</v>
       </c>
       <c r="C41" t="n">
-        <v>0.225517</v>
+        <v>0.225393</v>
       </c>
       <c r="D41" t="n">
-        <v>0.230845</v>
+        <v>0.230393</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.230191</v>
+        <v>0.229994</v>
       </c>
       <c r="C42" t="n">
-        <v>0.224405</v>
+        <v>0.224561</v>
       </c>
       <c r="D42" t="n">
-        <v>0.229499</v>
+        <v>0.229335</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.225498</v>
+        <v>0.22492</v>
       </c>
       <c r="C43" t="n">
-        <v>0.223255</v>
+        <v>0.223507</v>
       </c>
       <c r="D43" t="n">
-        <v>0.228302</v>
+        <v>0.228236</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.220258</v>
+        <v>0.219458</v>
       </c>
       <c r="C44" t="n">
-        <v>0.222238</v>
+        <v>0.222141</v>
       </c>
       <c r="D44" t="n">
-        <v>0.227499</v>
+        <v>0.227124</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.214583</v>
+        <v>0.214326</v>
       </c>
       <c r="C45" t="n">
-        <v>0.221238</v>
+        <v>0.221376</v>
       </c>
       <c r="D45" t="n">
-        <v>0.226523</v>
+        <v>0.226131</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.20913</v>
+        <v>0.208851</v>
       </c>
       <c r="C46" t="n">
-        <v>0.220203</v>
+        <v>0.22048</v>
       </c>
       <c r="D46" t="n">
-        <v>0.225651</v>
+        <v>0.225417</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.203362</v>
+        <v>0.203127</v>
       </c>
       <c r="C47" t="n">
-        <v>0.219777</v>
+        <v>0.219968</v>
       </c>
       <c r="D47" t="n">
-        <v>0.22484</v>
+        <v>0.224516</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.196616</v>
+        <v>0.196857</v>
       </c>
       <c r="C48" t="n">
-        <v>0.218885</v>
+        <v>0.219199</v>
       </c>
       <c r="D48" t="n">
-        <v>0.224009</v>
+        <v>0.223652</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.19026</v>
+        <v>0.190198</v>
       </c>
       <c r="C49" t="n">
-        <v>0.218066</v>
+        <v>0.218412</v>
       </c>
       <c r="D49" t="n">
-        <v>0.22334</v>
+        <v>0.223208</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.183026</v>
+        <v>0.182534</v>
       </c>
       <c r="C50" t="n">
-        <v>0.21732</v>
+        <v>0.217573</v>
       </c>
       <c r="D50" t="n">
-        <v>0.222657</v>
+        <v>0.222302</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.174081</v>
+        <v>0.173878</v>
       </c>
       <c r="C51" t="n">
-        <v>0.216431</v>
+        <v>0.216974</v>
       </c>
       <c r="D51" t="n">
-        <v>0.236038</v>
+        <v>0.236406</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.163714</v>
+        <v>0.16349</v>
       </c>
       <c r="C52" t="n">
-        <v>0.215836</v>
+        <v>0.216399</v>
       </c>
       <c r="D52" t="n">
-        <v>0.234824</v>
+        <v>0.234828</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.246138</v>
+        <v>0.246002</v>
       </c>
       <c r="C53" t="n">
-        <v>0.22903</v>
+        <v>0.228841</v>
       </c>
       <c r="D53" t="n">
-        <v>0.233615</v>
+        <v>0.233476</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.242395</v>
+        <v>0.242009</v>
       </c>
       <c r="C54" t="n">
-        <v>0.227615</v>
+        <v>0.227516</v>
       </c>
       <c r="D54" t="n">
-        <v>0.232556</v>
+        <v>0.232275</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.237714</v>
+        <v>0.237342</v>
       </c>
       <c r="C55" t="n">
-        <v>0.226504</v>
+        <v>0.226347</v>
       </c>
       <c r="D55" t="n">
-        <v>0.231106</v>
+        <v>0.230918</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.23262</v>
+        <v>0.232866</v>
       </c>
       <c r="C56" t="n">
-        <v>0.225248</v>
+        <v>0.225262</v>
       </c>
       <c r="D56" t="n">
-        <v>0.23011</v>
+        <v>0.229884</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.227494</v>
+        <v>0.227877</v>
       </c>
       <c r="C57" t="n">
-        <v>0.224383</v>
+        <v>0.224253</v>
       </c>
       <c r="D57" t="n">
-        <v>0.229034</v>
+        <v>0.228959</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.222416</v>
+        <v>0.222793</v>
       </c>
       <c r="C58" t="n">
-        <v>0.223389</v>
+        <v>0.223172</v>
       </c>
       <c r="D58" t="n">
-        <v>0.228047</v>
+        <v>0.227598</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.216941</v>
+        <v>0.217106</v>
       </c>
       <c r="C59" t="n">
-        <v>0.222297</v>
+        <v>0.222173</v>
       </c>
       <c r="D59" t="n">
-        <v>0.227167</v>
+        <v>0.226881</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.211326</v>
+        <v>0.211472</v>
       </c>
       <c r="C60" t="n">
-        <v>0.221177</v>
+        <v>0.221178</v>
       </c>
       <c r="D60" t="n">
-        <v>0.226155</v>
+        <v>0.225891</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.20551</v>
+        <v>0.20532</v>
       </c>
       <c r="C61" t="n">
-        <v>0.22034</v>
+        <v>0.220533</v>
       </c>
       <c r="D61" t="n">
-        <v>0.22542</v>
+        <v>0.225071</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.19953</v>
+        <v>0.199385</v>
       </c>
       <c r="C62" t="n">
-        <v>0.219393</v>
+        <v>0.219517</v>
       </c>
       <c r="D62" t="n">
-        <v>0.224447</v>
+        <v>0.224219</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.192904</v>
+        <v>0.19268</v>
       </c>
       <c r="C63" t="n">
-        <v>0.2186</v>
+        <v>0.218795</v>
       </c>
       <c r="D63" t="n">
-        <v>0.223765</v>
+        <v>0.223346</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.185288</v>
+        <v>0.185242</v>
       </c>
       <c r="C64" t="n">
-        <v>0.217768</v>
+        <v>0.218374</v>
       </c>
       <c r="D64" t="n">
-        <v>0.223072</v>
+        <v>0.222598</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.176899</v>
+        <v>0.176812</v>
       </c>
       <c r="C65" t="n">
-        <v>0.216868</v>
+        <v>0.21752</v>
       </c>
       <c r="D65" t="n">
-        <v>0.222234</v>
+        <v>0.221876</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.167059</v>
+        <v>0.167169</v>
       </c>
       <c r="C66" t="n">
-        <v>0.215926</v>
+        <v>0.216696</v>
       </c>
       <c r="D66" t="n">
-        <v>0.23589</v>
+        <v>0.236078</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.247433</v>
+        <v>0.246964</v>
       </c>
       <c r="C67" t="n">
-        <v>0.230549</v>
+        <v>0.231529</v>
       </c>
       <c r="D67" t="n">
-        <v>0.234522</v>
+        <v>0.234515</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.243733</v>
+        <v>0.242965</v>
       </c>
       <c r="C68" t="n">
-        <v>0.229136</v>
+        <v>0.22998</v>
       </c>
       <c r="D68" t="n">
-        <v>0.233251</v>
+        <v>0.233184</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.239569</v>
+        <v>0.239059</v>
       </c>
       <c r="C69" t="n">
-        <v>0.227635</v>
+        <v>0.228325</v>
       </c>
       <c r="D69" t="n">
-        <v>0.232104</v>
+        <v>0.231946</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.234624</v>
+        <v>0.234544</v>
       </c>
       <c r="C70" t="n">
-        <v>0.226345</v>
+        <v>0.226774</v>
       </c>
       <c r="D70" t="n">
-        <v>0.230817</v>
+        <v>0.23078</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.229352</v>
+        <v>0.229743</v>
       </c>
       <c r="C71" t="n">
-        <v>0.225134</v>
+        <v>0.225519</v>
       </c>
       <c r="D71" t="n">
-        <v>0.229763</v>
+        <v>0.229691</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.22413</v>
+        <v>0.224406</v>
       </c>
       <c r="C72" t="n">
-        <v>0.223997</v>
+        <v>0.224118</v>
       </c>
       <c r="D72" t="n">
-        <v>0.228667</v>
+        <v>0.228461</v>
       </c>
     </row>
     <row r="73">
@@ -4246,10 +4246,10 @@
         <v>0.218969</v>
       </c>
       <c r="C73" t="n">
-        <v>0.222843</v>
+        <v>0.222996</v>
       </c>
       <c r="D73" t="n">
-        <v>0.227731</v>
+        <v>0.227313</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.213381</v>
+        <v>0.213047</v>
       </c>
       <c r="C74" t="n">
-        <v>0.221776</v>
+        <v>0.221958</v>
       </c>
       <c r="D74" t="n">
-        <v>0.226699</v>
+        <v>0.226466</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.207436</v>
+        <v>0.20714</v>
       </c>
       <c r="C75" t="n">
-        <v>0.221041</v>
+        <v>0.221125</v>
       </c>
       <c r="D75" t="n">
-        <v>0.225916</v>
+        <v>0.225394</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.201298</v>
+        <v>0.20136</v>
       </c>
       <c r="C76" t="n">
-        <v>0.220058</v>
+        <v>0.220279</v>
       </c>
       <c r="D76" t="n">
-        <v>0.225077</v>
+        <v>0.224743</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.194821</v>
+        <v>0.194676</v>
       </c>
       <c r="C77" t="n">
-        <v>0.219275</v>
+        <v>0.219542</v>
       </c>
       <c r="D77" t="n">
-        <v>0.224185</v>
+        <v>0.223857</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.187994</v>
+        <v>0.187526</v>
       </c>
       <c r="C78" t="n">
-        <v>0.218325</v>
+        <v>0.218651</v>
       </c>
       <c r="D78" t="n">
-        <v>0.22345</v>
+        <v>0.223094</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179742</v>
+        <v>0.179465</v>
       </c>
       <c r="C79" t="n">
-        <v>0.2174</v>
+        <v>0.217897</v>
       </c>
       <c r="D79" t="n">
-        <v>0.222738</v>
+        <v>0.222369</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.169995</v>
+        <v>0.170083</v>
       </c>
       <c r="C80" t="n">
-        <v>0.216318</v>
+        <v>0.217028</v>
       </c>
       <c r="D80" t="n">
-        <v>0.23862</v>
+        <v>0.238764</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.249334</v>
+        <v>0.249016</v>
       </c>
       <c r="C81" t="n">
-        <v>0.239549</v>
+        <v>0.238748</v>
       </c>
       <c r="D81" t="n">
-        <v>0.236191</v>
+        <v>0.236362</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.245997</v>
+        <v>0.245093</v>
       </c>
       <c r="C82" t="n">
-        <v>0.233967</v>
+        <v>0.234189</v>
       </c>
       <c r="D82" t="n">
-        <v>0.234424</v>
+        <v>0.234543</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.241551</v>
+        <v>0.241059</v>
       </c>
       <c r="C83" t="n">
-        <v>0.230027</v>
+        <v>0.230076</v>
       </c>
       <c r="D83" t="n">
-        <v>0.232902</v>
+        <v>0.233012</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.236392</v>
+        <v>0.236259</v>
       </c>
       <c r="C84" t="n">
-        <v>0.227555</v>
+        <v>0.227615</v>
       </c>
       <c r="D84" t="n">
-        <v>0.231772</v>
+        <v>0.231581</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.23123</v>
+        <v>0.231013</v>
       </c>
       <c r="C85" t="n">
-        <v>0.225839</v>
+        <v>0.22601</v>
       </c>
       <c r="D85" t="n">
-        <v>0.23039</v>
+        <v>0.230333</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.226196</v>
+        <v>0.225963</v>
       </c>
       <c r="C86" t="n">
-        <v>0.224377</v>
+        <v>0.22465</v>
       </c>
       <c r="D86" t="n">
-        <v>0.229324</v>
+        <v>0.229043</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.220388</v>
+        <v>0.220421</v>
       </c>
       <c r="C87" t="n">
-        <v>0.223398</v>
+        <v>0.223454</v>
       </c>
       <c r="D87" t="n">
-        <v>0.22825</v>
+        <v>0.228024</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.214644</v>
+        <v>0.214708</v>
       </c>
       <c r="C88" t="n">
-        <v>0.222337</v>
+        <v>0.222573</v>
       </c>
       <c r="D88" t="n">
-        <v>0.227228</v>
+        <v>0.226951</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.20891</v>
+        <v>0.208917</v>
       </c>
       <c r="C89" t="n">
-        <v>0.221362</v>
+        <v>0.221626</v>
       </c>
       <c r="D89" t="n">
-        <v>0.226295</v>
+        <v>0.225968</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.202717</v>
+        <v>0.202944</v>
       </c>
       <c r="C90" t="n">
-        <v>0.220315</v>
+        <v>0.220585</v>
       </c>
       <c r="D90" t="n">
-        <v>0.225433</v>
+        <v>0.225174</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.196572</v>
+        <v>0.196416</v>
       </c>
       <c r="C91" t="n">
-        <v>0.219402</v>
+        <v>0.219739</v>
       </c>
       <c r="D91" t="n">
-        <v>0.224542</v>
+        <v>0.224304</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.18946</v>
+        <v>0.189406</v>
       </c>
       <c r="C92" t="n">
-        <v>0.21847</v>
+        <v>0.218914</v>
       </c>
       <c r="D92" t="n">
-        <v>0.223827</v>
+        <v>0.223579</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.181758</v>
+        <v>0.18137</v>
       </c>
       <c r="C93" t="n">
-        <v>0.217734</v>
+        <v>0.218302</v>
       </c>
       <c r="D93" t="n">
-        <v>0.22311</v>
+        <v>0.222849</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.172514</v>
+        <v>0.172212</v>
       </c>
       <c r="C94" t="n">
-        <v>0.217018</v>
+        <v>0.21766</v>
       </c>
       <c r="D94" t="n">
-        <v>0.239679</v>
+        <v>0.239877</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.251378</v>
+        <v>0.249057</v>
       </c>
       <c r="C95" t="n">
-        <v>0.236181</v>
+        <v>0.236149</v>
       </c>
       <c r="D95" t="n">
-        <v>0.237177</v>
+        <v>0.236882</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.247544</v>
+        <v>0.245704</v>
       </c>
       <c r="C96" t="n">
-        <v>0.232698</v>
+        <v>0.232546</v>
       </c>
       <c r="D96" t="n">
-        <v>0.235028</v>
+        <v>0.234992</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.244028</v>
+        <v>0.241465</v>
       </c>
       <c r="C97" t="n">
-        <v>0.229764</v>
+        <v>0.230087</v>
       </c>
       <c r="D97" t="n">
-        <v>0.233919</v>
+        <v>0.233931</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.239423</v>
+        <v>0.237229</v>
       </c>
       <c r="C98" t="n">
-        <v>0.22775</v>
+        <v>0.227921</v>
       </c>
       <c r="D98" t="n">
-        <v>0.232614</v>
+        <v>0.232586</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.233256</v>
+        <v>0.232196</v>
       </c>
       <c r="C99" t="n">
-        <v>0.226318</v>
+        <v>0.226311</v>
       </c>
       <c r="D99" t="n">
-        <v>0.231397</v>
+        <v>0.231237</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.227735</v>
+        <v>0.226948</v>
       </c>
       <c r="C100" t="n">
-        <v>0.224949</v>
+        <v>0.225055</v>
       </c>
       <c r="D100" t="n">
-        <v>0.230049</v>
+        <v>0.230107</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.222145</v>
+        <v>0.222757</v>
       </c>
       <c r="C101" t="n">
-        <v>0.223832</v>
+        <v>0.223821</v>
       </c>
       <c r="D101" t="n">
-        <v>0.228828</v>
+        <v>0.228664</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.216458</v>
+        <v>0.217116</v>
       </c>
       <c r="C102" t="n">
-        <v>0.222677</v>
+        <v>0.222783</v>
       </c>
       <c r="D102" t="n">
-        <v>0.227831</v>
+        <v>0.227608</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.210403</v>
+        <v>0.211263</v>
       </c>
       <c r="C103" t="n">
-        <v>0.221535</v>
+        <v>0.221717</v>
       </c>
       <c r="D103" t="n">
-        <v>0.226936</v>
+        <v>0.22661</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.204216</v>
+        <v>0.205069</v>
       </c>
       <c r="C104" t="n">
-        <v>0.220657</v>
+        <v>0.220911</v>
       </c>
       <c r="D104" t="n">
-        <v>0.226223</v>
+        <v>0.225967</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.19767</v>
+        <v>0.19837</v>
       </c>
       <c r="C105" t="n">
-        <v>0.219754</v>
+        <v>0.219986</v>
       </c>
       <c r="D105" t="n">
-        <v>0.225488</v>
+        <v>0.225093</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.191015</v>
+        <v>0.19135</v>
       </c>
       <c r="C106" t="n">
-        <v>0.218886</v>
+        <v>0.21923</v>
       </c>
       <c r="D106" t="n">
-        <v>0.224832</v>
+        <v>0.224374</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183184</v>
+        <v>0.183471</v>
       </c>
       <c r="C107" t="n">
-        <v>0.217909</v>
+        <v>0.218529</v>
       </c>
       <c r="D107" t="n">
-        <v>0.223881</v>
+        <v>0.223502</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.174714</v>
+        <v>0.174224</v>
       </c>
       <c r="C108" t="n">
-        <v>0.217068</v>
+        <v>0.217773</v>
       </c>
       <c r="D108" t="n">
-        <v>0.239186</v>
+        <v>0.239046</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.163755</v>
+        <v>0.163718</v>
       </c>
       <c r="C109" t="n">
-        <v>0.216252</v>
+        <v>0.217192</v>
       </c>
       <c r="D109" t="n">
-        <v>0.237025</v>
+        <v>0.236774</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.247377</v>
+        <v>0.247033</v>
       </c>
       <c r="C110" t="n">
-        <v>0.233172</v>
+        <v>0.232942</v>
       </c>
       <c r="D110" t="n">
-        <v>0.23502</v>
+        <v>0.234865</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.243688</v>
+        <v>0.2431</v>
       </c>
       <c r="C111" t="n">
-        <v>0.230216</v>
+        <v>0.230233</v>
       </c>
       <c r="D111" t="n">
-        <v>0.233439</v>
+        <v>0.233326</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.239111</v>
+        <v>0.238739</v>
       </c>
       <c r="C112" t="n">
-        <v>0.228059</v>
+        <v>0.228045</v>
       </c>
       <c r="D112" t="n">
-        <v>0.232133</v>
+        <v>0.231927</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.234029</v>
+        <v>0.23394</v>
       </c>
       <c r="C113" t="n">
-        <v>0.22651</v>
+        <v>0.226564</v>
       </c>
       <c r="D113" t="n">
-        <v>0.230843</v>
+        <v>0.230669</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.228842</v>
+        <v>0.22855</v>
       </c>
       <c r="C114" t="n">
-        <v>0.225049</v>
+        <v>0.225155</v>
       </c>
       <c r="D114" t="n">
-        <v>0.229684</v>
+        <v>0.22949</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.223397</v>
+        <v>0.223056</v>
       </c>
       <c r="C115" t="n">
-        <v>0.223806</v>
+        <v>0.223923</v>
       </c>
       <c r="D115" t="n">
-        <v>0.228639</v>
+        <v>0.22839</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.217644</v>
+        <v>0.21728</v>
       </c>
       <c r="C116" t="n">
-        <v>0.223212</v>
+        <v>0.223406</v>
       </c>
       <c r="D116" t="n">
-        <v>0.227609</v>
+        <v>0.227421</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.211616</v>
+        <v>0.211536</v>
       </c>
       <c r="C117" t="n">
-        <v>0.222187</v>
+        <v>0.222431</v>
       </c>
       <c r="D117" t="n">
-        <v>0.227122</v>
+        <v>0.226858</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.205528</v>
+        <v>0.205556</v>
       </c>
       <c r="C118" t="n">
-        <v>0.221215</v>
+        <v>0.221554</v>
       </c>
       <c r="D118" t="n">
-        <v>0.226206</v>
+        <v>0.225947</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.199203</v>
+        <v>0.199313</v>
       </c>
       <c r="C119" t="n">
-        <v>0.220321</v>
+        <v>0.220819</v>
       </c>
       <c r="D119" t="n">
-        <v>0.225341</v>
+        <v>0.225188</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.192656</v>
+        <v>0.192234</v>
       </c>
       <c r="C120" t="n">
-        <v>0.219379</v>
+        <v>0.220133</v>
       </c>
       <c r="D120" t="n">
-        <v>0.224476</v>
+        <v>0.224295</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.185331</v>
+        <v>0.184731</v>
       </c>
       <c r="C121" t="n">
-        <v>0.218446</v>
+        <v>0.219523</v>
       </c>
       <c r="D121" t="n">
-        <v>0.223769</v>
+        <v>0.223591</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.176571</v>
+        <v>0.175895</v>
       </c>
       <c r="C122" t="n">
-        <v>0.217619</v>
+        <v>0.218792</v>
       </c>
       <c r="D122" t="n">
-        <v>0.223152</v>
+        <v>0.222843</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.166038</v>
+        <v>0.165711</v>
       </c>
       <c r="C123" t="n">
-        <v>0.216828</v>
+        <v>0.217803</v>
       </c>
       <c r="D123" t="n">
-        <v>0.237131</v>
+        <v>0.237128</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.247942</v>
+        <v>0.248954</v>
       </c>
       <c r="C124" t="n">
-        <v>0.233529</v>
+        <v>0.233385</v>
       </c>
       <c r="D124" t="n">
-        <v>0.235193</v>
+        <v>0.235164</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.244267</v>
+        <v>0.245105</v>
       </c>
       <c r="C125" t="n">
-        <v>0.230437</v>
+        <v>0.230604</v>
       </c>
       <c r="D125" t="n">
-        <v>0.233476</v>
+        <v>0.233541</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.241108</v>
+        <v>0.240677</v>
       </c>
       <c r="C126" t="n">
-        <v>0.228267</v>
+        <v>0.228477</v>
       </c>
       <c r="D126" t="n">
-        <v>0.232066</v>
+        <v>0.23211</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.236247</v>
+        <v>0.235862</v>
       </c>
       <c r="C127" t="n">
-        <v>0.226525</v>
+        <v>0.226735</v>
       </c>
       <c r="D127" t="n">
-        <v>0.230796</v>
+        <v>0.230795</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.231034</v>
+        <v>0.230769</v>
       </c>
       <c r="C128" t="n">
-        <v>0.225235</v>
+        <v>0.225428</v>
       </c>
       <c r="D128" t="n">
-        <v>0.22963</v>
+        <v>0.229659</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.225491</v>
+        <v>0.225242</v>
       </c>
       <c r="C129" t="n">
-        <v>0.224018</v>
+        <v>0.224271</v>
       </c>
       <c r="D129" t="n">
-        <v>0.22856</v>
+        <v>0.228511</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.219798</v>
+        <v>0.219725</v>
       </c>
       <c r="C130" t="n">
-        <v>0.222943</v>
+        <v>0.223175</v>
       </c>
       <c r="D130" t="n">
-        <v>0.227646</v>
+        <v>0.227468</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.214004</v>
+        <v>0.213912</v>
       </c>
       <c r="C131" t="n">
-        <v>0.221975</v>
+        <v>0.222357</v>
       </c>
       <c r="D131" t="n">
-        <v>0.226764</v>
+        <v>0.226648</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.207962</v>
+        <v>0.207834</v>
       </c>
       <c r="C132" t="n">
-        <v>0.220968</v>
+        <v>0.221496</v>
       </c>
       <c r="D132" t="n">
-        <v>0.225779</v>
+        <v>0.22565</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.201461</v>
+        <v>0.201408</v>
       </c>
       <c r="C133" t="n">
-        <v>0.220052</v>
+        <v>0.220763</v>
       </c>
       <c r="D133" t="n">
-        <v>0.225039</v>
+        <v>0.22493</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.194798</v>
+        <v>0.194534</v>
       </c>
       <c r="C134" t="n">
-        <v>0.219125</v>
+        <v>0.219752</v>
       </c>
       <c r="D134" t="n">
-        <v>0.224283</v>
+        <v>0.224093</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.187314</v>
+        <v>0.187135</v>
       </c>
       <c r="C135" t="n">
-        <v>0.218194</v>
+        <v>0.218915</v>
       </c>
       <c r="D135" t="n">
-        <v>0.223583</v>
+        <v>0.223391</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.178507</v>
+        <v>0.17863</v>
       </c>
       <c r="C136" t="n">
-        <v>0.217693</v>
+        <v>0.218609</v>
       </c>
       <c r="D136" t="n">
-        <v>0.222976</v>
+        <v>0.222736</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.168622</v>
+        <v>0.168581</v>
       </c>
       <c r="C137" t="n">
-        <v>0.216957</v>
+        <v>0.21788</v>
       </c>
       <c r="D137" t="n">
-        <v>0.238368</v>
+        <v>0.23835</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.24896</v>
+        <v>0.249734</v>
       </c>
       <c r="C138" t="n">
-        <v>0.234961</v>
+        <v>0.235006</v>
       </c>
       <c r="D138" t="n">
-        <v>0.236251</v>
+        <v>0.236243</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.245426</v>
+        <v>0.244718</v>
       </c>
       <c r="C139" t="n">
-        <v>0.231754</v>
+        <v>0.231917</v>
       </c>
       <c r="D139" t="n">
-        <v>0.234555</v>
+        <v>0.234474</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.241893</v>
+        <v>0.241147</v>
       </c>
       <c r="C140" t="n">
-        <v>0.229266</v>
+        <v>0.229475</v>
       </c>
       <c r="D140" t="n">
-        <v>0.232964</v>
+        <v>0.232948</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.236301</v>
+        <v>0.235734</v>
       </c>
       <c r="C141" t="n">
-        <v>0.227464</v>
+        <v>0.227644</v>
       </c>
       <c r="D141" t="n">
-        <v>0.231582</v>
+        <v>0.231471</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.230856</v>
+        <v>0.230647</v>
       </c>
       <c r="C142" t="n">
-        <v>0.225997</v>
+        <v>0.226205</v>
       </c>
       <c r="D142" t="n">
-        <v>0.230404</v>
+        <v>0.230237</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.225656</v>
+        <v>0.225207</v>
       </c>
       <c r="C143" t="n">
-        <v>0.224746</v>
+        <v>0.224898</v>
       </c>
       <c r="D143" t="n">
-        <v>0.229372</v>
+        <v>0.229111</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.193464</v>
+        <v>0.20197</v>
       </c>
       <c r="C2" t="n">
-        <v>0.20473</v>
+        <v>0.204629</v>
       </c>
       <c r="D2" t="n">
-        <v>0.210294</v>
+        <v>0.211729</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.188177</v>
+        <v>0.192071</v>
       </c>
       <c r="C3" t="n">
-        <v>0.20668</v>
+        <v>0.205443</v>
       </c>
       <c r="D3" t="n">
-        <v>0.210419</v>
+        <v>0.211332</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.183122</v>
+        <v>0.184225</v>
       </c>
       <c r="C4" t="n">
-        <v>0.204732</v>
+        <v>0.205422</v>
       </c>
       <c r="D4" t="n">
-        <v>0.212548</v>
+        <v>0.212017</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.178739</v>
+        <v>0.180059</v>
       </c>
       <c r="C5" t="n">
-        <v>0.206222</v>
+        <v>0.207757</v>
       </c>
       <c r="D5" t="n">
-        <v>0.212234</v>
+        <v>0.212079</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.17142</v>
+        <v>0.171565</v>
       </c>
       <c r="C6" t="n">
-        <v>0.207298</v>
+        <v>0.206868</v>
       </c>
       <c r="D6" t="n">
-        <v>0.212407</v>
+        <v>0.212541</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.165098</v>
+        <v>0.16644</v>
       </c>
       <c r="C7" t="n">
-        <v>0.206411</v>
+        <v>0.206975</v>
       </c>
       <c r="D7" t="n">
-        <v>0.211896</v>
+        <v>0.211436</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.155845</v>
+        <v>0.157438</v>
       </c>
       <c r="C8" t="n">
-        <v>0.206812</v>
+        <v>0.207434</v>
       </c>
       <c r="D8" t="n">
-        <v>0.213205</v>
+        <v>0.213046</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.148373</v>
+        <v>0.150512</v>
       </c>
       <c r="C9" t="n">
-        <v>0.206269</v>
+        <v>0.206698</v>
       </c>
       <c r="D9" t="n">
-        <v>0.227961</v>
+        <v>0.213473</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.231482</v>
+        <v>0.23156</v>
       </c>
       <c r="C10" t="n">
-        <v>0.227144</v>
+        <v>0.22433</v>
       </c>
       <c r="D10" t="n">
-        <v>0.226954</v>
+        <v>0.227418</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.229591</v>
+        <v>0.228833</v>
       </c>
       <c r="C11" t="n">
-        <v>0.222664</v>
+        <v>0.222774</v>
       </c>
       <c r="D11" t="n">
-        <v>0.226962</v>
+        <v>0.226596</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.22501</v>
+        <v>0.224696</v>
       </c>
       <c r="C12" t="n">
-        <v>0.222105</v>
+        <v>0.222198</v>
       </c>
       <c r="D12" t="n">
-        <v>0.225912</v>
+        <v>0.22583</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.222293</v>
+        <v>0.222405</v>
       </c>
       <c r="C13" t="n">
-        <v>0.220822</v>
+        <v>0.221533</v>
       </c>
       <c r="D13" t="n">
-        <v>0.224312</v>
+        <v>0.224506</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.217284</v>
+        <v>0.217804</v>
       </c>
       <c r="C14" t="n">
-        <v>0.220244</v>
+        <v>0.220612</v>
       </c>
       <c r="D14" t="n">
-        <v>0.224544</v>
+        <v>0.225133</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.213646</v>
+        <v>0.214855</v>
       </c>
       <c r="C15" t="n">
-        <v>0.219648</v>
+        <v>0.219776</v>
       </c>
       <c r="D15" t="n">
-        <v>0.223417</v>
+        <v>0.223919</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.209045</v>
+        <v>0.210397</v>
       </c>
       <c r="C16" t="n">
-        <v>0.219474</v>
+        <v>0.219881</v>
       </c>
       <c r="D16" t="n">
-        <v>0.223285</v>
+        <v>0.223296</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.204383</v>
+        <v>0.204948</v>
       </c>
       <c r="C17" t="n">
-        <v>0.218228</v>
+        <v>0.218502</v>
       </c>
       <c r="D17" t="n">
-        <v>0.22301</v>
+        <v>0.222965</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.199075</v>
+        <v>0.199682</v>
       </c>
       <c r="C18" t="n">
-        <v>0.217603</v>
+        <v>0.217366</v>
       </c>
       <c r="D18" t="n">
-        <v>0.222032</v>
+        <v>0.222192</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.193397</v>
+        <v>0.194875</v>
       </c>
       <c r="C19" t="n">
-        <v>0.216743</v>
+        <v>0.216931</v>
       </c>
       <c r="D19" t="n">
-        <v>0.22123</v>
+        <v>0.221279</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.188584</v>
+        <v>0.188922</v>
       </c>
       <c r="C20" t="n">
-        <v>0.216439</v>
+        <v>0.216521</v>
       </c>
       <c r="D20" t="n">
-        <v>0.221425</v>
+        <v>0.220927</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.181739</v>
+        <v>0.181595</v>
       </c>
       <c r="C21" t="n">
-        <v>0.215541</v>
+        <v>0.215947</v>
       </c>
       <c r="D21" t="n">
-        <v>0.220461</v>
+        <v>0.220115</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.174997</v>
+        <v>0.174515</v>
       </c>
       <c r="C22" t="n">
-        <v>0.215863</v>
+        <v>0.215346</v>
       </c>
       <c r="D22" t="n">
-        <v>0.220108</v>
+        <v>0.220089</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.166158</v>
+        <v>0.165299</v>
       </c>
       <c r="C23" t="n">
-        <v>0.214793</v>
+        <v>0.214608</v>
       </c>
       <c r="D23" t="n">
-        <v>0.233702</v>
+        <v>0.21973</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.240856</v>
+        <v>0.241923</v>
       </c>
       <c r="C24" t="n">
-        <v>0.228069</v>
+        <v>0.227627</v>
       </c>
       <c r="D24" t="n">
-        <v>0.232276</v>
+        <v>0.232578</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.237372</v>
+        <v>0.238027</v>
       </c>
       <c r="C25" t="n">
-        <v>0.226257</v>
+        <v>0.227079</v>
       </c>
       <c r="D25" t="n">
-        <v>0.230504</v>
+        <v>0.232188</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.234246</v>
+        <v>0.234547</v>
       </c>
       <c r="C26" t="n">
-        <v>0.225483</v>
+        <v>0.225111</v>
       </c>
       <c r="D26" t="n">
-        <v>0.230355</v>
+        <v>0.230272</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.229974</v>
+        <v>0.230867</v>
       </c>
       <c r="C27" t="n">
-        <v>0.224559</v>
+        <v>0.224377</v>
       </c>
       <c r="D27" t="n">
-        <v>0.229213</v>
+        <v>0.229065</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.225995</v>
+        <v>0.225942</v>
       </c>
       <c r="C28" t="n">
-        <v>0.22368</v>
+        <v>0.223575</v>
       </c>
       <c r="D28" t="n">
-        <v>0.228048</v>
+        <v>0.228468</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.22061</v>
+        <v>0.221029</v>
       </c>
       <c r="C29" t="n">
-        <v>0.222834</v>
+        <v>0.222471</v>
       </c>
       <c r="D29" t="n">
-        <v>0.227364</v>
+        <v>0.227279</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.215374</v>
+        <v>0.216192</v>
       </c>
       <c r="C30" t="n">
-        <v>0.221917</v>
+        <v>0.221943</v>
       </c>
       <c r="D30" t="n">
-        <v>0.226734</v>
+        <v>0.226194</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.210106</v>
+        <v>0.210372</v>
       </c>
       <c r="C31" t="n">
-        <v>0.220594</v>
+        <v>0.220628</v>
       </c>
       <c r="D31" t="n">
-        <v>0.225583</v>
+        <v>0.225308</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.204803</v>
+        <v>0.205296</v>
       </c>
       <c r="C32" t="n">
-        <v>0.219819</v>
+        <v>0.219862</v>
       </c>
       <c r="D32" t="n">
-        <v>0.225077</v>
+        <v>0.224885</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.19869</v>
+        <v>0.199146</v>
       </c>
       <c r="C33" t="n">
-        <v>0.219046</v>
+        <v>0.218791</v>
       </c>
       <c r="D33" t="n">
-        <v>0.223925</v>
+        <v>0.223923</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.193202</v>
+        <v>0.193707</v>
       </c>
       <c r="C34" t="n">
-        <v>0.218399</v>
+        <v>0.218529</v>
       </c>
       <c r="D34" t="n">
-        <v>0.223533</v>
+        <v>0.223491</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.186583</v>
+        <v>0.18642</v>
       </c>
       <c r="C35" t="n">
-        <v>0.217527</v>
+        <v>0.21724</v>
       </c>
       <c r="D35" t="n">
-        <v>0.222482</v>
+        <v>0.222669</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.178747</v>
+        <v>0.179353</v>
       </c>
       <c r="C36" t="n">
-        <v>0.217002</v>
+        <v>0.216613</v>
       </c>
       <c r="D36" t="n">
-        <v>0.221949</v>
+        <v>0.222127</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.169894</v>
+        <v>0.170612</v>
       </c>
       <c r="C37" t="n">
-        <v>0.216541</v>
+        <v>0.216514</v>
       </c>
       <c r="D37" t="n">
-        <v>0.235351</v>
+        <v>0.221</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.247473</v>
+        <v>0.247493</v>
       </c>
       <c r="C38" t="n">
-        <v>0.229158</v>
+        <v>0.229569</v>
       </c>
       <c r="D38" t="n">
-        <v>0.233741</v>
+        <v>0.234046</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.243985</v>
+        <v>0.243847</v>
       </c>
       <c r="C39" t="n">
-        <v>0.227872</v>
+        <v>0.228206</v>
       </c>
       <c r="D39" t="n">
-        <v>0.232561</v>
+        <v>0.232793</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.239373</v>
+        <v>0.239825</v>
       </c>
       <c r="C40" t="n">
-        <v>0.226446</v>
+        <v>0.226698</v>
       </c>
       <c r="D40" t="n">
-        <v>0.231485</v>
+        <v>0.23136</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.235066</v>
+        <v>0.235377</v>
       </c>
       <c r="C41" t="n">
-        <v>0.225393</v>
+        <v>0.22562</v>
       </c>
       <c r="D41" t="n">
-        <v>0.230393</v>
+        <v>0.230348</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.229994</v>
+        <v>0.230195</v>
       </c>
       <c r="C42" t="n">
-        <v>0.224561</v>
+        <v>0.224356</v>
       </c>
       <c r="D42" t="n">
-        <v>0.229335</v>
+        <v>0.229237</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.22492</v>
+        <v>0.224986</v>
       </c>
       <c r="C43" t="n">
         <v>0.223507</v>
       </c>
       <c r="D43" t="n">
-        <v>0.228236</v>
+        <v>0.228076</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.219458</v>
+        <v>0.219839</v>
       </c>
       <c r="C44" t="n">
-        <v>0.222141</v>
+        <v>0.222329</v>
       </c>
       <c r="D44" t="n">
-        <v>0.227124</v>
+        <v>0.227181</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.214326</v>
+        <v>0.214241</v>
       </c>
       <c r="C45" t="n">
-        <v>0.221376</v>
+        <v>0.221425</v>
       </c>
       <c r="D45" t="n">
-        <v>0.226131</v>
+        <v>0.226251</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.208851</v>
+        <v>0.208792</v>
       </c>
       <c r="C46" t="n">
-        <v>0.22048</v>
+        <v>0.220544</v>
       </c>
       <c r="D46" t="n">
-        <v>0.225417</v>
+        <v>0.225312</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.203127</v>
+        <v>0.20322</v>
       </c>
       <c r="C47" t="n">
-        <v>0.219968</v>
+        <v>0.220011</v>
       </c>
       <c r="D47" t="n">
-        <v>0.224516</v>
+        <v>0.224626</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.196857</v>
+        <v>0.196932</v>
       </c>
       <c r="C48" t="n">
-        <v>0.219199</v>
+        <v>0.218979</v>
       </c>
       <c r="D48" t="n">
-        <v>0.223652</v>
+        <v>0.223703</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.190198</v>
+        <v>0.190328</v>
       </c>
       <c r="C49" t="n">
-        <v>0.218412</v>
+        <v>0.218192</v>
       </c>
       <c r="D49" t="n">
-        <v>0.223208</v>
+        <v>0.222795</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.182534</v>
+        <v>0.182551</v>
       </c>
       <c r="C50" t="n">
-        <v>0.217573</v>
+        <v>0.217715</v>
       </c>
       <c r="D50" t="n">
-        <v>0.222302</v>
+        <v>0.22235</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173878</v>
+        <v>0.173646</v>
       </c>
       <c r="C51" t="n">
-        <v>0.216974</v>
+        <v>0.21677</v>
       </c>
       <c r="D51" t="n">
-        <v>0.236406</v>
+        <v>0.221581</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.16349</v>
+        <v>0.163271</v>
       </c>
       <c r="C52" t="n">
-        <v>0.216399</v>
+        <v>0.21637</v>
       </c>
       <c r="D52" t="n">
-        <v>0.234828</v>
+        <v>0.220901</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.246002</v>
+        <v>0.246617</v>
       </c>
       <c r="C53" t="n">
-        <v>0.228841</v>
+        <v>0.229171</v>
       </c>
       <c r="D53" t="n">
-        <v>0.233476</v>
+        <v>0.23347</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.242009</v>
+        <v>0.242508</v>
       </c>
       <c r="C54" t="n">
-        <v>0.227516</v>
+        <v>0.227923</v>
       </c>
       <c r="D54" t="n">
-        <v>0.232275</v>
+        <v>0.232343</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.237342</v>
+        <v>0.237843</v>
       </c>
       <c r="C55" t="n">
-        <v>0.226347</v>
+        <v>0.226479</v>
       </c>
       <c r="D55" t="n">
-        <v>0.230918</v>
+        <v>0.230958</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.232866</v>
+        <v>0.23337</v>
       </c>
       <c r="C56" t="n">
-        <v>0.225262</v>
+        <v>0.225249</v>
       </c>
       <c r="D56" t="n">
-        <v>0.229884</v>
+        <v>0.229869</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.227877</v>
+        <v>0.227823</v>
       </c>
       <c r="C57" t="n">
-        <v>0.224253</v>
+        <v>0.224205</v>
       </c>
       <c r="D57" t="n">
-        <v>0.228959</v>
+        <v>0.228876</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.222793</v>
+        <v>0.222722</v>
       </c>
       <c r="C58" t="n">
-        <v>0.223172</v>
+        <v>0.223119</v>
       </c>
       <c r="D58" t="n">
-        <v>0.227598</v>
+        <v>0.227776</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.217106</v>
+        <v>0.21787</v>
       </c>
       <c r="C59" t="n">
-        <v>0.222173</v>
+        <v>0.22217</v>
       </c>
       <c r="D59" t="n">
-        <v>0.226881</v>
+        <v>0.226957</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.211472</v>
+        <v>0.211667</v>
       </c>
       <c r="C60" t="n">
-        <v>0.221178</v>
+        <v>0.22116</v>
       </c>
       <c r="D60" t="n">
-        <v>0.225891</v>
+        <v>0.225826</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.20532</v>
+        <v>0.205236</v>
       </c>
       <c r="C61" t="n">
-        <v>0.220533</v>
+        <v>0.220437</v>
       </c>
       <c r="D61" t="n">
-        <v>0.225071</v>
+        <v>0.225013</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.199385</v>
+        <v>0.199246</v>
       </c>
       <c r="C62" t="n">
-        <v>0.219517</v>
+        <v>0.219484</v>
       </c>
       <c r="D62" t="n">
-        <v>0.224219</v>
+        <v>0.224037</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.19268</v>
+        <v>0.19289</v>
       </c>
       <c r="C63" t="n">
-        <v>0.218795</v>
+        <v>0.218836</v>
       </c>
       <c r="D63" t="n">
-        <v>0.223346</v>
+        <v>0.223277</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.185242</v>
+        <v>0.185292</v>
       </c>
       <c r="C64" t="n">
-        <v>0.218374</v>
+        <v>0.218064</v>
       </c>
       <c r="D64" t="n">
-        <v>0.222598</v>
+        <v>0.222527</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.176812</v>
+        <v>0.176957</v>
       </c>
       <c r="C65" t="n">
-        <v>0.21752</v>
+        <v>0.217253</v>
       </c>
       <c r="D65" t="n">
-        <v>0.221876</v>
+        <v>0.221792</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.167169</v>
+        <v>0.167214</v>
       </c>
       <c r="C66" t="n">
-        <v>0.216696</v>
+        <v>0.216578</v>
       </c>
       <c r="D66" t="n">
-        <v>0.236078</v>
+        <v>0.22103</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.246964</v>
+        <v>0.247131</v>
       </c>
       <c r="C67" t="n">
-        <v>0.231529</v>
+        <v>0.23098</v>
       </c>
       <c r="D67" t="n">
-        <v>0.234515</v>
+        <v>0.235625</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.242965</v>
+        <v>0.243333</v>
       </c>
       <c r="C68" t="n">
-        <v>0.22998</v>
+        <v>0.229298</v>
       </c>
       <c r="D68" t="n">
-        <v>0.233184</v>
+        <v>0.23402</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.239059</v>
+        <v>0.239303</v>
       </c>
       <c r="C69" t="n">
-        <v>0.228325</v>
+        <v>0.227994</v>
       </c>
       <c r="D69" t="n">
-        <v>0.231946</v>
+        <v>0.232688</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.234544</v>
+        <v>0.234888</v>
       </c>
       <c r="C70" t="n">
-        <v>0.226774</v>
+        <v>0.226574</v>
       </c>
       <c r="D70" t="n">
-        <v>0.23078</v>
+        <v>0.231125</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.229743</v>
+        <v>0.230025</v>
       </c>
       <c r="C71" t="n">
-        <v>0.225519</v>
+        <v>0.225262</v>
       </c>
       <c r="D71" t="n">
-        <v>0.229691</v>
+        <v>0.229824</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.224406</v>
+        <v>0.224706</v>
       </c>
       <c r="C72" t="n">
-        <v>0.224118</v>
+        <v>0.224144</v>
       </c>
       <c r="D72" t="n">
-        <v>0.228461</v>
+        <v>0.228653</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.218969</v>
+        <v>0.219194</v>
       </c>
       <c r="C73" t="n">
-        <v>0.222996</v>
+        <v>0.223059</v>
       </c>
       <c r="D73" t="n">
-        <v>0.227313</v>
+        <v>0.227483</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.213047</v>
+        <v>0.21301</v>
       </c>
       <c r="C74" t="n">
-        <v>0.221958</v>
+        <v>0.221982</v>
       </c>
       <c r="D74" t="n">
-        <v>0.226466</v>
+        <v>0.226522</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.20714</v>
+        <v>0.207363</v>
       </c>
       <c r="C75" t="n">
-        <v>0.221125</v>
+        <v>0.221141</v>
       </c>
       <c r="D75" t="n">
-        <v>0.225394</v>
+        <v>0.225389</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.20136</v>
+        <v>0.201218</v>
       </c>
       <c r="C76" t="n">
-        <v>0.220279</v>
+        <v>0.220312</v>
       </c>
       <c r="D76" t="n">
-        <v>0.224743</v>
+        <v>0.224561</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.194676</v>
+        <v>0.194502</v>
       </c>
       <c r="C77" t="n">
-        <v>0.219542</v>
+        <v>0.219475</v>
       </c>
       <c r="D77" t="n">
-        <v>0.223857</v>
+        <v>0.223663</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.187526</v>
+        <v>0.187384</v>
       </c>
       <c r="C78" t="n">
-        <v>0.218651</v>
+        <v>0.218701</v>
       </c>
       <c r="D78" t="n">
-        <v>0.223094</v>
+        <v>0.222886</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179465</v>
+        <v>0.179747</v>
       </c>
       <c r="C79" t="n">
-        <v>0.217897</v>
+        <v>0.217947</v>
       </c>
       <c r="D79" t="n">
-        <v>0.222369</v>
+        <v>0.222175</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.170083</v>
+        <v>0.169733</v>
       </c>
       <c r="C80" t="n">
-        <v>0.217028</v>
+        <v>0.21706</v>
       </c>
       <c r="D80" t="n">
-        <v>0.238764</v>
+        <v>0.221455</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.249016</v>
+        <v>0.248754</v>
       </c>
       <c r="C81" t="n">
-        <v>0.238748</v>
+        <v>0.238792</v>
       </c>
       <c r="D81" t="n">
-        <v>0.236362</v>
+        <v>0.24256</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.245093</v>
+        <v>0.244929</v>
       </c>
       <c r="C82" t="n">
-        <v>0.234189</v>
+        <v>0.23307</v>
       </c>
       <c r="D82" t="n">
-        <v>0.234543</v>
+        <v>0.237606</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.241059</v>
+        <v>0.240789</v>
       </c>
       <c r="C83" t="n">
-        <v>0.230076</v>
+        <v>0.229768</v>
       </c>
       <c r="D83" t="n">
-        <v>0.233012</v>
+        <v>0.233716</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.236259</v>
+        <v>0.235994</v>
       </c>
       <c r="C84" t="n">
-        <v>0.227615</v>
+        <v>0.227324</v>
       </c>
       <c r="D84" t="n">
-        <v>0.231581</v>
+        <v>0.231799</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.231013</v>
+        <v>0.230996</v>
       </c>
       <c r="C85" t="n">
-        <v>0.22601</v>
+        <v>0.22587</v>
       </c>
       <c r="D85" t="n">
-        <v>0.230333</v>
+        <v>0.230021</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.225963</v>
+        <v>0.225721</v>
       </c>
       <c r="C86" t="n">
-        <v>0.22465</v>
+        <v>0.224647</v>
       </c>
       <c r="D86" t="n">
-        <v>0.229043</v>
+        <v>0.229021</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.220421</v>
+        <v>0.220291</v>
       </c>
       <c r="C87" t="n">
-        <v>0.223454</v>
+        <v>0.223442</v>
       </c>
       <c r="D87" t="n">
-        <v>0.228024</v>
+        <v>0.228089</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.214708</v>
+        <v>0.214742</v>
       </c>
       <c r="C88" t="n">
-        <v>0.222573</v>
+        <v>0.222542</v>
       </c>
       <c r="D88" t="n">
-        <v>0.226951</v>
+        <v>0.226983</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.208917</v>
+        <v>0.208899</v>
       </c>
       <c r="C89" t="n">
-        <v>0.221626</v>
+        <v>0.221489</v>
       </c>
       <c r="D89" t="n">
-        <v>0.225968</v>
+        <v>0.225804</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.202944</v>
+        <v>0.202803</v>
       </c>
       <c r="C90" t="n">
-        <v>0.220585</v>
+        <v>0.220504</v>
       </c>
       <c r="D90" t="n">
-        <v>0.225174</v>
+        <v>0.224951</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.196416</v>
+        <v>0.196228</v>
       </c>
       <c r="C91" t="n">
-        <v>0.219739</v>
+        <v>0.21978</v>
       </c>
       <c r="D91" t="n">
-        <v>0.224304</v>
+        <v>0.224102</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.189406</v>
+        <v>0.189314</v>
       </c>
       <c r="C92" t="n">
-        <v>0.218914</v>
+        <v>0.218872</v>
       </c>
       <c r="D92" t="n">
-        <v>0.223579</v>
+        <v>0.22335</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.18137</v>
+        <v>0.181324</v>
       </c>
       <c r="C93" t="n">
-        <v>0.218302</v>
+        <v>0.218126</v>
       </c>
       <c r="D93" t="n">
-        <v>0.222849</v>
+        <v>0.222578</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.172212</v>
+        <v>0.172209</v>
       </c>
       <c r="C94" t="n">
-        <v>0.21766</v>
+        <v>0.217571</v>
       </c>
       <c r="D94" t="n">
-        <v>0.239877</v>
+        <v>0.221842</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.249057</v>
+        <v>0.249477</v>
       </c>
       <c r="C95" t="n">
-        <v>0.236149</v>
+        <v>0.23598</v>
       </c>
       <c r="D95" t="n">
-        <v>0.236882</v>
+        <v>0.239352</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.245704</v>
+        <v>0.245709</v>
       </c>
       <c r="C96" t="n">
-        <v>0.232546</v>
+        <v>0.232379</v>
       </c>
       <c r="D96" t="n">
-        <v>0.234992</v>
+        <v>0.236233</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.241465</v>
+        <v>0.241493</v>
       </c>
       <c r="C97" t="n">
-        <v>0.230087</v>
+        <v>0.229738</v>
       </c>
       <c r="D97" t="n">
-        <v>0.233931</v>
+        <v>0.233937</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.237229</v>
+        <v>0.237129</v>
       </c>
       <c r="C98" t="n">
-        <v>0.227921</v>
+        <v>0.227713</v>
       </c>
       <c r="D98" t="n">
-        <v>0.232586</v>
+        <v>0.232052</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.232196</v>
+        <v>0.232231</v>
       </c>
       <c r="C99" t="n">
-        <v>0.226311</v>
+        <v>0.226171</v>
       </c>
       <c r="D99" t="n">
-        <v>0.231237</v>
+        <v>0.230608</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.226948</v>
+        <v>0.226937</v>
       </c>
       <c r="C100" t="n">
-        <v>0.225055</v>
+        <v>0.225017</v>
       </c>
       <c r="D100" t="n">
-        <v>0.230107</v>
+        <v>0.229389</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.222757</v>
+        <v>0.222791</v>
       </c>
       <c r="C101" t="n">
-        <v>0.223821</v>
+        <v>0.223787</v>
       </c>
       <c r="D101" t="n">
-        <v>0.228664</v>
+        <v>0.228195</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.217116</v>
+        <v>0.215699</v>
       </c>
       <c r="C102" t="n">
-        <v>0.222783</v>
+        <v>0.22269</v>
       </c>
       <c r="D102" t="n">
-        <v>0.227608</v>
+        <v>0.227051</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.211263</v>
+        <v>0.209947</v>
       </c>
       <c r="C103" t="n">
-        <v>0.221717</v>
+        <v>0.22169</v>
       </c>
       <c r="D103" t="n">
-        <v>0.22661</v>
+        <v>0.226159</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.205069</v>
+        <v>0.203929</v>
       </c>
       <c r="C104" t="n">
-        <v>0.220911</v>
+        <v>0.220778</v>
       </c>
       <c r="D104" t="n">
-        <v>0.225967</v>
+        <v>0.22517</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.19837</v>
+        <v>0.197489</v>
       </c>
       <c r="C105" t="n">
-        <v>0.219986</v>
+        <v>0.219982</v>
       </c>
       <c r="D105" t="n">
-        <v>0.225093</v>
+        <v>0.224265</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.19135</v>
+        <v>0.190673</v>
       </c>
       <c r="C106" t="n">
-        <v>0.21923</v>
+        <v>0.219211</v>
       </c>
       <c r="D106" t="n">
-        <v>0.224374</v>
+        <v>0.223586</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183471</v>
+        <v>0.182999</v>
       </c>
       <c r="C107" t="n">
-        <v>0.218529</v>
+        <v>0.218456</v>
       </c>
       <c r="D107" t="n">
-        <v>0.223502</v>
+        <v>0.222772</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.174224</v>
+        <v>0.174112</v>
       </c>
       <c r="C108" t="n">
-        <v>0.217773</v>
+        <v>0.217783</v>
       </c>
       <c r="D108" t="n">
-        <v>0.239046</v>
+        <v>0.222141</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.163718</v>
+        <v>0.163571</v>
       </c>
       <c r="C109" t="n">
-        <v>0.217192</v>
+        <v>0.217179</v>
       </c>
       <c r="D109" t="n">
-        <v>0.236774</v>
+        <v>0.221655</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.247033</v>
+        <v>0.246798</v>
       </c>
       <c r="C110" t="n">
-        <v>0.232942</v>
+        <v>0.232962</v>
       </c>
       <c r="D110" t="n">
-        <v>0.234865</v>
+        <v>0.236924</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.2431</v>
+        <v>0.24297</v>
       </c>
       <c r="C111" t="n">
-        <v>0.230233</v>
+        <v>0.230127</v>
       </c>
       <c r="D111" t="n">
-        <v>0.233326</v>
+        <v>0.234379</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.238739</v>
+        <v>0.238461</v>
       </c>
       <c r="C112" t="n">
-        <v>0.228045</v>
+        <v>0.227992</v>
       </c>
       <c r="D112" t="n">
-        <v>0.231927</v>
+        <v>0.232466</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.23394</v>
+        <v>0.233658</v>
       </c>
       <c r="C113" t="n">
-        <v>0.226564</v>
+        <v>0.22646</v>
       </c>
       <c r="D113" t="n">
-        <v>0.230669</v>
+        <v>0.230864</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.22855</v>
+        <v>0.228445</v>
       </c>
       <c r="C114" t="n">
-        <v>0.225155</v>
+        <v>0.22514</v>
       </c>
       <c r="D114" t="n">
-        <v>0.22949</v>
+        <v>0.229522</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.223056</v>
+        <v>0.222963</v>
       </c>
       <c r="C115" t="n">
-        <v>0.223923</v>
+        <v>0.223907</v>
       </c>
       <c r="D115" t="n">
-        <v>0.22839</v>
+        <v>0.228861</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.21728</v>
+        <v>0.217302</v>
       </c>
       <c r="C116" t="n">
-        <v>0.223406</v>
+        <v>0.223316</v>
       </c>
       <c r="D116" t="n">
-        <v>0.227421</v>
+        <v>0.227776</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.211536</v>
+        <v>0.211349</v>
       </c>
       <c r="C117" t="n">
-        <v>0.222431</v>
+        <v>0.222359</v>
       </c>
       <c r="D117" t="n">
-        <v>0.226858</v>
+        <v>0.226718</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.205556</v>
+        <v>0.205366</v>
       </c>
       <c r="C118" t="n">
-        <v>0.221554</v>
+        <v>0.221449</v>
       </c>
       <c r="D118" t="n">
-        <v>0.225947</v>
+        <v>0.225887</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.199313</v>
+        <v>0.199051</v>
       </c>
       <c r="C119" t="n">
-        <v>0.220819</v>
+        <v>0.220649</v>
       </c>
       <c r="D119" t="n">
-        <v>0.225188</v>
+        <v>0.224953</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.192234</v>
+        <v>0.192257</v>
       </c>
       <c r="C120" t="n">
-        <v>0.220133</v>
+        <v>0.21981</v>
       </c>
       <c r="D120" t="n">
-        <v>0.224295</v>
+        <v>0.224116</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.184731</v>
+        <v>0.184633</v>
       </c>
       <c r="C121" t="n">
-        <v>0.219523</v>
+        <v>0.219103</v>
       </c>
       <c r="D121" t="n">
-        <v>0.223591</v>
+        <v>0.223425</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.175895</v>
+        <v>0.175896</v>
       </c>
       <c r="C122" t="n">
-        <v>0.218792</v>
+        <v>0.218382</v>
       </c>
       <c r="D122" t="n">
-        <v>0.222843</v>
+        <v>0.222645</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.165711</v>
+        <v>0.165667</v>
       </c>
       <c r="C123" t="n">
-        <v>0.217803</v>
+        <v>0.217654</v>
       </c>
       <c r="D123" t="n">
-        <v>0.237128</v>
+        <v>0.222081</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.248954</v>
+        <v>0.247418</v>
       </c>
       <c r="C124" t="n">
-        <v>0.233385</v>
+        <v>0.233494</v>
       </c>
       <c r="D124" t="n">
-        <v>0.235164</v>
+        <v>0.237428</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.245105</v>
+        <v>0.245057</v>
       </c>
       <c r="C125" t="n">
-        <v>0.230604</v>
+        <v>0.23059</v>
       </c>
       <c r="D125" t="n">
-        <v>0.233541</v>
+        <v>0.234785</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.240677</v>
+        <v>0.240182</v>
       </c>
       <c r="C126" t="n">
-        <v>0.228477</v>
+        <v>0.228383</v>
       </c>
       <c r="D126" t="n">
-        <v>0.23211</v>
+        <v>0.232823</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.235862</v>
+        <v>0.235735</v>
       </c>
       <c r="C127" t="n">
-        <v>0.226735</v>
+        <v>0.226653</v>
       </c>
       <c r="D127" t="n">
-        <v>0.230795</v>
+        <v>0.231259</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.230769</v>
+        <v>0.230605</v>
       </c>
       <c r="C128" t="n">
-        <v>0.225428</v>
+        <v>0.225368</v>
       </c>
       <c r="D128" t="n">
-        <v>0.229659</v>
+        <v>0.229932</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.225242</v>
+        <v>0.225107</v>
       </c>
       <c r="C129" t="n">
-        <v>0.224271</v>
+        <v>0.224176</v>
       </c>
       <c r="D129" t="n">
-        <v>0.228511</v>
+        <v>0.228665</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.219725</v>
+        <v>0.219506</v>
       </c>
       <c r="C130" t="n">
-        <v>0.223175</v>
+        <v>0.223093</v>
       </c>
       <c r="D130" t="n">
-        <v>0.227468</v>
+        <v>0.227578</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.213912</v>
+        <v>0.21354</v>
       </c>
       <c r="C131" t="n">
-        <v>0.222357</v>
+        <v>0.222169</v>
       </c>
       <c r="D131" t="n">
-        <v>0.226648</v>
+        <v>0.226603</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.207834</v>
+        <v>0.207789</v>
       </c>
       <c r="C132" t="n">
-        <v>0.221496</v>
+        <v>0.221251</v>
       </c>
       <c r="D132" t="n">
-        <v>0.22565</v>
+        <v>0.225675</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.201408</v>
+        <v>0.20139</v>
       </c>
       <c r="C133" t="n">
-        <v>0.220763</v>
+        <v>0.22043</v>
       </c>
       <c r="D133" t="n">
-        <v>0.22493</v>
+        <v>0.224807</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.194534</v>
+        <v>0.194382</v>
       </c>
       <c r="C134" t="n">
-        <v>0.219752</v>
+        <v>0.21962</v>
       </c>
       <c r="D134" t="n">
-        <v>0.224093</v>
+        <v>0.223996</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.187135</v>
+        <v>0.186932</v>
       </c>
       <c r="C135" t="n">
-        <v>0.218915</v>
+        <v>0.218836</v>
       </c>
       <c r="D135" t="n">
-        <v>0.223391</v>
+        <v>0.223221</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.17863</v>
+        <v>0.178297</v>
       </c>
       <c r="C136" t="n">
-        <v>0.218609</v>
+        <v>0.218622</v>
       </c>
       <c r="D136" t="n">
-        <v>0.222736</v>
+        <v>0.223014</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.168581</v>
+        <v>0.168305</v>
       </c>
       <c r="C137" t="n">
-        <v>0.21788</v>
+        <v>0.217937</v>
       </c>
       <c r="D137" t="n">
-        <v>0.23835</v>
+        <v>0.222343</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.249734</v>
+        <v>0.249646</v>
       </c>
       <c r="C138" t="n">
-        <v>0.235006</v>
+        <v>0.235037</v>
       </c>
       <c r="D138" t="n">
-        <v>0.236243</v>
+        <v>0.238728</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.244718</v>
+        <v>0.245087</v>
       </c>
       <c r="C139" t="n">
-        <v>0.231917</v>
+        <v>0.231847</v>
       </c>
       <c r="D139" t="n">
-        <v>0.234474</v>
+        <v>0.235846</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.241147</v>
+        <v>0.240388</v>
       </c>
       <c r="C140" t="n">
-        <v>0.229475</v>
+        <v>0.229409</v>
       </c>
       <c r="D140" t="n">
-        <v>0.232948</v>
+        <v>0.233688</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.235734</v>
+        <v>0.236158</v>
       </c>
       <c r="C141" t="n">
-        <v>0.227644</v>
+        <v>0.227568</v>
       </c>
       <c r="D141" t="n">
-        <v>0.231471</v>
+        <v>0.232028</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.230647</v>
+        <v>0.230612</v>
       </c>
       <c r="C142" t="n">
-        <v>0.226205</v>
+        <v>0.226096</v>
       </c>
       <c r="D142" t="n">
-        <v>0.230237</v>
+        <v>0.230439</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.225207</v>
+        <v>0.225269</v>
       </c>
       <c r="C143" t="n">
-        <v>0.224898</v>
+        <v>0.224884</v>
       </c>
       <c r="D143" t="n">
-        <v>0.229111</v>
+        <v>0.229268</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.20197</v>
+        <v>0.180864</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204629</v>
+        <v>0.206674</v>
       </c>
       <c r="D2" t="n">
-        <v>0.211729</v>
+        <v>0.210604</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.192071</v>
+        <v>0.176966</v>
       </c>
       <c r="C3" t="n">
-        <v>0.205443</v>
+        <v>0.207204</v>
       </c>
       <c r="D3" t="n">
-        <v>0.211332</v>
+        <v>0.210343</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.184225</v>
+        <v>0.174579</v>
       </c>
       <c r="C4" t="n">
-        <v>0.205422</v>
+        <v>0.206349</v>
       </c>
       <c r="D4" t="n">
-        <v>0.212017</v>
+        <v>0.211633</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.180059</v>
+        <v>0.170491</v>
       </c>
       <c r="C5" t="n">
-        <v>0.207757</v>
+        <v>0.206097</v>
       </c>
       <c r="D5" t="n">
-        <v>0.212079</v>
+        <v>0.212372</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.171565</v>
+        <v>0.166521</v>
       </c>
       <c r="C6" t="n">
-        <v>0.206868</v>
+        <v>0.20664</v>
       </c>
       <c r="D6" t="n">
-        <v>0.212541</v>
+        <v>0.213652</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.16644</v>
+        <v>0.161412</v>
       </c>
       <c r="C7" t="n">
-        <v>0.206975</v>
+        <v>0.206325</v>
       </c>
       <c r="D7" t="n">
-        <v>0.211436</v>
+        <v>0.212777</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.157438</v>
+        <v>0.155071</v>
       </c>
       <c r="C8" t="n">
-        <v>0.207434</v>
+        <v>0.207233</v>
       </c>
       <c r="D8" t="n">
-        <v>0.213046</v>
+        <v>0.213285</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.150512</v>
+        <v>0.145213</v>
       </c>
       <c r="C9" t="n">
-        <v>0.206698</v>
+        <v>0.207084</v>
       </c>
       <c r="D9" t="n">
-        <v>0.213473</v>
+        <v>0.213734</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.23156</v>
+        <v>0.226368</v>
       </c>
       <c r="C10" t="n">
-        <v>0.22433</v>
+        <v>0.223807</v>
       </c>
       <c r="D10" t="n">
-        <v>0.227418</v>
+        <v>0.228955</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.228833</v>
+        <v>0.222673</v>
       </c>
       <c r="C11" t="n">
-        <v>0.222774</v>
+        <v>0.222366</v>
       </c>
       <c r="D11" t="n">
-        <v>0.226596</v>
+        <v>0.22816</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.224696</v>
+        <v>0.221198</v>
       </c>
       <c r="C12" t="n">
-        <v>0.222198</v>
+        <v>0.22096</v>
       </c>
       <c r="D12" t="n">
-        <v>0.22583</v>
+        <v>0.227375</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.222405</v>
+        <v>0.218314</v>
       </c>
       <c r="C13" t="n">
-        <v>0.221533</v>
+        <v>0.220575</v>
       </c>
       <c r="D13" t="n">
-        <v>0.224506</v>
+        <v>0.226359</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.217804</v>
+        <v>0.214878</v>
       </c>
       <c r="C14" t="n">
-        <v>0.220612</v>
+        <v>0.220504</v>
       </c>
       <c r="D14" t="n">
-        <v>0.225133</v>
+        <v>0.225931</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.214855</v>
+        <v>0.211031</v>
       </c>
       <c r="C15" t="n">
-        <v>0.219776</v>
+        <v>0.21943</v>
       </c>
       <c r="D15" t="n">
-        <v>0.223919</v>
+        <v>0.225365</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.210397</v>
+        <v>0.207409</v>
       </c>
       <c r="C16" t="n">
-        <v>0.219881</v>
+        <v>0.219374</v>
       </c>
       <c r="D16" t="n">
-        <v>0.223296</v>
+        <v>0.224603</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.204948</v>
+        <v>0.20293</v>
       </c>
       <c r="C17" t="n">
-        <v>0.218502</v>
+        <v>0.2185</v>
       </c>
       <c r="D17" t="n">
-        <v>0.222965</v>
+        <v>0.223839</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.199682</v>
+        <v>0.198252</v>
       </c>
       <c r="C18" t="n">
-        <v>0.217366</v>
+        <v>0.217848</v>
       </c>
       <c r="D18" t="n">
-        <v>0.222192</v>
+        <v>0.223043</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.194875</v>
+        <v>0.193958</v>
       </c>
       <c r="C19" t="n">
-        <v>0.216931</v>
+        <v>0.216611</v>
       </c>
       <c r="D19" t="n">
-        <v>0.221279</v>
+        <v>0.222549</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.188922</v>
+        <v>0.187914</v>
       </c>
       <c r="C20" t="n">
-        <v>0.216521</v>
+        <v>0.216383</v>
       </c>
       <c r="D20" t="n">
-        <v>0.220927</v>
+        <v>0.222094</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.181595</v>
+        <v>0.180171</v>
       </c>
       <c r="C21" t="n">
-        <v>0.215947</v>
+        <v>0.216205</v>
       </c>
       <c r="D21" t="n">
-        <v>0.220115</v>
+        <v>0.221109</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.174515</v>
+        <v>0.173186</v>
       </c>
       <c r="C22" t="n">
-        <v>0.215346</v>
+        <v>0.215088</v>
       </c>
       <c r="D22" t="n">
-        <v>0.220089</v>
+        <v>0.2208</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.165299</v>
+        <v>0.165325</v>
       </c>
       <c r="C23" t="n">
-        <v>0.214608</v>
+        <v>0.214412</v>
       </c>
       <c r="D23" t="n">
-        <v>0.21973</v>
+        <v>0.220529</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.241923</v>
+        <v>0.240219</v>
       </c>
       <c r="C24" t="n">
-        <v>0.227627</v>
+        <v>0.228086</v>
       </c>
       <c r="D24" t="n">
-        <v>0.232578</v>
+        <v>0.232957</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.238027</v>
+        <v>0.236519</v>
       </c>
       <c r="C25" t="n">
-        <v>0.227079</v>
+        <v>0.226346</v>
       </c>
       <c r="D25" t="n">
-        <v>0.232188</v>
+        <v>0.231554</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.234547</v>
+        <v>0.233596</v>
       </c>
       <c r="C26" t="n">
-        <v>0.225111</v>
+        <v>0.225346</v>
       </c>
       <c r="D26" t="n">
-        <v>0.230272</v>
+        <v>0.230376</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.230867</v>
+        <v>0.230094</v>
       </c>
       <c r="C27" t="n">
-        <v>0.224377</v>
+        <v>0.224414</v>
       </c>
       <c r="D27" t="n">
-        <v>0.229065</v>
+        <v>0.229606</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.225942</v>
+        <v>0.224897</v>
       </c>
       <c r="C28" t="n">
-        <v>0.223575</v>
+        <v>0.223435</v>
       </c>
       <c r="D28" t="n">
-        <v>0.228468</v>
+        <v>0.228601</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.221029</v>
+        <v>0.220075</v>
       </c>
       <c r="C29" t="n">
-        <v>0.222471</v>
+        <v>0.222502</v>
       </c>
       <c r="D29" t="n">
-        <v>0.227279</v>
+        <v>0.227806</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.216192</v>
+        <v>0.214826</v>
       </c>
       <c r="C30" t="n">
-        <v>0.221943</v>
+        <v>0.221379</v>
       </c>
       <c r="D30" t="n">
-        <v>0.226194</v>
+        <v>0.226849</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.210372</v>
+        <v>0.209854</v>
       </c>
       <c r="C31" t="n">
-        <v>0.220628</v>
+        <v>0.220333</v>
       </c>
       <c r="D31" t="n">
-        <v>0.225308</v>
+        <v>0.22589</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.205296</v>
+        <v>0.205114</v>
       </c>
       <c r="C32" t="n">
-        <v>0.219862</v>
+        <v>0.219613</v>
       </c>
       <c r="D32" t="n">
-        <v>0.224885</v>
+        <v>0.22521</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.199146</v>
+        <v>0.199647</v>
       </c>
       <c r="C33" t="n">
-        <v>0.218791</v>
+        <v>0.218882</v>
       </c>
       <c r="D33" t="n">
-        <v>0.223923</v>
+        <v>0.224166</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.193707</v>
+        <v>0.193187</v>
       </c>
       <c r="C34" t="n">
-        <v>0.218529</v>
+        <v>0.218362</v>
       </c>
       <c r="D34" t="n">
-        <v>0.223491</v>
+        <v>0.223524</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.18642</v>
+        <v>0.186121</v>
       </c>
       <c r="C35" t="n">
-        <v>0.21724</v>
+        <v>0.217354</v>
       </c>
       <c r="D35" t="n">
-        <v>0.222669</v>
+        <v>0.222762</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.179353</v>
+        <v>0.178579</v>
       </c>
       <c r="C36" t="n">
-        <v>0.216613</v>
+        <v>0.216901</v>
       </c>
       <c r="D36" t="n">
-        <v>0.222127</v>
+        <v>0.222121</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.170612</v>
+        <v>0.16969</v>
       </c>
       <c r="C37" t="n">
-        <v>0.216514</v>
+        <v>0.216492</v>
       </c>
       <c r="D37" t="n">
-        <v>0.221</v>
+        <v>0.221325</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.247493</v>
+        <v>0.247437</v>
       </c>
       <c r="C38" t="n">
-        <v>0.229569</v>
+        <v>0.229248</v>
       </c>
       <c r="D38" t="n">
-        <v>0.234046</v>
+        <v>0.234597</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.243847</v>
+        <v>0.243371</v>
       </c>
       <c r="C39" t="n">
-        <v>0.228206</v>
+        <v>0.22827</v>
       </c>
       <c r="D39" t="n">
-        <v>0.232793</v>
+        <v>0.232951</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.239825</v>
+        <v>0.239453</v>
       </c>
       <c r="C40" t="n">
-        <v>0.226698</v>
+        <v>0.226781</v>
       </c>
       <c r="D40" t="n">
-        <v>0.23136</v>
+        <v>0.231919</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.235377</v>
+        <v>0.234636</v>
       </c>
       <c r="C41" t="n">
-        <v>0.22562</v>
+        <v>0.225349</v>
       </c>
       <c r="D41" t="n">
-        <v>0.230348</v>
+        <v>0.230826</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.230195</v>
+        <v>0.230194</v>
       </c>
       <c r="C42" t="n">
-        <v>0.224356</v>
+        <v>0.22414</v>
       </c>
       <c r="D42" t="n">
-        <v>0.229237</v>
+        <v>0.229504</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.224986</v>
+        <v>0.22539</v>
       </c>
       <c r="C43" t="n">
-        <v>0.223507</v>
+        <v>0.223286</v>
       </c>
       <c r="D43" t="n">
-        <v>0.228076</v>
+        <v>0.228277</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.219839</v>
+        <v>0.220047</v>
       </c>
       <c r="C44" t="n">
-        <v>0.222329</v>
+        <v>0.222368</v>
       </c>
       <c r="D44" t="n">
-        <v>0.227181</v>
+        <v>0.22732</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.214241</v>
+        <v>0.214907</v>
       </c>
       <c r="C45" t="n">
-        <v>0.221425</v>
+        <v>0.221457</v>
       </c>
       <c r="D45" t="n">
-        <v>0.226251</v>
+        <v>0.226602</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.208792</v>
+        <v>0.209581</v>
       </c>
       <c r="C46" t="n">
-        <v>0.220544</v>
+        <v>0.220351</v>
       </c>
       <c r="D46" t="n">
-        <v>0.225312</v>
+        <v>0.225692</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.20322</v>
+        <v>0.202851</v>
       </c>
       <c r="C47" t="n">
-        <v>0.220011</v>
+        <v>0.219658</v>
       </c>
       <c r="D47" t="n">
-        <v>0.224626</v>
+        <v>0.224561</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.196932</v>
+        <v>0.19671</v>
       </c>
       <c r="C48" t="n">
-        <v>0.218979</v>
+        <v>0.219011</v>
       </c>
       <c r="D48" t="n">
-        <v>0.223703</v>
+        <v>0.223774</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.190328</v>
+        <v>0.190023</v>
       </c>
       <c r="C49" t="n">
-        <v>0.218192</v>
+        <v>0.218233</v>
       </c>
       <c r="D49" t="n">
-        <v>0.222795</v>
+        <v>0.223328</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.182551</v>
+        <v>0.18247</v>
       </c>
       <c r="C50" t="n">
-        <v>0.217715</v>
+        <v>0.217542</v>
       </c>
       <c r="D50" t="n">
-        <v>0.22235</v>
+        <v>0.222649</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173646</v>
+        <v>0.173387</v>
       </c>
       <c r="C51" t="n">
-        <v>0.21677</v>
+        <v>0.216831</v>
       </c>
       <c r="D51" t="n">
-        <v>0.221581</v>
+        <v>0.221938</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.163271</v>
+        <v>0.163674</v>
       </c>
       <c r="C52" t="n">
-        <v>0.21637</v>
+        <v>0.216292</v>
       </c>
       <c r="D52" t="n">
-        <v>0.220901</v>
+        <v>0.22103</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.246617</v>
+        <v>0.24606</v>
       </c>
       <c r="C53" t="n">
-        <v>0.229171</v>
+        <v>0.229009</v>
       </c>
       <c r="D53" t="n">
-        <v>0.23347</v>
+        <v>0.233787</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.242508</v>
+        <v>0.241905</v>
       </c>
       <c r="C54" t="n">
-        <v>0.227923</v>
+        <v>0.22763</v>
       </c>
       <c r="D54" t="n">
-        <v>0.232343</v>
+        <v>0.232501</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.237843</v>
+        <v>0.237877</v>
       </c>
       <c r="C55" t="n">
-        <v>0.226479</v>
+        <v>0.226455</v>
       </c>
       <c r="D55" t="n">
-        <v>0.230958</v>
+        <v>0.231243</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.23337</v>
+        <v>0.233151</v>
       </c>
       <c r="C56" t="n">
-        <v>0.225249</v>
+        <v>0.225364</v>
       </c>
       <c r="D56" t="n">
-        <v>0.229869</v>
+        <v>0.230233</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.227823</v>
+        <v>0.22813</v>
       </c>
       <c r="C57" t="n">
-        <v>0.224205</v>
+        <v>0.224337</v>
       </c>
       <c r="D57" t="n">
-        <v>0.228876</v>
+        <v>0.229356</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.222722</v>
+        <v>0.222493</v>
       </c>
       <c r="C58" t="n">
-        <v>0.223119</v>
+        <v>0.223355</v>
       </c>
       <c r="D58" t="n">
-        <v>0.227776</v>
+        <v>0.228068</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.21787</v>
+        <v>0.217136</v>
       </c>
       <c r="C59" t="n">
-        <v>0.22217</v>
+        <v>0.222282</v>
       </c>
       <c r="D59" t="n">
-        <v>0.226957</v>
+        <v>0.227264</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.211667</v>
+        <v>0.211411</v>
       </c>
       <c r="C60" t="n">
-        <v>0.22116</v>
+        <v>0.221249</v>
       </c>
       <c r="D60" t="n">
-        <v>0.225826</v>
+        <v>0.226239</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.205236</v>
+        <v>0.205117</v>
       </c>
       <c r="C61" t="n">
-        <v>0.220437</v>
+        <v>0.220513</v>
       </c>
       <c r="D61" t="n">
-        <v>0.225013</v>
+        <v>0.225504</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.199246</v>
+        <v>0.199168</v>
       </c>
       <c r="C62" t="n">
-        <v>0.219484</v>
+        <v>0.219597</v>
       </c>
       <c r="D62" t="n">
-        <v>0.224037</v>
+        <v>0.224673</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.19289</v>
+        <v>0.192464</v>
       </c>
       <c r="C63" t="n">
-        <v>0.218836</v>
+        <v>0.218922</v>
       </c>
       <c r="D63" t="n">
-        <v>0.223277</v>
+        <v>0.223594</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.185292</v>
+        <v>0.185157</v>
       </c>
       <c r="C64" t="n">
-        <v>0.218064</v>
+        <v>0.218081</v>
       </c>
       <c r="D64" t="n">
-        <v>0.222527</v>
+        <v>0.222997</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.176957</v>
+        <v>0.177027</v>
       </c>
       <c r="C65" t="n">
-        <v>0.217253</v>
+        <v>0.217334</v>
       </c>
       <c r="D65" t="n">
-        <v>0.221792</v>
+        <v>0.222225</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.167214</v>
+        <v>0.167111</v>
       </c>
       <c r="C66" t="n">
-        <v>0.216578</v>
+        <v>0.216576</v>
       </c>
       <c r="D66" t="n">
-        <v>0.22103</v>
+        <v>0.221645</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.247131</v>
+        <v>0.247886</v>
       </c>
       <c r="C67" t="n">
-        <v>0.23098</v>
+        <v>0.233999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.235625</v>
+        <v>0.239</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.243333</v>
+        <v>0.244679</v>
       </c>
       <c r="C68" t="n">
-        <v>0.229298</v>
+        <v>0.231413</v>
       </c>
       <c r="D68" t="n">
-        <v>0.23402</v>
+        <v>0.236561</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.239303</v>
+        <v>0.240422</v>
       </c>
       <c r="C69" t="n">
-        <v>0.227994</v>
+        <v>0.22951</v>
       </c>
       <c r="D69" t="n">
-        <v>0.232688</v>
+        <v>0.234249</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.234888</v>
+        <v>0.235414</v>
       </c>
       <c r="C70" t="n">
-        <v>0.226574</v>
+        <v>0.227471</v>
       </c>
       <c r="D70" t="n">
-        <v>0.231125</v>
+        <v>0.23221</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.230025</v>
+        <v>0.230355</v>
       </c>
       <c r="C71" t="n">
-        <v>0.225262</v>
+        <v>0.225681</v>
       </c>
       <c r="D71" t="n">
-        <v>0.229824</v>
+        <v>0.230705</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.224706</v>
+        <v>0.225022</v>
       </c>
       <c r="C72" t="n">
-        <v>0.224144</v>
+        <v>0.224216</v>
       </c>
       <c r="D72" t="n">
-        <v>0.228653</v>
+        <v>0.228956</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.219194</v>
+        <v>0.219479</v>
       </c>
       <c r="C73" t="n">
-        <v>0.223059</v>
+        <v>0.222964</v>
       </c>
       <c r="D73" t="n">
-        <v>0.227483</v>
+        <v>0.228031</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.21301</v>
+        <v>0.213537</v>
       </c>
       <c r="C74" t="n">
-        <v>0.221982</v>
+        <v>0.222072</v>
       </c>
       <c r="D74" t="n">
-        <v>0.226522</v>
+        <v>0.227011</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.207363</v>
+        <v>0.207671</v>
       </c>
       <c r="C75" t="n">
-        <v>0.221141</v>
+        <v>0.221185</v>
       </c>
       <c r="D75" t="n">
-        <v>0.225389</v>
+        <v>0.225697</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.201218</v>
+        <v>0.20167</v>
       </c>
       <c r="C76" t="n">
-        <v>0.220312</v>
+        <v>0.22019</v>
       </c>
       <c r="D76" t="n">
-        <v>0.224561</v>
+        <v>0.22486</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.194502</v>
+        <v>0.194772</v>
       </c>
       <c r="C77" t="n">
-        <v>0.219475</v>
+        <v>0.219362</v>
       </c>
       <c r="D77" t="n">
-        <v>0.223663</v>
+        <v>0.223951</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.187384</v>
+        <v>0.187698</v>
       </c>
       <c r="C78" t="n">
-        <v>0.218701</v>
+        <v>0.218578</v>
       </c>
       <c r="D78" t="n">
-        <v>0.222886</v>
+        <v>0.223167</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179747</v>
+        <v>0.179764</v>
       </c>
       <c r="C79" t="n">
-        <v>0.217947</v>
+        <v>0.217791</v>
       </c>
       <c r="D79" t="n">
-        <v>0.222175</v>
+        <v>0.222476</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.169733</v>
+        <v>0.170136</v>
       </c>
       <c r="C80" t="n">
-        <v>0.21706</v>
+        <v>0.217093</v>
       </c>
       <c r="D80" t="n">
-        <v>0.221455</v>
+        <v>0.221602</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.248754</v>
+        <v>0.24963</v>
       </c>
       <c r="C81" t="n">
-        <v>0.238792</v>
+        <v>0.237987</v>
       </c>
       <c r="D81" t="n">
-        <v>0.24256</v>
+        <v>0.243149</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.244929</v>
+        <v>0.24558</v>
       </c>
       <c r="C82" t="n">
-        <v>0.23307</v>
+        <v>0.233445</v>
       </c>
       <c r="D82" t="n">
-        <v>0.237606</v>
+        <v>0.237572</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.240789</v>
+        <v>0.241394</v>
       </c>
       <c r="C83" t="n">
-        <v>0.229768</v>
+        <v>0.229599</v>
       </c>
       <c r="D83" t="n">
-        <v>0.233716</v>
+        <v>0.234412</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.235994</v>
+        <v>0.237055</v>
       </c>
       <c r="C84" t="n">
-        <v>0.227324</v>
+        <v>0.227501</v>
       </c>
       <c r="D84" t="n">
-        <v>0.231799</v>
+        <v>0.232034</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.230996</v>
+        <v>0.231838</v>
       </c>
       <c r="C85" t="n">
-        <v>0.22587</v>
+        <v>0.225655</v>
       </c>
       <c r="D85" t="n">
-        <v>0.230021</v>
+        <v>0.230399</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.225721</v>
+        <v>0.226759</v>
       </c>
       <c r="C86" t="n">
-        <v>0.224647</v>
+        <v>0.224493</v>
       </c>
       <c r="D86" t="n">
-        <v>0.229021</v>
+        <v>0.229261</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.220291</v>
+        <v>0.220975</v>
       </c>
       <c r="C87" t="n">
-        <v>0.223442</v>
+        <v>0.223467</v>
       </c>
       <c r="D87" t="n">
-        <v>0.228089</v>
+        <v>0.228161</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.214742</v>
+        <v>0.215068</v>
       </c>
       <c r="C88" t="n">
-        <v>0.222542</v>
+        <v>0.22255</v>
       </c>
       <c r="D88" t="n">
-        <v>0.226983</v>
+        <v>0.227144</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.208899</v>
+        <v>0.209216</v>
       </c>
       <c r="C89" t="n">
-        <v>0.221489</v>
+        <v>0.221459</v>
       </c>
       <c r="D89" t="n">
-        <v>0.225804</v>
+        <v>0.226158</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.202803</v>
+        <v>0.203151</v>
       </c>
       <c r="C90" t="n">
-        <v>0.220504</v>
+        <v>0.220538</v>
       </c>
       <c r="D90" t="n">
-        <v>0.224951</v>
+        <v>0.225132</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.196228</v>
+        <v>0.196542</v>
       </c>
       <c r="C91" t="n">
-        <v>0.21978</v>
+        <v>0.219712</v>
       </c>
       <c r="D91" t="n">
-        <v>0.224102</v>
+        <v>0.22435</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.189314</v>
+        <v>0.189365</v>
       </c>
       <c r="C92" t="n">
-        <v>0.218872</v>
+        <v>0.218755</v>
       </c>
       <c r="D92" t="n">
-        <v>0.22335</v>
+        <v>0.223555</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.181324</v>
+        <v>0.181619</v>
       </c>
       <c r="C93" t="n">
-        <v>0.218126</v>
+        <v>0.218156</v>
       </c>
       <c r="D93" t="n">
-        <v>0.222578</v>
+        <v>0.222755</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.172209</v>
+        <v>0.172642</v>
       </c>
       <c r="C94" t="n">
-        <v>0.217571</v>
+        <v>0.217581</v>
       </c>
       <c r="D94" t="n">
-        <v>0.221842</v>
+        <v>0.222014</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.249477</v>
+        <v>0.250444</v>
       </c>
       <c r="C95" t="n">
-        <v>0.23598</v>
+        <v>0.235417</v>
       </c>
       <c r="D95" t="n">
-        <v>0.239352</v>
+        <v>0.239588</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.245709</v>
+        <v>0.246396</v>
       </c>
       <c r="C96" t="n">
-        <v>0.232379</v>
+        <v>0.232159</v>
       </c>
       <c r="D96" t="n">
-        <v>0.236233</v>
+        <v>0.236635</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.241493</v>
+        <v>0.242451</v>
       </c>
       <c r="C97" t="n">
-        <v>0.229738</v>
+        <v>0.229677</v>
       </c>
       <c r="D97" t="n">
-        <v>0.233937</v>
+        <v>0.234278</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.237129</v>
+        <v>0.238174</v>
       </c>
       <c r="C98" t="n">
-        <v>0.227713</v>
+        <v>0.22769</v>
       </c>
       <c r="D98" t="n">
-        <v>0.232052</v>
+        <v>0.232408</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.232231</v>
+        <v>0.233073</v>
       </c>
       <c r="C99" t="n">
-        <v>0.226171</v>
+        <v>0.226126</v>
       </c>
       <c r="D99" t="n">
-        <v>0.230608</v>
+        <v>0.230954</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.226937</v>
+        <v>0.227667</v>
       </c>
       <c r="C100" t="n">
-        <v>0.225017</v>
+        <v>0.224963</v>
       </c>
       <c r="D100" t="n">
-        <v>0.229389</v>
+        <v>0.229637</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.222791</v>
+        <v>0.223393</v>
       </c>
       <c r="C101" t="n">
-        <v>0.223787</v>
+        <v>0.223764</v>
       </c>
       <c r="D101" t="n">
-        <v>0.228195</v>
+        <v>0.228634</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.215699</v>
+        <v>0.216459</v>
       </c>
       <c r="C102" t="n">
-        <v>0.22269</v>
+        <v>0.222682</v>
       </c>
       <c r="D102" t="n">
-        <v>0.227051</v>
+        <v>0.227655</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.209947</v>
+        <v>0.210581</v>
       </c>
       <c r="C103" t="n">
-        <v>0.22169</v>
+        <v>0.221691</v>
       </c>
       <c r="D103" t="n">
-        <v>0.226159</v>
+        <v>0.226851</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.203929</v>
+        <v>0.204419</v>
       </c>
       <c r="C104" t="n">
-        <v>0.220778</v>
+        <v>0.220694</v>
       </c>
       <c r="D104" t="n">
-        <v>0.22517</v>
+        <v>0.225834</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.197489</v>
+        <v>0.198045</v>
       </c>
       <c r="C105" t="n">
-        <v>0.219982</v>
+        <v>0.219907</v>
       </c>
       <c r="D105" t="n">
-        <v>0.224265</v>
+        <v>0.224895</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.190673</v>
+        <v>0.190971</v>
       </c>
       <c r="C106" t="n">
-        <v>0.219211</v>
+        <v>0.219069</v>
       </c>
       <c r="D106" t="n">
-        <v>0.223586</v>
+        <v>0.224191</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.182999</v>
+        <v>0.183631</v>
       </c>
       <c r="C107" t="n">
-        <v>0.218456</v>
+        <v>0.218225</v>
       </c>
       <c r="D107" t="n">
-        <v>0.222772</v>
+        <v>0.223415</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.174112</v>
+        <v>0.175429</v>
       </c>
       <c r="C108" t="n">
-        <v>0.217783</v>
+        <v>0.21762</v>
       </c>
       <c r="D108" t="n">
-        <v>0.222141</v>
+        <v>0.222759</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.163571</v>
+        <v>0.163947</v>
       </c>
       <c r="C109" t="n">
-        <v>0.217179</v>
+        <v>0.216896</v>
       </c>
       <c r="D109" t="n">
-        <v>0.221655</v>
+        <v>0.222166</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.246798</v>
+        <v>0.247751</v>
       </c>
       <c r="C110" t="n">
-        <v>0.232962</v>
+        <v>0.232862</v>
       </c>
       <c r="D110" t="n">
-        <v>0.236924</v>
+        <v>0.237304</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.24297</v>
+        <v>0.243717</v>
       </c>
       <c r="C111" t="n">
-        <v>0.230127</v>
+        <v>0.230092</v>
       </c>
       <c r="D111" t="n">
-        <v>0.234379</v>
+        <v>0.234732</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.238461</v>
+        <v>0.239264</v>
       </c>
       <c r="C112" t="n">
-        <v>0.227992</v>
+        <v>0.227936</v>
       </c>
       <c r="D112" t="n">
-        <v>0.232466</v>
+        <v>0.232853</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.233658</v>
+        <v>0.23427</v>
       </c>
       <c r="C113" t="n">
-        <v>0.22646</v>
+        <v>0.226397</v>
       </c>
       <c r="D113" t="n">
-        <v>0.230864</v>
+        <v>0.231189</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.228445</v>
+        <v>0.228966</v>
       </c>
       <c r="C114" t="n">
-        <v>0.22514</v>
+        <v>0.22496</v>
       </c>
       <c r="D114" t="n">
-        <v>0.229522</v>
+        <v>0.229827</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.222963</v>
+        <v>0.223378</v>
       </c>
       <c r="C115" t="n">
-        <v>0.223907</v>
+        <v>0.223858</v>
       </c>
       <c r="D115" t="n">
-        <v>0.228861</v>
+        <v>0.228772</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.217302</v>
+        <v>0.217654</v>
       </c>
       <c r="C116" t="n">
-        <v>0.223316</v>
+        <v>0.223222</v>
       </c>
       <c r="D116" t="n">
-        <v>0.227776</v>
+        <v>0.228199</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.211349</v>
+        <v>0.211668</v>
       </c>
       <c r="C117" t="n">
-        <v>0.222359</v>
+        <v>0.222195</v>
       </c>
       <c r="D117" t="n">
-        <v>0.226718</v>
+        <v>0.227176</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.205366</v>
+        <v>0.205658</v>
       </c>
       <c r="C118" t="n">
-        <v>0.221449</v>
+        <v>0.221292</v>
       </c>
       <c r="D118" t="n">
-        <v>0.225887</v>
+        <v>0.226363</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.199051</v>
+        <v>0.19933</v>
       </c>
       <c r="C119" t="n">
-        <v>0.220649</v>
+        <v>0.220411</v>
       </c>
       <c r="D119" t="n">
-        <v>0.224953</v>
+        <v>0.225471</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.192257</v>
+        <v>0.192426</v>
       </c>
       <c r="C120" t="n">
-        <v>0.21981</v>
+        <v>0.219599</v>
       </c>
       <c r="D120" t="n">
-        <v>0.224116</v>
+        <v>0.224578</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.184633</v>
+        <v>0.184856</v>
       </c>
       <c r="C121" t="n">
-        <v>0.219103</v>
+        <v>0.218839</v>
       </c>
       <c r="D121" t="n">
-        <v>0.223425</v>
+        <v>0.223884</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.175896</v>
+        <v>0.176242</v>
       </c>
       <c r="C122" t="n">
-        <v>0.218382</v>
+        <v>0.218111</v>
       </c>
       <c r="D122" t="n">
-        <v>0.222645</v>
+        <v>0.223125</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.165667</v>
+        <v>0.16601</v>
       </c>
       <c r="C123" t="n">
-        <v>0.217654</v>
+        <v>0.217366</v>
       </c>
       <c r="D123" t="n">
-        <v>0.222081</v>
+        <v>0.222505</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.247418</v>
+        <v>0.249151</v>
       </c>
       <c r="C124" t="n">
-        <v>0.233494</v>
+        <v>0.233206</v>
       </c>
       <c r="D124" t="n">
-        <v>0.237428</v>
+        <v>0.237658</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.245057</v>
+        <v>0.245371</v>
       </c>
       <c r="C125" t="n">
-        <v>0.23059</v>
+        <v>0.230216</v>
       </c>
       <c r="D125" t="n">
-        <v>0.234785</v>
+        <v>0.234932</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.240182</v>
+        <v>0.240931</v>
       </c>
       <c r="C126" t="n">
-        <v>0.228383</v>
+        <v>0.228135</v>
       </c>
       <c r="D126" t="n">
-        <v>0.232823</v>
+        <v>0.233018</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.235735</v>
+        <v>0.236224</v>
       </c>
       <c r="C127" t="n">
-        <v>0.226653</v>
+        <v>0.226453</v>
       </c>
       <c r="D127" t="n">
-        <v>0.231259</v>
+        <v>0.231363</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.230605</v>
+        <v>0.230995</v>
       </c>
       <c r="C128" t="n">
-        <v>0.225368</v>
+        <v>0.225157</v>
       </c>
       <c r="D128" t="n">
-        <v>0.229932</v>
+        <v>0.230065</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.225107</v>
+        <v>0.225497</v>
       </c>
       <c r="C129" t="n">
-        <v>0.224176</v>
+        <v>0.223981</v>
       </c>
       <c r="D129" t="n">
-        <v>0.228665</v>
+        <v>0.228877</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.219506</v>
+        <v>0.219977</v>
       </c>
       <c r="C130" t="n">
-        <v>0.223093</v>
+        <v>0.222928</v>
       </c>
       <c r="D130" t="n">
-        <v>0.227578</v>
+        <v>0.227899</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.21354</v>
+        <v>0.213971</v>
       </c>
       <c r="C131" t="n">
-        <v>0.222169</v>
+        <v>0.222003</v>
       </c>
       <c r="D131" t="n">
-        <v>0.226603</v>
+        <v>0.226988</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.207789</v>
+        <v>0.207887</v>
       </c>
       <c r="C132" t="n">
-        <v>0.221251</v>
+        <v>0.221062</v>
       </c>
       <c r="D132" t="n">
-        <v>0.225675</v>
+        <v>0.225869</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.20139</v>
+        <v>0.20159</v>
       </c>
       <c r="C133" t="n">
-        <v>0.22043</v>
+        <v>0.220177</v>
       </c>
       <c r="D133" t="n">
-        <v>0.224807</v>
+        <v>0.225227</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.194382</v>
+        <v>0.194675</v>
       </c>
       <c r="C134" t="n">
-        <v>0.21962</v>
+        <v>0.219393</v>
       </c>
       <c r="D134" t="n">
-        <v>0.223996</v>
+        <v>0.224458</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.186932</v>
+        <v>0.187255</v>
       </c>
       <c r="C135" t="n">
-        <v>0.218836</v>
+        <v>0.218631</v>
       </c>
       <c r="D135" t="n">
-        <v>0.223221</v>
+        <v>0.223666</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.178297</v>
+        <v>0.178444</v>
       </c>
       <c r="C136" t="n">
-        <v>0.218622</v>
+        <v>0.218296</v>
       </c>
       <c r="D136" t="n">
-        <v>0.223014</v>
+        <v>0.22331</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.168305</v>
+        <v>0.168467</v>
       </c>
       <c r="C137" t="n">
-        <v>0.217937</v>
+        <v>0.21757</v>
       </c>
       <c r="D137" t="n">
-        <v>0.222343</v>
+        <v>0.22264</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.249646</v>
+        <v>0.248765</v>
       </c>
       <c r="C138" t="n">
-        <v>0.235037</v>
+        <v>0.234662</v>
       </c>
       <c r="D138" t="n">
-        <v>0.238728</v>
+        <v>0.23893</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.245087</v>
+        <v>0.245457</v>
       </c>
       <c r="C139" t="n">
-        <v>0.231847</v>
+        <v>0.231514</v>
       </c>
       <c r="D139" t="n">
-        <v>0.235846</v>
+        <v>0.236157</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.240388</v>
+        <v>0.241171</v>
       </c>
       <c r="C140" t="n">
-        <v>0.229409</v>
+        <v>0.22903</v>
       </c>
       <c r="D140" t="n">
-        <v>0.233688</v>
+        <v>0.23378</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.236158</v>
+        <v>0.236966</v>
       </c>
       <c r="C141" t="n">
-        <v>0.227568</v>
+        <v>0.227346</v>
       </c>
       <c r="D141" t="n">
-        <v>0.232028</v>
+        <v>0.232034</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.230612</v>
+        <v>0.231267</v>
       </c>
       <c r="C142" t="n">
-        <v>0.226096</v>
+        <v>0.225856</v>
       </c>
       <c r="D142" t="n">
-        <v>0.230439</v>
+        <v>0.230611</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.225269</v>
+        <v>0.225821</v>
       </c>
       <c r="C143" t="n">
-        <v>0.224884</v>
+        <v>0.224657</v>
       </c>
       <c r="D143" t="n">
-        <v>0.229268</v>
+        <v>0.229567</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.180864</v>
+        <v>0.202676</v>
       </c>
       <c r="C2" t="n">
-        <v>0.206674</v>
+        <v>0.203335</v>
       </c>
       <c r="D2" t="n">
-        <v>0.210604</v>
+        <v>0.210823</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.176966</v>
+        <v>0.190146</v>
       </c>
       <c r="C3" t="n">
-        <v>0.207204</v>
+        <v>0.204782</v>
       </c>
       <c r="D3" t="n">
-        <v>0.210343</v>
+        <v>0.209685</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.174579</v>
+        <v>0.18522</v>
       </c>
       <c r="C4" t="n">
-        <v>0.206349</v>
+        <v>0.205236</v>
       </c>
       <c r="D4" t="n">
-        <v>0.211633</v>
+        <v>0.211747</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.170491</v>
+        <v>0.180056</v>
       </c>
       <c r="C5" t="n">
-        <v>0.206097</v>
+        <v>0.206062</v>
       </c>
       <c r="D5" t="n">
-        <v>0.212372</v>
+        <v>0.212332</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.166521</v>
+        <v>0.173352</v>
       </c>
       <c r="C6" t="n">
-        <v>0.20664</v>
+        <v>0.206761</v>
       </c>
       <c r="D6" t="n">
-        <v>0.213652</v>
+        <v>0.212973</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.161412</v>
+        <v>0.166647</v>
       </c>
       <c r="C7" t="n">
-        <v>0.206325</v>
+        <v>0.206663</v>
       </c>
       <c r="D7" t="n">
-        <v>0.212777</v>
+        <v>0.211622</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.155071</v>
+        <v>0.158391</v>
       </c>
       <c r="C8" t="n">
-        <v>0.207233</v>
+        <v>0.206825</v>
       </c>
       <c r="D8" t="n">
-        <v>0.213285</v>
+        <v>0.212782</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.145213</v>
+        <v>0.148015</v>
       </c>
       <c r="C9" t="n">
-        <v>0.207084</v>
+        <v>0.205562</v>
       </c>
       <c r="D9" t="n">
-        <v>0.213734</v>
+        <v>0.213445</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.226368</v>
+        <v>0.231712</v>
       </c>
       <c r="C10" t="n">
-        <v>0.223807</v>
+        <v>0.22423</v>
       </c>
       <c r="D10" t="n">
-        <v>0.228955</v>
+        <v>0.230234</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.222673</v>
+        <v>0.227575</v>
       </c>
       <c r="C11" t="n">
-        <v>0.222366</v>
+        <v>0.22297</v>
       </c>
       <c r="D11" t="n">
-        <v>0.22816</v>
+        <v>0.228943</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.221198</v>
+        <v>0.224603</v>
       </c>
       <c r="C12" t="n">
-        <v>0.22096</v>
+        <v>0.222919</v>
       </c>
       <c r="D12" t="n">
-        <v>0.227375</v>
+        <v>0.226085</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.218314</v>
+        <v>0.221529</v>
       </c>
       <c r="C13" t="n">
-        <v>0.220575</v>
+        <v>0.221182</v>
       </c>
       <c r="D13" t="n">
-        <v>0.226359</v>
+        <v>0.22612</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.214878</v>
+        <v>0.217966</v>
       </c>
       <c r="C14" t="n">
-        <v>0.220504</v>
+        <v>0.220597</v>
       </c>
       <c r="D14" t="n">
-        <v>0.225931</v>
+        <v>0.225336</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.211031</v>
+        <v>0.214802</v>
       </c>
       <c r="C15" t="n">
-        <v>0.21943</v>
+        <v>0.220506</v>
       </c>
       <c r="D15" t="n">
-        <v>0.225365</v>
+        <v>0.225216</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.207409</v>
+        <v>0.208892</v>
       </c>
       <c r="C16" t="n">
-        <v>0.219374</v>
+        <v>0.22043</v>
       </c>
       <c r="D16" t="n">
-        <v>0.224603</v>
+        <v>0.223817</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.20293</v>
+        <v>0.203879</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2185</v>
+        <v>0.219463</v>
       </c>
       <c r="D17" t="n">
-        <v>0.223839</v>
+        <v>0.222857</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.198252</v>
+        <v>0.199669</v>
       </c>
       <c r="C18" t="n">
-        <v>0.217848</v>
+        <v>0.217506</v>
       </c>
       <c r="D18" t="n">
-        <v>0.223043</v>
+        <v>0.222148</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.193958</v>
+        <v>0.19513</v>
       </c>
       <c r="C19" t="n">
-        <v>0.216611</v>
+        <v>0.217142</v>
       </c>
       <c r="D19" t="n">
-        <v>0.222549</v>
+        <v>0.221349</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.187914</v>
+        <v>0.189195</v>
       </c>
       <c r="C20" t="n">
-        <v>0.216383</v>
+        <v>0.216424</v>
       </c>
       <c r="D20" t="n">
-        <v>0.222094</v>
+        <v>0.221024</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.180171</v>
+        <v>0.181053</v>
       </c>
       <c r="C21" t="n">
-        <v>0.216205</v>
+        <v>0.216016</v>
       </c>
       <c r="D21" t="n">
-        <v>0.221109</v>
+        <v>0.220427</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.173186</v>
+        <v>0.174548</v>
       </c>
       <c r="C22" t="n">
-        <v>0.215088</v>
+        <v>0.215708</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2208</v>
+        <v>0.219939</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.165325</v>
+        <v>0.166756</v>
       </c>
       <c r="C23" t="n">
-        <v>0.214412</v>
+        <v>0.214697</v>
       </c>
       <c r="D23" t="n">
-        <v>0.220529</v>
+        <v>0.219468</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.240219</v>
+        <v>0.242668</v>
       </c>
       <c r="C24" t="n">
-        <v>0.228086</v>
+        <v>0.230325</v>
       </c>
       <c r="D24" t="n">
-        <v>0.232957</v>
+        <v>0.23399</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.236519</v>
+        <v>0.238314</v>
       </c>
       <c r="C25" t="n">
-        <v>0.226346</v>
+        <v>0.229119</v>
       </c>
       <c r="D25" t="n">
-        <v>0.231554</v>
+        <v>0.232203</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.233596</v>
+        <v>0.234152</v>
       </c>
       <c r="C26" t="n">
-        <v>0.225346</v>
+        <v>0.225368</v>
       </c>
       <c r="D26" t="n">
-        <v>0.230376</v>
+        <v>0.230772</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.230094</v>
+        <v>0.229893</v>
       </c>
       <c r="C27" t="n">
-        <v>0.224414</v>
+        <v>0.224693</v>
       </c>
       <c r="D27" t="n">
-        <v>0.229606</v>
+        <v>0.229572</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.224897</v>
+        <v>0.225253</v>
       </c>
       <c r="C28" t="n">
-        <v>0.223435</v>
+        <v>0.223794</v>
       </c>
       <c r="D28" t="n">
-        <v>0.228601</v>
+        <v>0.228285</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.220075</v>
+        <v>0.220377</v>
       </c>
       <c r="C29" t="n">
-        <v>0.222502</v>
+        <v>0.222997</v>
       </c>
       <c r="D29" t="n">
-        <v>0.227806</v>
+        <v>0.227436</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.214826</v>
+        <v>0.215302</v>
       </c>
       <c r="C30" t="n">
-        <v>0.221379</v>
+        <v>0.221873</v>
       </c>
       <c r="D30" t="n">
-        <v>0.226849</v>
+        <v>0.226526</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.209854</v>
+        <v>0.210189</v>
       </c>
       <c r="C31" t="n">
-        <v>0.220333</v>
+        <v>0.220816</v>
       </c>
       <c r="D31" t="n">
-        <v>0.22589</v>
+        <v>0.225578</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.205114</v>
+        <v>0.205062</v>
       </c>
       <c r="C32" t="n">
-        <v>0.219613</v>
+        <v>0.219969</v>
       </c>
       <c r="D32" t="n">
-        <v>0.22521</v>
+        <v>0.224902</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.199647</v>
+        <v>0.198993</v>
       </c>
       <c r="C33" t="n">
-        <v>0.218882</v>
+        <v>0.219113</v>
       </c>
       <c r="D33" t="n">
-        <v>0.224166</v>
+        <v>0.223989</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.193187</v>
+        <v>0.193082</v>
       </c>
       <c r="C34" t="n">
-        <v>0.218362</v>
+        <v>0.218265</v>
       </c>
       <c r="D34" t="n">
-        <v>0.223524</v>
+        <v>0.223503</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.186121</v>
+        <v>0.186555</v>
       </c>
       <c r="C35" t="n">
-        <v>0.217354</v>
+        <v>0.217532</v>
       </c>
       <c r="D35" t="n">
-        <v>0.222762</v>
+        <v>0.222426</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.178579</v>
+        <v>0.179596</v>
       </c>
       <c r="C36" t="n">
-        <v>0.216901</v>
+        <v>0.216963</v>
       </c>
       <c r="D36" t="n">
-        <v>0.222121</v>
+        <v>0.22201</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.16969</v>
+        <v>0.171231</v>
       </c>
       <c r="C37" t="n">
-        <v>0.216492</v>
+        <v>0.216478</v>
       </c>
       <c r="D37" t="n">
-        <v>0.221325</v>
+        <v>0.221263</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.247437</v>
+        <v>0.247806</v>
       </c>
       <c r="C38" t="n">
-        <v>0.229248</v>
+        <v>0.230067</v>
       </c>
       <c r="D38" t="n">
-        <v>0.234597</v>
+        <v>0.234116</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.243371</v>
+        <v>0.244604</v>
       </c>
       <c r="C39" t="n">
-        <v>0.22827</v>
+        <v>0.228491</v>
       </c>
       <c r="D39" t="n">
-        <v>0.232951</v>
+        <v>0.232651</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.239453</v>
+        <v>0.239977</v>
       </c>
       <c r="C40" t="n">
-        <v>0.226781</v>
+        <v>0.226845</v>
       </c>
       <c r="D40" t="n">
-        <v>0.231919</v>
+        <v>0.231561</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.234636</v>
+        <v>0.235535</v>
       </c>
       <c r="C41" t="n">
-        <v>0.225349</v>
+        <v>0.226049</v>
       </c>
       <c r="D41" t="n">
-        <v>0.230826</v>
+        <v>0.230256</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.230194</v>
+        <v>0.230468</v>
       </c>
       <c r="C42" t="n">
-        <v>0.22414</v>
+        <v>0.224584</v>
       </c>
       <c r="D42" t="n">
-        <v>0.229504</v>
+        <v>0.22918</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.22539</v>
+        <v>0.225979</v>
       </c>
       <c r="C43" t="n">
-        <v>0.223286</v>
+        <v>0.223565</v>
       </c>
       <c r="D43" t="n">
-        <v>0.228277</v>
+        <v>0.228031</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.220047</v>
+        <v>0.220525</v>
       </c>
       <c r="C44" t="n">
-        <v>0.222368</v>
+        <v>0.222394</v>
       </c>
       <c r="D44" t="n">
-        <v>0.22732</v>
+        <v>0.227348</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.214907</v>
+        <v>0.214935</v>
       </c>
       <c r="C45" t="n">
-        <v>0.221457</v>
+        <v>0.221529</v>
       </c>
       <c r="D45" t="n">
-        <v>0.226602</v>
+        <v>0.226204</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.209581</v>
+        <v>0.209688</v>
       </c>
       <c r="C46" t="n">
-        <v>0.220351</v>
+        <v>0.220882</v>
       </c>
       <c r="D46" t="n">
-        <v>0.225692</v>
+        <v>0.225379</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.202851</v>
+        <v>0.20346</v>
       </c>
       <c r="C47" t="n">
-        <v>0.219658</v>
+        <v>0.219978</v>
       </c>
       <c r="D47" t="n">
-        <v>0.224561</v>
+        <v>0.224606</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.19671</v>
+        <v>0.196912</v>
       </c>
       <c r="C48" t="n">
-        <v>0.219011</v>
+        <v>0.21913</v>
       </c>
       <c r="D48" t="n">
-        <v>0.223774</v>
+        <v>0.223685</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.190023</v>
+        <v>0.189911</v>
       </c>
       <c r="C49" t="n">
-        <v>0.218233</v>
+        <v>0.218416</v>
       </c>
       <c r="D49" t="n">
-        <v>0.223328</v>
+        <v>0.223003</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.18247</v>
+        <v>0.182374</v>
       </c>
       <c r="C50" t="n">
-        <v>0.217542</v>
+        <v>0.217675</v>
       </c>
       <c r="D50" t="n">
-        <v>0.222649</v>
+        <v>0.222399</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173387</v>
+        <v>0.173452</v>
       </c>
       <c r="C51" t="n">
-        <v>0.216831</v>
+        <v>0.216857</v>
       </c>
       <c r="D51" t="n">
-        <v>0.221938</v>
+        <v>0.221607</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.163674</v>
+        <v>0.164222</v>
       </c>
       <c r="C52" t="n">
-        <v>0.216292</v>
+        <v>0.216426</v>
       </c>
       <c r="D52" t="n">
-        <v>0.22103</v>
+        <v>0.221063</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.24606</v>
+        <v>0.245907</v>
       </c>
       <c r="C53" t="n">
-        <v>0.229009</v>
+        <v>0.228964</v>
       </c>
       <c r="D53" t="n">
-        <v>0.233787</v>
+        <v>0.233642</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.241905</v>
+        <v>0.241723</v>
       </c>
       <c r="C54" t="n">
-        <v>0.22763</v>
+        <v>0.227696</v>
       </c>
       <c r="D54" t="n">
-        <v>0.232501</v>
+        <v>0.232317</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.237877</v>
+        <v>0.237655</v>
       </c>
       <c r="C55" t="n">
-        <v>0.226455</v>
+        <v>0.226547</v>
       </c>
       <c r="D55" t="n">
-        <v>0.231243</v>
+        <v>0.231222</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.233151</v>
+        <v>0.233078</v>
       </c>
       <c r="C56" t="n">
-        <v>0.225364</v>
+        <v>0.225606</v>
       </c>
       <c r="D56" t="n">
-        <v>0.230233</v>
+        <v>0.229909</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.22813</v>
+        <v>0.228141</v>
       </c>
       <c r="C57" t="n">
-        <v>0.224337</v>
+        <v>0.224486</v>
       </c>
       <c r="D57" t="n">
-        <v>0.229356</v>
+        <v>0.228976</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.222493</v>
+        <v>0.222483</v>
       </c>
       <c r="C58" t="n">
-        <v>0.223355</v>
+        <v>0.223309</v>
       </c>
       <c r="D58" t="n">
-        <v>0.228068</v>
+        <v>0.22784</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.217136</v>
+        <v>0.217109</v>
       </c>
       <c r="C59" t="n">
-        <v>0.222282</v>
+        <v>0.222292</v>
       </c>
       <c r="D59" t="n">
-        <v>0.227264</v>
+        <v>0.226995</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.211411</v>
+        <v>0.211321</v>
       </c>
       <c r="C60" t="n">
-        <v>0.221249</v>
+        <v>0.221338</v>
       </c>
       <c r="D60" t="n">
-        <v>0.226239</v>
+        <v>0.22603</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.205117</v>
+        <v>0.205063</v>
       </c>
       <c r="C61" t="n">
-        <v>0.220513</v>
+        <v>0.220352</v>
       </c>
       <c r="D61" t="n">
-        <v>0.225504</v>
+        <v>0.225249</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.199168</v>
+        <v>0.199036</v>
       </c>
       <c r="C62" t="n">
-        <v>0.219597</v>
+        <v>0.219517</v>
       </c>
       <c r="D62" t="n">
-        <v>0.224673</v>
+        <v>0.224202</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.192464</v>
+        <v>0.192298</v>
       </c>
       <c r="C63" t="n">
-        <v>0.218922</v>
+        <v>0.218842</v>
       </c>
       <c r="D63" t="n">
-        <v>0.223594</v>
+        <v>0.223413</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.185157</v>
+        <v>0.184878</v>
       </c>
       <c r="C64" t="n">
-        <v>0.218081</v>
+        <v>0.218103</v>
       </c>
       <c r="D64" t="n">
-        <v>0.222997</v>
+        <v>0.222669</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177027</v>
+        <v>0.177029</v>
       </c>
       <c r="C65" t="n">
-        <v>0.217334</v>
+        <v>0.217286</v>
       </c>
       <c r="D65" t="n">
-        <v>0.222225</v>
+        <v>0.222065</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.167111</v>
+        <v>0.166906</v>
       </c>
       <c r="C66" t="n">
-        <v>0.216576</v>
+        <v>0.216726</v>
       </c>
       <c r="D66" t="n">
-        <v>0.221645</v>
+        <v>0.221352</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.247886</v>
+        <v>0.252931</v>
       </c>
       <c r="C67" t="n">
-        <v>0.233999</v>
+        <v>0.232822</v>
       </c>
       <c r="D67" t="n">
-        <v>0.239</v>
+        <v>0.23748</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.244679</v>
+        <v>0.245948</v>
       </c>
       <c r="C68" t="n">
-        <v>0.231413</v>
+        <v>0.230596</v>
       </c>
       <c r="D68" t="n">
-        <v>0.236561</v>
+        <v>0.23581</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.240422</v>
+        <v>0.241244</v>
       </c>
       <c r="C69" t="n">
-        <v>0.22951</v>
+        <v>0.228997</v>
       </c>
       <c r="D69" t="n">
-        <v>0.234249</v>
+        <v>0.233786</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.235414</v>
+        <v>0.236112</v>
       </c>
       <c r="C70" t="n">
-        <v>0.227471</v>
+        <v>0.227205</v>
       </c>
       <c r="D70" t="n">
-        <v>0.23221</v>
+        <v>0.231565</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.230355</v>
+        <v>0.230582</v>
       </c>
       <c r="C71" t="n">
-        <v>0.225681</v>
+        <v>0.225776</v>
       </c>
       <c r="D71" t="n">
-        <v>0.230705</v>
+        <v>0.230225</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.225022</v>
+        <v>0.225175</v>
       </c>
       <c r="C72" t="n">
-        <v>0.224216</v>
+        <v>0.224183</v>
       </c>
       <c r="D72" t="n">
-        <v>0.228956</v>
+        <v>0.228697</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.219479</v>
+        <v>0.219369</v>
       </c>
       <c r="C73" t="n">
-        <v>0.222964</v>
+        <v>0.222934</v>
       </c>
       <c r="D73" t="n">
-        <v>0.228031</v>
+        <v>0.22762</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.213537</v>
+        <v>0.213304</v>
       </c>
       <c r="C74" t="n">
-        <v>0.222072</v>
+        <v>0.221938</v>
       </c>
       <c r="D74" t="n">
-        <v>0.227011</v>
+        <v>0.22664</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.207671</v>
+        <v>0.20769</v>
       </c>
       <c r="C75" t="n">
-        <v>0.221185</v>
+        <v>0.221073</v>
       </c>
       <c r="D75" t="n">
-        <v>0.225697</v>
+        <v>0.225515</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.20167</v>
+        <v>0.201356</v>
       </c>
       <c r="C76" t="n">
-        <v>0.22019</v>
+        <v>0.220296</v>
       </c>
       <c r="D76" t="n">
-        <v>0.22486</v>
+        <v>0.224634</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.194772</v>
+        <v>0.194753</v>
       </c>
       <c r="C77" t="n">
-        <v>0.219362</v>
+        <v>0.219439</v>
       </c>
       <c r="D77" t="n">
-        <v>0.223951</v>
+        <v>0.223739</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.187698</v>
+        <v>0.187749</v>
       </c>
       <c r="C78" t="n">
-        <v>0.218578</v>
+        <v>0.218775</v>
       </c>
       <c r="D78" t="n">
-        <v>0.223167</v>
+        <v>0.222915</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179764</v>
+        <v>0.179919</v>
       </c>
       <c r="C79" t="n">
-        <v>0.217791</v>
+        <v>0.21795</v>
       </c>
       <c r="D79" t="n">
-        <v>0.222476</v>
+        <v>0.222239</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.170136</v>
+        <v>0.170438</v>
       </c>
       <c r="C80" t="n">
-        <v>0.217093</v>
+        <v>0.217096</v>
       </c>
       <c r="D80" t="n">
-        <v>0.221602</v>
+        <v>0.221492</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.24963</v>
+        <v>0.249107</v>
       </c>
       <c r="C81" t="n">
-        <v>0.237987</v>
+        <v>0.238797</v>
       </c>
       <c r="D81" t="n">
-        <v>0.243149</v>
+        <v>0.243249</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.24558</v>
+        <v>0.245395</v>
       </c>
       <c r="C82" t="n">
-        <v>0.233445</v>
+        <v>0.233786</v>
       </c>
       <c r="D82" t="n">
-        <v>0.237572</v>
+        <v>0.237918</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.241394</v>
+        <v>0.241283</v>
       </c>
       <c r="C83" t="n">
-        <v>0.229599</v>
+        <v>0.229601</v>
       </c>
       <c r="D83" t="n">
-        <v>0.234412</v>
+        <v>0.234458</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.237055</v>
+        <v>0.236431</v>
       </c>
       <c r="C84" t="n">
-        <v>0.227501</v>
+        <v>0.22731</v>
       </c>
       <c r="D84" t="n">
-        <v>0.232034</v>
+        <v>0.231812</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.231838</v>
+        <v>0.231672</v>
       </c>
       <c r="C85" t="n">
-        <v>0.225655</v>
+        <v>0.225868</v>
       </c>
       <c r="D85" t="n">
-        <v>0.230399</v>
+        <v>0.230394</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.226759</v>
+        <v>0.226192</v>
       </c>
       <c r="C86" t="n">
-        <v>0.224493</v>
+        <v>0.22469</v>
       </c>
       <c r="D86" t="n">
-        <v>0.229261</v>
+        <v>0.229165</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.220975</v>
+        <v>0.22072</v>
       </c>
       <c r="C87" t="n">
-        <v>0.223467</v>
+        <v>0.223489</v>
       </c>
       <c r="D87" t="n">
-        <v>0.228161</v>
+        <v>0.227982</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.215068</v>
+        <v>0.214902</v>
       </c>
       <c r="C88" t="n">
-        <v>0.22255</v>
+        <v>0.222552</v>
       </c>
       <c r="D88" t="n">
-        <v>0.227144</v>
+        <v>0.226948</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.209216</v>
+        <v>0.209013</v>
       </c>
       <c r="C89" t="n">
-        <v>0.221459</v>
+        <v>0.221456</v>
       </c>
       <c r="D89" t="n">
-        <v>0.226158</v>
+        <v>0.225939</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.203151</v>
+        <v>0.202982</v>
       </c>
       <c r="C90" t="n">
-        <v>0.220538</v>
+        <v>0.220648</v>
       </c>
       <c r="D90" t="n">
-        <v>0.225132</v>
+        <v>0.224975</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.196542</v>
+        <v>0.196778</v>
       </c>
       <c r="C91" t="n">
-        <v>0.219712</v>
+        <v>0.21981</v>
       </c>
       <c r="D91" t="n">
-        <v>0.22435</v>
+        <v>0.224095</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.189365</v>
+        <v>0.189714</v>
       </c>
       <c r="C92" t="n">
-        <v>0.218755</v>
+        <v>0.218905</v>
       </c>
       <c r="D92" t="n">
-        <v>0.223555</v>
+        <v>0.22333</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.181619</v>
+        <v>0.181459</v>
       </c>
       <c r="C93" t="n">
-        <v>0.218156</v>
+        <v>0.218256</v>
       </c>
       <c r="D93" t="n">
-        <v>0.222755</v>
+        <v>0.222627</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.172642</v>
+        <v>0.17215</v>
       </c>
       <c r="C94" t="n">
-        <v>0.217581</v>
+        <v>0.217666</v>
       </c>
       <c r="D94" t="n">
-        <v>0.222014</v>
+        <v>0.221833</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.250444</v>
+        <v>0.249871</v>
       </c>
       <c r="C95" t="n">
-        <v>0.235417</v>
+        <v>0.236299</v>
       </c>
       <c r="D95" t="n">
-        <v>0.239588</v>
+        <v>0.239803</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.246396</v>
+        <v>0.246293</v>
       </c>
       <c r="C96" t="n">
-        <v>0.232159</v>
+        <v>0.232726</v>
       </c>
       <c r="D96" t="n">
-        <v>0.236635</v>
+        <v>0.236736</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.242451</v>
+        <v>0.242075</v>
       </c>
       <c r="C97" t="n">
-        <v>0.229677</v>
+        <v>0.230279</v>
       </c>
       <c r="D97" t="n">
-        <v>0.234278</v>
+        <v>0.234453</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.238174</v>
+        <v>0.237671</v>
       </c>
       <c r="C98" t="n">
-        <v>0.22769</v>
+        <v>0.228179</v>
       </c>
       <c r="D98" t="n">
-        <v>0.232408</v>
+        <v>0.232639</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.233073</v>
+        <v>0.232767</v>
       </c>
       <c r="C99" t="n">
-        <v>0.226126</v>
+        <v>0.226457</v>
       </c>
       <c r="D99" t="n">
-        <v>0.230954</v>
+        <v>0.23095</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.227667</v>
+        <v>0.227512</v>
       </c>
       <c r="C100" t="n">
-        <v>0.224963</v>
+        <v>0.225225</v>
       </c>
       <c r="D100" t="n">
-        <v>0.229637</v>
+        <v>0.229559</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.223393</v>
+        <v>0.221967</v>
       </c>
       <c r="C101" t="n">
-        <v>0.223764</v>
+        <v>0.224034</v>
       </c>
       <c r="D101" t="n">
-        <v>0.228634</v>
+        <v>0.228417</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.216459</v>
+        <v>0.216172</v>
       </c>
       <c r="C102" t="n">
-        <v>0.222682</v>
+        <v>0.222838</v>
       </c>
       <c r="D102" t="n">
-        <v>0.227655</v>
+        <v>0.227249</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.210581</v>
+        <v>0.210362</v>
       </c>
       <c r="C103" t="n">
-        <v>0.221691</v>
+        <v>0.221814</v>
       </c>
       <c r="D103" t="n">
-        <v>0.226851</v>
+        <v>0.226321</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.204419</v>
+        <v>0.204204</v>
       </c>
       <c r="C104" t="n">
-        <v>0.220694</v>
+        <v>0.220916</v>
       </c>
       <c r="D104" t="n">
-        <v>0.225834</v>
+        <v>0.225397</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.198045</v>
+        <v>0.197855</v>
       </c>
       <c r="C105" t="n">
-        <v>0.219907</v>
+        <v>0.220109</v>
       </c>
       <c r="D105" t="n">
-        <v>0.224895</v>
+        <v>0.224509</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.190971</v>
+        <v>0.190951</v>
       </c>
       <c r="C106" t="n">
-        <v>0.219069</v>
+        <v>0.219342</v>
       </c>
       <c r="D106" t="n">
-        <v>0.224191</v>
+        <v>0.223718</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183631</v>
+        <v>0.183169</v>
       </c>
       <c r="C107" t="n">
-        <v>0.218225</v>
+        <v>0.218595</v>
       </c>
       <c r="D107" t="n">
-        <v>0.223415</v>
+        <v>0.222992</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.175429</v>
+        <v>0.174209</v>
       </c>
       <c r="C108" t="n">
-        <v>0.21762</v>
+        <v>0.21792</v>
       </c>
       <c r="D108" t="n">
-        <v>0.222759</v>
+        <v>0.222355</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.163947</v>
+        <v>0.163699</v>
       </c>
       <c r="C109" t="n">
-        <v>0.216896</v>
+        <v>0.217256</v>
       </c>
       <c r="D109" t="n">
-        <v>0.222166</v>
+        <v>0.221868</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.247751</v>
+        <v>0.247221</v>
       </c>
       <c r="C110" t="n">
-        <v>0.232862</v>
+        <v>0.233047</v>
       </c>
       <c r="D110" t="n">
-        <v>0.237304</v>
+        <v>0.237047</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.243717</v>
+        <v>0.243519</v>
       </c>
       <c r="C111" t="n">
-        <v>0.230092</v>
+        <v>0.230139</v>
       </c>
       <c r="D111" t="n">
-        <v>0.234732</v>
+        <v>0.234411</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.239264</v>
+        <v>0.238876</v>
       </c>
       <c r="C112" t="n">
-        <v>0.227936</v>
+        <v>0.228085</v>
       </c>
       <c r="D112" t="n">
-        <v>0.232853</v>
+        <v>0.232434</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.23427</v>
+        <v>0.23395</v>
       </c>
       <c r="C113" t="n">
-        <v>0.226397</v>
+        <v>0.226497</v>
       </c>
       <c r="D113" t="n">
-        <v>0.231189</v>
+        <v>0.230822</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.228966</v>
+        <v>0.22852</v>
       </c>
       <c r="C114" t="n">
-        <v>0.22496</v>
+        <v>0.225103</v>
       </c>
       <c r="D114" t="n">
-        <v>0.229827</v>
+        <v>0.229466</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.223378</v>
+        <v>0.223094</v>
       </c>
       <c r="C115" t="n">
-        <v>0.223858</v>
+        <v>0.223869</v>
       </c>
       <c r="D115" t="n">
-        <v>0.228772</v>
+        <v>0.228335</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.217654</v>
+        <v>0.217462</v>
       </c>
       <c r="C116" t="n">
-        <v>0.223222</v>
+        <v>0.223324</v>
       </c>
       <c r="D116" t="n">
-        <v>0.228199</v>
+        <v>0.227683</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.211668</v>
+        <v>0.211814</v>
       </c>
       <c r="C117" t="n">
-        <v>0.222195</v>
+        <v>0.222307</v>
       </c>
       <c r="D117" t="n">
-        <v>0.227176</v>
+        <v>0.226736</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.205658</v>
+        <v>0.20581</v>
       </c>
       <c r="C118" t="n">
-        <v>0.221292</v>
+        <v>0.221365</v>
       </c>
       <c r="D118" t="n">
-        <v>0.226363</v>
+        <v>0.225812</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.19933</v>
+        <v>0.199556</v>
       </c>
       <c r="C119" t="n">
-        <v>0.220411</v>
+        <v>0.220596</v>
       </c>
       <c r="D119" t="n">
-        <v>0.225471</v>
+        <v>0.224921</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.192426</v>
+        <v>0.192522</v>
       </c>
       <c r="C120" t="n">
-        <v>0.219599</v>
+        <v>0.219748</v>
       </c>
       <c r="D120" t="n">
-        <v>0.224578</v>
+        <v>0.224089</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.184856</v>
+        <v>0.184714</v>
       </c>
       <c r="C121" t="n">
-        <v>0.218839</v>
+        <v>0.219016</v>
       </c>
       <c r="D121" t="n">
-        <v>0.223884</v>
+        <v>0.223343</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.176242</v>
+        <v>0.175916</v>
       </c>
       <c r="C122" t="n">
-        <v>0.218111</v>
+        <v>0.218301</v>
       </c>
       <c r="D122" t="n">
-        <v>0.223125</v>
+        <v>0.222585</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.16601</v>
+        <v>0.165561</v>
       </c>
       <c r="C123" t="n">
-        <v>0.217366</v>
+        <v>0.217577</v>
       </c>
       <c r="D123" t="n">
-        <v>0.222505</v>
+        <v>0.222105</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.249151</v>
+        <v>0.249144</v>
       </c>
       <c r="C124" t="n">
-        <v>0.233206</v>
+        <v>0.233412</v>
       </c>
       <c r="D124" t="n">
-        <v>0.237658</v>
+        <v>0.237434</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.245371</v>
+        <v>0.245258</v>
       </c>
       <c r="C125" t="n">
-        <v>0.230216</v>
+        <v>0.230443</v>
       </c>
       <c r="D125" t="n">
-        <v>0.234932</v>
+        <v>0.234662</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.240931</v>
+        <v>0.239509</v>
       </c>
       <c r="C126" t="n">
-        <v>0.228135</v>
+        <v>0.228297</v>
       </c>
       <c r="D126" t="n">
-        <v>0.233018</v>
+        <v>0.232703</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.236224</v>
+        <v>0.235903</v>
       </c>
       <c r="C127" t="n">
-        <v>0.226453</v>
+        <v>0.226641</v>
       </c>
       <c r="D127" t="n">
-        <v>0.231363</v>
+        <v>0.231111</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.230995</v>
+        <v>0.229584</v>
       </c>
       <c r="C128" t="n">
-        <v>0.225157</v>
+        <v>0.225283</v>
       </c>
       <c r="D128" t="n">
-        <v>0.230065</v>
+        <v>0.22975</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.225497</v>
+        <v>0.225273</v>
       </c>
       <c r="C129" t="n">
-        <v>0.223981</v>
+        <v>0.224068</v>
       </c>
       <c r="D129" t="n">
-        <v>0.228877</v>
+        <v>0.228456</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.219977</v>
+        <v>0.219625</v>
       </c>
       <c r="C130" t="n">
-        <v>0.222928</v>
+        <v>0.223039</v>
       </c>
       <c r="D130" t="n">
-        <v>0.227899</v>
+        <v>0.227352</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.213971</v>
+        <v>0.212926</v>
       </c>
       <c r="C131" t="n">
-        <v>0.222003</v>
+        <v>0.22208</v>
       </c>
       <c r="D131" t="n">
-        <v>0.226988</v>
+        <v>0.226533</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.207887</v>
+        <v>0.207836</v>
       </c>
       <c r="C132" t="n">
-        <v>0.221062</v>
+        <v>0.221144</v>
       </c>
       <c r="D132" t="n">
-        <v>0.225869</v>
+        <v>0.225588</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.20159</v>
+        <v>0.201433</v>
       </c>
       <c r="C133" t="n">
-        <v>0.220177</v>
+        <v>0.220326</v>
       </c>
       <c r="D133" t="n">
-        <v>0.225227</v>
+        <v>0.224725</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.194675</v>
+        <v>0.194593</v>
       </c>
       <c r="C134" t="n">
-        <v>0.219393</v>
+        <v>0.219465</v>
       </c>
       <c r="D134" t="n">
-        <v>0.224458</v>
+        <v>0.223917</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.187255</v>
+        <v>0.187173</v>
       </c>
       <c r="C135" t="n">
-        <v>0.218631</v>
+        <v>0.218831</v>
       </c>
       <c r="D135" t="n">
-        <v>0.223666</v>
+        <v>0.223117</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.178444</v>
+        <v>0.178441</v>
       </c>
       <c r="C136" t="n">
-        <v>0.218296</v>
+        <v>0.218755</v>
       </c>
       <c r="D136" t="n">
-        <v>0.22331</v>
+        <v>0.22289</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.168467</v>
+        <v>0.168475</v>
       </c>
       <c r="C137" t="n">
-        <v>0.21757</v>
+        <v>0.217842</v>
       </c>
       <c r="D137" t="n">
-        <v>0.22264</v>
+        <v>0.222231</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.248765</v>
+        <v>0.248932</v>
       </c>
       <c r="C138" t="n">
-        <v>0.234662</v>
+        <v>0.234849</v>
       </c>
       <c r="D138" t="n">
-        <v>0.23893</v>
+        <v>0.238515</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.245457</v>
+        <v>0.245165</v>
       </c>
       <c r="C139" t="n">
-        <v>0.231514</v>
+        <v>0.231756</v>
       </c>
       <c r="D139" t="n">
-        <v>0.236157</v>
+        <v>0.235747</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.241171</v>
+        <v>0.240965</v>
       </c>
       <c r="C140" t="n">
-        <v>0.22903</v>
+        <v>0.229284</v>
       </c>
       <c r="D140" t="n">
-        <v>0.23378</v>
+        <v>0.233577</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.236966</v>
+        <v>0.236565</v>
       </c>
       <c r="C141" t="n">
-        <v>0.227346</v>
+        <v>0.227492</v>
       </c>
       <c r="D141" t="n">
-        <v>0.232034</v>
+        <v>0.231822</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.231267</v>
+        <v>0.23115</v>
       </c>
       <c r="C142" t="n">
-        <v>0.225856</v>
+        <v>0.226015</v>
       </c>
       <c r="D142" t="n">
-        <v>0.230611</v>
+        <v>0.230347</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.225821</v>
+        <v>0.225421</v>
       </c>
       <c r="C143" t="n">
-        <v>0.224657</v>
+        <v>0.224756</v>
       </c>
       <c r="D143" t="n">
-        <v>0.229567</v>
+        <v>0.229187</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.202676</v>
+        <v>0.192926</v>
       </c>
       <c r="C2" t="n">
-        <v>0.203335</v>
+        <v>0.206337</v>
       </c>
       <c r="D2" t="n">
-        <v>0.210823</v>
+        <v>0.214389</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.190146</v>
+        <v>0.186355</v>
       </c>
       <c r="C3" t="n">
-        <v>0.204782</v>
+        <v>0.205634</v>
       </c>
       <c r="D3" t="n">
-        <v>0.209685</v>
+        <v>0.213814</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.18522</v>
+        <v>0.183329</v>
       </c>
       <c r="C4" t="n">
-        <v>0.205236</v>
+        <v>0.20537</v>
       </c>
       <c r="D4" t="n">
-        <v>0.211747</v>
+        <v>0.214941</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.180056</v>
+        <v>0.17897</v>
       </c>
       <c r="C5" t="n">
-        <v>0.206062</v>
+        <v>0.206819</v>
       </c>
       <c r="D5" t="n">
-        <v>0.212332</v>
+        <v>0.214725</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.173352</v>
+        <v>0.171344</v>
       </c>
       <c r="C6" t="n">
-        <v>0.206761</v>
+        <v>0.205941</v>
       </c>
       <c r="D6" t="n">
-        <v>0.212973</v>
+        <v>0.214728</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.166647</v>
+        <v>0.166745</v>
       </c>
       <c r="C7" t="n">
-        <v>0.206663</v>
+        <v>0.205922</v>
       </c>
       <c r="D7" t="n">
-        <v>0.211622</v>
+        <v>0.214817</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.158391</v>
+        <v>0.15812</v>
       </c>
       <c r="C8" t="n">
-        <v>0.206825</v>
+        <v>0.206176</v>
       </c>
       <c r="D8" t="n">
-        <v>0.212782</v>
+        <v>0.215325</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.148015</v>
+        <v>0.14687</v>
       </c>
       <c r="C9" t="n">
-        <v>0.205562</v>
+        <v>0.205483</v>
       </c>
       <c r="D9" t="n">
-        <v>0.213445</v>
+        <v>0.215354</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.231712</v>
+        <v>0.23006</v>
       </c>
       <c r="C10" t="n">
-        <v>0.22423</v>
+        <v>0.223475</v>
       </c>
       <c r="D10" t="n">
-        <v>0.230234</v>
+        <v>0.231264</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.227575</v>
+        <v>0.226316</v>
       </c>
       <c r="C11" t="n">
-        <v>0.22297</v>
+        <v>0.222493</v>
       </c>
       <c r="D11" t="n">
-        <v>0.228943</v>
+        <v>0.230351</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.224603</v>
+        <v>0.225128</v>
       </c>
       <c r="C12" t="n">
-        <v>0.222919</v>
+        <v>0.222112</v>
       </c>
       <c r="D12" t="n">
-        <v>0.226085</v>
+        <v>0.229533</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.221529</v>
+        <v>0.220565</v>
       </c>
       <c r="C13" t="n">
-        <v>0.221182</v>
+        <v>0.2205</v>
       </c>
       <c r="D13" t="n">
-        <v>0.22612</v>
+        <v>0.228464</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.217966</v>
+        <v>0.216795</v>
       </c>
       <c r="C14" t="n">
-        <v>0.220597</v>
+        <v>0.220662</v>
       </c>
       <c r="D14" t="n">
-        <v>0.225336</v>
+        <v>0.22843</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.214802</v>
+        <v>0.213774</v>
       </c>
       <c r="C15" t="n">
-        <v>0.220506</v>
+        <v>0.219855</v>
       </c>
       <c r="D15" t="n">
-        <v>0.225216</v>
+        <v>0.227289</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.208892</v>
+        <v>0.209799</v>
       </c>
       <c r="C16" t="n">
-        <v>0.22043</v>
+        <v>0.219367</v>
       </c>
       <c r="D16" t="n">
-        <v>0.223817</v>
+        <v>0.226486</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.203879</v>
+        <v>0.205151</v>
       </c>
       <c r="C17" t="n">
-        <v>0.219463</v>
+        <v>0.218487</v>
       </c>
       <c r="D17" t="n">
-        <v>0.222857</v>
+        <v>0.226069</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.199669</v>
+        <v>0.200235</v>
       </c>
       <c r="C18" t="n">
-        <v>0.217506</v>
+        <v>0.217469</v>
       </c>
       <c r="D18" t="n">
-        <v>0.222148</v>
+        <v>0.225296</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.19513</v>
+        <v>0.195728</v>
       </c>
       <c r="C19" t="n">
-        <v>0.217142</v>
+        <v>0.21655</v>
       </c>
       <c r="D19" t="n">
-        <v>0.221349</v>
+        <v>0.22394</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.189195</v>
+        <v>0.188212</v>
       </c>
       <c r="C20" t="n">
-        <v>0.216424</v>
+        <v>0.216449</v>
       </c>
       <c r="D20" t="n">
-        <v>0.221024</v>
+        <v>0.223804</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.181053</v>
+        <v>0.180786</v>
       </c>
       <c r="C21" t="n">
-        <v>0.216016</v>
+        <v>0.215685</v>
       </c>
       <c r="D21" t="n">
-        <v>0.220427</v>
+        <v>0.223765</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.174548</v>
+        <v>0.173889</v>
       </c>
       <c r="C22" t="n">
-        <v>0.215708</v>
+        <v>0.215122</v>
       </c>
       <c r="D22" t="n">
-        <v>0.219939</v>
+        <v>0.223228</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.166756</v>
+        <v>0.166003</v>
       </c>
       <c r="C23" t="n">
-        <v>0.214697</v>
+        <v>0.214075</v>
       </c>
       <c r="D23" t="n">
-        <v>0.219468</v>
+        <v>0.222657</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.242668</v>
+        <v>0.240941</v>
       </c>
       <c r="C24" t="n">
-        <v>0.230325</v>
+        <v>0.228498</v>
       </c>
       <c r="D24" t="n">
-        <v>0.23399</v>
+        <v>0.235</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.238314</v>
+        <v>0.236453</v>
       </c>
       <c r="C25" t="n">
-        <v>0.229119</v>
+        <v>0.227154</v>
       </c>
       <c r="D25" t="n">
-        <v>0.232203</v>
+        <v>0.233755</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.234152</v>
+        <v>0.23356</v>
       </c>
       <c r="C26" t="n">
-        <v>0.225368</v>
+        <v>0.22588</v>
       </c>
       <c r="D26" t="n">
-        <v>0.230772</v>
+        <v>0.233104</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.229893</v>
+        <v>0.229788</v>
       </c>
       <c r="C27" t="n">
-        <v>0.224693</v>
+        <v>0.224937</v>
       </c>
       <c r="D27" t="n">
-        <v>0.229572</v>
+        <v>0.231689</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.225253</v>
+        <v>0.225405</v>
       </c>
       <c r="C28" t="n">
-        <v>0.223794</v>
+        <v>0.223961</v>
       </c>
       <c r="D28" t="n">
-        <v>0.228285</v>
+        <v>0.230814</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.220377</v>
+        <v>0.2203</v>
       </c>
       <c r="C29" t="n">
-        <v>0.222997</v>
+        <v>0.222958</v>
       </c>
       <c r="D29" t="n">
-        <v>0.227436</v>
+        <v>0.2298</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.215302</v>
+        <v>0.21528</v>
       </c>
       <c r="C30" t="n">
-        <v>0.221873</v>
+        <v>0.221822</v>
       </c>
       <c r="D30" t="n">
-        <v>0.226526</v>
+        <v>0.229008</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.210189</v>
+        <v>0.21058</v>
       </c>
       <c r="C31" t="n">
-        <v>0.220816</v>
+        <v>0.220389</v>
       </c>
       <c r="D31" t="n">
-        <v>0.225578</v>
+        <v>0.227928</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.205062</v>
+        <v>0.205712</v>
       </c>
       <c r="C32" t="n">
-        <v>0.219969</v>
+        <v>0.219538</v>
       </c>
       <c r="D32" t="n">
-        <v>0.224902</v>
+        <v>0.227174</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.198993</v>
+        <v>0.199694</v>
       </c>
       <c r="C33" t="n">
-        <v>0.219113</v>
+        <v>0.218742</v>
       </c>
       <c r="D33" t="n">
-        <v>0.223989</v>
+        <v>0.226341</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.193082</v>
+        <v>0.193659</v>
       </c>
       <c r="C34" t="n">
-        <v>0.218265</v>
+        <v>0.217979</v>
       </c>
       <c r="D34" t="n">
-        <v>0.223503</v>
+        <v>0.225737</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.186555</v>
+        <v>0.186519</v>
       </c>
       <c r="C35" t="n">
-        <v>0.217532</v>
+        <v>0.217073</v>
       </c>
       <c r="D35" t="n">
-        <v>0.222426</v>
+        <v>0.224911</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.179596</v>
+        <v>0.17903</v>
       </c>
       <c r="C36" t="n">
-        <v>0.216963</v>
+        <v>0.216298</v>
       </c>
       <c r="D36" t="n">
-        <v>0.22201</v>
+        <v>0.224251</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.171231</v>
+        <v>0.169939</v>
       </c>
       <c r="C37" t="n">
-        <v>0.216478</v>
+        <v>0.216009</v>
       </c>
       <c r="D37" t="n">
-        <v>0.221263</v>
+        <v>0.223324</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.247806</v>
+        <v>0.246882</v>
       </c>
       <c r="C38" t="n">
-        <v>0.230067</v>
+        <v>0.229867</v>
       </c>
       <c r="D38" t="n">
-        <v>0.234116</v>
+        <v>0.236778</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.244604</v>
+        <v>0.24327</v>
       </c>
       <c r="C39" t="n">
-        <v>0.228491</v>
+        <v>0.228433</v>
       </c>
       <c r="D39" t="n">
-        <v>0.232651</v>
+        <v>0.235249</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.239977</v>
+        <v>0.239262</v>
       </c>
       <c r="C40" t="n">
-        <v>0.226845</v>
+        <v>0.227017</v>
       </c>
       <c r="D40" t="n">
-        <v>0.231561</v>
+        <v>0.233832</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.235535</v>
+        <v>0.234675</v>
       </c>
       <c r="C41" t="n">
-        <v>0.226049</v>
+        <v>0.226166</v>
       </c>
       <c r="D41" t="n">
-        <v>0.230256</v>
+        <v>0.232824</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.230468</v>
+        <v>0.229886</v>
       </c>
       <c r="C42" t="n">
-        <v>0.224584</v>
+        <v>0.224741</v>
       </c>
       <c r="D42" t="n">
-        <v>0.22918</v>
+        <v>0.231713</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.225979</v>
+        <v>0.224868</v>
       </c>
       <c r="C43" t="n">
-        <v>0.223565</v>
+        <v>0.223697</v>
       </c>
       <c r="D43" t="n">
-        <v>0.228031</v>
+        <v>0.230408</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.220525</v>
+        <v>0.219465</v>
       </c>
       <c r="C44" t="n">
-        <v>0.222394</v>
+        <v>0.222733</v>
       </c>
       <c r="D44" t="n">
-        <v>0.227348</v>
+        <v>0.229479</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.214935</v>
+        <v>0.214557</v>
       </c>
       <c r="C45" t="n">
-        <v>0.221529</v>
+        <v>0.221749</v>
       </c>
       <c r="D45" t="n">
-        <v>0.226204</v>
+        <v>0.228481</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.209688</v>
+        <v>0.209125</v>
       </c>
       <c r="C46" t="n">
-        <v>0.220882</v>
+        <v>0.220758</v>
       </c>
       <c r="D46" t="n">
-        <v>0.225379</v>
+        <v>0.227592</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.20346</v>
+        <v>0.20288</v>
       </c>
       <c r="C47" t="n">
-        <v>0.219978</v>
+        <v>0.219938</v>
       </c>
       <c r="D47" t="n">
-        <v>0.224606</v>
+        <v>0.226649</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.196912</v>
+        <v>0.19695</v>
       </c>
       <c r="C48" t="n">
-        <v>0.21913</v>
+        <v>0.219215</v>
       </c>
       <c r="D48" t="n">
-        <v>0.223685</v>
+        <v>0.226012</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.189911</v>
+        <v>0.189758</v>
       </c>
       <c r="C49" t="n">
-        <v>0.218416</v>
+        <v>0.218228</v>
       </c>
       <c r="D49" t="n">
-        <v>0.223003</v>
+        <v>0.225316</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.182374</v>
+        <v>0.182697</v>
       </c>
       <c r="C50" t="n">
-        <v>0.217675</v>
+        <v>0.217468</v>
       </c>
       <c r="D50" t="n">
-        <v>0.222399</v>
+        <v>0.224449</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173452</v>
+        <v>0.173984</v>
       </c>
       <c r="C51" t="n">
-        <v>0.216857</v>
+        <v>0.216698</v>
       </c>
       <c r="D51" t="n">
-        <v>0.221607</v>
+        <v>0.223923</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.164222</v>
+        <v>0.164208</v>
       </c>
       <c r="C52" t="n">
-        <v>0.216426</v>
+        <v>0.215824</v>
       </c>
       <c r="D52" t="n">
-        <v>0.221063</v>
+        <v>0.223159</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.245907</v>
+        <v>0.246042</v>
       </c>
       <c r="C53" t="n">
-        <v>0.228964</v>
+        <v>0.229551</v>
       </c>
       <c r="D53" t="n">
-        <v>0.233642</v>
+        <v>0.235877</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.241723</v>
+        <v>0.241585</v>
       </c>
       <c r="C54" t="n">
-        <v>0.227696</v>
+        <v>0.228104</v>
       </c>
       <c r="D54" t="n">
-        <v>0.232317</v>
+        <v>0.234671</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.237655</v>
+        <v>0.237361</v>
       </c>
       <c r="C55" t="n">
-        <v>0.226547</v>
+        <v>0.226814</v>
       </c>
       <c r="D55" t="n">
-        <v>0.231222</v>
+        <v>0.233539</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.233078</v>
+        <v>0.232684</v>
       </c>
       <c r="C56" t="n">
-        <v>0.225606</v>
+        <v>0.225576</v>
       </c>
       <c r="D56" t="n">
-        <v>0.229909</v>
+        <v>0.232111</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.228141</v>
+        <v>0.227777</v>
       </c>
       <c r="C57" t="n">
-        <v>0.224486</v>
+        <v>0.224743</v>
       </c>
       <c r="D57" t="n">
-        <v>0.228976</v>
+        <v>0.231364</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.222483</v>
+        <v>0.222111</v>
       </c>
       <c r="C58" t="n">
-        <v>0.223309</v>
+        <v>0.223667</v>
       </c>
       <c r="D58" t="n">
-        <v>0.22784</v>
+        <v>0.230175</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.217109</v>
+        <v>0.216413</v>
       </c>
       <c r="C59" t="n">
-        <v>0.222292</v>
+        <v>0.222458</v>
       </c>
       <c r="D59" t="n">
-        <v>0.226995</v>
+        <v>0.229323</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.211321</v>
+        <v>0.210873</v>
       </c>
       <c r="C60" t="n">
-        <v>0.221338</v>
+        <v>0.221583</v>
       </c>
       <c r="D60" t="n">
-        <v>0.22603</v>
+        <v>0.228155</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.205063</v>
+        <v>0.204938</v>
       </c>
       <c r="C61" t="n">
-        <v>0.220352</v>
+        <v>0.220702</v>
       </c>
       <c r="D61" t="n">
-        <v>0.225249</v>
+        <v>0.227495</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.199036</v>
+        <v>0.198912</v>
       </c>
       <c r="C62" t="n">
-        <v>0.219517</v>
+        <v>0.219733</v>
       </c>
       <c r="D62" t="n">
-        <v>0.224202</v>
+        <v>0.226461</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.192298</v>
+        <v>0.192431</v>
       </c>
       <c r="C63" t="n">
-        <v>0.218842</v>
+        <v>0.219</v>
       </c>
       <c r="D63" t="n">
-        <v>0.223413</v>
+        <v>0.225675</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.184878</v>
+        <v>0.184978</v>
       </c>
       <c r="C64" t="n">
-        <v>0.218103</v>
+        <v>0.218116</v>
       </c>
       <c r="D64" t="n">
-        <v>0.222669</v>
+        <v>0.224827</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177029</v>
+        <v>0.176882</v>
       </c>
       <c r="C65" t="n">
-        <v>0.217286</v>
+        <v>0.217124</v>
       </c>
       <c r="D65" t="n">
-        <v>0.222065</v>
+        <v>0.22397</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.166906</v>
+        <v>0.167533</v>
       </c>
       <c r="C66" t="n">
-        <v>0.216726</v>
+        <v>0.216215</v>
       </c>
       <c r="D66" t="n">
-        <v>0.221352</v>
+        <v>0.22339</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.252931</v>
+        <v>0.249867</v>
       </c>
       <c r="C67" t="n">
-        <v>0.232822</v>
+        <v>0.253068</v>
       </c>
       <c r="D67" t="n">
-        <v>0.23748</v>
+        <v>0.259202</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.245948</v>
+        <v>0.245415</v>
       </c>
       <c r="C68" t="n">
-        <v>0.230596</v>
+        <v>0.246036</v>
       </c>
       <c r="D68" t="n">
-        <v>0.23581</v>
+        <v>0.252845</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.241244</v>
+        <v>0.240917</v>
       </c>
       <c r="C69" t="n">
-        <v>0.228997</v>
+        <v>0.239447</v>
       </c>
       <c r="D69" t="n">
-        <v>0.233786</v>
+        <v>0.245864</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.236112</v>
+        <v>0.235717</v>
       </c>
       <c r="C70" t="n">
-        <v>0.227205</v>
+        <v>0.233453</v>
       </c>
       <c r="D70" t="n">
-        <v>0.231565</v>
+        <v>0.239727</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.230582</v>
+        <v>0.230353</v>
       </c>
       <c r="C71" t="n">
-        <v>0.225776</v>
+        <v>0.22897</v>
       </c>
       <c r="D71" t="n">
-        <v>0.230225</v>
+        <v>0.235207</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.225175</v>
+        <v>0.224919</v>
       </c>
       <c r="C72" t="n">
-        <v>0.224183</v>
+        <v>0.226082</v>
       </c>
       <c r="D72" t="n">
-        <v>0.228697</v>
+        <v>0.232328</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.219369</v>
+        <v>0.219032</v>
       </c>
       <c r="C73" t="n">
-        <v>0.222934</v>
+        <v>0.224304</v>
       </c>
       <c r="D73" t="n">
-        <v>0.22762</v>
+        <v>0.230959</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.213304</v>
+        <v>0.213278</v>
       </c>
       <c r="C74" t="n">
-        <v>0.221938</v>
+        <v>0.223125</v>
       </c>
       <c r="D74" t="n">
-        <v>0.22664</v>
+        <v>0.229693</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.20769</v>
+        <v>0.207614</v>
       </c>
       <c r="C75" t="n">
-        <v>0.221073</v>
+        <v>0.221973</v>
       </c>
       <c r="D75" t="n">
-        <v>0.225515</v>
+        <v>0.228559</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.201356</v>
+        <v>0.201161</v>
       </c>
       <c r="C76" t="n">
-        <v>0.220296</v>
+        <v>0.220694</v>
       </c>
       <c r="D76" t="n">
-        <v>0.224634</v>
+        <v>0.227464</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.194753</v>
+        <v>0.195103</v>
       </c>
       <c r="C77" t="n">
-        <v>0.219439</v>
+        <v>0.219477</v>
       </c>
       <c r="D77" t="n">
-        <v>0.223739</v>
+        <v>0.226252</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.187749</v>
+        <v>0.18764</v>
       </c>
       <c r="C78" t="n">
-        <v>0.218775</v>
+        <v>0.218469</v>
       </c>
       <c r="D78" t="n">
-        <v>0.222915</v>
+        <v>0.225225</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179919</v>
+        <v>0.179768</v>
       </c>
       <c r="C79" t="n">
-        <v>0.21795</v>
+        <v>0.21745</v>
       </c>
       <c r="D79" t="n">
-        <v>0.222239</v>
+        <v>0.224502</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.170438</v>
+        <v>0.169979</v>
       </c>
       <c r="C80" t="n">
-        <v>0.217096</v>
+        <v>0.216573</v>
       </c>
       <c r="D80" t="n">
-        <v>0.221492</v>
+        <v>0.223681</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.249107</v>
+        <v>0.248602</v>
       </c>
       <c r="C81" t="n">
-        <v>0.238797</v>
+        <v>0.241326</v>
       </c>
       <c r="D81" t="n">
-        <v>0.243249</v>
+        <v>0.247317</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.245395</v>
+        <v>0.244737</v>
       </c>
       <c r="C82" t="n">
-        <v>0.233786</v>
+        <v>0.235414</v>
       </c>
       <c r="D82" t="n">
-        <v>0.237918</v>
+        <v>0.241012</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.241283</v>
+        <v>0.240765</v>
       </c>
       <c r="C83" t="n">
-        <v>0.229601</v>
+        <v>0.231148</v>
       </c>
       <c r="D83" t="n">
-        <v>0.234458</v>
+        <v>0.237081</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.236431</v>
+        <v>0.236241</v>
       </c>
       <c r="C84" t="n">
-        <v>0.22731</v>
+        <v>0.228429</v>
       </c>
       <c r="D84" t="n">
-        <v>0.231812</v>
+        <v>0.234835</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.231672</v>
+        <v>0.231149</v>
       </c>
       <c r="C85" t="n">
-        <v>0.225868</v>
+        <v>0.226518</v>
       </c>
       <c r="D85" t="n">
-        <v>0.230394</v>
+        <v>0.23294</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.226192</v>
+        <v>0.225874</v>
       </c>
       <c r="C86" t="n">
-        <v>0.22469</v>
+        <v>0.22519</v>
       </c>
       <c r="D86" t="n">
-        <v>0.229165</v>
+        <v>0.231751</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.22072</v>
+        <v>0.22057</v>
       </c>
       <c r="C87" t="n">
-        <v>0.223489</v>
+        <v>0.22397</v>
       </c>
       <c r="D87" t="n">
-        <v>0.227982</v>
+        <v>0.230442</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.214902</v>
+        <v>0.214904</v>
       </c>
       <c r="C88" t="n">
-        <v>0.222552</v>
+        <v>0.222866</v>
       </c>
       <c r="D88" t="n">
-        <v>0.226948</v>
+        <v>0.229407</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.209013</v>
+        <v>0.209032</v>
       </c>
       <c r="C89" t="n">
-        <v>0.221456</v>
+        <v>0.221818</v>
       </c>
       <c r="D89" t="n">
-        <v>0.225939</v>
+        <v>0.228201</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.202982</v>
+        <v>0.202999</v>
       </c>
       <c r="C90" t="n">
-        <v>0.220648</v>
+        <v>0.220713</v>
       </c>
       <c r="D90" t="n">
-        <v>0.224975</v>
+        <v>0.227187</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.196778</v>
+        <v>0.196351</v>
       </c>
       <c r="C91" t="n">
-        <v>0.21981</v>
+        <v>0.219837</v>
       </c>
       <c r="D91" t="n">
-        <v>0.224095</v>
+        <v>0.226369</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.189714</v>
+        <v>0.189329</v>
       </c>
       <c r="C92" t="n">
-        <v>0.218905</v>
+        <v>0.218652</v>
       </c>
       <c r="D92" t="n">
-        <v>0.22333</v>
+        <v>0.225549</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.181459</v>
+        <v>0.181665</v>
       </c>
       <c r="C93" t="n">
-        <v>0.218256</v>
+        <v>0.217952</v>
       </c>
       <c r="D93" t="n">
-        <v>0.222627</v>
+        <v>0.224717</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.17215</v>
+        <v>0.172329</v>
       </c>
       <c r="C94" t="n">
-        <v>0.217666</v>
+        <v>0.217109</v>
       </c>
       <c r="D94" t="n">
-        <v>0.221833</v>
+        <v>0.224098</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.249871</v>
+        <v>0.249753</v>
       </c>
       <c r="C95" t="n">
-        <v>0.236299</v>
+        <v>0.236886</v>
       </c>
       <c r="D95" t="n">
-        <v>0.239803</v>
+        <v>0.241694</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.246293</v>
+        <v>0.24622</v>
       </c>
       <c r="C96" t="n">
-        <v>0.232726</v>
+        <v>0.232887</v>
       </c>
       <c r="D96" t="n">
-        <v>0.236736</v>
+        <v>0.238674</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.242075</v>
+        <v>0.24211</v>
       </c>
       <c r="C97" t="n">
-        <v>0.230279</v>
+        <v>0.230465</v>
       </c>
       <c r="D97" t="n">
-        <v>0.234453</v>
+        <v>0.236281</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.237671</v>
+        <v>0.237702</v>
       </c>
       <c r="C98" t="n">
-        <v>0.228179</v>
+        <v>0.228281</v>
       </c>
       <c r="D98" t="n">
-        <v>0.232639</v>
+        <v>0.23434</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.232767</v>
+        <v>0.232658</v>
       </c>
       <c r="C99" t="n">
-        <v>0.226457</v>
+        <v>0.226678</v>
       </c>
       <c r="D99" t="n">
-        <v>0.23095</v>
+        <v>0.233061</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.227512</v>
+        <v>0.227479</v>
       </c>
       <c r="C100" t="n">
-        <v>0.225225</v>
+        <v>0.225463</v>
       </c>
       <c r="D100" t="n">
-        <v>0.229559</v>
+        <v>0.23168</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.221967</v>
+        <v>0.221744</v>
       </c>
       <c r="C101" t="n">
-        <v>0.224034</v>
+        <v>0.224112</v>
       </c>
       <c r="D101" t="n">
-        <v>0.228417</v>
+        <v>0.230416</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.216172</v>
+        <v>0.216124</v>
       </c>
       <c r="C102" t="n">
-        <v>0.222838</v>
+        <v>0.223002</v>
       </c>
       <c r="D102" t="n">
-        <v>0.227249</v>
+        <v>0.229353</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.210362</v>
+        <v>0.210265</v>
       </c>
       <c r="C103" t="n">
-        <v>0.221814</v>
+        <v>0.221873</v>
       </c>
       <c r="D103" t="n">
-        <v>0.226321</v>
+        <v>0.22829</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.204204</v>
+        <v>0.204462</v>
       </c>
       <c r="C104" t="n">
-        <v>0.220916</v>
+        <v>0.220865</v>
       </c>
       <c r="D104" t="n">
-        <v>0.225397</v>
+        <v>0.227303</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.197855</v>
+        <v>0.19782</v>
       </c>
       <c r="C105" t="n">
-        <v>0.220109</v>
+        <v>0.219894</v>
       </c>
       <c r="D105" t="n">
-        <v>0.224509</v>
+        <v>0.226454</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.190951</v>
+        <v>0.190834</v>
       </c>
       <c r="C106" t="n">
-        <v>0.219342</v>
+        <v>0.219011</v>
       </c>
       <c r="D106" t="n">
-        <v>0.223718</v>
+        <v>0.225672</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183169</v>
+        <v>0.183219</v>
       </c>
       <c r="C107" t="n">
-        <v>0.218595</v>
+        <v>0.218054</v>
       </c>
       <c r="D107" t="n">
-        <v>0.222992</v>
+        <v>0.224885</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.174209</v>
+        <v>0.174133</v>
       </c>
       <c r="C108" t="n">
-        <v>0.21792</v>
+        <v>0.21722</v>
       </c>
       <c r="D108" t="n">
-        <v>0.222355</v>
+        <v>0.224316</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.163699</v>
+        <v>0.163945</v>
       </c>
       <c r="C109" t="n">
-        <v>0.217256</v>
+        <v>0.216333</v>
       </c>
       <c r="D109" t="n">
-        <v>0.221868</v>
+        <v>0.223914</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.247221</v>
+        <v>0.247239</v>
       </c>
       <c r="C110" t="n">
-        <v>0.233047</v>
+        <v>0.233567</v>
       </c>
       <c r="D110" t="n">
-        <v>0.237047</v>
+        <v>0.238933</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.243519</v>
+        <v>0.243271</v>
       </c>
       <c r="C111" t="n">
-        <v>0.230139</v>
+        <v>0.230606</v>
       </c>
       <c r="D111" t="n">
-        <v>0.234411</v>
+        <v>0.23639</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.238876</v>
+        <v>0.238799</v>
       </c>
       <c r="C112" t="n">
-        <v>0.228085</v>
+        <v>0.228474</v>
       </c>
       <c r="D112" t="n">
-        <v>0.232434</v>
+        <v>0.234569</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.23395</v>
+        <v>0.234033</v>
       </c>
       <c r="C113" t="n">
-        <v>0.226497</v>
+        <v>0.226916</v>
       </c>
       <c r="D113" t="n">
-        <v>0.230822</v>
+        <v>0.233051</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.22852</v>
+        <v>0.228828</v>
       </c>
       <c r="C114" t="n">
-        <v>0.225103</v>
+        <v>0.225473</v>
       </c>
       <c r="D114" t="n">
-        <v>0.229466</v>
+        <v>0.231684</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.223094</v>
+        <v>0.223286</v>
       </c>
       <c r="C115" t="n">
-        <v>0.223869</v>
+        <v>0.224264</v>
       </c>
       <c r="D115" t="n">
-        <v>0.228335</v>
+        <v>0.230613</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.217462</v>
+        <v>0.217698</v>
       </c>
       <c r="C116" t="n">
-        <v>0.223324</v>
+        <v>0.22321</v>
       </c>
       <c r="D116" t="n">
-        <v>0.227683</v>
+        <v>0.229972</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.211814</v>
+        <v>0.211924</v>
       </c>
       <c r="C117" t="n">
-        <v>0.222307</v>
+        <v>0.22252</v>
       </c>
       <c r="D117" t="n">
-        <v>0.226736</v>
+        <v>0.228908</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.20581</v>
+        <v>0.205767</v>
       </c>
       <c r="C118" t="n">
-        <v>0.221365</v>
+        <v>0.221531</v>
       </c>
       <c r="D118" t="n">
-        <v>0.225812</v>
+        <v>0.228004</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.199556</v>
+        <v>0.199611</v>
       </c>
       <c r="C119" t="n">
-        <v>0.220596</v>
+        <v>0.220604</v>
       </c>
       <c r="D119" t="n">
-        <v>0.224921</v>
+        <v>0.227083</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.192522</v>
+        <v>0.1928</v>
       </c>
       <c r="C120" t="n">
-        <v>0.219748</v>
+        <v>0.219646</v>
       </c>
       <c r="D120" t="n">
-        <v>0.224089</v>
+        <v>0.226253</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.184714</v>
+        <v>0.185251</v>
       </c>
       <c r="C121" t="n">
-        <v>0.219016</v>
+        <v>0.218803</v>
       </c>
       <c r="D121" t="n">
-        <v>0.223343</v>
+        <v>0.225477</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.175916</v>
+        <v>0.176661</v>
       </c>
       <c r="C122" t="n">
-        <v>0.218301</v>
+        <v>0.217874</v>
       </c>
       <c r="D122" t="n">
-        <v>0.222585</v>
+        <v>0.224816</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.165561</v>
+        <v>0.166012</v>
       </c>
       <c r="C123" t="n">
-        <v>0.217577</v>
+        <v>0.216931</v>
       </c>
       <c r="D123" t="n">
-        <v>0.222105</v>
+        <v>0.224336</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.249144</v>
+        <v>0.247888</v>
       </c>
       <c r="C124" t="n">
-        <v>0.233412</v>
+        <v>0.234175</v>
       </c>
       <c r="D124" t="n">
-        <v>0.237434</v>
+        <v>0.239578</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.245258</v>
+        <v>0.244364</v>
       </c>
       <c r="C125" t="n">
-        <v>0.230443</v>
+        <v>0.231137</v>
       </c>
       <c r="D125" t="n">
-        <v>0.234662</v>
+        <v>0.237009</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.239509</v>
+        <v>0.23961</v>
       </c>
       <c r="C126" t="n">
-        <v>0.228297</v>
+        <v>0.229009</v>
       </c>
       <c r="D126" t="n">
-        <v>0.232703</v>
+        <v>0.235042</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.235903</v>
+        <v>0.234661</v>
       </c>
       <c r="C127" t="n">
-        <v>0.226641</v>
+        <v>0.227249</v>
       </c>
       <c r="D127" t="n">
-        <v>0.231111</v>
+        <v>0.233422</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.229584</v>
+        <v>0.230966</v>
       </c>
       <c r="C128" t="n">
-        <v>0.225283</v>
+        <v>0.225839</v>
       </c>
       <c r="D128" t="n">
-        <v>0.22975</v>
+        <v>0.232112</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.225273</v>
+        <v>0.225502</v>
       </c>
       <c r="C129" t="n">
-        <v>0.224068</v>
+        <v>0.224601</v>
       </c>
       <c r="D129" t="n">
-        <v>0.228456</v>
+        <v>0.23087</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.219625</v>
+        <v>0.218444</v>
       </c>
       <c r="C130" t="n">
-        <v>0.223039</v>
+        <v>0.223466</v>
       </c>
       <c r="D130" t="n">
-        <v>0.227352</v>
+        <v>0.22975</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.212926</v>
+        <v>0.212826</v>
       </c>
       <c r="C131" t="n">
-        <v>0.22208</v>
+        <v>0.222505</v>
       </c>
       <c r="D131" t="n">
-        <v>0.226533</v>
+        <v>0.228838</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.207836</v>
+        <v>0.20756</v>
       </c>
       <c r="C132" t="n">
-        <v>0.221144</v>
+        <v>0.221436</v>
       </c>
       <c r="D132" t="n">
-        <v>0.225588</v>
+        <v>0.227849</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.201433</v>
+        <v>0.20147</v>
       </c>
       <c r="C133" t="n">
-        <v>0.220326</v>
+        <v>0.220451</v>
       </c>
       <c r="D133" t="n">
-        <v>0.224725</v>
+        <v>0.227004</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.194593</v>
+        <v>0.194514</v>
       </c>
       <c r="C134" t="n">
-        <v>0.219465</v>
+        <v>0.21956</v>
       </c>
       <c r="D134" t="n">
-        <v>0.223917</v>
+        <v>0.226149</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.187173</v>
+        <v>0.187209</v>
       </c>
       <c r="C135" t="n">
-        <v>0.218831</v>
+        <v>0.218641</v>
       </c>
       <c r="D135" t="n">
-        <v>0.223117</v>
+        <v>0.225388</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.178441</v>
+        <v>0.178615</v>
       </c>
       <c r="C136" t="n">
-        <v>0.218755</v>
+        <v>0.217822</v>
       </c>
       <c r="D136" t="n">
-        <v>0.22289</v>
+        <v>0.225009</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.168475</v>
+        <v>0.168494</v>
       </c>
       <c r="C137" t="n">
-        <v>0.217842</v>
+        <v>0.217246</v>
       </c>
       <c r="D137" t="n">
-        <v>0.222231</v>
+        <v>0.224543</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.248932</v>
+        <v>0.250113</v>
       </c>
       <c r="C138" t="n">
-        <v>0.234849</v>
+        <v>0.235609</v>
       </c>
       <c r="D138" t="n">
-        <v>0.238515</v>
+        <v>0.24086</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.245165</v>
+        <v>0.245024</v>
       </c>
       <c r="C139" t="n">
-        <v>0.231756</v>
+        <v>0.232377</v>
       </c>
       <c r="D139" t="n">
-        <v>0.235747</v>
+        <v>0.238062</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.240965</v>
+        <v>0.241047</v>
       </c>
       <c r="C140" t="n">
-        <v>0.229284</v>
+        <v>0.229807</v>
       </c>
       <c r="D140" t="n">
-        <v>0.233577</v>
+        <v>0.235765</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.236565</v>
+        <v>0.2359</v>
       </c>
       <c r="C141" t="n">
-        <v>0.227492</v>
+        <v>0.228058</v>
       </c>
       <c r="D141" t="n">
-        <v>0.231822</v>
+        <v>0.234093</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.23115</v>
+        <v>0.231076</v>
       </c>
       <c r="C142" t="n">
-        <v>0.226015</v>
+        <v>0.226448</v>
       </c>
       <c r="D142" t="n">
-        <v>0.230347</v>
+        <v>0.232598</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.225421</v>
+        <v>0.22539</v>
       </c>
       <c r="C143" t="n">
-        <v>0.224756</v>
+        <v>0.225125</v>
       </c>
       <c r="D143" t="n">
-        <v>0.229187</v>
+        <v>0.231394</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.192926</v>
+        <v>0.193645</v>
       </c>
       <c r="C2" t="n">
-        <v>0.206337</v>
+        <v>0.205044</v>
       </c>
       <c r="D2" t="n">
-        <v>0.214389</v>
+        <v>0.210858</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.186355</v>
+        <v>0.187715</v>
       </c>
       <c r="C3" t="n">
-        <v>0.205634</v>
+        <v>0.205688</v>
       </c>
       <c r="D3" t="n">
-        <v>0.213814</v>
+        <v>0.212927</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.183329</v>
+        <v>0.181657</v>
       </c>
       <c r="C4" t="n">
-        <v>0.20537</v>
+        <v>0.204219</v>
       </c>
       <c r="D4" t="n">
-        <v>0.214941</v>
+        <v>0.212591</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.17897</v>
+        <v>0.177707</v>
       </c>
       <c r="C5" t="n">
-        <v>0.206819</v>
+        <v>0.206382</v>
       </c>
       <c r="D5" t="n">
-        <v>0.214725</v>
+        <v>0.212612</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.171344</v>
+        <v>0.170592</v>
       </c>
       <c r="C6" t="n">
-        <v>0.205941</v>
+        <v>0.206195</v>
       </c>
       <c r="D6" t="n">
-        <v>0.214728</v>
+        <v>0.212408</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.166745</v>
+        <v>0.164141</v>
       </c>
       <c r="C7" t="n">
-        <v>0.205922</v>
+        <v>0.206488</v>
       </c>
       <c r="D7" t="n">
-        <v>0.214817</v>
+        <v>0.213058</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.15812</v>
+        <v>0.15711</v>
       </c>
       <c r="C8" t="n">
-        <v>0.206176</v>
+        <v>0.206513</v>
       </c>
       <c r="D8" t="n">
-        <v>0.215325</v>
+        <v>0.212255</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.14687</v>
+        <v>0.14709</v>
       </c>
       <c r="C9" t="n">
-        <v>0.205483</v>
+        <v>0.206629</v>
       </c>
       <c r="D9" t="n">
-        <v>0.215354</v>
+        <v>0.229351</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.23006</v>
+        <v>0.231026</v>
       </c>
       <c r="C10" t="n">
-        <v>0.223475</v>
+        <v>0.225106</v>
       </c>
       <c r="D10" t="n">
-        <v>0.231264</v>
+        <v>0.227719</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.226316</v>
+        <v>0.228508</v>
       </c>
       <c r="C11" t="n">
-        <v>0.222493</v>
+        <v>0.222713</v>
       </c>
       <c r="D11" t="n">
-        <v>0.230351</v>
+        <v>0.227149</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.225128</v>
+        <v>0.225185</v>
       </c>
       <c r="C12" t="n">
-        <v>0.222112</v>
+        <v>0.221961</v>
       </c>
       <c r="D12" t="n">
-        <v>0.229533</v>
+        <v>0.226244</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.220565</v>
+        <v>0.222074</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2205</v>
+        <v>0.221635</v>
       </c>
       <c r="D13" t="n">
-        <v>0.228464</v>
+        <v>0.225373</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.216795</v>
+        <v>0.217584</v>
       </c>
       <c r="C14" t="n">
-        <v>0.220662</v>
+        <v>0.221011</v>
       </c>
       <c r="D14" t="n">
-        <v>0.22843</v>
+        <v>0.225114</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.213774</v>
+        <v>0.21436</v>
       </c>
       <c r="C15" t="n">
-        <v>0.219855</v>
+        <v>0.219799</v>
       </c>
       <c r="D15" t="n">
-        <v>0.227289</v>
+        <v>0.223977</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.209799</v>
+        <v>0.209521</v>
       </c>
       <c r="C16" t="n">
-        <v>0.219367</v>
+        <v>0.21935</v>
       </c>
       <c r="D16" t="n">
-        <v>0.226486</v>
+        <v>0.223596</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.205151</v>
+        <v>0.205602</v>
       </c>
       <c r="C17" t="n">
-        <v>0.218487</v>
+        <v>0.21908</v>
       </c>
       <c r="D17" t="n">
-        <v>0.226069</v>
+        <v>0.223518</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.200235</v>
+        <v>0.199226</v>
       </c>
       <c r="C18" t="n">
-        <v>0.217469</v>
+        <v>0.217904</v>
       </c>
       <c r="D18" t="n">
-        <v>0.225296</v>
+        <v>0.222442</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.195728</v>
+        <v>0.194298</v>
       </c>
       <c r="C19" t="n">
-        <v>0.21655</v>
+        <v>0.2171</v>
       </c>
       <c r="D19" t="n">
-        <v>0.22394</v>
+        <v>0.221731</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.188212</v>
+        <v>0.189814</v>
       </c>
       <c r="C20" t="n">
-        <v>0.216449</v>
+        <v>0.216411</v>
       </c>
       <c r="D20" t="n">
-        <v>0.223804</v>
+        <v>0.221607</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.180786</v>
+        <v>0.18163</v>
       </c>
       <c r="C21" t="n">
-        <v>0.215685</v>
+        <v>0.215925</v>
       </c>
       <c r="D21" t="n">
-        <v>0.223765</v>
+        <v>0.220715</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.173889</v>
+        <v>0.174021</v>
       </c>
       <c r="C22" t="n">
-        <v>0.215122</v>
+        <v>0.215259</v>
       </c>
       <c r="D22" t="n">
-        <v>0.223228</v>
+        <v>0.220237</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.166003</v>
+        <v>0.164771</v>
       </c>
       <c r="C23" t="n">
-        <v>0.214075</v>
+        <v>0.214502</v>
       </c>
       <c r="D23" t="n">
-        <v>0.222657</v>
+        <v>0.234176</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.240941</v>
+        <v>0.24127</v>
       </c>
       <c r="C24" t="n">
-        <v>0.228498</v>
+        <v>0.228054</v>
       </c>
       <c r="D24" t="n">
-        <v>0.235</v>
+        <v>0.232831</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.236453</v>
+        <v>0.237353</v>
       </c>
       <c r="C25" t="n">
-        <v>0.227154</v>
+        <v>0.226432</v>
       </c>
       <c r="D25" t="n">
-        <v>0.233755</v>
+        <v>0.231275</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.23356</v>
+        <v>0.234684</v>
       </c>
       <c r="C26" t="n">
-        <v>0.22588</v>
+        <v>0.225297</v>
       </c>
       <c r="D26" t="n">
-        <v>0.233104</v>
+        <v>0.23061</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.229788</v>
+        <v>0.229866</v>
       </c>
       <c r="C27" t="n">
-        <v>0.224937</v>
+        <v>0.224664</v>
       </c>
       <c r="D27" t="n">
-        <v>0.231689</v>
+        <v>0.229683</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.225405</v>
+        <v>0.225956</v>
       </c>
       <c r="C28" t="n">
-        <v>0.223961</v>
+        <v>0.223571</v>
       </c>
       <c r="D28" t="n">
-        <v>0.230814</v>
+        <v>0.228361</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.2203</v>
+        <v>0.221507</v>
       </c>
       <c r="C29" t="n">
-        <v>0.222958</v>
+        <v>0.222488</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2298</v>
+        <v>0.227598</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.21528</v>
+        <v>0.216439</v>
       </c>
       <c r="C30" t="n">
-        <v>0.221822</v>
+        <v>0.221614</v>
       </c>
       <c r="D30" t="n">
-        <v>0.229008</v>
+        <v>0.226791</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.21058</v>
+        <v>0.210449</v>
       </c>
       <c r="C31" t="n">
-        <v>0.220389</v>
+        <v>0.220644</v>
       </c>
       <c r="D31" t="n">
-        <v>0.227928</v>
+        <v>0.225911</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.205712</v>
+        <v>0.205002</v>
       </c>
       <c r="C32" t="n">
-        <v>0.219538</v>
+        <v>0.219798</v>
       </c>
       <c r="D32" t="n">
-        <v>0.227174</v>
+        <v>0.225233</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.199694</v>
+        <v>0.19871</v>
       </c>
       <c r="C33" t="n">
-        <v>0.218742</v>
+        <v>0.219399</v>
       </c>
       <c r="D33" t="n">
-        <v>0.226341</v>
+        <v>0.224012</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.193659</v>
+        <v>0.192943</v>
       </c>
       <c r="C34" t="n">
-        <v>0.217979</v>
+        <v>0.218792</v>
       </c>
       <c r="D34" t="n">
-        <v>0.225737</v>
+        <v>0.22362</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.186519</v>
+        <v>0.186956</v>
       </c>
       <c r="C35" t="n">
-        <v>0.217073</v>
+        <v>0.217674</v>
       </c>
       <c r="D35" t="n">
-        <v>0.224911</v>
+        <v>0.222838</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.17903</v>
+        <v>0.178962</v>
       </c>
       <c r="C36" t="n">
-        <v>0.216298</v>
+        <v>0.217077</v>
       </c>
       <c r="D36" t="n">
-        <v>0.224251</v>
+        <v>0.222244</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.169939</v>
+        <v>0.169571</v>
       </c>
       <c r="C37" t="n">
-        <v>0.216009</v>
+        <v>0.216458</v>
       </c>
       <c r="D37" t="n">
-        <v>0.223324</v>
+        <v>0.236006</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.246882</v>
+        <v>0.248086</v>
       </c>
       <c r="C38" t="n">
-        <v>0.229867</v>
+        <v>0.229746</v>
       </c>
       <c r="D38" t="n">
-        <v>0.236778</v>
+        <v>0.234111</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.24327</v>
+        <v>0.243986</v>
       </c>
       <c r="C39" t="n">
-        <v>0.228433</v>
+        <v>0.228075</v>
       </c>
       <c r="D39" t="n">
-        <v>0.235249</v>
+        <v>0.233008</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.239262</v>
+        <v>0.24052</v>
       </c>
       <c r="C40" t="n">
-        <v>0.227017</v>
+        <v>0.226607</v>
       </c>
       <c r="D40" t="n">
-        <v>0.233832</v>
+        <v>0.231994</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.234675</v>
+        <v>0.235455</v>
       </c>
       <c r="C41" t="n">
-        <v>0.226166</v>
+        <v>0.225711</v>
       </c>
       <c r="D41" t="n">
-        <v>0.232824</v>
+        <v>0.230812</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.229886</v>
+        <v>0.23071</v>
       </c>
       <c r="C42" t="n">
-        <v>0.224741</v>
+        <v>0.22454</v>
       </c>
       <c r="D42" t="n">
-        <v>0.231713</v>
+        <v>0.22968</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.224868</v>
+        <v>0.224758</v>
       </c>
       <c r="C43" t="n">
-        <v>0.223697</v>
+        <v>0.223556</v>
       </c>
       <c r="D43" t="n">
-        <v>0.230408</v>
+        <v>0.228508</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.219465</v>
+        <v>0.219844</v>
       </c>
       <c r="C44" t="n">
-        <v>0.222733</v>
+        <v>0.222608</v>
       </c>
       <c r="D44" t="n">
-        <v>0.229479</v>
+        <v>0.227498</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.214557</v>
+        <v>0.214431</v>
       </c>
       <c r="C45" t="n">
-        <v>0.221749</v>
+        <v>0.22158</v>
       </c>
       <c r="D45" t="n">
-        <v>0.228481</v>
+        <v>0.226378</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.209125</v>
+        <v>0.209115</v>
       </c>
       <c r="C46" t="n">
-        <v>0.220758</v>
+        <v>0.220752</v>
       </c>
       <c r="D46" t="n">
-        <v>0.227592</v>
+        <v>0.225506</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.20288</v>
+        <v>0.203009</v>
       </c>
       <c r="C47" t="n">
-        <v>0.219938</v>
+        <v>0.22003</v>
       </c>
       <c r="D47" t="n">
-        <v>0.226649</v>
+        <v>0.224695</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.19695</v>
+        <v>0.196649</v>
       </c>
       <c r="C48" t="n">
-        <v>0.219215</v>
+        <v>0.219252</v>
       </c>
       <c r="D48" t="n">
-        <v>0.226012</v>
+        <v>0.223887</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.189758</v>
+        <v>0.189943</v>
       </c>
       <c r="C49" t="n">
-        <v>0.218228</v>
+        <v>0.218506</v>
       </c>
       <c r="D49" t="n">
-        <v>0.225316</v>
+        <v>0.22325</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.182697</v>
+        <v>0.182462</v>
       </c>
       <c r="C50" t="n">
-        <v>0.217468</v>
+        <v>0.217726</v>
       </c>
       <c r="D50" t="n">
-        <v>0.224449</v>
+        <v>0.222524</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173984</v>
+        <v>0.174303</v>
       </c>
       <c r="C51" t="n">
-        <v>0.216698</v>
+        <v>0.216868</v>
       </c>
       <c r="D51" t="n">
-        <v>0.223923</v>
+        <v>0.237431</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.164208</v>
+        <v>0.16352</v>
       </c>
       <c r="C52" t="n">
-        <v>0.215824</v>
+        <v>0.216389</v>
       </c>
       <c r="D52" t="n">
-        <v>0.223159</v>
+        <v>0.235298</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.246042</v>
+        <v>0.24641</v>
       </c>
       <c r="C53" t="n">
-        <v>0.229551</v>
+        <v>0.229408</v>
       </c>
       <c r="D53" t="n">
-        <v>0.235877</v>
+        <v>0.233761</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.241585</v>
+        <v>0.242705</v>
       </c>
       <c r="C54" t="n">
-        <v>0.228104</v>
+        <v>0.227846</v>
       </c>
       <c r="D54" t="n">
-        <v>0.234671</v>
+        <v>0.232487</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.237361</v>
+        <v>0.237887</v>
       </c>
       <c r="C55" t="n">
-        <v>0.226814</v>
+        <v>0.226742</v>
       </c>
       <c r="D55" t="n">
-        <v>0.233539</v>
+        <v>0.231174</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.232684</v>
+        <v>0.233472</v>
       </c>
       <c r="C56" t="n">
-        <v>0.225576</v>
+        <v>0.225495</v>
       </c>
       <c r="D56" t="n">
-        <v>0.232111</v>
+        <v>0.23019</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.227777</v>
+        <v>0.228177</v>
       </c>
       <c r="C57" t="n">
-        <v>0.224743</v>
+        <v>0.224522</v>
       </c>
       <c r="D57" t="n">
-        <v>0.231364</v>
+        <v>0.228993</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.222111</v>
+        <v>0.223045</v>
       </c>
       <c r="C58" t="n">
-        <v>0.223667</v>
+        <v>0.223654</v>
       </c>
       <c r="D58" t="n">
-        <v>0.230175</v>
+        <v>0.227866</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.216413</v>
+        <v>0.217426</v>
       </c>
       <c r="C59" t="n">
-        <v>0.222458</v>
+        <v>0.222527</v>
       </c>
       <c r="D59" t="n">
-        <v>0.229323</v>
+        <v>0.226937</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.210873</v>
+        <v>0.21174</v>
       </c>
       <c r="C60" t="n">
-        <v>0.221583</v>
+        <v>0.22152</v>
       </c>
       <c r="D60" t="n">
-        <v>0.228155</v>
+        <v>0.226028</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.204938</v>
+        <v>0.205484</v>
       </c>
       <c r="C61" t="n">
-        <v>0.220702</v>
+        <v>0.220686</v>
       </c>
       <c r="D61" t="n">
-        <v>0.227495</v>
+        <v>0.225173</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.198912</v>
+        <v>0.199534</v>
       </c>
       <c r="C62" t="n">
-        <v>0.219733</v>
+        <v>0.219886</v>
       </c>
       <c r="D62" t="n">
-        <v>0.226461</v>
+        <v>0.22433</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.192431</v>
+        <v>0.192712</v>
       </c>
       <c r="C63" t="n">
-        <v>0.219</v>
+        <v>0.219161</v>
       </c>
       <c r="D63" t="n">
-        <v>0.225675</v>
+        <v>0.223518</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.184978</v>
+        <v>0.185659</v>
       </c>
       <c r="C64" t="n">
-        <v>0.218116</v>
+        <v>0.218284</v>
       </c>
       <c r="D64" t="n">
-        <v>0.224827</v>
+        <v>0.222703</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.176882</v>
+        <v>0.177198</v>
       </c>
       <c r="C65" t="n">
-        <v>0.217124</v>
+        <v>0.217527</v>
       </c>
       <c r="D65" t="n">
-        <v>0.22397</v>
+        <v>0.22196</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.167533</v>
+        <v>0.167111</v>
       </c>
       <c r="C66" t="n">
-        <v>0.216215</v>
+        <v>0.216938</v>
       </c>
       <c r="D66" t="n">
-        <v>0.22339</v>
+        <v>0.236151</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.249867</v>
+        <v>0.247736</v>
       </c>
       <c r="C67" t="n">
-        <v>0.253068</v>
+        <v>0.240684</v>
       </c>
       <c r="D67" t="n">
-        <v>0.259202</v>
+        <v>0.234455</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.245415</v>
+        <v>0.243691</v>
       </c>
       <c r="C68" t="n">
-        <v>0.246036</v>
+        <v>0.235974</v>
       </c>
       <c r="D68" t="n">
-        <v>0.252845</v>
+        <v>0.233254</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.240917</v>
+        <v>0.23948</v>
       </c>
       <c r="C69" t="n">
-        <v>0.239447</v>
+        <v>0.232888</v>
       </c>
       <c r="D69" t="n">
-        <v>0.245864</v>
+        <v>0.231937</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.235717</v>
+        <v>0.235049</v>
       </c>
       <c r="C70" t="n">
-        <v>0.233453</v>
+        <v>0.229749</v>
       </c>
       <c r="D70" t="n">
-        <v>0.239727</v>
+        <v>0.230755</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.230353</v>
+        <v>0.229887</v>
       </c>
       <c r="C71" t="n">
-        <v>0.22897</v>
+        <v>0.226986</v>
       </c>
       <c r="D71" t="n">
-        <v>0.235207</v>
+        <v>0.229628</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.224919</v>
+        <v>0.224836</v>
       </c>
       <c r="C72" t="n">
-        <v>0.226082</v>
+        <v>0.224685</v>
       </c>
       <c r="D72" t="n">
-        <v>0.232328</v>
+        <v>0.228495</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.219032</v>
+        <v>0.219391</v>
       </c>
       <c r="C73" t="n">
-        <v>0.224304</v>
+        <v>0.223189</v>
       </c>
       <c r="D73" t="n">
-        <v>0.230959</v>
+        <v>0.22752</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.213278</v>
+        <v>0.213419</v>
       </c>
       <c r="C74" t="n">
-        <v>0.223125</v>
+        <v>0.222182</v>
       </c>
       <c r="D74" t="n">
-        <v>0.229693</v>
+        <v>0.226531</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.207614</v>
+        <v>0.20738</v>
       </c>
       <c r="C75" t="n">
-        <v>0.221973</v>
+        <v>0.221309</v>
       </c>
       <c r="D75" t="n">
-        <v>0.228559</v>
+        <v>0.225661</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.201161</v>
+        <v>0.201358</v>
       </c>
       <c r="C76" t="n">
-        <v>0.220694</v>
+        <v>0.220431</v>
       </c>
       <c r="D76" t="n">
-        <v>0.227464</v>
+        <v>0.224848</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.195103</v>
+        <v>0.194773</v>
       </c>
       <c r="C77" t="n">
-        <v>0.219477</v>
+        <v>0.219513</v>
       </c>
       <c r="D77" t="n">
-        <v>0.226252</v>
+        <v>0.223992</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.18764</v>
+        <v>0.18789</v>
       </c>
       <c r="C78" t="n">
-        <v>0.218469</v>
+        <v>0.218815</v>
       </c>
       <c r="D78" t="n">
-        <v>0.225225</v>
+        <v>0.223296</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179768</v>
+        <v>0.179715</v>
       </c>
       <c r="C79" t="n">
-        <v>0.21745</v>
+        <v>0.217964</v>
       </c>
       <c r="D79" t="n">
-        <v>0.224502</v>
+        <v>0.222487</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.169979</v>
+        <v>0.169779</v>
       </c>
       <c r="C80" t="n">
-        <v>0.216573</v>
+        <v>0.216996</v>
       </c>
       <c r="D80" t="n">
-        <v>0.223681</v>
+        <v>0.239777</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.248602</v>
+        <v>0.251745</v>
       </c>
       <c r="C81" t="n">
-        <v>0.241326</v>
+        <v>0.239847</v>
       </c>
       <c r="D81" t="n">
-        <v>0.247317</v>
+        <v>0.236809</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.244737</v>
+        <v>0.247637</v>
       </c>
       <c r="C82" t="n">
-        <v>0.235414</v>
+        <v>0.234998</v>
       </c>
       <c r="D82" t="n">
-        <v>0.241012</v>
+        <v>0.234703</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.240765</v>
+        <v>0.242804</v>
       </c>
       <c r="C83" t="n">
-        <v>0.231148</v>
+        <v>0.230741</v>
       </c>
       <c r="D83" t="n">
-        <v>0.237081</v>
+        <v>0.233106</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.236241</v>
+        <v>0.237561</v>
       </c>
       <c r="C84" t="n">
-        <v>0.228429</v>
+        <v>0.228256</v>
       </c>
       <c r="D84" t="n">
-        <v>0.234835</v>
+        <v>0.231964</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.231149</v>
+        <v>0.232221</v>
       </c>
       <c r="C85" t="n">
-        <v>0.226518</v>
+        <v>0.226562</v>
       </c>
       <c r="D85" t="n">
-        <v>0.23294</v>
+        <v>0.230527</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.225874</v>
+        <v>0.226528</v>
       </c>
       <c r="C86" t="n">
-        <v>0.22519</v>
+        <v>0.22529</v>
       </c>
       <c r="D86" t="n">
-        <v>0.231751</v>
+        <v>0.229323</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.22057</v>
+        <v>0.220926</v>
       </c>
       <c r="C87" t="n">
-        <v>0.22397</v>
+        <v>0.224286</v>
       </c>
       <c r="D87" t="n">
-        <v>0.230442</v>
+        <v>0.228105</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.214904</v>
+        <v>0.215398</v>
       </c>
       <c r="C88" t="n">
-        <v>0.222866</v>
+        <v>0.223005</v>
       </c>
       <c r="D88" t="n">
-        <v>0.229407</v>
+        <v>0.226996</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.209032</v>
+        <v>0.209606</v>
       </c>
       <c r="C89" t="n">
-        <v>0.221818</v>
+        <v>0.221955</v>
       </c>
       <c r="D89" t="n">
-        <v>0.228201</v>
+        <v>0.226073</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.202999</v>
+        <v>0.203291</v>
       </c>
       <c r="C90" t="n">
-        <v>0.220713</v>
+        <v>0.220946</v>
       </c>
       <c r="D90" t="n">
-        <v>0.227187</v>
+        <v>0.225196</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.196351</v>
+        <v>0.196634</v>
       </c>
       <c r="C91" t="n">
-        <v>0.219837</v>
+        <v>0.220121</v>
       </c>
       <c r="D91" t="n">
-        <v>0.226369</v>
+        <v>0.224324</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.189329</v>
+        <v>0.189679</v>
       </c>
       <c r="C92" t="n">
-        <v>0.218652</v>
+        <v>0.218963</v>
       </c>
       <c r="D92" t="n">
-        <v>0.225549</v>
+        <v>0.223508</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.181665</v>
+        <v>0.181638</v>
       </c>
       <c r="C93" t="n">
-        <v>0.217952</v>
+        <v>0.218262</v>
       </c>
       <c r="D93" t="n">
-        <v>0.224717</v>
+        <v>0.222897</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.172329</v>
+        <v>0.172537</v>
       </c>
       <c r="C94" t="n">
-        <v>0.217109</v>
+        <v>0.217359</v>
       </c>
       <c r="D94" t="n">
-        <v>0.224098</v>
+        <v>0.239567</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.249753</v>
+        <v>0.249532</v>
       </c>
       <c r="C95" t="n">
-        <v>0.236886</v>
+        <v>0.235577</v>
       </c>
       <c r="D95" t="n">
-        <v>0.241694</v>
+        <v>0.237153</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.24622</v>
+        <v>0.246034</v>
       </c>
       <c r="C96" t="n">
-        <v>0.232887</v>
+        <v>0.232322</v>
       </c>
       <c r="D96" t="n">
-        <v>0.238674</v>
+        <v>0.235469</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.24211</v>
+        <v>0.241855</v>
       </c>
       <c r="C97" t="n">
-        <v>0.230465</v>
+        <v>0.230146</v>
       </c>
       <c r="D97" t="n">
-        <v>0.236281</v>
+        <v>0.234265</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.237702</v>
+        <v>0.237386</v>
       </c>
       <c r="C98" t="n">
-        <v>0.228281</v>
+        <v>0.228072</v>
       </c>
       <c r="D98" t="n">
-        <v>0.23434</v>
+        <v>0.232815</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.232658</v>
+        <v>0.232468</v>
       </c>
       <c r="C99" t="n">
-        <v>0.226678</v>
+        <v>0.226739</v>
       </c>
       <c r="D99" t="n">
-        <v>0.233061</v>
+        <v>0.231576</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.227479</v>
+        <v>0.227261</v>
       </c>
       <c r="C100" t="n">
-        <v>0.225463</v>
+        <v>0.22551</v>
       </c>
       <c r="D100" t="n">
-        <v>0.23168</v>
+        <v>0.229872</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.221744</v>
+        <v>0.221601</v>
       </c>
       <c r="C101" t="n">
-        <v>0.224112</v>
+        <v>0.224301</v>
       </c>
       <c r="D101" t="n">
-        <v>0.230416</v>
+        <v>0.228879</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.216124</v>
+        <v>0.215978</v>
       </c>
       <c r="C102" t="n">
-        <v>0.223002</v>
+        <v>0.223208</v>
       </c>
       <c r="D102" t="n">
-        <v>0.229353</v>
+        <v>0.227809</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.210265</v>
+        <v>0.211352</v>
       </c>
       <c r="C103" t="n">
-        <v>0.221873</v>
+        <v>0.222028</v>
       </c>
       <c r="D103" t="n">
-        <v>0.22829</v>
+        <v>0.226802</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.204462</v>
+        <v>0.20515</v>
       </c>
       <c r="C104" t="n">
-        <v>0.220865</v>
+        <v>0.221096</v>
       </c>
       <c r="D104" t="n">
-        <v>0.227303</v>
+        <v>0.226055</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.19782</v>
+        <v>0.198669</v>
       </c>
       <c r="C105" t="n">
-        <v>0.219894</v>
+        <v>0.220253</v>
       </c>
       <c r="D105" t="n">
-        <v>0.226454</v>
+        <v>0.225176</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.190834</v>
+        <v>0.191513</v>
       </c>
       <c r="C106" t="n">
-        <v>0.219011</v>
+        <v>0.219388</v>
       </c>
       <c r="D106" t="n">
-        <v>0.225672</v>
+        <v>0.223883</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183219</v>
+        <v>0.183634</v>
       </c>
       <c r="C107" t="n">
-        <v>0.218054</v>
+        <v>0.218553</v>
       </c>
       <c r="D107" t="n">
-        <v>0.224885</v>
+        <v>0.223388</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.174133</v>
+        <v>0.174085</v>
       </c>
       <c r="C108" t="n">
-        <v>0.21722</v>
+        <v>0.217691</v>
       </c>
       <c r="D108" t="n">
-        <v>0.224316</v>
+        <v>0.239167</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.163945</v>
+        <v>0.16367</v>
       </c>
       <c r="C109" t="n">
-        <v>0.216333</v>
+        <v>0.216905</v>
       </c>
       <c r="D109" t="n">
-        <v>0.223914</v>
+        <v>0.236944</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.247239</v>
+        <v>0.247315</v>
       </c>
       <c r="C110" t="n">
-        <v>0.233567</v>
+        <v>0.232984</v>
       </c>
       <c r="D110" t="n">
-        <v>0.238933</v>
+        <v>0.235013</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.243271</v>
+        <v>0.243397</v>
       </c>
       <c r="C111" t="n">
-        <v>0.230606</v>
+        <v>0.230219</v>
       </c>
       <c r="D111" t="n">
-        <v>0.23639</v>
+        <v>0.233443</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.238799</v>
+        <v>0.238855</v>
       </c>
       <c r="C112" t="n">
-        <v>0.228474</v>
+        <v>0.228193</v>
       </c>
       <c r="D112" t="n">
-        <v>0.234569</v>
+        <v>0.232023</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.234033</v>
+        <v>0.233871</v>
       </c>
       <c r="C113" t="n">
-        <v>0.226916</v>
+        <v>0.226736</v>
       </c>
       <c r="D113" t="n">
-        <v>0.233051</v>
+        <v>0.230716</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.228828</v>
+        <v>0.228574</v>
       </c>
       <c r="C114" t="n">
-        <v>0.225473</v>
+        <v>0.225349</v>
       </c>
       <c r="D114" t="n">
-        <v>0.231684</v>
+        <v>0.229501</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.223286</v>
+        <v>0.223084</v>
       </c>
       <c r="C115" t="n">
-        <v>0.224264</v>
+        <v>0.224163</v>
       </c>
       <c r="D115" t="n">
-        <v>0.230613</v>
+        <v>0.228426</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.217698</v>
+        <v>0.21732</v>
       </c>
       <c r="C116" t="n">
-        <v>0.22321</v>
+        <v>0.223414</v>
       </c>
       <c r="D116" t="n">
-        <v>0.229972</v>
+        <v>0.227395</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.211924</v>
+        <v>0.211435</v>
       </c>
       <c r="C117" t="n">
-        <v>0.22252</v>
+        <v>0.222512</v>
       </c>
       <c r="D117" t="n">
-        <v>0.228908</v>
+        <v>0.226887</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.205767</v>
+        <v>0.205494</v>
       </c>
       <c r="C118" t="n">
-        <v>0.221531</v>
+        <v>0.221599</v>
       </c>
       <c r="D118" t="n">
-        <v>0.228004</v>
+        <v>0.225866</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.199611</v>
+        <v>0.199378</v>
       </c>
       <c r="C119" t="n">
-        <v>0.220604</v>
+        <v>0.220688</v>
       </c>
       <c r="D119" t="n">
-        <v>0.227083</v>
+        <v>0.225063</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.1928</v>
+        <v>0.192554</v>
       </c>
       <c r="C120" t="n">
-        <v>0.219646</v>
+        <v>0.219803</v>
       </c>
       <c r="D120" t="n">
-        <v>0.226253</v>
+        <v>0.224254</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.185251</v>
+        <v>0.184964</v>
       </c>
       <c r="C121" t="n">
-        <v>0.218803</v>
+        <v>0.218909</v>
       </c>
       <c r="D121" t="n">
-        <v>0.225477</v>
+        <v>0.22356</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.176661</v>
+        <v>0.17612</v>
       </c>
       <c r="C122" t="n">
-        <v>0.217874</v>
+        <v>0.218036</v>
       </c>
       <c r="D122" t="n">
-        <v>0.224816</v>
+        <v>0.222874</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.166012</v>
+        <v>0.165954</v>
       </c>
       <c r="C123" t="n">
-        <v>0.216931</v>
+        <v>0.217283</v>
       </c>
       <c r="D123" t="n">
-        <v>0.224336</v>
+        <v>0.237122</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.247888</v>
+        <v>0.248987</v>
       </c>
       <c r="C124" t="n">
-        <v>0.234175</v>
+        <v>0.233196</v>
       </c>
       <c r="D124" t="n">
-        <v>0.239578</v>
+        <v>0.23521</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.244364</v>
+        <v>0.245189</v>
       </c>
       <c r="C125" t="n">
-        <v>0.231137</v>
+        <v>0.230449</v>
       </c>
       <c r="D125" t="n">
-        <v>0.237009</v>
+        <v>0.233493</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.23961</v>
+        <v>0.240764</v>
       </c>
       <c r="C126" t="n">
-        <v>0.229009</v>
+        <v>0.22849</v>
       </c>
       <c r="D126" t="n">
-        <v>0.235042</v>
+        <v>0.231986</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.234661</v>
+        <v>0.235929</v>
       </c>
       <c r="C127" t="n">
-        <v>0.227249</v>
+        <v>0.226857</v>
       </c>
       <c r="D127" t="n">
-        <v>0.233422</v>
+        <v>0.230688</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.230966</v>
+        <v>0.230663</v>
       </c>
       <c r="C128" t="n">
-        <v>0.225839</v>
+        <v>0.22554</v>
       </c>
       <c r="D128" t="n">
-        <v>0.232112</v>
+        <v>0.22956</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.225502</v>
+        <v>0.225375</v>
       </c>
       <c r="C129" t="n">
-        <v>0.224601</v>
+        <v>0.224387</v>
       </c>
       <c r="D129" t="n">
-        <v>0.23087</v>
+        <v>0.228419</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.218444</v>
+        <v>0.219792</v>
       </c>
       <c r="C130" t="n">
-        <v>0.223466</v>
+        <v>0.223278</v>
       </c>
       <c r="D130" t="n">
-        <v>0.22975</v>
+        <v>0.227413</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.212826</v>
+        <v>0.213973</v>
       </c>
       <c r="C131" t="n">
-        <v>0.222505</v>
+        <v>0.222324</v>
       </c>
       <c r="D131" t="n">
-        <v>0.228838</v>
+        <v>0.226532</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.20756</v>
+        <v>0.207252</v>
       </c>
       <c r="C132" t="n">
-        <v>0.221436</v>
+        <v>0.221343</v>
       </c>
       <c r="D132" t="n">
-        <v>0.227849</v>
+        <v>0.225593</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.20147</v>
+        <v>0.201487</v>
       </c>
       <c r="C133" t="n">
-        <v>0.220451</v>
+        <v>0.22045</v>
       </c>
       <c r="D133" t="n">
-        <v>0.227004</v>
+        <v>0.224776</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.194514</v>
+        <v>0.194648</v>
       </c>
       <c r="C134" t="n">
-        <v>0.21956</v>
+        <v>0.219582</v>
       </c>
       <c r="D134" t="n">
-        <v>0.226149</v>
+        <v>0.224031</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.187209</v>
+        <v>0.187107</v>
       </c>
       <c r="C135" t="n">
-        <v>0.218641</v>
+        <v>0.21875</v>
       </c>
       <c r="D135" t="n">
-        <v>0.225388</v>
+        <v>0.22329</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.178615</v>
+        <v>0.178623</v>
       </c>
       <c r="C136" t="n">
-        <v>0.217822</v>
+        <v>0.217985</v>
       </c>
       <c r="D136" t="n">
-        <v>0.225009</v>
+        <v>0.222622</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.168494</v>
+        <v>0.168507</v>
       </c>
       <c r="C137" t="n">
-        <v>0.217246</v>
+        <v>0.217406</v>
       </c>
       <c r="D137" t="n">
-        <v>0.224543</v>
+        <v>0.238344</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.250113</v>
+        <v>0.249827</v>
       </c>
       <c r="C138" t="n">
-        <v>0.235609</v>
+        <v>0.234686</v>
       </c>
       <c r="D138" t="n">
-        <v>0.24086</v>
+        <v>0.236202</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.245024</v>
+        <v>0.24493</v>
       </c>
       <c r="C139" t="n">
-        <v>0.232377</v>
+        <v>0.231598</v>
       </c>
       <c r="D139" t="n">
-        <v>0.238062</v>
+        <v>0.234395</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.241047</v>
+        <v>0.240505</v>
       </c>
       <c r="C140" t="n">
-        <v>0.229807</v>
+        <v>0.229357</v>
       </c>
       <c r="D140" t="n">
-        <v>0.235765</v>
+        <v>0.232762</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.2359</v>
+        <v>0.236975</v>
       </c>
       <c r="C141" t="n">
-        <v>0.228058</v>
+        <v>0.227669</v>
       </c>
       <c r="D141" t="n">
-        <v>0.234093</v>
+        <v>0.231412</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.231076</v>
+        <v>0.230816</v>
       </c>
       <c r="C142" t="n">
-        <v>0.226448</v>
+        <v>0.226237</v>
       </c>
       <c r="D142" t="n">
-        <v>0.232598</v>
+        <v>0.230228</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.22539</v>
+        <v>0.225279</v>
       </c>
       <c r="C143" t="n">
-        <v>0.225125</v>
+        <v>0.224991</v>
       </c>
       <c r="D143" t="n">
-        <v>0.231394</v>
+        <v>0.229086</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.193645</v>
+        <v>0.182917</v>
       </c>
       <c r="C2" t="n">
-        <v>0.205044</v>
+        <v>0.205018</v>
       </c>
       <c r="D2" t="n">
-        <v>0.210858</v>
+        <v>0.20967</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.187715</v>
+        <v>0.176755</v>
       </c>
       <c r="C3" t="n">
-        <v>0.205688</v>
+        <v>0.205277</v>
       </c>
       <c r="D3" t="n">
-        <v>0.212927</v>
+        <v>0.208991</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.181657</v>
+        <v>0.173395</v>
       </c>
       <c r="C4" t="n">
-        <v>0.204219</v>
+        <v>0.204177</v>
       </c>
       <c r="D4" t="n">
-        <v>0.212591</v>
+        <v>0.211344</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.177707</v>
+        <v>0.170622</v>
       </c>
       <c r="C5" t="n">
-        <v>0.206382</v>
+        <v>0.205686</v>
       </c>
       <c r="D5" t="n">
-        <v>0.212612</v>
+        <v>0.212241</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.170592</v>
+        <v>0.166994</v>
       </c>
       <c r="C6" t="n">
-        <v>0.206195</v>
+        <v>0.20449</v>
       </c>
       <c r="D6" t="n">
-        <v>0.212408</v>
+        <v>0.212905</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.164141</v>
+        <v>0.160905</v>
       </c>
       <c r="C7" t="n">
-        <v>0.206488</v>
+        <v>0.204957</v>
       </c>
       <c r="D7" t="n">
-        <v>0.213058</v>
+        <v>0.212131</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.15711</v>
+        <v>0.154079</v>
       </c>
       <c r="C8" t="n">
-        <v>0.206513</v>
+        <v>0.206284</v>
       </c>
       <c r="D8" t="n">
-        <v>0.212255</v>
+        <v>0.213061</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.14709</v>
+        <v>0.145801</v>
       </c>
       <c r="C9" t="n">
-        <v>0.206629</v>
+        <v>0.205141</v>
       </c>
       <c r="D9" t="n">
-        <v>0.229351</v>
+        <v>0.228612</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.231026</v>
+        <v>0.228254</v>
       </c>
       <c r="C10" t="n">
-        <v>0.225106</v>
+        <v>0.224175</v>
       </c>
       <c r="D10" t="n">
-        <v>0.227719</v>
+        <v>0.227342</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.228508</v>
+        <v>0.223364</v>
       </c>
       <c r="C11" t="n">
-        <v>0.222713</v>
+        <v>0.222396</v>
       </c>
       <c r="D11" t="n">
-        <v>0.227149</v>
+        <v>0.227338</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.225185</v>
+        <v>0.221355</v>
       </c>
       <c r="C12" t="n">
-        <v>0.221961</v>
+        <v>0.222018</v>
       </c>
       <c r="D12" t="n">
-        <v>0.226244</v>
+        <v>0.226233</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.222074</v>
+        <v>0.218332</v>
       </c>
       <c r="C13" t="n">
-        <v>0.221635</v>
+        <v>0.220972</v>
       </c>
       <c r="D13" t="n">
-        <v>0.225373</v>
+        <v>0.225461</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.217584</v>
+        <v>0.21632</v>
       </c>
       <c r="C14" t="n">
-        <v>0.221011</v>
+        <v>0.220182</v>
       </c>
       <c r="D14" t="n">
-        <v>0.225114</v>
+        <v>0.22553</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.21436</v>
+        <v>0.212</v>
       </c>
       <c r="C15" t="n">
-        <v>0.219799</v>
+        <v>0.219459</v>
       </c>
       <c r="D15" t="n">
-        <v>0.223977</v>
+        <v>0.224445</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.209521</v>
+        <v>0.206281</v>
       </c>
       <c r="C16" t="n">
-        <v>0.21935</v>
+        <v>0.219324</v>
       </c>
       <c r="D16" t="n">
-        <v>0.223596</v>
+        <v>0.223406</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.205602</v>
+        <v>0.201498</v>
       </c>
       <c r="C17" t="n">
-        <v>0.21908</v>
+        <v>0.218695</v>
       </c>
       <c r="D17" t="n">
-        <v>0.223518</v>
+        <v>0.223184</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.199226</v>
+        <v>0.196849</v>
       </c>
       <c r="C18" t="n">
-        <v>0.217904</v>
+        <v>0.217368</v>
       </c>
       <c r="D18" t="n">
-        <v>0.222442</v>
+        <v>0.222464</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.194298</v>
+        <v>0.193307</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2171</v>
+        <v>0.216581</v>
       </c>
       <c r="D19" t="n">
-        <v>0.221731</v>
+        <v>0.221892</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.189814</v>
+        <v>0.186561</v>
       </c>
       <c r="C20" t="n">
-        <v>0.216411</v>
+        <v>0.216076</v>
       </c>
       <c r="D20" t="n">
-        <v>0.221607</v>
+        <v>0.221855</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.18163</v>
+        <v>0.179994</v>
       </c>
       <c r="C21" t="n">
-        <v>0.215925</v>
+        <v>0.215497</v>
       </c>
       <c r="D21" t="n">
-        <v>0.220715</v>
+        <v>0.22091</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.174021</v>
+        <v>0.173397</v>
       </c>
       <c r="C22" t="n">
-        <v>0.215259</v>
+        <v>0.215027</v>
       </c>
       <c r="D22" t="n">
-        <v>0.220237</v>
+        <v>0.220218</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.164771</v>
+        <v>0.162914</v>
       </c>
       <c r="C23" t="n">
-        <v>0.214502</v>
+        <v>0.213479</v>
       </c>
       <c r="D23" t="n">
-        <v>0.234176</v>
+        <v>0.23556</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.24127</v>
+        <v>0.240467</v>
       </c>
       <c r="C24" t="n">
-        <v>0.228054</v>
+        <v>0.228099</v>
       </c>
       <c r="D24" t="n">
-        <v>0.232831</v>
+        <v>0.232888</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.237353</v>
+        <v>0.237745</v>
       </c>
       <c r="C25" t="n">
-        <v>0.226432</v>
+        <v>0.226036</v>
       </c>
       <c r="D25" t="n">
-        <v>0.231275</v>
+        <v>0.231547</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.234684</v>
+        <v>0.234127</v>
       </c>
       <c r="C26" t="n">
-        <v>0.225297</v>
+        <v>0.225395</v>
       </c>
       <c r="D26" t="n">
-        <v>0.23061</v>
+        <v>0.230733</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.229866</v>
+        <v>0.230626</v>
       </c>
       <c r="C27" t="n">
-        <v>0.224664</v>
+        <v>0.224464</v>
       </c>
       <c r="D27" t="n">
-        <v>0.229683</v>
+        <v>0.22955</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.225956</v>
+        <v>0.226844</v>
       </c>
       <c r="C28" t="n">
-        <v>0.223571</v>
+        <v>0.223616</v>
       </c>
       <c r="D28" t="n">
-        <v>0.228361</v>
+        <v>0.228715</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.221507</v>
+        <v>0.221361</v>
       </c>
       <c r="C29" t="n">
-        <v>0.222488</v>
+        <v>0.22256</v>
       </c>
       <c r="D29" t="n">
-        <v>0.227598</v>
+        <v>0.227286</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.216439</v>
+        <v>0.215761</v>
       </c>
       <c r="C30" t="n">
-        <v>0.221614</v>
+        <v>0.221283</v>
       </c>
       <c r="D30" t="n">
-        <v>0.226791</v>
+        <v>0.226848</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.210449</v>
+        <v>0.211264</v>
       </c>
       <c r="C31" t="n">
-        <v>0.220644</v>
+        <v>0.220286</v>
       </c>
       <c r="D31" t="n">
-        <v>0.225911</v>
+        <v>0.225992</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.205002</v>
+        <v>0.205405</v>
       </c>
       <c r="C32" t="n">
-        <v>0.219798</v>
+        <v>0.219442</v>
       </c>
       <c r="D32" t="n">
-        <v>0.225233</v>
+        <v>0.225246</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.19871</v>
+        <v>0.199207</v>
       </c>
       <c r="C33" t="n">
-        <v>0.219399</v>
+        <v>0.218503</v>
       </c>
       <c r="D33" t="n">
-        <v>0.224012</v>
+        <v>0.224487</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.192943</v>
+        <v>0.192895</v>
       </c>
       <c r="C34" t="n">
-        <v>0.218792</v>
+        <v>0.218156</v>
       </c>
       <c r="D34" t="n">
-        <v>0.22362</v>
+        <v>0.223741</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.186956</v>
+        <v>0.18679</v>
       </c>
       <c r="C35" t="n">
-        <v>0.217674</v>
+        <v>0.217028</v>
       </c>
       <c r="D35" t="n">
-        <v>0.222838</v>
+        <v>0.222946</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.178962</v>
+        <v>0.178523</v>
       </c>
       <c r="C36" t="n">
-        <v>0.217077</v>
+        <v>0.216546</v>
       </c>
       <c r="D36" t="n">
-        <v>0.222244</v>
+        <v>0.222301</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.169571</v>
+        <v>0.1698</v>
       </c>
       <c r="C37" t="n">
-        <v>0.216458</v>
+        <v>0.216379</v>
       </c>
       <c r="D37" t="n">
-        <v>0.236006</v>
+        <v>0.235997</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.248086</v>
+        <v>0.245274</v>
       </c>
       <c r="C38" t="n">
-        <v>0.229746</v>
+        <v>0.230317</v>
       </c>
       <c r="D38" t="n">
-        <v>0.234111</v>
+        <v>0.234224</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.243986</v>
+        <v>0.242421</v>
       </c>
       <c r="C39" t="n">
-        <v>0.228075</v>
+        <v>0.228901</v>
       </c>
       <c r="D39" t="n">
-        <v>0.233008</v>
+        <v>0.233167</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.24052</v>
+        <v>0.238793</v>
       </c>
       <c r="C40" t="n">
-        <v>0.226607</v>
+        <v>0.226314</v>
       </c>
       <c r="D40" t="n">
-        <v>0.231994</v>
+        <v>0.231856</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.235455</v>
+        <v>0.234428</v>
       </c>
       <c r="C41" t="n">
-        <v>0.225711</v>
+        <v>0.225593</v>
       </c>
       <c r="D41" t="n">
-        <v>0.230812</v>
+        <v>0.230703</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.23071</v>
+        <v>0.230309</v>
       </c>
       <c r="C42" t="n">
-        <v>0.22454</v>
+        <v>0.224148</v>
       </c>
       <c r="D42" t="n">
-        <v>0.22968</v>
+        <v>0.229595</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.224758</v>
+        <v>0.225435</v>
       </c>
       <c r="C43" t="n">
-        <v>0.223556</v>
+        <v>0.224022</v>
       </c>
       <c r="D43" t="n">
-        <v>0.228508</v>
+        <v>0.228239</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.219844</v>
+        <v>0.22011</v>
       </c>
       <c r="C44" t="n">
-        <v>0.222608</v>
+        <v>0.222346</v>
       </c>
       <c r="D44" t="n">
-        <v>0.227498</v>
+        <v>0.227354</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.214431</v>
+        <v>0.214299</v>
       </c>
       <c r="C45" t="n">
-        <v>0.22158</v>
+        <v>0.221148</v>
       </c>
       <c r="D45" t="n">
-        <v>0.226378</v>
+        <v>0.226461</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.209115</v>
+        <v>0.208789</v>
       </c>
       <c r="C46" t="n">
-        <v>0.220752</v>
+        <v>0.220301</v>
       </c>
       <c r="D46" t="n">
-        <v>0.225506</v>
+        <v>0.225518</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.203009</v>
+        <v>0.202945</v>
       </c>
       <c r="C47" t="n">
-        <v>0.22003</v>
+        <v>0.220136</v>
       </c>
       <c r="D47" t="n">
-        <v>0.224695</v>
+        <v>0.224957</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.196649</v>
+        <v>0.196922</v>
       </c>
       <c r="C48" t="n">
-        <v>0.219252</v>
+        <v>0.218827</v>
       </c>
       <c r="D48" t="n">
-        <v>0.223887</v>
+        <v>0.224023</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.189943</v>
+        <v>0.190131</v>
       </c>
       <c r="C49" t="n">
-        <v>0.218506</v>
+        <v>0.218063</v>
       </c>
       <c r="D49" t="n">
-        <v>0.22325</v>
+        <v>0.223357</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.182462</v>
+        <v>0.18287</v>
       </c>
       <c r="C50" t="n">
-        <v>0.217726</v>
+        <v>0.217327</v>
       </c>
       <c r="D50" t="n">
-        <v>0.222524</v>
+        <v>0.222639</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.174303</v>
+        <v>0.173786</v>
       </c>
       <c r="C51" t="n">
-        <v>0.216868</v>
+        <v>0.216543</v>
       </c>
       <c r="D51" t="n">
-        <v>0.237431</v>
+        <v>0.236467</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.16352</v>
+        <v>0.163178</v>
       </c>
       <c r="C52" t="n">
-        <v>0.216389</v>
+        <v>0.215917</v>
       </c>
       <c r="D52" t="n">
-        <v>0.235298</v>
+        <v>0.23498</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.24641</v>
+        <v>0.245831</v>
       </c>
       <c r="C53" t="n">
-        <v>0.229408</v>
+        <v>0.229627</v>
       </c>
       <c r="D53" t="n">
-        <v>0.233761</v>
+        <v>0.233748</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.242705</v>
+        <v>0.24199</v>
       </c>
       <c r="C54" t="n">
-        <v>0.227846</v>
+        <v>0.228241</v>
       </c>
       <c r="D54" t="n">
-        <v>0.232487</v>
+        <v>0.232498</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.237887</v>
+        <v>0.238139</v>
       </c>
       <c r="C55" t="n">
-        <v>0.226742</v>
+        <v>0.227214</v>
       </c>
       <c r="D55" t="n">
-        <v>0.231174</v>
+        <v>0.231239</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.233472</v>
+        <v>0.233574</v>
       </c>
       <c r="C56" t="n">
-        <v>0.225495</v>
+        <v>0.225899</v>
       </c>
       <c r="D56" t="n">
-        <v>0.23019</v>
+        <v>0.230138</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.228177</v>
+        <v>0.228648</v>
       </c>
       <c r="C57" t="n">
-        <v>0.224522</v>
+        <v>0.224663</v>
       </c>
       <c r="D57" t="n">
-        <v>0.228993</v>
+        <v>0.229278</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.223045</v>
+        <v>0.222897</v>
       </c>
       <c r="C58" t="n">
-        <v>0.223654</v>
+        <v>0.223503</v>
       </c>
       <c r="D58" t="n">
-        <v>0.227866</v>
+        <v>0.228075</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.217426</v>
+        <v>0.217407</v>
       </c>
       <c r="C59" t="n">
-        <v>0.222527</v>
+        <v>0.221966</v>
       </c>
       <c r="D59" t="n">
-        <v>0.226937</v>
+        <v>0.227204</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.21174</v>
+        <v>0.211987</v>
       </c>
       <c r="C60" t="n">
-        <v>0.22152</v>
+        <v>0.22101</v>
       </c>
       <c r="D60" t="n">
-        <v>0.226028</v>
+        <v>0.226192</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.205484</v>
+        <v>0.205975</v>
       </c>
       <c r="C61" t="n">
-        <v>0.220686</v>
+        <v>0.220102</v>
       </c>
       <c r="D61" t="n">
-        <v>0.225173</v>
+        <v>0.225436</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.199534</v>
+        <v>0.199709</v>
       </c>
       <c r="C62" t="n">
-        <v>0.219886</v>
+        <v>0.219237</v>
       </c>
       <c r="D62" t="n">
-        <v>0.22433</v>
+        <v>0.224446</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.192712</v>
+        <v>0.192786</v>
       </c>
       <c r="C63" t="n">
-        <v>0.219161</v>
+        <v>0.21844</v>
       </c>
       <c r="D63" t="n">
-        <v>0.223518</v>
+        <v>0.22366</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.185659</v>
+        <v>0.185132</v>
       </c>
       <c r="C64" t="n">
-        <v>0.218284</v>
+        <v>0.217793</v>
       </c>
       <c r="D64" t="n">
-        <v>0.222703</v>
+        <v>0.223004</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177198</v>
+        <v>0.176823</v>
       </c>
       <c r="C65" t="n">
-        <v>0.217527</v>
+        <v>0.216921</v>
       </c>
       <c r="D65" t="n">
-        <v>0.22196</v>
+        <v>0.22222</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.167111</v>
+        <v>0.166875</v>
       </c>
       <c r="C66" t="n">
-        <v>0.216938</v>
+        <v>0.216097</v>
       </c>
       <c r="D66" t="n">
-        <v>0.236151</v>
+        <v>0.236284</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.247736</v>
+        <v>0.248349</v>
       </c>
       <c r="C67" t="n">
-        <v>0.240684</v>
+        <v>0.23901</v>
       </c>
       <c r="D67" t="n">
-        <v>0.234455</v>
+        <v>0.234606</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.243691</v>
+        <v>0.244366</v>
       </c>
       <c r="C68" t="n">
-        <v>0.235974</v>
+        <v>0.234881</v>
       </c>
       <c r="D68" t="n">
-        <v>0.233254</v>
+        <v>0.233369</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.23948</v>
+        <v>0.239936</v>
       </c>
       <c r="C69" t="n">
-        <v>0.232888</v>
+        <v>0.231927</v>
       </c>
       <c r="D69" t="n">
-        <v>0.231937</v>
+        <v>0.23207</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.235049</v>
+        <v>0.235055</v>
       </c>
       <c r="C70" t="n">
-        <v>0.229749</v>
+        <v>0.229077</v>
       </c>
       <c r="D70" t="n">
-        <v>0.230755</v>
+        <v>0.230888</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.229887</v>
+        <v>0.229779</v>
       </c>
       <c r="C71" t="n">
-        <v>0.226986</v>
+        <v>0.226559</v>
       </c>
       <c r="D71" t="n">
-        <v>0.229628</v>
+        <v>0.229768</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.224836</v>
+        <v>0.22449</v>
       </c>
       <c r="C72" t="n">
-        <v>0.224685</v>
+        <v>0.224436</v>
       </c>
       <c r="D72" t="n">
-        <v>0.228495</v>
+        <v>0.228674</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.219391</v>
+        <v>0.219261</v>
       </c>
       <c r="C73" t="n">
-        <v>0.223189</v>
+        <v>0.222824</v>
       </c>
       <c r="D73" t="n">
-        <v>0.22752</v>
+        <v>0.227738</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.213419</v>
+        <v>0.213615</v>
       </c>
       <c r="C74" t="n">
-        <v>0.222182</v>
+        <v>0.221799</v>
       </c>
       <c r="D74" t="n">
-        <v>0.226531</v>
+        <v>0.22672</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.20738</v>
+        <v>0.20772</v>
       </c>
       <c r="C75" t="n">
-        <v>0.221309</v>
+        <v>0.220863</v>
       </c>
       <c r="D75" t="n">
-        <v>0.225661</v>
+        <v>0.225833</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.201358</v>
+        <v>0.201272</v>
       </c>
       <c r="C76" t="n">
-        <v>0.220431</v>
+        <v>0.220045</v>
       </c>
       <c r="D76" t="n">
-        <v>0.224848</v>
+        <v>0.224973</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.194773</v>
+        <v>0.194893</v>
       </c>
       <c r="C77" t="n">
-        <v>0.219513</v>
+        <v>0.21912</v>
       </c>
       <c r="D77" t="n">
-        <v>0.223992</v>
+        <v>0.224181</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.18789</v>
+        <v>0.187597</v>
       </c>
       <c r="C78" t="n">
-        <v>0.218815</v>
+        <v>0.218286</v>
       </c>
       <c r="D78" t="n">
-        <v>0.223296</v>
+        <v>0.223485</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179715</v>
+        <v>0.179268</v>
       </c>
       <c r="C79" t="n">
-        <v>0.217964</v>
+        <v>0.217397</v>
       </c>
       <c r="D79" t="n">
-        <v>0.222487</v>
+        <v>0.222707</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.169779</v>
+        <v>0.169766</v>
       </c>
       <c r="C80" t="n">
-        <v>0.216996</v>
+        <v>0.21647</v>
       </c>
       <c r="D80" t="n">
-        <v>0.239777</v>
+        <v>0.238696</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.251745</v>
+        <v>0.249015</v>
       </c>
       <c r="C81" t="n">
-        <v>0.239847</v>
+        <v>0.239669</v>
       </c>
       <c r="D81" t="n">
-        <v>0.236809</v>
+        <v>0.23648</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.247637</v>
+        <v>0.24563</v>
       </c>
       <c r="C82" t="n">
-        <v>0.234998</v>
+        <v>0.234245</v>
       </c>
       <c r="D82" t="n">
-        <v>0.234703</v>
+        <v>0.234654</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.242804</v>
+        <v>0.241383</v>
       </c>
       <c r="C83" t="n">
-        <v>0.230741</v>
+        <v>0.230157</v>
       </c>
       <c r="D83" t="n">
-        <v>0.233106</v>
+        <v>0.233225</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.237561</v>
+        <v>0.236688</v>
       </c>
       <c r="C84" t="n">
-        <v>0.228256</v>
+        <v>0.227449</v>
       </c>
       <c r="D84" t="n">
-        <v>0.231964</v>
+        <v>0.232047</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.232221</v>
+        <v>0.231273</v>
       </c>
       <c r="C85" t="n">
-        <v>0.226562</v>
+        <v>0.226071</v>
       </c>
       <c r="D85" t="n">
-        <v>0.230527</v>
+        <v>0.230522</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.226528</v>
+        <v>0.226146</v>
       </c>
       <c r="C86" t="n">
-        <v>0.22529</v>
+        <v>0.225132</v>
       </c>
       <c r="D86" t="n">
-        <v>0.229323</v>
+        <v>0.229439</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.220926</v>
+        <v>0.220401</v>
       </c>
       <c r="C87" t="n">
-        <v>0.224286</v>
+        <v>0.223429</v>
       </c>
       <c r="D87" t="n">
-        <v>0.228105</v>
+        <v>0.228414</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.215398</v>
+        <v>0.214689</v>
       </c>
       <c r="C88" t="n">
-        <v>0.223005</v>
+        <v>0.222503</v>
       </c>
       <c r="D88" t="n">
-        <v>0.226996</v>
+        <v>0.227289</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.209606</v>
+        <v>0.208734</v>
       </c>
       <c r="C89" t="n">
-        <v>0.221955</v>
+        <v>0.221519</v>
       </c>
       <c r="D89" t="n">
-        <v>0.226073</v>
+        <v>0.226262</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.203291</v>
+        <v>0.202734</v>
       </c>
       <c r="C90" t="n">
-        <v>0.220946</v>
+        <v>0.220334</v>
       </c>
       <c r="D90" t="n">
-        <v>0.225196</v>
+        <v>0.225394</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.196634</v>
+        <v>0.196155</v>
       </c>
       <c r="C91" t="n">
-        <v>0.220121</v>
+        <v>0.219457</v>
       </c>
       <c r="D91" t="n">
-        <v>0.224324</v>
+        <v>0.224601</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.189679</v>
+        <v>0.189219</v>
       </c>
       <c r="C92" t="n">
-        <v>0.218963</v>
+        <v>0.218627</v>
       </c>
       <c r="D92" t="n">
-        <v>0.223508</v>
+        <v>0.223894</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.181638</v>
+        <v>0.181337</v>
       </c>
       <c r="C93" t="n">
-        <v>0.218262</v>
+        <v>0.217729</v>
       </c>
       <c r="D93" t="n">
-        <v>0.222897</v>
+        <v>0.223185</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.172537</v>
+        <v>0.171999</v>
       </c>
       <c r="C94" t="n">
-        <v>0.217359</v>
+        <v>0.217147</v>
       </c>
       <c r="D94" t="n">
-        <v>0.239567</v>
+        <v>0.24005</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.249532</v>
+        <v>0.250312</v>
       </c>
       <c r="C95" t="n">
-        <v>0.235577</v>
+        <v>0.236081</v>
       </c>
       <c r="D95" t="n">
-        <v>0.237153</v>
+        <v>0.237121</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.246034</v>
+        <v>0.246683</v>
       </c>
       <c r="C96" t="n">
-        <v>0.232322</v>
+        <v>0.23231</v>
       </c>
       <c r="D96" t="n">
-        <v>0.235469</v>
+        <v>0.235242</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.241855</v>
+        <v>0.242602</v>
       </c>
       <c r="C97" t="n">
-        <v>0.230146</v>
+        <v>0.229817</v>
       </c>
       <c r="D97" t="n">
-        <v>0.234265</v>
+        <v>0.234079</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.237386</v>
+        <v>0.239372</v>
       </c>
       <c r="C98" t="n">
-        <v>0.228072</v>
+        <v>0.227778</v>
       </c>
       <c r="D98" t="n">
-        <v>0.232815</v>
+        <v>0.232772</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.232468</v>
+        <v>0.233967</v>
       </c>
       <c r="C99" t="n">
-        <v>0.226739</v>
+        <v>0.226255</v>
       </c>
       <c r="D99" t="n">
-        <v>0.231576</v>
+        <v>0.231566</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.227261</v>
+        <v>0.228667</v>
       </c>
       <c r="C100" t="n">
-        <v>0.22551</v>
+        <v>0.224942</v>
       </c>
       <c r="D100" t="n">
-        <v>0.229872</v>
+        <v>0.230417</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.221601</v>
+        <v>0.223134</v>
       </c>
       <c r="C101" t="n">
-        <v>0.224301</v>
+        <v>0.223773</v>
       </c>
       <c r="D101" t="n">
-        <v>0.228879</v>
+        <v>0.228949</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.215978</v>
+        <v>0.217449</v>
       </c>
       <c r="C102" t="n">
-        <v>0.223208</v>
+        <v>0.222645</v>
       </c>
       <c r="D102" t="n">
-        <v>0.227809</v>
+        <v>0.227795</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.211352</v>
+        <v>0.211333</v>
       </c>
       <c r="C103" t="n">
-        <v>0.222028</v>
+        <v>0.221618</v>
       </c>
       <c r="D103" t="n">
-        <v>0.226802</v>
+        <v>0.226836</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.20515</v>
+        <v>0.205196</v>
       </c>
       <c r="C104" t="n">
-        <v>0.221096</v>
+        <v>0.220675</v>
       </c>
       <c r="D104" t="n">
-        <v>0.226055</v>
+        <v>0.226286</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.198669</v>
+        <v>0.198626</v>
       </c>
       <c r="C105" t="n">
-        <v>0.220253</v>
+        <v>0.219695</v>
       </c>
       <c r="D105" t="n">
-        <v>0.225176</v>
+        <v>0.225448</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.191513</v>
+        <v>0.191666</v>
       </c>
       <c r="C106" t="n">
-        <v>0.219388</v>
+        <v>0.218876</v>
       </c>
       <c r="D106" t="n">
-        <v>0.223883</v>
+        <v>0.22466</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183634</v>
+        <v>0.18337</v>
       </c>
       <c r="C107" t="n">
-        <v>0.218553</v>
+        <v>0.218077</v>
       </c>
       <c r="D107" t="n">
-        <v>0.223388</v>
+        <v>0.22385</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.174085</v>
+        <v>0.174386</v>
       </c>
       <c r="C108" t="n">
-        <v>0.217691</v>
+        <v>0.217232</v>
       </c>
       <c r="D108" t="n">
-        <v>0.239167</v>
+        <v>0.239248</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.16367</v>
+        <v>0.163373</v>
       </c>
       <c r="C109" t="n">
-        <v>0.216905</v>
+        <v>0.216517</v>
       </c>
       <c r="D109" t="n">
-        <v>0.236944</v>
+        <v>0.236971</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.247315</v>
+        <v>0.248512</v>
       </c>
       <c r="C110" t="n">
-        <v>0.232984</v>
+        <v>0.233168</v>
       </c>
       <c r="D110" t="n">
-        <v>0.235013</v>
+        <v>0.23504</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.243397</v>
+        <v>0.244881</v>
       </c>
       <c r="C111" t="n">
-        <v>0.230219</v>
+        <v>0.230127</v>
       </c>
       <c r="D111" t="n">
-        <v>0.233443</v>
+        <v>0.233604</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.238855</v>
+        <v>0.240438</v>
       </c>
       <c r="C112" t="n">
-        <v>0.228193</v>
+        <v>0.22799</v>
       </c>
       <c r="D112" t="n">
-        <v>0.232023</v>
+        <v>0.232152</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.233871</v>
+        <v>0.235507</v>
       </c>
       <c r="C113" t="n">
-        <v>0.226736</v>
+        <v>0.226406</v>
       </c>
       <c r="D113" t="n">
-        <v>0.230716</v>
+        <v>0.230892</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.228574</v>
+        <v>0.230409</v>
       </c>
       <c r="C114" t="n">
-        <v>0.225349</v>
+        <v>0.225019</v>
       </c>
       <c r="D114" t="n">
-        <v>0.229501</v>
+        <v>0.229704</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.223084</v>
+        <v>0.224606</v>
       </c>
       <c r="C115" t="n">
-        <v>0.224163</v>
+        <v>0.223833</v>
       </c>
       <c r="D115" t="n">
-        <v>0.228426</v>
+        <v>0.228625</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.21732</v>
+        <v>0.218863</v>
       </c>
       <c r="C116" t="n">
-        <v>0.223414</v>
+        <v>0.22292</v>
       </c>
       <c r="D116" t="n">
-        <v>0.227395</v>
+        <v>0.227684</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.211435</v>
+        <v>0.212887</v>
       </c>
       <c r="C117" t="n">
-        <v>0.222512</v>
+        <v>0.222088</v>
       </c>
       <c r="D117" t="n">
-        <v>0.226887</v>
+        <v>0.227086</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.205494</v>
+        <v>0.206674</v>
       </c>
       <c r="C118" t="n">
-        <v>0.221599</v>
+        <v>0.221128</v>
       </c>
       <c r="D118" t="n">
-        <v>0.225866</v>
+        <v>0.226277</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.199378</v>
+        <v>0.2001</v>
       </c>
       <c r="C119" t="n">
-        <v>0.220688</v>
+        <v>0.220339</v>
       </c>
       <c r="D119" t="n">
-        <v>0.225063</v>
+        <v>0.225441</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.192554</v>
+        <v>0.19303</v>
       </c>
       <c r="C120" t="n">
-        <v>0.219803</v>
+        <v>0.21943</v>
       </c>
       <c r="D120" t="n">
-        <v>0.224254</v>
+        <v>0.224609</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.184964</v>
+        <v>0.185208</v>
       </c>
       <c r="C121" t="n">
-        <v>0.218909</v>
+        <v>0.218589</v>
       </c>
       <c r="D121" t="n">
-        <v>0.22356</v>
+        <v>0.223929</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.17612</v>
+        <v>0.176224</v>
       </c>
       <c r="C122" t="n">
-        <v>0.218036</v>
+        <v>0.21778</v>
       </c>
       <c r="D122" t="n">
-        <v>0.222874</v>
+        <v>0.223248</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.165954</v>
+        <v>0.165929</v>
       </c>
       <c r="C123" t="n">
-        <v>0.217283</v>
+        <v>0.216926</v>
       </c>
       <c r="D123" t="n">
-        <v>0.237122</v>
+        <v>0.2372</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.248987</v>
+        <v>0.248139</v>
       </c>
       <c r="C124" t="n">
-        <v>0.233196</v>
+        <v>0.233742</v>
       </c>
       <c r="D124" t="n">
-        <v>0.23521</v>
+        <v>0.235267</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.245189</v>
+        <v>0.244438</v>
       </c>
       <c r="C125" t="n">
-        <v>0.230449</v>
+        <v>0.230471</v>
       </c>
       <c r="D125" t="n">
-        <v>0.233493</v>
+        <v>0.233594</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.240764</v>
+        <v>0.240022</v>
       </c>
       <c r="C126" t="n">
-        <v>0.22849</v>
+        <v>0.228338</v>
       </c>
       <c r="D126" t="n">
-        <v>0.231986</v>
+        <v>0.232175</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.235929</v>
+        <v>0.236277</v>
       </c>
       <c r="C127" t="n">
-        <v>0.226857</v>
+        <v>0.226566</v>
       </c>
       <c r="D127" t="n">
-        <v>0.230688</v>
+        <v>0.230891</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.230663</v>
+        <v>0.231232</v>
       </c>
       <c r="C128" t="n">
-        <v>0.22554</v>
+        <v>0.225137</v>
       </c>
       <c r="D128" t="n">
-        <v>0.22956</v>
+        <v>0.229778</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.225375</v>
+        <v>0.225713</v>
       </c>
       <c r="C129" t="n">
-        <v>0.224387</v>
+        <v>0.223979</v>
       </c>
       <c r="D129" t="n">
-        <v>0.228419</v>
+        <v>0.228654</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.219792</v>
+        <v>0.219927</v>
       </c>
       <c r="C130" t="n">
-        <v>0.223278</v>
+        <v>0.2229</v>
       </c>
       <c r="D130" t="n">
-        <v>0.227413</v>
+        <v>0.22766</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.213973</v>
+        <v>0.214076</v>
       </c>
       <c r="C131" t="n">
-        <v>0.222324</v>
+        <v>0.221885</v>
       </c>
       <c r="D131" t="n">
-        <v>0.226532</v>
+        <v>0.226753</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.207252</v>
+        <v>0.207979</v>
       </c>
       <c r="C132" t="n">
-        <v>0.221343</v>
+        <v>0.220877</v>
       </c>
       <c r="D132" t="n">
-        <v>0.225593</v>
+        <v>0.22586</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.201487</v>
+        <v>0.20153</v>
       </c>
       <c r="C133" t="n">
-        <v>0.22045</v>
+        <v>0.219988</v>
       </c>
       <c r="D133" t="n">
-        <v>0.224776</v>
+        <v>0.225058</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.194648</v>
+        <v>0.194265</v>
       </c>
       <c r="C134" t="n">
-        <v>0.219582</v>
+        <v>0.219108</v>
       </c>
       <c r="D134" t="n">
-        <v>0.224031</v>
+        <v>0.224334</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.187107</v>
+        <v>0.186776</v>
       </c>
       <c r="C135" t="n">
-        <v>0.21875</v>
+        <v>0.218339</v>
       </c>
       <c r="D135" t="n">
-        <v>0.22329</v>
+        <v>0.223621</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.178623</v>
+        <v>0.17834</v>
       </c>
       <c r="C136" t="n">
-        <v>0.217985</v>
+        <v>0.21761</v>
       </c>
       <c r="D136" t="n">
-        <v>0.222622</v>
+        <v>0.22297</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.168507</v>
+        <v>0.168217</v>
       </c>
       <c r="C137" t="n">
-        <v>0.217406</v>
+        <v>0.217144</v>
       </c>
       <c r="D137" t="n">
-        <v>0.238344</v>
+        <v>0.238491</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.249827</v>
+        <v>0.250206</v>
       </c>
       <c r="C138" t="n">
-        <v>0.234686</v>
+        <v>0.235055</v>
       </c>
       <c r="D138" t="n">
-        <v>0.236202</v>
+        <v>0.236398</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.24493</v>
+        <v>0.246511</v>
       </c>
       <c r="C139" t="n">
-        <v>0.231598</v>
+        <v>0.231774</v>
       </c>
       <c r="D139" t="n">
-        <v>0.234395</v>
+        <v>0.234643</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.240505</v>
+        <v>0.242205</v>
       </c>
       <c r="C140" t="n">
-        <v>0.229357</v>
+        <v>0.229282</v>
       </c>
       <c r="D140" t="n">
-        <v>0.232762</v>
+        <v>0.233064</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.236975</v>
+        <v>0.236102</v>
       </c>
       <c r="C141" t="n">
-        <v>0.227669</v>
+        <v>0.227526</v>
       </c>
       <c r="D141" t="n">
-        <v>0.231412</v>
+        <v>0.231693</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.230816</v>
+        <v>0.230984</v>
       </c>
       <c r="C142" t="n">
-        <v>0.226237</v>
+        <v>0.22598</v>
       </c>
       <c r="D142" t="n">
-        <v>0.230228</v>
+        <v>0.2305</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.225279</v>
+        <v>0.225617</v>
       </c>
       <c r="C143" t="n">
-        <v>0.224991</v>
+        <v>0.224702</v>
       </c>
       <c r="D143" t="n">
-        <v>0.229086</v>
+        <v>0.229423</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.182917</v>
+        <v>0.184276</v>
       </c>
       <c r="C2" t="n">
-        <v>0.205018</v>
+        <v>0.205326</v>
       </c>
       <c r="D2" t="n">
-        <v>0.20967</v>
+        <v>0.210711</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.176755</v>
+        <v>0.177504</v>
       </c>
       <c r="C3" t="n">
-        <v>0.205277</v>
+        <v>0.205849</v>
       </c>
       <c r="D3" t="n">
-        <v>0.208991</v>
+        <v>0.21022</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.173395</v>
+        <v>0.173878</v>
       </c>
       <c r="C4" t="n">
-        <v>0.204177</v>
+        <v>0.204956</v>
       </c>
       <c r="D4" t="n">
-        <v>0.211344</v>
+        <v>0.212258</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.170622</v>
+        <v>0.171165</v>
       </c>
       <c r="C5" t="n">
-        <v>0.205686</v>
+        <v>0.20638</v>
       </c>
       <c r="D5" t="n">
-        <v>0.212241</v>
+        <v>0.212294</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.166994</v>
+        <v>0.167109</v>
       </c>
       <c r="C6" t="n">
-        <v>0.20449</v>
+        <v>0.205545</v>
       </c>
       <c r="D6" t="n">
-        <v>0.212905</v>
+        <v>0.213306</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.160905</v>
+        <v>0.160223</v>
       </c>
       <c r="C7" t="n">
-        <v>0.204957</v>
+        <v>0.205397</v>
       </c>
       <c r="D7" t="n">
-        <v>0.212131</v>
+        <v>0.212245</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.154079</v>
+        <v>0.153675</v>
       </c>
       <c r="C8" t="n">
-        <v>0.206284</v>
+        <v>0.206683</v>
       </c>
       <c r="D8" t="n">
-        <v>0.213061</v>
+        <v>0.212966</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.145801</v>
+        <v>0.147023</v>
       </c>
       <c r="C9" t="n">
-        <v>0.205141</v>
+        <v>0.205525</v>
       </c>
       <c r="D9" t="n">
-        <v>0.228612</v>
+        <v>0.229897</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.228254</v>
+        <v>0.228067</v>
       </c>
       <c r="C10" t="n">
-        <v>0.224175</v>
+        <v>0.224033</v>
       </c>
       <c r="D10" t="n">
-        <v>0.227342</v>
+        <v>0.228773</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.223364</v>
+        <v>0.223402</v>
       </c>
       <c r="C11" t="n">
-        <v>0.222396</v>
+        <v>0.222042</v>
       </c>
       <c r="D11" t="n">
-        <v>0.227338</v>
+        <v>0.228102</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.221355</v>
+        <v>0.222037</v>
       </c>
       <c r="C12" t="n">
-        <v>0.222018</v>
+        <v>0.221485</v>
       </c>
       <c r="D12" t="n">
-        <v>0.226233</v>
+        <v>0.22706</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.218332</v>
+        <v>0.218996</v>
       </c>
       <c r="C13" t="n">
-        <v>0.220972</v>
+        <v>0.220597</v>
       </c>
       <c r="D13" t="n">
-        <v>0.225461</v>
+        <v>0.226349</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.21632</v>
+        <v>0.216189</v>
       </c>
       <c r="C14" t="n">
-        <v>0.220182</v>
+        <v>0.220244</v>
       </c>
       <c r="D14" t="n">
-        <v>0.22553</v>
+        <v>0.225905</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.212</v>
+        <v>0.212462</v>
       </c>
       <c r="C15" t="n">
-        <v>0.219459</v>
+        <v>0.219356</v>
       </c>
       <c r="D15" t="n">
-        <v>0.224445</v>
+        <v>0.224884</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.206281</v>
+        <v>0.206564</v>
       </c>
       <c r="C16" t="n">
-        <v>0.219324</v>
+        <v>0.21907</v>
       </c>
       <c r="D16" t="n">
-        <v>0.223406</v>
+        <v>0.224386</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.201498</v>
+        <v>0.201328</v>
       </c>
       <c r="C17" t="n">
-        <v>0.218695</v>
+        <v>0.218493</v>
       </c>
       <c r="D17" t="n">
-        <v>0.223184</v>
+        <v>0.22389</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.196849</v>
+        <v>0.196513</v>
       </c>
       <c r="C18" t="n">
-        <v>0.217368</v>
+        <v>0.217405</v>
       </c>
       <c r="D18" t="n">
-        <v>0.222464</v>
+        <v>0.223021</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.193307</v>
+        <v>0.192767</v>
       </c>
       <c r="C19" t="n">
-        <v>0.216581</v>
+        <v>0.216542</v>
       </c>
       <c r="D19" t="n">
-        <v>0.221892</v>
+        <v>0.222127</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.186561</v>
+        <v>0.1862</v>
       </c>
       <c r="C20" t="n">
-        <v>0.216076</v>
+        <v>0.216251</v>
       </c>
       <c r="D20" t="n">
-        <v>0.221855</v>
+        <v>0.221772</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.179994</v>
+        <v>0.179697</v>
       </c>
       <c r="C21" t="n">
-        <v>0.215497</v>
+        <v>0.215957</v>
       </c>
       <c r="D21" t="n">
-        <v>0.22091</v>
+        <v>0.22102</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.173397</v>
+        <v>0.173295</v>
       </c>
       <c r="C22" t="n">
-        <v>0.215027</v>
+        <v>0.215315</v>
       </c>
       <c r="D22" t="n">
-        <v>0.220218</v>
+        <v>0.220703</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.162914</v>
+        <v>0.162425</v>
       </c>
       <c r="C23" t="n">
-        <v>0.213479</v>
+        <v>0.214792</v>
       </c>
       <c r="D23" t="n">
-        <v>0.23556</v>
+        <v>0.235435</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.240467</v>
+        <v>0.240296</v>
       </c>
       <c r="C24" t="n">
-        <v>0.228099</v>
+        <v>0.227906</v>
       </c>
       <c r="D24" t="n">
-        <v>0.232888</v>
+        <v>0.232884</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.237745</v>
+        <v>0.238031</v>
       </c>
       <c r="C25" t="n">
-        <v>0.226036</v>
+        <v>0.226754</v>
       </c>
       <c r="D25" t="n">
-        <v>0.231547</v>
+        <v>0.231731</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.234127</v>
+        <v>0.23418</v>
       </c>
       <c r="C26" t="n">
-        <v>0.225395</v>
+        <v>0.225574</v>
       </c>
       <c r="D26" t="n">
-        <v>0.230733</v>
+        <v>0.230661</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.230626</v>
+        <v>0.230644</v>
       </c>
       <c r="C27" t="n">
-        <v>0.224464</v>
+        <v>0.224643</v>
       </c>
       <c r="D27" t="n">
-        <v>0.22955</v>
+        <v>0.229621</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.226844</v>
+        <v>0.226069</v>
       </c>
       <c r="C28" t="n">
-        <v>0.223616</v>
+        <v>0.223622</v>
       </c>
       <c r="D28" t="n">
-        <v>0.228715</v>
+        <v>0.228555</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.221361</v>
+        <v>0.221746</v>
       </c>
       <c r="C29" t="n">
-        <v>0.22256</v>
+        <v>0.222471</v>
       </c>
       <c r="D29" t="n">
-        <v>0.227286</v>
+        <v>0.227902</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.215761</v>
+        <v>0.215766</v>
       </c>
       <c r="C30" t="n">
-        <v>0.221283</v>
+        <v>0.221523</v>
       </c>
       <c r="D30" t="n">
-        <v>0.226848</v>
+        <v>0.226872</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.211264</v>
+        <v>0.211432</v>
       </c>
       <c r="C31" t="n">
-        <v>0.220286</v>
+        <v>0.220935</v>
       </c>
       <c r="D31" t="n">
-        <v>0.225992</v>
+        <v>0.22604</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.205405</v>
+        <v>0.20546</v>
       </c>
       <c r="C32" t="n">
-        <v>0.219442</v>
+        <v>0.219848</v>
       </c>
       <c r="D32" t="n">
-        <v>0.225246</v>
+        <v>0.225356</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.199207</v>
+        <v>0.19908</v>
       </c>
       <c r="C33" t="n">
-        <v>0.218503</v>
+        <v>0.218855</v>
       </c>
       <c r="D33" t="n">
-        <v>0.224487</v>
+        <v>0.224372</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.192895</v>
+        <v>0.193342</v>
       </c>
       <c r="C34" t="n">
-        <v>0.218156</v>
+        <v>0.218397</v>
       </c>
       <c r="D34" t="n">
-        <v>0.223741</v>
+        <v>0.223594</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.18679</v>
+        <v>0.186474</v>
       </c>
       <c r="C35" t="n">
-        <v>0.217028</v>
+        <v>0.217616</v>
       </c>
       <c r="D35" t="n">
-        <v>0.222946</v>
+        <v>0.222605</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.178523</v>
+        <v>0.17893</v>
       </c>
       <c r="C36" t="n">
-        <v>0.216546</v>
+        <v>0.217003</v>
       </c>
       <c r="D36" t="n">
-        <v>0.222301</v>
+        <v>0.222017</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1698</v>
+        <v>0.169184</v>
       </c>
       <c r="C37" t="n">
-        <v>0.216379</v>
+        <v>0.21663</v>
       </c>
       <c r="D37" t="n">
-        <v>0.235997</v>
+        <v>0.23614</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.245274</v>
+        <v>0.246103</v>
       </c>
       <c r="C38" t="n">
-        <v>0.230317</v>
+        <v>0.229502</v>
       </c>
       <c r="D38" t="n">
-        <v>0.234224</v>
+        <v>0.234575</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.242421</v>
+        <v>0.242913</v>
       </c>
       <c r="C39" t="n">
-        <v>0.228901</v>
+        <v>0.227752</v>
       </c>
       <c r="D39" t="n">
-        <v>0.233167</v>
+        <v>0.233177</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.238793</v>
+        <v>0.240668</v>
       </c>
       <c r="C40" t="n">
-        <v>0.226314</v>
+        <v>0.226406</v>
       </c>
       <c r="D40" t="n">
-        <v>0.231856</v>
+        <v>0.232016</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.234428</v>
+        <v>0.234526</v>
       </c>
       <c r="C41" t="n">
-        <v>0.225593</v>
+        <v>0.225435</v>
       </c>
       <c r="D41" t="n">
-        <v>0.230703</v>
+        <v>0.23094</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.230309</v>
+        <v>0.230689</v>
       </c>
       <c r="C42" t="n">
-        <v>0.224148</v>
+        <v>0.224185</v>
       </c>
       <c r="D42" t="n">
-        <v>0.229595</v>
+        <v>0.229764</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.225435</v>
+        <v>0.225703</v>
       </c>
       <c r="C43" t="n">
-        <v>0.224022</v>
+        <v>0.223231</v>
       </c>
       <c r="D43" t="n">
-        <v>0.228239</v>
+        <v>0.228421</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.22011</v>
+        <v>0.220205</v>
       </c>
       <c r="C44" t="n">
-        <v>0.222346</v>
+        <v>0.222317</v>
       </c>
       <c r="D44" t="n">
-        <v>0.227354</v>
+        <v>0.227364</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.214299</v>
+        <v>0.214437</v>
       </c>
       <c r="C45" t="n">
-        <v>0.221148</v>
+        <v>0.221264</v>
       </c>
       <c r="D45" t="n">
-        <v>0.226461</v>
+        <v>0.226428</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.208789</v>
+        <v>0.208865</v>
       </c>
       <c r="C46" t="n">
-        <v>0.220301</v>
+        <v>0.220567</v>
       </c>
       <c r="D46" t="n">
-        <v>0.225518</v>
+        <v>0.225772</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.202945</v>
+        <v>0.202845</v>
       </c>
       <c r="C47" t="n">
-        <v>0.220136</v>
+        <v>0.21982</v>
       </c>
       <c r="D47" t="n">
-        <v>0.224957</v>
+        <v>0.224554</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.196922</v>
+        <v>0.196691</v>
       </c>
       <c r="C48" t="n">
-        <v>0.218827</v>
+        <v>0.218949</v>
       </c>
       <c r="D48" t="n">
-        <v>0.224023</v>
+        <v>0.223812</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.190131</v>
+        <v>0.190273</v>
       </c>
       <c r="C49" t="n">
-        <v>0.218063</v>
+        <v>0.218321</v>
       </c>
       <c r="D49" t="n">
-        <v>0.223357</v>
+        <v>0.223334</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.18287</v>
+        <v>0.183032</v>
       </c>
       <c r="C50" t="n">
-        <v>0.217327</v>
+        <v>0.217551</v>
       </c>
       <c r="D50" t="n">
-        <v>0.222639</v>
+        <v>0.222643</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173786</v>
+        <v>0.17415</v>
       </c>
       <c r="C51" t="n">
-        <v>0.216543</v>
+        <v>0.216728</v>
       </c>
       <c r="D51" t="n">
-        <v>0.236467</v>
+        <v>0.236868</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.163178</v>
+        <v>0.16353</v>
       </c>
       <c r="C52" t="n">
-        <v>0.215917</v>
+        <v>0.216597</v>
       </c>
       <c r="D52" t="n">
-        <v>0.23498</v>
+        <v>0.235254</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.245831</v>
+        <v>0.246246</v>
       </c>
       <c r="C53" t="n">
-        <v>0.229627</v>
+        <v>0.22894</v>
       </c>
       <c r="D53" t="n">
-        <v>0.233748</v>
+        <v>0.233679</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.24199</v>
+        <v>0.242053</v>
       </c>
       <c r="C54" t="n">
-        <v>0.228241</v>
+        <v>0.227619</v>
       </c>
       <c r="D54" t="n">
-        <v>0.232498</v>
+        <v>0.232369</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.238139</v>
+        <v>0.238675</v>
       </c>
       <c r="C55" t="n">
-        <v>0.227214</v>
+        <v>0.226414</v>
       </c>
       <c r="D55" t="n">
-        <v>0.231239</v>
+        <v>0.231072</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.233574</v>
+        <v>0.234034</v>
       </c>
       <c r="C56" t="n">
-        <v>0.225899</v>
+        <v>0.225201</v>
       </c>
       <c r="D56" t="n">
-        <v>0.230138</v>
+        <v>0.230266</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.228648</v>
+        <v>0.228787</v>
       </c>
       <c r="C57" t="n">
-        <v>0.224663</v>
+        <v>0.224207</v>
       </c>
       <c r="D57" t="n">
-        <v>0.229278</v>
+        <v>0.229066</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.222897</v>
+        <v>0.223522</v>
       </c>
       <c r="C58" t="n">
-        <v>0.223503</v>
+        <v>0.223282</v>
       </c>
       <c r="D58" t="n">
-        <v>0.228075</v>
+        <v>0.22788</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.217407</v>
+        <v>0.217852</v>
       </c>
       <c r="C59" t="n">
-        <v>0.221966</v>
+        <v>0.222101</v>
       </c>
       <c r="D59" t="n">
-        <v>0.227204</v>
+        <v>0.227207</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.211987</v>
+        <v>0.212021</v>
       </c>
       <c r="C60" t="n">
-        <v>0.22101</v>
+        <v>0.221177</v>
       </c>
       <c r="D60" t="n">
-        <v>0.226192</v>
+        <v>0.226167</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.205975</v>
+        <v>0.206198</v>
       </c>
       <c r="C61" t="n">
-        <v>0.220102</v>
+        <v>0.220489</v>
       </c>
       <c r="D61" t="n">
-        <v>0.225436</v>
+        <v>0.225351</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.199709</v>
+        <v>0.199755</v>
       </c>
       <c r="C62" t="n">
-        <v>0.219237</v>
+        <v>0.219499</v>
       </c>
       <c r="D62" t="n">
-        <v>0.224446</v>
+        <v>0.224608</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.192786</v>
+        <v>0.192779</v>
       </c>
       <c r="C63" t="n">
-        <v>0.21844</v>
+        <v>0.218908</v>
       </c>
       <c r="D63" t="n">
-        <v>0.22366</v>
+        <v>0.223837</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.185132</v>
+        <v>0.185267</v>
       </c>
       <c r="C64" t="n">
-        <v>0.217793</v>
+        <v>0.218118</v>
       </c>
       <c r="D64" t="n">
-        <v>0.223004</v>
+        <v>0.222898</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.176823</v>
+        <v>0.177073</v>
       </c>
       <c r="C65" t="n">
-        <v>0.216921</v>
+        <v>0.21743</v>
       </c>
       <c r="D65" t="n">
-        <v>0.22222</v>
+        <v>0.222216</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.166875</v>
+        <v>0.167237</v>
       </c>
       <c r="C66" t="n">
-        <v>0.216097</v>
+        <v>0.216997</v>
       </c>
       <c r="D66" t="n">
-        <v>0.236284</v>
+        <v>0.236075</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.248349</v>
+        <v>0.248455</v>
       </c>
       <c r="C67" t="n">
-        <v>0.23901</v>
+        <v>0.233012</v>
       </c>
       <c r="D67" t="n">
-        <v>0.234606</v>
+        <v>0.234535</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.244366</v>
+        <v>0.244217</v>
       </c>
       <c r="C68" t="n">
-        <v>0.234881</v>
+        <v>0.231107</v>
       </c>
       <c r="D68" t="n">
-        <v>0.233369</v>
+        <v>0.23311</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.239936</v>
+        <v>0.239988</v>
       </c>
       <c r="C69" t="n">
-        <v>0.231927</v>
+        <v>0.229165</v>
       </c>
       <c r="D69" t="n">
-        <v>0.23207</v>
+        <v>0.231898</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.235055</v>
+        <v>0.235212</v>
       </c>
       <c r="C70" t="n">
-        <v>0.229077</v>
+        <v>0.227542</v>
       </c>
       <c r="D70" t="n">
-        <v>0.230888</v>
+        <v>0.23068</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.229779</v>
+        <v>0.229994</v>
       </c>
       <c r="C71" t="n">
-        <v>0.226559</v>
+        <v>0.225669</v>
       </c>
       <c r="D71" t="n">
-        <v>0.229768</v>
+        <v>0.229831</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.22449</v>
+        <v>0.224869</v>
       </c>
       <c r="C72" t="n">
-        <v>0.224436</v>
+        <v>0.224241</v>
       </c>
       <c r="D72" t="n">
-        <v>0.228674</v>
+        <v>0.228623</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.219261</v>
+        <v>0.21941</v>
       </c>
       <c r="C73" t="n">
-        <v>0.222824</v>
+        <v>0.222859</v>
       </c>
       <c r="D73" t="n">
-        <v>0.227738</v>
+        <v>0.227558</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.213615</v>
+        <v>0.213712</v>
       </c>
       <c r="C74" t="n">
-        <v>0.221799</v>
+        <v>0.221934</v>
       </c>
       <c r="D74" t="n">
-        <v>0.22672</v>
+        <v>0.226542</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.20772</v>
+        <v>0.207718</v>
       </c>
       <c r="C75" t="n">
-        <v>0.220863</v>
+        <v>0.221166</v>
       </c>
       <c r="D75" t="n">
-        <v>0.225833</v>
+        <v>0.225677</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.201272</v>
+        <v>0.20148</v>
       </c>
       <c r="C76" t="n">
-        <v>0.220045</v>
+        <v>0.220238</v>
       </c>
       <c r="D76" t="n">
-        <v>0.224973</v>
+        <v>0.224848</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.194893</v>
+        <v>0.195071</v>
       </c>
       <c r="C77" t="n">
-        <v>0.21912</v>
+        <v>0.219349</v>
       </c>
       <c r="D77" t="n">
-        <v>0.224181</v>
+        <v>0.224042</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.187597</v>
+        <v>0.187676</v>
       </c>
       <c r="C78" t="n">
-        <v>0.218286</v>
+        <v>0.218642</v>
       </c>
       <c r="D78" t="n">
-        <v>0.223485</v>
+        <v>0.22314</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179268</v>
+        <v>0.179424</v>
       </c>
       <c r="C79" t="n">
-        <v>0.217397</v>
+        <v>0.217892</v>
       </c>
       <c r="D79" t="n">
-        <v>0.222707</v>
+        <v>0.222519</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.169766</v>
+        <v>0.170545</v>
       </c>
       <c r="C80" t="n">
-        <v>0.21647</v>
+        <v>0.217019</v>
       </c>
       <c r="D80" t="n">
-        <v>0.238696</v>
+        <v>0.239151</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.249015</v>
+        <v>0.249096</v>
       </c>
       <c r="C81" t="n">
-        <v>0.239669</v>
+        <v>0.239779</v>
       </c>
       <c r="D81" t="n">
-        <v>0.23648</v>
+        <v>0.236475</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.24563</v>
+        <v>0.245561</v>
       </c>
       <c r="C82" t="n">
-        <v>0.234245</v>
+        <v>0.234518</v>
       </c>
       <c r="D82" t="n">
-        <v>0.234654</v>
+        <v>0.234683</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.241383</v>
+        <v>0.241564</v>
       </c>
       <c r="C83" t="n">
-        <v>0.230157</v>
+        <v>0.229821</v>
       </c>
       <c r="D83" t="n">
-        <v>0.233225</v>
+        <v>0.23335</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.236688</v>
+        <v>0.236665</v>
       </c>
       <c r="C84" t="n">
-        <v>0.227449</v>
+        <v>0.227516</v>
       </c>
       <c r="D84" t="n">
-        <v>0.232047</v>
+        <v>0.231832</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.231273</v>
+        <v>0.231642</v>
       </c>
       <c r="C85" t="n">
-        <v>0.226071</v>
+        <v>0.225985</v>
       </c>
       <c r="D85" t="n">
-        <v>0.230522</v>
+        <v>0.230764</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.226146</v>
+        <v>0.226141</v>
       </c>
       <c r="C86" t="n">
-        <v>0.225132</v>
+        <v>0.224734</v>
       </c>
       <c r="D86" t="n">
-        <v>0.229439</v>
+        <v>0.229541</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.220401</v>
+        <v>0.22055</v>
       </c>
       <c r="C87" t="n">
-        <v>0.223429</v>
+        <v>0.223746</v>
       </c>
       <c r="D87" t="n">
-        <v>0.228414</v>
+        <v>0.228348</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.214689</v>
+        <v>0.214817</v>
       </c>
       <c r="C88" t="n">
-        <v>0.222503</v>
+        <v>0.222538</v>
       </c>
       <c r="D88" t="n">
-        <v>0.227289</v>
+        <v>0.227359</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.208734</v>
+        <v>0.208968</v>
       </c>
       <c r="C89" t="n">
-        <v>0.221519</v>
+        <v>0.221497</v>
       </c>
       <c r="D89" t="n">
-        <v>0.226262</v>
+        <v>0.226434</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.202734</v>
+        <v>0.202976</v>
       </c>
       <c r="C90" t="n">
-        <v>0.220334</v>
+        <v>0.220548</v>
       </c>
       <c r="D90" t="n">
-        <v>0.225394</v>
+        <v>0.225518</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.196155</v>
+        <v>0.196325</v>
       </c>
       <c r="C91" t="n">
-        <v>0.219457</v>
+        <v>0.219649</v>
       </c>
       <c r="D91" t="n">
-        <v>0.224601</v>
+        <v>0.224725</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.189219</v>
+        <v>0.189292</v>
       </c>
       <c r="C92" t="n">
-        <v>0.218627</v>
+        <v>0.218793</v>
       </c>
       <c r="D92" t="n">
-        <v>0.223894</v>
+        <v>0.22391</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.181337</v>
+        <v>0.181521</v>
       </c>
       <c r="C93" t="n">
-        <v>0.217729</v>
+        <v>0.218169</v>
       </c>
       <c r="D93" t="n">
-        <v>0.223185</v>
+        <v>0.223178</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.171999</v>
+        <v>0.172145</v>
       </c>
       <c r="C94" t="n">
-        <v>0.217147</v>
+        <v>0.217455</v>
       </c>
       <c r="D94" t="n">
-        <v>0.24005</v>
+        <v>0.239885</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.250312</v>
+        <v>0.250323</v>
       </c>
       <c r="C95" t="n">
-        <v>0.236081</v>
+        <v>0.235927</v>
       </c>
       <c r="D95" t="n">
-        <v>0.237121</v>
+        <v>0.237505</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.246683</v>
+        <v>0.247722</v>
       </c>
       <c r="C96" t="n">
-        <v>0.23231</v>
+        <v>0.232351</v>
       </c>
       <c r="D96" t="n">
-        <v>0.235242</v>
+        <v>0.235443</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.242602</v>
+        <v>0.243875</v>
       </c>
       <c r="C97" t="n">
-        <v>0.229817</v>
+        <v>0.229745</v>
       </c>
       <c r="D97" t="n">
-        <v>0.234079</v>
+        <v>0.234329</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.239372</v>
+        <v>0.239161</v>
       </c>
       <c r="C98" t="n">
-        <v>0.227778</v>
+        <v>0.227722</v>
       </c>
       <c r="D98" t="n">
-        <v>0.232772</v>
+        <v>0.232727</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.233967</v>
+        <v>0.234091</v>
       </c>
       <c r="C99" t="n">
-        <v>0.226255</v>
+        <v>0.22615</v>
       </c>
       <c r="D99" t="n">
-        <v>0.231566</v>
+        <v>0.231385</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.228667</v>
+        <v>0.22877</v>
       </c>
       <c r="C100" t="n">
-        <v>0.224942</v>
+        <v>0.225072</v>
       </c>
       <c r="D100" t="n">
-        <v>0.230417</v>
+        <v>0.23012</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.223134</v>
+        <v>0.223216</v>
       </c>
       <c r="C101" t="n">
-        <v>0.223773</v>
+        <v>0.223781</v>
       </c>
       <c r="D101" t="n">
-        <v>0.228949</v>
+        <v>0.229028</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.217449</v>
+        <v>0.21759</v>
       </c>
       <c r="C102" t="n">
-        <v>0.222645</v>
+        <v>0.222709</v>
       </c>
       <c r="D102" t="n">
-        <v>0.227795</v>
+        <v>0.227959</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.211333</v>
+        <v>0.2117</v>
       </c>
       <c r="C103" t="n">
-        <v>0.221618</v>
+        <v>0.221725</v>
       </c>
       <c r="D103" t="n">
-        <v>0.226836</v>
+        <v>0.227065</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.205196</v>
+        <v>0.205467</v>
       </c>
       <c r="C104" t="n">
-        <v>0.220675</v>
+        <v>0.220809</v>
       </c>
       <c r="D104" t="n">
-        <v>0.226286</v>
+        <v>0.226451</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.198626</v>
+        <v>0.19888</v>
       </c>
       <c r="C105" t="n">
-        <v>0.219695</v>
+        <v>0.21995</v>
       </c>
       <c r="D105" t="n">
-        <v>0.225448</v>
+        <v>0.225662</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.191666</v>
+        <v>0.191926</v>
       </c>
       <c r="C106" t="n">
-        <v>0.218876</v>
+        <v>0.21918</v>
       </c>
       <c r="D106" t="n">
-        <v>0.22466</v>
+        <v>0.224863</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.18337</v>
+        <v>0.183674</v>
       </c>
       <c r="C107" t="n">
-        <v>0.218077</v>
+        <v>0.218351</v>
       </c>
       <c r="D107" t="n">
-        <v>0.22385</v>
+        <v>0.223995</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.174386</v>
+        <v>0.174501</v>
       </c>
       <c r="C108" t="n">
-        <v>0.217232</v>
+        <v>0.217687</v>
       </c>
       <c r="D108" t="n">
-        <v>0.239248</v>
+        <v>0.239523</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.163373</v>
+        <v>0.16348</v>
       </c>
       <c r="C109" t="n">
-        <v>0.216517</v>
+        <v>0.217019</v>
       </c>
       <c r="D109" t="n">
-        <v>0.236971</v>
+        <v>0.237255</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.248512</v>
+        <v>0.248753</v>
       </c>
       <c r="C110" t="n">
-        <v>0.233168</v>
+        <v>0.232759</v>
       </c>
       <c r="D110" t="n">
-        <v>0.23504</v>
+        <v>0.235353</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.244881</v>
+        <v>0.244735</v>
       </c>
       <c r="C111" t="n">
-        <v>0.230127</v>
+        <v>0.229929</v>
       </c>
       <c r="D111" t="n">
-        <v>0.233604</v>
+        <v>0.233649</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.240438</v>
+        <v>0.240395</v>
       </c>
       <c r="C112" t="n">
-        <v>0.22799</v>
+        <v>0.227823</v>
       </c>
       <c r="D112" t="n">
-        <v>0.232152</v>
+        <v>0.23231</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.235507</v>
+        <v>0.235358</v>
       </c>
       <c r="C113" t="n">
-        <v>0.226406</v>
+        <v>0.226302</v>
       </c>
       <c r="D113" t="n">
-        <v>0.230892</v>
+        <v>0.231006</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.230409</v>
+        <v>0.23022</v>
       </c>
       <c r="C114" t="n">
-        <v>0.225019</v>
+        <v>0.224993</v>
       </c>
       <c r="D114" t="n">
-        <v>0.229704</v>
+        <v>0.229769</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.224606</v>
+        <v>0.22453</v>
       </c>
       <c r="C115" t="n">
-        <v>0.223833</v>
+        <v>0.223815</v>
       </c>
       <c r="D115" t="n">
-        <v>0.228625</v>
+        <v>0.22874</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.218863</v>
+        <v>0.218757</v>
       </c>
       <c r="C116" t="n">
-        <v>0.22292</v>
+        <v>0.222847</v>
       </c>
       <c r="D116" t="n">
-        <v>0.227684</v>
+        <v>0.22771</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.212887</v>
+        <v>0.21284</v>
       </c>
       <c r="C117" t="n">
-        <v>0.222088</v>
+        <v>0.222207</v>
       </c>
       <c r="D117" t="n">
-        <v>0.227086</v>
+        <v>0.227238</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.206674</v>
+        <v>0.206601</v>
       </c>
       <c r="C118" t="n">
-        <v>0.221128</v>
+        <v>0.221292</v>
       </c>
       <c r="D118" t="n">
-        <v>0.226277</v>
+        <v>0.226474</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.2001</v>
+        <v>0.200164</v>
       </c>
       <c r="C119" t="n">
-        <v>0.220339</v>
+        <v>0.220446</v>
       </c>
       <c r="D119" t="n">
-        <v>0.225441</v>
+        <v>0.225544</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.19303</v>
+        <v>0.193223</v>
       </c>
       <c r="C120" t="n">
-        <v>0.21943</v>
+        <v>0.21961</v>
       </c>
       <c r="D120" t="n">
-        <v>0.224609</v>
+        <v>0.224707</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.185208</v>
+        <v>0.185273</v>
       </c>
       <c r="C121" t="n">
-        <v>0.218589</v>
+        <v>0.218887</v>
       </c>
       <c r="D121" t="n">
-        <v>0.223929</v>
+        <v>0.223889</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.176224</v>
+        <v>0.176434</v>
       </c>
       <c r="C122" t="n">
-        <v>0.21778</v>
+        <v>0.218081</v>
       </c>
       <c r="D122" t="n">
-        <v>0.223248</v>
+        <v>0.223162</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.165929</v>
+        <v>0.166021</v>
       </c>
       <c r="C123" t="n">
-        <v>0.216926</v>
+        <v>0.217325</v>
       </c>
       <c r="D123" t="n">
-        <v>0.2372</v>
+        <v>0.237412</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.248139</v>
+        <v>0.24843</v>
       </c>
       <c r="C124" t="n">
-        <v>0.233742</v>
+        <v>0.232931</v>
       </c>
       <c r="D124" t="n">
-        <v>0.235267</v>
+        <v>0.235466</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.244438</v>
+        <v>0.24545</v>
       </c>
       <c r="C125" t="n">
-        <v>0.230471</v>
+        <v>0.230128</v>
       </c>
       <c r="D125" t="n">
-        <v>0.233594</v>
+        <v>0.233493</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.240022</v>
+        <v>0.240707</v>
       </c>
       <c r="C126" t="n">
-        <v>0.228338</v>
+        <v>0.228078</v>
       </c>
       <c r="D126" t="n">
-        <v>0.232175</v>
+        <v>0.23204</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.236277</v>
+        <v>0.236416</v>
       </c>
       <c r="C127" t="n">
-        <v>0.226566</v>
+        <v>0.226408</v>
       </c>
       <c r="D127" t="n">
-        <v>0.230891</v>
+        <v>0.230677</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.231232</v>
+        <v>0.231187</v>
       </c>
       <c r="C128" t="n">
-        <v>0.225137</v>
+        <v>0.225124</v>
       </c>
       <c r="D128" t="n">
-        <v>0.229778</v>
+        <v>0.229545</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.225713</v>
+        <v>0.225687</v>
       </c>
       <c r="C129" t="n">
-        <v>0.223979</v>
+        <v>0.224011</v>
       </c>
       <c r="D129" t="n">
-        <v>0.228654</v>
+        <v>0.228473</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.219927</v>
+        <v>0.21999</v>
       </c>
       <c r="C130" t="n">
-        <v>0.2229</v>
+        <v>0.222916</v>
       </c>
       <c r="D130" t="n">
-        <v>0.22766</v>
+        <v>0.22745</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.214076</v>
+        <v>0.214072</v>
       </c>
       <c r="C131" t="n">
-        <v>0.221885</v>
+        <v>0.221977</v>
       </c>
       <c r="D131" t="n">
-        <v>0.226753</v>
+        <v>0.226894</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.207979</v>
+        <v>0.20796</v>
       </c>
       <c r="C132" t="n">
-        <v>0.220877</v>
+        <v>0.22104</v>
       </c>
       <c r="D132" t="n">
-        <v>0.22586</v>
+        <v>0.225915</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.20153</v>
+        <v>0.201091</v>
       </c>
       <c r="C133" t="n">
-        <v>0.219988</v>
+        <v>0.220181</v>
       </c>
       <c r="D133" t="n">
-        <v>0.225058</v>
+        <v>0.225207</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.194265</v>
+        <v>0.194189</v>
       </c>
       <c r="C134" t="n">
-        <v>0.219108</v>
+        <v>0.219402</v>
       </c>
       <c r="D134" t="n">
-        <v>0.224334</v>
+        <v>0.224366</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.186776</v>
+        <v>0.187207</v>
       </c>
       <c r="C135" t="n">
-        <v>0.218339</v>
+        <v>0.218609</v>
       </c>
       <c r="D135" t="n">
-        <v>0.223621</v>
+        <v>0.223592</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.17834</v>
+        <v>0.178561</v>
       </c>
       <c r="C136" t="n">
-        <v>0.21761</v>
+        <v>0.218272</v>
       </c>
       <c r="D136" t="n">
-        <v>0.22297</v>
+        <v>0.223077</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.168217</v>
+        <v>0.168735</v>
       </c>
       <c r="C137" t="n">
-        <v>0.217144</v>
+        <v>0.21754</v>
       </c>
       <c r="D137" t="n">
-        <v>0.238491</v>
+        <v>0.23853</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.250206</v>
+        <v>0.250039</v>
       </c>
       <c r="C138" t="n">
-        <v>0.235055</v>
+        <v>0.234547</v>
       </c>
       <c r="D138" t="n">
-        <v>0.236398</v>
+        <v>0.23644</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.246511</v>
+        <v>0.246424</v>
       </c>
       <c r="C139" t="n">
-        <v>0.231774</v>
+        <v>0.231436</v>
       </c>
       <c r="D139" t="n">
-        <v>0.234643</v>
+        <v>0.234674</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.242205</v>
+        <v>0.242158</v>
       </c>
       <c r="C140" t="n">
-        <v>0.229282</v>
+        <v>0.229039</v>
       </c>
       <c r="D140" t="n">
-        <v>0.233064</v>
+        <v>0.233085</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.236102</v>
+        <v>0.236073</v>
       </c>
       <c r="C141" t="n">
-        <v>0.227526</v>
+        <v>0.227306</v>
       </c>
       <c r="D141" t="n">
-        <v>0.231693</v>
+        <v>0.231673</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.230984</v>
+        <v>0.231007</v>
       </c>
       <c r="C142" t="n">
-        <v>0.22598</v>
+        <v>0.225912</v>
       </c>
       <c r="D142" t="n">
-        <v>0.2305</v>
+        <v>0.230326</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.225617</v>
+        <v>0.225762</v>
       </c>
       <c r="C143" t="n">
-        <v>0.224702</v>
+        <v>0.224708</v>
       </c>
       <c r="D143" t="n">
-        <v>0.229423</v>
+        <v>0.229368</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -3272,13 +3272,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.200012</v>
+        <v>0.202449</v>
       </c>
       <c r="C2" t="n">
-        <v>0.197803</v>
+        <v>0.198217</v>
       </c>
       <c r="D2" t="n">
-        <v>0.209697</v>
+        <v>0.210847</v>
       </c>
     </row>
     <row r="3">
@@ -3286,13 +3286,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.193153</v>
+        <v>0.191722</v>
       </c>
       <c r="C3" t="n">
-        <v>0.219566</v>
+        <v>0.217481</v>
       </c>
       <c r="D3" t="n">
-        <v>0.211149</v>
+        <v>0.209898</v>
       </c>
     </row>
     <row r="4">
@@ -3300,13 +3300,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.188082</v>
+        <v>0.18619</v>
       </c>
       <c r="C4" t="n">
-        <v>0.242233</v>
+        <v>0.24061</v>
       </c>
       <c r="D4" t="n">
-        <v>0.210373</v>
+        <v>0.211725</v>
       </c>
     </row>
     <row r="5">
@@ -3314,13 +3314,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.182908</v>
+        <v>0.181684</v>
       </c>
       <c r="C5" t="n">
-        <v>0.265393</v>
+        <v>0.265646</v>
       </c>
       <c r="D5" t="n">
-        <v>0.210223</v>
+        <v>0.210446</v>
       </c>
     </row>
     <row r="6">
@@ -3328,13 +3328,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.175607</v>
+        <v>0.17507</v>
       </c>
       <c r="C6" t="n">
-        <v>0.291334</v>
+        <v>0.290299</v>
       </c>
       <c r="D6" t="n">
-        <v>0.210662</v>
+        <v>0.210833</v>
       </c>
     </row>
     <row r="7">
@@ -3342,13 +3342,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.170344</v>
+        <v>0.167939</v>
       </c>
       <c r="C7" t="n">
-        <v>0.315308</v>
+        <v>0.316027</v>
       </c>
       <c r="D7" t="n">
-        <v>0.211015</v>
+        <v>0.211071</v>
       </c>
     </row>
     <row r="8">
@@ -3356,13 +3356,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.160961</v>
+        <v>0.159137</v>
       </c>
       <c r="C8" t="n">
-        <v>0.129804</v>
+        <v>0.129758</v>
       </c>
       <c r="D8" t="n">
-        <v>0.212451</v>
+        <v>0.212251</v>
       </c>
     </row>
     <row r="9">
@@ -3370,13 +3370,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.148777</v>
+        <v>0.149114</v>
       </c>
       <c r="C9" t="n">
-        <v>0.136669</v>
+        <v>0.136858</v>
       </c>
       <c r="D9" t="n">
-        <v>0.226939</v>
+        <v>0.226897</v>
       </c>
     </row>
     <row r="10">
@@ -3384,13 +3384,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.233678</v>
+        <v>0.235014</v>
       </c>
       <c r="C10" t="n">
-        <v>0.148815</v>
+        <v>0.149657</v>
       </c>
       <c r="D10" t="n">
-        <v>0.225693</v>
+        <v>0.226555</v>
       </c>
     </row>
     <row r="11">
@@ -3398,13 +3398,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.231239</v>
+        <v>0.230984</v>
       </c>
       <c r="C11" t="n">
-        <v>0.159107</v>
+        <v>0.161907</v>
       </c>
       <c r="D11" t="n">
-        <v>0.226173</v>
+        <v>0.226015</v>
       </c>
     </row>
     <row r="12">
@@ -3412,13 +3412,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.227962</v>
+        <v>0.227773</v>
       </c>
       <c r="C12" t="n">
-        <v>0.170513</v>
+        <v>0.172784</v>
       </c>
       <c r="D12" t="n">
-        <v>0.226191</v>
+        <v>0.22533</v>
       </c>
     </row>
     <row r="13">
@@ -3426,13 +3426,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.224497</v>
+        <v>0.224375</v>
       </c>
       <c r="C13" t="n">
-        <v>0.18286</v>
+        <v>0.186237</v>
       </c>
       <c r="D13" t="n">
-        <v>0.225749</v>
+        <v>0.2251</v>
       </c>
     </row>
     <row r="14">
@@ -3440,13 +3440,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.220215</v>
+        <v>0.221142</v>
       </c>
       <c r="C14" t="n">
-        <v>0.196175</v>
+        <v>0.197369</v>
       </c>
       <c r="D14" t="n">
-        <v>0.225173</v>
+        <v>0.225213</v>
       </c>
     </row>
     <row r="15">
@@ -3454,13 +3454,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.216003</v>
+        <v>0.215791</v>
       </c>
       <c r="C15" t="n">
-        <v>0.207817</v>
+        <v>0.209202</v>
       </c>
       <c r="D15" t="n">
-        <v>0.224658</v>
+        <v>0.224552</v>
       </c>
     </row>
     <row r="16">
@@ -3468,13 +3468,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.210905</v>
+        <v>0.21115</v>
       </c>
       <c r="C16" t="n">
-        <v>0.220875</v>
+        <v>0.223127</v>
       </c>
       <c r="D16" t="n">
-        <v>0.223823</v>
+        <v>0.224112</v>
       </c>
     </row>
     <row r="17">
@@ -3482,13 +3482,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.207237</v>
+        <v>0.206219</v>
       </c>
       <c r="C17" t="n">
-        <v>0.23603</v>
+        <v>0.237929</v>
       </c>
       <c r="D17" t="n">
-        <v>0.223537</v>
+        <v>0.223669</v>
       </c>
     </row>
     <row r="18">
@@ -3496,13 +3496,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.201612</v>
+        <v>0.20181</v>
       </c>
       <c r="C18" t="n">
-        <v>0.254641</v>
+        <v>0.255448</v>
       </c>
       <c r="D18" t="n">
-        <v>0.222779</v>
+        <v>0.222725</v>
       </c>
     </row>
     <row r="19">
@@ -3510,13 +3510,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.197327</v>
+        <v>0.19549</v>
       </c>
       <c r="C19" t="n">
-        <v>0.274232</v>
+        <v>0.2737</v>
       </c>
       <c r="D19" t="n">
-        <v>0.222357</v>
+        <v>0.222368</v>
       </c>
     </row>
     <row r="20">
@@ -3524,13 +3524,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.190201</v>
+        <v>0.189359</v>
       </c>
       <c r="C20" t="n">
-        <v>0.294886</v>
+        <v>0.295074</v>
       </c>
       <c r="D20" t="n">
-        <v>0.221344</v>
+        <v>0.221227</v>
       </c>
     </row>
     <row r="21">
@@ -3538,13 +3538,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.182871</v>
+        <v>0.182424</v>
       </c>
       <c r="C21" t="n">
-        <v>0.313687</v>
+        <v>0.316161</v>
       </c>
       <c r="D21" t="n">
-        <v>0.220885</v>
+        <v>0.220688</v>
       </c>
     </row>
     <row r="22">
@@ -3552,13 +3552,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.175993</v>
+        <v>0.174713</v>
       </c>
       <c r="C22" t="n">
-        <v>0.155311</v>
+        <v>0.156224</v>
       </c>
       <c r="D22" t="n">
-        <v>0.221055</v>
+        <v>0.220751</v>
       </c>
     </row>
     <row r="23">
@@ -3566,13 +3566,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.166983</v>
+        <v>0.166029</v>
       </c>
       <c r="C23" t="n">
-        <v>0.161988</v>
+        <v>0.163712</v>
       </c>
       <c r="D23" t="n">
-        <v>0.234337</v>
+        <v>0.234379</v>
       </c>
     </row>
     <row r="24">
@@ -3580,13 +3580,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.242488</v>
+        <v>0.244163</v>
       </c>
       <c r="C24" t="n">
-        <v>0.170911</v>
+        <v>0.171161</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2323</v>
+        <v>0.232341</v>
       </c>
     </row>
     <row r="25">
@@ -3594,13 +3594,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.239265</v>
+        <v>0.240446</v>
       </c>
       <c r="C25" t="n">
-        <v>0.179988</v>
+        <v>0.179534</v>
       </c>
       <c r="D25" t="n">
-        <v>0.231465</v>
+        <v>0.231751</v>
       </c>
     </row>
     <row r="26">
@@ -3608,13 +3608,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.235848</v>
+        <v>0.236121</v>
       </c>
       <c r="C26" t="n">
-        <v>0.189912</v>
+        <v>0.189079</v>
       </c>
       <c r="D26" t="n">
-        <v>0.230339</v>
+        <v>0.230387</v>
       </c>
     </row>
     <row r="27">
@@ -3622,13 +3622,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.231458</v>
+        <v>0.232764</v>
       </c>
       <c r="C27" t="n">
-        <v>0.198625</v>
+        <v>0.199542</v>
       </c>
       <c r="D27" t="n">
-        <v>0.229854</v>
+        <v>0.229902</v>
       </c>
     </row>
     <row r="28">
@@ -3636,13 +3636,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.22717</v>
+        <v>0.228145</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2088</v>
+        <v>0.209108</v>
       </c>
       <c r="D28" t="n">
-        <v>0.22882</v>
+        <v>0.228734</v>
       </c>
     </row>
     <row r="29">
@@ -3650,13 +3650,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.222182</v>
+        <v>0.223334</v>
       </c>
       <c r="C29" t="n">
-        <v>0.220882</v>
+        <v>0.22073</v>
       </c>
       <c r="D29" t="n">
-        <v>0.227741</v>
+        <v>0.227706</v>
       </c>
     </row>
     <row r="30">
@@ -3664,13 +3664,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.216946</v>
+        <v>0.218306</v>
       </c>
       <c r="C30" t="n">
-        <v>0.232475</v>
+        <v>0.234224</v>
       </c>
       <c r="D30" t="n">
-        <v>0.226507</v>
+        <v>0.226379</v>
       </c>
     </row>
     <row r="31">
@@ -3678,13 +3678,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.212394</v>
+        <v>0.213093</v>
       </c>
       <c r="C31" t="n">
-        <v>0.249475</v>
+        <v>0.251094</v>
       </c>
       <c r="D31" t="n">
-        <v>0.22561</v>
+        <v>0.225998</v>
       </c>
     </row>
     <row r="32">
@@ -3692,13 +3692,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.20664</v>
+        <v>0.207042</v>
       </c>
       <c r="C32" t="n">
-        <v>0.267226</v>
+        <v>0.268519</v>
       </c>
       <c r="D32" t="n">
-        <v>0.224969</v>
+        <v>0.225069</v>
       </c>
     </row>
     <row r="33">
@@ -3706,13 +3706,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.20116</v>
+        <v>0.201314</v>
       </c>
       <c r="C33" t="n">
-        <v>0.287891</v>
+        <v>0.288981</v>
       </c>
       <c r="D33" t="n">
-        <v>0.224232</v>
+        <v>0.224219</v>
       </c>
     </row>
     <row r="34">
@@ -3720,13 +3720,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.194927</v>
+        <v>0.195205</v>
       </c>
       <c r="C34" t="n">
-        <v>0.309502</v>
+        <v>0.310535</v>
       </c>
       <c r="D34" t="n">
-        <v>0.223609</v>
+        <v>0.223617</v>
       </c>
     </row>
     <row r="35">
@@ -3734,13 +3734,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.18808</v>
+        <v>0.187535</v>
       </c>
       <c r="C35" t="n">
-        <v>0.332728</v>
+        <v>0.332666</v>
       </c>
       <c r="D35" t="n">
-        <v>0.222928</v>
+        <v>0.223066</v>
       </c>
     </row>
     <row r="36">
@@ -3748,13 +3748,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180636</v>
+        <v>0.179615</v>
       </c>
       <c r="C36" t="n">
-        <v>0.360823</v>
+        <v>0.359303</v>
       </c>
       <c r="D36" t="n">
-        <v>0.222451</v>
+        <v>0.222251</v>
       </c>
     </row>
     <row r="37">
@@ -3762,13 +3762,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.170827</v>
+        <v>0.1697</v>
       </c>
       <c r="C37" t="n">
-        <v>0.173791</v>
+        <v>0.174134</v>
       </c>
       <c r="D37" t="n">
-        <v>0.235718</v>
+        <v>0.235969</v>
       </c>
     </row>
     <row r="38">
@@ -3776,13 +3776,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.248407</v>
+        <v>0.247793</v>
       </c>
       <c r="C38" t="n">
-        <v>0.180256</v>
+        <v>0.180252</v>
       </c>
       <c r="D38" t="n">
-        <v>0.234135</v>
+        <v>0.234269</v>
       </c>
     </row>
     <row r="39">
@@ -3790,13 +3790,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.244687</v>
+        <v>0.243965</v>
       </c>
       <c r="C39" t="n">
-        <v>0.188774</v>
+        <v>0.188811</v>
       </c>
       <c r="D39" t="n">
-        <v>0.233053</v>
+        <v>0.232934</v>
       </c>
     </row>
     <row r="40">
@@ -3804,13 +3804,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.239962</v>
+        <v>0.240129</v>
       </c>
       <c r="C40" t="n">
-        <v>0.196781</v>
+        <v>0.196558</v>
       </c>
       <c r="D40" t="n">
-        <v>0.232072</v>
+        <v>0.231967</v>
       </c>
     </row>
     <row r="41">
@@ -3818,13 +3818,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.235798</v>
+        <v>0.235698</v>
       </c>
       <c r="C41" t="n">
-        <v>0.207626</v>
+        <v>0.207526</v>
       </c>
       <c r="D41" t="n">
-        <v>0.230831</v>
+        <v>0.230765</v>
       </c>
     </row>
     <row r="42">
@@ -3832,13 +3832,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.230722</v>
+        <v>0.231252</v>
       </c>
       <c r="C42" t="n">
-        <v>0.217698</v>
+        <v>0.217537</v>
       </c>
       <c r="D42" t="n">
-        <v>0.229681</v>
+        <v>0.22952</v>
       </c>
     </row>
     <row r="43">
@@ -3846,13 +3846,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.22621</v>
+        <v>0.226441</v>
       </c>
       <c r="C43" t="n">
-        <v>0.229875</v>
+        <v>0.228486</v>
       </c>
       <c r="D43" t="n">
-        <v>0.228421</v>
+        <v>0.228567</v>
       </c>
     </row>
     <row r="44">
@@ -3860,13 +3860,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.221104</v>
+        <v>0.221164</v>
       </c>
       <c r="C44" t="n">
-        <v>0.243353</v>
+        <v>0.242</v>
       </c>
       <c r="D44" t="n">
-        <v>0.22765</v>
+        <v>0.22767</v>
       </c>
     </row>
     <row r="45">
@@ -3874,13 +3874,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.216096</v>
+        <v>0.215871</v>
       </c>
       <c r="C45" t="n">
-        <v>0.258675</v>
+        <v>0.258416</v>
       </c>
       <c r="D45" t="n">
-        <v>0.226684</v>
+        <v>0.2267</v>
       </c>
     </row>
     <row r="46">
@@ -3888,13 +3888,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.21052</v>
+        <v>0.210267</v>
       </c>
       <c r="C46" t="n">
-        <v>0.275434</v>
+        <v>0.275068</v>
       </c>
       <c r="D46" t="n">
-        <v>0.225698</v>
+        <v>0.225695</v>
       </c>
     </row>
     <row r="47">
@@ -3902,13 +3902,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.204371</v>
+        <v>0.204435</v>
       </c>
       <c r="C47" t="n">
-        <v>0.29524</v>
+        <v>0.293952</v>
       </c>
       <c r="D47" t="n">
-        <v>0.224889</v>
+        <v>0.224902</v>
       </c>
     </row>
     <row r="48">
@@ -3916,13 +3916,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.198333</v>
+        <v>0.197921</v>
       </c>
       <c r="C48" t="n">
-        <v>0.318876</v>
+        <v>0.318372</v>
       </c>
       <c r="D48" t="n">
-        <v>0.22426</v>
+        <v>0.224058</v>
       </c>
     </row>
     <row r="49">
@@ -3930,13 +3930,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.19099</v>
+        <v>0.190987</v>
       </c>
       <c r="C49" t="n">
-        <v>0.343007</v>
+        <v>0.341349</v>
       </c>
       <c r="D49" t="n">
-        <v>0.223368</v>
+        <v>0.223397</v>
       </c>
     </row>
     <row r="50">
@@ -3944,13 +3944,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.183524</v>
+        <v>0.183584</v>
       </c>
       <c r="C50" t="n">
-        <v>0.369959</v>
+        <v>0.372263</v>
       </c>
       <c r="D50" t="n">
-        <v>0.222851</v>
+        <v>0.222779</v>
       </c>
     </row>
     <row r="51">
@@ -3958,13 +3958,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.174033</v>
+        <v>0.174489</v>
       </c>
       <c r="C51" t="n">
-        <v>0.17825</v>
+        <v>0.176991</v>
       </c>
       <c r="D51" t="n">
-        <v>0.236828</v>
+        <v>0.236697</v>
       </c>
     </row>
     <row r="52">
@@ -3972,13 +3972,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.162952</v>
+        <v>0.163384</v>
       </c>
       <c r="C52" t="n">
-        <v>0.183432</v>
+        <v>0.183643</v>
       </c>
       <c r="D52" t="n">
-        <v>0.235371</v>
+        <v>0.235388</v>
       </c>
     </row>
     <row r="53">
@@ -3986,13 +3986,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.246174</v>
+        <v>0.246709</v>
       </c>
       <c r="C53" t="n">
-        <v>0.191844</v>
+        <v>0.191762</v>
       </c>
       <c r="D53" t="n">
-        <v>0.234119</v>
+        <v>0.234147</v>
       </c>
     </row>
     <row r="54">
@@ -4000,13 +4000,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.242003</v>
+        <v>0.242397</v>
       </c>
       <c r="C54" t="n">
-        <v>0.200446</v>
+        <v>0.201185</v>
       </c>
       <c r="D54" t="n">
-        <v>0.232685</v>
+        <v>0.232732</v>
       </c>
     </row>
     <row r="55">
@@ -4014,13 +4014,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.237787</v>
+        <v>0.238351</v>
       </c>
       <c r="C55" t="n">
-        <v>0.21076</v>
+        <v>0.211384</v>
       </c>
       <c r="D55" t="n">
-        <v>0.231449</v>
+        <v>0.231487</v>
       </c>
     </row>
     <row r="56">
@@ -4028,13 +4028,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.233371</v>
+        <v>0.233987</v>
       </c>
       <c r="C56" t="n">
-        <v>0.219721</v>
+        <v>0.224188</v>
       </c>
       <c r="D56" t="n">
-        <v>0.230276</v>
+        <v>0.230338</v>
       </c>
     </row>
     <row r="57">
@@ -4042,13 +4042,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.228569</v>
+        <v>0.229127</v>
       </c>
       <c r="C57" t="n">
-        <v>0.234096</v>
+        <v>0.236947</v>
       </c>
       <c r="D57" t="n">
-        <v>0.229297</v>
+        <v>0.229219</v>
       </c>
     </row>
     <row r="58">
@@ -4056,13 +4056,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.223262</v>
+        <v>0.223382</v>
       </c>
       <c r="C58" t="n">
-        <v>0.246616</v>
+        <v>0.250214</v>
       </c>
       <c r="D58" t="n">
-        <v>0.228182</v>
+        <v>0.228112</v>
       </c>
     </row>
     <row r="59">
@@ -4070,13 +4070,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.217779</v>
+        <v>0.218376</v>
       </c>
       <c r="C59" t="n">
-        <v>0.260476</v>
+        <v>0.267006</v>
       </c>
       <c r="D59" t="n">
-        <v>0.227238</v>
+        <v>0.227135</v>
       </c>
     </row>
     <row r="60">
@@ -4084,13 +4084,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.2124</v>
+        <v>0.212689</v>
       </c>
       <c r="C60" t="n">
-        <v>0.276628</v>
+        <v>0.279326</v>
       </c>
       <c r="D60" t="n">
-        <v>0.226311</v>
+        <v>0.226403</v>
       </c>
     </row>
     <row r="61">
@@ -4098,13 +4098,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.206369</v>
+        <v>0.206934</v>
       </c>
       <c r="C61" t="n">
-        <v>0.297509</v>
+        <v>0.300619</v>
       </c>
       <c r="D61" t="n">
-        <v>0.225514</v>
+        <v>0.225644</v>
       </c>
     </row>
     <row r="62">
@@ -4112,13 +4112,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.200163</v>
+        <v>0.200422</v>
       </c>
       <c r="C62" t="n">
-        <v>0.321493</v>
+        <v>0.321557</v>
       </c>
       <c r="D62" t="n">
-        <v>0.224707</v>
+        <v>0.224726</v>
       </c>
     </row>
     <row r="63">
@@ -4126,13 +4126,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.193626</v>
+        <v>0.193331</v>
       </c>
       <c r="C63" t="n">
-        <v>0.346263</v>
+        <v>0.346773</v>
       </c>
       <c r="D63" t="n">
-        <v>0.223825</v>
+        <v>0.223931</v>
       </c>
     </row>
     <row r="64">
@@ -4140,13 +4140,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.185958</v>
+        <v>0.185313</v>
       </c>
       <c r="C64" t="n">
-        <v>0.376102</v>
+        <v>0.375528</v>
       </c>
       <c r="D64" t="n">
-        <v>0.222883</v>
+        <v>0.222928</v>
       </c>
     </row>
     <row r="65">
@@ -4154,13 +4154,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.17684</v>
+        <v>0.176765</v>
       </c>
       <c r="C65" t="n">
-        <v>0.180613</v>
+        <v>0.179183</v>
       </c>
       <c r="D65" t="n">
-        <v>0.222272</v>
+        <v>0.222302</v>
       </c>
     </row>
     <row r="66">
@@ -4168,13 +4168,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.166712</v>
+        <v>0.166692</v>
       </c>
       <c r="C66" t="n">
-        <v>0.185921</v>
+        <v>0.18578</v>
       </c>
       <c r="D66" t="n">
-        <v>0.236408</v>
+        <v>0.236401</v>
       </c>
     </row>
     <row r="67">
@@ -4182,13 +4182,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.248085</v>
+        <v>0.248319</v>
       </c>
       <c r="C67" t="n">
-        <v>0.19254</v>
+        <v>0.194295</v>
       </c>
       <c r="D67" t="n">
-        <v>0.234827</v>
+        <v>0.234826</v>
       </c>
     </row>
     <row r="68">
@@ -4196,13 +4196,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.244073</v>
+        <v>0.244632</v>
       </c>
       <c r="C68" t="n">
-        <v>0.201267</v>
+        <v>0.201758</v>
       </c>
       <c r="D68" t="n">
-        <v>0.233592</v>
+        <v>0.233532</v>
       </c>
     </row>
     <row r="69">
@@ -4210,13 +4210,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.239978</v>
+        <v>0.240145</v>
       </c>
       <c r="C69" t="n">
-        <v>0.212975</v>
+        <v>0.211122</v>
       </c>
       <c r="D69" t="n">
-        <v>0.232286</v>
+        <v>0.23234</v>
       </c>
     </row>
     <row r="70">
@@ -4224,13 +4224,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.235422</v>
+        <v>0.235062</v>
       </c>
       <c r="C70" t="n">
-        <v>0.222019</v>
+        <v>0.220467</v>
       </c>
       <c r="D70" t="n">
-        <v>0.231176</v>
+        <v>0.23111</v>
       </c>
     </row>
     <row r="71">
@@ -4238,13 +4238,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.230652</v>
+        <v>0.230154</v>
       </c>
       <c r="C71" t="n">
-        <v>0.233806</v>
+        <v>0.232339</v>
       </c>
       <c r="D71" t="n">
-        <v>0.230044</v>
+        <v>0.229938</v>
       </c>
     </row>
     <row r="72">
@@ -4252,13 +4252,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.225824</v>
+        <v>0.224902</v>
       </c>
       <c r="C72" t="n">
-        <v>0.247399</v>
+        <v>0.245481</v>
       </c>
       <c r="D72" t="n">
-        <v>0.229075</v>
+        <v>0.228867</v>
       </c>
     </row>
     <row r="73">
@@ -4266,13 +4266,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.220292</v>
+        <v>0.219728</v>
       </c>
       <c r="C73" t="n">
-        <v>0.264291</v>
+        <v>0.261828</v>
       </c>
       <c r="D73" t="n">
-        <v>0.227771</v>
+        <v>0.227848</v>
       </c>
     </row>
     <row r="74">
@@ -4280,13 +4280,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.214871</v>
+        <v>0.213892</v>
       </c>
       <c r="C74" t="n">
-        <v>0.280577</v>
+        <v>0.279306</v>
       </c>
       <c r="D74" t="n">
-        <v>0.226842</v>
+        <v>0.22679</v>
       </c>
     </row>
     <row r="75">
@@ -4294,13 +4294,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.209047</v>
+        <v>0.208092</v>
       </c>
       <c r="C75" t="n">
-        <v>0.298173</v>
+        <v>0.299592</v>
       </c>
       <c r="D75" t="n">
-        <v>0.225973</v>
+        <v>0.225869</v>
       </c>
     </row>
     <row r="76">
@@ -4308,13 +4308,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.20276</v>
+        <v>0.201757</v>
       </c>
       <c r="C76" t="n">
-        <v>0.320345</v>
+        <v>0.321586</v>
       </c>
       <c r="D76" t="n">
-        <v>0.225091</v>
+        <v>0.225025</v>
       </c>
     </row>
     <row r="77">
@@ -4322,13 +4322,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.196003</v>
+        <v>0.195236</v>
       </c>
       <c r="C77" t="n">
-        <v>0.347786</v>
+        <v>0.348066</v>
       </c>
       <c r="D77" t="n">
-        <v>0.224359</v>
+        <v>0.224256</v>
       </c>
     </row>
     <row r="78">
@@ -4336,13 +4336,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.188441</v>
+        <v>0.187717</v>
       </c>
       <c r="C78" t="n">
-        <v>0.37601</v>
+        <v>0.375448</v>
       </c>
       <c r="D78" t="n">
-        <v>0.223485</v>
+        <v>0.223437</v>
       </c>
     </row>
     <row r="79">
@@ -4350,13 +4350,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.180198</v>
+        <v>0.179018</v>
       </c>
       <c r="C79" t="n">
-        <v>0.226702</v>
+        <v>0.227381</v>
       </c>
       <c r="D79" t="n">
-        <v>0.22274</v>
+        <v>0.22267</v>
       </c>
     </row>
     <row r="80">
@@ -4364,13 +4364,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.16941</v>
+        <v>0.16929</v>
       </c>
       <c r="C80" t="n">
-        <v>0.2318</v>
+        <v>0.232789</v>
       </c>
       <c r="D80" t="n">
-        <v>0.239975</v>
+        <v>0.239935</v>
       </c>
     </row>
     <row r="81">
@@ -4378,13 +4378,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.249574</v>
+        <v>0.249456</v>
       </c>
       <c r="C81" t="n">
-        <v>0.235306</v>
+        <v>0.239314</v>
       </c>
       <c r="D81" t="n">
-        <v>0.237402</v>
+        <v>0.237655</v>
       </c>
     </row>
     <row r="82">
@@ -4392,13 +4392,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.245613</v>
+        <v>0.245182</v>
       </c>
       <c r="C82" t="n">
-        <v>0.238696</v>
+        <v>0.240185</v>
       </c>
       <c r="D82" t="n">
-        <v>0.235498</v>
+        <v>0.235908</v>
       </c>
     </row>
     <row r="83">
@@ -4406,13 +4406,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.241352</v>
+        <v>0.240917</v>
       </c>
       <c r="C83" t="n">
-        <v>0.24962</v>
+        <v>0.24435</v>
       </c>
       <c r="D83" t="n">
-        <v>0.234058</v>
+        <v>0.233914</v>
       </c>
     </row>
     <row r="84">
@@ -4420,13 +4420,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.237355</v>
+        <v>0.236248</v>
       </c>
       <c r="C84" t="n">
-        <v>0.256488</v>
+        <v>0.256366</v>
       </c>
       <c r="D84" t="n">
-        <v>0.233032</v>
+        <v>0.232741</v>
       </c>
     </row>
     <row r="85">
@@ -4434,13 +4434,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.231743</v>
+        <v>0.23157</v>
       </c>
       <c r="C85" t="n">
-        <v>0.267994</v>
+        <v>0.268612</v>
       </c>
       <c r="D85" t="n">
-        <v>0.23146</v>
+        <v>0.230949</v>
       </c>
     </row>
     <row r="86">
@@ -4448,13 +4448,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.226685</v>
+        <v>0.226458</v>
       </c>
       <c r="C86" t="n">
-        <v>0.27872</v>
+        <v>0.276687</v>
       </c>
       <c r="D86" t="n">
-        <v>0.22985</v>
+        <v>0.229644</v>
       </c>
     </row>
     <row r="87">
@@ -4462,13 +4462,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.221466</v>
+        <v>0.221212</v>
       </c>
       <c r="C87" t="n">
-        <v>0.292335</v>
+        <v>0.2907</v>
       </c>
       <c r="D87" t="n">
-        <v>0.228379</v>
+        <v>0.228372</v>
       </c>
     </row>
     <row r="88">
@@ -4476,13 +4476,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.215647</v>
+        <v>0.215477</v>
       </c>
       <c r="C88" t="n">
-        <v>0.304005</v>
+        <v>0.308931</v>
       </c>
       <c r="D88" t="n">
-        <v>0.227333</v>
+        <v>0.227162</v>
       </c>
     </row>
     <row r="89">
@@ -4490,13 +4490,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.209984</v>
+        <v>0.209764</v>
       </c>
       <c r="C89" t="n">
-        <v>0.322314</v>
+        <v>0.320936</v>
       </c>
       <c r="D89" t="n">
-        <v>0.226459</v>
+        <v>0.226285</v>
       </c>
     </row>
     <row r="90">
@@ -4504,13 +4504,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.203654</v>
+        <v>0.203742</v>
       </c>
       <c r="C90" t="n">
-        <v>0.340235</v>
+        <v>0.340939</v>
       </c>
       <c r="D90" t="n">
-        <v>0.225576</v>
+        <v>0.225493</v>
       </c>
     </row>
     <row r="91">
@@ -4518,13 +4518,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.197127</v>
+        <v>0.197671</v>
       </c>
       <c r="C91" t="n">
-        <v>0.362597</v>
+        <v>0.363827</v>
       </c>
       <c r="D91" t="n">
-        <v>0.224775</v>
+        <v>0.224545</v>
       </c>
     </row>
     <row r="92">
@@ -4532,13 +4532,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.189716</v>
+        <v>0.189863</v>
       </c>
       <c r="C92" t="n">
-        <v>0.393907</v>
+        <v>0.389872</v>
       </c>
       <c r="D92" t="n">
-        <v>0.223855</v>
+        <v>0.223785</v>
       </c>
     </row>
     <row r="93">
@@ -4546,13 +4546,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.181437</v>
+        <v>0.181445</v>
       </c>
       <c r="C93" t="n">
-        <v>0.417441</v>
+        <v>0.418537</v>
       </c>
       <c r="D93" t="n">
-        <v>0.223176</v>
+        <v>0.223062</v>
       </c>
     </row>
     <row r="94">
@@ -4560,13 +4560,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.173017</v>
+        <v>0.171732</v>
       </c>
       <c r="C94" t="n">
-        <v>0.378164</v>
+        <v>0.377042</v>
       </c>
       <c r="D94" t="n">
-        <v>0.240405</v>
+        <v>0.240461</v>
       </c>
     </row>
     <row r="95">
@@ -4574,13 +4574,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.249779</v>
+        <v>0.249917</v>
       </c>
       <c r="C95" t="n">
-        <v>0.383729</v>
+        <v>0.379399</v>
       </c>
       <c r="D95" t="n">
-        <v>0.237768</v>
+        <v>0.237719</v>
       </c>
     </row>
     <row r="96">
@@ -4588,13 +4588,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.246129</v>
+        <v>0.24614</v>
       </c>
       <c r="C96" t="n">
-        <v>0.383571</v>
+        <v>0.385717</v>
       </c>
       <c r="D96" t="n">
-        <v>0.236068</v>
+        <v>0.235902</v>
       </c>
     </row>
     <row r="97">
@@ -4602,13 +4602,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.242045</v>
+        <v>0.242142</v>
       </c>
       <c r="C97" t="n">
-        <v>0.395255</v>
+        <v>0.392099</v>
       </c>
       <c r="D97" t="n">
-        <v>0.234842</v>
+        <v>0.23432</v>
       </c>
     </row>
     <row r="98">
@@ -4616,13 +4616,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.237676</v>
+        <v>0.237681</v>
       </c>
       <c r="C98" t="n">
-        <v>0.400455</v>
+        <v>0.396905</v>
       </c>
       <c r="D98" t="n">
-        <v>0.233147</v>
+        <v>0.233077</v>
       </c>
     </row>
     <row r="99">
@@ -4630,13 +4630,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.232789</v>
+        <v>0.232706</v>
       </c>
       <c r="C99" t="n">
-        <v>0.406752</v>
+        <v>0.407028</v>
       </c>
       <c r="D99" t="n">
-        <v>0.231858</v>
+        <v>0.231711</v>
       </c>
     </row>
     <row r="100">
@@ -4644,13 +4644,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.227853</v>
+        <v>0.227818</v>
       </c>
       <c r="C100" t="n">
-        <v>0.417771</v>
+        <v>0.420835</v>
       </c>
       <c r="D100" t="n">
-        <v>0.230147</v>
+        <v>0.230129</v>
       </c>
     </row>
     <row r="101">
@@ -4658,13 +4658,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.222309</v>
+        <v>0.222408</v>
       </c>
       <c r="C101" t="n">
-        <v>0.432842</v>
+        <v>0.433776</v>
       </c>
       <c r="D101" t="n">
-        <v>0.228907</v>
+        <v>0.229026</v>
       </c>
     </row>
     <row r="102">
@@ -4672,13 +4672,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.217113</v>
+        <v>0.216862</v>
       </c>
       <c r="C102" t="n">
-        <v>0.444065</v>
+        <v>0.444364</v>
       </c>
       <c r="D102" t="n">
-        <v>0.227853</v>
+        <v>0.227949</v>
       </c>
     </row>
     <row r="103">
@@ -4686,13 +4686,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.211453</v>
+        <v>0.211103</v>
       </c>
       <c r="C103" t="n">
-        <v>0.468412</v>
+        <v>0.464428</v>
       </c>
       <c r="D103" t="n">
-        <v>0.227174</v>
+        <v>0.226985</v>
       </c>
     </row>
     <row r="104">
@@ -4700,13 +4700,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.205347</v>
+        <v>0.205225</v>
       </c>
       <c r="C104" t="n">
-        <v>0.492392</v>
+        <v>0.48576</v>
       </c>
       <c r="D104" t="n">
-        <v>0.22652</v>
+        <v>0.226486</v>
       </c>
     </row>
     <row r="105">
@@ -4714,13 +4714,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.199034</v>
+        <v>0.198722</v>
       </c>
       <c r="C105" t="n">
-        <v>0.518729</v>
+        <v>0.515066</v>
       </c>
       <c r="D105" t="n">
-        <v>0.225645</v>
+        <v>0.22569</v>
       </c>
     </row>
     <row r="106">
@@ -4728,13 +4728,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.191559</v>
+        <v>0.191637</v>
       </c>
       <c r="C106" t="n">
-        <v>0.5464059999999999</v>
+        <v>0.541419</v>
       </c>
       <c r="D106" t="n">
-        <v>0.22478</v>
+        <v>0.224766</v>
       </c>
     </row>
     <row r="107">
@@ -4742,13 +4742,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183444</v>
+        <v>0.183405</v>
       </c>
       <c r="C107" t="n">
-        <v>0.580531</v>
+        <v>0.582072</v>
       </c>
       <c r="D107" t="n">
-        <v>0.223993</v>
+        <v>0.223956</v>
       </c>
     </row>
     <row r="108">
@@ -4756,13 +4756,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.17371</v>
+        <v>0.173768</v>
       </c>
       <c r="C108" t="n">
-        <v>0.478511</v>
+        <v>0.469583</v>
       </c>
       <c r="D108" t="n">
-        <v>0.239865</v>
+        <v>0.239834</v>
       </c>
     </row>
     <row r="109">
@@ -4770,13 +4770,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.162807</v>
+        <v>0.162596</v>
       </c>
       <c r="C109" t="n">
-        <v>0.487266</v>
+        <v>0.47798</v>
       </c>
       <c r="D109" t="n">
-        <v>0.237311</v>
+        <v>0.2374</v>
       </c>
     </row>
     <row r="110">
@@ -4784,13 +4784,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.247596</v>
+        <v>0.247369</v>
       </c>
       <c r="C110" t="n">
-        <v>0.495824</v>
+        <v>0.486351</v>
       </c>
       <c r="D110" t="n">
-        <v>0.235366</v>
+        <v>0.235446</v>
       </c>
     </row>
     <row r="111">
@@ -4798,13 +4798,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.243629</v>
+        <v>0.243414</v>
       </c>
       <c r="C111" t="n">
-        <v>0.505317</v>
+        <v>0.495971</v>
       </c>
       <c r="D111" t="n">
-        <v>0.233681</v>
+        <v>0.233762</v>
       </c>
     </row>
     <row r="112">
@@ -4812,13 +4812,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.239132</v>
+        <v>0.238989</v>
       </c>
       <c r="C112" t="n">
-        <v>0.518221</v>
+        <v>0.5123450000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.232228</v>
+        <v>0.232328</v>
       </c>
     </row>
     <row r="113">
@@ -4826,13 +4826,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.234298</v>
+        <v>0.234227</v>
       </c>
       <c r="C113" t="n">
-        <v>0.5306</v>
+        <v>0.524224</v>
       </c>
       <c r="D113" t="n">
-        <v>0.230938</v>
+        <v>0.230992</v>
       </c>
     </row>
     <row r="114">
@@ -4840,13 +4840,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.229192</v>
+        <v>0.229143</v>
       </c>
       <c r="C114" t="n">
-        <v>0.545943</v>
+        <v>0.538209</v>
       </c>
       <c r="D114" t="n">
-        <v>0.229714</v>
+        <v>0.229807</v>
       </c>
     </row>
     <row r="115">
@@ -4854,13 +4854,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.223766</v>
+        <v>0.223797</v>
       </c>
       <c r="C115" t="n">
-        <v>0.563163</v>
+        <v>0.556732</v>
       </c>
       <c r="D115" t="n">
-        <v>0.228601</v>
+        <v>0.228748</v>
       </c>
     </row>
     <row r="116">
@@ -4868,13 +4868,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.218354</v>
+        <v>0.218426</v>
       </c>
       <c r="C116" t="n">
-        <v>0.582345</v>
+        <v>0.577521</v>
       </c>
       <c r="D116" t="n">
-        <v>0.227606</v>
+        <v>0.227742</v>
       </c>
     </row>
     <row r="117">
@@ -4882,13 +4882,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.212737</v>
+        <v>0.212804</v>
       </c>
       <c r="C117" t="n">
-        <v>0.598124</v>
+        <v>0.59307</v>
       </c>
       <c r="D117" t="n">
-        <v>0.227132</v>
+        <v>0.227221</v>
       </c>
     </row>
     <row r="118">
@@ -4896,13 +4896,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.206498</v>
+        <v>0.20691</v>
       </c>
       <c r="C118" t="n">
-        <v>0.6336889999999999</v>
+        <v>0.626337</v>
       </c>
       <c r="D118" t="n">
-        <v>0.226082</v>
+        <v>0.226248</v>
       </c>
     </row>
     <row r="119">
@@ -4910,13 +4910,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.200138</v>
+        <v>0.200462</v>
       </c>
       <c r="C119" t="n">
-        <v>0.6749270000000001</v>
+        <v>0.667392</v>
       </c>
       <c r="D119" t="n">
-        <v>0.225308</v>
+        <v>0.225385</v>
       </c>
     </row>
     <row r="120">
@@ -4924,13 +4924,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.193169</v>
+        <v>0.193126</v>
       </c>
       <c r="C120" t="n">
-        <v>0.726202</v>
+        <v>0.7201149999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>0.224478</v>
+        <v>0.224603</v>
       </c>
     </row>
     <row r="121">
@@ -4938,13 +4938,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.184852</v>
+        <v>0.185117</v>
       </c>
       <c r="C121" t="n">
-        <v>0.790945</v>
+        <v>0.784586</v>
       </c>
       <c r="D121" t="n">
-        <v>0.22377</v>
+        <v>0.223874</v>
       </c>
     </row>
     <row r="122">
@@ -4952,13 +4952,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.175831</v>
+        <v>0.175877</v>
       </c>
       <c r="C122" t="n">
-        <v>0.520234</v>
+        <v>0.510804</v>
       </c>
       <c r="D122" t="n">
-        <v>0.22304</v>
+        <v>0.223106</v>
       </c>
     </row>
     <row r="123">
@@ -4966,13 +4966,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.165316</v>
+        <v>0.164842</v>
       </c>
       <c r="C123" t="n">
-        <v>0.528363</v>
+        <v>0.5161289999999999</v>
       </c>
       <c r="D123" t="n">
-        <v>0.237494</v>
+        <v>0.2376</v>
       </c>
     </row>
     <row r="124">
@@ -4980,13 +4980,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.248016</v>
+        <v>0.248201</v>
       </c>
       <c r="C124" t="n">
-        <v>0.535081</v>
+        <v>0.523601</v>
       </c>
       <c r="D124" t="n">
-        <v>0.235585</v>
+        <v>0.235732</v>
       </c>
     </row>
     <row r="125">
@@ -4994,13 +4994,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.24407</v>
+        <v>0.244184</v>
       </c>
       <c r="C125" t="n">
-        <v>0.547861</v>
+        <v>0.5361669999999999</v>
       </c>
       <c r="D125" t="n">
-        <v>0.233893</v>
+        <v>0.234043</v>
       </c>
     </row>
     <row r="126">
@@ -5008,13 +5008,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.23979</v>
+        <v>0.239966</v>
       </c>
       <c r="C126" t="n">
-        <v>0.557617</v>
+        <v>0.552331</v>
       </c>
       <c r="D126" t="n">
-        <v>0.232397</v>
+        <v>0.23248</v>
       </c>
     </row>
     <row r="127">
@@ -5022,13 +5022,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.235103</v>
+        <v>0.235211</v>
       </c>
       <c r="C127" t="n">
-        <v>0.574027</v>
+        <v>0.561063</v>
       </c>
       <c r="D127" t="n">
-        <v>0.231087</v>
+        <v>0.231197</v>
       </c>
     </row>
     <row r="128">
@@ -5036,13 +5036,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.230018</v>
+        <v>0.230154</v>
       </c>
       <c r="C128" t="n">
-        <v>0.589224</v>
+        <v>0.584319</v>
       </c>
       <c r="D128" t="n">
-        <v>0.229902</v>
+        <v>0.22997</v>
       </c>
     </row>
     <row r="129">
@@ -5050,13 +5050,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.224805</v>
+        <v>0.224937</v>
       </c>
       <c r="C129" t="n">
-        <v>0.598724</v>
+        <v>0.606707</v>
       </c>
       <c r="D129" t="n">
-        <v>0.228752</v>
+        <v>0.228843</v>
       </c>
     </row>
     <row r="130">
@@ -5064,13 +5064,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.21951</v>
+        <v>0.219558</v>
       </c>
       <c r="C130" t="n">
-        <v>0.624038</v>
+        <v>0.625165</v>
       </c>
       <c r="D130" t="n">
-        <v>0.227705</v>
+        <v>0.227809</v>
       </c>
     </row>
     <row r="131">
@@ -5078,13 +5078,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.213758</v>
+        <v>0.213617</v>
       </c>
       <c r="C131" t="n">
-        <v>0.653002</v>
+        <v>0.662334</v>
       </c>
       <c r="D131" t="n">
-        <v>0.226762</v>
+        <v>0.22686</v>
       </c>
     </row>
     <row r="132">
@@ -5092,13 +5092,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.207695</v>
+        <v>0.208047</v>
       </c>
       <c r="C132" t="n">
-        <v>0.690578</v>
+        <v>0.695859</v>
       </c>
       <c r="D132" t="n">
-        <v>0.225831</v>
+        <v>0.225888</v>
       </c>
     </row>
     <row r="133">
@@ -5106,13 +5106,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.201783</v>
+        <v>0.201498</v>
       </c>
       <c r="C133" t="n">
-        <v>0.747698</v>
+        <v>0.745587</v>
       </c>
       <c r="D133" t="n">
-        <v>0.224906</v>
+        <v>0.225013</v>
       </c>
     </row>
     <row r="134">
@@ -5120,13 +5120,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.195131</v>
+        <v>0.194533</v>
       </c>
       <c r="C134" t="n">
-        <v>0.8138069999999999</v>
+        <v>0.808254</v>
       </c>
       <c r="D134" t="n">
-        <v>0.224148</v>
+        <v>0.224247</v>
       </c>
     </row>
     <row r="135">
@@ -5134,13 +5134,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.186962</v>
+        <v>0.187076</v>
       </c>
       <c r="C135" t="n">
-        <v>0.891495</v>
+        <v>0.878142</v>
       </c>
       <c r="D135" t="n">
-        <v>0.223329</v>
+        <v>0.223511</v>
       </c>
     </row>
     <row r="136">
@@ -5148,13 +5148,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.17821</v>
+        <v>0.178128</v>
       </c>
       <c r="C136" t="n">
-        <v>0.537976</v>
+        <v>0.553674</v>
       </c>
       <c r="D136" t="n">
-        <v>0.222969</v>
+        <v>0.223226</v>
       </c>
     </row>
     <row r="137">
@@ -5162,13 +5162,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.168055</v>
+        <v>0.167935</v>
       </c>
       <c r="C137" t="n">
-        <v>0.549328</v>
+        <v>0.560728</v>
       </c>
       <c r="D137" t="n">
-        <v>0.238572</v>
+        <v>0.238708</v>
       </c>
     </row>
     <row r="138">
@@ -5176,13 +5176,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.248822</v>
+        <v>0.249093</v>
       </c>
       <c r="C138" t="n">
-        <v>0.557211</v>
+        <v>0.569534</v>
       </c>
       <c r="D138" t="n">
-        <v>0.236492</v>
+        <v>0.236633</v>
       </c>
     </row>
     <row r="139">
@@ -5190,13 +5190,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.245115</v>
+        <v>0.24524</v>
       </c>
       <c r="C139" t="n">
-        <v>0.56799</v>
+        <v>0.580144</v>
       </c>
       <c r="D139" t="n">
-        <v>0.234747</v>
+        <v>0.234856</v>
       </c>
     </row>
     <row r="140">
@@ -5204,13 +5204,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.240821</v>
+        <v>0.240959</v>
       </c>
       <c r="C140" t="n">
-        <v>0.578848</v>
+        <v>0.588495</v>
       </c>
       <c r="D140" t="n">
-        <v>0.233209</v>
+        <v>0.233327</v>
       </c>
     </row>
     <row r="141">
@@ -5218,13 +5218,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.236299</v>
+        <v>0.23629</v>
       </c>
       <c r="C141" t="n">
-        <v>0.594082</v>
+        <v>0.604201</v>
       </c>
       <c r="D141" t="n">
-        <v>0.231832</v>
+        <v>0.231906</v>
       </c>
     </row>
     <row r="142">
@@ -5232,13 +5232,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.231384</v>
+        <v>0.231337</v>
       </c>
       <c r="C142" t="n">
-        <v>0.609891</v>
+        <v>0.6224690000000001</v>
       </c>
       <c r="D142" t="n">
-        <v>0.230586</v>
+        <v>0.230616</v>
       </c>
     </row>
     <row r="143">
@@ -5246,13 +5246,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.226022</v>
+        <v>0.226097</v>
       </c>
       <c r="C143" t="n">
-        <v>0.625973</v>
+        <v>0.6413759999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>0.229332</v>
+        <v>0.229464</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.184276</v>
+        <v>0.175789</v>
       </c>
       <c r="C2" t="n">
-        <v>0.205326</v>
+        <v>0.205283</v>
       </c>
       <c r="D2" t="n">
-        <v>0.210711</v>
+        <v>0.210181</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.177504</v>
+        <v>0.174377</v>
       </c>
       <c r="C3" t="n">
-        <v>0.205849</v>
+        <v>0.205575</v>
       </c>
       <c r="D3" t="n">
-        <v>0.21022</v>
+        <v>0.209692</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.173878</v>
+        <v>0.172774</v>
       </c>
       <c r="C4" t="n">
-        <v>0.204956</v>
+        <v>0.20485</v>
       </c>
       <c r="D4" t="n">
-        <v>0.212258</v>
+        <v>0.211129</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.171165</v>
+        <v>0.169949</v>
       </c>
       <c r="C5" t="n">
-        <v>0.20638</v>
+        <v>0.205721</v>
       </c>
       <c r="D5" t="n">
-        <v>0.212294</v>
+        <v>0.211656</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.167109</v>
+        <v>0.166137</v>
       </c>
       <c r="C6" t="n">
-        <v>0.205545</v>
+        <v>0.206141</v>
       </c>
       <c r="D6" t="n">
-        <v>0.213306</v>
+        <v>0.213049</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.160223</v>
+        <v>0.16129</v>
       </c>
       <c r="C7" t="n">
-        <v>0.205397</v>
+        <v>0.205593</v>
       </c>
       <c r="D7" t="n">
-        <v>0.212245</v>
+        <v>0.211776</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.153675</v>
+        <v>0.153804</v>
       </c>
       <c r="C8" t="n">
-        <v>0.206683</v>
+        <v>0.206615</v>
       </c>
       <c r="D8" t="n">
-        <v>0.212966</v>
+        <v>0.213085</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.147023</v>
+        <v>0.146146</v>
       </c>
       <c r="C9" t="n">
-        <v>0.205525</v>
+        <v>0.205942</v>
       </c>
       <c r="D9" t="n">
-        <v>0.229897</v>
+        <v>0.2294</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.228067</v>
+        <v>0.226096</v>
       </c>
       <c r="C10" t="n">
-        <v>0.224033</v>
+        <v>0.223847</v>
       </c>
       <c r="D10" t="n">
-        <v>0.228773</v>
+        <v>0.226994</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.223402</v>
+        <v>0.222593</v>
       </c>
       <c r="C11" t="n">
-        <v>0.222042</v>
+        <v>0.222805</v>
       </c>
       <c r="D11" t="n">
-        <v>0.228102</v>
+        <v>0.226929</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.222037</v>
+        <v>0.221087</v>
       </c>
       <c r="C12" t="n">
-        <v>0.221485</v>
+        <v>0.222152</v>
       </c>
       <c r="D12" t="n">
-        <v>0.22706</v>
+        <v>0.226279</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.218996</v>
+        <v>0.21778</v>
       </c>
       <c r="C13" t="n">
-        <v>0.220597</v>
+        <v>0.221074</v>
       </c>
       <c r="D13" t="n">
-        <v>0.226349</v>
+        <v>0.225376</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.216189</v>
+        <v>0.214777</v>
       </c>
       <c r="C14" t="n">
-        <v>0.220244</v>
+        <v>0.220206</v>
       </c>
       <c r="D14" t="n">
-        <v>0.225905</v>
+        <v>0.225213</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.212462</v>
+        <v>0.211644</v>
       </c>
       <c r="C15" t="n">
-        <v>0.219356</v>
+        <v>0.219165</v>
       </c>
       <c r="D15" t="n">
-        <v>0.224884</v>
+        <v>0.224599</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.206564</v>
+        <v>0.20632</v>
       </c>
       <c r="C16" t="n">
-        <v>0.21907</v>
+        <v>0.218947</v>
       </c>
       <c r="D16" t="n">
-        <v>0.224386</v>
+        <v>0.223409</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.201328</v>
+        <v>0.20152</v>
       </c>
       <c r="C17" t="n">
-        <v>0.218493</v>
+        <v>0.21822</v>
       </c>
       <c r="D17" t="n">
-        <v>0.22389</v>
+        <v>0.223353</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.196513</v>
+        <v>0.19659</v>
       </c>
       <c r="C18" t="n">
-        <v>0.217405</v>
+        <v>0.217541</v>
       </c>
       <c r="D18" t="n">
-        <v>0.223021</v>
+        <v>0.222518</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.192767</v>
+        <v>0.192947</v>
       </c>
       <c r="C19" t="n">
-        <v>0.216542</v>
+        <v>0.216701</v>
       </c>
       <c r="D19" t="n">
-        <v>0.222127</v>
+        <v>0.221625</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1862</v>
+        <v>0.185992</v>
       </c>
       <c r="C20" t="n">
-        <v>0.216251</v>
+        <v>0.21609</v>
       </c>
       <c r="D20" t="n">
-        <v>0.221772</v>
+        <v>0.222015</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.179697</v>
+        <v>0.179275</v>
       </c>
       <c r="C21" t="n">
-        <v>0.215957</v>
+        <v>0.215261</v>
       </c>
       <c r="D21" t="n">
-        <v>0.22102</v>
+        <v>0.221097</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.173295</v>
+        <v>0.172514</v>
       </c>
       <c r="C22" t="n">
-        <v>0.215315</v>
+        <v>0.214414</v>
       </c>
       <c r="D22" t="n">
-        <v>0.220703</v>
+        <v>0.220459</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.162425</v>
+        <v>0.163155</v>
       </c>
       <c r="C23" t="n">
-        <v>0.214792</v>
+        <v>0.213607</v>
       </c>
       <c r="D23" t="n">
-        <v>0.235435</v>
+        <v>0.234028</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.240296</v>
+        <v>0.240278</v>
       </c>
       <c r="C24" t="n">
-        <v>0.227906</v>
+        <v>0.227754</v>
       </c>
       <c r="D24" t="n">
-        <v>0.232884</v>
+        <v>0.232678</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.238031</v>
+        <v>0.237441</v>
       </c>
       <c r="C25" t="n">
-        <v>0.226754</v>
+        <v>0.226086</v>
       </c>
       <c r="D25" t="n">
-        <v>0.231731</v>
+        <v>0.231285</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.23418</v>
+        <v>0.233837</v>
       </c>
       <c r="C26" t="n">
-        <v>0.225574</v>
+        <v>0.225247</v>
       </c>
       <c r="D26" t="n">
-        <v>0.230661</v>
+        <v>0.230516</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.230644</v>
+        <v>0.230142</v>
       </c>
       <c r="C27" t="n">
-        <v>0.224643</v>
+        <v>0.224609</v>
       </c>
       <c r="D27" t="n">
-        <v>0.229621</v>
+        <v>0.229497</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.226069</v>
+        <v>0.226138</v>
       </c>
       <c r="C28" t="n">
-        <v>0.223622</v>
+        <v>0.223711</v>
       </c>
       <c r="D28" t="n">
-        <v>0.228555</v>
+        <v>0.228723</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.221746</v>
+        <v>0.221444</v>
       </c>
       <c r="C29" t="n">
-        <v>0.222471</v>
+        <v>0.222376</v>
       </c>
       <c r="D29" t="n">
-        <v>0.227902</v>
+        <v>0.227328</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.215766</v>
+        <v>0.215686</v>
       </c>
       <c r="C30" t="n">
-        <v>0.221523</v>
+        <v>0.221213</v>
       </c>
       <c r="D30" t="n">
-        <v>0.226872</v>
+        <v>0.226585</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.211432</v>
+        <v>0.210939</v>
       </c>
       <c r="C31" t="n">
-        <v>0.220935</v>
+        <v>0.22032</v>
       </c>
       <c r="D31" t="n">
-        <v>0.22604</v>
+        <v>0.225626</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.20546</v>
+        <v>0.205027</v>
       </c>
       <c r="C32" t="n">
-        <v>0.219848</v>
+        <v>0.219355</v>
       </c>
       <c r="D32" t="n">
-        <v>0.225356</v>
+        <v>0.225089</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.19908</v>
+        <v>0.199495</v>
       </c>
       <c r="C33" t="n">
-        <v>0.218855</v>
+        <v>0.218536</v>
       </c>
       <c r="D33" t="n">
-        <v>0.224372</v>
+        <v>0.224236</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.193342</v>
+        <v>0.192712</v>
       </c>
       <c r="C34" t="n">
-        <v>0.218397</v>
+        <v>0.217866</v>
       </c>
       <c r="D34" t="n">
-        <v>0.223594</v>
+        <v>0.223678</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.186474</v>
+        <v>0.185968</v>
       </c>
       <c r="C35" t="n">
-        <v>0.217616</v>
+        <v>0.216712</v>
       </c>
       <c r="D35" t="n">
-        <v>0.222605</v>
+        <v>0.222927</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.17893</v>
+        <v>0.178315</v>
       </c>
       <c r="C36" t="n">
-        <v>0.217003</v>
+        <v>0.216326</v>
       </c>
       <c r="D36" t="n">
-        <v>0.222017</v>
+        <v>0.222509</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.169184</v>
+        <v>0.169249</v>
       </c>
       <c r="C37" t="n">
-        <v>0.21663</v>
+        <v>0.215936</v>
       </c>
       <c r="D37" t="n">
-        <v>0.23614</v>
+        <v>0.235711</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.246103</v>
+        <v>0.246024</v>
       </c>
       <c r="C38" t="n">
         <v>0.229502</v>
       </c>
       <c r="D38" t="n">
-        <v>0.234575</v>
+        <v>0.234464</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.242913</v>
+        <v>0.242535</v>
       </c>
       <c r="C39" t="n">
-        <v>0.227752</v>
+        <v>0.227773</v>
       </c>
       <c r="D39" t="n">
-        <v>0.233177</v>
+        <v>0.233035</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.240668</v>
+        <v>0.239142</v>
       </c>
       <c r="C40" t="n">
-        <v>0.226406</v>
+        <v>0.226214</v>
       </c>
       <c r="D40" t="n">
-        <v>0.232016</v>
+        <v>0.231848</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.234526</v>
+        <v>0.234157</v>
       </c>
       <c r="C41" t="n">
-        <v>0.225435</v>
+        <v>0.225507</v>
       </c>
       <c r="D41" t="n">
-        <v>0.23094</v>
+        <v>0.230815</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.230689</v>
+        <v>0.230226</v>
       </c>
       <c r="C42" t="n">
-        <v>0.224185</v>
+        <v>0.224171</v>
       </c>
       <c r="D42" t="n">
-        <v>0.229764</v>
+        <v>0.229551</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.225703</v>
+        <v>0.225349</v>
       </c>
       <c r="C43" t="n">
-        <v>0.223231</v>
+        <v>0.223026</v>
       </c>
       <c r="D43" t="n">
-        <v>0.228421</v>
+        <v>0.228316</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.220205</v>
+        <v>0.220042</v>
       </c>
       <c r="C44" t="n">
-        <v>0.222317</v>
+        <v>0.222241</v>
       </c>
       <c r="D44" t="n">
-        <v>0.227364</v>
+        <v>0.227455</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.214437</v>
+        <v>0.214426</v>
       </c>
       <c r="C45" t="n">
-        <v>0.221264</v>
+        <v>0.220934</v>
       </c>
       <c r="D45" t="n">
-        <v>0.226428</v>
+        <v>0.226631</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.208865</v>
+        <v>0.208774</v>
       </c>
       <c r="C46" t="n">
-        <v>0.220567</v>
+        <v>0.220161</v>
       </c>
       <c r="D46" t="n">
-        <v>0.225772</v>
+        <v>0.22561</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.202845</v>
+        <v>0.203138</v>
       </c>
       <c r="C47" t="n">
-        <v>0.21982</v>
+        <v>0.219567</v>
       </c>
       <c r="D47" t="n">
-        <v>0.224554</v>
+        <v>0.224866</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.196691</v>
+        <v>0.196897</v>
       </c>
       <c r="C48" t="n">
-        <v>0.218949</v>
+        <v>0.218689</v>
       </c>
       <c r="D48" t="n">
-        <v>0.223812</v>
+        <v>0.223858</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.190273</v>
+        <v>0.190116</v>
       </c>
       <c r="C49" t="n">
-        <v>0.218321</v>
+        <v>0.217913</v>
       </c>
       <c r="D49" t="n">
-        <v>0.223334</v>
+        <v>0.223299</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.183032</v>
+        <v>0.182773</v>
       </c>
       <c r="C50" t="n">
-        <v>0.217551</v>
+        <v>0.217385</v>
       </c>
       <c r="D50" t="n">
-        <v>0.222643</v>
+        <v>0.222612</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.17415</v>
+        <v>0.173818</v>
       </c>
       <c r="C51" t="n">
-        <v>0.216728</v>
+        <v>0.216388</v>
       </c>
       <c r="D51" t="n">
-        <v>0.236868</v>
+        <v>0.236494</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.16353</v>
+        <v>0.163279</v>
       </c>
       <c r="C52" t="n">
-        <v>0.216597</v>
+        <v>0.215903</v>
       </c>
       <c r="D52" t="n">
-        <v>0.235254</v>
+        <v>0.23511</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.246246</v>
+        <v>0.246161</v>
       </c>
       <c r="C53" t="n">
-        <v>0.22894</v>
+        <v>0.228947</v>
       </c>
       <c r="D53" t="n">
-        <v>0.233679</v>
+        <v>0.23384</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.242053</v>
+        <v>0.241902</v>
       </c>
       <c r="C54" t="n">
-        <v>0.227619</v>
+        <v>0.227591</v>
       </c>
       <c r="D54" t="n">
-        <v>0.232369</v>
+        <v>0.232727</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.238675</v>
+        <v>0.238732</v>
       </c>
       <c r="C55" t="n">
-        <v>0.226414</v>
+        <v>0.226355</v>
       </c>
       <c r="D55" t="n">
-        <v>0.231072</v>
+        <v>0.231453</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.234034</v>
+        <v>0.234002</v>
       </c>
       <c r="C56" t="n">
-        <v>0.225201</v>
+        <v>0.225213</v>
       </c>
       <c r="D56" t="n">
-        <v>0.230266</v>
+        <v>0.230367</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.228787</v>
+        <v>0.22862</v>
       </c>
       <c r="C57" t="n">
-        <v>0.224207</v>
+        <v>0.224202</v>
       </c>
       <c r="D57" t="n">
-        <v>0.229066</v>
+        <v>0.229452</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.223522</v>
+        <v>0.223003</v>
       </c>
       <c r="C58" t="n">
-        <v>0.223282</v>
+        <v>0.22316</v>
       </c>
       <c r="D58" t="n">
-        <v>0.22788</v>
+        <v>0.228162</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.217852</v>
+        <v>0.217478</v>
       </c>
       <c r="C59" t="n">
-        <v>0.222101</v>
+        <v>0.22212</v>
       </c>
       <c r="D59" t="n">
-        <v>0.227207</v>
+        <v>0.227153</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.212021</v>
+        <v>0.211794</v>
       </c>
       <c r="C60" t="n">
-        <v>0.221177</v>
+        <v>0.221081</v>
       </c>
       <c r="D60" t="n">
-        <v>0.226167</v>
+        <v>0.226268</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.206198</v>
+        <v>0.206004</v>
       </c>
       <c r="C61" t="n">
-        <v>0.220489</v>
+        <v>0.220224</v>
       </c>
       <c r="D61" t="n">
-        <v>0.225351</v>
+        <v>0.225412</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.199755</v>
+        <v>0.199676</v>
       </c>
       <c r="C62" t="n">
-        <v>0.219499</v>
+        <v>0.219181</v>
       </c>
       <c r="D62" t="n">
-        <v>0.224608</v>
+        <v>0.22454</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.192779</v>
+        <v>0.192676</v>
       </c>
       <c r="C63" t="n">
-        <v>0.218908</v>
+        <v>0.218413</v>
       </c>
       <c r="D63" t="n">
-        <v>0.223837</v>
+        <v>0.223764</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.185267</v>
+        <v>0.18514</v>
       </c>
       <c r="C64" t="n">
-        <v>0.218118</v>
+        <v>0.217718</v>
       </c>
       <c r="D64" t="n">
-        <v>0.222898</v>
+        <v>0.223004</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177073</v>
+        <v>0.176852</v>
       </c>
       <c r="C65" t="n">
-        <v>0.21743</v>
+        <v>0.21701</v>
       </c>
       <c r="D65" t="n">
-        <v>0.222216</v>
+        <v>0.222251</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.167237</v>
+        <v>0.167051</v>
       </c>
       <c r="C66" t="n">
-        <v>0.216997</v>
+        <v>0.215925</v>
       </c>
       <c r="D66" t="n">
-        <v>0.236075</v>
+        <v>0.236094</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.248455</v>
+        <v>0.248152</v>
       </c>
       <c r="C67" t="n">
-        <v>0.233012</v>
+        <v>0.234035</v>
       </c>
       <c r="D67" t="n">
-        <v>0.234535</v>
+        <v>0.234569</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.244217</v>
+        <v>0.244106</v>
       </c>
       <c r="C68" t="n">
-        <v>0.231107</v>
+        <v>0.231661</v>
       </c>
       <c r="D68" t="n">
-        <v>0.23311</v>
+        <v>0.233322</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.239988</v>
+        <v>0.239818</v>
       </c>
       <c r="C69" t="n">
-        <v>0.229165</v>
+        <v>0.22951</v>
       </c>
       <c r="D69" t="n">
-        <v>0.231898</v>
+        <v>0.232042</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.235212</v>
+        <v>0.23486</v>
       </c>
       <c r="C70" t="n">
-        <v>0.227542</v>
+        <v>0.227651</v>
       </c>
       <c r="D70" t="n">
-        <v>0.23068</v>
+        <v>0.230869</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.229994</v>
+        <v>0.229559</v>
       </c>
       <c r="C71" t="n">
-        <v>0.225669</v>
+        <v>0.225922</v>
       </c>
       <c r="D71" t="n">
-        <v>0.229831</v>
+        <v>0.229854</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.224869</v>
+        <v>0.224451</v>
       </c>
       <c r="C72" t="n">
-        <v>0.224241</v>
+        <v>0.224135</v>
       </c>
       <c r="D72" t="n">
-        <v>0.228623</v>
+        <v>0.228564</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.21941</v>
+        <v>0.219058</v>
       </c>
       <c r="C73" t="n">
-        <v>0.222859</v>
+        <v>0.222771</v>
       </c>
       <c r="D73" t="n">
-        <v>0.227558</v>
+        <v>0.22771</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.213712</v>
+        <v>0.213515</v>
       </c>
       <c r="C74" t="n">
-        <v>0.221934</v>
+        <v>0.221943</v>
       </c>
       <c r="D74" t="n">
-        <v>0.226542</v>
+        <v>0.226788</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.207718</v>
+        <v>0.207495</v>
       </c>
       <c r="C75" t="n">
-        <v>0.221166</v>
+        <v>0.22087</v>
       </c>
       <c r="D75" t="n">
-        <v>0.225677</v>
+        <v>0.225878</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.20148</v>
+        <v>0.20115</v>
       </c>
       <c r="C76" t="n">
-        <v>0.220238</v>
+        <v>0.219984</v>
       </c>
       <c r="D76" t="n">
-        <v>0.224848</v>
+        <v>0.22507</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.195071</v>
+        <v>0.195135</v>
       </c>
       <c r="C77" t="n">
-        <v>0.219349</v>
+        <v>0.219088</v>
       </c>
       <c r="D77" t="n">
-        <v>0.224042</v>
+        <v>0.224232</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.187676</v>
+        <v>0.187566</v>
       </c>
       <c r="C78" t="n">
-        <v>0.218642</v>
+        <v>0.218252</v>
       </c>
       <c r="D78" t="n">
-        <v>0.22314</v>
+        <v>0.223403</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179424</v>
+        <v>0.179246</v>
       </c>
       <c r="C79" t="n">
-        <v>0.217892</v>
+        <v>0.217246</v>
       </c>
       <c r="D79" t="n">
-        <v>0.222519</v>
+        <v>0.222724</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.170545</v>
+        <v>0.169749</v>
       </c>
       <c r="C80" t="n">
-        <v>0.217019</v>
+        <v>0.216477</v>
       </c>
       <c r="D80" t="n">
-        <v>0.239151</v>
+        <v>0.239464</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.249096</v>
+        <v>0.249094</v>
       </c>
       <c r="C81" t="n">
-        <v>0.239779</v>
+        <v>0.239145</v>
       </c>
       <c r="D81" t="n">
-        <v>0.236475</v>
+        <v>0.236773</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.245561</v>
+        <v>0.245477</v>
       </c>
       <c r="C82" t="n">
-        <v>0.234518</v>
+        <v>0.234586</v>
       </c>
       <c r="D82" t="n">
-        <v>0.234683</v>
+        <v>0.234918</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.241564</v>
+        <v>0.241525</v>
       </c>
       <c r="C83" t="n">
-        <v>0.229821</v>
+        <v>0.230155</v>
       </c>
       <c r="D83" t="n">
-        <v>0.23335</v>
+        <v>0.233455</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.236665</v>
+        <v>0.23675</v>
       </c>
       <c r="C84" t="n">
-        <v>0.227516</v>
+        <v>0.227867</v>
       </c>
       <c r="D84" t="n">
-        <v>0.231832</v>
+        <v>0.232031</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.231642</v>
+        <v>0.231587</v>
       </c>
       <c r="C85" t="n">
-        <v>0.225985</v>
+        <v>0.226074</v>
       </c>
       <c r="D85" t="n">
-        <v>0.230764</v>
+        <v>0.230464</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.226141</v>
+        <v>0.226311</v>
       </c>
       <c r="C86" t="n">
-        <v>0.224734</v>
+        <v>0.224663</v>
       </c>
       <c r="D86" t="n">
-        <v>0.229541</v>
+        <v>0.229511</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.22055</v>
+        <v>0.220443</v>
       </c>
       <c r="C87" t="n">
-        <v>0.223746</v>
+        <v>0.223528</v>
       </c>
       <c r="D87" t="n">
-        <v>0.228348</v>
+        <v>0.228295</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.214817</v>
+        <v>0.214711</v>
       </c>
       <c r="C88" t="n">
-        <v>0.222538</v>
+        <v>0.222503</v>
       </c>
       <c r="D88" t="n">
-        <v>0.227359</v>
+        <v>0.227179</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.208968</v>
+        <v>0.208976</v>
       </c>
       <c r="C89" t="n">
-        <v>0.221497</v>
+        <v>0.221407</v>
       </c>
       <c r="D89" t="n">
-        <v>0.226434</v>
+        <v>0.22624</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.202976</v>
+        <v>0.202741</v>
       </c>
       <c r="C90" t="n">
-        <v>0.220548</v>
+        <v>0.220409</v>
       </c>
       <c r="D90" t="n">
-        <v>0.225518</v>
+        <v>0.225371</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.196325</v>
+        <v>0.196168</v>
       </c>
       <c r="C91" t="n">
-        <v>0.219649</v>
+        <v>0.219465</v>
       </c>
       <c r="D91" t="n">
-        <v>0.224725</v>
+        <v>0.224562</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.189292</v>
+        <v>0.189267</v>
       </c>
       <c r="C92" t="n">
-        <v>0.218793</v>
+        <v>0.218508</v>
       </c>
       <c r="D92" t="n">
-        <v>0.22391</v>
+        <v>0.22381</v>
       </c>
     </row>
     <row r="93">
@@ -4523,10 +4523,10 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.181521</v>
+        <v>0.181358</v>
       </c>
       <c r="C93" t="n">
-        <v>0.218169</v>
+        <v>0.217802</v>
       </c>
       <c r="D93" t="n">
         <v>0.223178</v>
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.172145</v>
+        <v>0.172012</v>
       </c>
       <c r="C94" t="n">
-        <v>0.217455</v>
+        <v>0.217096</v>
       </c>
       <c r="D94" t="n">
-        <v>0.239885</v>
+        <v>0.239638</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.250323</v>
+        <v>0.250002</v>
       </c>
       <c r="C95" t="n">
-        <v>0.235927</v>
+        <v>0.236003</v>
       </c>
       <c r="D95" t="n">
-        <v>0.237505</v>
+        <v>0.237004</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.247722</v>
+        <v>0.247613</v>
       </c>
       <c r="C96" t="n">
-        <v>0.232351</v>
+        <v>0.232361</v>
       </c>
       <c r="D96" t="n">
-        <v>0.235443</v>
+        <v>0.235165</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.243875</v>
+        <v>0.243428</v>
       </c>
       <c r="C97" t="n">
-        <v>0.229745</v>
+        <v>0.229747</v>
       </c>
       <c r="D97" t="n">
-        <v>0.234329</v>
+        <v>0.234169</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.239161</v>
+        <v>0.238979</v>
       </c>
       <c r="C98" t="n">
-        <v>0.227722</v>
+        <v>0.22769</v>
       </c>
       <c r="D98" t="n">
-        <v>0.232727</v>
+        <v>0.23282</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.234091</v>
+        <v>0.234177</v>
       </c>
       <c r="C99" t="n">
-        <v>0.22615</v>
+        <v>0.226282</v>
       </c>
       <c r="D99" t="n">
-        <v>0.231385</v>
+        <v>0.231526</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.22877</v>
+        <v>0.229013</v>
       </c>
       <c r="C100" t="n">
-        <v>0.225072</v>
+        <v>0.225023</v>
       </c>
       <c r="D100" t="n">
-        <v>0.23012</v>
+        <v>0.229993</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.223216</v>
+        <v>0.223233</v>
       </c>
       <c r="C101" t="n">
-        <v>0.223781</v>
+        <v>0.223776</v>
       </c>
       <c r="D101" t="n">
-        <v>0.229028</v>
+        <v>0.228973</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.21759</v>
+        <v>0.217358</v>
       </c>
       <c r="C102" t="n">
-        <v>0.222709</v>
+        <v>0.222626</v>
       </c>
       <c r="D102" t="n">
-        <v>0.227959</v>
+        <v>0.227859</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.2117</v>
+        <v>0.211414</v>
       </c>
       <c r="C103" t="n">
-        <v>0.221725</v>
+        <v>0.22158</v>
       </c>
       <c r="D103" t="n">
-        <v>0.227065</v>
+        <v>0.226973</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.205467</v>
+        <v>0.205235</v>
       </c>
       <c r="C104" t="n">
-        <v>0.220809</v>
+        <v>0.220668</v>
       </c>
       <c r="D104" t="n">
-        <v>0.226451</v>
+        <v>0.22633</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.19888</v>
+        <v>0.198609</v>
       </c>
       <c r="C105" t="n">
-        <v>0.21995</v>
+        <v>0.219762</v>
       </c>
       <c r="D105" t="n">
-        <v>0.225662</v>
+        <v>0.225479</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.191926</v>
+        <v>0.191575</v>
       </c>
       <c r="C106" t="n">
-        <v>0.21918</v>
+        <v>0.218903</v>
       </c>
       <c r="D106" t="n">
-        <v>0.224863</v>
+        <v>0.224679</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183674</v>
+        <v>0.183328</v>
       </c>
       <c r="C107" t="n">
-        <v>0.218351</v>
+        <v>0.218102</v>
       </c>
       <c r="D107" t="n">
-        <v>0.223995</v>
+        <v>0.223789</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.174501</v>
+        <v>0.174364</v>
       </c>
       <c r="C108" t="n">
-        <v>0.217687</v>
+        <v>0.217263</v>
       </c>
       <c r="D108" t="n">
-        <v>0.239523</v>
+        <v>0.239367</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.16348</v>
+        <v>0.163456</v>
       </c>
       <c r="C109" t="n">
-        <v>0.217019</v>
+        <v>0.216463</v>
       </c>
       <c r="D109" t="n">
-        <v>0.237255</v>
+        <v>0.237047</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.248753</v>
+        <v>0.248841</v>
       </c>
       <c r="C110" t="n">
-        <v>0.232759</v>
+        <v>0.233385</v>
       </c>
       <c r="D110" t="n">
-        <v>0.235353</v>
+        <v>0.235146</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.244735</v>
+        <v>0.245017</v>
       </c>
       <c r="C111" t="n">
-        <v>0.229929</v>
+        <v>0.230432</v>
       </c>
       <c r="D111" t="n">
-        <v>0.233649</v>
+        <v>0.233461</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.240395</v>
+        <v>0.240649</v>
       </c>
       <c r="C112" t="n">
-        <v>0.227823</v>
+        <v>0.227956</v>
       </c>
       <c r="D112" t="n">
-        <v>0.23231</v>
+        <v>0.232035</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.235358</v>
+        <v>0.235604</v>
       </c>
       <c r="C113" t="n">
-        <v>0.226302</v>
+        <v>0.226328</v>
       </c>
       <c r="D113" t="n">
-        <v>0.231006</v>
+        <v>0.230772</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.23022</v>
+        <v>0.230258</v>
       </c>
       <c r="C114" t="n">
-        <v>0.224993</v>
+        <v>0.224921</v>
       </c>
       <c r="D114" t="n">
-        <v>0.229769</v>
+        <v>0.229591</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.22453</v>
+        <v>0.224601</v>
       </c>
       <c r="C115" t="n">
-        <v>0.223815</v>
+        <v>0.223735</v>
       </c>
       <c r="D115" t="n">
-        <v>0.22874</v>
+        <v>0.228486</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.218757</v>
+        <v>0.218751</v>
       </c>
       <c r="C116" t="n">
-        <v>0.222847</v>
+        <v>0.222914</v>
       </c>
       <c r="D116" t="n">
-        <v>0.22771</v>
+        <v>0.227518</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.21284</v>
+        <v>0.212763</v>
       </c>
       <c r="C117" t="n">
-        <v>0.222207</v>
+        <v>0.221986</v>
       </c>
       <c r="D117" t="n">
-        <v>0.227238</v>
+        <v>0.226922</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.206601</v>
+        <v>0.206473</v>
       </c>
       <c r="C118" t="n">
-        <v>0.221292</v>
+        <v>0.221055</v>
       </c>
       <c r="D118" t="n">
-        <v>0.226474</v>
+        <v>0.226155</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.200164</v>
+        <v>0.199332</v>
       </c>
       <c r="C119" t="n">
-        <v>0.220446</v>
+        <v>0.220185</v>
       </c>
       <c r="D119" t="n">
-        <v>0.225544</v>
+        <v>0.225229</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.193223</v>
+        <v>0.192407</v>
       </c>
       <c r="C120" t="n">
-        <v>0.21961</v>
+        <v>0.219316</v>
       </c>
       <c r="D120" t="n">
-        <v>0.224707</v>
+        <v>0.224513</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.185273</v>
+        <v>0.184909</v>
       </c>
       <c r="C121" t="n">
-        <v>0.218887</v>
+        <v>0.218524</v>
       </c>
       <c r="D121" t="n">
-        <v>0.223889</v>
+        <v>0.223763</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.176434</v>
+        <v>0.176324</v>
       </c>
       <c r="C122" t="n">
-        <v>0.218081</v>
+        <v>0.217676</v>
       </c>
       <c r="D122" t="n">
-        <v>0.223162</v>
+        <v>0.223091</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.166021</v>
+        <v>0.165701</v>
       </c>
       <c r="C123" t="n">
-        <v>0.217325</v>
+        <v>0.216865</v>
       </c>
       <c r="D123" t="n">
-        <v>0.237412</v>
+        <v>0.237151</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.24843</v>
+        <v>0.248068</v>
       </c>
       <c r="C124" t="n">
-        <v>0.232931</v>
+        <v>0.233379</v>
       </c>
       <c r="D124" t="n">
-        <v>0.235466</v>
+        <v>0.235166</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.24545</v>
+        <v>0.245383</v>
       </c>
       <c r="C125" t="n">
-        <v>0.230128</v>
+        <v>0.230369</v>
       </c>
       <c r="D125" t="n">
-        <v>0.233493</v>
+        <v>0.233563</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.240707</v>
+        <v>0.241058</v>
       </c>
       <c r="C126" t="n">
-        <v>0.228078</v>
+        <v>0.228318</v>
       </c>
       <c r="D126" t="n">
-        <v>0.23204</v>
+        <v>0.232113</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.236416</v>
+        <v>0.236272</v>
       </c>
       <c r="C127" t="n">
-        <v>0.226408</v>
+        <v>0.226508</v>
       </c>
       <c r="D127" t="